--- a/.ready/最新发布资源-维格视图.xlsx
+++ b/.ready/最新发布资源-维格视图.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27231"/>
-  <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47C641D4-FF19-4CFC-A571-A04C933304DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="19095" windowHeight="12075" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="23040" windowHeight="9300"/>
   </bookViews>
   <sheets>
     <sheet name="维格视图" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="630" uniqueCount="471">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="625" uniqueCount="467">
   <si>
     <t>标题</t>
   </si>
@@ -1389,18 +1388,6 @@
   </si>
   <si>
     <t>2024/02/04 23:09</t>
-  </si>
-  <si>
-    <t>XMind 2024 v24.01 中文免安装绿色特别版 (Win Mac)</t>
-  </si>
-  <si>
-    <t>https://www.alipan.com/s/BtM3yY49g1g</t>
-  </si>
-  <si>
-    <t>https://pan.quark.cn/s/8b160bfc1a88</t>
-  </si>
-  <si>
-    <t>2024/02/04 22:29</t>
   </si>
   <si>
     <t>TikTok 抖音国际版 v33.2.5 去广告解锁全部国家任意切换</t>
@@ -1433,32 +1420,368 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <family val="2"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -1466,30 +1789,316 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1811,2169 +2420,2152 @@
       </a:style>
     </a:lnDef>
   </a:objectDefaults>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E126"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:E125"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A115" workbookViewId="0">
-      <selection activeCell="A130" sqref="A130"/>
+    <sheetView tabSelected="1" topLeftCell="A111" workbookViewId="0">
+      <selection activeCell="D122" sqref="D122"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="38.6640625" defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="38.6666666666667" defaultRowHeight="14.4" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" width="38.6640625" style="2"/>
-    <col min="2" max="16384" width="38.6640625" style="1"/>
+    <col min="1" max="1" width="38.6666666666667" style="1"/>
+    <col min="2" max="16384" width="38.6666666666667" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:5">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
+    <row r="2" spans="1:5">
+      <c r="A2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E2" s="1" t="s">
+      <c r="D2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" s="2" t="s">
+    <row r="3" spans="1:5">
+      <c r="A3" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C3" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D3" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E3" s="1" t="s">
+      <c r="D3" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" s="2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4" s="2" t="s">
+    <row r="4" spans="1:5">
+      <c r="A4" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="C4" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D4" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E4" s="1" t="s">
+      <c r="D4" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4" s="2" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5" s="2" t="s">
+    <row r="5" spans="1:5">
+      <c r="A5" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B5" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="C5" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="D5" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E5" s="1" t="s">
+      <c r="D5" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E5" s="2" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A6" s="2" t="s">
+    <row r="6" spans="1:5">
+      <c r="A6" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B6" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="C6" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="D6" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E6" s="1" t="s">
+      <c r="D6" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E6" s="2" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A7" s="2" t="s">
+    <row r="7" spans="1:5">
+      <c r="A7" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="B7" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="C7" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="D7" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E7" s="1" t="s">
+      <c r="D7" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E7" s="2" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A8" s="2" t="s">
+    <row r="8" ht="28.8" spans="1:5">
+      <c r="A8" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="B8" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="C8" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="D8" s="1" t="s">
+      <c r="D8" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="E8" s="1" t="s">
+      <c r="E8" s="2" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A9" s="2" t="s">
+    <row r="9" spans="1:5">
+      <c r="A9" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="B9" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="C9" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="D9" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E9" s="1" t="s">
+      <c r="D9" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E9" s="2" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="27" x14ac:dyDescent="0.3">
-      <c r="A10" s="2" t="s">
+    <row r="10" ht="28.8" spans="1:5">
+      <c r="A10" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="B10" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="C10" s="1" t="s">
+      <c r="C10" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="D10" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E10" s="1" t="s">
+      <c r="D10" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E10" s="2" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A11" s="2" t="s">
+    <row r="11" spans="1:5">
+      <c r="A11" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="B11" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="C11" s="1" t="s">
+      <c r="C11" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="D11" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E11" s="1" t="s">
+      <c r="D11" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E11" s="2" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A12" s="2" t="s">
+    <row r="12" spans="1:5">
+      <c r="A12" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="B12" s="1" t="s">
+      <c r="B12" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="C12" s="1" t="s">
+      <c r="C12" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="D12" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E12" s="1" t="s">
+      <c r="D12" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E12" s="2" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="27" x14ac:dyDescent="0.3">
-      <c r="A13" s="2" t="s">
+    <row r="13" ht="28.8" spans="1:5">
+      <c r="A13" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="B13" s="1" t="s">
+      <c r="B13" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="C13" s="1" t="s">
+      <c r="C13" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="D13" s="1" t="s">
+      <c r="D13" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="E13" s="1" t="s">
+      <c r="E13" s="2" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A14" s="2" t="s">
+    <row r="14" spans="1:5">
+      <c r="A14" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="B14" s="1" t="s">
+      <c r="B14" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="C14" s="1" t="s">
+      <c r="C14" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="D14" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E14" s="1" t="s">
+      <c r="D14" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E14" s="2" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A15" s="2" t="s">
+    <row r="15" spans="1:5">
+      <c r="A15" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="B15" s="1" t="s">
+      <c r="B15" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="C15" s="1" t="s">
+      <c r="C15" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="D15" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E15" s="1" t="s">
+      <c r="D15" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E15" s="2" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A16" s="2" t="s">
+    <row r="16" spans="1:5">
+      <c r="A16" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="B16" s="1" t="s">
+      <c r="B16" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="C16" s="1" t="s">
+      <c r="C16" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="D16" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E16" s="1" t="s">
+      <c r="D16" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E16" s="2" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="27" x14ac:dyDescent="0.3">
-      <c r="A17" s="2" t="s">
+    <row r="17" ht="28.8" spans="1:5">
+      <c r="A17" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="B17" s="1" t="s">
+      <c r="B17" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="C17" s="1" t="s">
+      <c r="C17" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="D17" s="1" t="s">
+      <c r="D17" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="E17" s="1" t="s">
+      <c r="E17" s="2" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="27" x14ac:dyDescent="0.3">
-      <c r="A18" s="2" t="s">
+    <row r="18" ht="28.8" spans="1:5">
+      <c r="A18" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="B18" s="1" t="s">
+      <c r="B18" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="C18" s="1" t="s">
+      <c r="C18" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="D18" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E18" s="1" t="s">
+      <c r="D18" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E18" s="2" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A19" s="2" t="s">
+    <row r="19" spans="1:5">
+      <c r="A19" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="B19" s="1" t="s">
+      <c r="B19" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="C19" s="1" t="s">
+      <c r="C19" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="D19" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E19" s="1" t="s">
+      <c r="D19" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E19" s="2" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A20" s="2" t="s">
+    <row r="20" spans="1:5">
+      <c r="A20" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="B20" s="1" t="s">
+      <c r="B20" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="C20" s="1" t="s">
+      <c r="C20" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="D20" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E20" s="1" t="s">
+      <c r="D20" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E20" s="2" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A21" s="2" t="s">
+    <row r="21" spans="1:5">
+      <c r="A21" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="B21" s="1" t="s">
+      <c r="B21" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="C21" s="1" t="s">
+      <c r="C21" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="D21" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E21" s="1" t="s">
+      <c r="D21" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E21" s="2" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A22" s="2" t="s">
+    <row r="22" ht="28.8" spans="1:5">
+      <c r="A22" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="B22" s="1" t="s">
+      <c r="B22" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="C22" s="1" t="s">
+      <c r="C22" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="D22" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E22" s="1" t="s">
+      <c r="D22" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E22" s="2" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A23" s="2" t="s">
+    <row r="23" spans="1:5">
+      <c r="A23" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="B23" s="1" t="s">
+      <c r="B23" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="C23" s="1" t="s">
+      <c r="C23" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="D23" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E23" s="1" t="s">
+      <c r="D23" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E23" s="2" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="24" spans="1:5" ht="27" x14ac:dyDescent="0.3">
-      <c r="A24" s="2" t="s">
+    <row r="24" ht="28.8" spans="1:5">
+      <c r="A24" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="B24" s="1" t="s">
+      <c r="B24" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="C24" s="1" t="s">
+      <c r="C24" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="D24" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E24" s="1" t="s">
+      <c r="D24" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E24" s="2" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A25" s="2" t="s">
+    <row r="25" spans="1:5">
+      <c r="A25" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="B25" s="1" t="s">
+      <c r="B25" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="C25" s="1" t="s">
+      <c r="C25" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="D25" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E25" s="1" t="s">
+      <c r="D25" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E25" s="2" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="26" spans="1:5" ht="27" x14ac:dyDescent="0.3">
-      <c r="A26" s="2" t="s">
+    <row r="26" ht="28.8" spans="1:5">
+      <c r="A26" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="B26" s="1" t="s">
+      <c r="B26" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="C26" s="1" t="s">
+      <c r="C26" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="D26" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E26" s="1" t="s">
+      <c r="D26" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E26" s="2" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="27" spans="1:5" ht="27" x14ac:dyDescent="0.3">
-      <c r="A27" s="2" t="s">
+    <row r="27" ht="28.8" spans="1:5">
+      <c r="A27" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="B27" s="1" t="s">
+      <c r="B27" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="C27" s="1" t="s">
+      <c r="C27" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="D27" s="1" t="s">
+      <c r="D27" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="E27" s="1" t="s">
+      <c r="E27" s="2" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A28" s="2" t="s">
+    <row r="28" spans="1:5">
+      <c r="A28" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="B28" s="1" t="s">
+      <c r="B28" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="C28" s="1" t="s">
+      <c r="C28" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="D28" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E28" s="1" t="s">
+      <c r="D28" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E28" s="2" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A29" s="2" t="s">
+    <row r="29" spans="1:5">
+      <c r="A29" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="B29" s="1" t="s">
+      <c r="B29" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="C29" s="1" t="s">
+      <c r="C29" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="D29" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E29" s="1" t="s">
+      <c r="D29" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E29" s="2" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A30" s="2" t="s">
+    <row r="30" spans="1:5">
+      <c r="A30" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="B30" s="1" t="s">
+      <c r="B30" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="C30" s="1" t="s">
+      <c r="C30" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="D30" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E30" s="1" t="s">
+      <c r="D30" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E30" s="2" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A31" s="2" t="s">
+    <row r="31" spans="1:5">
+      <c r="A31" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="B31" s="1" t="s">
+      <c r="B31" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="C31" s="1" t="s">
+      <c r="C31" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="D31" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E31" s="1" t="s">
+      <c r="D31" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E31" s="2" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A32" s="2" t="s">
+    <row r="32" spans="1:5">
+      <c r="A32" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="B32" s="1" t="s">
+      <c r="B32" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="C32" s="1" t="s">
+      <c r="C32" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="D32" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E32" s="1" t="s">
+      <c r="D32" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E32" s="2" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A33" s="2" t="s">
+    <row r="33" spans="1:5">
+      <c r="A33" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="B33" s="1" t="s">
+      <c r="B33" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="C33" s="1" t="s">
+      <c r="C33" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="D33" s="1" t="s">
+      <c r="D33" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="E33" s="1" t="s">
+      <c r="E33" s="2" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A34" s="2" t="s">
+    <row r="34" spans="1:5">
+      <c r="A34" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="B34" s="1" t="s">
+      <c r="B34" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="C34" s="1" t="s">
+      <c r="C34" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="D34" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E34" s="1" t="s">
+      <c r="D34" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E34" s="2" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A35" s="2" t="s">
+    <row r="35" spans="1:5">
+      <c r="A35" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="B35" s="1" t="s">
+      <c r="B35" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="C35" s="1" t="s">
+      <c r="C35" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="D35" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E35" s="1" t="s">
+      <c r="D35" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E35" s="2" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A36" s="2" t="s">
+    <row r="36" spans="1:5">
+      <c r="A36" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="B36" s="1" t="s">
+      <c r="B36" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="C36" s="1" t="s">
+      <c r="C36" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="D36" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E36" s="1" t="s">
+      <c r="D36" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E36" s="2" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="37" spans="1:5" ht="27" x14ac:dyDescent="0.3">
-      <c r="A37" s="2" t="s">
+    <row r="37" ht="28.8" spans="1:5">
+      <c r="A37" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="B37" s="1" t="s">
+      <c r="B37" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="C37" s="1" t="s">
+      <c r="C37" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="D37" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E37" s="1" t="s">
+      <c r="D37" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E37" s="2" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A38" s="2" t="s">
+    <row r="38" spans="1:5">
+      <c r="A38" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="B38" s="1" t="s">
+      <c r="B38" s="2" t="s">
         <v>149</v>
       </c>
-      <c r="C38" s="1" t="s">
+      <c r="C38" s="2" t="s">
         <v>150</v>
       </c>
-      <c r="D38" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E38" s="1" t="s">
+      <c r="D38" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E38" s="2" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="39" spans="1:5" ht="27" x14ac:dyDescent="0.3">
-      <c r="A39" s="2" t="s">
+    <row r="39" ht="28.8" spans="1:5">
+      <c r="A39" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="B39" s="1" t="s">
+      <c r="B39" s="2" t="s">
         <v>153</v>
       </c>
-      <c r="C39" s="1" t="s">
+      <c r="C39" s="2" t="s">
         <v>154</v>
       </c>
-      <c r="D39" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E39" s="1" t="s">
+      <c r="D39" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E39" s="2" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A40" s="2" t="s">
+    <row r="40" spans="1:5">
+      <c r="A40" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="B40" s="1" t="s">
+      <c r="B40" s="2" t="s">
         <v>157</v>
       </c>
-      <c r="C40" s="1" t="s">
+      <c r="C40" s="2" t="s">
         <v>158</v>
       </c>
-      <c r="D40" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E40" s="1" t="s">
+      <c r="D40" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E40" s="2" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A41" s="2" t="s">
+    <row r="41" spans="1:5">
+      <c r="A41" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="B41" s="1" t="s">
+      <c r="B41" s="2" t="s">
         <v>161</v>
       </c>
-      <c r="C41" s="1" t="s">
+      <c r="C41" s="2" t="s">
         <v>162</v>
       </c>
-      <c r="D41" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E41" s="1" t="s">
+      <c r="D41" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E41" s="2" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="42" spans="1:5" ht="27" x14ac:dyDescent="0.3">
-      <c r="A42" s="2" t="s">
+    <row r="42" ht="28.8" spans="1:5">
+      <c r="A42" s="1" t="s">
         <v>164</v>
       </c>
-      <c r="B42" s="1" t="s">
+      <c r="B42" s="2" t="s">
         <v>165</v>
       </c>
-      <c r="C42" s="1" t="s">
+      <c r="C42" s="2" t="s">
         <v>166</v>
       </c>
-      <c r="D42" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E42" s="1" t="s">
+      <c r="D42" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E42" s="2" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A43" s="2" t="s">
+    <row r="43" spans="1:5">
+      <c r="A43" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="B43" s="1" t="s">
+      <c r="B43" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="C43" s="1" t="s">
+      <c r="C43" s="2" t="s">
         <v>169</v>
       </c>
-      <c r="D43" s="1" t="s">
+      <c r="D43" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="E43" s="1" t="s">
+      <c r="E43" s="2" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="44" spans="1:5" ht="27" x14ac:dyDescent="0.3">
-      <c r="A44" s="2" t="s">
+    <row r="44" ht="28.8" spans="1:5">
+      <c r="A44" s="1" t="s">
         <v>171</v>
       </c>
-      <c r="B44" s="1" t="s">
+      <c r="B44" s="2" t="s">
         <v>172</v>
       </c>
-      <c r="C44" s="1" t="s">
+      <c r="C44" s="2" t="s">
         <v>173</v>
       </c>
-      <c r="D44" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E44" s="1" t="s">
+      <c r="D44" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E44" s="2" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="45" spans="1:5" ht="27" x14ac:dyDescent="0.3">
-      <c r="A45" s="2" t="s">
+    <row r="45" ht="28.8" spans="1:5">
+      <c r="A45" s="1" t="s">
         <v>174</v>
       </c>
-      <c r="B45" s="1" t="s">
+      <c r="B45" s="2" t="s">
         <v>175</v>
       </c>
-      <c r="C45" s="1" t="s">
+      <c r="C45" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="D45" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E45" s="1" t="s">
+      <c r="D45" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E45" s="2" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="46" spans="1:5" ht="27" x14ac:dyDescent="0.3">
-      <c r="A46" s="2" t="s">
+    <row r="46" ht="28.8" spans="1:5">
+      <c r="A46" s="1" t="s">
         <v>178</v>
       </c>
-      <c r="B46" s="1" t="s">
+      <c r="B46" s="2" t="s">
         <v>179</v>
       </c>
-      <c r="C46" s="1" t="s">
+      <c r="C46" s="2" t="s">
         <v>180</v>
       </c>
-      <c r="D46" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E46" s="1" t="s">
+      <c r="D46" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E46" s="2" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="47" spans="1:5" ht="27" x14ac:dyDescent="0.3">
-      <c r="A47" s="2" t="s">
+    <row r="47" ht="28.8" spans="1:5">
+      <c r="A47" s="1" t="s">
         <v>182</v>
       </c>
-      <c r="B47" s="1" t="s">
+      <c r="B47" s="2" t="s">
         <v>183</v>
       </c>
-      <c r="C47" s="1" t="s">
+      <c r="C47" s="2" t="s">
         <v>184</v>
       </c>
-      <c r="D47" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E47" s="1" t="s">
+      <c r="D47" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E47" s="2" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A48" s="2" t="s">
+    <row r="48" spans="1:5">
+      <c r="A48" s="1" t="s">
         <v>186</v>
       </c>
-      <c r="B48" s="1" t="s">
+      <c r="B48" s="2" t="s">
         <v>187</v>
       </c>
-      <c r="C48" s="1" t="s">
+      <c r="C48" s="2" t="s">
         <v>188</v>
       </c>
-      <c r="D48" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E48" s="1" t="s">
+      <c r="D48" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E48" s="2" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A49" s="2" t="s">
+    <row r="49" spans="1:5">
+      <c r="A49" s="1" t="s">
         <v>190</v>
       </c>
-      <c r="B49" s="1" t="s">
+      <c r="B49" s="2" t="s">
         <v>191</v>
       </c>
-      <c r="C49" s="1" t="s">
+      <c r="C49" s="2" t="s">
         <v>192</v>
       </c>
-      <c r="D49" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E49" s="1" t="s">
+      <c r="D49" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E49" s="2" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="50" spans="1:5" ht="27" x14ac:dyDescent="0.3">
-      <c r="A50" s="2" t="s">
+    <row r="50" ht="28.8" spans="1:5">
+      <c r="A50" s="1" t="s">
         <v>194</v>
       </c>
-      <c r="B50" s="1" t="s">
+      <c r="B50" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="C50" s="1" t="s">
+      <c r="C50" s="2" t="s">
         <v>195</v>
       </c>
-      <c r="D50" s="1" t="s">
+      <c r="D50" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="E50" s="1" t="s">
+      <c r="E50" s="2" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="51" spans="1:5" ht="27" x14ac:dyDescent="0.3">
-      <c r="A51" s="2" t="s">
+    <row r="51" ht="28.8" spans="1:5">
+      <c r="A51" s="1" t="s">
         <v>197</v>
       </c>
-      <c r="B51" s="1" t="s">
+      <c r="B51" s="2" t="s">
         <v>198</v>
       </c>
-      <c r="C51" s="1" t="s">
+      <c r="C51" s="2" t="s">
         <v>199</v>
       </c>
-      <c r="D51" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E51" s="1" t="s">
+      <c r="D51" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E51" s="2" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A52" s="2" t="s">
+    <row r="52" spans="1:5">
+      <c r="A52" s="1" t="s">
         <v>201</v>
       </c>
-      <c r="B52" s="1" t="s">
+      <c r="B52" s="2" t="s">
         <v>202</v>
       </c>
-      <c r="C52" s="1" t="s">
+      <c r="C52" s="2" t="s">
         <v>203</v>
       </c>
-      <c r="D52" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E52" s="1" t="s">
+      <c r="D52" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E52" s="2" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="53" spans="1:5" ht="27" x14ac:dyDescent="0.3">
-      <c r="A53" s="2" t="s">
+    <row r="53" ht="28.8" spans="1:5">
+      <c r="A53" s="1" t="s">
         <v>205</v>
       </c>
-      <c r="B53" s="1" t="s">
+      <c r="B53" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="C53" s="1" t="s">
+      <c r="C53" s="2" t="s">
         <v>206</v>
       </c>
-      <c r="D53" s="1" t="s">
+      <c r="D53" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="E53" s="1" t="s">
+      <c r="E53" s="2" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A54" s="2" t="s">
+    <row r="54" ht="28.8" spans="1:5">
+      <c r="A54" s="1" t="s">
         <v>208</v>
       </c>
-      <c r="B54" s="1" t="s">
+      <c r="B54" s="2" t="s">
         <v>209</v>
       </c>
-      <c r="C54" s="1" t="s">
+      <c r="C54" s="2" t="s">
         <v>210</v>
       </c>
-      <c r="D54" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E54" s="1" t="s">
+      <c r="D54" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E54" s="2" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A55" s="2" t="s">
+    <row r="55" ht="28.8" spans="1:5">
+      <c r="A55" s="1" t="s">
         <v>212</v>
       </c>
-      <c r="B55" s="1" t="s">
+      <c r="B55" s="2" t="s">
         <v>213</v>
       </c>
-      <c r="C55" s="1" t="s">
+      <c r="C55" s="2" t="s">
         <v>214</v>
       </c>
-      <c r="D55" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E55" s="1" t="s">
+      <c r="D55" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E55" s="2" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A56" s="2" t="s">
+    <row r="56" spans="1:5">
+      <c r="A56" s="1" t="s">
         <v>216</v>
       </c>
-      <c r="B56" s="1" t="s">
+      <c r="B56" s="2" t="s">
         <v>217</v>
       </c>
-      <c r="C56" s="1" t="s">
+      <c r="C56" s="2" t="s">
         <v>218</v>
       </c>
-      <c r="D56" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E56" s="1" t="s">
+      <c r="D56" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E56" s="2" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A57" s="2" t="s">
+    <row r="57" ht="28.8" spans="1:5">
+      <c r="A57" s="1" t="s">
         <v>220</v>
       </c>
-      <c r="B57" s="1" t="s">
+      <c r="B57" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="C57" s="1" t="s">
+      <c r="C57" s="2" t="s">
         <v>221</v>
       </c>
-      <c r="D57" s="1" t="s">
+      <c r="D57" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="E57" s="1" t="s">
+      <c r="E57" s="2" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="58" spans="1:5" ht="27" x14ac:dyDescent="0.3">
-      <c r="A58" s="2" t="s">
+    <row r="58" ht="28.8" spans="1:5">
+      <c r="A58" s="1" t="s">
         <v>223</v>
       </c>
-      <c r="B58" s="1" t="s">
+      <c r="B58" s="2" t="s">
         <v>224</v>
       </c>
-      <c r="C58" s="1" t="s">
+      <c r="C58" s="2" t="s">
         <v>225</v>
       </c>
-      <c r="D58" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E58" s="1" t="s">
+      <c r="D58" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E58" s="2" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="59" spans="1:5" ht="27" x14ac:dyDescent="0.3">
-      <c r="A59" s="2" t="s">
+    <row r="59" ht="28.8" spans="1:5">
+      <c r="A59" s="1" t="s">
         <v>227</v>
       </c>
-      <c r="B59" s="1" t="s">
+      <c r="B59" s="2" t="s">
         <v>228</v>
       </c>
-      <c r="C59" s="1" t="s">
+      <c r="C59" s="2" t="s">
         <v>229</v>
       </c>
-      <c r="D59" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E59" s="1" t="s">
+      <c r="D59" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E59" s="2" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="60" spans="1:5" ht="27" x14ac:dyDescent="0.3">
-      <c r="A60" s="2" t="s">
+    <row r="60" ht="28.8" spans="1:5">
+      <c r="A60" s="1" t="s">
         <v>231</v>
       </c>
-      <c r="B60" s="1" t="s">
+      <c r="B60" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="C60" s="1" t="s">
+      <c r="C60" s="2" t="s">
         <v>232</v>
       </c>
-      <c r="D60" s="1" t="s">
+      <c r="D60" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="E60" s="1" t="s">
+      <c r="E60" s="2" t="s">
         <v>233</v>
       </c>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A61" s="2" t="s">
+    <row r="61" spans="1:5">
+      <c r="A61" s="1" t="s">
         <v>234</v>
       </c>
-      <c r="B61" s="1" t="s">
+      <c r="B61" s="2" t="s">
         <v>235</v>
       </c>
-      <c r="C61" s="1" t="s">
+      <c r="C61" s="2" t="s">
         <v>236</v>
       </c>
-      <c r="D61" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E61" s="1" t="s">
+      <c r="D61" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E61" s="2" t="s">
         <v>237</v>
       </c>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A62" s="2" t="s">
+    <row r="62" spans="1:5">
+      <c r="A62" s="1" t="s">
         <v>238</v>
       </c>
-      <c r="B62" s="1" t="s">
+      <c r="B62" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="C62" s="1" t="s">
+      <c r="C62" s="2" t="s">
         <v>239</v>
       </c>
-      <c r="D62" s="1" t="s">
+      <c r="D62" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="E62" s="1" t="s">
+      <c r="E62" s="2" t="s">
         <v>240</v>
       </c>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A63" s="2" t="s">
+    <row r="63" spans="1:5">
+      <c r="A63" s="1" t="s">
         <v>241</v>
       </c>
-      <c r="B63" s="1" t="s">
+      <c r="B63" s="2" t="s">
         <v>242</v>
       </c>
-      <c r="C63" s="1" t="s">
+      <c r="C63" s="2" t="s">
         <v>243</v>
       </c>
-      <c r="D63" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E63" s="1" t="s">
+      <c r="D63" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E63" s="2" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A64" s="2" t="s">
+    <row r="64" spans="1:5">
+      <c r="A64" s="1" t="s">
         <v>245</v>
       </c>
-      <c r="B64" s="1" t="s">
+      <c r="B64" s="2" t="s">
         <v>246</v>
       </c>
-      <c r="C64" s="1" t="s">
+      <c r="C64" s="2" t="s">
         <v>247</v>
       </c>
-      <c r="D64" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E64" s="1" t="s">
+      <c r="D64" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E64" s="2" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="65" spans="1:5" ht="27" x14ac:dyDescent="0.3">
-      <c r="A65" s="2" t="s">
+    <row r="65" ht="43.2" spans="1:5">
+      <c r="A65" s="1" t="s">
         <v>249</v>
       </c>
-      <c r="B65" s="1" t="s">
+      <c r="B65" s="2" t="s">
         <v>250</v>
       </c>
-      <c r="C65" s="1" t="s">
+      <c r="C65" s="2" t="s">
         <v>251</v>
       </c>
-      <c r="D65" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E65" s="1" t="s">
+      <c r="D65" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E65" s="2" t="s">
         <v>252</v>
       </c>
     </row>
-    <row r="66" spans="1:5" ht="27" x14ac:dyDescent="0.3">
-      <c r="A66" s="2" t="s">
+    <row r="66" ht="28.8" spans="1:5">
+      <c r="A66" s="1" t="s">
         <v>253</v>
       </c>
-      <c r="B66" s="1" t="s">
+      <c r="B66" s="2" t="s">
         <v>254</v>
       </c>
-      <c r="C66" s="1" t="s">
+      <c r="C66" s="2" t="s">
         <v>255</v>
       </c>
-      <c r="D66" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E66" s="1" t="s">
+      <c r="D66" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E66" s="2" t="s">
         <v>256</v>
       </c>
     </row>
-    <row r="67" spans="1:5" ht="27" x14ac:dyDescent="0.3">
-      <c r="A67" s="2" t="s">
+    <row r="67" ht="28.8" spans="1:5">
+      <c r="A67" s="1" t="s">
         <v>257</v>
       </c>
-      <c r="B67" s="1" t="s">
+      <c r="B67" s="2" t="s">
         <v>258</v>
       </c>
-      <c r="C67" s="1" t="s">
+      <c r="C67" s="2" t="s">
         <v>259</v>
       </c>
-      <c r="D67" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E67" s="1" t="s">
+      <c r="D67" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E67" s="2" t="s">
         <v>260</v>
       </c>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A68" s="2" t="s">
+    <row r="68" spans="1:5">
+      <c r="A68" s="1" t="s">
         <v>261</v>
       </c>
-      <c r="B68" s="1" t="s">
+      <c r="B68" s="2" t="s">
         <v>262</v>
       </c>
-      <c r="C68" s="1" t="s">
+      <c r="C68" s="2" t="s">
         <v>263</v>
       </c>
-      <c r="D68" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E68" s="1" t="s">
+      <c r="D68" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E68" s="2" t="s">
         <v>264</v>
       </c>
     </row>
-    <row r="69" spans="1:5" ht="27" x14ac:dyDescent="0.3">
-      <c r="A69" s="2" t="s">
+    <row r="69" ht="28.8" spans="1:5">
+      <c r="A69" s="1" t="s">
         <v>265</v>
       </c>
-      <c r="B69" s="1" t="s">
+      <c r="B69" s="2" t="s">
         <v>266</v>
       </c>
-      <c r="C69" s="1" t="s">
+      <c r="C69" s="2" t="s">
         <v>267</v>
       </c>
-      <c r="D69" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E69" s="1" t="s">
+      <c r="D69" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E69" s="2" t="s">
         <v>268</v>
       </c>
     </row>
-    <row r="70" spans="1:5" ht="27" x14ac:dyDescent="0.3">
-      <c r="A70" s="2" t="s">
+    <row r="70" ht="28.8" spans="1:5">
+      <c r="A70" s="1" t="s">
         <v>269</v>
       </c>
-      <c r="B70" s="1" t="s">
+      <c r="B70" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="C70" s="1" t="s">
+      <c r="C70" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="D70" s="1" t="s">
+      <c r="D70" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="E70" s="1" t="s">
+      <c r="E70" s="2" t="s">
         <v>270</v>
       </c>
     </row>
-    <row r="71" spans="1:5" ht="27" x14ac:dyDescent="0.3">
-      <c r="A71" s="2" t="s">
+    <row r="71" ht="28.8" spans="1:5">
+      <c r="A71" s="1" t="s">
         <v>271</v>
       </c>
-      <c r="B71" s="1" t="s">
+      <c r="B71" s="2" t="s">
         <v>272</v>
       </c>
-      <c r="C71" s="1" t="s">
+      <c r="C71" s="2" t="s">
         <v>273</v>
       </c>
-      <c r="D71" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E71" s="1" t="s">
+      <c r="D71" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E71" s="2" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="72" spans="1:5" ht="27" x14ac:dyDescent="0.3">
-      <c r="A72" s="2" t="s">
+    <row r="72" ht="28.8" spans="1:5">
+      <c r="A72" s="1" t="s">
         <v>275</v>
       </c>
-      <c r="B72" s="1" t="s">
+      <c r="B72" s="2" t="s">
         <v>276</v>
       </c>
-      <c r="C72" s="1" t="s">
+      <c r="C72" s="2" t="s">
         <v>277</v>
       </c>
-      <c r="D72" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E72" s="1" t="s">
+      <c r="D72" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E72" s="2" t="s">
         <v>278</v>
       </c>
     </row>
-    <row r="73" spans="1:5" ht="27" x14ac:dyDescent="0.3">
-      <c r="A73" s="2" t="s">
+    <row r="73" ht="28.8" spans="1:5">
+      <c r="A73" s="1" t="s">
         <v>279</v>
       </c>
-      <c r="B73" s="1" t="s">
+      <c r="B73" s="2" t="s">
         <v>280</v>
       </c>
-      <c r="C73" s="1" t="s">
+      <c r="C73" s="2" t="s">
         <v>281</v>
       </c>
-      <c r="D73" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E73" s="1" t="s">
+      <c r="D73" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E73" s="2" t="s">
         <v>282</v>
       </c>
     </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A74" s="2" t="s">
+    <row r="74" spans="1:5">
+      <c r="A74" s="1" t="s">
         <v>283</v>
       </c>
-      <c r="B74" s="1" t="s">
+      <c r="B74" s="2" t="s">
         <v>284</v>
       </c>
-      <c r="C74" s="1" t="s">
+      <c r="C74" s="2" t="s">
         <v>285</v>
       </c>
-      <c r="D74" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E74" s="1" t="s">
+      <c r="D74" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E74" s="2" t="s">
         <v>286</v>
       </c>
     </row>
-    <row r="75" spans="1:5" ht="27" x14ac:dyDescent="0.3">
-      <c r="A75" s="2" t="s">
+    <row r="75" ht="28.8" spans="1:5">
+      <c r="A75" s="1" t="s">
         <v>287</v>
       </c>
-      <c r="B75" s="1" t="s">
+      <c r="B75" s="2" t="s">
         <v>288</v>
       </c>
-      <c r="C75" s="1" t="s">
+      <c r="C75" s="2" t="s">
         <v>289</v>
       </c>
-      <c r="D75" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E75" s="1" t="s">
+      <c r="D75" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E75" s="2" t="s">
         <v>290</v>
       </c>
     </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A76" s="2" t="s">
+    <row r="76" spans="1:5">
+      <c r="A76" s="1" t="s">
         <v>291</v>
       </c>
-      <c r="B76" s="1" t="s">
+      <c r="B76" s="2" t="s">
         <v>292</v>
       </c>
-      <c r="C76" s="1" t="s">
+      <c r="C76" s="2" t="s">
         <v>293</v>
       </c>
-      <c r="D76" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E76" s="1" t="s">
+      <c r="D76" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E76" s="2" t="s">
         <v>294</v>
       </c>
     </row>
-    <row r="77" spans="1:5" ht="27" x14ac:dyDescent="0.3">
-      <c r="A77" s="2" t="s">
+    <row r="77" ht="28.8" spans="1:5">
+      <c r="A77" s="1" t="s">
         <v>295</v>
       </c>
-      <c r="B77" s="1" t="s">
+      <c r="B77" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="C77" s="1" t="s">
+      <c r="C77" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="D77" s="1" t="s">
+      <c r="D77" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="E77" s="1" t="s">
+      <c r="E77" s="2" t="s">
         <v>296</v>
       </c>
     </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A78" s="2" t="s">
+    <row r="78" ht="28.8" spans="1:5">
+      <c r="A78" s="1" t="s">
         <v>297</v>
       </c>
-      <c r="B78" s="1" t="s">
+      <c r="B78" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="C78" s="1" t="s">
+      <c r="C78" s="2" t="s">
         <v>298</v>
       </c>
-      <c r="D78" s="1" t="s">
+      <c r="D78" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="E78" s="1" t="s">
+      <c r="E78" s="2" t="s">
         <v>299</v>
       </c>
     </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A79" s="2" t="s">
+    <row r="79" spans="1:5">
+      <c r="A79" s="1" t="s">
         <v>300</v>
       </c>
-      <c r="B79" s="1" t="s">
+      <c r="B79" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="C79" s="1" t="s">
+      <c r="C79" s="2" t="s">
         <v>301</v>
       </c>
-      <c r="D79" s="1" t="s">
+      <c r="D79" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="E79" s="1" t="s">
+      <c r="E79" s="2" t="s">
         <v>302</v>
       </c>
     </row>
-    <row r="80" spans="1:5" ht="27" x14ac:dyDescent="0.3">
-      <c r="A80" s="2" t="s">
+    <row r="80" ht="28.8" spans="1:5">
+      <c r="A80" s="1" t="s">
         <v>303</v>
       </c>
-      <c r="B80" s="1" t="s">
+      <c r="B80" s="2" t="s">
         <v>304</v>
       </c>
-      <c r="C80" s="1" t="s">
+      <c r="C80" s="2" t="s">
         <v>305</v>
       </c>
-      <c r="D80" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E80" s="1" t="s">
+      <c r="D80" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E80" s="2" t="s">
         <v>306</v>
       </c>
     </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A81" s="2" t="s">
+    <row r="81" spans="1:5">
+      <c r="A81" s="1" t="s">
         <v>307</v>
       </c>
-      <c r="B81" s="1" t="s">
+      <c r="B81" s="2" t="s">
         <v>308</v>
       </c>
-      <c r="C81" s="1" t="s">
+      <c r="C81" s="2" t="s">
         <v>309</v>
       </c>
-      <c r="D81" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E81" s="1" t="s">
+      <c r="D81" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E81" s="2" t="s">
         <v>310</v>
       </c>
     </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A82" s="2" t="s">
+    <row r="82" spans="1:5">
+      <c r="A82" s="1" t="s">
         <v>311</v>
       </c>
-      <c r="B82" s="1" t="s">
+      <c r="B82" s="2" t="s">
         <v>312</v>
       </c>
-      <c r="C82" s="1" t="s">
+      <c r="C82" s="2" t="s">
         <v>313</v>
       </c>
-      <c r="D82" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E82" s="1" t="s">
+      <c r="D82" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E82" s="2" t="s">
         <v>314</v>
       </c>
     </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A83" s="2" t="s">
+    <row r="83" spans="1:5">
+      <c r="A83" s="1" t="s">
         <v>315</v>
       </c>
-      <c r="B83" s="1" t="s">
+      <c r="B83" s="2" t="s">
         <v>316</v>
       </c>
-      <c r="C83" s="1" t="s">
+      <c r="C83" s="2" t="s">
         <v>317</v>
       </c>
-      <c r="D83" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E83" s="1" t="s">
+      <c r="D83" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E83" s="2" t="s">
         <v>318</v>
       </c>
     </row>
-    <row r="84" spans="1:5" ht="27" x14ac:dyDescent="0.3">
-      <c r="A84" s="2" t="s">
+    <row r="84" ht="28.8" spans="1:5">
+      <c r="A84" s="1" t="s">
         <v>319</v>
       </c>
-      <c r="B84" s="1" t="s">
+      <c r="B84" s="2" t="s">
         <v>320</v>
       </c>
-      <c r="C84" s="1" t="s">
+      <c r="C84" s="2" t="s">
         <v>321</v>
       </c>
-      <c r="D84" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E84" s="1" t="s">
+      <c r="D84" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E84" s="2" t="s">
         <v>322</v>
       </c>
     </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A85" s="2" t="s">
+    <row r="85" spans="1:5">
+      <c r="A85" s="1" t="s">
         <v>323</v>
       </c>
-      <c r="B85" s="1" t="s">
+      <c r="B85" s="2" t="s">
         <v>324</v>
       </c>
-      <c r="C85" s="1" t="s">
+      <c r="C85" s="2" t="s">
         <v>325</v>
       </c>
-      <c r="D85" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E85" s="1" t="s">
+      <c r="D85" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E85" s="2" t="s">
         <v>326</v>
       </c>
     </row>
-    <row r="86" spans="1:5" ht="27" x14ac:dyDescent="0.3">
-      <c r="A86" s="2" t="s">
+    <row r="86" ht="28.8" spans="1:5">
+      <c r="A86" s="1" t="s">
         <v>327</v>
       </c>
-      <c r="B86" s="1" t="s">
+      <c r="B86" s="2" t="s">
         <v>328</v>
       </c>
-      <c r="C86" s="1" t="s">
+      <c r="C86" s="2" t="s">
         <v>329</v>
       </c>
-      <c r="D86" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E86" s="1" t="s">
+      <c r="D86" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E86" s="2" t="s">
         <v>330</v>
       </c>
     </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A87" s="2" t="s">
+    <row r="87" spans="1:5">
+      <c r="A87" s="1" t="s">
         <v>331</v>
       </c>
-      <c r="B87" s="1" t="s">
+      <c r="B87" s="2" t="s">
         <v>332</v>
       </c>
-      <c r="C87" s="1" t="s">
+      <c r="C87" s="2" t="s">
         <v>333</v>
       </c>
-      <c r="D87" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E87" s="1" t="s">
+      <c r="D87" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E87" s="2" t="s">
         <v>334</v>
       </c>
     </row>
-    <row r="88" spans="1:5" ht="27" x14ac:dyDescent="0.3">
-      <c r="A88" s="2" t="s">
+    <row r="88" ht="28.8" spans="1:5">
+      <c r="A88" s="1" t="s">
         <v>335</v>
       </c>
-      <c r="B88" s="1" t="s">
+      <c r="B88" s="2" t="s">
         <v>336</v>
       </c>
-      <c r="C88" s="1" t="s">
+      <c r="C88" s="2" t="s">
         <v>337</v>
       </c>
-      <c r="D88" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E88" s="1" t="s">
+      <c r="D88" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E88" s="2" t="s">
         <v>338</v>
       </c>
     </row>
-    <row r="89" spans="1:5" ht="27" x14ac:dyDescent="0.3">
-      <c r="A89" s="2" t="s">
+    <row r="89" ht="28.8" spans="1:5">
+      <c r="A89" s="1" t="s">
         <v>339</v>
       </c>
-      <c r="B89" s="1" t="s">
+      <c r="B89" s="2" t="s">
         <v>340</v>
       </c>
-      <c r="C89" s="1" t="s">
+      <c r="C89" s="2" t="s">
         <v>341</v>
       </c>
-      <c r="D89" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E89" s="1" t="s">
+      <c r="D89" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E89" s="2" t="s">
         <v>342</v>
       </c>
     </row>
-    <row r="90" spans="1:5" ht="27" x14ac:dyDescent="0.3">
-      <c r="A90" s="2" t="s">
+    <row r="90" ht="28.8" spans="1:5">
+      <c r="A90" s="1" t="s">
         <v>343</v>
       </c>
-      <c r="B90" s="1" t="s">
+      <c r="B90" s="2" t="s">
         <v>344</v>
       </c>
-      <c r="C90" s="1" t="s">
+      <c r="C90" s="2" t="s">
         <v>345</v>
       </c>
-      <c r="D90" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E90" s="1" t="s">
+      <c r="D90" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E90" s="2" t="s">
         <v>346</v>
       </c>
     </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A91" s="2" t="s">
+    <row r="91" spans="1:5">
+      <c r="A91" s="1" t="s">
         <v>347</v>
       </c>
-      <c r="B91" s="1" t="s">
+      <c r="B91" s="2" t="s">
         <v>348</v>
       </c>
-      <c r="C91" s="1" t="s">
+      <c r="C91" s="2" t="s">
         <v>349</v>
       </c>
-      <c r="D91" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E91" s="1" t="s">
+      <c r="D91" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E91" s="2" t="s">
         <v>350</v>
       </c>
     </row>
-    <row r="92" spans="1:5" ht="27" x14ac:dyDescent="0.3">
-      <c r="A92" s="2" t="s">
+    <row r="92" ht="28.8" spans="1:5">
+      <c r="A92" s="1" t="s">
         <v>351</v>
       </c>
-      <c r="B92" s="1" t="s">
+      <c r="B92" s="2" t="s">
         <v>352</v>
       </c>
-      <c r="C92" s="1" t="s">
+      <c r="C92" s="2" t="s">
         <v>353</v>
       </c>
-      <c r="D92" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E92" s="1" t="s">
+      <c r="D92" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E92" s="2" t="s">
         <v>354</v>
       </c>
     </row>
-    <row r="93" spans="1:5" ht="27" x14ac:dyDescent="0.3">
-      <c r="A93" s="2" t="s">
+    <row r="93" ht="28.8" spans="1:5">
+      <c r="A93" s="1" t="s">
         <v>355</v>
       </c>
-      <c r="B93" s="1" t="s">
+      <c r="B93" s="2" t="s">
         <v>356</v>
       </c>
-      <c r="C93" s="1" t="s">
+      <c r="C93" s="2" t="s">
         <v>357</v>
       </c>
-      <c r="D93" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E93" s="1" t="s">
+      <c r="D93" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E93" s="2" t="s">
         <v>358</v>
       </c>
     </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A94" s="2" t="s">
+    <row r="94" ht="28.8" spans="1:5">
+      <c r="A94" s="1" t="s">
         <v>359</v>
       </c>
-      <c r="B94" s="1" t="s">
+      <c r="B94" s="2" t="s">
         <v>360</v>
       </c>
-      <c r="C94" s="1" t="s">
+      <c r="C94" s="2" t="s">
         <v>361</v>
       </c>
-      <c r="D94" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E94" s="1" t="s">
+      <c r="D94" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E94" s="2" t="s">
         <v>362</v>
       </c>
     </row>
-    <row r="95" spans="1:5" ht="27" x14ac:dyDescent="0.3">
-      <c r="A95" s="2" t="s">
+    <row r="95" ht="28.8" spans="1:5">
+      <c r="A95" s="1" t="s">
         <v>363</v>
       </c>
-      <c r="B95" s="1" t="s">
+      <c r="B95" s="2" t="s">
         <v>364</v>
       </c>
-      <c r="C95" s="1" t="s">
+      <c r="C95" s="2" t="s">
         <v>365</v>
       </c>
-      <c r="D95" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E95" s="1" t="s">
+      <c r="D95" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E95" s="2" t="s">
         <v>366</v>
       </c>
     </row>
-    <row r="96" spans="1:5" ht="27" x14ac:dyDescent="0.3">
-      <c r="A96" s="2" t="s">
+    <row r="96" ht="28.8" spans="1:5">
+      <c r="A96" s="1" t="s">
         <v>367</v>
       </c>
-      <c r="B96" s="1" t="s">
+      <c r="B96" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="C96" s="1" t="s">
+      <c r="C96" s="2" t="s">
         <v>368</v>
       </c>
-      <c r="D96" s="1" t="s">
+      <c r="D96" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="E96" s="1" t="s">
+      <c r="E96" s="2" t="s">
         <v>369</v>
       </c>
     </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A97" s="2" t="s">
+    <row r="97" spans="1:5">
+      <c r="A97" s="1" t="s">
         <v>370</v>
       </c>
-      <c r="B97" s="1" t="s">
+      <c r="B97" s="2" t="s">
         <v>371</v>
       </c>
-      <c r="C97" s="1" t="s">
+      <c r="C97" s="2" t="s">
         <v>372</v>
       </c>
-      <c r="D97" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E97" s="1" t="s">
+      <c r="D97" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E97" s="2" t="s">
         <v>373</v>
       </c>
     </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A98" s="2" t="s">
+    <row r="98" ht="28.8" spans="1:5">
+      <c r="A98" s="1" t="s">
         <v>374</v>
       </c>
-      <c r="B98" s="1" t="s">
+      <c r="B98" s="2" t="s">
         <v>375</v>
       </c>
-      <c r="C98" s="1" t="s">
+      <c r="C98" s="2" t="s">
         <v>376</v>
       </c>
-      <c r="D98" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E98" s="1" t="s">
+      <c r="D98" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E98" s="2" t="s">
         <v>377</v>
       </c>
     </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A99" s="2" t="s">
+    <row r="99" ht="28.8" spans="1:5">
+      <c r="A99" s="1" t="s">
         <v>378</v>
       </c>
-      <c r="B99" s="1" t="s">
+      <c r="B99" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="C99" s="1" t="s">
+      <c r="C99" s="2" t="s">
         <v>379</v>
       </c>
-      <c r="D99" s="1" t="s">
+      <c r="D99" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="E99" s="1" t="s">
+      <c r="E99" s="2" t="s">
         <v>380</v>
       </c>
     </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A100" s="2" t="s">
+    <row r="100" spans="1:5">
+      <c r="A100" s="1" t="s">
         <v>381</v>
       </c>
-      <c r="B100" s="1" t="s">
+      <c r="B100" s="2" t="s">
         <v>382</v>
       </c>
-      <c r="C100" s="1" t="s">
+      <c r="C100" s="2" t="s">
         <v>383</v>
       </c>
-      <c r="D100" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E100" s="1" t="s">
+      <c r="D100" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E100" s="2" t="s">
         <v>384</v>
       </c>
     </row>
-    <row r="101" spans="1:5" ht="27" x14ac:dyDescent="0.3">
-      <c r="A101" s="2" t="s">
+    <row r="101" ht="28.8" spans="1:5">
+      <c r="A101" s="1" t="s">
         <v>385</v>
       </c>
-      <c r="B101" s="1" t="s">
+      <c r="B101" s="2" t="s">
         <v>386</v>
       </c>
-      <c r="C101" s="1" t="s">
+      <c r="C101" s="2" t="s">
         <v>387</v>
       </c>
-      <c r="D101" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E101" s="1" t="s">
+      <c r="D101" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E101" s="2" t="s">
         <v>388</v>
       </c>
     </row>
-    <row r="102" spans="1:5" ht="27" x14ac:dyDescent="0.3">
-      <c r="A102" s="2" t="s">
+    <row r="102" ht="28.8" spans="1:5">
+      <c r="A102" s="1" t="s">
         <v>389</v>
       </c>
-      <c r="B102" s="1" t="s">
+      <c r="B102" s="2" t="s">
         <v>390</v>
       </c>
-      <c r="C102" s="1" t="s">
+      <c r="C102" s="2" t="s">
         <v>391</v>
       </c>
-      <c r="D102" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E102" s="1" t="s">
+      <c r="D102" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E102" s="2" t="s">
         <v>392</v>
       </c>
     </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A103" s="2" t="s">
+    <row r="103" spans="1:5">
+      <c r="A103" s="1" t="s">
         <v>393</v>
       </c>
-      <c r="B103" s="1" t="s">
+      <c r="B103" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="C103" s="1" t="s">
+      <c r="C103" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="D103" s="1" t="s">
+      <c r="D103" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="E103" s="1" t="s">
+      <c r="E103" s="2" t="s">
         <v>394</v>
       </c>
     </row>
-    <row r="104" spans="1:5" ht="27" x14ac:dyDescent="0.3">
-      <c r="A104" s="2" t="s">
+    <row r="104" ht="28.8" spans="1:5">
+      <c r="A104" s="1" t="s">
         <v>395</v>
       </c>
-      <c r="B104" s="1" t="s">
+      <c r="B104" s="2" t="s">
         <v>396</v>
       </c>
-      <c r="C104" s="1" t="s">
+      <c r="C104" s="2" t="s">
         <v>397</v>
       </c>
-      <c r="D104" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E104" s="1" t="s">
+      <c r="D104" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E104" s="2" t="s">
         <v>398</v>
       </c>
     </row>
-    <row r="105" spans="1:5" ht="27" x14ac:dyDescent="0.3">
-      <c r="A105" s="2" t="s">
+    <row r="105" ht="28.8" spans="1:5">
+      <c r="A105" s="1" t="s">
         <v>399</v>
       </c>
-      <c r="B105" s="1" t="s">
+      <c r="B105" s="2" t="s">
         <v>400</v>
       </c>
-      <c r="C105" s="1" t="s">
+      <c r="C105" s="2" t="s">
         <v>401</v>
       </c>
-      <c r="D105" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E105" s="1" t="s">
+      <c r="D105" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E105" s="2" t="s">
         <v>402</v>
       </c>
     </row>
-    <row r="106" spans="1:5" ht="27" x14ac:dyDescent="0.3">
-      <c r="A106" s="2" t="s">
+    <row r="106" ht="28.8" spans="1:5">
+      <c r="A106" s="1" t="s">
         <v>403</v>
       </c>
-      <c r="B106" s="1" t="s">
+      <c r="B106" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="C106" s="1" t="s">
+      <c r="C106" s="2" t="s">
         <v>206</v>
       </c>
-      <c r="D106" s="1" t="s">
+      <c r="D106" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="E106" s="1" t="s">
+      <c r="E106" s="2" t="s">
         <v>404</v>
       </c>
     </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A107" s="2" t="s">
+    <row r="107" spans="1:5">
+      <c r="A107" s="1" t="s">
         <v>405</v>
       </c>
-      <c r="B107" s="1" t="s">
+      <c r="B107" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="C107" s="1" t="s">
+      <c r="C107" s="2" t="s">
         <v>406</v>
       </c>
-      <c r="D107" s="1" t="s">
+      <c r="D107" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="E107" s="1" t="s">
+      <c r="E107" s="2" t="s">
         <v>407</v>
       </c>
     </row>
-    <row r="108" spans="1:5" ht="27" x14ac:dyDescent="0.3">
-      <c r="A108" s="2" t="s">
+    <row r="108" ht="28.8" spans="1:5">
+      <c r="A108" s="1" t="s">
         <v>408</v>
       </c>
-      <c r="B108" s="1" t="s">
+      <c r="B108" s="2" t="s">
         <v>409</v>
       </c>
-      <c r="C108" s="1" t="s">
+      <c r="C108" s="2" t="s">
         <v>410</v>
       </c>
-      <c r="D108" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E108" s="1" t="s">
+      <c r="D108" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E108" s="2" t="s">
         <v>411</v>
       </c>
     </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A109" s="2" t="s">
+    <row r="109" ht="28.8" spans="1:5">
+      <c r="A109" s="1" t="s">
         <v>412</v>
       </c>
-      <c r="B109" s="1" t="s">
+      <c r="B109" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="C109" s="1" t="s">
+      <c r="C109" s="2" t="s">
         <v>413</v>
       </c>
-      <c r="D109" s="1" t="s">
+      <c r="D109" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="E109" s="1" t="s">
+      <c r="E109" s="2" t="s">
         <v>414</v>
       </c>
     </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A110" s="2" t="s">
+    <row r="110" spans="1:5">
+      <c r="A110" s="1" t="s">
         <v>415</v>
       </c>
-      <c r="B110" s="1" t="s">
+      <c r="B110" s="2" t="s">
         <v>416</v>
       </c>
-      <c r="C110" s="1" t="s">
+      <c r="C110" s="2" t="s">
         <v>417</v>
       </c>
-      <c r="D110" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E110" s="1" t="s">
+      <c r="D110" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E110" s="2" t="s">
         <v>418</v>
       </c>
     </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A111" s="2" t="s">
+    <row r="111" ht="28.8" spans="1:5">
+      <c r="A111" s="1" t="s">
         <v>419</v>
       </c>
-      <c r="B111" s="1" t="s">
+      <c r="B111" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="C111" s="1" t="s">
+      <c r="C111" s="2" t="s">
         <v>420</v>
       </c>
-      <c r="D111" s="1" t="s">
+      <c r="D111" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="E111" s="1" t="s">
+      <c r="E111" s="2" t="s">
         <v>421</v>
       </c>
     </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A112" s="2" t="s">
+    <row r="112" spans="1:5">
+      <c r="A112" s="1" t="s">
         <v>422</v>
       </c>
-      <c r="B112" s="1" t="s">
+      <c r="B112" s="2" t="s">
         <v>423</v>
       </c>
-      <c r="C112" s="1" t="s">
+      <c r="C112" s="2" t="s">
         <v>424</v>
       </c>
-      <c r="D112" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E112" s="1" t="s">
+      <c r="D112" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E112" s="2" t="s">
         <v>425</v>
       </c>
     </row>
-    <row r="113" spans="1:5" ht="27" x14ac:dyDescent="0.3">
-      <c r="A113" s="2" t="s">
+    <row r="113" ht="28.8" spans="1:5">
+      <c r="A113" s="1" t="s">
         <v>426</v>
       </c>
-      <c r="B113" s="1" t="s">
+      <c r="B113" s="2" t="s">
         <v>427</v>
       </c>
-      <c r="C113" s="1" t="s">
+      <c r="C113" s="2" t="s">
         <v>428</v>
       </c>
-      <c r="D113" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E113" s="1" t="s">
+      <c r="D113" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E113" s="2" t="s">
         <v>429</v>
       </c>
     </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A114" s="2" t="s">
+    <row r="114" spans="1:5">
+      <c r="A114" s="1" t="s">
         <v>430</v>
       </c>
-      <c r="B114" s="1" t="s">
+      <c r="B114" s="2" t="s">
         <v>431</v>
       </c>
-      <c r="C114" s="1" t="s">
+      <c r="C114" s="2" t="s">
         <v>432</v>
       </c>
-      <c r="D114" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E114" s="1" t="s">
+      <c r="D114" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E114" s="2" t="s">
         <v>433</v>
       </c>
     </row>
-    <row r="115" spans="1:5" ht="27" x14ac:dyDescent="0.3">
-      <c r="A115" s="2" t="s">
+    <row r="115" ht="28.8" spans="1:5">
+      <c r="A115" s="1" t="s">
         <v>434</v>
       </c>
-      <c r="B115" s="1" t="s">
+      <c r="B115" s="2" t="s">
         <v>435</v>
       </c>
-      <c r="C115" s="1" t="s">
+      <c r="C115" s="2" t="s">
         <v>436</v>
       </c>
-      <c r="D115" s="1" t="s">
+      <c r="D115" s="2" t="s">
         <v>437</v>
       </c>
-      <c r="E115" s="1" t="s">
+      <c r="E115" s="2" t="s">
         <v>438</v>
       </c>
     </row>
-    <row r="116" spans="1:5" ht="27" x14ac:dyDescent="0.3">
-      <c r="A116" s="2" t="s">
+    <row r="116" ht="28.8" spans="1:5">
+      <c r="A116" s="1" t="s">
         <v>439</v>
       </c>
-      <c r="B116" s="1" t="s">
+      <c r="B116" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="C116" s="1" t="s">
+      <c r="C116" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="D116" s="1" t="s">
+      <c r="D116" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="E116" s="1" t="s">
+      <c r="E116" s="2" t="s">
         <v>440</v>
       </c>
     </row>
-    <row r="117" spans="1:5" ht="27" x14ac:dyDescent="0.3">
-      <c r="A117" s="2" t="s">
+    <row r="117" ht="28.8" spans="1:5">
+      <c r="A117" s="1" t="s">
         <v>441</v>
       </c>
-      <c r="B117" s="1" t="s">
+      <c r="B117" s="2" t="s">
         <v>442</v>
       </c>
-      <c r="C117" s="1" t="s">
+      <c r="C117" s="2" t="s">
         <v>443</v>
       </c>
-      <c r="D117" s="1" t="s">
+      <c r="D117" s="2" t="s">
         <v>437</v>
       </c>
-      <c r="E117" s="1" t="s">
+      <c r="E117" s="2" t="s">
         <v>444</v>
       </c>
     </row>
-    <row r="118" spans="1:5" ht="27" x14ac:dyDescent="0.3">
-      <c r="A118" s="2" t="s">
+    <row r="118" ht="28.8" spans="1:5">
+      <c r="A118" s="1" t="s">
         <v>445</v>
       </c>
-      <c r="B118" s="1" t="s">
+      <c r="B118" s="2" t="s">
         <v>446</v>
       </c>
-      <c r="C118" s="1" t="s">
+      <c r="C118" s="2" t="s">
         <v>447</v>
       </c>
-      <c r="D118" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E118" s="1" t="s">
+      <c r="D118" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E118" s="2" t="s">
         <v>448</v>
       </c>
     </row>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A119" s="2" t="s">
+    <row r="119" spans="1:5">
+      <c r="A119" s="1" t="s">
         <v>449</v>
       </c>
-      <c r="B119" s="1" t="s">
+      <c r="B119" s="2" t="s">
         <v>450</v>
       </c>
-      <c r="C119" s="1" t="s">
+      <c r="C119" s="2" t="s">
         <v>451</v>
       </c>
-      <c r="D119" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E119" s="1" t="s">
+      <c r="D119" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E119" s="2" t="s">
         <v>452</v>
       </c>
     </row>
-    <row r="120" spans="1:5" ht="27" x14ac:dyDescent="0.3">
-      <c r="A120" s="2" t="s">
+    <row r="120" ht="28.8" spans="1:5">
+      <c r="A120" s="1" t="s">
         <v>453</v>
       </c>
-      <c r="B120" s="1" t="s">
+      <c r="B120" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="C120" s="1" t="s">
+      <c r="C120" s="2" t="s">
         <v>454</v>
       </c>
-      <c r="D120" s="1" t="s">
+      <c r="D120" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="E120" s="1" t="s">
+      <c r="E120" s="2" t="s">
         <v>455</v>
       </c>
     </row>
-    <row r="121" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A121" s="2" t="s">
+    <row r="121" spans="1:5">
+      <c r="A121" s="1" t="s">
         <v>456</v>
       </c>
-      <c r="B121" s="1" t="s">
+      <c r="B121" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="C121" s="1" t="s">
+      <c r="C121" s="2" t="s">
         <v>406</v>
       </c>
-      <c r="D121" s="1" t="s">
+      <c r="D121" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="E121" s="1" t="s">
+      <c r="E121" s="2" t="s">
         <v>457</v>
       </c>
     </row>
-    <row r="122" spans="1:5" ht="27" x14ac:dyDescent="0.3">
-      <c r="A122" s="2" t="s">
+    <row r="122" ht="28.8" spans="1:5">
+      <c r="A122" s="1" t="s">
         <v>458</v>
       </c>
-      <c r="B122" s="1" t="s">
+      <c r="B122" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C122" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="D122" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E122" s="2" t="s">
         <v>459</v>
       </c>
-      <c r="C122" s="1" t="s">
+    </row>
+    <row r="123" spans="1:5">
+      <c r="A123" s="1" t="s">
         <v>460</v>
       </c>
-      <c r="D122" s="1" t="s">
-        <v>437</v>
-      </c>
-      <c r="E122" s="1" t="s">
+      <c r="B123" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C123" s="2" t="s">
         <v>461</v>
       </c>
-    </row>
-    <row r="123" spans="1:5" ht="27" x14ac:dyDescent="0.3">
-      <c r="A123" s="2" t="s">
+      <c r="D123" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E123" s="2" t="s">
         <v>462</v>
       </c>
-      <c r="B123" s="1" t="s">
+    </row>
+    <row r="124" spans="1:5">
+      <c r="A124" s="1" t="s">
+        <v>463</v>
+      </c>
+      <c r="B124" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="C123" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="D123" s="1" t="s">
+      <c r="C124" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="D124" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="E123" s="1" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="124" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A124" s="2" t="s">
+      <c r="E124" s="2" t="s">
         <v>464</v>
       </c>
-      <c r="B124" s="1" t="s">
+    </row>
+    <row r="125" spans="1:5">
+      <c r="A125" s="1" t="s">
+        <v>465</v>
+      </c>
+      <c r="B125" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="C124" s="1" t="s">
-        <v>465</v>
-      </c>
-      <c r="D124" s="1" t="s">
+      <c r="C125" s="2" t="s">
+        <v>379</v>
+      </c>
+      <c r="D125" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="E124" s="1" t="s">
+      <c r="E125" s="2" t="s">
         <v>466</v>
       </c>
     </row>
-    <row r="125" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A125" s="2" t="s">
-        <v>467</v>
-      </c>
-      <c r="B125" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="C125" s="1" t="s">
-        <v>239</v>
-      </c>
-      <c r="D125" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="E125" s="1" t="s">
-        <v>468</v>
-      </c>
-    </row>
-    <row r="126" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A126" s="2" t="s">
-        <v>469</v>
-      </c>
-      <c r="B126" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="C126" s="1" t="s">
-        <v>379</v>
-      </c>
-      <c r="D126" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="E126" s="1" t="s">
-        <v>470</v>
-      </c>
-    </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
+  <pageSetup paperSize="1" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/.ready/最新发布资源-维格视图.xlsx
+++ b/.ready/最新发布资源-维格视图.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27231"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Project\memo\.ready\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF442E68-6215-4BE3-B9F5-B14442F8CE94}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="9300"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="19095" windowHeight="12075" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="维格视图" sheetId="1" r:id="rId1"/>
@@ -14,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="625" uniqueCount="467">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="605" uniqueCount="451">
   <si>
     <t>标题</t>
   </si>
@@ -1306,18 +1312,6 @@
     <t>2024/02/07 22:12</t>
   </si>
   <si>
-    <t>【三节课】ChatGPT大师班 从入门到精通</t>
-  </si>
-  <si>
-    <t>https://www.alipan.com/s/ob6VqQZ3rMR</t>
-  </si>
-  <si>
-    <t>https://pan.quark.cn/s/011caa077c27</t>
-  </si>
-  <si>
-    <t>2024/02/07 17:14</t>
-  </si>
-  <si>
     <t>视频下载软件 Downie 4 for Mac v4.7.3 已激活开心版</t>
   </si>
   <si>
@@ -1337,42 +1331,6 @@
   </si>
   <si>
     <t>2024/02/06 23:21</t>
-  </si>
-  <si>
-    <t>Adobe Photoshop 2024 v25.4.0 绿色精简版</t>
-  </si>
-  <si>
-    <t>https://www.alipan.com/s/QTv4koSinm6</t>
-  </si>
-  <si>
-    <t>https://pan.quark.cn/s/6f01fb382c62</t>
-  </si>
-  <si>
-    <t>2024/02/06 05:47</t>
-  </si>
-  <si>
-    <t>Vue3源码解析，打造自己的Vue3框架，领悟尤大思维精髓 - 带源码课件</t>
-  </si>
-  <si>
-    <t>https://www.alipan.com/s/mQcfkQkpj4j</t>
-  </si>
-  <si>
-    <t>https://pan.quark.cn/s/b6f481faa0b5</t>
-  </si>
-  <si>
-    <t>2024/02/05 20:14</t>
-  </si>
-  <si>
-    <t>SketchUp全能室内设计师养成班</t>
-  </si>
-  <si>
-    <t>https://www.alipan.com/s/qFhcg8ezCrN</t>
-  </si>
-  <si>
-    <t>https://pan.quark.cn/s/64ec12e39088</t>
-  </si>
-  <si>
-    <t>2024/02/05 14:46</t>
   </si>
   <si>
     <t>XPlayer - 万能视频播放器 v2.3.8.0 去广告 解锁功能</t>
@@ -1420,14 +1378,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="21">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1436,352 +1388,21 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="33">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="9">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -1789,251 +1410,9 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -2044,61 +1423,17 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -2420,25 +1755,25 @@
       </a:style>
     </a:lnDef>
   </a:objectDefaults>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:E125"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:E121"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A111" workbookViewId="0">
-      <selection activeCell="D122" sqref="D122"/>
+    <sheetView tabSelected="1" topLeftCell="A108" workbookViewId="0">
+      <selection activeCell="A115" sqref="A115"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="38.6666666666667" defaultRowHeight="14.4" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="38.6640625" defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="38.6666666666667" style="1"/>
-    <col min="2" max="16384" width="38.6666666666667" style="2"/>
+    <col min="1" max="1" width="38.6640625" style="1"/>
+    <col min="2" max="16384" width="38.6640625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2455,7 +1790,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>5</v>
       </c>
@@ -2472,7 +1807,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>10</v>
       </c>
@@ -2489,7 +1824,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>14</v>
       </c>
@@ -2506,7 +1841,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>18</v>
       </c>
@@ -2523,7 +1858,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>22</v>
       </c>
@@ -2540,7 +1875,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>26</v>
       </c>
@@ -2557,7 +1892,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="8" ht="28.8" spans="1:5">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>30</v>
       </c>
@@ -2574,7 +1909,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>35</v>
       </c>
@@ -2591,7 +1926,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="10" ht="28.8" spans="1:5">
+    <row r="10" spans="1:5" ht="27" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>39</v>
       </c>
@@ -2608,7 +1943,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>43</v>
       </c>
@@ -2625,7 +1960,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>47</v>
       </c>
@@ -2642,7 +1977,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="13" ht="28.8" spans="1:5">
+    <row r="13" spans="1:5" ht="27" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>51</v>
       </c>
@@ -2659,7 +1994,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="14" spans="1:5">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>54</v>
       </c>
@@ -2676,7 +2011,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="15" spans="1:5">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>58</v>
       </c>
@@ -2693,7 +2028,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="16" spans="1:5">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>62</v>
       </c>
@@ -2710,7 +2045,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="17" ht="28.8" spans="1:5">
+    <row r="17" spans="1:5" ht="27" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>66</v>
       </c>
@@ -2727,7 +2062,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="18" ht="28.8" spans="1:5">
+    <row r="18" spans="1:5" ht="27" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>70</v>
       </c>
@@ -2744,7 +2079,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="19" spans="1:5">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
         <v>74</v>
       </c>
@@ -2761,7 +2096,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="20" spans="1:5">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
         <v>78</v>
       </c>
@@ -2778,7 +2113,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="21" spans="1:5">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
         <v>82</v>
       </c>
@@ -2795,7 +2130,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="22" ht="28.8" spans="1:5">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
         <v>86</v>
       </c>
@@ -2812,7 +2147,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="23" spans="1:5">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
         <v>90</v>
       </c>
@@ -2829,7 +2164,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="24" ht="28.8" spans="1:5">
+    <row r="24" spans="1:5" ht="27" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
         <v>94</v>
       </c>
@@ -2846,7 +2181,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="25" spans="1:5">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
         <v>98</v>
       </c>
@@ -2863,7 +2198,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="26" ht="28.8" spans="1:5">
+    <row r="26" spans="1:5" ht="27" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
         <v>102</v>
       </c>
@@ -2880,7 +2215,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="27" ht="28.8" spans="1:5">
+    <row r="27" spans="1:5" ht="27" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
         <v>106</v>
       </c>
@@ -2897,7 +2232,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="28" spans="1:5">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
         <v>109</v>
       </c>
@@ -2914,7 +2249,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="29" spans="1:5">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
         <v>113</v>
       </c>
@@ -2931,7 +2266,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="30" spans="1:5">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
         <v>117</v>
       </c>
@@ -2948,7 +2283,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="31" spans="1:5">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
         <v>121</v>
       </c>
@@ -2965,7 +2300,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="32" spans="1:5">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
         <v>125</v>
       </c>
@@ -2982,7 +2317,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="33" spans="1:5">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A33" s="1" t="s">
         <v>129</v>
       </c>
@@ -2999,7 +2334,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="34" spans="1:5">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
         <v>132</v>
       </c>
@@ -3016,7 +2351,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="35" spans="1:5">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A35" s="1" t="s">
         <v>136</v>
       </c>
@@ -3033,7 +2368,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="36" spans="1:5">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A36" s="1" t="s">
         <v>140</v>
       </c>
@@ -3050,7 +2385,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="37" ht="28.8" spans="1:5">
+    <row r="37" spans="1:5" ht="27" x14ac:dyDescent="0.3">
       <c r="A37" s="1" t="s">
         <v>144</v>
       </c>
@@ -3067,7 +2402,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="38" spans="1:5">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A38" s="1" t="s">
         <v>148</v>
       </c>
@@ -3084,7 +2419,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="39" ht="28.8" spans="1:5">
+    <row r="39" spans="1:5" ht="27" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
         <v>152</v>
       </c>
@@ -3101,7 +2436,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="40" spans="1:5">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
         <v>156</v>
       </c>
@@ -3118,7 +2453,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="41" spans="1:5">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A41" s="1" t="s">
         <v>160</v>
       </c>
@@ -3135,7 +2470,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="42" ht="28.8" spans="1:5">
+    <row r="42" spans="1:5" ht="27" x14ac:dyDescent="0.3">
       <c r="A42" s="1" t="s">
         <v>164</v>
       </c>
@@ -3152,7 +2487,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="43" spans="1:5">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A43" s="1" t="s">
         <v>168</v>
       </c>
@@ -3169,7 +2504,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="44" ht="28.8" spans="1:5">
+    <row r="44" spans="1:5" ht="27" x14ac:dyDescent="0.3">
       <c r="A44" s="1" t="s">
         <v>171</v>
       </c>
@@ -3186,7 +2521,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="45" ht="28.8" spans="1:5">
+    <row r="45" spans="1:5" ht="27" x14ac:dyDescent="0.3">
       <c r="A45" s="1" t="s">
         <v>174</v>
       </c>
@@ -3203,7 +2538,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="46" ht="28.8" spans="1:5">
+    <row r="46" spans="1:5" ht="27" x14ac:dyDescent="0.3">
       <c r="A46" s="1" t="s">
         <v>178</v>
       </c>
@@ -3220,7 +2555,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="47" ht="28.8" spans="1:5">
+    <row r="47" spans="1:5" ht="27" x14ac:dyDescent="0.3">
       <c r="A47" s="1" t="s">
         <v>182</v>
       </c>
@@ -3237,7 +2572,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="48" spans="1:5">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A48" s="1" t="s">
         <v>186</v>
       </c>
@@ -3254,7 +2589,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="49" spans="1:5">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A49" s="1" t="s">
         <v>190</v>
       </c>
@@ -3271,7 +2606,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="50" ht="28.8" spans="1:5">
+    <row r="50" spans="1:5" ht="27" x14ac:dyDescent="0.3">
       <c r="A50" s="1" t="s">
         <v>194</v>
       </c>
@@ -3288,7 +2623,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="51" ht="28.8" spans="1:5">
+    <row r="51" spans="1:5" ht="27" x14ac:dyDescent="0.3">
       <c r="A51" s="1" t="s">
         <v>197</v>
       </c>
@@ -3305,7 +2640,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="52" spans="1:5">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A52" s="1" t="s">
         <v>201</v>
       </c>
@@ -3322,7 +2657,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="53" ht="28.8" spans="1:5">
+    <row r="53" spans="1:5" ht="27" x14ac:dyDescent="0.3">
       <c r="A53" s="1" t="s">
         <v>205</v>
       </c>
@@ -3339,7 +2674,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="54" ht="28.8" spans="1:5">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A54" s="1" t="s">
         <v>208</v>
       </c>
@@ -3356,7 +2691,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="55" ht="28.8" spans="1:5">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A55" s="1" t="s">
         <v>212</v>
       </c>
@@ -3373,7 +2708,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="56" spans="1:5">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A56" s="1" t="s">
         <v>216</v>
       </c>
@@ -3390,7 +2725,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="57" ht="28.8" spans="1:5">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A57" s="1" t="s">
         <v>220</v>
       </c>
@@ -3407,7 +2742,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="58" ht="28.8" spans="1:5">
+    <row r="58" spans="1:5" ht="27" x14ac:dyDescent="0.3">
       <c r="A58" s="1" t="s">
         <v>223</v>
       </c>
@@ -3424,7 +2759,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="59" ht="28.8" spans="1:5">
+    <row r="59" spans="1:5" ht="27" x14ac:dyDescent="0.3">
       <c r="A59" s="1" t="s">
         <v>227</v>
       </c>
@@ -3441,7 +2776,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="60" ht="28.8" spans="1:5">
+    <row r="60" spans="1:5" ht="27" x14ac:dyDescent="0.3">
       <c r="A60" s="1" t="s">
         <v>231</v>
       </c>
@@ -3458,7 +2793,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="61" spans="1:5">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A61" s="1" t="s">
         <v>234</v>
       </c>
@@ -3475,7 +2810,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="62" spans="1:5">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A62" s="1" t="s">
         <v>238</v>
       </c>
@@ -3492,7 +2827,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="63" spans="1:5">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A63" s="1" t="s">
         <v>241</v>
       </c>
@@ -3509,7 +2844,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="64" spans="1:5">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A64" s="1" t="s">
         <v>245</v>
       </c>
@@ -3526,7 +2861,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="65" ht="43.2" spans="1:5">
+    <row r="65" spans="1:5" ht="27" x14ac:dyDescent="0.3">
       <c r="A65" s="1" t="s">
         <v>249</v>
       </c>
@@ -3543,7 +2878,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="66" ht="28.8" spans="1:5">
+    <row r="66" spans="1:5" ht="27" x14ac:dyDescent="0.3">
       <c r="A66" s="1" t="s">
         <v>253</v>
       </c>
@@ -3560,7 +2895,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="67" ht="28.8" spans="1:5">
+    <row r="67" spans="1:5" ht="27" x14ac:dyDescent="0.3">
       <c r="A67" s="1" t="s">
         <v>257</v>
       </c>
@@ -3577,7 +2912,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="68" spans="1:5">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A68" s="1" t="s">
         <v>261</v>
       </c>
@@ -3594,7 +2929,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="69" ht="28.8" spans="1:5">
+    <row r="69" spans="1:5" ht="27" x14ac:dyDescent="0.3">
       <c r="A69" s="1" t="s">
         <v>265</v>
       </c>
@@ -3611,7 +2946,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="70" ht="28.8" spans="1:5">
+    <row r="70" spans="1:5" ht="27" x14ac:dyDescent="0.3">
       <c r="A70" s="1" t="s">
         <v>269</v>
       </c>
@@ -3628,7 +2963,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="71" ht="28.8" spans="1:5">
+    <row r="71" spans="1:5" ht="27" x14ac:dyDescent="0.3">
       <c r="A71" s="1" t="s">
         <v>271</v>
       </c>
@@ -3645,7 +2980,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="72" ht="28.8" spans="1:5">
+    <row r="72" spans="1:5" ht="27" x14ac:dyDescent="0.3">
       <c r="A72" s="1" t="s">
         <v>275</v>
       </c>
@@ -3662,7 +2997,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="73" ht="28.8" spans="1:5">
+    <row r="73" spans="1:5" ht="27" x14ac:dyDescent="0.3">
       <c r="A73" s="1" t="s">
         <v>279</v>
       </c>
@@ -3679,7 +3014,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="74" spans="1:5">
+    <row r="74" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A74" s="1" t="s">
         <v>283</v>
       </c>
@@ -3696,7 +3031,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="75" ht="28.8" spans="1:5">
+    <row r="75" spans="1:5" ht="27" x14ac:dyDescent="0.3">
       <c r="A75" s="1" t="s">
         <v>287</v>
       </c>
@@ -3713,7 +3048,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="76" spans="1:5">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A76" s="1" t="s">
         <v>291</v>
       </c>
@@ -3730,7 +3065,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="77" ht="28.8" spans="1:5">
+    <row r="77" spans="1:5" ht="27" x14ac:dyDescent="0.3">
       <c r="A77" s="1" t="s">
         <v>295</v>
       </c>
@@ -3747,7 +3082,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="78" ht="28.8" spans="1:5">
+    <row r="78" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A78" s="1" t="s">
         <v>297</v>
       </c>
@@ -3764,7 +3099,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="79" spans="1:5">
+    <row r="79" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A79" s="1" t="s">
         <v>300</v>
       </c>
@@ -3781,7 +3116,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="80" ht="28.8" spans="1:5">
+    <row r="80" spans="1:5" ht="27" x14ac:dyDescent="0.3">
       <c r="A80" s="1" t="s">
         <v>303</v>
       </c>
@@ -3798,7 +3133,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="81" spans="1:5">
+    <row r="81" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A81" s="1" t="s">
         <v>307</v>
       </c>
@@ -3815,7 +3150,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="82" spans="1:5">
+    <row r="82" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A82" s="1" t="s">
         <v>311</v>
       </c>
@@ -3832,7 +3167,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="83" spans="1:5">
+    <row r="83" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A83" s="1" t="s">
         <v>315</v>
       </c>
@@ -3849,7 +3184,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="84" ht="28.8" spans="1:5">
+    <row r="84" spans="1:5" ht="27" x14ac:dyDescent="0.3">
       <c r="A84" s="1" t="s">
         <v>319</v>
       </c>
@@ -3866,7 +3201,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="85" spans="1:5">
+    <row r="85" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A85" s="1" t="s">
         <v>323</v>
       </c>
@@ -3883,7 +3218,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="86" ht="28.8" spans="1:5">
+    <row r="86" spans="1:5" ht="27" x14ac:dyDescent="0.3">
       <c r="A86" s="1" t="s">
         <v>327</v>
       </c>
@@ -3900,7 +3235,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="87" spans="1:5">
+    <row r="87" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A87" s="1" t="s">
         <v>331</v>
       </c>
@@ -3917,7 +3252,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="88" ht="28.8" spans="1:5">
+    <row r="88" spans="1:5" ht="27" x14ac:dyDescent="0.3">
       <c r="A88" s="1" t="s">
         <v>335</v>
       </c>
@@ -3934,7 +3269,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="89" ht="28.8" spans="1:5">
+    <row r="89" spans="1:5" ht="27" x14ac:dyDescent="0.3">
       <c r="A89" s="1" t="s">
         <v>339</v>
       </c>
@@ -3951,7 +3286,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="90" ht="28.8" spans="1:5">
+    <row r="90" spans="1:5" ht="27" x14ac:dyDescent="0.3">
       <c r="A90" s="1" t="s">
         <v>343</v>
       </c>
@@ -3968,7 +3303,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="91" spans="1:5">
+    <row r="91" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A91" s="1" t="s">
         <v>347</v>
       </c>
@@ -3985,7 +3320,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="92" ht="28.8" spans="1:5">
+    <row r="92" spans="1:5" ht="27" x14ac:dyDescent="0.3">
       <c r="A92" s="1" t="s">
         <v>351</v>
       </c>
@@ -4002,7 +3337,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="93" ht="28.8" spans="1:5">
+    <row r="93" spans="1:5" ht="27" x14ac:dyDescent="0.3">
       <c r="A93" s="1" t="s">
         <v>355</v>
       </c>
@@ -4019,7 +3354,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="94" ht="28.8" spans="1:5">
+    <row r="94" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A94" s="1" t="s">
         <v>359</v>
       </c>
@@ -4036,7 +3371,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="95" ht="28.8" spans="1:5">
+    <row r="95" spans="1:5" ht="27" x14ac:dyDescent="0.3">
       <c r="A95" s="1" t="s">
         <v>363</v>
       </c>
@@ -4053,7 +3388,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="96" ht="28.8" spans="1:5">
+    <row r="96" spans="1:5" ht="27" x14ac:dyDescent="0.3">
       <c r="A96" s="1" t="s">
         <v>367</v>
       </c>
@@ -4070,7 +3405,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="97" spans="1:5">
+    <row r="97" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A97" s="1" t="s">
         <v>370</v>
       </c>
@@ -4087,7 +3422,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="98" ht="28.8" spans="1:5">
+    <row r="98" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A98" s="1" t="s">
         <v>374</v>
       </c>
@@ -4104,7 +3439,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="99" ht="28.8" spans="1:5">
+    <row r="99" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A99" s="1" t="s">
         <v>378</v>
       </c>
@@ -4121,7 +3456,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="100" spans="1:5">
+    <row r="100" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A100" s="1" t="s">
         <v>381</v>
       </c>
@@ -4138,7 +3473,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="101" ht="28.8" spans="1:5">
+    <row r="101" spans="1:5" ht="27" x14ac:dyDescent="0.3">
       <c r="A101" s="1" t="s">
         <v>385</v>
       </c>
@@ -4155,7 +3490,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="102" ht="28.8" spans="1:5">
+    <row r="102" spans="1:5" ht="27" x14ac:dyDescent="0.3">
       <c r="A102" s="1" t="s">
         <v>389</v>
       </c>
@@ -4172,7 +3507,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="103" spans="1:5">
+    <row r="103" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A103" s="1" t="s">
         <v>393</v>
       </c>
@@ -4189,7 +3524,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="104" ht="28.8" spans="1:5">
+    <row r="104" spans="1:5" ht="27" x14ac:dyDescent="0.3">
       <c r="A104" s="1" t="s">
         <v>395</v>
       </c>
@@ -4206,7 +3541,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="105" ht="28.8" spans="1:5">
+    <row r="105" spans="1:5" ht="27" x14ac:dyDescent="0.3">
       <c r="A105" s="1" t="s">
         <v>399</v>
       </c>
@@ -4223,7 +3558,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="106" ht="28.8" spans="1:5">
+    <row r="106" spans="1:5" ht="27" x14ac:dyDescent="0.3">
       <c r="A106" s="1" t="s">
         <v>403</v>
       </c>
@@ -4240,7 +3575,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="107" spans="1:5">
+    <row r="107" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A107" s="1" t="s">
         <v>405</v>
       </c>
@@ -4257,7 +3592,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="108" ht="28.8" spans="1:5">
+    <row r="108" spans="1:5" ht="27" x14ac:dyDescent="0.3">
       <c r="A108" s="1" t="s">
         <v>408</v>
       </c>
@@ -4274,7 +3609,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="109" ht="28.8" spans="1:5">
+    <row r="109" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A109" s="1" t="s">
         <v>412</v>
       </c>
@@ -4291,7 +3626,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="110" spans="1:5">
+    <row r="110" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A110" s="1" t="s">
         <v>415</v>
       </c>
@@ -4308,7 +3643,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="111" ht="28.8" spans="1:5">
+    <row r="111" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A111" s="1" t="s">
         <v>419</v>
       </c>
@@ -4325,7 +3660,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="112" spans="1:5">
+    <row r="112" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A112" s="1" t="s">
         <v>422</v>
       </c>
@@ -4342,7 +3677,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="113" ht="28.8" spans="1:5">
+    <row r="113" spans="1:5" ht="27" x14ac:dyDescent="0.3">
       <c r="A113" s="1" t="s">
         <v>426</v>
       </c>
@@ -4359,7 +3694,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="114" spans="1:5">
+    <row r="114" spans="1:5" ht="27" x14ac:dyDescent="0.3">
       <c r="A114" s="1" t="s">
         <v>430</v>
       </c>
@@ -4370,202 +3705,134 @@
         <v>432</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>8</v>
+        <v>433</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>433</v>
-      </c>
-    </row>
-    <row r="115" ht="28.8" spans="1:5">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5" ht="27" x14ac:dyDescent="0.3">
       <c r="A115" s="1" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>435</v>
+        <v>31</v>
       </c>
       <c r="C115" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="D115" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="E115" s="2" t="s">
         <v>436</v>
       </c>
-      <c r="D115" s="2" t="s">
+    </row>
+    <row r="116" spans="1:5" ht="27" x14ac:dyDescent="0.3">
+      <c r="A116" s="1" t="s">
         <v>437</v>
-      </c>
-      <c r="E115" s="2" t="s">
-        <v>438</v>
-      </c>
-    </row>
-    <row r="116" ht="28.8" spans="1:5">
-      <c r="A116" s="1" t="s">
-        <v>439</v>
       </c>
       <c r="B116" s="2" t="s">
         <v>31</v>
       </c>
       <c r="C116" s="2" t="s">
-        <v>67</v>
+        <v>438</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>68</v>
+        <v>33</v>
       </c>
       <c r="E116" s="2" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A117" s="1" t="s">
         <v>440</v>
       </c>
-    </row>
-    <row r="117" ht="28.8" spans="1:5">
-      <c r="A117" s="1" t="s">
+      <c r="B117" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C117" s="2" t="s">
+        <v>406</v>
+      </c>
+      <c r="D117" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E117" s="2" t="s">
         <v>441</v>
       </c>
-      <c r="B117" s="2" t="s">
+    </row>
+    <row r="118" spans="1:5" ht="27" x14ac:dyDescent="0.3">
+      <c r="A118" s="1" t="s">
         <v>442</v>
       </c>
-      <c r="C117" s="2" t="s">
+      <c r="B118" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C118" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="D118" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E118" s="2" t="s">
         <v>443</v>
       </c>
-      <c r="D117" s="2" t="s">
-        <v>437</v>
-      </c>
-      <c r="E117" s="2" t="s">
+    </row>
+    <row r="119" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A119" s="1" t="s">
         <v>444</v>
       </c>
-    </row>
-    <row r="118" ht="28.8" spans="1:5">
-      <c r="A118" s="1" t="s">
+      <c r="B119" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C119" s="2" t="s">
         <v>445</v>
       </c>
-      <c r="B118" s="2" t="s">
+      <c r="D119" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E119" s="2" t="s">
         <v>446</v>
       </c>
-      <c r="C118" s="2" t="s">
+    </row>
+    <row r="120" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A120" s="1" t="s">
         <v>447</v>
-      </c>
-      <c r="D118" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E118" s="2" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="119" spans="1:5">
-      <c r="A119" s="1" t="s">
-        <v>449</v>
-      </c>
-      <c r="B119" s="2" t="s">
-        <v>450</v>
-      </c>
-      <c r="C119" s="2" t="s">
-        <v>451</v>
-      </c>
-      <c r="D119" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E119" s="2" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="120" ht="28.8" spans="1:5">
-      <c r="A120" s="1" t="s">
-        <v>453</v>
       </c>
       <c r="B120" s="2" t="s">
         <v>31</v>
       </c>
       <c r="C120" s="2" t="s">
-        <v>454</v>
+        <v>239</v>
       </c>
       <c r="D120" s="2" t="s">
         <v>33</v>
       </c>
       <c r="E120" s="2" t="s">
-        <v>455</v>
-      </c>
-    </row>
-    <row r="121" spans="1:5">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A121" s="1" t="s">
-        <v>456</v>
+        <v>449</v>
       </c>
       <c r="B121" s="2" t="s">
         <v>31</v>
       </c>
       <c r="C121" s="2" t="s">
-        <v>406</v>
+        <v>379</v>
       </c>
       <c r="D121" s="2" t="s">
         <v>33</v>
       </c>
       <c r="E121" s="2" t="s">
-        <v>457</v>
-      </c>
-    </row>
-    <row r="122" ht="28.8" spans="1:5">
-      <c r="A122" s="1" t="s">
-        <v>458</v>
-      </c>
-      <c r="B122" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="C122" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="D122" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="E122" s="2" t="s">
-        <v>459</v>
-      </c>
-    </row>
-    <row r="123" spans="1:5">
-      <c r="A123" s="1" t="s">
-        <v>460</v>
-      </c>
-      <c r="B123" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="C123" s="2" t="s">
-        <v>461</v>
-      </c>
-      <c r="D123" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="E123" s="2" t="s">
-        <v>462</v>
-      </c>
-    </row>
-    <row r="124" spans="1:5">
-      <c r="A124" s="1" t="s">
-        <v>463</v>
-      </c>
-      <c r="B124" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="C124" s="2" t="s">
-        <v>239</v>
-      </c>
-      <c r="D124" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="E124" s="2" t="s">
-        <v>464</v>
-      </c>
-    </row>
-    <row r="125" spans="1:5">
-      <c r="A125" s="1" t="s">
-        <v>465</v>
-      </c>
-      <c r="B125" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="C125" s="2" t="s">
-        <v>379</v>
-      </c>
-      <c r="D125" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="E125" s="2" t="s">
-        <v>466</v>
+        <v>450</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="1" orientation="portrait"/>
-  <headerFooter/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/.ready/最新发布资源-维格视图.xlsx
+++ b/.ready/最新发布资源-维格视图.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Project\memo\.ready\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF442E68-6215-4BE3-B9F5-B14442F8CE94}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{768424BC-335B-497D-BEB5-38BD3773E02D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="19095" windowHeight="12075" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="605" uniqueCount="451">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="560" uniqueCount="419">
   <si>
     <t>标题</t>
   </si>
@@ -409,15 +409,6 @@
     <t>2024/02/25 00:58</t>
   </si>
   <si>
-    <t>TikTok v33.4.3 内置功能解锁模组</t>
-  </si>
-  <si>
-    <t>https://pan.quark.cn/s/ed4c47b666ef</t>
-  </si>
-  <si>
-    <t>2024/02/24 22:47</t>
-  </si>
-  <si>
     <t>极客时间 - 分布式缓存高手课</t>
   </si>
   <si>
@@ -1201,12 +1192,6 @@
     <t>2024/02/13 02:29</t>
   </si>
   <si>
-    <t>TikTok 抖音国际版 v33.3.4 解锁功能</t>
-  </si>
-  <si>
-    <t>2024/02/09 21:59</t>
-  </si>
-  <si>
     <t>【编程达人】火哥Windows内核课程（上+下) - 带源码课件</t>
   </si>
   <si>
@@ -1219,18 +1204,6 @@
     <t>2024/02/09 09:51</t>
   </si>
   <si>
-    <t>【开课吧】Web前端高级工程师021期 - 带源码课件</t>
-  </si>
-  <si>
-    <t>https://www.alipan.com/s/tio6NcM9SxF</t>
-  </si>
-  <si>
-    <t>https://pan.quark.cn/s/c31faf516ea0</t>
-  </si>
-  <si>
-    <t>2024/02/09 06:50</t>
-  </si>
-  <si>
     <t>Picsart 图像视频编辑器 v24.2.4 功能解锁</t>
   </si>
   <si>
@@ -1246,18 +1219,6 @@
     <t>2024/02/08 23:24</t>
   </si>
   <si>
-    <t>华杉科技 - 2022年最新JavaScript零基础入门教程</t>
-  </si>
-  <si>
-    <t>https://www.alipan.com/s/AWdJJc5WcR4</t>
-  </si>
-  <si>
-    <t>https://pan.quark.cn/s/1680438716d6</t>
-  </si>
-  <si>
-    <t>2024/02/08 21:59</t>
-  </si>
-  <si>
     <t>VivaCut - 专业视频剪辑 v3.5.6 功能解锁</t>
   </si>
   <si>
@@ -1267,18 +1228,6 @@
     <t>2024/02/08 20:50</t>
   </si>
   <si>
-    <t>【51CTO】C++ Qt基础与进阶教程</t>
-  </si>
-  <si>
-    <t>https://www.alipan.com/s/A4HE5hz9tSD</t>
-  </si>
-  <si>
-    <t>https://pan.quark.cn/s/50457409ea1b</t>
-  </si>
-  <si>
-    <t>2024/02/08 16:49</t>
-  </si>
-  <si>
     <t>SnapTube - 视频下载器 v7.15.0 功能解锁</t>
   </si>
   <si>
@@ -1288,45 +1237,6 @@
     <t>2024/02/08 02:16</t>
   </si>
   <si>
-    <t>【BitTiger】CS501硅谷程序员直通车</t>
-  </si>
-  <si>
-    <t>https://www.alipan.com/s/zjPdQxCjEEj</t>
-  </si>
-  <si>
-    <t>https://pan.quark.cn/s/c3bd32f9ab9e</t>
-  </si>
-  <si>
-    <t>2024/02/07 22:13</t>
-  </si>
-  <si>
-    <t>Spring Cloud Alibaba 微服务架构实战 - 带源码课件</t>
-  </si>
-  <si>
-    <t>https://www.alipan.com/s/TDvrRXxtb7a</t>
-  </si>
-  <si>
-    <t>https://pan.quark.cn/s/038bd449ee3e</t>
-  </si>
-  <si>
-    <t>2024/02/07 22:12</t>
-  </si>
-  <si>
-    <t>视频下载软件 Downie 4 for Mac v4.7.3 已激活开心版</t>
-  </si>
-  <si>
-    <t>https://www.alipan.com/s/GySAXa4zm1h</t>
-  </si>
-  <si>
-    <t>https://pan.quark.cn/s/b098f06908d7</t>
-  </si>
-  <si>
-    <t>软件 - 电脑端</t>
-  </si>
-  <si>
-    <t>2024/02/07 01:57</t>
-  </si>
-  <si>
     <t>Subway Surfers 地铁跑酷 v3.24.1 国际服 修改版</t>
   </si>
   <si>
@@ -1346,12 +1256,6 @@
   </si>
   <si>
     <t>2024/02/04 23:09</t>
-  </si>
-  <si>
-    <t>TikTok 抖音国际版 v33.2.5 去广告解锁全部国家任意切换</t>
-  </si>
-  <si>
-    <t>2024/02/04 21:02</t>
   </si>
   <si>
     <t>OmoFun - 动漫视频 v1.0.9 去广告</t>
@@ -1761,10 +1665,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E121"/>
+  <dimension ref="A1:E112"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A108" workbookViewId="0">
-      <selection activeCell="A115" sqref="A115"/>
+    <sheetView tabSelected="1" topLeftCell="A94" workbookViewId="0">
+      <selection activeCell="A102" sqref="A102"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="38.6640625" defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
@@ -2322,186 +2226,186 @@
         <v>129</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>31</v>
+        <v>130</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>33</v>
+        <v>8</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="D34" s="2" t="s">
         <v>8</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A35" s="1" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="D35" s="2" t="s">
         <v>8</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" ht="27" x14ac:dyDescent="0.3">
       <c r="A36" s="1" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="D36" s="2" t="s">
         <v>8</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" ht="27" x14ac:dyDescent="0.3">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A37" s="1" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="D37" s="2" t="s">
         <v>8</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" ht="27" x14ac:dyDescent="0.3">
       <c r="A38" s="1" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="D38" s="2" t="s">
         <v>8</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" ht="27" x14ac:dyDescent="0.3">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="D39" s="2" t="s">
         <v>8</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="D40" s="2" t="s">
         <v>8</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" ht="27" x14ac:dyDescent="0.3">
       <c r="A41" s="1" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="D41" s="2" t="s">
         <v>8</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" ht="27" x14ac:dyDescent="0.3">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A42" s="1" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>165</v>
+        <v>31</v>
       </c>
       <c r="C42" s="2" t="s">
         <v>166</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>8</v>
+        <v>33</v>
       </c>
       <c r="E42" s="2" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:5" ht="27" x14ac:dyDescent="0.3">
       <c r="A43" s="1" t="s">
         <v>168</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>31</v>
+        <v>169</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>33</v>
+        <v>8</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
     </row>
     <row r="44" spans="1:5" ht="27" x14ac:dyDescent="0.3">
@@ -2518,89 +2422,89 @@
         <v>8</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
     </row>
     <row r="45" spans="1:5" ht="27" x14ac:dyDescent="0.3">
       <c r="A45" s="1" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="D45" s="2" t="s">
         <v>8</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
     </row>
     <row r="46" spans="1:5" ht="27" x14ac:dyDescent="0.3">
       <c r="A46" s="1" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="D46" s="2" t="s">
         <v>8</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5" ht="27" x14ac:dyDescent="0.3">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A47" s="1" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="D47" s="2" t="s">
         <v>8</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A48" s="1" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="D48" s="2" t="s">
         <v>8</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" ht="27" x14ac:dyDescent="0.3">
       <c r="A49" s="1" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>191</v>
+        <v>31</v>
       </c>
       <c r="C49" s="2" t="s">
         <v>192</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>8</v>
+        <v>33</v>
       </c>
       <c r="E49" s="2" t="s">
         <v>193</v>
@@ -2611,200 +2515,200 @@
         <v>194</v>
       </c>
       <c r="B50" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="C50" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="D50" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E50" s="2" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A51" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="B51" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="C51" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="D51" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E51" s="2" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" ht="27" x14ac:dyDescent="0.3">
+      <c r="A52" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="B52" s="2" t="s">
         <v>31</v>
-      </c>
-      <c r="C50" s="2" t="s">
-        <v>195</v>
-      </c>
-      <c r="D50" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="E50" s="2" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5" ht="27" x14ac:dyDescent="0.3">
-      <c r="A51" s="1" t="s">
-        <v>197</v>
-      </c>
-      <c r="B51" s="2" t="s">
-        <v>198</v>
-      </c>
-      <c r="C51" s="2" t="s">
-        <v>199</v>
-      </c>
-      <c r="D51" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E51" s="2" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A52" s="1" t="s">
-        <v>201</v>
-      </c>
-      <c r="B52" s="2" t="s">
-        <v>202</v>
       </c>
       <c r="C52" s="2" t="s">
         <v>203</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>8</v>
+        <v>33</v>
       </c>
       <c r="E52" s="2" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="53" spans="1:5" ht="27" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A53" s="1" t="s">
         <v>205</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>31</v>
+        <v>206</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>33</v>
+        <v>8</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A54" s="1" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="D54" s="2" t="s">
         <v>8</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A55" s="1" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="D55" s="2" t="s">
         <v>8</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A56" s="1" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>217</v>
+        <v>31</v>
       </c>
       <c r="C56" s="2" t="s">
         <v>218</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>8</v>
+        <v>33</v>
       </c>
       <c r="E56" s="2" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:5" ht="27" x14ac:dyDescent="0.3">
       <c r="A57" s="1" t="s">
         <v>220</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>31</v>
+        <v>221</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>33</v>
+        <v>8</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
     </row>
     <row r="58" spans="1:5" ht="27" x14ac:dyDescent="0.3">
       <c r="A58" s="1" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="D58" s="2" t="s">
         <v>8</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
     </row>
     <row r="59" spans="1:5" ht="27" x14ac:dyDescent="0.3">
       <c r="A59" s="1" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>228</v>
+        <v>31</v>
       </c>
       <c r="C59" s="2" t="s">
         <v>229</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>8</v>
+        <v>33</v>
       </c>
       <c r="E59" s="2" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="60" spans="1:5" ht="27" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A60" s="1" t="s">
         <v>231</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>31</v>
+        <v>232</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>33</v>
+        <v>8</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A61" s="1" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>235</v>
+        <v>31</v>
       </c>
       <c r="C61" s="2" t="s">
         <v>236</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>8</v>
+        <v>33</v>
       </c>
       <c r="E61" s="2" t="s">
         <v>237</v>
@@ -2815,265 +2719,265 @@
         <v>238</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>31</v>
+        <v>239</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>33</v>
+        <v>8</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A63" s="1" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="D63" s="2" t="s">
         <v>8</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.3">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" ht="27" x14ac:dyDescent="0.3">
       <c r="A64" s="1" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="D64" s="2" t="s">
         <v>8</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
     </row>
     <row r="65" spans="1:5" ht="27" x14ac:dyDescent="0.3">
       <c r="A65" s="1" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="D65" s="2" t="s">
         <v>8</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
     </row>
     <row r="66" spans="1:5" ht="27" x14ac:dyDescent="0.3">
       <c r="A66" s="1" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="D66" s="2" t="s">
         <v>8</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5" ht="27" x14ac:dyDescent="0.3">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A67" s="1" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="D67" s="2" t="s">
         <v>8</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.3">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" ht="27" x14ac:dyDescent="0.3">
       <c r="A68" s="1" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="D68" s="2" t="s">
         <v>8</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
     </row>
     <row r="69" spans="1:5" ht="27" x14ac:dyDescent="0.3">
       <c r="A69" s="1" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>266</v>
+        <v>31</v>
       </c>
       <c r="C69" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="D69" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="E69" s="2" t="s">
         <v>267</v>
-      </c>
-      <c r="D69" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E69" s="2" t="s">
-        <v>268</v>
       </c>
     </row>
     <row r="70" spans="1:5" ht="27" x14ac:dyDescent="0.3">
       <c r="A70" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="B70" s="2" t="s">
         <v>269</v>
       </c>
-      <c r="B70" s="2" t="s">
-        <v>31</v>
-      </c>
       <c r="C70" s="2" t="s">
-        <v>67</v>
+        <v>270</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>68</v>
+        <v>8</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
     </row>
     <row r="71" spans="1:5" ht="27" x14ac:dyDescent="0.3">
       <c r="A71" s="1" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="D71" s="2" t="s">
         <v>8</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
     </row>
     <row r="72" spans="1:5" ht="27" x14ac:dyDescent="0.3">
       <c r="A72" s="1" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="D72" s="2" t="s">
         <v>8</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5" ht="27" x14ac:dyDescent="0.3">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A73" s="1" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="D73" s="2" t="s">
         <v>8</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.3">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" ht="27" x14ac:dyDescent="0.3">
       <c r="A74" s="1" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="D74" s="2" t="s">
         <v>8</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5" ht="27" x14ac:dyDescent="0.3">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A75" s="1" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="D75" s="2" t="s">
         <v>8</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.3">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" ht="27" x14ac:dyDescent="0.3">
       <c r="A76" s="1" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>292</v>
+        <v>31</v>
       </c>
       <c r="C76" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="D76" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E76" s="2" t="s">
         <v>293</v>
       </c>
-      <c r="D76" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E76" s="2" t="s">
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A77" s="1" t="s">
         <v>294</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5" ht="27" x14ac:dyDescent="0.3">
-      <c r="A77" s="1" t="s">
-        <v>295</v>
       </c>
       <c r="B77" s="2" t="s">
         <v>31</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>107</v>
+        <v>295</v>
       </c>
       <c r="D77" s="2" t="s">
         <v>33</v>
@@ -3099,341 +3003,341 @@
         <v>299</v>
       </c>
     </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:5" ht="27" x14ac:dyDescent="0.3">
       <c r="A79" s="1" t="s">
         <v>300</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>31</v>
+        <v>301</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>33</v>
+        <v>8</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="80" spans="1:5" ht="27" x14ac:dyDescent="0.3">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A80" s="1" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="D80" s="2" t="s">
         <v>8</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A81" s="1" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="D81" s="2" t="s">
         <v>8</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A82" s="1" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="D82" s="2" t="s">
         <v>8</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.3">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" ht="27" x14ac:dyDescent="0.3">
       <c r="A83" s="1" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="D83" s="2" t="s">
         <v>8</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="84" spans="1:5" ht="27" x14ac:dyDescent="0.3">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A84" s="1" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="D84" s="2" t="s">
         <v>8</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.3">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" ht="27" x14ac:dyDescent="0.3">
       <c r="A85" s="1" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="D85" s="2" t="s">
         <v>8</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="86" spans="1:5" ht="27" x14ac:dyDescent="0.3">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A86" s="1" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="D86" s="2" t="s">
         <v>8</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.3">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" ht="27" x14ac:dyDescent="0.3">
       <c r="A87" s="1" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="D87" s="2" t="s">
         <v>8</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
     </row>
     <row r="88" spans="1:5" ht="27" x14ac:dyDescent="0.3">
       <c r="A88" s="1" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="D88" s="2" t="s">
         <v>8</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
     </row>
     <row r="89" spans="1:5" ht="27" x14ac:dyDescent="0.3">
       <c r="A89" s="1" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="D89" s="2" t="s">
         <v>8</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="90" spans="1:5" ht="27" x14ac:dyDescent="0.3">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A90" s="1" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="D90" s="2" t="s">
         <v>8</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.3">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" ht="27" x14ac:dyDescent="0.3">
       <c r="A91" s="1" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="D91" s="2" t="s">
         <v>8</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
     </row>
     <row r="92" spans="1:5" ht="27" x14ac:dyDescent="0.3">
       <c r="A92" s="1" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="D92" s="2" t="s">
         <v>8</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="93" spans="1:5" ht="27" x14ac:dyDescent="0.3">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A93" s="1" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="D93" s="2" t="s">
         <v>8</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.3">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" ht="27" x14ac:dyDescent="0.3">
       <c r="A94" s="1" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="D94" s="2" t="s">
         <v>8</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
     </row>
     <row r="95" spans="1:5" ht="27" x14ac:dyDescent="0.3">
       <c r="A95" s="1" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>364</v>
+        <v>31</v>
       </c>
       <c r="C95" s="2" t="s">
         <v>365</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>8</v>
+        <v>33</v>
       </c>
       <c r="E95" s="2" t="s">
         <v>366</v>
       </c>
     </row>
-    <row r="96" spans="1:5" ht="27" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A96" s="1" t="s">
         <v>367</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>31</v>
+        <v>368</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>33</v>
+        <v>8</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A97" s="1" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="D97" s="2" t="s">
         <v>8</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A98" s="1" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>375</v>
+        <v>31</v>
       </c>
       <c r="C98" s="2" t="s">
         <v>376</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>8</v>
+        <v>33</v>
       </c>
       <c r="E98" s="2" t="s">
         <v>377</v>
@@ -3444,129 +3348,129 @@
         <v>378</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>31</v>
+        <v>379</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>33</v>
+        <v>8</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.3">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" ht="27" x14ac:dyDescent="0.3">
       <c r="A100" s="1" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="D100" s="2" t="s">
         <v>8</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
     </row>
     <row r="101" spans="1:5" ht="27" x14ac:dyDescent="0.3">
       <c r="A101" s="1" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="D101" s="2" t="s">
         <v>8</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
     </row>
     <row r="102" spans="1:5" ht="27" x14ac:dyDescent="0.3">
       <c r="A102" s="1" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="D102" s="2" t="s">
         <v>8</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.3">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" ht="27" x14ac:dyDescent="0.3">
       <c r="A103" s="1" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="B103" s="2" t="s">
         <v>31</v>
       </c>
       <c r="C103" s="2" t="s">
-        <v>130</v>
+        <v>203</v>
       </c>
       <c r="D103" s="2" t="s">
         <v>33</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="104" spans="1:5" ht="27" x14ac:dyDescent="0.3">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A104" s="1" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>396</v>
+        <v>31</v>
       </c>
       <c r="C104" s="2" t="s">
         <v>397</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>8</v>
+        <v>33</v>
       </c>
       <c r="E104" s="2" t="s">
         <v>398</v>
       </c>
     </row>
-    <row r="105" spans="1:5" ht="27" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A105" s="1" t="s">
         <v>399</v>
       </c>
       <c r="B105" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C105" s="2" t="s">
         <v>400</v>
       </c>
-      <c r="C105" s="2" t="s">
+      <c r="D105" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E105" s="2" t="s">
         <v>401</v>
       </c>
-      <c r="D105" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E105" s="2" t="s">
+    </row>
+    <row r="106" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A106" s="1" t="s">
         <v>402</v>
-      </c>
-    </row>
-    <row r="106" spans="1:5" ht="27" x14ac:dyDescent="0.3">
-      <c r="A106" s="1" t="s">
-        <v>403</v>
       </c>
       <c r="B106" s="2" t="s">
         <v>31</v>
       </c>
       <c r="C106" s="2" t="s">
-        <v>206</v>
+        <v>403</v>
       </c>
       <c r="D106" s="2" t="s">
         <v>33</v>
@@ -3575,7 +3479,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:5" ht="27" x14ac:dyDescent="0.3">
       <c r="A107" s="1" t="s">
         <v>405</v>
       </c>
@@ -3583,251 +3487,98 @@
         <v>31</v>
       </c>
       <c r="C107" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="D107" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="E107" s="2" t="s">
         <v>406</v>
-      </c>
-      <c r="D107" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="E107" s="2" t="s">
-        <v>407</v>
       </c>
     </row>
     <row r="108" spans="1:5" ht="27" x14ac:dyDescent="0.3">
       <c r="A108" s="1" t="s">
+        <v>407</v>
+      </c>
+      <c r="B108" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C108" s="2" t="s">
         <v>408</v>
       </c>
-      <c r="B108" s="2" t="s">
+      <c r="D108" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E108" s="2" t="s">
         <v>409</v>
-      </c>
-      <c r="C108" s="2" t="s">
-        <v>410</v>
-      </c>
-      <c r="D108" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E108" s="2" t="s">
-        <v>411</v>
       </c>
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A109" s="1" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="B109" s="2" t="s">
         <v>31</v>
       </c>
       <c r="C109" s="2" t="s">
-        <v>413</v>
+        <v>397</v>
       </c>
       <c r="D109" s="2" t="s">
         <v>33</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A110" s="1" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>416</v>
+        <v>31</v>
       </c>
       <c r="C110" s="2" t="s">
-        <v>417</v>
+        <v>413</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>8</v>
+        <v>33</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>418</v>
+        <v>414</v>
       </c>
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A111" s="1" t="s">
-        <v>419</v>
+        <v>415</v>
       </c>
       <c r="B111" s="2" t="s">
         <v>31</v>
       </c>
       <c r="C111" s="2" t="s">
-        <v>420</v>
+        <v>236</v>
       </c>
       <c r="D111" s="2" t="s">
         <v>33</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>421</v>
+        <v>416</v>
       </c>
     </row>
     <row r="112" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A112" s="1" t="s">
-        <v>422</v>
+        <v>417</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>423</v>
+        <v>31</v>
       </c>
       <c r="C112" s="2" t="s">
-        <v>424</v>
+        <v>376</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>8</v>
+        <v>33</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>425</v>
-      </c>
-    </row>
-    <row r="113" spans="1:5" ht="27" x14ac:dyDescent="0.3">
-      <c r="A113" s="1" t="s">
-        <v>426</v>
-      </c>
-      <c r="B113" s="2" t="s">
-        <v>427</v>
-      </c>
-      <c r="C113" s="2" t="s">
-        <v>428</v>
-      </c>
-      <c r="D113" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E113" s="2" t="s">
-        <v>429</v>
-      </c>
-    </row>
-    <row r="114" spans="1:5" ht="27" x14ac:dyDescent="0.3">
-      <c r="A114" s="1" t="s">
-        <v>430</v>
-      </c>
-      <c r="B114" s="2" t="s">
-        <v>431</v>
-      </c>
-      <c r="C114" s="2" t="s">
-        <v>432</v>
-      </c>
-      <c r="D114" s="2" t="s">
-        <v>433</v>
-      </c>
-      <c r="E114" s="2" t="s">
-        <v>434</v>
-      </c>
-    </row>
-    <row r="115" spans="1:5" ht="27" x14ac:dyDescent="0.3">
-      <c r="A115" s="1" t="s">
-        <v>435</v>
-      </c>
-      <c r="B115" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="C115" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="D115" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="E115" s="2" t="s">
-        <v>436</v>
-      </c>
-    </row>
-    <row r="116" spans="1:5" ht="27" x14ac:dyDescent="0.3">
-      <c r="A116" s="1" t="s">
-        <v>437</v>
-      </c>
-      <c r="B116" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="C116" s="2" t="s">
-        <v>438</v>
-      </c>
-      <c r="D116" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="E116" s="2" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A117" s="1" t="s">
-        <v>440</v>
-      </c>
-      <c r="B117" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="C117" s="2" t="s">
-        <v>406</v>
-      </c>
-      <c r="D117" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="E117" s="2" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="118" spans="1:5" ht="27" x14ac:dyDescent="0.3">
-      <c r="A118" s="1" t="s">
-        <v>442</v>
-      </c>
-      <c r="B118" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="C118" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="D118" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="E118" s="2" t="s">
-        <v>443</v>
-      </c>
-    </row>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A119" s="1" t="s">
-        <v>444</v>
-      </c>
-      <c r="B119" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="C119" s="2" t="s">
-        <v>445</v>
-      </c>
-      <c r="D119" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="E119" s="2" t="s">
-        <v>446</v>
-      </c>
-    </row>
-    <row r="120" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A120" s="1" t="s">
-        <v>447</v>
-      </c>
-      <c r="B120" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="C120" s="2" t="s">
-        <v>239</v>
-      </c>
-      <c r="D120" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="E120" s="2" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="121" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A121" s="1" t="s">
-        <v>449</v>
-      </c>
-      <c r="B121" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="C121" s="2" t="s">
-        <v>379</v>
-      </c>
-      <c r="D121" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="E121" s="2" t="s">
-        <v>450</v>
+        <v>418</v>
       </c>
     </row>
   </sheetData>

--- a/.ready/最新发布资源-维格视图.xlsx
+++ b/.ready/最新发布资源-维格视图.xlsx
@@ -1,26 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27231"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Project\memo\.ready\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{768424BC-335B-497D-BEB5-38BD3773E02D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="19095" windowHeight="12075" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="23040" windowHeight="9300"/>
   </bookViews>
   <sheets>
     <sheet name="维格视图" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">维格视图!$D$1:$D$85</definedName>
+  </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="560" uniqueCount="419">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="425" uniqueCount="342">
   <si>
     <t>标题</t>
   </si>
@@ -37,30 +34,18 @@
     <t>修改时间</t>
   </si>
   <si>
-    <t>B站 - 金灿荣教授：进击的中国外交</t>
-  </si>
-  <si>
-    <t>https://www.alipan.com/s/R9CruNgR1mu</t>
-  </si>
-  <si>
-    <t>https://pan.quark.cn/s/8feb18cc63fa</t>
+    <t>React 实战进阶 45 讲 - 带源码课件</t>
+  </si>
+  <si>
+    <t>https://www.alipan.com/s/XXBykN4NcNQ</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/5ac7f8cb1b0b</t>
   </si>
   <si>
     <t>学术</t>
   </si>
   <si>
-    <t>2024/02/28 17:27</t>
-  </si>
-  <si>
-    <t>React 实战进阶 45 讲 - 带源码课件</t>
-  </si>
-  <si>
-    <t>https://www.alipan.com/s/XXBykN4NcNQ</t>
-  </si>
-  <si>
-    <t>https://pan.quark.cn/s/5ac7f8cb1b0b</t>
-  </si>
-  <si>
     <t>2024/02/28 15:27</t>
   </si>
   <si>
@@ -112,21 +97,6 @@
     <t>2024/02/27 22:15</t>
   </si>
   <si>
-    <t>InShot - 视频制作 v2.020.1441 功能解锁</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>https://pan.quark.cn/s/3f44ac6a6b3c</t>
-  </si>
-  <si>
-    <t>软件 - 移动端</t>
-  </si>
-  <si>
-    <t>2024/02/27 21:21</t>
-  </si>
-  <si>
     <t>B站 - Excel大神上分攻略 - 带源码课件</t>
   </si>
   <si>
@@ -175,15 +145,6 @@
     <t>2024/02/27 15:56</t>
   </si>
   <si>
-    <t>MX Player Pro - MX视频播放器 v1.78.6 功能解锁</t>
-  </si>
-  <si>
-    <t>https://pan.quark.cn/s/19fa640f38cc</t>
-  </si>
-  <si>
-    <t>2024/02/27 15:35</t>
-  </si>
-  <si>
     <t>极客时间 - 分布式系统案例课</t>
   </si>
   <si>
@@ -220,18 +181,6 @@
     <t>2024/02/27 03:11</t>
   </si>
   <si>
-    <t>Subway Surfers 国际服 v3.25.1 MOD 功能解锁</t>
-  </si>
-  <si>
-    <t>https://pan.quark.cn/s/ab8dde0cf309</t>
-  </si>
-  <si>
-    <t>游戏 - 移动端</t>
-  </si>
-  <si>
-    <t>2024/02/27 00:29</t>
-  </si>
-  <si>
     <t>B站 - AE超能力学院 - 小莫入门到精通 - 带源码课件</t>
   </si>
   <si>
@@ -340,15 +289,6 @@
     <t>2024/02/25 23:26</t>
   </si>
   <si>
-    <t>Notein - 手写笔记&amp;PDF编辑器 v1.1.841 功能解锁</t>
-  </si>
-  <si>
-    <t>https://pan.quark.cn/s/82146dabaa5a</t>
-  </si>
-  <si>
-    <t>2024/02/25 22:28</t>
-  </si>
-  <si>
     <t>【一周进步】PPT动画</t>
   </si>
   <si>
@@ -517,24 +457,18 @@
     <t>2024/02/23 21:40</t>
   </si>
   <si>
-    <t>GC自动点击器 v2.2.37 功能解锁</t>
-  </si>
-  <si>
-    <t>https://pan.quark.cn/s/84346435a11f</t>
+    <t>【儒猿课堂】从0开始带你成为MySQL实战优化高手</t>
+  </si>
+  <si>
+    <t>https://www.alipan.com/s/sHEXx5RsWY4</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/6a62a1a5b47e</t>
   </si>
   <si>
     <t>2024/02/23 19:29</t>
   </si>
   <si>
-    <t>【儒猿课堂】从0开始带你成为MySQL实战优化高手</t>
-  </si>
-  <si>
-    <t>https://www.alipan.com/s/sHEXx5RsWY4</t>
-  </si>
-  <si>
-    <t>https://pan.quark.cn/s/6a62a1a5b47e</t>
-  </si>
-  <si>
     <t>【开课吧】JavaEE企业级分布式高级架构师023期 - 带源码课件</t>
   </si>
   <si>
@@ -595,15 +529,6 @@
     <t>2024/02/22 22:42</t>
   </si>
   <si>
-    <t>ESuper - 文件浏览器 v4.4.2.2.1 功能解锁</t>
-  </si>
-  <si>
-    <t>https://pan.quark.cn/s/e69cfd71ff33</t>
-  </si>
-  <si>
-    <t>2024/02/22 21:13</t>
-  </si>
-  <si>
     <t>PS教程超级合辑【1000集2017版】 - 带源码课件</t>
   </si>
   <si>
@@ -628,15 +553,6 @@
     <t>2024/02/22 13:04</t>
   </si>
   <si>
-    <t>Picsart美易 - AI拼贴画制作工具 v24.3.3 功能解锁</t>
-  </si>
-  <si>
-    <t>https://pan.quark.cn/s/9b6f078447a7</t>
-  </si>
-  <si>
-    <t>2024/02/22 06:23</t>
-  </si>
-  <si>
     <t>王红元 - 前端体系课-2614集 - 带源码课件</t>
   </si>
   <si>
@@ -673,15 +589,6 @@
     <t>2024/02/21 20:13</t>
   </si>
   <si>
-    <t>Fotor - AI照片编辑器 v7.5.3.8 功能解锁</t>
-  </si>
-  <si>
-    <t>https://pan.quark.cn/s/4bc61726638b</t>
-  </si>
-  <si>
-    <t>2024/02/21 16:48</t>
-  </si>
-  <si>
     <t>【深蓝学院】机器学习数学基础 - 带源码课件</t>
   </si>
   <si>
@@ -706,15 +613,6 @@
     <t>2024/02/21 14:35</t>
   </si>
   <si>
-    <t>PowerDirector - 威力导演视频剪辑 v13.2.0 功能解锁</t>
-  </si>
-  <si>
-    <t>https://pan.quark.cn/s/1e6bf995b011</t>
-  </si>
-  <si>
-    <t>2024/02/21 11:54</t>
-  </si>
-  <si>
     <t>英语思维：快速建立语法体系</t>
   </si>
   <si>
@@ -727,15 +625,6 @@
     <t>2024/02/21 11:10</t>
   </si>
   <si>
-    <t>CapCut - 剪映国际版 v11.1.0 功能解锁</t>
-  </si>
-  <si>
-    <t>https://pan.quark.cn/s/44715877dfe8</t>
-  </si>
-  <si>
-    <t>2024/02/20 22:20</t>
-  </si>
-  <si>
     <t>【CCtalk】静物美食摄影课 - 17期</t>
   </si>
   <si>
@@ -820,12 +709,6 @@
     <t>2024/02/20 08:37</t>
   </si>
   <si>
-    <t>Subway Surfers 国际服 v3.25.0 MOD 功能解锁</t>
-  </si>
-  <si>
-    <t>2024/02/20 00:29</t>
-  </si>
-  <si>
     <t>【思益学院】纪主任《车神陪跑：拼多多系统化课程》</t>
   </si>
   <si>
@@ -898,30 +781,6 @@
     <t>2024/02/18 23:25</t>
   </si>
   <si>
-    <t>Notein - 手写笔记&amp;PDF编辑器 v1.1.826 功能解锁</t>
-  </si>
-  <si>
-    <t>2024/02/18 21:35</t>
-  </si>
-  <si>
-    <t>Nebo - 笔记和 PDF 标注 v5.8.8 功能解锁</t>
-  </si>
-  <si>
-    <t>https://pan.quark.cn/s/5bdfae39cf26</t>
-  </si>
-  <si>
-    <t>2024/02/18 20:55</t>
-  </si>
-  <si>
-    <t>Lj 视频下载器 v1.1.46 功能解锁</t>
-  </si>
-  <si>
-    <t>https://pan.quark.cn/s/3a28223fb045</t>
-  </si>
-  <si>
-    <t>2024/02/18 20:04</t>
-  </si>
-  <si>
     <t>【达内教育】2023最新Python+人工智能就业班 - 带源码课件</t>
   </si>
   <si>
@@ -1114,15 +973,6 @@
     <t>2024/02/15 00:02</t>
   </si>
   <si>
-    <t>Foxit福昕PDF编辑器 v2024.2.0.0205.0632 功能解锁</t>
-  </si>
-  <si>
-    <t>https://pan.quark.cn/s/8e8e9693f19f</t>
-  </si>
-  <si>
-    <t>2024/02/14 23:01</t>
-  </si>
-  <si>
     <t>【尚硅谷】鸿蒙应用开发 - 带源码课件</t>
   </si>
   <si>
@@ -1147,15 +997,6 @@
     <t>2024/02/14 15:25</t>
   </si>
   <si>
-    <t>AdGuard - DNS广告阻截 v4.4.65 功能解锁</t>
-  </si>
-  <si>
-    <t>https://pan.quark.cn/s/89240d1c79c6</t>
-  </si>
-  <si>
-    <t>2024/02/14 07:22</t>
-  </si>
-  <si>
     <t>【爪哇教育】Web全栈工程师班 - 2023</t>
   </si>
   <si>
@@ -1202,88 +1043,19 @@
   </si>
   <si>
     <t>2024/02/09 09:51</t>
-  </si>
-  <si>
-    <t>Picsart 图像视频编辑器 v24.2.4 功能解锁</t>
-  </si>
-  <si>
-    <t>2024/02/09 00:34</t>
-  </si>
-  <si>
-    <t>WPS Office v18.7.1 功能解锁</t>
-  </si>
-  <si>
-    <t>https://pan.quark.cn/s/5fa9e136af47</t>
-  </si>
-  <si>
-    <t>2024/02/08 23:24</t>
-  </si>
-  <si>
-    <t>VivaCut - 专业视频剪辑 v3.5.6 功能解锁</t>
-  </si>
-  <si>
-    <t>https://pan.quark.cn/s/90953bd6dd25</t>
-  </si>
-  <si>
-    <t>2024/02/08 20:50</t>
-  </si>
-  <si>
-    <t>SnapTube - 视频下载器 v7.15.0 功能解锁</t>
-  </si>
-  <si>
-    <t>https://pan.quark.cn/s/6185a9e48ea5</t>
-  </si>
-  <si>
-    <t>2024/02/08 02:16</t>
-  </si>
-  <si>
-    <t>Subway Surfers 地铁跑酷 v3.24.1 国际服 修改版</t>
-  </si>
-  <si>
-    <t>2024/02/06 23:21</t>
-  </si>
-  <si>
-    <t>XPlayer - 万能视频播放器 v2.3.8.0 去广告 解锁功能</t>
-  </si>
-  <si>
-    <t>https://pan.quark.cn/s/ea1793b83185</t>
-  </si>
-  <si>
-    <t>2024/02/05 01:48</t>
-  </si>
-  <si>
-    <t>WPS Office v18.7 功能解锁</t>
-  </si>
-  <si>
-    <t>2024/02/04 23:09</t>
-  </si>
-  <si>
-    <t>OmoFun - 动漫视频 v1.0.9 去广告</t>
-  </si>
-  <si>
-    <t>https://pan.quark.cn/s/1cf3f6553e44</t>
-  </si>
-  <si>
-    <t>2024/02/03 21:20</t>
-  </si>
-  <si>
-    <t>CapCut - 剪映国际版 v11.0.0</t>
-  </si>
-  <si>
-    <t>2024/02/03 17:46</t>
-  </si>
-  <si>
-    <t>AdGuard - DNS广告阻截 v4.4.47</t>
-  </si>
-  <si>
-    <t>2024/02/03 17:19</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1292,21 +1064,345 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -1314,9 +1410,251 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -1327,17 +1665,61 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1659,25 +2041,25 @@
       </a:style>
     </a:lnDef>
   </a:objectDefaults>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E112"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:E85"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A94" workbookViewId="0">
-      <selection activeCell="A102" sqref="A102"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="38.6640625" defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="38.6666666666667" defaultRowHeight="14.4" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" width="38.6640625" style="1"/>
-    <col min="2" max="16384" width="38.6640625" style="2"/>
+    <col min="1" max="1" width="38.6666666666667" style="1"/>
+    <col min="2" max="16384" width="38.6666666666667" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1694,7 +2076,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5">
       <c r="A2" s="1" t="s">
         <v>5</v>
       </c>
@@ -1711,7 +2093,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5">
       <c r="A3" s="1" t="s">
         <v>10</v>
       </c>
@@ -1728,7 +2110,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5">
       <c r="A4" s="1" t="s">
         <v>14</v>
       </c>
@@ -1745,7 +2127,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5">
       <c r="A5" s="1" t="s">
         <v>18</v>
       </c>
@@ -1762,7 +2144,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5">
       <c r="A6" s="1" t="s">
         <v>22</v>
       </c>
@@ -1779,7 +2161,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5">
       <c r="A7" s="1" t="s">
         <v>26</v>
       </c>
@@ -1796,7 +2178,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" ht="28.8" spans="1:5">
       <c r="A8" s="1" t="s">
         <v>30</v>
       </c>
@@ -1807,98 +2189,98 @@
         <v>32</v>
       </c>
       <c r="D8" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E8" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="E8" s="2" t="s">
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="1" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A9" s="1" t="s">
+      <c r="B9" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="C9" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="C9" s="2" t="s">
+      <c r="D9" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E9" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="D9" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E9" s="2" t="s">
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="1" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" ht="27" x14ac:dyDescent="0.3">
-      <c r="A10" s="1" t="s">
+      <c r="B10" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="C10" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="C10" s="2" t="s">
+      <c r="D10" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E10" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="D10" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E10" s="2" t="s">
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" s="1" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A11" s="1" t="s">
+      <c r="B11" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="B11" s="2" t="s">
+      <c r="C11" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="C11" s="2" t="s">
+      <c r="D11" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E11" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="D11" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E11" s="2" t="s">
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" s="1" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A12" s="1" t="s">
+      <c r="B12" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="B12" s="2" t="s">
+      <c r="C12" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="C12" s="2" t="s">
+      <c r="D12" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E12" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="D12" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E12" s="2" t="s">
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" s="1" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" ht="27" x14ac:dyDescent="0.3">
-      <c r="A13" s="1" t="s">
+      <c r="B13" s="2" t="s">
         <v>51</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>31</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>52</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>33</v>
+        <v>8</v>
       </c>
       <c r="E13" s="2" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="14" ht="28.8" spans="1:5">
       <c r="A14" s="1" t="s">
         <v>54</v>
       </c>
@@ -1915,7 +2297,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5">
       <c r="A15" s="1" t="s">
         <v>58</v>
       </c>
@@ -1932,7 +2314,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5">
       <c r="A16" s="1" t="s">
         <v>62</v>
       </c>
@@ -1949,24 +2331,24 @@
         <v>65</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="27" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5">
       <c r="A17" s="1" t="s">
         <v>66</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>31</v>
+        <v>67</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>68</v>
+        <v>8</v>
       </c>
       <c r="E17" s="2" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="27" x14ac:dyDescent="0.3">
+    <row r="18" ht="28.8" spans="1:5">
       <c r="A18" s="1" t="s">
         <v>70</v>
       </c>
@@ -1983,7 +2365,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5">
       <c r="A19" s="1" t="s">
         <v>74</v>
       </c>
@@ -2000,7 +2382,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="20" ht="28.8" spans="1:5">
       <c r="A20" s="1" t="s">
         <v>78</v>
       </c>
@@ -2017,7 +2399,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5">
       <c r="A21" s="1" t="s">
         <v>82</v>
       </c>
@@ -2034,7 +2416,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="22" ht="28.8" spans="1:5">
       <c r="A22" s="1" t="s">
         <v>86</v>
       </c>
@@ -2051,7 +2433,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:5">
       <c r="A23" s="1" t="s">
         <v>90</v>
       </c>
@@ -2068,7 +2450,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="24" spans="1:5" ht="27" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:5">
       <c r="A24" s="1" t="s">
         <v>94</v>
       </c>
@@ -2085,7 +2467,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:5">
       <c r="A25" s="1" t="s">
         <v>98</v>
       </c>
@@ -2102,7 +2484,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="26" spans="1:5" ht="27" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:5">
       <c r="A26" s="1" t="s">
         <v>102</v>
       </c>
@@ -2119,1471 +2501,1015 @@
         <v>105</v>
       </c>
     </row>
-    <row r="27" spans="1:5" ht="27" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:5">
       <c r="A27" s="1" t="s">
         <v>106</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>31</v>
+        <v>107</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>33</v>
+        <v>8</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5">
       <c r="A28" s="1" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="D28" s="2" t="s">
         <v>8</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5">
       <c r="A29" s="1" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D29" s="2" t="s">
         <v>8</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5">
       <c r="A30" s="1" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D30" s="2" t="s">
         <v>8</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="31" ht="28.8" spans="1:5">
       <c r="A31" s="1" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="D31" s="2" t="s">
         <v>8</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5">
       <c r="A32" s="1" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="D32" s="2" t="s">
         <v>8</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="33" ht="28.8" spans="1:5">
       <c r="A33" s="1" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="D33" s="2" t="s">
         <v>8</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5">
       <c r="A34" s="1" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="D34" s="2" t="s">
         <v>8</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5">
       <c r="A35" s="1" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="D35" s="2" t="s">
         <v>8</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" ht="27" x14ac:dyDescent="0.3">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="36" ht="28.8" spans="1:5">
       <c r="A36" s="1" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="D36" s="2" t="s">
         <v>8</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="37" ht="28.8" spans="1:5">
       <c r="A37" s="1" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="D37" s="2" t="s">
         <v>8</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" ht="27" x14ac:dyDescent="0.3">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="38" ht="28.8" spans="1:5">
       <c r="A38" s="1" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="D38" s="2" t="s">
         <v>8</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="39" ht="28.8" spans="1:5">
       <c r="A39" s="1" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="D39" s="2" t="s">
         <v>8</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="40" ht="28.8" spans="1:5">
       <c r="A40" s="1" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="D40" s="2" t="s">
         <v>8</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" ht="27" x14ac:dyDescent="0.3">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5">
       <c r="A41" s="1" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="D41" s="2" t="s">
         <v>8</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5">
       <c r="A42" s="1" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>31</v>
+        <v>167</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>33</v>
+        <v>8</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" ht="27" x14ac:dyDescent="0.3">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="43" ht="28.8" spans="1:5">
       <c r="A43" s="1" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="D43" s="2" t="s">
         <v>8</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" ht="27" x14ac:dyDescent="0.3">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5">
       <c r="A44" s="1" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="D44" s="2" t="s">
         <v>8</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" ht="27" x14ac:dyDescent="0.3">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="45" ht="28.8" spans="1:5">
       <c r="A45" s="1" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="D45" s="2" t="s">
         <v>8</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5" ht="27" x14ac:dyDescent="0.3">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="46" ht="28.8" spans="1:5">
       <c r="A46" s="1" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="D46" s="2" t="s">
         <v>8</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5">
       <c r="A47" s="1" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="D47" s="2" t="s">
         <v>8</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="48" ht="28.8" spans="1:5">
       <c r="A48" s="1" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="D48" s="2" t="s">
         <v>8</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5" ht="27" x14ac:dyDescent="0.3">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="49" ht="28.8" spans="1:5">
       <c r="A49" s="1" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>31</v>
+        <v>195</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>33</v>
+        <v>8</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5" ht="27" x14ac:dyDescent="0.3">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5">
       <c r="A50" s="1" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="D50" s="2" t="s">
         <v>8</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5">
       <c r="A51" s="1" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="D51" s="2" t="s">
         <v>8</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5" ht="27" x14ac:dyDescent="0.3">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5">
       <c r="A52" s="1" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>31</v>
+        <v>207</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>203</v>
+        <v>208</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>33</v>
+        <v>8</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="53" ht="43.2" spans="1:5">
       <c r="A53" s="1" t="s">
-        <v>205</v>
+        <v>210</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>206</v>
+        <v>211</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>207</v>
+        <v>212</v>
       </c>
       <c r="D53" s="2" t="s">
         <v>8</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="54" ht="28.8" spans="1:5">
       <c r="A54" s="1" t="s">
-        <v>209</v>
+        <v>214</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>210</v>
+        <v>215</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>211</v>
+        <v>216</v>
       </c>
       <c r="D54" s="2" t="s">
         <v>8</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="55" ht="28.8" spans="1:5">
       <c r="A55" s="1" t="s">
-        <v>213</v>
+        <v>218</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>214</v>
+        <v>219</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>215</v>
+        <v>220</v>
       </c>
       <c r="D55" s="2" t="s">
         <v>8</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5">
       <c r="A56" s="1" t="s">
-        <v>217</v>
+        <v>222</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>31</v>
+        <v>223</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>218</v>
+        <v>224</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>33</v>
+        <v>8</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5" ht="27" x14ac:dyDescent="0.3">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="57" ht="28.8" spans="1:5">
       <c r="A57" s="1" t="s">
-        <v>220</v>
+        <v>226</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>221</v>
+        <v>227</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>222</v>
+        <v>228</v>
       </c>
       <c r="D57" s="2" t="s">
         <v>8</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5" ht="27" x14ac:dyDescent="0.3">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="58" ht="28.8" spans="1:5">
       <c r="A58" s="1" t="s">
-        <v>224</v>
+        <v>230</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>225</v>
+        <v>231</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>226</v>
+        <v>232</v>
       </c>
       <c r="D58" s="2" t="s">
         <v>8</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5" ht="27" x14ac:dyDescent="0.3">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="59" ht="28.8" spans="1:5">
       <c r="A59" s="1" t="s">
-        <v>228</v>
+        <v>234</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>31</v>
+        <v>235</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>229</v>
+        <v>236</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>33</v>
+        <v>8</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="60" ht="28.8" spans="1:5">
       <c r="A60" s="1" t="s">
-        <v>231</v>
+        <v>238</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>232</v>
+        <v>239</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>233</v>
+        <v>240</v>
       </c>
       <c r="D60" s="2" t="s">
         <v>8</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5">
       <c r="A61" s="1" t="s">
-        <v>235</v>
+        <v>242</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>31</v>
+        <v>243</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>236</v>
+        <v>244</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>33</v>
+        <v>8</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="62" ht="28.8" spans="1:5">
       <c r="A62" s="1" t="s">
-        <v>238</v>
+        <v>246</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>239</v>
+        <v>247</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>240</v>
+        <v>248</v>
       </c>
       <c r="D62" s="2" t="s">
         <v>8</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5">
       <c r="A63" s="1" t="s">
-        <v>242</v>
+        <v>250</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>243</v>
+        <v>251</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>244</v>
+        <v>252</v>
       </c>
       <c r="D63" s="2" t="s">
         <v>8</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5" ht="27" x14ac:dyDescent="0.3">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="64" ht="28.8" spans="1:5">
       <c r="A64" s="1" t="s">
-        <v>246</v>
+        <v>254</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>247</v>
+        <v>255</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>248</v>
+        <v>256</v>
       </c>
       <c r="D64" s="2" t="s">
         <v>8</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5" ht="27" x14ac:dyDescent="0.3">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5">
       <c r="A65" s="1" t="s">
-        <v>250</v>
+        <v>258</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>251</v>
+        <v>259</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>252</v>
+        <v>260</v>
       </c>
       <c r="D65" s="2" t="s">
         <v>8</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5" ht="27" x14ac:dyDescent="0.3">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5">
       <c r="A66" s="1" t="s">
-        <v>254</v>
+        <v>262</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>255</v>
+        <v>263</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>256</v>
+        <v>264</v>
       </c>
       <c r="D66" s="2" t="s">
         <v>8</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.3">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5">
       <c r="A67" s="1" t="s">
-        <v>258</v>
+        <v>266</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>259</v>
+        <v>267</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>260</v>
+        <v>268</v>
       </c>
       <c r="D67" s="2" t="s">
         <v>8</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5" ht="27" x14ac:dyDescent="0.3">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="68" ht="28.8" spans="1:5">
       <c r="A68" s="1" t="s">
-        <v>262</v>
+        <v>270</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>263</v>
+        <v>271</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>264</v>
+        <v>272</v>
       </c>
       <c r="D68" s="2" t="s">
         <v>8</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5" ht="27" x14ac:dyDescent="0.3">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5">
       <c r="A69" s="1" t="s">
-        <v>266</v>
+        <v>274</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>31</v>
+        <v>275</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>67</v>
+        <v>276</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>68</v>
+        <v>8</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5" ht="27" x14ac:dyDescent="0.3">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="70" ht="28.8" spans="1:5">
       <c r="A70" s="1" t="s">
-        <v>268</v>
+        <v>278</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>269</v>
+        <v>279</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>270</v>
+        <v>280</v>
       </c>
       <c r="D70" s="2" t="s">
         <v>8</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="71" spans="1:5" ht="27" x14ac:dyDescent="0.3">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5">
       <c r="A71" s="1" t="s">
-        <v>272</v>
+        <v>282</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>273</v>
+        <v>283</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>274</v>
+        <v>284</v>
       </c>
       <c r="D71" s="2" t="s">
         <v>8</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5" ht="27" x14ac:dyDescent="0.3">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="72" ht="28.8" spans="1:5">
       <c r="A72" s="1" t="s">
-        <v>276</v>
+        <v>286</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>277</v>
+        <v>287</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>278</v>
+        <v>288</v>
       </c>
       <c r="D72" s="2" t="s">
         <v>8</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.3">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="73" ht="28.8" spans="1:5">
       <c r="A73" s="1" t="s">
-        <v>280</v>
+        <v>290</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>281</v>
+        <v>291</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>282</v>
+        <v>292</v>
       </c>
       <c r="D73" s="2" t="s">
         <v>8</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5" ht="27" x14ac:dyDescent="0.3">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="74" ht="28.8" spans="1:5">
       <c r="A74" s="1" t="s">
-        <v>284</v>
+        <v>294</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>285</v>
+        <v>295</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>286</v>
+        <v>296</v>
       </c>
       <c r="D74" s="2" t="s">
         <v>8</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.3">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5">
       <c r="A75" s="1" t="s">
-        <v>288</v>
+        <v>298</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>289</v>
+        <v>299</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>290</v>
+        <v>300</v>
       </c>
       <c r="D75" s="2" t="s">
         <v>8</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5" ht="27" x14ac:dyDescent="0.3">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="76" ht="28.8" spans="1:5">
       <c r="A76" s="1" t="s">
-        <v>292</v>
+        <v>302</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>31</v>
+        <v>303</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>107</v>
+        <v>304</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>33</v>
+        <v>8</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.3">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="77" ht="28.8" spans="1:5">
       <c r="A77" s="1" t="s">
-        <v>294</v>
+        <v>306</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>31</v>
+        <v>307</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>295</v>
+        <v>308</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>33</v>
+        <v>8</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.3">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="78" ht="28.8" spans="1:5">
       <c r="A78" s="1" t="s">
-        <v>297</v>
+        <v>310</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>31</v>
+        <v>311</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>298</v>
+        <v>312</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>33</v>
+        <v>8</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="79" spans="1:5" ht="27" x14ac:dyDescent="0.3">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="79" ht="28.8" spans="1:5">
       <c r="A79" s="1" t="s">
-        <v>300</v>
+        <v>314</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>301</v>
+        <v>315</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>302</v>
+        <v>316</v>
       </c>
       <c r="D79" s="2" t="s">
         <v>8</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.3">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5">
       <c r="A80" s="1" t="s">
-        <v>304</v>
+        <v>318</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>305</v>
+        <v>319</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>306</v>
+        <v>320</v>
       </c>
       <c r="D80" s="2" t="s">
         <v>8</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.3">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="81" ht="28.8" spans="1:5">
       <c r="A81" s="1" t="s">
-        <v>308</v>
+        <v>322</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>309</v>
+        <v>323</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>310</v>
+        <v>324</v>
       </c>
       <c r="D81" s="2" t="s">
         <v>8</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.3">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5">
       <c r="A82" s="1" t="s">
-        <v>312</v>
+        <v>326</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>313</v>
+        <v>327</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>314</v>
+        <v>328</v>
       </c>
       <c r="D82" s="2" t="s">
         <v>8</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="83" spans="1:5" ht="27" x14ac:dyDescent="0.3">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="83" ht="28.8" spans="1:5">
       <c r="A83" s="1" t="s">
-        <v>316</v>
+        <v>330</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>317</v>
+        <v>331</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>318</v>
+        <v>332</v>
       </c>
       <c r="D83" s="2" t="s">
         <v>8</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.3">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="84" ht="28.8" spans="1:5">
       <c r="A84" s="1" t="s">
-        <v>320</v>
+        <v>334</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>321</v>
+        <v>335</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>322</v>
+        <v>336</v>
       </c>
       <c r="D84" s="2" t="s">
         <v>8</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="85" spans="1:5" ht="27" x14ac:dyDescent="0.3">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="85" ht="28.8" spans="1:5">
       <c r="A85" s="1" t="s">
-        <v>324</v>
+        <v>338</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>325</v>
+        <v>339</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>326</v>
+        <v>340</v>
       </c>
       <c r="D85" s="2" t="s">
         <v>8</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A86" s="1" t="s">
-        <v>328</v>
-      </c>
-      <c r="B86" s="2" t="s">
-        <v>329</v>
-      </c>
-      <c r="C86" s="2" t="s">
-        <v>330</v>
-      </c>
-      <c r="D86" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E86" s="2" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="87" spans="1:5" ht="27" x14ac:dyDescent="0.3">
-      <c r="A87" s="1" t="s">
-        <v>332</v>
-      </c>
-      <c r="B87" s="2" t="s">
-        <v>333</v>
-      </c>
-      <c r="C87" s="2" t="s">
-        <v>334</v>
-      </c>
-      <c r="D87" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E87" s="2" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="88" spans="1:5" ht="27" x14ac:dyDescent="0.3">
-      <c r="A88" s="1" t="s">
-        <v>336</v>
-      </c>
-      <c r="B88" s="2" t="s">
-        <v>337</v>
-      </c>
-      <c r="C88" s="2" t="s">
-        <v>338</v>
-      </c>
-      <c r="D88" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E88" s="2" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="89" spans="1:5" ht="27" x14ac:dyDescent="0.3">
-      <c r="A89" s="1" t="s">
-        <v>340</v>
-      </c>
-      <c r="B89" s="2" t="s">
         <v>341</v>
       </c>
-      <c r="C89" s="2" t="s">
-        <v>342</v>
-      </c>
-      <c r="D89" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E89" s="2" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A90" s="1" t="s">
-        <v>344</v>
-      </c>
-      <c r="B90" s="2" t="s">
-        <v>345</v>
-      </c>
-      <c r="C90" s="2" t="s">
-        <v>346</v>
-      </c>
-      <c r="D90" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E90" s="2" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="91" spans="1:5" ht="27" x14ac:dyDescent="0.3">
-      <c r="A91" s="1" t="s">
-        <v>348</v>
-      </c>
-      <c r="B91" s="2" t="s">
-        <v>349</v>
-      </c>
-      <c r="C91" s="2" t="s">
-        <v>350</v>
-      </c>
-      <c r="D91" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E91" s="2" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="92" spans="1:5" ht="27" x14ac:dyDescent="0.3">
-      <c r="A92" s="1" t="s">
-        <v>352</v>
-      </c>
-      <c r="B92" s="2" t="s">
-        <v>353</v>
-      </c>
-      <c r="C92" s="2" t="s">
-        <v>354</v>
-      </c>
-      <c r="D92" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E92" s="2" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A93" s="1" t="s">
-        <v>356</v>
-      </c>
-      <c r="B93" s="2" t="s">
-        <v>357</v>
-      </c>
-      <c r="C93" s="2" t="s">
-        <v>358</v>
-      </c>
-      <c r="D93" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E93" s="2" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="94" spans="1:5" ht="27" x14ac:dyDescent="0.3">
-      <c r="A94" s="1" t="s">
-        <v>360</v>
-      </c>
-      <c r="B94" s="2" t="s">
-        <v>361</v>
-      </c>
-      <c r="C94" s="2" t="s">
-        <v>362</v>
-      </c>
-      <c r="D94" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E94" s="2" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="95" spans="1:5" ht="27" x14ac:dyDescent="0.3">
-      <c r="A95" s="1" t="s">
-        <v>364</v>
-      </c>
-      <c r="B95" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="C95" s="2" t="s">
-        <v>365</v>
-      </c>
-      <c r="D95" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="E95" s="2" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A96" s="1" t="s">
-        <v>367</v>
-      </c>
-      <c r="B96" s="2" t="s">
-        <v>368</v>
-      </c>
-      <c r="C96" s="2" t="s">
-        <v>369</v>
-      </c>
-      <c r="D96" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E96" s="2" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A97" s="1" t="s">
-        <v>371</v>
-      </c>
-      <c r="B97" s="2" t="s">
-        <v>372</v>
-      </c>
-      <c r="C97" s="2" t="s">
-        <v>373</v>
-      </c>
-      <c r="D97" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E97" s="2" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A98" s="1" t="s">
-        <v>375</v>
-      </c>
-      <c r="B98" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="C98" s="2" t="s">
-        <v>376</v>
-      </c>
-      <c r="D98" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="E98" s="2" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A99" s="1" t="s">
-        <v>378</v>
-      </c>
-      <c r="B99" s="2" t="s">
-        <v>379</v>
-      </c>
-      <c r="C99" s="2" t="s">
-        <v>380</v>
-      </c>
-      <c r="D99" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E99" s="2" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="100" spans="1:5" ht="27" x14ac:dyDescent="0.3">
-      <c r="A100" s="1" t="s">
-        <v>382</v>
-      </c>
-      <c r="B100" s="2" t="s">
-        <v>383</v>
-      </c>
-      <c r="C100" s="2" t="s">
-        <v>384</v>
-      </c>
-      <c r="D100" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E100" s="2" t="s">
-        <v>385</v>
-      </c>
-    </row>
-    <row r="101" spans="1:5" ht="27" x14ac:dyDescent="0.3">
-      <c r="A101" s="1" t="s">
-        <v>386</v>
-      </c>
-      <c r="B101" s="2" t="s">
-        <v>387</v>
-      </c>
-      <c r="C101" s="2" t="s">
-        <v>388</v>
-      </c>
-      <c r="D101" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E101" s="2" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="102" spans="1:5" ht="27" x14ac:dyDescent="0.3">
-      <c r="A102" s="1" t="s">
-        <v>390</v>
-      </c>
-      <c r="B102" s="2" t="s">
-        <v>391</v>
-      </c>
-      <c r="C102" s="2" t="s">
-        <v>392</v>
-      </c>
-      <c r="D102" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E102" s="2" t="s">
-        <v>393</v>
-      </c>
-    </row>
-    <row r="103" spans="1:5" ht="27" x14ac:dyDescent="0.3">
-      <c r="A103" s="1" t="s">
-        <v>394</v>
-      </c>
-      <c r="B103" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="C103" s="2" t="s">
-        <v>203</v>
-      </c>
-      <c r="D103" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="E103" s="2" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A104" s="1" t="s">
-        <v>396</v>
-      </c>
-      <c r="B104" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="C104" s="2" t="s">
-        <v>397</v>
-      </c>
-      <c r="D104" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="E104" s="2" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A105" s="1" t="s">
-        <v>399</v>
-      </c>
-      <c r="B105" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="C105" s="2" t="s">
-        <v>400</v>
-      </c>
-      <c r="D105" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="E105" s="2" t="s">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A106" s="1" t="s">
-        <v>402</v>
-      </c>
-      <c r="B106" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="C106" s="2" t="s">
-        <v>403</v>
-      </c>
-      <c r="D106" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="E106" s="2" t="s">
-        <v>404</v>
-      </c>
-    </row>
-    <row r="107" spans="1:5" ht="27" x14ac:dyDescent="0.3">
-      <c r="A107" s="1" t="s">
-        <v>405</v>
-      </c>
-      <c r="B107" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="C107" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="D107" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="E107" s="2" t="s">
-        <v>406</v>
-      </c>
-    </row>
-    <row r="108" spans="1:5" ht="27" x14ac:dyDescent="0.3">
-      <c r="A108" s="1" t="s">
-        <v>407</v>
-      </c>
-      <c r="B108" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="C108" s="2" t="s">
-        <v>408</v>
-      </c>
-      <c r="D108" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="E108" s="2" t="s">
-        <v>409</v>
-      </c>
-    </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A109" s="1" t="s">
-        <v>410</v>
-      </c>
-      <c r="B109" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="C109" s="2" t="s">
-        <v>397</v>
-      </c>
-      <c r="D109" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="E109" s="2" t="s">
-        <v>411</v>
-      </c>
-    </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A110" s="1" t="s">
-        <v>412</v>
-      </c>
-      <c r="B110" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="C110" s="2" t="s">
-        <v>413</v>
-      </c>
-      <c r="D110" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="E110" s="2" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A111" s="1" t="s">
-        <v>415</v>
-      </c>
-      <c r="B111" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="C111" s="2" t="s">
-        <v>236</v>
-      </c>
-      <c r="D111" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="E111" s="2" t="s">
-        <v>416</v>
-      </c>
-    </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A112" s="1" t="s">
-        <v>417</v>
-      </c>
-      <c r="B112" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="C112" s="2" t="s">
-        <v>376</v>
-      </c>
-      <c r="D112" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="E112" s="2" t="s">
-        <v>418</v>
-      </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
+  <autoFilter ref="D1:D85">
+    <extLst/>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="1" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/.ready/最新发布资源-维格视图.xlsx
+++ b/.ready/最新发布资源-维格视图.xlsx
@@ -10,14 +10,14 @@
     <sheet name="维格视图" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">维格视图!$D$1:$D$85</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">维格视图!$D$1:$D$82</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="425" uniqueCount="342">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="410" uniqueCount="330">
   <si>
     <t>标题</t>
   </si>
@@ -34,52 +34,16 @@
     <t>修改时间</t>
   </si>
   <si>
-    <t>React 实战进阶 45 讲 - 带源码课件</t>
-  </si>
-  <si>
-    <t>https://www.alipan.com/s/XXBykN4NcNQ</t>
-  </si>
-  <si>
-    <t>https://pan.quark.cn/s/5ac7f8cb1b0b</t>
+    <t>B站 - 马思瑞的口语私教课 - 带源码课件</t>
+  </si>
+  <si>
+    <t>https://www.alipan.com/s/T5xSLjzMkH2</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/1f62fbe4b31d</t>
   </si>
   <si>
     <t>学术</t>
-  </si>
-  <si>
-    <t>2024/02/28 15:27</t>
-  </si>
-  <si>
-    <t>Python高效编程技巧实战 - 带源码课件</t>
-  </si>
-  <si>
-    <t>https://www.alipan.com/s/QXfbJUKj9Ud</t>
-  </si>
-  <si>
-    <t>https://pan.quark.cn/s/4a7376c30de4</t>
-  </si>
-  <si>
-    <t>2024/02/28 07:04</t>
-  </si>
-  <si>
-    <t>B站 - Python小白也能听懂的入门课</t>
-  </si>
-  <si>
-    <t>https://www.alipan.com/s/cxQTsNEvAPk</t>
-  </si>
-  <si>
-    <t>https://pan.quark.cn/s/85987c4a3b30</t>
-  </si>
-  <si>
-    <t>2024/02/28 02:15</t>
-  </si>
-  <si>
-    <t>B站 - 马思瑞的口语私教课 - 带源码课件</t>
-  </si>
-  <si>
-    <t>https://www.alipan.com/s/T5xSLjzMkH2</t>
-  </si>
-  <si>
-    <t>https://pan.quark.cn/s/1f62fbe4b31d</t>
   </si>
   <si>
     <t>2024/02/28 00:16</t>
@@ -2047,10 +2011,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E85"/>
+  <dimension ref="A1:E82"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="38.6666666666667" defaultRowHeight="14.4" outlineLevelCol="4"/>
@@ -2059,7 +2023,7 @@
     <col min="2" max="16384" width="38.6666666666667" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" ht="24.4" customHeight="1" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2076,7 +2040,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" ht="24.4" customHeight="1" spans="1:5">
       <c r="A2" s="1" t="s">
         <v>5</v>
       </c>
@@ -2093,7 +2057,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" ht="24.4" customHeight="1" spans="1:5">
       <c r="A3" s="1" t="s">
         <v>10</v>
       </c>
@@ -2110,7 +2074,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" ht="24.4" customHeight="1" spans="1:5">
       <c r="A4" s="1" t="s">
         <v>14</v>
       </c>
@@ -2127,7 +2091,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" ht="24.4" customHeight="1" spans="1:5">
       <c r="A5" s="1" t="s">
         <v>18</v>
       </c>
@@ -2144,7 +2108,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" ht="24.4" customHeight="1" spans="1:5">
       <c r="A6" s="1" t="s">
         <v>22</v>
       </c>
@@ -2161,7 +2125,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" ht="24.4" customHeight="1" spans="1:5">
       <c r="A7" s="1" t="s">
         <v>26</v>
       </c>
@@ -2178,7 +2142,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="8" ht="28.8" spans="1:5">
+    <row r="8" ht="24.4" customHeight="1" spans="1:5">
       <c r="A8" s="1" t="s">
         <v>30</v>
       </c>
@@ -2195,7 +2159,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" ht="24.4" customHeight="1" spans="1:5">
       <c r="A9" s="1" t="s">
         <v>34</v>
       </c>
@@ -2212,7 +2176,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" ht="24.4" customHeight="1" spans="1:5">
       <c r="A10" s="1" t="s">
         <v>38</v>
       </c>
@@ -2229,7 +2193,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" ht="24.4" customHeight="1" spans="1:5">
       <c r="A11" s="1" t="s">
         <v>42</v>
       </c>
@@ -2246,7 +2210,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12" ht="24.4" customHeight="1" spans="1:5">
       <c r="A12" s="1" t="s">
         <v>46</v>
       </c>
@@ -2263,7 +2227,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="13" spans="1:5">
+    <row r="13" ht="24.4" customHeight="1" spans="1:5">
       <c r="A13" s="1" t="s">
         <v>50</v>
       </c>
@@ -2280,7 +2244,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="14" ht="28.8" spans="1:5">
+    <row r="14" ht="24.4" customHeight="1" spans="1:5">
       <c r="A14" s="1" t="s">
         <v>54</v>
       </c>
@@ -2297,7 +2261,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="15" spans="1:5">
+    <row r="15" ht="24.4" customHeight="1" spans="1:5">
       <c r="A15" s="1" t="s">
         <v>58</v>
       </c>
@@ -2314,7 +2278,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="16" spans="1:5">
+    <row r="16" ht="24.4" customHeight="1" spans="1:5">
       <c r="A16" s="1" t="s">
         <v>62</v>
       </c>
@@ -2331,7 +2295,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="17" spans="1:5">
+    <row r="17" ht="24.4" customHeight="1" spans="1:5">
       <c r="A17" s="1" t="s">
         <v>66</v>
       </c>
@@ -2348,7 +2312,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="18" ht="28.8" spans="1:5">
+    <row r="18" ht="24.4" customHeight="1" spans="1:5">
       <c r="A18" s="1" t="s">
         <v>70</v>
       </c>
@@ -2365,7 +2329,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="19" spans="1:5">
+    <row r="19" ht="24.4" customHeight="1" spans="1:5">
       <c r="A19" s="1" t="s">
         <v>74</v>
       </c>
@@ -2382,7 +2346,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="20" ht="28.8" spans="1:5">
+    <row r="20" ht="24.4" customHeight="1" spans="1:5">
       <c r="A20" s="1" t="s">
         <v>78</v>
       </c>
@@ -2399,7 +2363,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="21" spans="1:5">
+    <row r="21" ht="24.4" customHeight="1" spans="1:5">
       <c r="A21" s="1" t="s">
         <v>82</v>
       </c>
@@ -2416,7 +2380,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="22" ht="28.8" spans="1:5">
+    <row r="22" ht="24.4" customHeight="1" spans="1:5">
       <c r="A22" s="1" t="s">
         <v>86</v>
       </c>
@@ -2433,7 +2397,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="23" spans="1:5">
+    <row r="23" ht="24.4" customHeight="1" spans="1:5">
       <c r="A23" s="1" t="s">
         <v>90</v>
       </c>
@@ -2450,7 +2414,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="24" spans="1:5">
+    <row r="24" ht="24.4" customHeight="1" spans="1:5">
       <c r="A24" s="1" t="s">
         <v>94</v>
       </c>
@@ -2467,7 +2431,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="25" spans="1:5">
+    <row r="25" ht="24.4" customHeight="1" spans="1:5">
       <c r="A25" s="1" t="s">
         <v>98</v>
       </c>
@@ -2484,7 +2448,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="26" spans="1:5">
+    <row r="26" ht="24.4" customHeight="1" spans="1:5">
       <c r="A26" s="1" t="s">
         <v>102</v>
       </c>
@@ -2501,7 +2465,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="27" spans="1:5">
+    <row r="27" ht="24.4" customHeight="1" spans="1:5">
       <c r="A27" s="1" t="s">
         <v>106</v>
       </c>
@@ -2518,7 +2482,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="28" spans="1:5">
+    <row r="28" ht="24.4" customHeight="1" spans="1:5">
       <c r="A28" s="1" t="s">
         <v>110</v>
       </c>
@@ -2535,7 +2499,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="29" spans="1:5">
+    <row r="29" ht="24.4" customHeight="1" spans="1:5">
       <c r="A29" s="1" t="s">
         <v>114</v>
       </c>
@@ -2552,7 +2516,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="30" spans="1:5">
+    <row r="30" ht="24.4" customHeight="1" spans="1:5">
       <c r="A30" s="1" t="s">
         <v>118</v>
       </c>
@@ -2569,7 +2533,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="31" ht="28.8" spans="1:5">
+    <row r="31" ht="24.4" customHeight="1" spans="1:5">
       <c r="A31" s="1" t="s">
         <v>122</v>
       </c>
@@ -2586,7 +2550,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="32" spans="1:5">
+    <row r="32" ht="24.4" customHeight="1" spans="1:5">
       <c r="A32" s="1" t="s">
         <v>126</v>
       </c>
@@ -2603,7 +2567,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="33" ht="28.8" spans="1:5">
+    <row r="33" ht="24.4" customHeight="1" spans="1:5">
       <c r="A33" s="1" t="s">
         <v>130</v>
       </c>
@@ -2620,7 +2584,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="34" spans="1:5">
+    <row r="34" ht="24.4" customHeight="1" spans="1:5">
       <c r="A34" s="1" t="s">
         <v>134</v>
       </c>
@@ -2637,7 +2601,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="35" spans="1:5">
+    <row r="35" ht="24.4" customHeight="1" spans="1:5">
       <c r="A35" s="1" t="s">
         <v>138</v>
       </c>
@@ -2654,7 +2618,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="36" ht="28.8" spans="1:5">
+    <row r="36" ht="24.4" customHeight="1" spans="1:5">
       <c r="A36" s="1" t="s">
         <v>142</v>
       </c>
@@ -2671,7 +2635,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="37" ht="28.8" spans="1:5">
+    <row r="37" ht="24.4" customHeight="1" spans="1:5">
       <c r="A37" s="1" t="s">
         <v>146</v>
       </c>
@@ -2688,7 +2652,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="38" ht="28.8" spans="1:5">
+    <row r="38" ht="24.4" customHeight="1" spans="1:5">
       <c r="A38" s="1" t="s">
         <v>150</v>
       </c>
@@ -2705,7 +2669,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="39" ht="28.8" spans="1:5">
+    <row r="39" ht="24.4" customHeight="1" spans="1:5">
       <c r="A39" s="1" t="s">
         <v>154</v>
       </c>
@@ -2722,7 +2686,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="40" ht="28.8" spans="1:5">
+    <row r="40" ht="24.4" customHeight="1" spans="1:5">
       <c r="A40" s="1" t="s">
         <v>158</v>
       </c>
@@ -2739,7 +2703,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="41" spans="1:5">
+    <row r="41" ht="24.4" customHeight="1" spans="1:5">
       <c r="A41" s="1" t="s">
         <v>162</v>
       </c>
@@ -2756,7 +2720,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="42" spans="1:5">
+    <row r="42" ht="24.4" customHeight="1" spans="1:5">
       <c r="A42" s="1" t="s">
         <v>166</v>
       </c>
@@ -2773,7 +2737,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="43" ht="28.8" spans="1:5">
+    <row r="43" ht="24.4" customHeight="1" spans="1:5">
       <c r="A43" s="1" t="s">
         <v>170</v>
       </c>
@@ -2790,7 +2754,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="44" spans="1:5">
+    <row r="44" ht="24.4" customHeight="1" spans="1:5">
       <c r="A44" s="1" t="s">
         <v>174</v>
       </c>
@@ -2807,7 +2771,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="45" ht="28.8" spans="1:5">
+    <row r="45" ht="24.4" customHeight="1" spans="1:5">
       <c r="A45" s="1" t="s">
         <v>178</v>
       </c>
@@ -2824,7 +2788,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="46" ht="28.8" spans="1:5">
+    <row r="46" ht="24.4" customHeight="1" spans="1:5">
       <c r="A46" s="1" t="s">
         <v>182</v>
       </c>
@@ -2841,7 +2805,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="47" spans="1:5">
+    <row r="47" ht="24.4" customHeight="1" spans="1:5">
       <c r="A47" s="1" t="s">
         <v>186</v>
       </c>
@@ -2858,7 +2822,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="48" ht="28.8" spans="1:5">
+    <row r="48" ht="24.4" customHeight="1" spans="1:5">
       <c r="A48" s="1" t="s">
         <v>190</v>
       </c>
@@ -2875,7 +2839,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="49" ht="28.8" spans="1:5">
+    <row r="49" ht="24.4" customHeight="1" spans="1:5">
       <c r="A49" s="1" t="s">
         <v>194</v>
       </c>
@@ -2892,7 +2856,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="50" spans="1:5">
+    <row r="50" ht="24.4" customHeight="1" spans="1:5">
       <c r="A50" s="1" t="s">
         <v>198</v>
       </c>
@@ -2909,7 +2873,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="51" spans="1:5">
+    <row r="51" ht="24.4" customHeight="1" spans="1:5">
       <c r="A51" s="1" t="s">
         <v>202</v>
       </c>
@@ -2926,7 +2890,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="52" spans="1:5">
+    <row r="52" ht="24.4" customHeight="1" spans="1:5">
       <c r="A52" s="1" t="s">
         <v>206</v>
       </c>
@@ -2943,7 +2907,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="53" ht="43.2" spans="1:5">
+    <row r="53" ht="24.4" customHeight="1" spans="1:5">
       <c r="A53" s="1" t="s">
         <v>210</v>
       </c>
@@ -2960,7 +2924,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="54" ht="28.8" spans="1:5">
+    <row r="54" ht="24.4" customHeight="1" spans="1:5">
       <c r="A54" s="1" t="s">
         <v>214</v>
       </c>
@@ -2977,7 +2941,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="55" ht="28.8" spans="1:5">
+    <row r="55" ht="24.4" customHeight="1" spans="1:5">
       <c r="A55" s="1" t="s">
         <v>218</v>
       </c>
@@ -2994,7 +2958,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="56" spans="1:5">
+    <row r="56" ht="24.4" customHeight="1" spans="1:5">
       <c r="A56" s="1" t="s">
         <v>222</v>
       </c>
@@ -3011,7 +2975,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="57" ht="28.8" spans="1:5">
+    <row r="57" ht="24.4" customHeight="1" spans="1:5">
       <c r="A57" s="1" t="s">
         <v>226</v>
       </c>
@@ -3028,7 +2992,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="58" ht="28.8" spans="1:5">
+    <row r="58" ht="24.4" customHeight="1" spans="1:5">
       <c r="A58" s="1" t="s">
         <v>230</v>
       </c>
@@ -3045,7 +3009,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="59" ht="28.8" spans="1:5">
+    <row r="59" ht="24.4" customHeight="1" spans="1:5">
       <c r="A59" s="1" t="s">
         <v>234</v>
       </c>
@@ -3062,7 +3026,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="60" ht="28.8" spans="1:5">
+    <row r="60" ht="24.4" customHeight="1" spans="1:5">
       <c r="A60" s="1" t="s">
         <v>238</v>
       </c>
@@ -3079,7 +3043,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="61" spans="1:5">
+    <row r="61" ht="24.4" customHeight="1" spans="1:5">
       <c r="A61" s="1" t="s">
         <v>242</v>
       </c>
@@ -3096,7 +3060,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="62" ht="28.8" spans="1:5">
+    <row r="62" ht="24.4" customHeight="1" spans="1:5">
       <c r="A62" s="1" t="s">
         <v>246</v>
       </c>
@@ -3113,7 +3077,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="63" spans="1:5">
+    <row r="63" ht="24.4" customHeight="1" spans="1:5">
       <c r="A63" s="1" t="s">
         <v>250</v>
       </c>
@@ -3130,7 +3094,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="64" ht="28.8" spans="1:5">
+    <row r="64" ht="24.4" customHeight="1" spans="1:5">
       <c r="A64" s="1" t="s">
         <v>254</v>
       </c>
@@ -3147,7 +3111,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="65" spans="1:5">
+    <row r="65" ht="24.4" customHeight="1" spans="1:5">
       <c r="A65" s="1" t="s">
         <v>258</v>
       </c>
@@ -3164,7 +3128,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="66" spans="1:5">
+    <row r="66" ht="24.4" customHeight="1" spans="1:5">
       <c r="A66" s="1" t="s">
         <v>262</v>
       </c>
@@ -3181,7 +3145,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="67" spans="1:5">
+    <row r="67" ht="24.4" customHeight="1" spans="1:5">
       <c r="A67" s="1" t="s">
         <v>266</v>
       </c>
@@ -3198,7 +3162,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="68" ht="28.8" spans="1:5">
+    <row r="68" ht="24.4" customHeight="1" spans="1:5">
       <c r="A68" s="1" t="s">
         <v>270</v>
       </c>
@@ -3215,7 +3179,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="69" spans="1:5">
+    <row r="69" ht="24.4" customHeight="1" spans="1:5">
       <c r="A69" s="1" t="s">
         <v>274</v>
       </c>
@@ -3232,7 +3196,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="70" ht="28.8" spans="1:5">
+    <row r="70" ht="24.4" customHeight="1" spans="1:5">
       <c r="A70" s="1" t="s">
         <v>278</v>
       </c>
@@ -3249,7 +3213,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="71" spans="1:5">
+    <row r="71" ht="24.4" customHeight="1" spans="1:5">
       <c r="A71" s="1" t="s">
         <v>282</v>
       </c>
@@ -3266,7 +3230,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="72" ht="28.8" spans="1:5">
+    <row r="72" ht="24.4" customHeight="1" spans="1:5">
       <c r="A72" s="1" t="s">
         <v>286</v>
       </c>
@@ -3283,7 +3247,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="73" ht="28.8" spans="1:5">
+    <row r="73" ht="24.4" customHeight="1" spans="1:5">
       <c r="A73" s="1" t="s">
         <v>290</v>
       </c>
@@ -3300,7 +3264,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="74" ht="28.8" spans="1:5">
+    <row r="74" ht="24.4" customHeight="1" spans="1:5">
       <c r="A74" s="1" t="s">
         <v>294</v>
       </c>
@@ -3317,7 +3281,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="75" spans="1:5">
+    <row r="75" ht="24.4" customHeight="1" spans="1:5">
       <c r="A75" s="1" t="s">
         <v>298</v>
       </c>
@@ -3334,7 +3298,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="76" ht="28.8" spans="1:5">
+    <row r="76" ht="24.4" customHeight="1" spans="1:5">
       <c r="A76" s="1" t="s">
         <v>302</v>
       </c>
@@ -3351,7 +3315,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="77" ht="28.8" spans="1:5">
+    <row r="77" ht="24.4" customHeight="1" spans="1:5">
       <c r="A77" s="1" t="s">
         <v>306</v>
       </c>
@@ -3368,7 +3332,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="78" ht="28.8" spans="1:5">
+    <row r="78" ht="24.4" customHeight="1" spans="1:5">
       <c r="A78" s="1" t="s">
         <v>310</v>
       </c>
@@ -3385,7 +3349,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="79" ht="28.8" spans="1:5">
+    <row r="79" ht="24.4" customHeight="1" spans="1:5">
       <c r="A79" s="1" t="s">
         <v>314</v>
       </c>
@@ -3402,7 +3366,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="80" spans="1:5">
+    <row r="80" ht="24.4" customHeight="1" spans="1:5">
       <c r="A80" s="1" t="s">
         <v>318</v>
       </c>
@@ -3419,7 +3383,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="81" ht="28.8" spans="1:5">
+    <row r="81" ht="24.4" customHeight="1" spans="1:5">
       <c r="A81" s="1" t="s">
         <v>322</v>
       </c>
@@ -3436,7 +3400,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="82" spans="1:5">
+    <row r="82" ht="24.4" customHeight="1" spans="1:5">
       <c r="A82" s="1" t="s">
         <v>326</v>
       </c>
@@ -3453,59 +3417,8 @@
         <v>329</v>
       </c>
     </row>
-    <row r="83" ht="28.8" spans="1:5">
-      <c r="A83" s="1" t="s">
-        <v>330</v>
-      </c>
-      <c r="B83" s="2" t="s">
-        <v>331</v>
-      </c>
-      <c r="C83" s="2" t="s">
-        <v>332</v>
-      </c>
-      <c r="D83" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E83" s="2" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="84" ht="28.8" spans="1:5">
-      <c r="A84" s="1" t="s">
-        <v>334</v>
-      </c>
-      <c r="B84" s="2" t="s">
-        <v>335</v>
-      </c>
-      <c r="C84" s="2" t="s">
-        <v>336</v>
-      </c>
-      <c r="D84" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E84" s="2" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="85" ht="28.8" spans="1:5">
-      <c r="A85" s="1" t="s">
-        <v>338</v>
-      </c>
-      <c r="B85" s="2" t="s">
-        <v>339</v>
-      </c>
-      <c r="C85" s="2" t="s">
-        <v>340</v>
-      </c>
-      <c r="D85" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E85" s="2" t="s">
-        <v>341</v>
-      </c>
-    </row>
   </sheetData>
-  <autoFilter ref="D1:D85">
+  <autoFilter ref="D1:D82">
     <extLst/>
   </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/.ready/最新发布资源-维格视图.xlsx
+++ b/.ready/最新发布资源-维格视图.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Project\memo\.ready\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{768424BC-335B-497D-BEB5-38BD3773E02D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3ECFC8B5-8544-40CF-A98F-05AFF34503ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="19095" windowHeight="12075" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,137 +20,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="560" uniqueCount="419">
-  <si>
-    <t>标题</t>
-  </si>
-  <si>
-    <t>阿里云盘</t>
-  </si>
-  <si>
-    <t>夸克网盘</t>
-  </si>
-  <si>
-    <t>类目</t>
-  </si>
-  <si>
-    <t>修改时间</t>
-  </si>
-  <si>
-    <t>B站 - 金灿荣教授：进击的中国外交</t>
-  </si>
-  <si>
-    <t>https://www.alipan.com/s/R9CruNgR1mu</t>
-  </si>
-  <si>
-    <t>https://pan.quark.cn/s/8feb18cc63fa</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="385" uniqueCount="309">
   <si>
     <t>学术</t>
   </si>
   <si>
-    <t>2024/02/28 17:27</t>
-  </si>
-  <si>
-    <t>React 实战进阶 45 讲 - 带源码课件</t>
-  </si>
-  <si>
-    <t>https://www.alipan.com/s/XXBykN4NcNQ</t>
-  </si>
-  <si>
-    <t>https://pan.quark.cn/s/5ac7f8cb1b0b</t>
-  </si>
-  <si>
-    <t>2024/02/28 15:27</t>
-  </si>
-  <si>
-    <t>Python高效编程技巧实战 - 带源码课件</t>
-  </si>
-  <si>
-    <t>https://www.alipan.com/s/QXfbJUKj9Ud</t>
-  </si>
-  <si>
-    <t>https://pan.quark.cn/s/4a7376c30de4</t>
-  </si>
-  <si>
-    <t>2024/02/28 07:04</t>
-  </si>
-  <si>
-    <t>B站 - Python小白也能听懂的入门课</t>
-  </si>
-  <si>
-    <t>https://www.alipan.com/s/cxQTsNEvAPk</t>
-  </si>
-  <si>
-    <t>https://pan.quark.cn/s/85987c4a3b30</t>
-  </si>
-  <si>
-    <t>2024/02/28 02:15</t>
-  </si>
-  <si>
-    <t>B站 - 马思瑞的口语私教课 - 带源码课件</t>
-  </si>
-  <si>
-    <t>https://www.alipan.com/s/T5xSLjzMkH2</t>
-  </si>
-  <si>
-    <t>https://pan.quark.cn/s/1f62fbe4b31d</t>
-  </si>
-  <si>
-    <t>2024/02/28 00:16</t>
-  </si>
-  <si>
-    <t>极客时间 - NLP 实战高手课</t>
-  </si>
-  <si>
-    <t>https://www.alipan.com/s/YnjiP2biTWB</t>
-  </si>
-  <si>
-    <t>https://pan.quark.cn/s/fb0b864be752</t>
-  </si>
-  <si>
-    <t>2024/02/27 22:15</t>
-  </si>
-  <si>
-    <t>InShot - 视频制作 v2.020.1441 功能解锁</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>https://pan.quark.cn/s/3f44ac6a6b3c</t>
-  </si>
-  <si>
-    <t>软件 - 移动端</t>
-  </si>
-  <si>
-    <t>2024/02/27 21:21</t>
-  </si>
-  <si>
-    <t>B站 - Excel大神上分攻略 - 带源码课件</t>
-  </si>
-  <si>
-    <t>https://www.alipan.com/s/AsVG7dV7oAA</t>
-  </si>
-  <si>
-    <t>https://pan.quark.cn/s/109e4e58061f</t>
-  </si>
-  <si>
-    <t>2024/02/27 20:27</t>
-  </si>
-  <si>
-    <t>【MBA智库】企业高管：战略经营与核心能力研修班</t>
-  </si>
-  <si>
-    <t>https://www.alipan.com/s/SmX3dszRBBo</t>
-  </si>
-  <si>
-    <t>https://pan.quark.cn/s/d03bb912629b</t>
-  </si>
-  <si>
-    <t>2024/02/27 17:58</t>
-  </si>
-  <si>
     <t>B站 - 罗翔：刑法悖论十讲</t>
   </si>
   <si>
@@ -175,15 +49,6 @@
     <t>2024/02/27 15:56</t>
   </si>
   <si>
-    <t>MX Player Pro - MX视频播放器 v1.78.6 功能解锁</t>
-  </si>
-  <si>
-    <t>https://pan.quark.cn/s/19fa640f38cc</t>
-  </si>
-  <si>
-    <t>2024/02/27 15:35</t>
-  </si>
-  <si>
     <t>极客时间 - 分布式系统案例课</t>
   </si>
   <si>
@@ -220,18 +85,6 @@
     <t>2024/02/27 03:11</t>
   </si>
   <si>
-    <t>Subway Surfers 国际服 v3.25.1 MOD 功能解锁</t>
-  </si>
-  <si>
-    <t>https://pan.quark.cn/s/ab8dde0cf309</t>
-  </si>
-  <si>
-    <t>游戏 - 移动端</t>
-  </si>
-  <si>
-    <t>2024/02/27 00:29</t>
-  </si>
-  <si>
     <t>B站 - AE超能力学院 - 小莫入门到精通 - 带源码课件</t>
   </si>
   <si>
@@ -340,15 +193,6 @@
     <t>2024/02/25 23:26</t>
   </si>
   <si>
-    <t>Notein - 手写笔记&amp;PDF编辑器 v1.1.841 功能解锁</t>
-  </si>
-  <si>
-    <t>https://pan.quark.cn/s/82146dabaa5a</t>
-  </si>
-  <si>
-    <t>2024/02/25 22:28</t>
-  </si>
-  <si>
     <t>【一周进步】PPT动画</t>
   </si>
   <si>
@@ -517,12 +361,6 @@
     <t>2024/02/23 21:40</t>
   </si>
   <si>
-    <t>GC自动点击器 v2.2.37 功能解锁</t>
-  </si>
-  <si>
-    <t>https://pan.quark.cn/s/84346435a11f</t>
-  </si>
-  <si>
     <t>2024/02/23 19:29</t>
   </si>
   <si>
@@ -595,15 +433,6 @@
     <t>2024/02/22 22:42</t>
   </si>
   <si>
-    <t>ESuper - 文件浏览器 v4.4.2.2.1 功能解锁</t>
-  </si>
-  <si>
-    <t>https://pan.quark.cn/s/e69cfd71ff33</t>
-  </si>
-  <si>
-    <t>2024/02/22 21:13</t>
-  </si>
-  <si>
     <t>PS教程超级合辑【1000集2017版】 - 带源码课件</t>
   </si>
   <si>
@@ -628,15 +457,6 @@
     <t>2024/02/22 13:04</t>
   </si>
   <si>
-    <t>Picsart美易 - AI拼贴画制作工具 v24.3.3 功能解锁</t>
-  </si>
-  <si>
-    <t>https://pan.quark.cn/s/9b6f078447a7</t>
-  </si>
-  <si>
-    <t>2024/02/22 06:23</t>
-  </si>
-  <si>
     <t>王红元 - 前端体系课-2614集 - 带源码课件</t>
   </si>
   <si>
@@ -673,15 +493,6 @@
     <t>2024/02/21 20:13</t>
   </si>
   <si>
-    <t>Fotor - AI照片编辑器 v7.5.3.8 功能解锁</t>
-  </si>
-  <si>
-    <t>https://pan.quark.cn/s/4bc61726638b</t>
-  </si>
-  <si>
-    <t>2024/02/21 16:48</t>
-  </si>
-  <si>
     <t>【深蓝学院】机器学习数学基础 - 带源码课件</t>
   </si>
   <si>
@@ -706,15 +517,6 @@
     <t>2024/02/21 14:35</t>
   </si>
   <si>
-    <t>PowerDirector - 威力导演视频剪辑 v13.2.0 功能解锁</t>
-  </si>
-  <si>
-    <t>https://pan.quark.cn/s/1e6bf995b011</t>
-  </si>
-  <si>
-    <t>2024/02/21 11:54</t>
-  </si>
-  <si>
     <t>英语思维：快速建立语法体系</t>
   </si>
   <si>
@@ -727,15 +529,6 @@
     <t>2024/02/21 11:10</t>
   </si>
   <si>
-    <t>CapCut - 剪映国际版 v11.1.0 功能解锁</t>
-  </si>
-  <si>
-    <t>https://pan.quark.cn/s/44715877dfe8</t>
-  </si>
-  <si>
-    <t>2024/02/20 22:20</t>
-  </si>
-  <si>
     <t>【CCtalk】静物美食摄影课 - 17期</t>
   </si>
   <si>
@@ -820,12 +613,6 @@
     <t>2024/02/20 08:37</t>
   </si>
   <si>
-    <t>Subway Surfers 国际服 v3.25.0 MOD 功能解锁</t>
-  </si>
-  <si>
-    <t>2024/02/20 00:29</t>
-  </si>
-  <si>
     <t>【思益学院】纪主任《车神陪跑：拼多多系统化课程》</t>
   </si>
   <si>
@@ -898,30 +685,6 @@
     <t>2024/02/18 23:25</t>
   </si>
   <si>
-    <t>Notein - 手写笔记&amp;PDF编辑器 v1.1.826 功能解锁</t>
-  </si>
-  <si>
-    <t>2024/02/18 21:35</t>
-  </si>
-  <si>
-    <t>Nebo - 笔记和 PDF 标注 v5.8.8 功能解锁</t>
-  </si>
-  <si>
-    <t>https://pan.quark.cn/s/5bdfae39cf26</t>
-  </si>
-  <si>
-    <t>2024/02/18 20:55</t>
-  </si>
-  <si>
-    <t>Lj 视频下载器 v1.1.46 功能解锁</t>
-  </si>
-  <si>
-    <t>https://pan.quark.cn/s/3a28223fb045</t>
-  </si>
-  <si>
-    <t>2024/02/18 20:04</t>
-  </si>
-  <si>
     <t>【达内教育】2023最新Python+人工智能就业班 - 带源码课件</t>
   </si>
   <si>
@@ -1114,15 +877,6 @@
     <t>2024/02/15 00:02</t>
   </si>
   <si>
-    <t>Foxit福昕PDF编辑器 v2024.2.0.0205.0632 功能解锁</t>
-  </si>
-  <si>
-    <t>https://pan.quark.cn/s/8e8e9693f19f</t>
-  </si>
-  <si>
-    <t>2024/02/14 23:01</t>
-  </si>
-  <si>
     <t>【尚硅谷】鸿蒙应用开发 - 带源码课件</t>
   </si>
   <si>
@@ -1147,15 +901,6 @@
     <t>2024/02/14 15:25</t>
   </si>
   <si>
-    <t>AdGuard - DNS广告阻截 v4.4.65 功能解锁</t>
-  </si>
-  <si>
-    <t>https://pan.quark.cn/s/89240d1c79c6</t>
-  </si>
-  <si>
-    <t>2024/02/14 07:22</t>
-  </si>
-  <si>
     <t>【爪哇教育】Web全栈工程师班 - 2023</t>
   </si>
   <si>
@@ -1202,81 +947,6 @@
   </si>
   <si>
     <t>2024/02/09 09:51</t>
-  </si>
-  <si>
-    <t>Picsart 图像视频编辑器 v24.2.4 功能解锁</t>
-  </si>
-  <si>
-    <t>2024/02/09 00:34</t>
-  </si>
-  <si>
-    <t>WPS Office v18.7.1 功能解锁</t>
-  </si>
-  <si>
-    <t>https://pan.quark.cn/s/5fa9e136af47</t>
-  </si>
-  <si>
-    <t>2024/02/08 23:24</t>
-  </si>
-  <si>
-    <t>VivaCut - 专业视频剪辑 v3.5.6 功能解锁</t>
-  </si>
-  <si>
-    <t>https://pan.quark.cn/s/90953bd6dd25</t>
-  </si>
-  <si>
-    <t>2024/02/08 20:50</t>
-  </si>
-  <si>
-    <t>SnapTube - 视频下载器 v7.15.0 功能解锁</t>
-  </si>
-  <si>
-    <t>https://pan.quark.cn/s/6185a9e48ea5</t>
-  </si>
-  <si>
-    <t>2024/02/08 02:16</t>
-  </si>
-  <si>
-    <t>Subway Surfers 地铁跑酷 v3.24.1 国际服 修改版</t>
-  </si>
-  <si>
-    <t>2024/02/06 23:21</t>
-  </si>
-  <si>
-    <t>XPlayer - 万能视频播放器 v2.3.8.0 去广告 解锁功能</t>
-  </si>
-  <si>
-    <t>https://pan.quark.cn/s/ea1793b83185</t>
-  </si>
-  <si>
-    <t>2024/02/05 01:48</t>
-  </si>
-  <si>
-    <t>WPS Office v18.7 功能解锁</t>
-  </si>
-  <si>
-    <t>2024/02/04 23:09</t>
-  </si>
-  <si>
-    <t>OmoFun - 动漫视频 v1.0.9 去广告</t>
-  </si>
-  <si>
-    <t>https://pan.quark.cn/s/1cf3f6553e44</t>
-  </si>
-  <si>
-    <t>2024/02/03 21:20</t>
-  </si>
-  <si>
-    <t>CapCut - 剪映国际版 v11.0.0</t>
-  </si>
-  <si>
-    <t>2024/02/03 17:46</t>
-  </si>
-  <si>
-    <t>AdGuard - DNS广告阻截 v4.4.47</t>
-  </si>
-  <si>
-    <t>2024/02/03 17:19</t>
   </si>
 </sst>
 </file>
@@ -1665,10 +1335,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E112"/>
+  <dimension ref="A1:E77"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A94" workbookViewId="0">
-      <selection activeCell="A102" sqref="A102"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="38.6640625" defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
@@ -1677,24 +1347,24 @@
     <col min="2" max="16384" width="38.6640625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" ht="24.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" ht="24.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>5</v>
       </c>
@@ -1705,438 +1375,438 @@
         <v>7</v>
       </c>
       <c r="D2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="E2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="2" t="s">
+    </row>
+    <row r="3" spans="1:5" ht="24.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" s="1" t="s">
+      <c r="B3" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="C3" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="D3" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="E3" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D3" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E3" s="2" t="s">
+    </row>
+    <row r="4" spans="1:5" ht="24.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4" s="1" t="s">
+      <c r="B4" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="C4" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="D4" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="E4" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D4" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E4" s="2" t="s">
+    </row>
+    <row r="5" spans="1:5" ht="24.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5" s="1" t="s">
+      <c r="B5" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="C5" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="D5" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="E5" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="D5" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E5" s="2" t="s">
+    </row>
+    <row r="6" spans="1:5" ht="24.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A6" s="1" t="s">
+      <c r="B6" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="C6" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="D6" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="E6" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="D6" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E6" s="2" t="s">
+    </row>
+    <row r="7" spans="1:5" ht="24.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A7" s="1" t="s">
+      <c r="B7" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="C7" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="D7" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="E7" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="D7" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E7" s="2" t="s">
+    </row>
+    <row r="8" spans="1:5" ht="24.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A8" s="1" t="s">
+      <c r="B8" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="C8" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="D8" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="E8" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="D8" s="2" t="s">
+    </row>
+    <row r="9" spans="1:5" ht="24.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="E8" s="2" t="s">
+      <c r="B9" s="2" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A9" s="1" t="s">
+      <c r="C9" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="D9" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="E9" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="C9" s="2" t="s">
+    </row>
+    <row r="10" spans="1:5" ht="24.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="D9" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E9" s="2" t="s">
+      <c r="B10" s="2" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" ht="27" x14ac:dyDescent="0.3">
-      <c r="A10" s="1" t="s">
+      <c r="C10" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="D10" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="E10" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="C10" s="2" t="s">
+    </row>
+    <row r="11" spans="1:5" ht="24.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="D10" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E10" s="2" t="s">
+      <c r="B11" s="2" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A11" s="1" t="s">
+      <c r="C11" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="B11" s="2" t="s">
+      <c r="D11" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="E11" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="C11" s="2" t="s">
+    </row>
+    <row r="12" spans="1:5" ht="24.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="D11" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E11" s="2" t="s">
+      <c r="B12" s="2" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A12" s="1" t="s">
+      <c r="C12" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="B12" s="2" t="s">
+      <c r="D12" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="E12" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="C12" s="2" t="s">
+    </row>
+    <row r="13" spans="1:5" ht="24.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="D12" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E12" s="2" t="s">
+      <c r="B13" s="2" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" ht="27" x14ac:dyDescent="0.3">
-      <c r="A13" s="1" t="s">
+      <c r="C13" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="B13" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="C13" s="2" t="s">
+      <c r="D13" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="E13" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="D13" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="E13" s="2" t="s">
+    </row>
+    <row r="14" spans="1:5" ht="24.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="1" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A14" s="1" t="s">
+      <c r="B14" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="B14" s="2" t="s">
+      <c r="C14" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="C14" s="2" t="s">
+      <c r="D14" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="E14" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="D14" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E14" s="2" t="s">
+    </row>
+    <row r="15" spans="1:5" ht="24.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="1" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A15" s="1" t="s">
+      <c r="B15" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="B15" s="2" t="s">
+      <c r="C15" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="C15" s="2" t="s">
+      <c r="D15" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="E15" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="D15" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E15" s="2" t="s">
+    </row>
+    <row r="16" spans="1:5" ht="24.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="1" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A16" s="1" t="s">
+      <c r="B16" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="B16" s="2" t="s">
+      <c r="C16" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="C16" s="2" t="s">
+      <c r="D16" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="E16" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="D16" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E16" s="2" t="s">
+    </row>
+    <row r="17" spans="1:5" ht="24.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="1" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="17" spans="1:5" ht="27" x14ac:dyDescent="0.3">
-      <c r="A17" s="1" t="s">
+      <c r="B17" s="2" t="s">
         <v>66</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>31</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>67</v>
       </c>
       <c r="D17" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="E17" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="E17" s="2" t="s">
+    </row>
+    <row r="18" spans="1:5" ht="24.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="1" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="18" spans="1:5" ht="27" x14ac:dyDescent="0.3">
-      <c r="A18" s="1" t="s">
+      <c r="B18" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="B18" s="2" t="s">
+      <c r="C18" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="C18" s="2" t="s">
+      <c r="D18" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="E18" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="D18" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E18" s="2" t="s">
+    </row>
+    <row r="19" spans="1:5" ht="24.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="1" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
+      <c r="B19" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="B19" s="2" t="s">
+      <c r="C19" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="C19" s="2" t="s">
+      <c r="D19" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="E19" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="D19" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E19" s="2" t="s">
+    </row>
+    <row r="20" spans="1:5" ht="24.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="1" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A20" s="1" t="s">
+      <c r="B20" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="B20" s="2" t="s">
+      <c r="C20" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="C20" s="2" t="s">
+      <c r="D20" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="E20" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="D20" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E20" s="2" t="s">
+    </row>
+    <row r="21" spans="1:5" ht="24.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="1" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A21" s="1" t="s">
+      <c r="B21" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="B21" s="2" t="s">
+      <c r="C21" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="C21" s="2" t="s">
+      <c r="D21" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="E21" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="D21" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E21" s="2" t="s">
+    </row>
+    <row r="22" spans="1:5" ht="24.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="1" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A22" s="1" t="s">
+      <c r="B22" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="B22" s="2" t="s">
+      <c r="C22" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="C22" s="2" t="s">
+      <c r="D22" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="E22" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="D22" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E22" s="2" t="s">
+    </row>
+    <row r="23" spans="1:5" ht="24.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="1" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A23" s="1" t="s">
+      <c r="B23" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="B23" s="2" t="s">
+      <c r="C23" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="C23" s="2" t="s">
+      <c r="D23" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="E23" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="D23" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E23" s="2" t="s">
+    </row>
+    <row r="24" spans="1:5" ht="24.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="1" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="24" spans="1:5" ht="27" x14ac:dyDescent="0.3">
-      <c r="A24" s="1" t="s">
+      <c r="B24" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="B24" s="2" t="s">
+      <c r="C24" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="C24" s="2" t="s">
+      <c r="D24" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="E24" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="D24" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E24" s="2" t="s">
+    </row>
+    <row r="25" spans="1:5" ht="24.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A25" s="1" t="s">
+      <c r="B25" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="B25" s="2" t="s">
+      <c r="C25" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="C25" s="2" t="s">
+      <c r="D25" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="E25" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="D25" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E25" s="2" t="s">
+    </row>
+    <row r="26" spans="1:5" ht="24.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="1" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="26" spans="1:5" ht="27" x14ac:dyDescent="0.3">
-      <c r="A26" s="1" t="s">
+      <c r="B26" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="B26" s="2" t="s">
+      <c r="C26" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="C26" s="2" t="s">
+      <c r="D26" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="E26" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="D26" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E26" s="2" t="s">
+    </row>
+    <row r="27" spans="1:5" ht="24.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="1" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="27" spans="1:5" ht="27" x14ac:dyDescent="0.3">
-      <c r="A27" s="1" t="s">
+      <c r="B27" s="2" t="s">
         <v>106</v>
-      </c>
-      <c r="B27" s="2" t="s">
-        <v>31</v>
       </c>
       <c r="C27" s="2" t="s">
         <v>107</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>33</v>
+        <v>0</v>
       </c>
       <c r="E27" s="2" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:5" ht="24.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
         <v>109</v>
       </c>
@@ -2147,30 +1817,30 @@
         <v>111</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="E28" s="2" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:5" ht="24.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="E29" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="B29" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="C29" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="D29" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E29" s="2" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="30" spans="1:5" ht="24.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
         <v>117</v>
       </c>
@@ -2181,13 +1851,13 @@
         <v>119</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="E30" s="2" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:5" ht="24.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
         <v>121</v>
       </c>
@@ -2198,13 +1868,13 @@
         <v>123</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="E31" s="2" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:5" ht="24.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
         <v>125</v>
       </c>
@@ -2215,13 +1885,13 @@
         <v>127</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="E32" s="2" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:5" ht="24.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="1" t="s">
         <v>129</v>
       </c>
@@ -2232,13 +1902,13 @@
         <v>131</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="E33" s="2" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:5" ht="24.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
         <v>133</v>
       </c>
@@ -2249,13 +1919,13 @@
         <v>135</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="E34" s="2" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:5" ht="24.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="1" t="s">
         <v>137</v>
       </c>
@@ -2266,13 +1936,13 @@
         <v>139</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="E35" s="2" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="36" spans="1:5" ht="27" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:5" ht="24.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="1" t="s">
         <v>141</v>
       </c>
@@ -2283,13 +1953,13 @@
         <v>143</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="E36" s="2" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:5" ht="24.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="1" t="s">
         <v>145</v>
       </c>
@@ -2300,13 +1970,13 @@
         <v>147</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="E37" s="2" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="38" spans="1:5" ht="27" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:5" ht="24.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="1" t="s">
         <v>149</v>
       </c>
@@ -2317,13 +1987,13 @@
         <v>151</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="E38" s="2" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:5" ht="24.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
         <v>153</v>
       </c>
@@ -2334,13 +2004,13 @@
         <v>155</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="E39" s="2" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:5" ht="24.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
         <v>157</v>
       </c>
@@ -2351,13 +2021,13 @@
         <v>159</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="E40" s="2" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="41" spans="1:5" ht="27" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:5" ht="24.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="1" t="s">
         <v>161</v>
       </c>
@@ -2368,1217 +2038,622 @@
         <v>163</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="E41" s="2" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:5" ht="24.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="1" t="s">
         <v>165</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>31</v>
+        <v>166</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>33</v>
+        <v>0</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" ht="27" x14ac:dyDescent="0.3">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" ht="24.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="1" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" ht="27" x14ac:dyDescent="0.3">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" ht="24.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" s="1" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" ht="27" x14ac:dyDescent="0.3">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" ht="24.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" s="1" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5" ht="27" x14ac:dyDescent="0.3">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" ht="24.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" s="1" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" ht="24.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" s="1" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" ht="24.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48" s="1" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5" ht="27" x14ac:dyDescent="0.3">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" ht="24.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49" s="1" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>31</v>
+        <v>194</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>33</v>
+        <v>0</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5" ht="27" x14ac:dyDescent="0.3">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" ht="24.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A50" s="1" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" ht="24.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A51" s="1" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5" ht="27" x14ac:dyDescent="0.3">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" ht="24.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A52" s="1" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>31</v>
+        <v>206</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>33</v>
+        <v>0</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" ht="24.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A53" s="1" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" ht="24.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A54" s="1" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" ht="24.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A55" s="1" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" ht="24.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A56" s="1" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>31</v>
+        <v>222</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>218</v>
+        <v>223</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>33</v>
+        <v>0</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5" ht="27" x14ac:dyDescent="0.3">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" ht="24.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A57" s="1" t="s">
-        <v>220</v>
+        <v>225</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>221</v>
+        <v>226</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>222</v>
+        <v>227</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5" ht="27" x14ac:dyDescent="0.3">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" ht="24.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A58" s="1" t="s">
-        <v>224</v>
+        <v>229</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>225</v>
+        <v>230</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>226</v>
+        <v>231</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5" ht="27" x14ac:dyDescent="0.3">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" ht="24.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A59" s="1" t="s">
-        <v>228</v>
+        <v>233</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>31</v>
+        <v>234</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>229</v>
+        <v>235</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>33</v>
+        <v>0</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" ht="24.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A60" s="1" t="s">
-        <v>231</v>
+        <v>237</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>232</v>
+        <v>238</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>233</v>
+        <v>239</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" ht="24.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A61" s="1" t="s">
-        <v>235</v>
+        <v>241</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>31</v>
+        <v>242</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>236</v>
+        <v>243</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>33</v>
+        <v>0</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" ht="24.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A62" s="1" t="s">
-        <v>238</v>
+        <v>245</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>239</v>
+        <v>246</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>240</v>
+        <v>247</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" ht="24.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A63" s="1" t="s">
-        <v>242</v>
+        <v>249</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>243</v>
+        <v>250</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>244</v>
+        <v>251</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5" ht="27" x14ac:dyDescent="0.3">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" ht="24.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A64" s="1" t="s">
-        <v>246</v>
+        <v>253</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>247</v>
+        <v>254</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>248</v>
+        <v>255</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5" ht="27" x14ac:dyDescent="0.3">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" ht="24.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A65" s="1" t="s">
-        <v>250</v>
+        <v>257</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>251</v>
+        <v>258</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>252</v>
+        <v>259</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5" ht="27" x14ac:dyDescent="0.3">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" ht="24.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A66" s="1" t="s">
-        <v>254</v>
+        <v>261</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>255</v>
+        <v>262</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>256</v>
+        <v>263</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.3">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" ht="24.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A67" s="1" t="s">
-        <v>258</v>
+        <v>265</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>259</v>
+        <v>266</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>260</v>
+        <v>267</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5" ht="27" x14ac:dyDescent="0.3">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" ht="24.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A68" s="1" t="s">
-        <v>262</v>
+        <v>269</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>263</v>
+        <v>270</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>264</v>
+        <v>271</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5" ht="27" x14ac:dyDescent="0.3">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" ht="24.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A69" s="1" t="s">
-        <v>266</v>
+        <v>273</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>31</v>
+        <v>274</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>67</v>
+        <v>275</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>68</v>
+        <v>0</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5" ht="27" x14ac:dyDescent="0.3">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" ht="24.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A70" s="1" t="s">
-        <v>268</v>
+        <v>277</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>269</v>
+        <v>278</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>270</v>
+        <v>279</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="71" spans="1:5" ht="27" x14ac:dyDescent="0.3">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" ht="24.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A71" s="1" t="s">
-        <v>272</v>
+        <v>281</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>273</v>
+        <v>282</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>274</v>
+        <v>283</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5" ht="27" x14ac:dyDescent="0.3">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" ht="24.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A72" s="1" t="s">
-        <v>276</v>
+        <v>285</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>277</v>
+        <v>286</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>278</v>
+        <v>287</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.3">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" ht="24.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A73" s="1" t="s">
-        <v>280</v>
+        <v>289</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>281</v>
+        <v>290</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>282</v>
+        <v>291</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5" ht="27" x14ac:dyDescent="0.3">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" ht="24.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A74" s="1" t="s">
-        <v>284</v>
+        <v>293</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>285</v>
+        <v>294</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>286</v>
+        <v>295</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.3">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" ht="24.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A75" s="1" t="s">
-        <v>288</v>
+        <v>297</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>289</v>
+        <v>298</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>290</v>
+        <v>299</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5" ht="27" x14ac:dyDescent="0.3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" ht="24.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A76" s="1" t="s">
-        <v>292</v>
+        <v>301</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>31</v>
+        <v>302</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>107</v>
+        <v>303</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>33</v>
+        <v>0</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.3">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" ht="24.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A77" s="1" t="s">
-        <v>294</v>
+        <v>305</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>31</v>
+        <v>306</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>295</v>
+        <v>307</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>33</v>
+        <v>0</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A78" s="1" t="s">
-        <v>297</v>
-      </c>
-      <c r="B78" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="C78" s="2" t="s">
-        <v>298</v>
-      </c>
-      <c r="D78" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="E78" s="2" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="79" spans="1:5" ht="27" x14ac:dyDescent="0.3">
-      <c r="A79" s="1" t="s">
-        <v>300</v>
-      </c>
-      <c r="B79" s="2" t="s">
-        <v>301</v>
-      </c>
-      <c r="C79" s="2" t="s">
-        <v>302</v>
-      </c>
-      <c r="D79" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E79" s="2" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A80" s="1" t="s">
-        <v>304</v>
-      </c>
-      <c r="B80" s="2" t="s">
-        <v>305</v>
-      </c>
-      <c r="C80" s="2" t="s">
-        <v>306</v>
-      </c>
-      <c r="D80" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E80" s="2" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A81" s="1" t="s">
         <v>308</v>
-      </c>
-      <c r="B81" s="2" t="s">
-        <v>309</v>
-      </c>
-      <c r="C81" s="2" t="s">
-        <v>310</v>
-      </c>
-      <c r="D81" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E81" s="2" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A82" s="1" t="s">
-        <v>312</v>
-      </c>
-      <c r="B82" s="2" t="s">
-        <v>313</v>
-      </c>
-      <c r="C82" s="2" t="s">
-        <v>314</v>
-      </c>
-      <c r="D82" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E82" s="2" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="83" spans="1:5" ht="27" x14ac:dyDescent="0.3">
-      <c r="A83" s="1" t="s">
-        <v>316</v>
-      </c>
-      <c r="B83" s="2" t="s">
-        <v>317</v>
-      </c>
-      <c r="C83" s="2" t="s">
-        <v>318</v>
-      </c>
-      <c r="D83" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E83" s="2" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A84" s="1" t="s">
-        <v>320</v>
-      </c>
-      <c r="B84" s="2" t="s">
-        <v>321</v>
-      </c>
-      <c r="C84" s="2" t="s">
-        <v>322</v>
-      </c>
-      <c r="D84" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E84" s="2" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="85" spans="1:5" ht="27" x14ac:dyDescent="0.3">
-      <c r="A85" s="1" t="s">
-        <v>324</v>
-      </c>
-      <c r="B85" s="2" t="s">
-        <v>325</v>
-      </c>
-      <c r="C85" s="2" t="s">
-        <v>326</v>
-      </c>
-      <c r="D85" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E85" s="2" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A86" s="1" t="s">
-        <v>328</v>
-      </c>
-      <c r="B86" s="2" t="s">
-        <v>329</v>
-      </c>
-      <c r="C86" s="2" t="s">
-        <v>330</v>
-      </c>
-      <c r="D86" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E86" s="2" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="87" spans="1:5" ht="27" x14ac:dyDescent="0.3">
-      <c r="A87" s="1" t="s">
-        <v>332</v>
-      </c>
-      <c r="B87" s="2" t="s">
-        <v>333</v>
-      </c>
-      <c r="C87" s="2" t="s">
-        <v>334</v>
-      </c>
-      <c r="D87" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E87" s="2" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="88" spans="1:5" ht="27" x14ac:dyDescent="0.3">
-      <c r="A88" s="1" t="s">
-        <v>336</v>
-      </c>
-      <c r="B88" s="2" t="s">
-        <v>337</v>
-      </c>
-      <c r="C88" s="2" t="s">
-        <v>338</v>
-      </c>
-      <c r="D88" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E88" s="2" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="89" spans="1:5" ht="27" x14ac:dyDescent="0.3">
-      <c r="A89" s="1" t="s">
-        <v>340</v>
-      </c>
-      <c r="B89" s="2" t="s">
-        <v>341</v>
-      </c>
-      <c r="C89" s="2" t="s">
-        <v>342</v>
-      </c>
-      <c r="D89" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E89" s="2" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A90" s="1" t="s">
-        <v>344</v>
-      </c>
-      <c r="B90" s="2" t="s">
-        <v>345</v>
-      </c>
-      <c r="C90" s="2" t="s">
-        <v>346</v>
-      </c>
-      <c r="D90" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E90" s="2" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="91" spans="1:5" ht="27" x14ac:dyDescent="0.3">
-      <c r="A91" s="1" t="s">
-        <v>348</v>
-      </c>
-      <c r="B91" s="2" t="s">
-        <v>349</v>
-      </c>
-      <c r="C91" s="2" t="s">
-        <v>350</v>
-      </c>
-      <c r="D91" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E91" s="2" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="92" spans="1:5" ht="27" x14ac:dyDescent="0.3">
-      <c r="A92" s="1" t="s">
-        <v>352</v>
-      </c>
-      <c r="B92" s="2" t="s">
-        <v>353</v>
-      </c>
-      <c r="C92" s="2" t="s">
-        <v>354</v>
-      </c>
-      <c r="D92" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E92" s="2" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A93" s="1" t="s">
-        <v>356</v>
-      </c>
-      <c r="B93" s="2" t="s">
-        <v>357</v>
-      </c>
-      <c r="C93" s="2" t="s">
-        <v>358</v>
-      </c>
-      <c r="D93" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E93" s="2" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="94" spans="1:5" ht="27" x14ac:dyDescent="0.3">
-      <c r="A94" s="1" t="s">
-        <v>360</v>
-      </c>
-      <c r="B94" s="2" t="s">
-        <v>361</v>
-      </c>
-      <c r="C94" s="2" t="s">
-        <v>362</v>
-      </c>
-      <c r="D94" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E94" s="2" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="95" spans="1:5" ht="27" x14ac:dyDescent="0.3">
-      <c r="A95" s="1" t="s">
-        <v>364</v>
-      </c>
-      <c r="B95" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="C95" s="2" t="s">
-        <v>365</v>
-      </c>
-      <c r="D95" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="E95" s="2" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A96" s="1" t="s">
-        <v>367</v>
-      </c>
-      <c r="B96" s="2" t="s">
-        <v>368</v>
-      </c>
-      <c r="C96" s="2" t="s">
-        <v>369</v>
-      </c>
-      <c r="D96" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E96" s="2" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A97" s="1" t="s">
-        <v>371</v>
-      </c>
-      <c r="B97" s="2" t="s">
-        <v>372</v>
-      </c>
-      <c r="C97" s="2" t="s">
-        <v>373</v>
-      </c>
-      <c r="D97" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E97" s="2" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A98" s="1" t="s">
-        <v>375</v>
-      </c>
-      <c r="B98" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="C98" s="2" t="s">
-        <v>376</v>
-      </c>
-      <c r="D98" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="E98" s="2" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A99" s="1" t="s">
-        <v>378</v>
-      </c>
-      <c r="B99" s="2" t="s">
-        <v>379</v>
-      </c>
-      <c r="C99" s="2" t="s">
-        <v>380</v>
-      </c>
-      <c r="D99" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E99" s="2" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="100" spans="1:5" ht="27" x14ac:dyDescent="0.3">
-      <c r="A100" s="1" t="s">
-        <v>382</v>
-      </c>
-      <c r="B100" s="2" t="s">
-        <v>383</v>
-      </c>
-      <c r="C100" s="2" t="s">
-        <v>384</v>
-      </c>
-      <c r="D100" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E100" s="2" t="s">
-        <v>385</v>
-      </c>
-    </row>
-    <row r="101" spans="1:5" ht="27" x14ac:dyDescent="0.3">
-      <c r="A101" s="1" t="s">
-        <v>386</v>
-      </c>
-      <c r="B101" s="2" t="s">
-        <v>387</v>
-      </c>
-      <c r="C101" s="2" t="s">
-        <v>388</v>
-      </c>
-      <c r="D101" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E101" s="2" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="102" spans="1:5" ht="27" x14ac:dyDescent="0.3">
-      <c r="A102" s="1" t="s">
-        <v>390</v>
-      </c>
-      <c r="B102" s="2" t="s">
-        <v>391</v>
-      </c>
-      <c r="C102" s="2" t="s">
-        <v>392</v>
-      </c>
-      <c r="D102" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E102" s="2" t="s">
-        <v>393</v>
-      </c>
-    </row>
-    <row r="103" spans="1:5" ht="27" x14ac:dyDescent="0.3">
-      <c r="A103" s="1" t="s">
-        <v>394</v>
-      </c>
-      <c r="B103" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="C103" s="2" t="s">
-        <v>203</v>
-      </c>
-      <c r="D103" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="E103" s="2" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A104" s="1" t="s">
-        <v>396</v>
-      </c>
-      <c r="B104" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="C104" s="2" t="s">
-        <v>397</v>
-      </c>
-      <c r="D104" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="E104" s="2" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A105" s="1" t="s">
-        <v>399</v>
-      </c>
-      <c r="B105" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="C105" s="2" t="s">
-        <v>400</v>
-      </c>
-      <c r="D105" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="E105" s="2" t="s">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A106" s="1" t="s">
-        <v>402</v>
-      </c>
-      <c r="B106" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="C106" s="2" t="s">
-        <v>403</v>
-      </c>
-      <c r="D106" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="E106" s="2" t="s">
-        <v>404</v>
-      </c>
-    </row>
-    <row r="107" spans="1:5" ht="27" x14ac:dyDescent="0.3">
-      <c r="A107" s="1" t="s">
-        <v>405</v>
-      </c>
-      <c r="B107" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="C107" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="D107" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="E107" s="2" t="s">
-        <v>406</v>
-      </c>
-    </row>
-    <row r="108" spans="1:5" ht="27" x14ac:dyDescent="0.3">
-      <c r="A108" s="1" t="s">
-        <v>407</v>
-      </c>
-      <c r="B108" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="C108" s="2" t="s">
-        <v>408</v>
-      </c>
-      <c r="D108" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="E108" s="2" t="s">
-        <v>409</v>
-      </c>
-    </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A109" s="1" t="s">
-        <v>410</v>
-      </c>
-      <c r="B109" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="C109" s="2" t="s">
-        <v>397</v>
-      </c>
-      <c r="D109" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="E109" s="2" t="s">
-        <v>411</v>
-      </c>
-    </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A110" s="1" t="s">
-        <v>412</v>
-      </c>
-      <c r="B110" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="C110" s="2" t="s">
-        <v>413</v>
-      </c>
-      <c r="D110" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="E110" s="2" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A111" s="1" t="s">
-        <v>415</v>
-      </c>
-      <c r="B111" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="C111" s="2" t="s">
-        <v>236</v>
-      </c>
-      <c r="D111" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="E111" s="2" t="s">
-        <v>416</v>
-      </c>
-    </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A112" s="1" t="s">
-        <v>417</v>
-      </c>
-      <c r="B112" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="C112" s="2" t="s">
-        <v>376</v>
-      </c>
-      <c r="D112" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="E112" s="2" t="s">
-        <v>418</v>
       </c>
     </row>
   </sheetData>

--- a/.ready/最新发布资源-维格视图.xlsx
+++ b/.ready/最新发布资源-维格视图.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27231"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Project\memo\.ready\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3ECFC8B5-8544-40CF-A98F-05AFF34503ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="19095" windowHeight="12075" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="23040" windowHeight="9300"/>
   </bookViews>
   <sheets>
     <sheet name="维格视图" sheetId="1" r:id="rId1"/>
@@ -20,68 +14,20 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="385" uniqueCount="309">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="365" uniqueCount="293">
+  <si>
+    <t>B站 - 陈平的跨学科思维课</t>
+  </si>
+  <si>
+    <t>https://www.alipan.com/s/2Gy97oMbQ1F</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/dd95c80ded90</t>
+  </si>
   <si>
     <t>学术</t>
   </si>
   <si>
-    <t>B站 - 罗翔：刑法悖论十讲</t>
-  </si>
-  <si>
-    <t>https://www.alipan.com/s/mvQjjqX8zPm</t>
-  </si>
-  <si>
-    <t>https://pan.quark.cn/s/e13fd37bb797</t>
-  </si>
-  <si>
-    <t>2024/02/27 17:05</t>
-  </si>
-  <si>
-    <t>B站 - C4D大作战：百万UP的光之教程</t>
-  </si>
-  <si>
-    <t>https://www.alipan.com/s/Sd39tdH6UgU</t>
-  </si>
-  <si>
-    <t>https://pan.quark.cn/s/e5a20dcbdaa6</t>
-  </si>
-  <si>
-    <t>2024/02/27 15:56</t>
-  </si>
-  <si>
-    <t>极客时间 - 分布式系统案例课</t>
-  </si>
-  <si>
-    <t>https://www.alipan.com/s/Lq2XS5iEpbj</t>
-  </si>
-  <si>
-    <t>https://pan.quark.cn/s/a767e169c7dc</t>
-  </si>
-  <si>
-    <t>2024/02/27 13:17</t>
-  </si>
-  <si>
-    <t>极客时间 - TensorFlow 2 项目进阶实战</t>
-  </si>
-  <si>
-    <t>https://www.alipan.com/s/UZpFszPpwXG</t>
-  </si>
-  <si>
-    <t>https://pan.quark.cn/s/bfce988e0f05</t>
-  </si>
-  <si>
-    <t>2024/02/27 12:38</t>
-  </si>
-  <si>
-    <t>B站 - 陈平的跨学科思维课</t>
-  </si>
-  <si>
-    <t>https://www.alipan.com/s/2Gy97oMbQ1F</t>
-  </si>
-  <si>
-    <t>https://pan.quark.cn/s/dd95c80ded90</t>
-  </si>
-  <si>
     <t>2024/02/27 03:11</t>
   </si>
   <si>
@@ -361,16 +307,16 @@
     <t>2024/02/23 21:40</t>
   </si>
   <si>
+    <t>【儒猿课堂】从0开始带你成为MySQL实战优化高手</t>
+  </si>
+  <si>
+    <t>https://www.alipan.com/s/sHEXx5RsWY4</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/6a62a1a5b47e</t>
+  </si>
+  <si>
     <t>2024/02/23 19:29</t>
-  </si>
-  <si>
-    <t>【儒猿课堂】从0开始带你成为MySQL实战优化高手</t>
-  </si>
-  <si>
-    <t>https://www.alipan.com/s/sHEXx5RsWY4</t>
-  </si>
-  <si>
-    <t>https://pan.quark.cn/s/6a62a1a5b47e</t>
   </si>
   <si>
     <t>【开课吧】JavaEE企业级分布式高级架构师023期 - 带源码课件</t>
@@ -952,8 +898,14 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -962,21 +914,345 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -984,9 +1260,251 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -997,17 +1515,61 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1329,42 +1891,42 @@
       </a:style>
     </a:lnDef>
   </a:objectDefaults>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E77"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:E73"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="38.6640625" defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="38.6666666666667" defaultRowHeight="14.4" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" width="38.6640625" style="1"/>
-    <col min="2" max="16384" width="38.6640625" style="2"/>
+    <col min="1" max="1" width="38.6666666666667" style="1"/>
+    <col min="2" max="16384" width="38.6666666666667" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="24.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" ht="44.5" customHeight="1" spans="1:5">
       <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="D1" s="2" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="24.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" ht="44.5" customHeight="1" spans="1:5">
       <c r="A2" s="1" t="s">
         <v>5</v>
       </c>
@@ -1375,13 +1937,13 @@
         <v>7</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="24.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" ht="44.5" customHeight="1" spans="1:5">
       <c r="A3" s="1" t="s">
         <v>9</v>
       </c>
@@ -1392,13 +1954,13 @@
         <v>11</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="24.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" ht="44.5" customHeight="1" spans="1:5">
       <c r="A4" s="1" t="s">
         <v>13</v>
       </c>
@@ -1409,13 +1971,13 @@
         <v>15</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="24.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" ht="44.5" customHeight="1" spans="1:5">
       <c r="A5" s="1" t="s">
         <v>17</v>
       </c>
@@ -1426,13 +1988,13 @@
         <v>19</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="24.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" ht="44.5" customHeight="1" spans="1:5">
       <c r="A6" s="1" t="s">
         <v>21</v>
       </c>
@@ -1443,13 +2005,13 @@
         <v>23</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="24.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" ht="44.5" customHeight="1" spans="1:5">
       <c r="A7" s="1" t="s">
         <v>25</v>
       </c>
@@ -1460,13 +2022,13 @@
         <v>27</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="24.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" ht="44.5" customHeight="1" spans="1:5">
       <c r="A8" s="1" t="s">
         <v>29</v>
       </c>
@@ -1477,13 +2039,13 @@
         <v>31</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="24.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" ht="44.5" customHeight="1" spans="1:5">
       <c r="A9" s="1" t="s">
         <v>33</v>
       </c>
@@ -1494,13 +2056,13 @@
         <v>35</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="24.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" ht="44.5" customHeight="1" spans="1:5">
       <c r="A10" s="1" t="s">
         <v>37</v>
       </c>
@@ -1511,13 +2073,13 @@
         <v>39</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="24.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" ht="44.5" customHeight="1" spans="1:5">
       <c r="A11" s="1" t="s">
         <v>41</v>
       </c>
@@ -1528,13 +2090,13 @@
         <v>43</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E11" s="2" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="24.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" ht="44.5" customHeight="1" spans="1:5">
       <c r="A12" s="1" t="s">
         <v>45</v>
       </c>
@@ -1545,13 +2107,13 @@
         <v>47</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E12" s="2" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="24.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" ht="44.5" customHeight="1" spans="1:5">
       <c r="A13" s="1" t="s">
         <v>49</v>
       </c>
@@ -1562,13 +2124,13 @@
         <v>51</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E13" s="2" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="24.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" ht="44.5" customHeight="1" spans="1:5">
       <c r="A14" s="1" t="s">
         <v>53</v>
       </c>
@@ -1579,13 +2141,13 @@
         <v>55</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E14" s="2" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="24.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" ht="44.5" customHeight="1" spans="1:5">
       <c r="A15" s="1" t="s">
         <v>57</v>
       </c>
@@ -1596,13 +2158,13 @@
         <v>59</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E15" s="2" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="24.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" ht="44.5" customHeight="1" spans="1:5">
       <c r="A16" s="1" t="s">
         <v>61</v>
       </c>
@@ -1613,13 +2175,13 @@
         <v>63</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E16" s="2" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="24.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" ht="44.5" customHeight="1" spans="1:5">
       <c r="A17" s="1" t="s">
         <v>65</v>
       </c>
@@ -1630,13 +2192,13 @@
         <v>67</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E17" s="2" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="24.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" ht="44.5" customHeight="1" spans="1:5">
       <c r="A18" s="1" t="s">
         <v>69</v>
       </c>
@@ -1647,13 +2209,13 @@
         <v>71</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E18" s="2" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="19" spans="1:5" ht="24.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" ht="44.5" customHeight="1" spans="1:5">
       <c r="A19" s="1" t="s">
         <v>73</v>
       </c>
@@ -1664,13 +2226,13 @@
         <v>75</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E19" s="2" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="20" spans="1:5" ht="24.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" ht="44.5" customHeight="1" spans="1:5">
       <c r="A20" s="1" t="s">
         <v>77</v>
       </c>
@@ -1681,13 +2243,13 @@
         <v>79</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E20" s="2" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="21" spans="1:5" ht="24.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" ht="44.5" customHeight="1" spans="1:5">
       <c r="A21" s="1" t="s">
         <v>81</v>
       </c>
@@ -1698,13 +2260,13 @@
         <v>83</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E21" s="2" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="22" spans="1:5" ht="24.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" ht="44.5" customHeight="1" spans="1:5">
       <c r="A22" s="1" t="s">
         <v>85</v>
       </c>
@@ -1715,13 +2277,13 @@
         <v>87</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E22" s="2" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="23" spans="1:5" ht="24.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" ht="44.5" customHeight="1" spans="1:5">
       <c r="A23" s="1" t="s">
         <v>89</v>
       </c>
@@ -1732,13 +2294,13 @@
         <v>91</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E23" s="2" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="24" spans="1:5" ht="24.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" ht="44.5" customHeight="1" spans="1:5">
       <c r="A24" s="1" t="s">
         <v>93</v>
       </c>
@@ -1749,13 +2311,13 @@
         <v>95</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E24" s="2" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="25" spans="1:5" ht="24.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" ht="44.5" customHeight="1" spans="1:5">
       <c r="A25" s="1" t="s">
         <v>97</v>
       </c>
@@ -1766,13 +2328,13 @@
         <v>99</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E25" s="2" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="26" spans="1:5" ht="24.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" ht="44.5" customHeight="1" spans="1:5">
       <c r="A26" s="1" t="s">
         <v>101</v>
       </c>
@@ -1783,13 +2345,13 @@
         <v>103</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E26" s="2" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="27" spans="1:5" ht="24.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" ht="44.5" customHeight="1" spans="1:5">
       <c r="A27" s="1" t="s">
         <v>105</v>
       </c>
@@ -1800,13 +2362,13 @@
         <v>107</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E27" s="2" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="28" spans="1:5" ht="24.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" ht="44.5" customHeight="1" spans="1:5">
       <c r="A28" s="1" t="s">
         <v>109</v>
       </c>
@@ -1817,30 +2379,30 @@
         <v>111</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E28" s="2" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="29" spans="1:5" ht="24.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" ht="44.5" customHeight="1" spans="1:5">
       <c r="A29" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="B29" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="B29" s="2" t="s">
+      <c r="C29" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="C29" s="2" t="s">
+      <c r="D29" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E29" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="D29" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="E29" s="2" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" ht="24.5" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="30" ht="44.5" customHeight="1" spans="1:5">
       <c r="A30" s="1" t="s">
         <v>117</v>
       </c>
@@ -1851,13 +2413,13 @@
         <v>119</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E30" s="2" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="31" spans="1:5" ht="24.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="31" ht="44.5" customHeight="1" spans="1:5">
       <c r="A31" s="1" t="s">
         <v>121</v>
       </c>
@@ -1868,13 +2430,13 @@
         <v>123</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E31" s="2" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="32" spans="1:5" ht="24.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="32" ht="44.5" customHeight="1" spans="1:5">
       <c r="A32" s="1" t="s">
         <v>125</v>
       </c>
@@ -1885,13 +2447,13 @@
         <v>127</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E32" s="2" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="33" spans="1:5" ht="24.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="33" ht="44.5" customHeight="1" spans="1:5">
       <c r="A33" s="1" t="s">
         <v>129</v>
       </c>
@@ -1902,13 +2464,13 @@
         <v>131</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E33" s="2" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="34" spans="1:5" ht="24.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="34" ht="44.5" customHeight="1" spans="1:5">
       <c r="A34" s="1" t="s">
         <v>133</v>
       </c>
@@ -1919,13 +2481,13 @@
         <v>135</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E34" s="2" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="35" spans="1:5" ht="24.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="35" ht="44.5" customHeight="1" spans="1:5">
       <c r="A35" s="1" t="s">
         <v>137</v>
       </c>
@@ -1936,13 +2498,13 @@
         <v>139</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E35" s="2" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="36" spans="1:5" ht="24.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="36" ht="44.5" customHeight="1" spans="1:5">
       <c r="A36" s="1" t="s">
         <v>141</v>
       </c>
@@ -1953,13 +2515,13 @@
         <v>143</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E36" s="2" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="37" spans="1:5" ht="24.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="37" ht="44.5" customHeight="1" spans="1:5">
       <c r="A37" s="1" t="s">
         <v>145</v>
       </c>
@@ -1970,13 +2532,13 @@
         <v>147</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E37" s="2" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="38" spans="1:5" ht="24.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="38" ht="44.5" customHeight="1" spans="1:5">
       <c r="A38" s="1" t="s">
         <v>149</v>
       </c>
@@ -1987,13 +2549,13 @@
         <v>151</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E38" s="2" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="39" spans="1:5" ht="24.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="39" ht="44.5" customHeight="1" spans="1:5">
       <c r="A39" s="1" t="s">
         <v>153</v>
       </c>
@@ -2004,13 +2566,13 @@
         <v>155</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E39" s="2" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="40" spans="1:5" ht="24.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="40" ht="44.5" customHeight="1" spans="1:5">
       <c r="A40" s="1" t="s">
         <v>157</v>
       </c>
@@ -2021,13 +2583,13 @@
         <v>159</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E40" s="2" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="41" spans="1:5" ht="24.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="41" ht="44.5" customHeight="1" spans="1:5">
       <c r="A41" s="1" t="s">
         <v>161</v>
       </c>
@@ -2038,13 +2600,13 @@
         <v>163</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E41" s="2" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="42" spans="1:5" ht="24.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="42" ht="44.5" customHeight="1" spans="1:5">
       <c r="A42" s="1" t="s">
         <v>165</v>
       </c>
@@ -2055,13 +2617,13 @@
         <v>167</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E42" s="2" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="43" spans="1:5" ht="24.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="43" ht="44.5" customHeight="1" spans="1:5">
       <c r="A43" s="1" t="s">
         <v>169</v>
       </c>
@@ -2072,13 +2634,13 @@
         <v>171</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E43" s="2" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="44" spans="1:5" ht="24.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="44" ht="44.5" customHeight="1" spans="1:5">
       <c r="A44" s="1" t="s">
         <v>173</v>
       </c>
@@ -2089,13 +2651,13 @@
         <v>175</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E44" s="2" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="45" spans="1:5" ht="24.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="45" ht="44.5" customHeight="1" spans="1:5">
       <c r="A45" s="1" t="s">
         <v>177</v>
       </c>
@@ -2106,13 +2668,13 @@
         <v>179</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E45" s="2" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="46" spans="1:5" ht="24.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="46" ht="44.5" customHeight="1" spans="1:5">
       <c r="A46" s="1" t="s">
         <v>181</v>
       </c>
@@ -2123,13 +2685,13 @@
         <v>183</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E46" s="2" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="47" spans="1:5" ht="24.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="47" ht="44.5" customHeight="1" spans="1:5">
       <c r="A47" s="1" t="s">
         <v>185</v>
       </c>
@@ -2140,13 +2702,13 @@
         <v>187</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E47" s="2" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="48" spans="1:5" ht="24.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="48" ht="44.5" customHeight="1" spans="1:5">
       <c r="A48" s="1" t="s">
         <v>189</v>
       </c>
@@ -2157,13 +2719,13 @@
         <v>191</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E48" s="2" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="49" spans="1:5" ht="24.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="49" ht="44.5" customHeight="1" spans="1:5">
       <c r="A49" s="1" t="s">
         <v>193</v>
       </c>
@@ -2174,13 +2736,13 @@
         <v>195</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E49" s="2" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="50" spans="1:5" ht="24.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="50" ht="44.5" customHeight="1" spans="1:5">
       <c r="A50" s="1" t="s">
         <v>197</v>
       </c>
@@ -2191,13 +2753,13 @@
         <v>199</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E50" s="2" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="51" spans="1:5" ht="24.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="51" ht="44.5" customHeight="1" spans="1:5">
       <c r="A51" s="1" t="s">
         <v>201</v>
       </c>
@@ -2208,13 +2770,13 @@
         <v>203</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E51" s="2" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="52" spans="1:5" ht="24.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="52" ht="44.5" customHeight="1" spans="1:5">
       <c r="A52" s="1" t="s">
         <v>205</v>
       </c>
@@ -2225,13 +2787,13 @@
         <v>207</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E52" s="2" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="53" spans="1:5" ht="24.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="53" ht="44.5" customHeight="1" spans="1:5">
       <c r="A53" s="1" t="s">
         <v>209</v>
       </c>
@@ -2242,13 +2804,13 @@
         <v>211</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E53" s="2" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="54" spans="1:5" ht="24.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="54" ht="44.5" customHeight="1" spans="1:5">
       <c r="A54" s="1" t="s">
         <v>213</v>
       </c>
@@ -2259,13 +2821,13 @@
         <v>215</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E54" s="2" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="55" spans="1:5" ht="24.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="55" ht="44.5" customHeight="1" spans="1:5">
       <c r="A55" s="1" t="s">
         <v>217</v>
       </c>
@@ -2276,13 +2838,13 @@
         <v>219</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E55" s="2" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="56" spans="1:5" ht="24.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="56" ht="44.5" customHeight="1" spans="1:5">
       <c r="A56" s="1" t="s">
         <v>221</v>
       </c>
@@ -2293,13 +2855,13 @@
         <v>223</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E56" s="2" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="57" spans="1:5" ht="24.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="57" ht="44.5" customHeight="1" spans="1:5">
       <c r="A57" s="1" t="s">
         <v>225</v>
       </c>
@@ -2310,13 +2872,13 @@
         <v>227</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E57" s="2" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="58" spans="1:5" ht="24.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="58" ht="44.5" customHeight="1" spans="1:5">
       <c r="A58" s="1" t="s">
         <v>229</v>
       </c>
@@ -2327,13 +2889,13 @@
         <v>231</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E58" s="2" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="59" spans="1:5" ht="24.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="59" ht="44.5" customHeight="1" spans="1:5">
       <c r="A59" s="1" t="s">
         <v>233</v>
       </c>
@@ -2344,13 +2906,13 @@
         <v>235</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E59" s="2" t="s">
         <v>236</v>
       </c>
     </row>
-    <row r="60" spans="1:5" ht="24.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="60" ht="44.5" customHeight="1" spans="1:5">
       <c r="A60" s="1" t="s">
         <v>237</v>
       </c>
@@ -2361,13 +2923,13 @@
         <v>239</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E60" s="2" t="s">
         <v>240</v>
       </c>
     </row>
-    <row r="61" spans="1:5" ht="24.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="61" ht="44.5" customHeight="1" spans="1:5">
       <c r="A61" s="1" t="s">
         <v>241</v>
       </c>
@@ -2378,13 +2940,13 @@
         <v>243</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E61" s="2" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="62" spans="1:5" ht="24.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="62" ht="44.5" customHeight="1" spans="1:5">
       <c r="A62" s="1" t="s">
         <v>245</v>
       </c>
@@ -2395,13 +2957,13 @@
         <v>247</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E62" s="2" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="63" spans="1:5" ht="24.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="63" ht="44.5" customHeight="1" spans="1:5">
       <c r="A63" s="1" t="s">
         <v>249</v>
       </c>
@@ -2412,13 +2974,13 @@
         <v>251</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E63" s="2" t="s">
         <v>252</v>
       </c>
     </row>
-    <row r="64" spans="1:5" ht="24.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="64" ht="44.5" customHeight="1" spans="1:5">
       <c r="A64" s="1" t="s">
         <v>253</v>
       </c>
@@ -2429,13 +2991,13 @@
         <v>255</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E64" s="2" t="s">
         <v>256</v>
       </c>
     </row>
-    <row r="65" spans="1:5" ht="24.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="65" ht="44.5" customHeight="1" spans="1:5">
       <c r="A65" s="1" t="s">
         <v>257</v>
       </c>
@@ -2446,13 +3008,13 @@
         <v>259</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E65" s="2" t="s">
         <v>260</v>
       </c>
     </row>
-    <row r="66" spans="1:5" ht="24.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="66" ht="44.5" customHeight="1" spans="1:5">
       <c r="A66" s="1" t="s">
         <v>261</v>
       </c>
@@ -2463,13 +3025,13 @@
         <v>263</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E66" s="2" t="s">
         <v>264</v>
       </c>
     </row>
-    <row r="67" spans="1:5" ht="24.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="67" ht="44.5" customHeight="1" spans="1:5">
       <c r="A67" s="1" t="s">
         <v>265</v>
       </c>
@@ -2480,13 +3042,13 @@
         <v>267</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E67" s="2" t="s">
         <v>268</v>
       </c>
     </row>
-    <row r="68" spans="1:5" ht="24.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="68" ht="44.5" customHeight="1" spans="1:5">
       <c r="A68" s="1" t="s">
         <v>269</v>
       </c>
@@ -2497,13 +3059,13 @@
         <v>271</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E68" s="2" t="s">
         <v>272</v>
       </c>
     </row>
-    <row r="69" spans="1:5" ht="24.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="69" ht="44.5" customHeight="1" spans="1:5">
       <c r="A69" s="1" t="s">
         <v>273</v>
       </c>
@@ -2514,13 +3076,13 @@
         <v>275</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E69" s="2" t="s">
         <v>276</v>
       </c>
     </row>
-    <row r="70" spans="1:5" ht="24.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="70" ht="44.5" customHeight="1" spans="1:5">
       <c r="A70" s="1" t="s">
         <v>277</v>
       </c>
@@ -2531,13 +3093,13 @@
         <v>279</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E70" s="2" t="s">
         <v>280</v>
       </c>
     </row>
-    <row r="71" spans="1:5" ht="24.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="71" ht="44.5" customHeight="1" spans="1:5">
       <c r="A71" s="1" t="s">
         <v>281</v>
       </c>
@@ -2548,13 +3110,13 @@
         <v>283</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E71" s="2" t="s">
         <v>284</v>
       </c>
     </row>
-    <row r="72" spans="1:5" ht="24.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="72" ht="44.5" customHeight="1" spans="1:5">
       <c r="A72" s="1" t="s">
         <v>285</v>
       </c>
@@ -2565,13 +3127,13 @@
         <v>287</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E72" s="2" t="s">
         <v>288</v>
       </c>
     </row>
-    <row r="73" spans="1:5" ht="24.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="73" ht="44.5" customHeight="1" spans="1:5">
       <c r="A73" s="1" t="s">
         <v>289</v>
       </c>
@@ -2582,83 +3144,15 @@
         <v>291</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E73" s="2" t="s">
         <v>292</v>
       </c>
     </row>
-    <row r="74" spans="1:5" ht="24.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A74" s="1" t="s">
-        <v>293</v>
-      </c>
-      <c r="B74" s="2" t="s">
-        <v>294</v>
-      </c>
-      <c r="C74" s="2" t="s">
-        <v>295</v>
-      </c>
-      <c r="D74" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="E74" s="2" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5" ht="24.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A75" s="1" t="s">
-        <v>297</v>
-      </c>
-      <c r="B75" s="2" t="s">
-        <v>298</v>
-      </c>
-      <c r="C75" s="2" t="s">
-        <v>299</v>
-      </c>
-      <c r="D75" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="E75" s="2" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5" ht="24.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A76" s="1" t="s">
-        <v>301</v>
-      </c>
-      <c r="B76" s="2" t="s">
-        <v>302</v>
-      </c>
-      <c r="C76" s="2" t="s">
-        <v>303</v>
-      </c>
-      <c r="D76" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="E76" s="2" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5" ht="24.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A77" s="1" t="s">
-        <v>305</v>
-      </c>
-      <c r="B77" s="2" t="s">
-        <v>306</v>
-      </c>
-      <c r="C77" s="2" t="s">
-        <v>307</v>
-      </c>
-      <c r="D77" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="E77" s="2" t="s">
-        <v>308</v>
-      </c>
-    </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="1" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/.ready/最新发布资源-维格视图.xlsx
+++ b/.ready/最新发布资源-维格视图.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27328"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Project\memo\.ready\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC30108D-9FB3-4A2E-9452-017F44C92D7C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="9300"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="19095" windowHeight="12075" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="维格视图" sheetId="1" r:id="rId1"/>
@@ -14,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="365" uniqueCount="293">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="345" uniqueCount="277">
   <si>
     <t>B站 - 陈平的跨学科思维课</t>
   </si>
@@ -845,67 +851,13 @@
   </si>
   <si>
     <t>2024/02/14 15:25</t>
-  </si>
-  <si>
-    <t>【爪哇教育】Web全栈工程师班 - 2023</t>
-  </si>
-  <si>
-    <t>https://www.alipan.com/s/rXwZwqDrPXS</t>
-  </si>
-  <si>
-    <t>https://pan.quark.cn/s/3cc1ce872b1c</t>
-  </si>
-  <si>
-    <t>2024/02/14 06:35</t>
-  </si>
-  <si>
-    <t>经典再升级-FFmpeg5.0核心技术精讲，打造音视频播放器 - 带源码课件</t>
-  </si>
-  <si>
-    <t>https://www.alipan.com/s/FAv5nnDgBqa</t>
-  </si>
-  <si>
-    <t>https://pan.quark.cn/s/32a3ea8e6396</t>
-  </si>
-  <si>
-    <t>2024/02/13 22:46</t>
-  </si>
-  <si>
-    <t>2024校园跑腿代办同城闪送小程序 - 带源码课件</t>
-  </si>
-  <si>
-    <t>https://www.alipan.com/s/TD2ewQApit8</t>
-  </si>
-  <si>
-    <t>https://pan.quark.cn/s/89f00e15a9c8</t>
-  </si>
-  <si>
-    <t>2024/02/13 02:29</t>
-  </si>
-  <si>
-    <t>【编程达人】火哥Windows内核课程（上+下) - 带源码课件</t>
-  </si>
-  <si>
-    <t>https://www.alipan.com/s/GrHN1JUjUfL</t>
-  </si>
-  <si>
-    <t>https://pan.quark.cn/s/a78308de69ab</t>
-  </si>
-  <si>
-    <t>2024/02/09 09:51</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="20">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -914,345 +866,21 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
+      <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="33">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="9">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -1260,251 +888,9 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -1515,61 +901,17 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1891,25 +1233,25 @@
       </a:style>
     </a:lnDef>
   </a:objectDefaults>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:E73"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:E69"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0">
+      <selection activeCell="A76" sqref="A76"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="38.6666666666667" defaultRowHeight="14.4" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="38.6640625" defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="38.6666666666667" style="1"/>
-    <col min="2" max="16384" width="38.6666666666667" style="2"/>
+    <col min="1" max="1" width="38.6640625" style="1"/>
+    <col min="2" max="16384" width="38.6640625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" ht="44.5" customHeight="1" spans="1:5">
+    <row r="1" spans="1:5" ht="44.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1926,7 +1268,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" ht="44.5" customHeight="1" spans="1:5">
+    <row r="2" spans="1:5" ht="44.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>5</v>
       </c>
@@ -1943,7 +1285,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" ht="44.5" customHeight="1" spans="1:5">
+    <row r="3" spans="1:5" ht="44.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>9</v>
       </c>
@@ -1960,7 +1302,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" ht="44.5" customHeight="1" spans="1:5">
+    <row r="4" spans="1:5" ht="44.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>13</v>
       </c>
@@ -1977,7 +1319,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="5" ht="44.5" customHeight="1" spans="1:5">
+    <row r="5" spans="1:5" ht="44.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>17</v>
       </c>
@@ -1994,7 +1336,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="6" ht="44.5" customHeight="1" spans="1:5">
+    <row r="6" spans="1:5" ht="44.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>21</v>
       </c>
@@ -2011,7 +1353,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="7" ht="44.5" customHeight="1" spans="1:5">
+    <row r="7" spans="1:5" ht="44.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>25</v>
       </c>
@@ -2028,7 +1370,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="8" ht="44.5" customHeight="1" spans="1:5">
+    <row r="8" spans="1:5" ht="44.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>29</v>
       </c>
@@ -2045,7 +1387,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="9" ht="44.5" customHeight="1" spans="1:5">
+    <row r="9" spans="1:5" ht="44.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>33</v>
       </c>
@@ -2062,7 +1404,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="10" ht="44.5" customHeight="1" spans="1:5">
+    <row r="10" spans="1:5" ht="44.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>37</v>
       </c>
@@ -2079,7 +1421,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="11" ht="44.5" customHeight="1" spans="1:5">
+    <row r="11" spans="1:5" ht="44.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>41</v>
       </c>
@@ -2096,7 +1438,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="12" ht="44.5" customHeight="1" spans="1:5">
+    <row r="12" spans="1:5" ht="44.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>45</v>
       </c>
@@ -2113,7 +1455,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="13" ht="44.5" customHeight="1" spans="1:5">
+    <row r="13" spans="1:5" ht="44.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>49</v>
       </c>
@@ -2130,7 +1472,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="14" ht="44.5" customHeight="1" spans="1:5">
+    <row r="14" spans="1:5" ht="44.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>53</v>
       </c>
@@ -2147,7 +1489,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="15" ht="44.5" customHeight="1" spans="1:5">
+    <row r="15" spans="1:5" ht="44.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>57</v>
       </c>
@@ -2164,7 +1506,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="16" ht="44.5" customHeight="1" spans="1:5">
+    <row r="16" spans="1:5" ht="44.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>61</v>
       </c>
@@ -2181,7 +1523,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="17" ht="44.5" customHeight="1" spans="1:5">
+    <row r="17" spans="1:5" ht="44.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>65</v>
       </c>
@@ -2198,7 +1540,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="18" ht="44.5" customHeight="1" spans="1:5">
+    <row r="18" spans="1:5" ht="44.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>69</v>
       </c>
@@ -2215,7 +1557,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="19" ht="44.5" customHeight="1" spans="1:5">
+    <row r="19" spans="1:5" ht="44.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
         <v>73</v>
       </c>
@@ -2232,7 +1574,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="20" ht="44.5" customHeight="1" spans="1:5">
+    <row r="20" spans="1:5" ht="44.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
         <v>77</v>
       </c>
@@ -2249,7 +1591,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="21" ht="44.5" customHeight="1" spans="1:5">
+    <row r="21" spans="1:5" ht="44.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
         <v>81</v>
       </c>
@@ -2266,7 +1608,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="22" ht="44.5" customHeight="1" spans="1:5">
+    <row r="22" spans="1:5" ht="44.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
         <v>85</v>
       </c>
@@ -2283,7 +1625,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="23" ht="44.5" customHeight="1" spans="1:5">
+    <row r="23" spans="1:5" ht="44.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
         <v>89</v>
       </c>
@@ -2300,7 +1642,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="24" ht="44.5" customHeight="1" spans="1:5">
+    <row r="24" spans="1:5" ht="44.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
         <v>93</v>
       </c>
@@ -2317,7 +1659,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="25" ht="44.5" customHeight="1" spans="1:5">
+    <row r="25" spans="1:5" ht="44.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
         <v>97</v>
       </c>
@@ -2334,7 +1676,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="26" ht="44.5" customHeight="1" spans="1:5">
+    <row r="26" spans="1:5" ht="44.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
         <v>101</v>
       </c>
@@ -2351,7 +1693,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="27" ht="44.5" customHeight="1" spans="1:5">
+    <row r="27" spans="1:5" ht="44.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
         <v>105</v>
       </c>
@@ -2368,7 +1710,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="28" ht="44.5" customHeight="1" spans="1:5">
+    <row r="28" spans="1:5" ht="44.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
         <v>109</v>
       </c>
@@ -2385,7 +1727,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="29" ht="44.5" customHeight="1" spans="1:5">
+    <row r="29" spans="1:5" ht="44.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
         <v>113</v>
       </c>
@@ -2402,7 +1744,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="30" ht="44.5" customHeight="1" spans="1:5">
+    <row r="30" spans="1:5" ht="44.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
         <v>117</v>
       </c>
@@ -2419,7 +1761,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="31" ht="44.5" customHeight="1" spans="1:5">
+    <row r="31" spans="1:5" ht="44.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
         <v>121</v>
       </c>
@@ -2436,7 +1778,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="32" ht="44.5" customHeight="1" spans="1:5">
+    <row r="32" spans="1:5" ht="44.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
         <v>125</v>
       </c>
@@ -2453,7 +1795,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="33" ht="44.5" customHeight="1" spans="1:5">
+    <row r="33" spans="1:5" ht="44.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="1" t="s">
         <v>129</v>
       </c>
@@ -2470,7 +1812,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="34" ht="44.5" customHeight="1" spans="1:5">
+    <row r="34" spans="1:5" ht="44.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
         <v>133</v>
       </c>
@@ -2487,7 +1829,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="35" ht="44.5" customHeight="1" spans="1:5">
+    <row r="35" spans="1:5" ht="44.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="1" t="s">
         <v>137</v>
       </c>
@@ -2504,7 +1846,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="36" ht="44.5" customHeight="1" spans="1:5">
+    <row r="36" spans="1:5" ht="44.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="1" t="s">
         <v>141</v>
       </c>
@@ -2521,7 +1863,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="37" ht="44.5" customHeight="1" spans="1:5">
+    <row r="37" spans="1:5" ht="44.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="1" t="s">
         <v>145</v>
       </c>
@@ -2538,7 +1880,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="38" ht="44.5" customHeight="1" spans="1:5">
+    <row r="38" spans="1:5" ht="44.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="1" t="s">
         <v>149</v>
       </c>
@@ -2555,7 +1897,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="39" ht="44.5" customHeight="1" spans="1:5">
+    <row r="39" spans="1:5" ht="44.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
         <v>153</v>
       </c>
@@ -2572,7 +1914,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="40" ht="44.5" customHeight="1" spans="1:5">
+    <row r="40" spans="1:5" ht="44.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
         <v>157</v>
       </c>
@@ -2589,7 +1931,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="41" ht="44.5" customHeight="1" spans="1:5">
+    <row r="41" spans="1:5" ht="44.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="1" t="s">
         <v>161</v>
       </c>
@@ -2606,7 +1948,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="42" ht="44.5" customHeight="1" spans="1:5">
+    <row r="42" spans="1:5" ht="44.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="1" t="s">
         <v>165</v>
       </c>
@@ -2623,7 +1965,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="43" ht="44.5" customHeight="1" spans="1:5">
+    <row r="43" spans="1:5" ht="44.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="1" t="s">
         <v>169</v>
       </c>
@@ -2640,7 +1982,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="44" ht="44.5" customHeight="1" spans="1:5">
+    <row r="44" spans="1:5" ht="44.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" s="1" t="s">
         <v>173</v>
       </c>
@@ -2657,7 +1999,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="45" ht="44.5" customHeight="1" spans="1:5">
+    <row r="45" spans="1:5" ht="44.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" s="1" t="s">
         <v>177</v>
       </c>
@@ -2674,7 +2016,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="46" ht="44.5" customHeight="1" spans="1:5">
+    <row r="46" spans="1:5" ht="44.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" s="1" t="s">
         <v>181</v>
       </c>
@@ -2691,7 +2033,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="47" ht="44.5" customHeight="1" spans="1:5">
+    <row r="47" spans="1:5" ht="44.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" s="1" t="s">
         <v>185</v>
       </c>
@@ -2708,7 +2050,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="48" ht="44.5" customHeight="1" spans="1:5">
+    <row r="48" spans="1:5" ht="44.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48" s="1" t="s">
         <v>189</v>
       </c>
@@ -2725,7 +2067,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="49" ht="44.5" customHeight="1" spans="1:5">
+    <row r="49" spans="1:5" ht="44.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49" s="1" t="s">
         <v>193</v>
       </c>
@@ -2742,7 +2084,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="50" ht="44.5" customHeight="1" spans="1:5">
+    <row r="50" spans="1:5" ht="44.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A50" s="1" t="s">
         <v>197</v>
       </c>
@@ -2759,7 +2101,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="51" ht="44.5" customHeight="1" spans="1:5">
+    <row r="51" spans="1:5" ht="44.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A51" s="1" t="s">
         <v>201</v>
       </c>
@@ -2776,7 +2118,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="52" ht="44.5" customHeight="1" spans="1:5">
+    <row r="52" spans="1:5" ht="44.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A52" s="1" t="s">
         <v>205</v>
       </c>
@@ -2793,7 +2135,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="53" ht="44.5" customHeight="1" spans="1:5">
+    <row r="53" spans="1:5" ht="44.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A53" s="1" t="s">
         <v>209</v>
       </c>
@@ -2810,7 +2152,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="54" ht="44.5" customHeight="1" spans="1:5">
+    <row r="54" spans="1:5" ht="44.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A54" s="1" t="s">
         <v>213</v>
       </c>
@@ -2827,7 +2169,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="55" ht="44.5" customHeight="1" spans="1:5">
+    <row r="55" spans="1:5" ht="44.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A55" s="1" t="s">
         <v>217</v>
       </c>
@@ -2844,7 +2186,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="56" ht="44.5" customHeight="1" spans="1:5">
+    <row r="56" spans="1:5" ht="44.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A56" s="1" t="s">
         <v>221</v>
       </c>
@@ -2861,7 +2203,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="57" ht="44.5" customHeight="1" spans="1:5">
+    <row r="57" spans="1:5" ht="44.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A57" s="1" t="s">
         <v>225</v>
       </c>
@@ -2878,7 +2220,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="58" ht="44.5" customHeight="1" spans="1:5">
+    <row r="58" spans="1:5" ht="44.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A58" s="1" t="s">
         <v>229</v>
       </c>
@@ -2895,7 +2237,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="59" ht="44.5" customHeight="1" spans="1:5">
+    <row r="59" spans="1:5" ht="44.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A59" s="1" t="s">
         <v>233</v>
       </c>
@@ -2912,7 +2254,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="60" ht="44.5" customHeight="1" spans="1:5">
+    <row r="60" spans="1:5" ht="44.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A60" s="1" t="s">
         <v>237</v>
       </c>
@@ -2929,7 +2271,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="61" ht="44.5" customHeight="1" spans="1:5">
+    <row r="61" spans="1:5" ht="44.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A61" s="1" t="s">
         <v>241</v>
       </c>
@@ -2946,7 +2288,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="62" ht="44.5" customHeight="1" spans="1:5">
+    <row r="62" spans="1:5" ht="44.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A62" s="1" t="s">
         <v>245</v>
       </c>
@@ -2963,7 +2305,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="63" ht="44.5" customHeight="1" spans="1:5">
+    <row r="63" spans="1:5" ht="44.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A63" s="1" t="s">
         <v>249</v>
       </c>
@@ -2980,7 +2322,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="64" ht="44.5" customHeight="1" spans="1:5">
+    <row r="64" spans="1:5" ht="44.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A64" s="1" t="s">
         <v>253</v>
       </c>
@@ -2997,7 +2339,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="65" ht="44.5" customHeight="1" spans="1:5">
+    <row r="65" spans="1:5" ht="44.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A65" s="1" t="s">
         <v>257</v>
       </c>
@@ -3014,7 +2356,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="66" ht="44.5" customHeight="1" spans="1:5">
+    <row r="66" spans="1:5" ht="44.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A66" s="1" t="s">
         <v>261</v>
       </c>
@@ -3031,7 +2373,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="67" ht="44.5" customHeight="1" spans="1:5">
+    <row r="67" spans="1:5" ht="44.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A67" s="1" t="s">
         <v>265</v>
       </c>
@@ -3048,7 +2390,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="68" ht="44.5" customHeight="1" spans="1:5">
+    <row r="68" spans="1:5" ht="44.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A68" s="1" t="s">
         <v>269</v>
       </c>
@@ -3065,7 +2407,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="69" ht="44.5" customHeight="1" spans="1:5">
+    <row r="69" spans="1:5" ht="44.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A69" s="1" t="s">
         <v>273</v>
       </c>
@@ -3082,77 +2424,9 @@
         <v>276</v>
       </c>
     </row>
-    <row r="70" ht="44.5" customHeight="1" spans="1:5">
-      <c r="A70" s="1" t="s">
-        <v>277</v>
-      </c>
-      <c r="B70" s="2" t="s">
-        <v>278</v>
-      </c>
-      <c r="C70" s="2" t="s">
-        <v>279</v>
-      </c>
-      <c r="D70" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E70" s="2" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="71" ht="44.5" customHeight="1" spans="1:5">
-      <c r="A71" s="1" t="s">
-        <v>281</v>
-      </c>
-      <c r="B71" s="2" t="s">
-        <v>282</v>
-      </c>
-      <c r="C71" s="2" t="s">
-        <v>283</v>
-      </c>
-      <c r="D71" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E71" s="2" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="72" ht="44.5" customHeight="1" spans="1:5">
-      <c r="A72" s="1" t="s">
-        <v>285</v>
-      </c>
-      <c r="B72" s="2" t="s">
-        <v>286</v>
-      </c>
-      <c r="C72" s="2" t="s">
-        <v>287</v>
-      </c>
-      <c r="D72" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E72" s="2" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="73" ht="44.5" customHeight="1" spans="1:5">
-      <c r="A73" s="1" t="s">
-        <v>289</v>
-      </c>
-      <c r="B73" s="2" t="s">
-        <v>290</v>
-      </c>
-      <c r="C73" s="2" t="s">
-        <v>291</v>
-      </c>
-      <c r="D73" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E73" s="2" t="s">
-        <v>292</v>
-      </c>
-    </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="1" orientation="portrait"/>
-  <headerFooter/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/.ready/最新发布资源-维格视图.xlsx
+++ b/.ready/最新发布资源-维格视图.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27328"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Project\memo\.ready\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC30108D-9FB3-4A2E-9452-017F44C92D7C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="19095" windowHeight="12075" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="23040" windowHeight="9300"/>
   </bookViews>
   <sheets>
     <sheet name="维格视图" sheetId="1" r:id="rId1"/>
@@ -20,54 +14,18 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="345" uniqueCount="277">
-  <si>
-    <t>B站 - 陈平的跨学科思维课</t>
-  </si>
-  <si>
-    <t>https://www.alipan.com/s/2Gy97oMbQ1F</t>
-  </si>
-  <si>
-    <t>https://pan.quark.cn/s/dd95c80ded90</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="330" uniqueCount="265">
+  <si>
+    <t>极客时间 - TypeScript 开发实战</t>
+  </si>
+  <si>
+    <t>https://www.alipan.com/s/NwvBk8DWZo8</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/3600b8327f1a</t>
   </si>
   <si>
     <t>学术</t>
-  </si>
-  <si>
-    <t>2024/02/27 03:11</t>
-  </si>
-  <si>
-    <t>B站 - AE超能力学院 - 小莫入门到精通 - 带源码课件</t>
-  </si>
-  <si>
-    <t>https://www.alipan.com/s/kYkzNSeeXbK</t>
-  </si>
-  <si>
-    <t>https://pan.quark.cn/s/589d26e20d1c</t>
-  </si>
-  <si>
-    <t>2024/02/26 23:30</t>
-  </si>
-  <si>
-    <t>B站 - 张召忠-第四次工业革命</t>
-  </si>
-  <si>
-    <t>https://www.alipan.com/s/YeHsrjV8U8R</t>
-  </si>
-  <si>
-    <t>https://pan.quark.cn/s/12f65f11d392</t>
-  </si>
-  <si>
-    <t>2024/02/26 22:06</t>
-  </si>
-  <si>
-    <t>极客时间 - TypeScript 开发实战</t>
-  </si>
-  <si>
-    <t>https://www.alipan.com/s/NwvBk8DWZo8</t>
-  </si>
-  <si>
-    <t>https://pan.quark.cn/s/3600b8327f1a</t>
   </si>
   <si>
     <t>2024/02/26 20:52</t>
@@ -856,8 +814,14 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -866,21 +830,345 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -888,9 +1176,251 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -901,17 +1431,61 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1233,25 +1807,25 @@
       </a:style>
     </a:lnDef>
   </a:objectDefaults>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E69"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:E66"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0">
-      <selection activeCell="A76" sqref="A76"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="38.6640625" defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="38.6666666666667" defaultRowHeight="14.4" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" width="38.6640625" style="1"/>
-    <col min="2" max="16384" width="38.6640625" style="2"/>
+    <col min="1" max="1" width="38.6666666666667" style="1"/>
+    <col min="2" max="16384" width="38.6666666666667" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="44.55" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" ht="44.55" customHeight="1" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1268,7 +1842,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="44.55" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" ht="44.55" customHeight="1" spans="1:5">
       <c r="A2" s="1" t="s">
         <v>5</v>
       </c>
@@ -1285,7 +1859,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="44.55" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" ht="44.55" customHeight="1" spans="1:5">
       <c r="A3" s="1" t="s">
         <v>9</v>
       </c>
@@ -1302,7 +1876,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="44.55" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" ht="44.55" customHeight="1" spans="1:5">
       <c r="A4" s="1" t="s">
         <v>13</v>
       </c>
@@ -1319,7 +1893,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="44.55" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" ht="44.55" customHeight="1" spans="1:5">
       <c r="A5" s="1" t="s">
         <v>17</v>
       </c>
@@ -1336,7 +1910,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="44.55" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" ht="44.55" customHeight="1" spans="1:5">
       <c r="A6" s="1" t="s">
         <v>21</v>
       </c>
@@ -1353,7 +1927,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="44.55" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" ht="44.55" customHeight="1" spans="1:5">
       <c r="A7" s="1" t="s">
         <v>25</v>
       </c>
@@ -1370,7 +1944,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="44.55" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" ht="44.55" customHeight="1" spans="1:5">
       <c r="A8" s="1" t="s">
         <v>29</v>
       </c>
@@ -1387,7 +1961,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="44.55" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" ht="44.55" customHeight="1" spans="1:5">
       <c r="A9" s="1" t="s">
         <v>33</v>
       </c>
@@ -1404,7 +1978,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="44.55" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" ht="44.55" customHeight="1" spans="1:5">
       <c r="A10" s="1" t="s">
         <v>37</v>
       </c>
@@ -1421,7 +1995,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="44.55" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" ht="44.55" customHeight="1" spans="1:5">
       <c r="A11" s="1" t="s">
         <v>41</v>
       </c>
@@ -1438,7 +2012,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="44.55" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" ht="44.55" customHeight="1" spans="1:5">
       <c r="A12" s="1" t="s">
         <v>45</v>
       </c>
@@ -1455,7 +2029,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="44.55" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" ht="44.55" customHeight="1" spans="1:5">
       <c r="A13" s="1" t="s">
         <v>49</v>
       </c>
@@ -1472,7 +2046,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="44.55" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" ht="44.55" customHeight="1" spans="1:5">
       <c r="A14" s="1" t="s">
         <v>53</v>
       </c>
@@ -1489,7 +2063,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="44.55" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" ht="44.55" customHeight="1" spans="1:5">
       <c r="A15" s="1" t="s">
         <v>57</v>
       </c>
@@ -1506,7 +2080,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="44.55" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" ht="44.55" customHeight="1" spans="1:5">
       <c r="A16" s="1" t="s">
         <v>61</v>
       </c>
@@ -1523,7 +2097,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="44.55" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" ht="44.55" customHeight="1" spans="1:5">
       <c r="A17" s="1" t="s">
         <v>65</v>
       </c>
@@ -1540,7 +2114,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="44.55" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" ht="44.55" customHeight="1" spans="1:5">
       <c r="A18" s="1" t="s">
         <v>69</v>
       </c>
@@ -1557,7 +2131,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="19" spans="1:5" ht="44.55" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" ht="44.55" customHeight="1" spans="1:5">
       <c r="A19" s="1" t="s">
         <v>73</v>
       </c>
@@ -1574,7 +2148,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="20" spans="1:5" ht="44.55" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" ht="44.55" customHeight="1" spans="1:5">
       <c r="A20" s="1" t="s">
         <v>77</v>
       </c>
@@ -1591,7 +2165,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="21" spans="1:5" ht="44.55" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" ht="44.55" customHeight="1" spans="1:5">
       <c r="A21" s="1" t="s">
         <v>81</v>
       </c>
@@ -1608,7 +2182,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="22" spans="1:5" ht="44.55" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" ht="44.55" customHeight="1" spans="1:5">
       <c r="A22" s="1" t="s">
         <v>85</v>
       </c>
@@ -1625,7 +2199,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="23" spans="1:5" ht="44.55" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" ht="44.55" customHeight="1" spans="1:5">
       <c r="A23" s="1" t="s">
         <v>89</v>
       </c>
@@ -1642,7 +2216,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="24" spans="1:5" ht="44.55" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" ht="44.55" customHeight="1" spans="1:5">
       <c r="A24" s="1" t="s">
         <v>93</v>
       </c>
@@ -1659,7 +2233,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="25" spans="1:5" ht="44.55" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" ht="44.55" customHeight="1" spans="1:5">
       <c r="A25" s="1" t="s">
         <v>97</v>
       </c>
@@ -1676,7 +2250,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="26" spans="1:5" ht="44.55" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" ht="44.55" customHeight="1" spans="1:5">
       <c r="A26" s="1" t="s">
         <v>101</v>
       </c>
@@ -1693,7 +2267,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="27" spans="1:5" ht="44.55" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" ht="44.55" customHeight="1" spans="1:5">
       <c r="A27" s="1" t="s">
         <v>105</v>
       </c>
@@ -1710,7 +2284,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="28" spans="1:5" ht="44.55" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" ht="44.55" customHeight="1" spans="1:5">
       <c r="A28" s="1" t="s">
         <v>109</v>
       </c>
@@ -1727,7 +2301,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="29" spans="1:5" ht="44.55" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" ht="44.55" customHeight="1" spans="1:5">
       <c r="A29" s="1" t="s">
         <v>113</v>
       </c>
@@ -1744,7 +2318,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="30" spans="1:5" ht="44.55" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="30" ht="44.55" customHeight="1" spans="1:5">
       <c r="A30" s="1" t="s">
         <v>117</v>
       </c>
@@ -1761,7 +2335,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="31" spans="1:5" ht="44.55" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="31" ht="44.55" customHeight="1" spans="1:5">
       <c r="A31" s="1" t="s">
         <v>121</v>
       </c>
@@ -1778,7 +2352,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="32" spans="1:5" ht="44.55" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="32" ht="44.55" customHeight="1" spans="1:5">
       <c r="A32" s="1" t="s">
         <v>125</v>
       </c>
@@ -1795,7 +2369,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="33" spans="1:5" ht="44.55" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="33" ht="44.55" customHeight="1" spans="1:5">
       <c r="A33" s="1" t="s">
         <v>129</v>
       </c>
@@ -1812,7 +2386,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="34" spans="1:5" ht="44.55" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="34" ht="44.55" customHeight="1" spans="1:5">
       <c r="A34" s="1" t="s">
         <v>133</v>
       </c>
@@ -1829,7 +2403,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="35" spans="1:5" ht="44.55" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="35" ht="44.55" customHeight="1" spans="1:5">
       <c r="A35" s="1" t="s">
         <v>137</v>
       </c>
@@ -1846,7 +2420,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="36" spans="1:5" ht="44.55" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="36" ht="44.55" customHeight="1" spans="1:5">
       <c r="A36" s="1" t="s">
         <v>141</v>
       </c>
@@ -1863,7 +2437,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="37" spans="1:5" ht="44.55" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="37" ht="44.55" customHeight="1" spans="1:5">
       <c r="A37" s="1" t="s">
         <v>145</v>
       </c>
@@ -1880,7 +2454,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="38" spans="1:5" ht="44.55" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="38" ht="44.55" customHeight="1" spans="1:5">
       <c r="A38" s="1" t="s">
         <v>149</v>
       </c>
@@ -1897,7 +2471,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="39" spans="1:5" ht="44.55" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="39" ht="44.55" customHeight="1" spans="1:5">
       <c r="A39" s="1" t="s">
         <v>153</v>
       </c>
@@ -1914,7 +2488,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="40" spans="1:5" ht="44.55" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="40" ht="44.55" customHeight="1" spans="1:5">
       <c r="A40" s="1" t="s">
         <v>157</v>
       </c>
@@ -1931,7 +2505,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="41" spans="1:5" ht="44.55" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="41" ht="44.55" customHeight="1" spans="1:5">
       <c r="A41" s="1" t="s">
         <v>161</v>
       </c>
@@ -1948,7 +2522,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="42" spans="1:5" ht="44.55" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="42" ht="44.55" customHeight="1" spans="1:5">
       <c r="A42" s="1" t="s">
         <v>165</v>
       </c>
@@ -1965,7 +2539,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="43" spans="1:5" ht="44.55" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="43" ht="44.55" customHeight="1" spans="1:5">
       <c r="A43" s="1" t="s">
         <v>169</v>
       </c>
@@ -1982,7 +2556,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="44" spans="1:5" ht="44.55" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="44" ht="44.55" customHeight="1" spans="1:5">
       <c r="A44" s="1" t="s">
         <v>173</v>
       </c>
@@ -1999,7 +2573,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="45" spans="1:5" ht="44.55" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="45" ht="44.55" customHeight="1" spans="1:5">
       <c r="A45" s="1" t="s">
         <v>177</v>
       </c>
@@ -2016,7 +2590,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="46" spans="1:5" ht="44.55" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="46" ht="44.55" customHeight="1" spans="1:5">
       <c r="A46" s="1" t="s">
         <v>181</v>
       </c>
@@ -2033,7 +2607,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="47" spans="1:5" ht="44.55" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="47" ht="44.55" customHeight="1" spans="1:5">
       <c r="A47" s="1" t="s">
         <v>185</v>
       </c>
@@ -2050,7 +2624,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="48" spans="1:5" ht="44.55" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="48" ht="44.55" customHeight="1" spans="1:5">
       <c r="A48" s="1" t="s">
         <v>189</v>
       </c>
@@ -2067,7 +2641,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="49" spans="1:5" ht="44.55" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="49" ht="44.55" customHeight="1" spans="1:5">
       <c r="A49" s="1" t="s">
         <v>193</v>
       </c>
@@ -2084,7 +2658,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="50" spans="1:5" ht="44.55" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="50" ht="44.55" customHeight="1" spans="1:5">
       <c r="A50" s="1" t="s">
         <v>197</v>
       </c>
@@ -2101,7 +2675,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="51" spans="1:5" ht="44.55" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="51" ht="44.55" customHeight="1" spans="1:5">
       <c r="A51" s="1" t="s">
         <v>201</v>
       </c>
@@ -2118,7 +2692,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="52" spans="1:5" ht="44.55" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="52" ht="44.55" customHeight="1" spans="1:5">
       <c r="A52" s="1" t="s">
         <v>205</v>
       </c>
@@ -2135,7 +2709,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="53" spans="1:5" ht="44.55" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="53" ht="44.55" customHeight="1" spans="1:5">
       <c r="A53" s="1" t="s">
         <v>209</v>
       </c>
@@ -2152,7 +2726,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="54" spans="1:5" ht="44.55" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="54" ht="44.55" customHeight="1" spans="1:5">
       <c r="A54" s="1" t="s">
         <v>213</v>
       </c>
@@ -2169,7 +2743,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="55" spans="1:5" ht="44.55" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="55" ht="44.55" customHeight="1" spans="1:5">
       <c r="A55" s="1" t="s">
         <v>217</v>
       </c>
@@ -2186,7 +2760,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="56" spans="1:5" ht="44.55" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="56" ht="44.55" customHeight="1" spans="1:5">
       <c r="A56" s="1" t="s">
         <v>221</v>
       </c>
@@ -2203,7 +2777,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="57" spans="1:5" ht="44.55" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="57" ht="44.55" customHeight="1" spans="1:5">
       <c r="A57" s="1" t="s">
         <v>225</v>
       </c>
@@ -2220,7 +2794,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="58" spans="1:5" ht="44.55" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="58" ht="44.55" customHeight="1" spans="1:5">
       <c r="A58" s="1" t="s">
         <v>229</v>
       </c>
@@ -2237,7 +2811,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="59" spans="1:5" ht="44.55" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="59" ht="44.55" customHeight="1" spans="1:5">
       <c r="A59" s="1" t="s">
         <v>233</v>
       </c>
@@ -2254,7 +2828,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="60" spans="1:5" ht="44.55" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="60" ht="44.55" customHeight="1" spans="1:5">
       <c r="A60" s="1" t="s">
         <v>237</v>
       </c>
@@ -2271,7 +2845,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="61" spans="1:5" ht="44.55" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="61" ht="44.55" customHeight="1" spans="1:5">
       <c r="A61" s="1" t="s">
         <v>241</v>
       </c>
@@ -2288,7 +2862,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="62" spans="1:5" ht="44.55" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="62" ht="44.55" customHeight="1" spans="1:5">
       <c r="A62" s="1" t="s">
         <v>245</v>
       </c>
@@ -2305,7 +2879,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="63" spans="1:5" ht="44.55" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="63" ht="44.55" customHeight="1" spans="1:5">
       <c r="A63" s="1" t="s">
         <v>249</v>
       </c>
@@ -2322,7 +2896,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="64" spans="1:5" ht="44.55" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="64" ht="44.55" customHeight="1" spans="1:5">
       <c r="A64" s="1" t="s">
         <v>253</v>
       </c>
@@ -2339,7 +2913,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="65" spans="1:5" ht="44.55" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="65" ht="44.55" customHeight="1" spans="1:5">
       <c r="A65" s="1" t="s">
         <v>257</v>
       </c>
@@ -2356,7 +2930,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="66" spans="1:5" ht="44.55" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="66" ht="44.55" customHeight="1" spans="1:5">
       <c r="A66" s="1" t="s">
         <v>261</v>
       </c>
@@ -2373,60 +2947,9 @@
         <v>264</v>
       </c>
     </row>
-    <row r="67" spans="1:5" ht="44.55" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A67" s="1" t="s">
-        <v>265</v>
-      </c>
-      <c r="B67" s="2" t="s">
-        <v>266</v>
-      </c>
-      <c r="C67" s="2" t="s">
-        <v>267</v>
-      </c>
-      <c r="D67" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E67" s="2" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5" ht="44.55" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A68" s="1" t="s">
-        <v>269</v>
-      </c>
-      <c r="B68" s="2" t="s">
-        <v>270</v>
-      </c>
-      <c r="C68" s="2" t="s">
-        <v>271</v>
-      </c>
-      <c r="D68" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E68" s="2" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5" ht="44.55" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A69" s="1" t="s">
-        <v>273</v>
-      </c>
-      <c r="B69" s="2" t="s">
-        <v>274</v>
-      </c>
-      <c r="C69" s="2" t="s">
-        <v>275</v>
-      </c>
-      <c r="D69" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E69" s="2" t="s">
-        <v>276</v>
-      </c>
-    </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="1" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/.ready/最新发布资源-维格视图.xlsx
+++ b/.ready/最新发布资源-维格视图.xlsx
@@ -9,12 +9,738 @@
   <sheets>
     <sheet name="维格视图" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">维格视图!$E:$E</definedName>
+  </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="330" uniqueCount="265">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="636" uniqueCount="327">
+  <si>
+    <t>孙志立 - 英语自然拼读100讲</t>
+  </si>
+  <si>
+    <t>https://www.alipan.com/s/8gVsSU1da2t</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/63d31a4a1ce8</t>
+  </si>
+  <si>
+    <t>学术</t>
+  </si>
+  <si>
+    <t>微淼 - 财务报表分析技能课</t>
+  </si>
+  <si>
+    <t>https://www.alipan.com/s/YDfo7NDsisz</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/6fc9d929f293</t>
+  </si>
+  <si>
+    <t>极客时间 - 分布式缓存高手课</t>
+  </si>
+  <si>
+    <t>https://www.alipan.com/s/ALx78iiTUbF</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/fb89fe68abd4</t>
+  </si>
+  <si>
+    <t>极客时间 - Django 快速开发实战</t>
+  </si>
+  <si>
+    <t>https://www.alipan.com/s/vY9Ja7ebUtZ</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/0a05d28deaf7</t>
+  </si>
+  <si>
+    <t>极客时间 - 微信小程序全栈开发实战</t>
+  </si>
+  <si>
+    <t>https://www.alipan.com/s/vJXpmwGYtyL</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/0c71ff554eb7</t>
+  </si>
+  <si>
+    <t>【MBA智库】管理精进：中层管理者能力突破训练营</t>
+  </si>
+  <si>
+    <t>https://www.alipan.com/s/xQ5HVyddyHY</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/15da7cdbffc6</t>
+  </si>
+  <si>
+    <t>微淼 - 财务自由财企分析技能课</t>
+  </si>
+  <si>
+    <t>https://www.alipan.com/s/FxKfeCcgtrS</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/35a371a02b02</t>
+  </si>
+  <si>
+    <t>【MBA智库】管理启航：新任管理者成长训练营</t>
+  </si>
+  <si>
+    <t>https://www.alipan.com/s/s9LufjHAJab</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/700803645db9</t>
+  </si>
+  <si>
+    <t>极客时间 - Web安全攻防实战</t>
+  </si>
+  <si>
+    <t>https://www.alipan.com/s/c3GgkWwFBbY</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/5d9007821050</t>
+  </si>
+  <si>
+    <t>极客时间 - 玩转 webpack</t>
+  </si>
+  <si>
+    <t>https://www.alipan.com/s/6PCXnY8iKSH</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/66cf0c19a890</t>
+  </si>
+  <si>
+    <t>陆明明 - 知乎精准引流攻略2.0，适合各行业，全程实操落地演示</t>
+  </si>
+  <si>
+    <t>https://www.alipan.com/s/116334ziG2t</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/e4e2a8d6517e</t>
+  </si>
+  <si>
+    <t>【儒猿课堂】从0开始带你成为MySQL实战优化高手</t>
+  </si>
+  <si>
+    <t>https://www.alipan.com/s/sHEXx5RsWY4</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/6a62a1a5b47e</t>
+  </si>
+  <si>
+    <t>【开课吧】JavaEE企业级分布式高级架构师023期 - 带源码课件</t>
+  </si>
+  <si>
+    <t>https://www.alipan.com/s/tuPs8hpDXWo</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/75d95a43c24b</t>
+  </si>
+  <si>
+    <t>C++百万并发网络通信引擎架构与实现(服务端+客户端+跨平台)第2季 - 带源码课件</t>
+  </si>
+  <si>
+    <t>https://www.alipan.com/s/ddo9687chP3</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/8b73030136a5</t>
+  </si>
+  <si>
+    <t>汤小小账号变现课第2期，今日头条、小红书、公众号，1000粉也可以接广告变现</t>
+  </si>
+  <si>
+    <t>https://www.alipan.com/s/32zHQetbwLY</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/75bfbfacd504</t>
+  </si>
+  <si>
+    <t>李仁松 - 古妆汉服仙服零基础美妆教学课</t>
+  </si>
+  <si>
+    <t>https://www.alipan.com/s/q1X1uEo5ZRJ</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/527d74760f3b</t>
+  </si>
+  <si>
+    <t>【TK增长会】TikTok外贸工厂陪跑训练营</t>
+  </si>
+  <si>
+    <t>https://www.alipan.com/s/34DojRVWAmu</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/e1c60a640025</t>
+  </si>
+  <si>
+    <t>PS教程超级合辑【1000集2017版】 - 带源码课件</t>
+  </si>
+  <si>
+    <t>https://www.alipan.com/s/viuX3PfVywQ</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/d2874b85b55d</t>
+  </si>
+  <si>
+    <t>【开课吧】门徒计划 - Java方向</t>
+  </si>
+  <si>
+    <t>https://www.alipan.com/s/QCABx4Jt42G</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/43559d27d803</t>
+  </si>
+  <si>
+    <t>王红元 - 前端体系课-2614集 - 带源码课件</t>
+  </si>
+  <si>
+    <t>https://www.alipan.com/s/nDEn6ibekbq</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/4fa23aecaecd</t>
+  </si>
+  <si>
+    <t>【虎课网-78025】深度学习爬虫验证码识别</t>
+  </si>
+  <si>
+    <t>https://www.alipan.com/s/7GXXwboAJv8</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/a724ae6aecc8</t>
+  </si>
+  <si>
+    <t>【开课吧】门徒计划 - AI方向</t>
+  </si>
+  <si>
+    <t>https://www.alipan.com/s/MLaCvFW1bxN</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/f56e51ab4319</t>
+  </si>
+  <si>
+    <t>【深蓝学院】机器学习数学基础 - 带源码课件</t>
+  </si>
+  <si>
+    <t>https://www.alipan.com/s/AGbozELqBgG</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/bc5ee542c086</t>
+  </si>
+  <si>
+    <t>手机摄影技巧：从0到1用手机拍出酷炫短视频Vlog</t>
+  </si>
+  <si>
+    <t>https://www.alipan.com/s/bxyr9SozFNS</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/94cf785af921</t>
+  </si>
+  <si>
+    <t>英语思维：快速建立语法体系</t>
+  </si>
+  <si>
+    <t>https://www.alipan.com/s/txUKQgPAh3d</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/b9a565c6c0f0</t>
+  </si>
+  <si>
+    <t>【CCtalk】静物美食摄影课 - 17期</t>
+  </si>
+  <si>
+    <t>https://www.alipan.com/s/ymu1uyyigVS</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/31023affd886</t>
+  </si>
+  <si>
+    <t>【开课吧】门徒计划 - 算法课</t>
+  </si>
+  <si>
+    <t>https://www.alipan.com/s/SMb5q9nJUT6</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/a18f2824148c</t>
+  </si>
+  <si>
+    <t>【imooc-92】新版Scrapy打造搜索引擎 畅销4年的Python分布式爬虫课 - 带源码课件</t>
+  </si>
+  <si>
+    <t>https://www.alipan.com/s/fSsgMVtV1dD</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/b107454ccac0</t>
+  </si>
+  <si>
+    <t>声乐魔法课：让你唱出动听歌声，秒变KTV麦霸</t>
+  </si>
+  <si>
+    <t>https://www.alipan.com/s/yBaMkVWE8Y8</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/3170ab4919d4</t>
+  </si>
+  <si>
+    <t>【新东方在线】2024考研英语全程班 - 带源码课件</t>
+  </si>
+  <si>
+    <t>https://www.alipan.com/s/DBj26N6FV9Y</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/91091827c3fd</t>
+  </si>
+  <si>
+    <t>【Theone口译】英语零基础入门班</t>
+  </si>
+  <si>
+    <t>https://www.alipan.com/s/9ShxSrGTrus</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/e1d6da69de29</t>
+  </si>
+  <si>
+    <t>【思益学院】纪主任《车神陪跑：拼多多系统化课程》</t>
+  </si>
+  <si>
+    <t>https://www.alipan.com/s/9YxJkCg1WRK</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/48da8efa4a20</t>
+  </si>
+  <si>
+    <t>【开课吧】机器学习如何在企业中落地 - 带源码课件</t>
+  </si>
+  <si>
+    <t>https://www.alipan.com/s/jaqA4mfVu8L</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/adc57f97bb76</t>
+  </si>
+  <si>
+    <t>【潭州教育】配音全能班8期（全阶段） - 带源码课件</t>
+  </si>
+  <si>
+    <t>https://www.alipan.com/s/Dd59pAv6tic</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/9c6e49db7b98</t>
+  </si>
+  <si>
+    <t>诺思星 - 抖音影视混剪变现课</t>
+  </si>
+  <si>
+    <t>https://www.alipan.com/s/kc52CrqSjZ5</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/e4626fba4ff0</t>
+  </si>
+  <si>
+    <t>【NightTeam夜幕】JavaScript 逆向系列课 + 高阶课（SVIP完结） - 带源码课件</t>
+  </si>
+  <si>
+    <t>https://www.alipan.com/s/Wpfd69FubPt</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/97400ec0c32b</t>
+  </si>
+  <si>
+    <t>厦九九 - 9节小红书博主赚钱课</t>
+  </si>
+  <si>
+    <t>https://www.alipan.com/s/Nq8tfTxijYV</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/245a22bfb5dc</t>
+  </si>
+  <si>
+    <t>【达内教育】2023最新Python+人工智能就业班 - 带源码课件</t>
+  </si>
+  <si>
+    <t>https://www.alipan.com/s/xysChTt6Fhk</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/1e48256cbd2d</t>
+  </si>
+  <si>
+    <t>uniapp陪诊小程序</t>
+  </si>
+  <si>
+    <t>https://www.alipan.com/s/xht4ci3zLmk</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/6a2a2e4e78dd</t>
+  </si>
+  <si>
+    <t>小区物业管理系统</t>
+  </si>
+  <si>
+    <t>https://www.alipan.com/s/jzFck4WwrJq</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/23fe247996e9</t>
+  </si>
+  <si>
+    <t>C++游戏编程实例精讲--3D射击游戏作弊</t>
+  </si>
+  <si>
+    <t>https://www.alipan.com/s/j11kKWqW57o</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/a19a44d61ccb</t>
+  </si>
+  <si>
+    <t>深度学习项目：Django搭建CNN网络实现图像识别 - 带源码课件</t>
+  </si>
+  <si>
+    <t>https://www.alipan.com/s/vRDC5FcNmnX</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/1004a4bf020a</t>
+  </si>
+  <si>
+    <t>C C++企业级项目实战班 - 带源码课件</t>
+  </si>
+  <si>
+    <t>https://www.alipan.com/s/BHKcc31Upnh</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/1b3d8cbc57af</t>
+  </si>
+  <si>
+    <t>【尚硅谷】2022北京校区JAVA就业班 - 带源码课件</t>
+  </si>
+  <si>
+    <t>https://www.alipan.com/s/st2bvcUQPDN</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/70c52d6c31af</t>
+  </si>
+  <si>
+    <t>核聚北大学霸私藏的高效学习术</t>
+  </si>
+  <si>
+    <t>https://www.alipan.com/s/oHQuq1XauRn</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/4e4da39d6abc</t>
+  </si>
+  <si>
+    <t>【拼客学院】2019年直播面授班 《全栈网络安全专家》 43期 - 带源码课件</t>
+  </si>
+  <si>
+    <t>https://www.alipan.com/s/UFwetD1kNTQ</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/ee32f0d491e2</t>
+  </si>
+  <si>
+    <t>极简英语 - 英语能力系统提升班 - 带源码课件</t>
+  </si>
+  <si>
+    <t>https://www.alipan.com/s/vtdkUoH3N8t</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/d26a10b37b1f</t>
+  </si>
+  <si>
+    <t>基于SpringBoot+Mybatis从头搭建通用管理系统(后端篇) - 带源码课件</t>
+  </si>
+  <si>
+    <t>https://www.alipan.com/s/WDrSso9TVHF</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/e111d8997711</t>
+  </si>
+  <si>
+    <t>【粉笔】2023高照超大杯刷题营</t>
+  </si>
+  <si>
+    <t>https://www.alipan.com/s/wDqarW38FwH</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/76a5b545c41b</t>
+  </si>
+  <si>
+    <t>【新东方在线】英语零基础直达流利生活口语</t>
+  </si>
+  <si>
+    <t>https://www.alipan.com/s/929gk7zdzqg</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/a8083a220e18</t>
+  </si>
+  <si>
+    <t>【51CTO-3811】《Wireshark协议分析基础与提升》第二季 TCP IP协议栈详解(上)</t>
+  </si>
+  <si>
+    <t>https://www.alipan.com/s/hcGnaiERdSV</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/6ce384f2434b</t>
+  </si>
+  <si>
+    <t>老陈的IT杂货铺 - 嵌入式零基础到就业年班</t>
+  </si>
+  <si>
+    <t>https://www.alipan.com/s/wx4GhdUCH2J</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/c8169a3cc4e9</t>
+  </si>
+  <si>
+    <t>【尚硅谷】SpringSecurity+OAuth2.0实战精讲 - 带源码课件</t>
+  </si>
+  <si>
+    <t>https://www.alipan.com/s/v2fDjMiJ9Wf</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/564723411378</t>
+  </si>
+  <si>
+    <t>【尚硅谷】鸿蒙应用开发 - 带源码课件</t>
+  </si>
+  <si>
+    <t>https://www.alipan.com/s/f3fRYQwDnaG</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/506a2573540a</t>
+  </si>
+  <si>
+    <t>Go+Vue通用后台管理项目实战 - 带源码课件</t>
+  </si>
+  <si>
+    <t>https://www.alipan.com/s/AnU5TQnTRyk</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/90762ab029d3</t>
+  </si>
+  <si>
+    <t>极客时间 - Linux 实战技能 100 讲</t>
+  </si>
+  <si>
+    <t>https://www.alipan.com/s/Cr6vqh2QmQg</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/34743da8b7d0</t>
+  </si>
+  <si>
+    <t>极客时间- Go 语言从入门到实战</t>
+  </si>
+  <si>
+    <t>https://www.alipan.com/s/YDGijuSitMF</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/18180dd168d6</t>
+  </si>
+  <si>
+    <t>【站酷学习】教你拍好女朋友——基础人像外拍实战</t>
+  </si>
+  <si>
+    <t>https://www.alipan.com/s/ACy8i4MQwC2</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/853bc3ede4a1</t>
+  </si>
+  <si>
+    <t>极客时间 - Vue 开发实战</t>
+  </si>
+  <si>
+    <t>https://www.alipan.com/s/EoSrtf3a8CS</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/deed6b2e577d</t>
+  </si>
+  <si>
+    <t>【爱学堂】数学 1~6年级全套视频</t>
+  </si>
+  <si>
+    <t>https://www.alipan.com/s/kkyMqiQ8Hok</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/cfc21cd0895d</t>
+  </si>
+  <si>
+    <t>极客时间 - MongoDB 高手课</t>
+  </si>
+  <si>
+    <t>https://www.alipan.com/s/XQJUWK8wV4M</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/8b5ac5caa61c</t>
+  </si>
+  <si>
+    <t>极客时间 - Nginx 核心知识 150 讲</t>
+  </si>
+  <si>
+    <t>https://www.alipan.com/s/pT64ptRKngu</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/7e3252a76f16</t>
+  </si>
+  <si>
+    <t>B站 - 局座的国际战略课</t>
+  </si>
+  <si>
+    <t>https://www.alipan.com/s/45XTXgC2sj5</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/2dbaa3f052c5</t>
+  </si>
+  <si>
+    <t>B站 - 沈逸：白宫里的主角们</t>
+  </si>
+  <si>
+    <t>https://www.alipan.com/s/unxuzpDtX4S</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/d738fcac65ca</t>
+  </si>
+  <si>
+    <t>MySQL提升课程 全面讲解MySQL架构设计 - 带源码课件</t>
+  </si>
+  <si>
+    <t>https://www.alipan.com/s/Ec3whojaoFv</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/b6a4309fe412</t>
+  </si>
+  <si>
+    <t>B站 - 金灿荣教授：进击的中国外交</t>
+  </si>
+  <si>
+    <t>https://www.alipan.com/s/R9CruNgR1mu</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/8feb18cc63fa</t>
+  </si>
+  <si>
+    <t>React 实战进阶 45 讲 - 带源码课件</t>
+  </si>
+  <si>
+    <t>https://www.alipan.com/s/XXBykN4NcNQ</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/5ac7f8cb1b0b</t>
+  </si>
+  <si>
+    <t>Python高效编程技巧实战 - 带源码课件</t>
+  </si>
+  <si>
+    <t>https://www.alipan.com/s/QXfbJUKj9Ud</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/4a7376c30de4</t>
+  </si>
+  <si>
+    <t>B站 - Python小白也能听懂的入门课</t>
+  </si>
+  <si>
+    <t>https://www.alipan.com/s/cxQTsNEvAPk</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/85987c4a3b30</t>
+  </si>
+  <si>
+    <t>B站 - 马思瑞的口语私教课 - 带源码课件</t>
+  </si>
+  <si>
+    <t>https://www.alipan.com/s/T5xSLjzMkH2</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/1f62fbe4b31d</t>
+  </si>
+  <si>
+    <t>极客时间 - NLP 实战高手课</t>
+  </si>
+  <si>
+    <t>https://www.alipan.com/s/YnjiP2biTWB</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/fb0b864be752</t>
+  </si>
+  <si>
+    <t>B站 - Excel大神上分攻略 - 带源码课件</t>
+  </si>
+  <si>
+    <t>https://www.alipan.com/s/AsVG7dV7oAA</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/109e4e58061f</t>
+  </si>
+  <si>
+    <t>【MBA智库】企业高管：战略经营与核心能力研修班</t>
+  </si>
+  <si>
+    <t>https://www.alipan.com/s/SmX3dszRBBo</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/d03bb912629b</t>
+  </si>
+  <si>
+    <t>B站 - 罗翔：刑法悖论十讲</t>
+  </si>
+  <si>
+    <t>https://www.alipan.com/s/mvQjjqX8zPm</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/e13fd37bb797</t>
+  </si>
+  <si>
+    <t>B站 - C4D大作战：百万UP的光之教程</t>
+  </si>
+  <si>
+    <t>https://www.alipan.com/s/Sd39tdH6UgU</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/e5a20dcbdaa6</t>
+  </si>
+  <si>
+    <t>极客时间 - 分布式系统案例课</t>
+  </si>
+  <si>
+    <t>https://www.alipan.com/s/Lq2XS5iEpbj</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/a767e169c7dc</t>
+  </si>
+  <si>
+    <t>极客时间 - TensorFlow 2 项目进阶实战</t>
+  </si>
+  <si>
+    <t>https://www.alipan.com/s/UZpFszPpwXG</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/bfce988e0f05</t>
+  </si>
+  <si>
+    <t>B站 - 陈平的跨学科思维课</t>
+  </si>
+  <si>
+    <t>https://www.alipan.com/s/2Gy97oMbQ1F</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/dd95c80ded90</t>
+  </si>
+  <si>
+    <t>B站 - AE超能力学院 - 小莫入门到精通 - 带源码课件</t>
+  </si>
+  <si>
+    <t>https://www.alipan.com/s/kYkzNSeeXbK</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/589d26e20d1c</t>
+  </si>
+  <si>
+    <t>B站 - 张召忠-第四次工业革命</t>
+  </si>
+  <si>
+    <t>https://www.alipan.com/s/YeHsrjV8U8R</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/12f65f11d392</t>
+  </si>
   <si>
     <t>极客时间 - TypeScript 开发实战</t>
   </si>
@@ -25,12 +751,6 @@
     <t>https://pan.quark.cn/s/3600b8327f1a</t>
   </si>
   <si>
-    <t>学术</t>
-  </si>
-  <si>
-    <t>2024/02/26 20:52</t>
-  </si>
-  <si>
     <t>极客时间 - 前端全链路性能优化实战</t>
   </si>
   <si>
@@ -40,9 +760,6 @@
     <t>https://pan.quark.cn/s/a6102e13a82c</t>
   </si>
   <si>
-    <t>2024/02/26 20:05</t>
-  </si>
-  <si>
     <t>极客时间 - 小马哥讲 Spring 核心编程思想</t>
   </si>
   <si>
@@ -52,9 +769,6 @@
     <t>https://pan.quark.cn/s/56d239336426</t>
   </si>
   <si>
-    <t>2024/02/26 19:15</t>
-  </si>
-  <si>
     <t>极客时间 - Electron 开发实战</t>
   </si>
   <si>
@@ -64,9 +778,6 @@
     <t>https://pan.quark.cn/s/30b6161a8b4b</t>
   </si>
   <si>
-    <t>2024/02/26 17:40</t>
-  </si>
-  <si>
     <t>微淼 - 财务自由工具操作技能课 - 带源码课件</t>
   </si>
   <si>
@@ -76,9 +787,6 @@
     <t>https://pan.quark.cn/s/1c61bc326bed</t>
   </si>
   <si>
-    <t>2024/02/26 16:45</t>
-  </si>
-  <si>
     <t>B站 - 上海交大陆铭教授的经济学思维课</t>
   </si>
   <si>
@@ -88,9 +796,6 @@
     <t>https://pan.quark.cn/s/638bab4c3290</t>
   </si>
   <si>
-    <t>2024/02/26 15:46</t>
-  </si>
-  <si>
     <t>B站 - 马皑教授的社会学：人类的越轨行为研究</t>
   </si>
   <si>
@@ -100,9 +805,6 @@
     <t>https://pan.quark.cn/s/51010011e50f</t>
   </si>
   <si>
-    <t>2024/02/25 23:26</t>
-  </si>
-  <si>
     <t>【一周进步】PPT动画</t>
   </si>
   <si>
@@ -112,9 +814,6 @@
     <t>https://pan.quark.cn/s/a17390194473</t>
   </si>
   <si>
-    <t>2024/02/25 20:26</t>
-  </si>
-  <si>
     <t>B站 - Tiger谭秋娟的吉他弹唱入门课</t>
   </si>
   <si>
@@ -124,9 +823,6 @@
     <t>https://pan.quark.cn/s/a7c610ed3e75</t>
   </si>
   <si>
-    <t>2024/02/25 17:35</t>
-  </si>
-  <si>
     <t>B站 - 唐盾：0-N4日语精讲</t>
   </si>
   <si>
@@ -136,679 +832,172 @@
     <t>https://pan.quark.cn/s/659d19faaef5</t>
   </si>
   <si>
-    <t>2024/02/25 16:03</t>
-  </si>
-  <si>
-    <t>孙志立 - 英语自然拼读100讲</t>
-  </si>
-  <si>
-    <t>https://www.alipan.com/s/8gVsSU1da2t</t>
-  </si>
-  <si>
-    <t>https://pan.quark.cn/s/63d31a4a1ce8</t>
-  </si>
-  <si>
-    <t>2024/02/25 03:51</t>
-  </si>
-  <si>
-    <t>微淼 - 财务报表分析技能课</t>
-  </si>
-  <si>
-    <t>https://www.alipan.com/s/YDfo7NDsisz</t>
-  </si>
-  <si>
-    <t>https://pan.quark.cn/s/6fc9d929f293</t>
-  </si>
-  <si>
-    <t>2024/02/25 00:58</t>
-  </si>
-  <si>
-    <t>极客时间 - 分布式缓存高手课</t>
-  </si>
-  <si>
-    <t>https://www.alipan.com/s/ALx78iiTUbF</t>
-  </si>
-  <si>
-    <t>https://pan.quark.cn/s/fb89fe68abd4</t>
-  </si>
-  <si>
-    <t>2024/02/24 21:39</t>
-  </si>
-  <si>
-    <t>极客时间 - Django 快速开发实战</t>
-  </si>
-  <si>
-    <t>https://www.alipan.com/s/vY9Ja7ebUtZ</t>
-  </si>
-  <si>
-    <t>https://pan.quark.cn/s/0a05d28deaf7</t>
-  </si>
-  <si>
-    <t>2024/02/24 20:30</t>
-  </si>
-  <si>
-    <t>极客时间 - 微信小程序全栈开发实战</t>
-  </si>
-  <si>
-    <t>https://www.alipan.com/s/vJXpmwGYtyL</t>
-  </si>
-  <si>
-    <t>https://pan.quark.cn/s/0c71ff554eb7</t>
-  </si>
-  <si>
-    <t>2024/02/24 17:55</t>
-  </si>
-  <si>
-    <t>【MBA智库】管理精进：中层管理者能力突破训练营</t>
-  </si>
-  <si>
-    <t>https://www.alipan.com/s/xQ5HVyddyHY</t>
-  </si>
-  <si>
-    <t>https://pan.quark.cn/s/15da7cdbffc6</t>
-  </si>
-  <si>
-    <t>2024/02/24 17:09</t>
-  </si>
-  <si>
-    <t>微淼 - 财务自由财企分析技能课</t>
-  </si>
-  <si>
-    <t>https://www.alipan.com/s/FxKfeCcgtrS</t>
-  </si>
-  <si>
-    <t>https://pan.quark.cn/s/35a371a02b02</t>
-  </si>
-  <si>
-    <t>2024/02/24 14:33</t>
-  </si>
-  <si>
-    <t>【MBA智库】管理启航：新任管理者成长训练营</t>
-  </si>
-  <si>
-    <t>https://www.alipan.com/s/s9LufjHAJab</t>
-  </si>
-  <si>
-    <t>https://pan.quark.cn/s/700803645db9</t>
-  </si>
-  <si>
-    <t>2024/02/24 13:36</t>
-  </si>
-  <si>
-    <t>极客时间 - Web安全攻防实战</t>
-  </si>
-  <si>
-    <t>https://www.alipan.com/s/c3GgkWwFBbY</t>
-  </si>
-  <si>
-    <t>https://pan.quark.cn/s/5d9007821050</t>
-  </si>
-  <si>
-    <t>2024/02/24 12:15</t>
-  </si>
-  <si>
-    <t>极客时间 - 玩转 webpack</t>
-  </si>
-  <si>
-    <t>https://www.alipan.com/s/6PCXnY8iKSH</t>
-  </si>
-  <si>
-    <t>https://pan.quark.cn/s/66cf0c19a890</t>
-  </si>
-  <si>
-    <t>2024/02/24 04:18</t>
-  </si>
-  <si>
-    <t>陆明明 - 知乎精准引流攻略2.0，适合各行业，全程实操落地演示</t>
-  </si>
-  <si>
-    <t>https://www.alipan.com/s/116334ziG2t</t>
-  </si>
-  <si>
-    <t>https://pan.quark.cn/s/e4e2a8d6517e</t>
+    <t>2024/02/14 15:25</t>
+  </si>
+  <si>
+    <t>2024/02/14 17:10</t>
+  </si>
+  <si>
+    <t>2024/02/15 00:02</t>
+  </si>
+  <si>
+    <t>2024/02/15 02:22</t>
+  </si>
+  <si>
+    <t>2024/02/15 13:35</t>
+  </si>
+  <si>
+    <t>2024/02/15 15:16</t>
+  </si>
+  <si>
+    <t>2024/02/15 16:29</t>
+  </si>
+  <si>
+    <t>2024/02/15 17:27</t>
+  </si>
+  <si>
+    <t>2024/02/16 03:14</t>
+  </si>
+  <si>
+    <t>2024/02/16 14:41</t>
+  </si>
+  <si>
+    <t>2024/02/16 17:43</t>
+  </si>
+  <si>
+    <t>2024/02/17 00:56</t>
+  </si>
+  <si>
+    <t>2024/02/17 16:24</t>
+  </si>
+  <si>
+    <t>2024/02/17 17:27</t>
+  </si>
+  <si>
+    <t>2024/02/17 18:01</t>
+  </si>
+  <si>
+    <t>2024/02/18 06:30</t>
+  </si>
+  <si>
+    <t>2024/02/18 23:25</t>
+  </si>
+  <si>
+    <t>2024/02/19 02:06</t>
+  </si>
+  <si>
+    <t>2024/02/19 15:16</t>
+  </si>
+  <si>
+    <t>2024/02/19 21:07</t>
+  </si>
+  <si>
+    <t>2024/02/19 21:52</t>
+  </si>
+  <si>
+    <t>2024/02/19 23:13</t>
+  </si>
+  <si>
+    <t>2024/02/20 08:37</t>
+  </si>
+  <si>
+    <t>2024/02/20 09:50</t>
+  </si>
+  <si>
+    <t>2024/02/20 13:39</t>
+  </si>
+  <si>
+    <t>2024/02/20 14:42</t>
+  </si>
+  <si>
+    <t>2024/02/20 16:31</t>
+  </si>
+  <si>
+    <t>2024/02/20 17:34</t>
+  </si>
+  <si>
+    <t>2024/02/20 20:55</t>
+  </si>
+  <si>
+    <t>2024/02/21 11:10</t>
+  </si>
+  <si>
+    <t>2024/02/21 14:35</t>
+  </si>
+  <si>
+    <t>2024/02/21 15:22</t>
+  </si>
+  <si>
+    <t>2024/02/21 20:13</t>
+  </si>
+  <si>
+    <t>2024/02/21 21:40</t>
+  </si>
+  <si>
+    <t>2024/02/21 22:46</t>
+  </si>
+  <si>
+    <t>2024/02/22 13:04</t>
+  </si>
+  <si>
+    <t>2024/02/22 17:59</t>
+  </si>
+  <si>
+    <t>2024/02/22 22:42</t>
+  </si>
+  <si>
+    <t>2024/02/23 04:59</t>
+  </si>
+  <si>
+    <t>2024/02/23 12:35</t>
+  </si>
+  <si>
+    <t>【爪哇教育】Web全栈工程师班 - 2023</t>
+  </si>
+  <si>
+    <t>https://www.alipan.com/s/rXwZwqDrPXS</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/3cc1ce872b1c</t>
+  </si>
+  <si>
+    <t>2024/02/23 13:48</t>
+  </si>
+  <si>
+    <t>经典再升级-FFmpeg5.0核心技术精讲，打造音视频播放器 - 带源码课件</t>
+  </si>
+  <si>
+    <t>https://www.alipan.com/s/FAv5nnDgBqa</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/32a3ea8e6396</t>
+  </si>
+  <si>
+    <t>2024/02/23 15:58</t>
+  </si>
+  <si>
+    <t>2024校园跑腿代办同城闪送小程序 - 带源码课件</t>
+  </si>
+  <si>
+    <t>https://www.alipan.com/s/TD2ewQApit8</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/89f00e15a9c8</t>
+  </si>
+  <si>
+    <t>2024/02/23 19:29</t>
+  </si>
+  <si>
+    <t>【编程达人】火哥Windows内核课程（上+下) - 带源码课件</t>
+  </si>
+  <si>
+    <t>https://www.alipan.com/s/GrHN1JUjUfL</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/a78308de69ab</t>
   </si>
   <si>
     <t>2024/02/23 21:40</t>
-  </si>
-  <si>
-    <t>【儒猿课堂】从0开始带你成为MySQL实战优化高手</t>
-  </si>
-  <si>
-    <t>https://www.alipan.com/s/sHEXx5RsWY4</t>
-  </si>
-  <si>
-    <t>https://pan.quark.cn/s/6a62a1a5b47e</t>
-  </si>
-  <si>
-    <t>2024/02/23 19:29</t>
-  </si>
-  <si>
-    <t>【开课吧】JavaEE企业级分布式高级架构师023期 - 带源码课件</t>
-  </si>
-  <si>
-    <t>https://www.alipan.com/s/tuPs8hpDXWo</t>
-  </si>
-  <si>
-    <t>https://pan.quark.cn/s/75d95a43c24b</t>
-  </si>
-  <si>
-    <t>2024/02/23 15:58</t>
-  </si>
-  <si>
-    <t>C++百万并发网络通信引擎架构与实现(服务端+客户端+跨平台)第2季 - 带源码课件</t>
-  </si>
-  <si>
-    <t>https://www.alipan.com/s/ddo9687chP3</t>
-  </si>
-  <si>
-    <t>https://pan.quark.cn/s/8b73030136a5</t>
-  </si>
-  <si>
-    <t>2024/02/23 13:48</t>
-  </si>
-  <si>
-    <t>汤小小账号变现课第2期，今日头条、小红书、公众号，1000粉也可以接广告变现</t>
-  </si>
-  <si>
-    <t>https://www.alipan.com/s/32zHQetbwLY</t>
-  </si>
-  <si>
-    <t>https://pan.quark.cn/s/75bfbfacd504</t>
-  </si>
-  <si>
-    <t>2024/02/23 12:35</t>
-  </si>
-  <si>
-    <t>李仁松 - 古妆汉服仙服零基础美妆教学课</t>
-  </si>
-  <si>
-    <t>https://www.alipan.com/s/q1X1uEo5ZRJ</t>
-  </si>
-  <si>
-    <t>https://pan.quark.cn/s/527d74760f3b</t>
-  </si>
-  <si>
-    <t>2024/02/23 04:59</t>
-  </si>
-  <si>
-    <t>【TK增长会】TikTok外贸工厂陪跑训练营</t>
-  </si>
-  <si>
-    <t>https://www.alipan.com/s/34DojRVWAmu</t>
-  </si>
-  <si>
-    <t>https://pan.quark.cn/s/e1c60a640025</t>
-  </si>
-  <si>
-    <t>2024/02/22 22:42</t>
-  </si>
-  <si>
-    <t>PS教程超级合辑【1000集2017版】 - 带源码课件</t>
-  </si>
-  <si>
-    <t>https://www.alipan.com/s/viuX3PfVywQ</t>
-  </si>
-  <si>
-    <t>https://pan.quark.cn/s/d2874b85b55d</t>
-  </si>
-  <si>
-    <t>2024/02/22 17:59</t>
-  </si>
-  <si>
-    <t>【开课吧】门徒计划 - Java方向</t>
-  </si>
-  <si>
-    <t>https://www.alipan.com/s/QCABx4Jt42G</t>
-  </si>
-  <si>
-    <t>https://pan.quark.cn/s/43559d27d803</t>
-  </si>
-  <si>
-    <t>2024/02/22 13:04</t>
-  </si>
-  <si>
-    <t>王红元 - 前端体系课-2614集 - 带源码课件</t>
-  </si>
-  <si>
-    <t>https://www.alipan.com/s/nDEn6ibekbq</t>
-  </si>
-  <si>
-    <t>https://pan.quark.cn/s/4fa23aecaecd</t>
-  </si>
-  <si>
-    <t>2024/02/21 22:46</t>
-  </si>
-  <si>
-    <t>【虎课网-78025】深度学习爬虫验证码识别</t>
-  </si>
-  <si>
-    <t>https://www.alipan.com/s/7GXXwboAJv8</t>
-  </si>
-  <si>
-    <t>https://pan.quark.cn/s/a724ae6aecc8</t>
-  </si>
-  <si>
-    <t>2024/02/21 21:40</t>
-  </si>
-  <si>
-    <t>【开课吧】门徒计划 - AI方向</t>
-  </si>
-  <si>
-    <t>https://www.alipan.com/s/MLaCvFW1bxN</t>
-  </si>
-  <si>
-    <t>https://pan.quark.cn/s/f56e51ab4319</t>
-  </si>
-  <si>
-    <t>2024/02/21 20:13</t>
-  </si>
-  <si>
-    <t>【深蓝学院】机器学习数学基础 - 带源码课件</t>
-  </si>
-  <si>
-    <t>https://www.alipan.com/s/AGbozELqBgG</t>
-  </si>
-  <si>
-    <t>https://pan.quark.cn/s/bc5ee542c086</t>
-  </si>
-  <si>
-    <t>2024/02/21 15:22</t>
-  </si>
-  <si>
-    <t>手机摄影技巧：从0到1用手机拍出酷炫短视频Vlog</t>
-  </si>
-  <si>
-    <t>https://www.alipan.com/s/bxyr9SozFNS</t>
-  </si>
-  <si>
-    <t>https://pan.quark.cn/s/94cf785af921</t>
-  </si>
-  <si>
-    <t>2024/02/21 14:35</t>
-  </si>
-  <si>
-    <t>英语思维：快速建立语法体系</t>
-  </si>
-  <si>
-    <t>https://www.alipan.com/s/txUKQgPAh3d</t>
-  </si>
-  <si>
-    <t>https://pan.quark.cn/s/b9a565c6c0f0</t>
-  </si>
-  <si>
-    <t>2024/02/21 11:10</t>
-  </si>
-  <si>
-    <t>【CCtalk】静物美食摄影课 - 17期</t>
-  </si>
-  <si>
-    <t>https://www.alipan.com/s/ymu1uyyigVS</t>
-  </si>
-  <si>
-    <t>https://pan.quark.cn/s/31023affd886</t>
-  </si>
-  <si>
-    <t>2024/02/20 20:55</t>
-  </si>
-  <si>
-    <t>【开课吧】门徒计划 - 算法课</t>
-  </si>
-  <si>
-    <t>https://www.alipan.com/s/SMb5q9nJUT6</t>
-  </si>
-  <si>
-    <t>https://pan.quark.cn/s/a18f2824148c</t>
-  </si>
-  <si>
-    <t>2024/02/20 17:34</t>
-  </si>
-  <si>
-    <t>【imooc-92】新版Scrapy打造搜索引擎 畅销4年的Python分布式爬虫课 - 带源码课件</t>
-  </si>
-  <si>
-    <t>https://www.alipan.com/s/fSsgMVtV1dD</t>
-  </si>
-  <si>
-    <t>https://pan.quark.cn/s/b107454ccac0</t>
-  </si>
-  <si>
-    <t>2024/02/20 16:31</t>
-  </si>
-  <si>
-    <t>声乐魔法课：让你唱出动听歌声，秒变KTV麦霸</t>
-  </si>
-  <si>
-    <t>https://www.alipan.com/s/yBaMkVWE8Y8</t>
-  </si>
-  <si>
-    <t>https://pan.quark.cn/s/3170ab4919d4</t>
-  </si>
-  <si>
-    <t>2024/02/20 14:42</t>
-  </si>
-  <si>
-    <t>【新东方在线】2024考研英语全程班 - 带源码课件</t>
-  </si>
-  <si>
-    <t>https://www.alipan.com/s/DBj26N6FV9Y</t>
-  </si>
-  <si>
-    <t>https://pan.quark.cn/s/91091827c3fd</t>
-  </si>
-  <si>
-    <t>2024/02/20 13:39</t>
-  </si>
-  <si>
-    <t>【Theone口译】英语零基础入门班</t>
-  </si>
-  <si>
-    <t>https://www.alipan.com/s/9ShxSrGTrus</t>
-  </si>
-  <si>
-    <t>https://pan.quark.cn/s/e1d6da69de29</t>
-  </si>
-  <si>
-    <t>2024/02/20 09:50</t>
-  </si>
-  <si>
-    <t>【虎课网-2446】趣味平面设计说明书 - 带源码课件</t>
-  </si>
-  <si>
-    <t>https://www.alipan.com/s/Zs9ah755xjF</t>
-  </si>
-  <si>
-    <t>https://pan.quark.cn/s/e8a340b4c34f</t>
-  </si>
-  <si>
-    <t>2024/02/20 08:37</t>
-  </si>
-  <si>
-    <t>【思益学院】纪主任《车神陪跑：拼多多系统化课程》</t>
-  </si>
-  <si>
-    <t>https://www.alipan.com/s/9YxJkCg1WRK</t>
-  </si>
-  <si>
-    <t>https://pan.quark.cn/s/48da8efa4a20</t>
-  </si>
-  <si>
-    <t>2024/02/19 23:13</t>
-  </si>
-  <si>
-    <t>【开课吧】机器学习如何在企业中落地 - 带源码课件</t>
-  </si>
-  <si>
-    <t>https://www.alipan.com/s/jaqA4mfVu8L</t>
-  </si>
-  <si>
-    <t>https://pan.quark.cn/s/adc57f97bb76</t>
-  </si>
-  <si>
-    <t>2024/02/19 21:52</t>
-  </si>
-  <si>
-    <t>【潭州教育】配音全能班8期（全阶段） - 带源码课件</t>
-  </si>
-  <si>
-    <t>https://www.alipan.com/s/Dd59pAv6tic</t>
-  </si>
-  <si>
-    <t>https://pan.quark.cn/s/9c6e49db7b98</t>
-  </si>
-  <si>
-    <t>2024/02/19 21:07</t>
-  </si>
-  <si>
-    <t>诺思星 - 抖音影视混剪变现课</t>
-  </si>
-  <si>
-    <t>https://www.alipan.com/s/kc52CrqSjZ5</t>
-  </si>
-  <si>
-    <t>https://pan.quark.cn/s/e4626fba4ff0</t>
-  </si>
-  <si>
-    <t>2024/02/19 15:16</t>
-  </si>
-  <si>
-    <t>【NightTeam夜幕】JavaScript 逆向系列课 + 高阶课（SVIP完结） - 带源码课件</t>
-  </si>
-  <si>
-    <t>https://www.alipan.com/s/Wpfd69FubPt</t>
-  </si>
-  <si>
-    <t>https://pan.quark.cn/s/97400ec0c32b</t>
-  </si>
-  <si>
-    <t>2024/02/19 02:06</t>
-  </si>
-  <si>
-    <t>厦九九 - 9节小红书博主赚钱课</t>
-  </si>
-  <si>
-    <t>https://www.alipan.com/s/Nq8tfTxijYV</t>
-  </si>
-  <si>
-    <t>https://pan.quark.cn/s/245a22bfb5dc</t>
-  </si>
-  <si>
-    <t>2024/02/18 23:25</t>
-  </si>
-  <si>
-    <t>【达内教育】2023最新Python+人工智能就业班 - 带源码课件</t>
-  </si>
-  <si>
-    <t>https://www.alipan.com/s/xysChTt6Fhk</t>
-  </si>
-  <si>
-    <t>https://pan.quark.cn/s/1e48256cbd2d</t>
-  </si>
-  <si>
-    <t>2024/02/18 16:17</t>
-  </si>
-  <si>
-    <t>uniapp陪诊小程序</t>
-  </si>
-  <si>
-    <t>https://www.alipan.com/s/xht4ci3zLmk</t>
-  </si>
-  <si>
-    <t>https://pan.quark.cn/s/6a2a2e4e78dd</t>
-  </si>
-  <si>
-    <t>2024/02/18 06:30</t>
-  </si>
-  <si>
-    <t>小区物业管理系统</t>
-  </si>
-  <si>
-    <t>https://www.alipan.com/s/jzFck4WwrJq</t>
-  </si>
-  <si>
-    <t>https://pan.quark.cn/s/23fe247996e9</t>
-  </si>
-  <si>
-    <t>2024/02/17 18:01</t>
-  </si>
-  <si>
-    <t>C++游戏编程实例精讲--3D射击游戏作弊</t>
-  </si>
-  <si>
-    <t>https://www.alipan.com/s/j11kKWqW57o</t>
-  </si>
-  <si>
-    <t>https://pan.quark.cn/s/a19a44d61ccb</t>
-  </si>
-  <si>
-    <t>2024/02/17 17:27</t>
-  </si>
-  <si>
-    <t>深度学习项目：Django搭建CNN网络实现图像识别 - 带源码课件</t>
-  </si>
-  <si>
-    <t>https://www.alipan.com/s/vRDC5FcNmnX</t>
-  </si>
-  <si>
-    <t>https://pan.quark.cn/s/1004a4bf020a</t>
-  </si>
-  <si>
-    <t>2024/02/17 16:24</t>
-  </si>
-  <si>
-    <t>C C++企业级项目实战班 - 带源码课件</t>
-  </si>
-  <si>
-    <t>https://www.alipan.com/s/BHKcc31Upnh</t>
-  </si>
-  <si>
-    <t>https://pan.quark.cn/s/1b3d8cbc57af</t>
-  </si>
-  <si>
-    <t>2024/02/17 00:56</t>
-  </si>
-  <si>
-    <t>【尚硅谷】2022北京校区JAVA就业班 - 带源码课件</t>
-  </si>
-  <si>
-    <t>https://www.alipan.com/s/st2bvcUQPDN</t>
-  </si>
-  <si>
-    <t>https://pan.quark.cn/s/70c52d6c31af</t>
-  </si>
-  <si>
-    <t>2024/02/16 22:34</t>
-  </si>
-  <si>
-    <t>核聚北大学霸私藏的高效学习术</t>
-  </si>
-  <si>
-    <t>https://www.alipan.com/s/oHQuq1XauRn</t>
-  </si>
-  <si>
-    <t>https://pan.quark.cn/s/4e4da39d6abc</t>
-  </si>
-  <si>
-    <t>2024/02/16 17:43</t>
-  </si>
-  <si>
-    <t>【拼客学院】2019年直播面授班 《全栈网络安全专家》 43期 - 带源码课件</t>
-  </si>
-  <si>
-    <t>https://www.alipan.com/s/UFwetD1kNTQ</t>
-  </si>
-  <si>
-    <t>https://pan.quark.cn/s/ee32f0d491e2</t>
-  </si>
-  <si>
-    <t>2024/02/16 14:41</t>
-  </si>
-  <si>
-    <t>极简英语 - 英语能力系统提升班 - 带源码课件</t>
-  </si>
-  <si>
-    <t>https://www.alipan.com/s/vtdkUoH3N8t</t>
-  </si>
-  <si>
-    <t>https://pan.quark.cn/s/d26a10b37b1f</t>
-  </si>
-  <si>
-    <t>2024/02/16 03:14</t>
-  </si>
-  <si>
-    <t>基于SpringBoot+Mybatis从头搭建通用管理系统(后端篇) - 带源码课件</t>
-  </si>
-  <si>
-    <t>https://www.alipan.com/s/WDrSso9TVHF</t>
-  </si>
-  <si>
-    <t>https://pan.quark.cn/s/e111d8997711</t>
-  </si>
-  <si>
-    <t>2024/02/15 17:27</t>
-  </si>
-  <si>
-    <t>【粉笔】2023高照超大杯刷题营</t>
-  </si>
-  <si>
-    <t>https://www.alipan.com/s/wDqarW38FwH</t>
-  </si>
-  <si>
-    <t>https://pan.quark.cn/s/76a5b545c41b</t>
-  </si>
-  <si>
-    <t>2024/02/15 16:29</t>
-  </si>
-  <si>
-    <t>【新东方在线】英语零基础直达流利生活口语</t>
-  </si>
-  <si>
-    <t>https://www.alipan.com/s/929gk7zdzqg</t>
-  </si>
-  <si>
-    <t>https://pan.quark.cn/s/a8083a220e18</t>
-  </si>
-  <si>
-    <t>2024/02/15 15:16</t>
-  </si>
-  <si>
-    <t>【51CTO-3811】《Wireshark协议分析基础与提升》第二季 TCP IP协议栈详解(上)</t>
-  </si>
-  <si>
-    <t>https://www.alipan.com/s/hcGnaiERdSV</t>
-  </si>
-  <si>
-    <t>https://pan.quark.cn/s/6ce384f2434b</t>
-  </si>
-  <si>
-    <t>2024/02/15 13:35</t>
-  </si>
-  <si>
-    <t>老陈的IT杂货铺 - 嵌入式零基础到就业年班</t>
-  </si>
-  <si>
-    <t>https://www.alipan.com/s/wx4GhdUCH2J</t>
-  </si>
-  <si>
-    <t>https://pan.quark.cn/s/c8169a3cc4e9</t>
-  </si>
-  <si>
-    <t>2024/02/15 02:22</t>
-  </si>
-  <si>
-    <t>【尚硅谷】SpringSecurity+OAuth2.0实战精讲 - 带源码课件</t>
-  </si>
-  <si>
-    <t>https://www.alipan.com/s/v2fDjMiJ9Wf</t>
-  </si>
-  <si>
-    <t>https://pan.quark.cn/s/564723411378</t>
-  </si>
-  <si>
-    <t>2024/02/15 00:02</t>
-  </si>
-  <si>
-    <t>【尚硅谷】鸿蒙应用开发 - 带源码课件</t>
-  </si>
-  <si>
-    <t>https://www.alipan.com/s/f3fRYQwDnaG</t>
-  </si>
-  <si>
-    <t>https://pan.quark.cn/s/506a2573540a</t>
-  </si>
-  <si>
-    <t>2024/02/14 17:10</t>
-  </si>
-  <si>
-    <t>Go+Vue通用后台管理项目实战 - 带源码课件</t>
-  </si>
-  <si>
-    <t>https://www.alipan.com/s/AnU5TQnTRyk</t>
-  </si>
-  <si>
-    <t>https://pan.quark.cn/s/90762ab029d3</t>
-  </si>
-  <si>
-    <t>2024/02/14 15:25</t>
   </si>
 </sst>
 </file>
@@ -1422,12 +1611,15 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1813,10 +2005,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E66"/>
+  <dimension ref="A1:E148"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="38.6666666666667" defaultRowHeight="14.4" outlineLevelCol="4"/>
@@ -1838,1113 +2030,2507 @@
       <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
-        <v>4</v>
+      <c r="E1" s="3">
+        <v>45325.2972222222</v>
       </c>
     </row>
     <row r="2" ht="44.55" customHeight="1" spans="1:5">
       <c r="A2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="C2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>7</v>
-      </c>
       <c r="D2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="2" t="s">
-        <v>8</v>
+      <c r="E2" s="3">
+        <v>45325.6902777778</v>
       </c>
     </row>
     <row r="3" ht="44.55" customHeight="1" spans="1:5">
       <c r="A3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>11</v>
-      </c>
       <c r="D3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="2" t="s">
-        <v>12</v>
+      <c r="E3" s="3">
+        <v>45327.6152777778</v>
       </c>
     </row>
     <row r="4" ht="44.55" customHeight="1" spans="1:5">
       <c r="A4" s="1" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E4" s="2" t="s">
-        <v>16</v>
+      <c r="E4" s="3">
+        <v>45327.8430555556</v>
       </c>
     </row>
     <row r="5" ht="44.55" customHeight="1" spans="1:5">
       <c r="A5" s="1" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E5" s="2" t="s">
-        <v>20</v>
+      <c r="E5" s="3">
+        <v>45329.7180555556</v>
       </c>
     </row>
     <row r="6" ht="44.55" customHeight="1" spans="1:5">
       <c r="A6" s="1" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E6" s="2" t="s">
-        <v>24</v>
+      <c r="E6" s="3">
+        <v>45329.925</v>
       </c>
     </row>
     <row r="7" ht="44.55" customHeight="1" spans="1:5">
       <c r="A7" s="1" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E7" s="2" t="s">
-        <v>28</v>
+      <c r="E7" s="3">
+        <v>45329.9256944444</v>
       </c>
     </row>
     <row r="8" ht="44.55" customHeight="1" spans="1:5">
       <c r="A8" s="1" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E8" s="2" t="s">
-        <v>32</v>
+      <c r="E8" s="3">
+        <v>45330.7006944444</v>
       </c>
     </row>
     <row r="9" ht="44.55" customHeight="1" spans="1:5">
       <c r="A9" s="1" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E9" s="2" t="s">
-        <v>36</v>
+      <c r="E9" s="3">
+        <v>45330.9159722222</v>
       </c>
     </row>
     <row r="10" ht="44.55" customHeight="1" spans="1:5">
       <c r="A10" s="1" t="s">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E10" s="2" t="s">
-        <v>40</v>
+      <c r="E10" s="3">
+        <v>45331.2847222222</v>
       </c>
     </row>
     <row r="11" ht="44.55" customHeight="1" spans="1:5">
       <c r="A11" s="1" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E11" s="2" t="s">
-        <v>44</v>
+      <c r="E11" s="3">
+        <v>45331.4104166667</v>
       </c>
     </row>
     <row r="12" ht="44.55" customHeight="1" spans="1:5">
       <c r="A12" s="1" t="s">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="D12" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E12" s="2" t="s">
-        <v>48</v>
+      <c r="E12" s="3">
+        <v>45335.1034722222</v>
       </c>
     </row>
     <row r="13" ht="44.55" customHeight="1" spans="1:5">
       <c r="A13" s="1" t="s">
-        <v>49</v>
+        <v>37</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>50</v>
+        <v>38</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="D13" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E13" s="2" t="s">
-        <v>52</v>
+      <c r="E13" s="3">
+        <v>45335.9486111111</v>
       </c>
     </row>
     <row r="14" ht="44.55" customHeight="1" spans="1:5">
       <c r="A14" s="1" t="s">
-        <v>53</v>
+        <v>40</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>54</v>
+        <v>41</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="D14" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E14" s="2" t="s">
-        <v>56</v>
+      <c r="E14" s="3">
+        <v>45336.2743055556</v>
       </c>
     </row>
     <row r="15" ht="44.55" customHeight="1" spans="1:5">
       <c r="A15" s="1" t="s">
-        <v>57</v>
+        <v>43</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>58</v>
+        <v>44</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>59</v>
+        <v>45</v>
       </c>
       <c r="D15" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E15" s="2" t="s">
-        <v>60</v>
+      <c r="E15" s="3">
+        <v>45336.6423611111</v>
       </c>
     </row>
     <row r="16" ht="44.55" customHeight="1" spans="1:5">
       <c r="A16" s="1" t="s">
-        <v>61</v>
+        <v>46</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>62</v>
+        <v>47</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>63</v>
+        <v>48</v>
       </c>
       <c r="D16" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E16" s="2" t="s">
-        <v>64</v>
+      <c r="E16" s="3">
+        <v>45336.7152777778</v>
       </c>
     </row>
     <row r="17" ht="44.55" customHeight="1" spans="1:5">
       <c r="A17" s="1" t="s">
-        <v>65</v>
+        <v>49</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>66</v>
+        <v>50</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="D17" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E17" s="2" t="s">
-        <v>68</v>
+      <c r="E17" s="3">
+        <v>45337.0013888889</v>
       </c>
     </row>
     <row r="18" ht="44.55" customHeight="1" spans="1:5">
       <c r="A18" s="1" t="s">
-        <v>69</v>
+        <v>52</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>70</v>
+        <v>53</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>71</v>
+        <v>54</v>
       </c>
       <c r="D18" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E18" s="2" t="s">
-        <v>72</v>
+      <c r="E18" s="3">
+        <v>45337.0986111111</v>
       </c>
     </row>
     <row r="19" ht="44.55" customHeight="1" spans="1:5">
       <c r="A19" s="1" t="s">
-        <v>73</v>
+        <v>55</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>74</v>
+        <v>56</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>75</v>
+        <v>57</v>
       </c>
       <c r="D19" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E19" s="2" t="s">
-        <v>76</v>
+      <c r="E19" s="3">
+        <v>45337.5659722222</v>
       </c>
     </row>
     <row r="20" ht="44.55" customHeight="1" spans="1:5">
       <c r="A20" s="1" t="s">
-        <v>77</v>
+        <v>58</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>78</v>
+        <v>59</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>79</v>
+        <v>60</v>
       </c>
       <c r="D20" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E20" s="2" t="s">
-        <v>80</v>
+      <c r="E20" s="3">
+        <v>45337.6361111111</v>
       </c>
     </row>
     <row r="21" ht="44.55" customHeight="1" spans="1:5">
       <c r="A21" s="1" t="s">
-        <v>81</v>
+        <v>61</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>82</v>
+        <v>62</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>83</v>
+        <v>63</v>
       </c>
       <c r="D21" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E21" s="2" t="s">
-        <v>84</v>
+      <c r="E21" s="3">
+        <v>45337.6868055556</v>
       </c>
     </row>
     <row r="22" ht="44.55" customHeight="1" spans="1:5">
       <c r="A22" s="1" t="s">
-        <v>85</v>
+        <v>64</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>86</v>
+        <v>65</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>87</v>
+        <v>66</v>
       </c>
       <c r="D22" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E22" s="2" t="s">
-        <v>88</v>
+      <c r="E22" s="3">
+        <v>45337.7270833333</v>
       </c>
     </row>
     <row r="23" ht="44.55" customHeight="1" spans="1:5">
       <c r="A23" s="1" t="s">
-        <v>89</v>
+        <v>67</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>90</v>
+        <v>68</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>91</v>
+        <v>69</v>
       </c>
       <c r="D23" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E23" s="2" t="s">
-        <v>92</v>
+      <c r="E23" s="3">
+        <v>45338.1347222222</v>
       </c>
     </row>
     <row r="24" ht="44.55" customHeight="1" spans="1:5">
       <c r="A24" s="1" t="s">
-        <v>93</v>
+        <v>70</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>94</v>
+        <v>71</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>95</v>
+        <v>72</v>
       </c>
       <c r="D24" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E24" s="2" t="s">
-        <v>96</v>
+      <c r="E24" s="3">
+        <v>45338.6118055556</v>
       </c>
     </row>
     <row r="25" ht="44.55" customHeight="1" spans="1:5">
       <c r="A25" s="1" t="s">
-        <v>97</v>
+        <v>73</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>98</v>
+        <v>74</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>99</v>
+        <v>75</v>
       </c>
       <c r="D25" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E25" s="2" t="s">
-        <v>100</v>
+      <c r="E25" s="3">
+        <v>45338.7381944444</v>
       </c>
     </row>
     <row r="26" ht="44.55" customHeight="1" spans="1:5">
       <c r="A26" s="1" t="s">
-        <v>101</v>
+        <v>76</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>102</v>
+        <v>77</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>103</v>
+        <v>78</v>
       </c>
       <c r="D26" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E26" s="2" t="s">
-        <v>104</v>
+      <c r="E26" s="3">
+        <v>45338.9402777778</v>
       </c>
     </row>
     <row r="27" ht="44.55" customHeight="1" spans="1:5">
       <c r="A27" s="1" t="s">
-        <v>105</v>
+        <v>79</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>106</v>
+        <v>80</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>107</v>
+        <v>81</v>
       </c>
       <c r="D27" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E27" s="2" t="s">
-        <v>108</v>
+      <c r="E27" s="3">
+        <v>45339.0388888889</v>
       </c>
     </row>
     <row r="28" ht="44.55" customHeight="1" spans="1:5">
       <c r="A28" s="1" t="s">
-        <v>109</v>
+        <v>82</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>110</v>
+        <v>83</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>111</v>
+        <v>84</v>
       </c>
       <c r="D28" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E28" s="2" t="s">
-        <v>112</v>
+      <c r="E28" s="3">
+        <v>45339.6833333333</v>
       </c>
     </row>
     <row r="29" ht="44.55" customHeight="1" spans="1:5">
       <c r="A29" s="1" t="s">
-        <v>113</v>
+        <v>85</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>114</v>
+        <v>86</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>115</v>
+        <v>87</v>
       </c>
       <c r="D29" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E29" s="2" t="s">
-        <v>116</v>
+      <c r="E29" s="3">
+        <v>45339.7270833333</v>
       </c>
     </row>
     <row r="30" ht="44.55" customHeight="1" spans="1:5">
       <c r="A30" s="1" t="s">
-        <v>117</v>
+        <v>88</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>118</v>
+        <v>89</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>119</v>
+        <v>90</v>
       </c>
       <c r="D30" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E30" s="2" t="s">
-        <v>120</v>
+      <c r="E30" s="3">
+        <v>45339.7506944444</v>
       </c>
     </row>
     <row r="31" ht="44.55" customHeight="1" spans="1:5">
       <c r="A31" s="1" t="s">
-        <v>121</v>
+        <v>91</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>122</v>
+        <v>92</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>123</v>
+        <v>93</v>
       </c>
       <c r="D31" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E31" s="2" t="s">
-        <v>124</v>
+      <c r="E31" s="3">
+        <v>45340.2708333333</v>
       </c>
     </row>
     <row r="32" ht="44.55" customHeight="1" spans="1:5">
       <c r="A32" s="1" t="s">
-        <v>125</v>
+        <v>94</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>126</v>
+        <v>95</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>127</v>
+        <v>96</v>
       </c>
       <c r="D32" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E32" s="2" t="s">
-        <v>128</v>
+      <c r="E32" s="3">
+        <v>45340.9756944444</v>
       </c>
     </row>
     <row r="33" ht="44.55" customHeight="1" spans="1:5">
       <c r="A33" s="1" t="s">
-        <v>129</v>
+        <v>97</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>130</v>
+        <v>98</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>131</v>
+        <v>99</v>
       </c>
       <c r="D33" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E33" s="2" t="s">
-        <v>132</v>
+      <c r="E33" s="3">
+        <v>45341.0875</v>
       </c>
     </row>
     <row r="34" ht="44.55" customHeight="1" spans="1:5">
       <c r="A34" s="1" t="s">
-        <v>133</v>
+        <v>100</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>134</v>
+        <v>101</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>135</v>
+        <v>102</v>
       </c>
       <c r="D34" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E34" s="2" t="s">
-        <v>136</v>
+      <c r="E34" s="3">
+        <v>45341.6361111111</v>
       </c>
     </row>
     <row r="35" ht="44.55" customHeight="1" spans="1:5">
       <c r="A35" s="1" t="s">
-        <v>137</v>
+        <v>103</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>138</v>
+        <v>104</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>139</v>
+        <v>105</v>
       </c>
       <c r="D35" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E35" s="2" t="s">
-        <v>140</v>
+      <c r="E35" s="3">
+        <v>45341.8798611111</v>
       </c>
     </row>
     <row r="36" ht="44.55" customHeight="1" spans="1:5">
       <c r="A36" s="1" t="s">
-        <v>141</v>
+        <v>106</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>142</v>
+        <v>107</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>143</v>
+        <v>108</v>
       </c>
       <c r="D36" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E36" s="2" t="s">
-        <v>144</v>
+      <c r="E36" s="3">
+        <v>45341.9111111111</v>
       </c>
     </row>
     <row r="37" ht="44.55" customHeight="1" spans="1:5">
       <c r="A37" s="1" t="s">
-        <v>145</v>
+        <v>109</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>146</v>
+        <v>110</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>147</v>
+        <v>111</v>
       </c>
       <c r="D37" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E37" s="2" t="s">
-        <v>148</v>
+      <c r="E37" s="3">
+        <v>45341.9673611111</v>
       </c>
     </row>
     <row r="38" ht="44.55" customHeight="1" spans="1:5">
       <c r="A38" s="1" t="s">
-        <v>149</v>
+        <v>112</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>150</v>
+        <v>113</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>151</v>
+        <v>114</v>
       </c>
       <c r="D38" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E38" s="2" t="s">
-        <v>152</v>
+      <c r="E38" s="3">
+        <v>45342.3590277778</v>
       </c>
     </row>
     <row r="39" ht="44.55" customHeight="1" spans="1:5">
       <c r="A39" s="1" t="s">
-        <v>153</v>
+        <v>115</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>154</v>
+        <v>116</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>155</v>
+        <v>117</v>
       </c>
       <c r="D39" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E39" s="2" t="s">
-        <v>156</v>
+      <c r="E39" s="3">
+        <v>45342.4097222222</v>
       </c>
     </row>
     <row r="40" ht="44.55" customHeight="1" spans="1:5">
       <c r="A40" s="1" t="s">
-        <v>157</v>
+        <v>118</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>158</v>
+        <v>119</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>159</v>
+        <v>120</v>
       </c>
       <c r="D40" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E40" s="2" t="s">
-        <v>160</v>
+      <c r="E40" s="3">
+        <v>45342.56875</v>
       </c>
     </row>
     <row r="41" ht="44.55" customHeight="1" spans="1:5">
       <c r="A41" s="1" t="s">
-        <v>161</v>
+        <v>121</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>162</v>
+        <v>122</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>163</v>
+        <v>123</v>
       </c>
       <c r="D41" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E41" s="2" t="s">
-        <v>164</v>
+      <c r="E41" s="3">
+        <v>45342.6125</v>
       </c>
     </row>
     <row r="42" ht="44.55" customHeight="1" spans="1:5">
       <c r="A42" s="1" t="s">
-        <v>165</v>
+        <v>124</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>166</v>
+        <v>125</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>167</v>
+        <v>126</v>
       </c>
       <c r="D42" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E42" s="2" t="s">
-        <v>168</v>
+      <c r="E42" s="3">
+        <v>45342.6881944444</v>
       </c>
     </row>
     <row r="43" ht="44.55" customHeight="1" spans="1:5">
       <c r="A43" s="1" t="s">
-        <v>169</v>
+        <v>127</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>170</v>
+        <v>128</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>171</v>
+        <v>129</v>
       </c>
       <c r="D43" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E43" s="2" t="s">
-        <v>172</v>
+      <c r="E43" s="3">
+        <v>45342.7319444444</v>
       </c>
     </row>
     <row r="44" ht="44.55" customHeight="1" spans="1:5">
       <c r="A44" s="1" t="s">
-        <v>173</v>
+        <v>130</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>174</v>
+        <v>131</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>175</v>
+        <v>132</v>
       </c>
       <c r="D44" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E44" s="2" t="s">
-        <v>176</v>
+      <c r="E44" s="3">
+        <v>45342.8715277778</v>
       </c>
     </row>
     <row r="45" ht="44.55" customHeight="1" spans="1:5">
       <c r="A45" s="1" t="s">
-        <v>177</v>
+        <v>133</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>178</v>
+        <v>134</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>179</v>
+        <v>135</v>
       </c>
       <c r="D45" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E45" s="2" t="s">
-        <v>180</v>
+      <c r="E45" s="3">
+        <v>45343.4652777778</v>
       </c>
     </row>
     <row r="46" ht="44.55" customHeight="1" spans="1:5">
       <c r="A46" s="1" t="s">
-        <v>181</v>
+        <v>136</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>182</v>
+        <v>137</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>183</v>
+        <v>138</v>
       </c>
       <c r="D46" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E46" s="2" t="s">
-        <v>184</v>
+      <c r="E46" s="3">
+        <v>45343.6076388889</v>
       </c>
     </row>
     <row r="47" ht="44.55" customHeight="1" spans="1:5">
       <c r="A47" s="1" t="s">
-        <v>185</v>
+        <v>139</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>186</v>
+        <v>140</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>187</v>
+        <v>141</v>
       </c>
       <c r="D47" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E47" s="2" t="s">
-        <v>188</v>
+      <c r="E47" s="3">
+        <v>45343.6402777778</v>
       </c>
     </row>
     <row r="48" ht="44.55" customHeight="1" spans="1:5">
       <c r="A48" s="1" t="s">
-        <v>189</v>
+        <v>142</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>190</v>
+        <v>143</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>191</v>
+        <v>144</v>
       </c>
       <c r="D48" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E48" s="2" t="s">
-        <v>192</v>
+      <c r="E48" s="3">
+        <v>45343.8423611111</v>
       </c>
     </row>
     <row r="49" ht="44.55" customHeight="1" spans="1:5">
       <c r="A49" s="1" t="s">
-        <v>193</v>
+        <v>145</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>194</v>
+        <v>146</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>195</v>
+        <v>147</v>
       </c>
       <c r="D49" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E49" s="2" t="s">
-        <v>196</v>
+      <c r="E49" s="3">
+        <v>45343.9027777778</v>
       </c>
     </row>
     <row r="50" ht="44.55" customHeight="1" spans="1:5">
       <c r="A50" s="1" t="s">
-        <v>197</v>
+        <v>148</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>198</v>
+        <v>149</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>199</v>
+        <v>150</v>
       </c>
       <c r="D50" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E50" s="2" t="s">
-        <v>200</v>
+      <c r="E50" s="3">
+        <v>45343.9486111111</v>
       </c>
     </row>
     <row r="51" ht="44.55" customHeight="1" spans="1:5">
       <c r="A51" s="1" t="s">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>202</v>
+        <v>152</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>203</v>
+        <v>153</v>
       </c>
       <c r="D51" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E51" s="2" t="s">
-        <v>204</v>
+      <c r="E51" s="3">
+        <v>45344.5444444444</v>
       </c>
     </row>
     <row r="52" ht="44.55" customHeight="1" spans="1:5">
       <c r="A52" s="1" t="s">
-        <v>205</v>
+        <v>154</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>206</v>
+        <v>155</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>207</v>
+        <v>156</v>
       </c>
       <c r="D52" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E52" s="2" t="s">
-        <v>208</v>
+      <c r="E52" s="3">
+        <v>45344.7493055556</v>
       </c>
     </row>
     <row r="53" ht="44.55" customHeight="1" spans="1:5">
       <c r="A53" s="1" t="s">
-        <v>209</v>
+        <v>157</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>210</v>
+        <v>158</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>211</v>
+        <v>159</v>
       </c>
       <c r="D53" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E53" s="2" t="s">
-        <v>212</v>
+      <c r="E53" s="3">
+        <v>45344.9458333333</v>
       </c>
     </row>
     <row r="54" ht="44.55" customHeight="1" spans="1:5">
       <c r="A54" s="1" t="s">
-        <v>213</v>
+        <v>160</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>214</v>
+        <v>161</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>215</v>
+        <v>162</v>
       </c>
       <c r="D54" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E54" s="2" t="s">
-        <v>216</v>
+      <c r="E54" s="3">
+        <v>45345.2076388889</v>
       </c>
     </row>
     <row r="55" ht="44.55" customHeight="1" spans="1:5">
       <c r="A55" s="1" t="s">
-        <v>217</v>
+        <v>163</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>218</v>
+        <v>164</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>219</v>
+        <v>165</v>
       </c>
       <c r="D55" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E55" s="2" t="s">
-        <v>220</v>
+      <c r="E55" s="3">
+        <v>45345.5243055556</v>
       </c>
     </row>
     <row r="56" ht="44.55" customHeight="1" spans="1:5">
       <c r="A56" s="1" t="s">
-        <v>221</v>
+        <v>166</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>222</v>
+        <v>167</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>223</v>
+        <v>168</v>
       </c>
       <c r="D56" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E56" s="2" t="s">
-        <v>224</v>
+      <c r="E56" s="3">
+        <v>45345.575</v>
       </c>
     </row>
     <row r="57" ht="44.55" customHeight="1" spans="1:5">
       <c r="A57" s="1" t="s">
-        <v>225</v>
+        <v>169</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>226</v>
+        <v>170</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>227</v>
+        <v>171</v>
       </c>
       <c r="D57" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E57" s="2" t="s">
-        <v>228</v>
+      <c r="E57" s="3">
+        <v>45345.8118055556</v>
       </c>
     </row>
     <row r="58" ht="44.55" customHeight="1" spans="1:5">
       <c r="A58" s="1" t="s">
-        <v>229</v>
+        <v>172</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>230</v>
+        <v>173</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>231</v>
+        <v>174</v>
       </c>
       <c r="D58" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E58" s="2" t="s">
-        <v>232</v>
+      <c r="E58" s="3">
+        <v>45345.9027777778</v>
       </c>
     </row>
     <row r="59" ht="44.55" customHeight="1" spans="1:5">
       <c r="A59" s="1" t="s">
-        <v>233</v>
+        <v>175</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>234</v>
+        <v>176</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>235</v>
+        <v>177</v>
       </c>
       <c r="D59" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E59" s="2" t="s">
-        <v>236</v>
+      <c r="E59" s="3">
+        <v>45346.5104166667</v>
       </c>
     </row>
     <row r="60" ht="44.55" customHeight="1" spans="1:5">
       <c r="A60" s="1" t="s">
-        <v>237</v>
+        <v>178</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>238</v>
+        <v>179</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>239</v>
+        <v>180</v>
       </c>
       <c r="D60" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E60" s="2" t="s">
-        <v>240</v>
+      <c r="E60" s="3">
+        <v>45346.5666666667</v>
       </c>
     </row>
     <row r="61" ht="44.55" customHeight="1" spans="1:5">
       <c r="A61" s="1" t="s">
-        <v>241</v>
+        <v>181</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>242</v>
+        <v>182</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>243</v>
+        <v>183</v>
       </c>
       <c r="D61" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E61" s="2" t="s">
-        <v>244</v>
+      <c r="E61" s="3">
+        <v>45346.60625</v>
       </c>
     </row>
     <row r="62" ht="44.55" customHeight="1" spans="1:5">
       <c r="A62" s="1" t="s">
-        <v>245</v>
+        <v>184</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>246</v>
+        <v>185</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>247</v>
+        <v>186</v>
       </c>
       <c r="D62" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E62" s="2" t="s">
-        <v>248</v>
+      <c r="E62" s="3">
+        <v>45346.7145833333</v>
       </c>
     </row>
     <row r="63" ht="44.55" customHeight="1" spans="1:5">
       <c r="A63" s="1" t="s">
-        <v>249</v>
+        <v>187</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>250</v>
+        <v>188</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>251</v>
+        <v>189</v>
       </c>
       <c r="D63" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E63" s="2" t="s">
-        <v>252</v>
+      <c r="E63" s="3">
+        <v>45346.7465277778</v>
       </c>
     </row>
     <row r="64" ht="44.55" customHeight="1" spans="1:5">
       <c r="A64" s="1" t="s">
-        <v>253</v>
+        <v>190</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>254</v>
+        <v>191</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>255</v>
+        <v>192</v>
       </c>
       <c r="D64" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E64" s="2" t="s">
-        <v>256</v>
+      <c r="E64" s="3">
+        <v>45346.8541666667</v>
       </c>
     </row>
     <row r="65" ht="44.55" customHeight="1" spans="1:5">
       <c r="A65" s="1" t="s">
-        <v>257</v>
+        <v>193</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>258</v>
+        <v>194</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>259</v>
+        <v>195</v>
       </c>
       <c r="D65" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E65" s="2" t="s">
-        <v>260</v>
+      <c r="E65" s="3">
+        <v>45346.9020833333</v>
       </c>
     </row>
     <row r="66" ht="44.55" customHeight="1" spans="1:5">
       <c r="A66" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="B66" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="C66" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="D66" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E66" s="3">
+        <v>45347.0402777778</v>
+      </c>
+    </row>
+    <row r="67" ht="44.55" customHeight="1" spans="1:5">
+      <c r="A67" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="B67" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="C67" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="D67" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E67" s="3">
+        <v>45347.1604166667</v>
+      </c>
+    </row>
+    <row r="68" ht="44.55" customHeight="1" spans="1:5">
+      <c r="A68" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="B68" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="C68" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="D68" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E68" s="3">
+        <v>45347.66875</v>
+      </c>
+    </row>
+    <row r="69" ht="44.55" customHeight="1" spans="1:5">
+      <c r="A69" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="B69" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="C69" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="D69" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E69" s="3">
+        <v>45347.7326388889</v>
+      </c>
+    </row>
+    <row r="70" ht="44.55" customHeight="1" spans="1:5">
+      <c r="A70" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="B70" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="C70" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="D70" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E70" s="3">
+        <v>45347.8513888889</v>
+      </c>
+    </row>
+    <row r="71" ht="44.55" customHeight="1" spans="1:5">
+      <c r="A71" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="B71" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="C71" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="D71" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E71" s="3">
+        <v>45347.9763888889</v>
+      </c>
+    </row>
+    <row r="72" ht="44.55" customHeight="1" spans="1:5">
+      <c r="A72" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="B72" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="C72" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="D72" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E72" s="3">
+        <v>45348.6569444444</v>
+      </c>
+    </row>
+    <row r="73" ht="44.55" customHeight="1" spans="1:5">
+      <c r="A73" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="B73" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="C73" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="D73" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E73" s="3">
+        <v>45348.6979166667</v>
+      </c>
+    </row>
+    <row r="74" ht="44.55" customHeight="1" spans="1:5">
+      <c r="A74" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="B74" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="C74" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="D74" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E74" s="3">
+        <v>45348.7361111111</v>
+      </c>
+    </row>
+    <row r="75" ht="44.55" customHeight="1" spans="1:5">
+      <c r="A75" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="B75" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="C75" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="D75" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E75" s="3">
+        <v>45348.8020833333</v>
+      </c>
+    </row>
+    <row r="76" ht="44.55" customHeight="1" spans="1:5">
+      <c r="A76" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="B76" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="C76" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="D76" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E76" s="3">
+        <v>45348.8368055556</v>
+      </c>
+    </row>
+    <row r="77" ht="44.55" customHeight="1" spans="1:5">
+      <c r="A77" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="B77" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="C77" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="D77" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E77" s="3">
+        <v>45348.8694444444</v>
+      </c>
+    </row>
+    <row r="78" ht="44.55" customHeight="1" spans="1:5">
+      <c r="A78" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="B78" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="C78" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="D78" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E78" s="3">
+        <v>45348.9208333333</v>
+      </c>
+    </row>
+    <row r="79" ht="44.55" customHeight="1" spans="1:5">
+      <c r="A79" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="B79" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="C79" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="D79" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E79" s="3">
+        <v>45348.9791666667</v>
+      </c>
+    </row>
+    <row r="80" ht="44.55" customHeight="1" spans="1:5">
+      <c r="A80" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="B80" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="C80" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="D80" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E80" s="3">
+        <v>45349.1326388889</v>
+      </c>
+    </row>
+    <row r="81" ht="44.55" customHeight="1" spans="1:5">
+      <c r="A81" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="B81" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="C81" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="D81" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E81" s="3">
+        <v>45349.5263888889</v>
+      </c>
+    </row>
+    <row r="82" ht="44.55" customHeight="1" spans="1:5">
+      <c r="A82" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="B82" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="C82" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="D82" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E82" s="3">
+        <v>45349.5534722222</v>
+      </c>
+    </row>
+    <row r="83" ht="44.55" customHeight="1" spans="1:5">
+      <c r="A83" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="B83" s="2" t="s">
+        <v>248</v>
+      </c>
+      <c r="C83" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="D83" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E83" s="3">
+        <v>45349.6638888889</v>
+      </c>
+    </row>
+    <row r="84" ht="44.55" customHeight="1" spans="1:5">
+      <c r="A84" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="B84" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="C84" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="D84" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E84" s="3">
+        <v>45349.7118055556</v>
+      </c>
+    </row>
+    <row r="85" ht="44.55" customHeight="1" spans="1:5">
+      <c r="A85" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="B85" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="C85" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="D85" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E85" s="3">
+        <v>45349.7486111111</v>
+      </c>
+    </row>
+    <row r="86" ht="44.55" customHeight="1" spans="1:5">
+      <c r="A86" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="B86" s="2" t="s">
+        <v>257</v>
+      </c>
+      <c r="C86" s="2" t="s">
+        <v>258</v>
+      </c>
+      <c r="D86" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E86" s="3">
+        <v>45349.8520833333</v>
+      </c>
+    </row>
+    <row r="87" ht="44.55" customHeight="1" spans="1:5">
+      <c r="A87" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="B87" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="C87" s="2" t="s">
         <v>261</v>
       </c>
-      <c r="B66" s="2" t="s">
+      <c r="D87" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E87" s="3">
+        <v>45349.9270833333</v>
+      </c>
+    </row>
+    <row r="88" ht="44.55" customHeight="1" spans="1:5">
+      <c r="A88" s="1" t="s">
         <v>262</v>
       </c>
-      <c r="C66" s="2" t="s">
+      <c r="B88" s="2" t="s">
         <v>263</v>
       </c>
-      <c r="D66" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E66" s="2" t="s">
+      <c r="C88" s="2" t="s">
         <v>264</v>
+      </c>
+      <c r="D88" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E88" s="3">
+        <v>45350.0111111111</v>
+      </c>
+    </row>
+    <row r="89" ht="44.55" customHeight="1" spans="1:5">
+      <c r="A89" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="B89" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="C89" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="D89" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E89" s="3">
+        <v>45350.09375</v>
+      </c>
+    </row>
+    <row r="90" ht="44.55" customHeight="1" spans="1:5">
+      <c r="A90" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="B90" s="2" t="s">
+        <v>269</v>
+      </c>
+      <c r="C90" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="D90" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E90" s="3">
+        <v>45350.2944444444</v>
+      </c>
+    </row>
+    <row r="91" ht="44.55" customHeight="1" spans="1:5">
+      <c r="A91" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B91" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C91" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D91" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E91" s="3">
+        <v>45350.64375</v>
+      </c>
+    </row>
+    <row r="92" ht="44.55" customHeight="1" spans="1:5">
+      <c r="A92" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B92" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C92" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D92" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E92" s="3">
+        <v>45350.7270833333</v>
+      </c>
+    </row>
+    <row r="93" ht="44.55" customHeight="1" spans="1:5">
+      <c r="A93" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B93" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C93" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D93" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E93" s="3">
+        <v>45350.8736111111</v>
+      </c>
+    </row>
+    <row r="94" ht="44.55" customHeight="1" spans="1:5">
+      <c r="A94" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B94" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C94" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D94" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E94" s="3">
+        <v>45350.9097222222</v>
+      </c>
+    </row>
+    <row r="95" ht="44.55" customHeight="1" spans="1:5">
+      <c r="A95" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B95" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C95" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D95" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E95" s="3">
+        <v>45350.9701388889</v>
+      </c>
+    </row>
+    <row r="96" ht="44.55" customHeight="1" spans="1:5">
+      <c r="A96" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B96" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C96" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D96" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E96" s="3">
+        <v>45351.0229166667</v>
+      </c>
+    </row>
+    <row r="97" ht="44.55" customHeight="1" spans="1:5">
+      <c r="A97" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B97" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C97" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D97" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E97" s="3">
+        <v>45351.0986111111</v>
+      </c>
+    </row>
+    <row r="98" ht="44.55" customHeight="1" spans="1:5">
+      <c r="A98" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B98" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C98" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D98" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E98" s="3">
+        <v>45351.5527777778</v>
+      </c>
+    </row>
+    <row r="99" ht="44.55" customHeight="1" spans="1:5">
+      <c r="A99" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B99" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C99" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D99" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E99" s="3">
+        <v>45351.6131944444</v>
+      </c>
+    </row>
+    <row r="100" ht="44.55" customHeight="1" spans="1:5">
+      <c r="A100" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B100" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C100" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D100" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E100" s="3">
+        <v>45351.6604166667</v>
+      </c>
+    </row>
+    <row r="101" ht="44.55" customHeight="1" spans="1:5">
+      <c r="A101" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B101" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C101" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D101" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E101" s="3">
+        <v>45351.7076388889</v>
+      </c>
+    </row>
+    <row r="102" ht="44.55" customHeight="1" spans="1:5">
+      <c r="A102" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B102" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C102" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D102" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E102" s="3">
+        <v>45351.8291666667</v>
+      </c>
+    </row>
+    <row r="103" ht="44.55" customHeight="1" spans="1:5">
+      <c r="A103" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B103" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C103" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D103" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E103" s="3">
+        <v>45351.8645833333</v>
+      </c>
+    </row>
+    <row r="104" ht="44.55" customHeight="1" spans="1:5">
+      <c r="A104" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B104" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C104" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D104" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E104" s="3">
+        <v>45351.95</v>
+      </c>
+    </row>
+    <row r="105" ht="44.55" customHeight="1" spans="1:5">
+      <c r="A105" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B105" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C105" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="D105" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E105" s="2" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="106" ht="44.55" customHeight="1" spans="1:5">
+      <c r="A106" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B106" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C106" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="D106" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E106" s="2" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="107" ht="44.55" customHeight="1" spans="1:5">
+      <c r="A107" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B107" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C107" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="D107" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E107" s="2" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="108" ht="44.55" customHeight="1" spans="1:5">
+      <c r="A108" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B108" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C108" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="D108" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E108" s="2" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="109" ht="44.55" customHeight="1" spans="1:5">
+      <c r="A109" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B109" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C109" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D109" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E109" s="2" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="110" ht="44.55" customHeight="1" spans="1:5">
+      <c r="A110" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B110" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="C110" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="D110" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E110" s="2" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="111" ht="44.55" customHeight="1" spans="1:5">
+      <c r="A111" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B111" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C111" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="D111" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E111" s="2" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="112" ht="44.55" customHeight="1" spans="1:5">
+      <c r="A112" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B112" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C112" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="D112" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E112" s="2" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="113" ht="44.55" customHeight="1" spans="1:5">
+      <c r="A113" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B113" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="C113" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="D113" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E113" s="2" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="114" ht="44.55" customHeight="1" spans="1:5">
+      <c r="A114" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B114" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="C114" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="D114" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E114" s="2" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="115" ht="44.55" customHeight="1" spans="1:5">
+      <c r="A115" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B115" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="C115" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="D115" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E115" s="2" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="116" ht="44.55" customHeight="1" spans="1:5">
+      <c r="A116" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B116" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="C116" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="D116" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E116" s="2" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="117" ht="44.55" customHeight="1" spans="1:5">
+      <c r="A117" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="B117" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="C117" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="D117" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E117" s="2" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="118" ht="44.55" customHeight="1" spans="1:5">
+      <c r="A118" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="B118" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="C118" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="D118" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E118" s="2" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="119" ht="44.55" customHeight="1" spans="1:5">
+      <c r="A119" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B119" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="C119" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="D119" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E119" s="2" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="120" ht="44.55" customHeight="1" spans="1:5">
+      <c r="A120" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="B120" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="C120" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="D120" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E120" s="2" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="121" ht="44.55" customHeight="1" spans="1:5">
+      <c r="A121" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="B121" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="C121" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="D121" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E121" s="2" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="122" ht="44.55" customHeight="1" spans="1:5">
+      <c r="A122" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="B122" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="C122" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="D122" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E122" s="2" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="123" ht="44.55" customHeight="1" spans="1:5">
+      <c r="A123" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="B123" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="C123" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="D123" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E123" s="2" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="124" ht="44.55" customHeight="1" spans="1:5">
+      <c r="A124" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="B124" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="C124" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="D124" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E124" s="2" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="125" ht="44.55" customHeight="1" spans="1:5">
+      <c r="A125" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="B125" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="C125" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="D125" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E125" s="2" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="126" ht="44.55" customHeight="1" spans="1:5">
+      <c r="A126" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="B126" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="C126" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="D126" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E126" s="2" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="127" ht="44.55" customHeight="1" spans="1:5">
+      <c r="A127" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="B127" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="C127" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="D127" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E127" s="2" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="128" ht="44.55" customHeight="1" spans="1:5">
+      <c r="A128" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="B128" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="C128" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="D128" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E128" s="2" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="129" ht="44.55" customHeight="1" spans="1:5">
+      <c r="A129" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="B129" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="C129" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="D129" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E129" s="2" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="130" ht="44.55" customHeight="1" spans="1:5">
+      <c r="A130" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="B130" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="C130" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="D130" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E130" s="2" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="131" ht="44.55" customHeight="1" spans="1:5">
+      <c r="A131" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="B131" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="C131" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="D131" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E131" s="2" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="132" ht="44.55" customHeight="1" spans="1:5">
+      <c r="A132" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="B132" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="C132" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="D132" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E132" s="2" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="133" ht="44.55" customHeight="1" spans="1:5">
+      <c r="A133" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="B133" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="C133" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="D133" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E133" s="2" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="134" ht="44.55" customHeight="1" spans="1:5">
+      <c r="A134" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="B134" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="C134" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="D134" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E134" s="2" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="135" ht="44.55" customHeight="1" spans="1:5">
+      <c r="A135" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="B135" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="C135" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="D135" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E135" s="2" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="136" ht="44.55" customHeight="1" spans="1:5">
+      <c r="A136" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="B136" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="C136" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="D136" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E136" s="2" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="137" ht="44.55" customHeight="1" spans="1:5">
+      <c r="A137" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="B137" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="C137" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="D137" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E137" s="2" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="138" ht="44.55" customHeight="1" spans="1:5">
+      <c r="A138" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="B138" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="C138" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="D138" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E138" s="2" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="139" ht="44.55" customHeight="1" spans="1:5">
+      <c r="A139" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="B139" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="C139" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="D139" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E139" s="2" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="140" ht="44.55" customHeight="1" spans="1:5">
+      <c r="A140" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="B140" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="C140" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="D140" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E140" s="2" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="141" ht="44.55" customHeight="1" spans="1:5">
+      <c r="A141" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="B141" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="C141" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="D141" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E141" s="2" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="142" ht="44.55" customHeight="1" spans="1:5">
+      <c r="A142" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="B142" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="C142" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="D142" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E142" s="2" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="143" ht="44.55" customHeight="1" spans="1:5">
+      <c r="A143" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="B143" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="C143" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="D143" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E143" s="2" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="144" ht="44.55" customHeight="1" spans="1:5">
+      <c r="A144" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="B144" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="C144" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="D144" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E144" s="2" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="145" ht="44.55" customHeight="1" spans="1:5">
+      <c r="A145" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="B145" s="2" t="s">
+        <v>312</v>
+      </c>
+      <c r="C145" s="2" t="s">
+        <v>313</v>
+      </c>
+      <c r="D145" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E145" s="2" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="146" ht="44.55" customHeight="1" spans="1:5">
+      <c r="A146" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="B146" s="2" t="s">
+        <v>316</v>
+      </c>
+      <c r="C146" s="2" t="s">
+        <v>317</v>
+      </c>
+      <c r="D146" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E146" s="2" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="147" ht="44.55" customHeight="1" spans="1:5">
+      <c r="A147" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="B147" s="2" t="s">
+        <v>320</v>
+      </c>
+      <c r="C147" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="D147" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E147" s="2" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="148" ht="44.55" customHeight="1" spans="1:5">
+      <c r="A148" s="1" t="s">
+        <v>323</v>
+      </c>
+      <c r="B148" s="2" t="s">
+        <v>324</v>
+      </c>
+      <c r="C148" s="2" t="s">
+        <v>325</v>
+      </c>
+      <c r="D148" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E148" s="2" t="s">
+        <v>326</v>
       </c>
     </row>
   </sheetData>

--- a/.ready/最新发布资源-维格视图.xlsx
+++ b/.ready/最新发布资源-维格视图.xlsx
@@ -17,7 +17,802 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="636" uniqueCount="327">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="628" uniqueCount="327">
+  <si>
+    <t>极客时间 - 分布式缓存高手课</t>
+  </si>
+  <si>
+    <t>https://www.alipan.com/s/ALx78iiTUbF</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/fb89fe68abd4</t>
+  </si>
+  <si>
+    <t>学术</t>
+  </si>
+  <si>
+    <t>极客时间 - Django 快速开发实战</t>
+  </si>
+  <si>
+    <t>https://www.alipan.com/s/vY9Ja7ebUtZ</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/0a05d28deaf7</t>
+  </si>
+  <si>
+    <t>极客时间 - 微信小程序全栈开发实战</t>
+  </si>
+  <si>
+    <t>https://www.alipan.com/s/vJXpmwGYtyL</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/0c71ff554eb7</t>
+  </si>
+  <si>
+    <t>【MBA智库】管理精进：中层管理者能力突破训练营</t>
+  </si>
+  <si>
+    <t>https://www.alipan.com/s/xQ5HVyddyHY</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/15da7cdbffc6</t>
+  </si>
+  <si>
+    <t>微淼 - 财务自由财企分析技能课</t>
+  </si>
+  <si>
+    <t>https://www.alipan.com/s/FxKfeCcgtrS</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/35a371a02b02</t>
+  </si>
+  <si>
+    <t>【MBA智库】管理启航：新任管理者成长训练营</t>
+  </si>
+  <si>
+    <t>https://www.alipan.com/s/s9LufjHAJab</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/700803645db9</t>
+  </si>
+  <si>
+    <t>极客时间 - Web安全攻防实战</t>
+  </si>
+  <si>
+    <t>https://www.alipan.com/s/c3GgkWwFBbY</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/5d9007821050</t>
+  </si>
+  <si>
+    <t>极客时间 - 玩转 webpack</t>
+  </si>
+  <si>
+    <t>https://www.alipan.com/s/6PCXnY8iKSH</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/66cf0c19a890</t>
+  </si>
+  <si>
+    <t>陆明明 - 知乎精准引流攻略2.0，适合各行业，全程实操落地演示</t>
+  </si>
+  <si>
+    <t>https://www.alipan.com/s/116334ziG2t</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/e4e2a8d6517e</t>
+  </si>
+  <si>
+    <t>【儒猿课堂】从0开始带你成为MySQL实战优化高手</t>
+  </si>
+  <si>
+    <t>https://www.alipan.com/s/sHEXx5RsWY4</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/6a62a1a5b47e</t>
+  </si>
+  <si>
+    <t>【开课吧】JavaEE企业级分布式高级架构师023期 - 带源码课件</t>
+  </si>
+  <si>
+    <t>https://www.alipan.com/s/tuPs8hpDXWo</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/75d95a43c24b</t>
+  </si>
+  <si>
+    <t>C++百万并发网络通信引擎架构与实现(服务端+客户端+跨平台)第2季 - 带源码课件</t>
+  </si>
+  <si>
+    <t>https://www.alipan.com/s/ddo9687chP3</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/8b73030136a5</t>
+  </si>
+  <si>
+    <t>汤小小账号变现课第2期，今日头条、小红书、公众号，1000粉也可以接广告变现</t>
+  </si>
+  <si>
+    <t>https://www.alipan.com/s/32zHQetbwLY</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/75bfbfacd504</t>
+  </si>
+  <si>
+    <t>李仁松 - 古妆汉服仙服零基础美妆教学课</t>
+  </si>
+  <si>
+    <t>https://www.alipan.com/s/q1X1uEo5ZRJ</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/527d74760f3b</t>
+  </si>
+  <si>
+    <t>【TK增长会】TikTok外贸工厂陪跑训练营</t>
+  </si>
+  <si>
+    <t>https://www.alipan.com/s/34DojRVWAmu</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/e1c60a640025</t>
+  </si>
+  <si>
+    <t>PS教程超级合辑【1000集2017版】 - 带源码课件</t>
+  </si>
+  <si>
+    <t>https://www.alipan.com/s/viuX3PfVywQ</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/d2874b85b55d</t>
+  </si>
+  <si>
+    <t>【开课吧】门徒计划 - Java方向</t>
+  </si>
+  <si>
+    <t>https://www.alipan.com/s/QCABx4Jt42G</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/43559d27d803</t>
+  </si>
+  <si>
+    <t>王红元 - 前端体系课-2614集 - 带源码课件</t>
+  </si>
+  <si>
+    <t>https://www.alipan.com/s/nDEn6ibekbq</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/4fa23aecaecd</t>
+  </si>
+  <si>
+    <t>【虎课网-78025】深度学习爬虫验证码识别</t>
+  </si>
+  <si>
+    <t>https://www.alipan.com/s/7GXXwboAJv8</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/a724ae6aecc8</t>
+  </si>
+  <si>
+    <t>【开课吧】门徒计划 - AI方向</t>
+  </si>
+  <si>
+    <t>https://www.alipan.com/s/MLaCvFW1bxN</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/f56e51ab4319</t>
+  </si>
+  <si>
+    <t>【深蓝学院】机器学习数学基础 - 带源码课件</t>
+  </si>
+  <si>
+    <t>https://www.alipan.com/s/AGbozELqBgG</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/bc5ee542c086</t>
+  </si>
+  <si>
+    <t>手机摄影技巧：从0到1用手机拍出酷炫短视频Vlog</t>
+  </si>
+  <si>
+    <t>https://www.alipan.com/s/bxyr9SozFNS</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/94cf785af921</t>
+  </si>
+  <si>
+    <t>英语思维：快速建立语法体系</t>
+  </si>
+  <si>
+    <t>https://www.alipan.com/s/txUKQgPAh3d</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/b9a565c6c0f0</t>
+  </si>
+  <si>
+    <t>【CCtalk】静物美食摄影课 - 17期</t>
+  </si>
+  <si>
+    <t>https://www.alipan.com/s/ymu1uyyigVS</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/31023affd886</t>
+  </si>
+  <si>
+    <t>【开课吧】门徒计划 - 算法课</t>
+  </si>
+  <si>
+    <t>https://www.alipan.com/s/SMb5q9nJUT6</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/a18f2824148c</t>
+  </si>
+  <si>
+    <t>【imooc-92】新版Scrapy打造搜索引擎 畅销4年的Python分布式爬虫课 - 带源码课件</t>
+  </si>
+  <si>
+    <t>https://www.alipan.com/s/fSsgMVtV1dD</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/b107454ccac0</t>
+  </si>
+  <si>
+    <t>声乐魔法课：让你唱出动听歌声，秒变KTV麦霸</t>
+  </si>
+  <si>
+    <t>https://www.alipan.com/s/yBaMkVWE8Y8</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/3170ab4919d4</t>
+  </si>
+  <si>
+    <t>【新东方在线】2024考研英语全程班 - 带源码课件</t>
+  </si>
+  <si>
+    <t>https://www.alipan.com/s/DBj26N6FV9Y</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/91091827c3fd</t>
+  </si>
+  <si>
+    <t>【Theone口译】英语零基础入门班</t>
+  </si>
+  <si>
+    <t>https://www.alipan.com/s/9ShxSrGTrus</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/e1d6da69de29</t>
+  </si>
+  <si>
+    <t>【思益学院】纪主任《车神陪跑：拼多多系统化课程》</t>
+  </si>
+  <si>
+    <t>https://www.alipan.com/s/9YxJkCg1WRK</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/48da8efa4a20</t>
+  </si>
+  <si>
+    <t>【开课吧】机器学习如何在企业中落地 - 带源码课件</t>
+  </si>
+  <si>
+    <t>https://www.alipan.com/s/jaqA4mfVu8L</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/adc57f97bb76</t>
+  </si>
+  <si>
+    <t>【潭州教育】配音全能班8期（全阶段） - 带源码课件</t>
+  </si>
+  <si>
+    <t>https://www.alipan.com/s/Dd59pAv6tic</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/9c6e49db7b98</t>
+  </si>
+  <si>
+    <t>诺思星 - 抖音影视混剪变现课</t>
+  </si>
+  <si>
+    <t>https://www.alipan.com/s/kc52CrqSjZ5</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/e4626fba4ff0</t>
+  </si>
+  <si>
+    <t>【NightTeam夜幕】JavaScript 逆向系列课 + 高阶课（SVIP完结） - 带源码课件</t>
+  </si>
+  <si>
+    <t>https://www.alipan.com/s/Wpfd69FubPt</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/97400ec0c32b</t>
+  </si>
+  <si>
+    <t>厦九九 - 9节小红书博主赚钱课</t>
+  </si>
+  <si>
+    <t>https://www.alipan.com/s/Nq8tfTxijYV</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/245a22bfb5dc</t>
+  </si>
+  <si>
+    <t>【达内教育】2023最新Python+人工智能就业班 - 带源码课件</t>
+  </si>
+  <si>
+    <t>https://www.alipan.com/s/xysChTt6Fhk</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/1e48256cbd2d</t>
+  </si>
+  <si>
+    <t>uniapp陪诊小程序</t>
+  </si>
+  <si>
+    <t>https://www.alipan.com/s/xht4ci3zLmk</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/6a2a2e4e78dd</t>
+  </si>
+  <si>
+    <t>小区物业管理系统</t>
+  </si>
+  <si>
+    <t>https://www.alipan.com/s/jzFck4WwrJq</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/23fe247996e9</t>
+  </si>
+  <si>
+    <t>C++游戏编程实例精讲--3D射击游戏作弊</t>
+  </si>
+  <si>
+    <t>https://www.alipan.com/s/j11kKWqW57o</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/a19a44d61ccb</t>
+  </si>
+  <si>
+    <t>深度学习项目：Django搭建CNN网络实现图像识别 - 带源码课件</t>
+  </si>
+  <si>
+    <t>https://www.alipan.com/s/vRDC5FcNmnX</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/1004a4bf020a</t>
+  </si>
+  <si>
+    <t>C C++企业级项目实战班 - 带源码课件</t>
+  </si>
+  <si>
+    <t>https://www.alipan.com/s/BHKcc31Upnh</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/1b3d8cbc57af</t>
+  </si>
+  <si>
+    <t>【尚硅谷】2022北京校区JAVA就业班 - 带源码课件</t>
+  </si>
+  <si>
+    <t>https://www.alipan.com/s/st2bvcUQPDN</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/70c52d6c31af</t>
+  </si>
+  <si>
+    <t>核聚北大学霸私藏的高效学习术</t>
+  </si>
+  <si>
+    <t>https://www.alipan.com/s/oHQuq1XauRn</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/4e4da39d6abc</t>
+  </si>
+  <si>
+    <t>【拼客学院】2019年直播面授班 《全栈网络安全专家》 43期 - 带源码课件</t>
+  </si>
+  <si>
+    <t>https://www.alipan.com/s/UFwetD1kNTQ</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/ee32f0d491e2</t>
+  </si>
+  <si>
+    <t>极简英语 - 英语能力系统提升班 - 带源码课件</t>
+  </si>
+  <si>
+    <t>https://www.alipan.com/s/vtdkUoH3N8t</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/d26a10b37b1f</t>
+  </si>
+  <si>
+    <t>基于SpringBoot+Mybatis从头搭建通用管理系统(后端篇) - 带源码课件</t>
+  </si>
+  <si>
+    <t>https://www.alipan.com/s/WDrSso9TVHF</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/e111d8997711</t>
+  </si>
+  <si>
+    <t>【粉笔】2023高照超大杯刷题营</t>
+  </si>
+  <si>
+    <t>https://www.alipan.com/s/wDqarW38FwH</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/76a5b545c41b</t>
+  </si>
+  <si>
+    <t>【新东方在线】英语零基础直达流利生活口语</t>
+  </si>
+  <si>
+    <t>https://www.alipan.com/s/929gk7zdzqg</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/a8083a220e18</t>
+  </si>
+  <si>
+    <t>【51CTO-3811】《Wireshark协议分析基础与提升》第二季 TCP IP协议栈详解(上)</t>
+  </si>
+  <si>
+    <t>https://www.alipan.com/s/hcGnaiERdSV</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/6ce384f2434b</t>
+  </si>
+  <si>
+    <t>老陈的IT杂货铺 - 嵌入式零基础到就业年班</t>
+  </si>
+  <si>
+    <t>https://www.alipan.com/s/wx4GhdUCH2J</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/c8169a3cc4e9</t>
+  </si>
+  <si>
+    <t>【尚硅谷】SpringSecurity+OAuth2.0实战精讲 - 带源码课件</t>
+  </si>
+  <si>
+    <t>https://www.alipan.com/s/v2fDjMiJ9Wf</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/564723411378</t>
+  </si>
+  <si>
+    <t>【尚硅谷】鸿蒙应用开发 - 带源码课件</t>
+  </si>
+  <si>
+    <t>https://www.alipan.com/s/f3fRYQwDnaG</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/506a2573540a</t>
+  </si>
+  <si>
+    <t>Go+Vue通用后台管理项目实战 - 带源码课件</t>
+  </si>
+  <si>
+    <t>https://www.alipan.com/s/AnU5TQnTRyk</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/90762ab029d3</t>
+  </si>
+  <si>
+    <t>极客时间 - Linux 实战技能 100 讲</t>
+  </si>
+  <si>
+    <t>https://www.alipan.com/s/Cr6vqh2QmQg</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/34743da8b7d0</t>
+  </si>
+  <si>
+    <t>极客时间- Go 语言从入门到实战</t>
+  </si>
+  <si>
+    <t>https://www.alipan.com/s/YDGijuSitMF</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/18180dd168d6</t>
+  </si>
+  <si>
+    <t>【站酷学习】教你拍好女朋友——基础人像外拍实战</t>
+  </si>
+  <si>
+    <t>https://www.alipan.com/s/ACy8i4MQwC2</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/853bc3ede4a1</t>
+  </si>
+  <si>
+    <t>极客时间 - Vue 开发实战</t>
+  </si>
+  <si>
+    <t>https://www.alipan.com/s/EoSrtf3a8CS</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/deed6b2e577d</t>
+  </si>
+  <si>
+    <t>【爱学堂】数学 1~6年级全套视频</t>
+  </si>
+  <si>
+    <t>https://www.alipan.com/s/kkyMqiQ8Hok</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/cfc21cd0895d</t>
+  </si>
+  <si>
+    <t>极客时间 - MongoDB 高手课</t>
+  </si>
+  <si>
+    <t>https://www.alipan.com/s/XQJUWK8wV4M</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/8b5ac5caa61c</t>
+  </si>
+  <si>
+    <t>极客时间 - Nginx 核心知识 150 讲</t>
+  </si>
+  <si>
+    <t>https://www.alipan.com/s/pT64ptRKngu</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/7e3252a76f16</t>
+  </si>
+  <si>
+    <t>B站 - 局座的国际战略课</t>
+  </si>
+  <si>
+    <t>https://www.alipan.com/s/45XTXgC2sj5</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/2dbaa3f052c5</t>
+  </si>
+  <si>
+    <t>B站 - 沈逸：白宫里的主角们</t>
+  </si>
+  <si>
+    <t>https://www.alipan.com/s/unxuzpDtX4S</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/d738fcac65ca</t>
+  </si>
+  <si>
+    <t>MySQL提升课程 全面讲解MySQL架构设计 - 带源码课件</t>
+  </si>
+  <si>
+    <t>https://www.alipan.com/s/Ec3whojaoFv</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/b6a4309fe412</t>
+  </si>
+  <si>
+    <t>B站 - 金灿荣教授：进击的中国外交</t>
+  </si>
+  <si>
+    <t>https://www.alipan.com/s/R9CruNgR1mu</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/8feb18cc63fa</t>
+  </si>
+  <si>
+    <t>React 实战进阶 45 讲 - 带源码课件</t>
+  </si>
+  <si>
+    <t>https://www.alipan.com/s/XXBykN4NcNQ</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/5ac7f8cb1b0b</t>
+  </si>
+  <si>
+    <t>Python高效编程技巧实战 - 带源码课件</t>
+  </si>
+  <si>
+    <t>https://www.alipan.com/s/QXfbJUKj9Ud</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/4a7376c30de4</t>
+  </si>
+  <si>
+    <t>B站 - Python小白也能听懂的入门课</t>
+  </si>
+  <si>
+    <t>https://www.alipan.com/s/cxQTsNEvAPk</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/85987c4a3b30</t>
+  </si>
+  <si>
+    <t>B站 - 马思瑞的口语私教课 - 带源码课件</t>
+  </si>
+  <si>
+    <t>https://www.alipan.com/s/T5xSLjzMkH2</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/1f62fbe4b31d</t>
+  </si>
+  <si>
+    <t>极客时间 - NLP 实战高手课</t>
+  </si>
+  <si>
+    <t>https://www.alipan.com/s/YnjiP2biTWB</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/fb0b864be752</t>
+  </si>
+  <si>
+    <t>B站 - Excel大神上分攻略 - 带源码课件</t>
+  </si>
+  <si>
+    <t>https://www.alipan.com/s/AsVG7dV7oAA</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/109e4e58061f</t>
+  </si>
+  <si>
+    <t>【MBA智库】企业高管：战略经营与核心能力研修班</t>
+  </si>
+  <si>
+    <t>https://www.alipan.com/s/SmX3dszRBBo</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/d03bb912629b</t>
+  </si>
+  <si>
+    <t>B站 - 罗翔：刑法悖论十讲</t>
+  </si>
+  <si>
+    <t>https://www.alipan.com/s/mvQjjqX8zPm</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/e13fd37bb797</t>
+  </si>
+  <si>
+    <t>B站 - C4D大作战：百万UP的光之教程</t>
+  </si>
+  <si>
+    <t>https://www.alipan.com/s/Sd39tdH6UgU</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/e5a20dcbdaa6</t>
+  </si>
+  <si>
+    <t>极客时间 - 分布式系统案例课</t>
+  </si>
+  <si>
+    <t>https://www.alipan.com/s/Lq2XS5iEpbj</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/a767e169c7dc</t>
+  </si>
+  <si>
+    <t>极客时间 - TensorFlow 2 项目进阶实战</t>
+  </si>
+  <si>
+    <t>https://www.alipan.com/s/UZpFszPpwXG</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/bfce988e0f05</t>
+  </si>
+  <si>
+    <t>B站 - 陈平的跨学科思维课</t>
+  </si>
+  <si>
+    <t>https://www.alipan.com/s/2Gy97oMbQ1F</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/dd95c80ded90</t>
+  </si>
+  <si>
+    <t>B站 - AE超能力学院 - 小莫入门到精通 - 带源码课件</t>
+  </si>
+  <si>
+    <t>https://www.alipan.com/s/kYkzNSeeXbK</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/589d26e20d1c</t>
+  </si>
+  <si>
+    <t>B站 - 张召忠-第四次工业革命</t>
+  </si>
+  <si>
+    <t>https://www.alipan.com/s/YeHsrjV8U8R</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/12f65f11d392</t>
+  </si>
+  <si>
+    <t>极客时间 - TypeScript 开发实战</t>
+  </si>
+  <si>
+    <t>https://www.alipan.com/s/NwvBk8DWZo8</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/3600b8327f1a</t>
+  </si>
+  <si>
+    <t>极客时间 - 前端全链路性能优化实战</t>
+  </si>
+  <si>
+    <t>https://www.alipan.com/s/XNTGRMNr7qZ</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/a6102e13a82c</t>
+  </si>
+  <si>
+    <t>极客时间 - 小马哥讲 Spring 核心编程思想</t>
+  </si>
+  <si>
+    <t>https://www.alipan.com/s/nSFwE8N1zYy</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/56d239336426</t>
+  </si>
+  <si>
+    <t>极客时间 - Electron 开发实战</t>
+  </si>
+  <si>
+    <t>https://www.alipan.com/s/Macot3n9d3u</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/30b6161a8b4b</t>
+  </si>
+  <si>
+    <t>微淼 - 财务自由工具操作技能课 - 带源码课件</t>
+  </si>
+  <si>
+    <t>https://www.alipan.com/s/axbBYCdEUJs</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/1c61bc326bed</t>
+  </si>
+  <si>
+    <t>B站 - 上海交大陆铭教授的经济学思维课</t>
+  </si>
+  <si>
+    <t>https://www.alipan.com/s/7TKnhbdcsjR</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/638bab4c3290</t>
+  </si>
+  <si>
+    <t>B站 - 马皑教授的社会学：人类的越轨行为研究</t>
+  </si>
+  <si>
+    <t>https://www.alipan.com/s/q6bBXPpJMRq</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/51010011e50f</t>
+  </si>
+  <si>
+    <t>【一周进步】PPT动画</t>
+  </si>
+  <si>
+    <t>https://www.alipan.com/s/nnKCiWmuWe3</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/a17390194473</t>
+  </si>
+  <si>
+    <t>B站 - Tiger谭秋娟的吉他弹唱入门课</t>
+  </si>
+  <si>
+    <t>https://www.alipan.com/s/YME2v33A2JV</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/a7c610ed3e75</t>
+  </si>
+  <si>
+    <t>B站 - 唐盾：0-N4日语精讲</t>
+  </si>
+  <si>
+    <t>https://www.alipan.com/s/NcrramRaGnU</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/659d19faaef5</t>
+  </si>
   <si>
     <t>孙志立 - 英语自然拼读100讲</t>
   </si>
@@ -28,9 +823,6 @@
     <t>https://pan.quark.cn/s/63d31a4a1ce8</t>
   </si>
   <si>
-    <t>学术</t>
-  </si>
-  <si>
     <t>微淼 - 财务报表分析技能课</t>
   </si>
   <si>
@@ -38,798 +830,6 @@
   </si>
   <si>
     <t>https://pan.quark.cn/s/6fc9d929f293</t>
-  </si>
-  <si>
-    <t>极客时间 - 分布式缓存高手课</t>
-  </si>
-  <si>
-    <t>https://www.alipan.com/s/ALx78iiTUbF</t>
-  </si>
-  <si>
-    <t>https://pan.quark.cn/s/fb89fe68abd4</t>
-  </si>
-  <si>
-    <t>极客时间 - Django 快速开发实战</t>
-  </si>
-  <si>
-    <t>https://www.alipan.com/s/vY9Ja7ebUtZ</t>
-  </si>
-  <si>
-    <t>https://pan.quark.cn/s/0a05d28deaf7</t>
-  </si>
-  <si>
-    <t>极客时间 - 微信小程序全栈开发实战</t>
-  </si>
-  <si>
-    <t>https://www.alipan.com/s/vJXpmwGYtyL</t>
-  </si>
-  <si>
-    <t>https://pan.quark.cn/s/0c71ff554eb7</t>
-  </si>
-  <si>
-    <t>【MBA智库】管理精进：中层管理者能力突破训练营</t>
-  </si>
-  <si>
-    <t>https://www.alipan.com/s/xQ5HVyddyHY</t>
-  </si>
-  <si>
-    <t>https://pan.quark.cn/s/15da7cdbffc6</t>
-  </si>
-  <si>
-    <t>微淼 - 财务自由财企分析技能课</t>
-  </si>
-  <si>
-    <t>https://www.alipan.com/s/FxKfeCcgtrS</t>
-  </si>
-  <si>
-    <t>https://pan.quark.cn/s/35a371a02b02</t>
-  </si>
-  <si>
-    <t>【MBA智库】管理启航：新任管理者成长训练营</t>
-  </si>
-  <si>
-    <t>https://www.alipan.com/s/s9LufjHAJab</t>
-  </si>
-  <si>
-    <t>https://pan.quark.cn/s/700803645db9</t>
-  </si>
-  <si>
-    <t>极客时间 - Web安全攻防实战</t>
-  </si>
-  <si>
-    <t>https://www.alipan.com/s/c3GgkWwFBbY</t>
-  </si>
-  <si>
-    <t>https://pan.quark.cn/s/5d9007821050</t>
-  </si>
-  <si>
-    <t>极客时间 - 玩转 webpack</t>
-  </si>
-  <si>
-    <t>https://www.alipan.com/s/6PCXnY8iKSH</t>
-  </si>
-  <si>
-    <t>https://pan.quark.cn/s/66cf0c19a890</t>
-  </si>
-  <si>
-    <t>陆明明 - 知乎精准引流攻略2.0，适合各行业，全程实操落地演示</t>
-  </si>
-  <si>
-    <t>https://www.alipan.com/s/116334ziG2t</t>
-  </si>
-  <si>
-    <t>https://pan.quark.cn/s/e4e2a8d6517e</t>
-  </si>
-  <si>
-    <t>【儒猿课堂】从0开始带你成为MySQL实战优化高手</t>
-  </si>
-  <si>
-    <t>https://www.alipan.com/s/sHEXx5RsWY4</t>
-  </si>
-  <si>
-    <t>https://pan.quark.cn/s/6a62a1a5b47e</t>
-  </si>
-  <si>
-    <t>【开课吧】JavaEE企业级分布式高级架构师023期 - 带源码课件</t>
-  </si>
-  <si>
-    <t>https://www.alipan.com/s/tuPs8hpDXWo</t>
-  </si>
-  <si>
-    <t>https://pan.quark.cn/s/75d95a43c24b</t>
-  </si>
-  <si>
-    <t>C++百万并发网络通信引擎架构与实现(服务端+客户端+跨平台)第2季 - 带源码课件</t>
-  </si>
-  <si>
-    <t>https://www.alipan.com/s/ddo9687chP3</t>
-  </si>
-  <si>
-    <t>https://pan.quark.cn/s/8b73030136a5</t>
-  </si>
-  <si>
-    <t>汤小小账号变现课第2期，今日头条、小红书、公众号，1000粉也可以接广告变现</t>
-  </si>
-  <si>
-    <t>https://www.alipan.com/s/32zHQetbwLY</t>
-  </si>
-  <si>
-    <t>https://pan.quark.cn/s/75bfbfacd504</t>
-  </si>
-  <si>
-    <t>李仁松 - 古妆汉服仙服零基础美妆教学课</t>
-  </si>
-  <si>
-    <t>https://www.alipan.com/s/q1X1uEo5ZRJ</t>
-  </si>
-  <si>
-    <t>https://pan.quark.cn/s/527d74760f3b</t>
-  </si>
-  <si>
-    <t>【TK增长会】TikTok外贸工厂陪跑训练营</t>
-  </si>
-  <si>
-    <t>https://www.alipan.com/s/34DojRVWAmu</t>
-  </si>
-  <si>
-    <t>https://pan.quark.cn/s/e1c60a640025</t>
-  </si>
-  <si>
-    <t>PS教程超级合辑【1000集2017版】 - 带源码课件</t>
-  </si>
-  <si>
-    <t>https://www.alipan.com/s/viuX3PfVywQ</t>
-  </si>
-  <si>
-    <t>https://pan.quark.cn/s/d2874b85b55d</t>
-  </si>
-  <si>
-    <t>【开课吧】门徒计划 - Java方向</t>
-  </si>
-  <si>
-    <t>https://www.alipan.com/s/QCABx4Jt42G</t>
-  </si>
-  <si>
-    <t>https://pan.quark.cn/s/43559d27d803</t>
-  </si>
-  <si>
-    <t>王红元 - 前端体系课-2614集 - 带源码课件</t>
-  </si>
-  <si>
-    <t>https://www.alipan.com/s/nDEn6ibekbq</t>
-  </si>
-  <si>
-    <t>https://pan.quark.cn/s/4fa23aecaecd</t>
-  </si>
-  <si>
-    <t>【虎课网-78025】深度学习爬虫验证码识别</t>
-  </si>
-  <si>
-    <t>https://www.alipan.com/s/7GXXwboAJv8</t>
-  </si>
-  <si>
-    <t>https://pan.quark.cn/s/a724ae6aecc8</t>
-  </si>
-  <si>
-    <t>【开课吧】门徒计划 - AI方向</t>
-  </si>
-  <si>
-    <t>https://www.alipan.com/s/MLaCvFW1bxN</t>
-  </si>
-  <si>
-    <t>https://pan.quark.cn/s/f56e51ab4319</t>
-  </si>
-  <si>
-    <t>【深蓝学院】机器学习数学基础 - 带源码课件</t>
-  </si>
-  <si>
-    <t>https://www.alipan.com/s/AGbozELqBgG</t>
-  </si>
-  <si>
-    <t>https://pan.quark.cn/s/bc5ee542c086</t>
-  </si>
-  <si>
-    <t>手机摄影技巧：从0到1用手机拍出酷炫短视频Vlog</t>
-  </si>
-  <si>
-    <t>https://www.alipan.com/s/bxyr9SozFNS</t>
-  </si>
-  <si>
-    <t>https://pan.quark.cn/s/94cf785af921</t>
-  </si>
-  <si>
-    <t>英语思维：快速建立语法体系</t>
-  </si>
-  <si>
-    <t>https://www.alipan.com/s/txUKQgPAh3d</t>
-  </si>
-  <si>
-    <t>https://pan.quark.cn/s/b9a565c6c0f0</t>
-  </si>
-  <si>
-    <t>【CCtalk】静物美食摄影课 - 17期</t>
-  </si>
-  <si>
-    <t>https://www.alipan.com/s/ymu1uyyigVS</t>
-  </si>
-  <si>
-    <t>https://pan.quark.cn/s/31023affd886</t>
-  </si>
-  <si>
-    <t>【开课吧】门徒计划 - 算法课</t>
-  </si>
-  <si>
-    <t>https://www.alipan.com/s/SMb5q9nJUT6</t>
-  </si>
-  <si>
-    <t>https://pan.quark.cn/s/a18f2824148c</t>
-  </si>
-  <si>
-    <t>【imooc-92】新版Scrapy打造搜索引擎 畅销4年的Python分布式爬虫课 - 带源码课件</t>
-  </si>
-  <si>
-    <t>https://www.alipan.com/s/fSsgMVtV1dD</t>
-  </si>
-  <si>
-    <t>https://pan.quark.cn/s/b107454ccac0</t>
-  </si>
-  <si>
-    <t>声乐魔法课：让你唱出动听歌声，秒变KTV麦霸</t>
-  </si>
-  <si>
-    <t>https://www.alipan.com/s/yBaMkVWE8Y8</t>
-  </si>
-  <si>
-    <t>https://pan.quark.cn/s/3170ab4919d4</t>
-  </si>
-  <si>
-    <t>【新东方在线】2024考研英语全程班 - 带源码课件</t>
-  </si>
-  <si>
-    <t>https://www.alipan.com/s/DBj26N6FV9Y</t>
-  </si>
-  <si>
-    <t>https://pan.quark.cn/s/91091827c3fd</t>
-  </si>
-  <si>
-    <t>【Theone口译】英语零基础入门班</t>
-  </si>
-  <si>
-    <t>https://www.alipan.com/s/9ShxSrGTrus</t>
-  </si>
-  <si>
-    <t>https://pan.quark.cn/s/e1d6da69de29</t>
-  </si>
-  <si>
-    <t>【思益学院】纪主任《车神陪跑：拼多多系统化课程》</t>
-  </si>
-  <si>
-    <t>https://www.alipan.com/s/9YxJkCg1WRK</t>
-  </si>
-  <si>
-    <t>https://pan.quark.cn/s/48da8efa4a20</t>
-  </si>
-  <si>
-    <t>【开课吧】机器学习如何在企业中落地 - 带源码课件</t>
-  </si>
-  <si>
-    <t>https://www.alipan.com/s/jaqA4mfVu8L</t>
-  </si>
-  <si>
-    <t>https://pan.quark.cn/s/adc57f97bb76</t>
-  </si>
-  <si>
-    <t>【潭州教育】配音全能班8期（全阶段） - 带源码课件</t>
-  </si>
-  <si>
-    <t>https://www.alipan.com/s/Dd59pAv6tic</t>
-  </si>
-  <si>
-    <t>https://pan.quark.cn/s/9c6e49db7b98</t>
-  </si>
-  <si>
-    <t>诺思星 - 抖音影视混剪变现课</t>
-  </si>
-  <si>
-    <t>https://www.alipan.com/s/kc52CrqSjZ5</t>
-  </si>
-  <si>
-    <t>https://pan.quark.cn/s/e4626fba4ff0</t>
-  </si>
-  <si>
-    <t>【NightTeam夜幕】JavaScript 逆向系列课 + 高阶课（SVIP完结） - 带源码课件</t>
-  </si>
-  <si>
-    <t>https://www.alipan.com/s/Wpfd69FubPt</t>
-  </si>
-  <si>
-    <t>https://pan.quark.cn/s/97400ec0c32b</t>
-  </si>
-  <si>
-    <t>厦九九 - 9节小红书博主赚钱课</t>
-  </si>
-  <si>
-    <t>https://www.alipan.com/s/Nq8tfTxijYV</t>
-  </si>
-  <si>
-    <t>https://pan.quark.cn/s/245a22bfb5dc</t>
-  </si>
-  <si>
-    <t>【达内教育】2023最新Python+人工智能就业班 - 带源码课件</t>
-  </si>
-  <si>
-    <t>https://www.alipan.com/s/xysChTt6Fhk</t>
-  </si>
-  <si>
-    <t>https://pan.quark.cn/s/1e48256cbd2d</t>
-  </si>
-  <si>
-    <t>uniapp陪诊小程序</t>
-  </si>
-  <si>
-    <t>https://www.alipan.com/s/xht4ci3zLmk</t>
-  </si>
-  <si>
-    <t>https://pan.quark.cn/s/6a2a2e4e78dd</t>
-  </si>
-  <si>
-    <t>小区物业管理系统</t>
-  </si>
-  <si>
-    <t>https://www.alipan.com/s/jzFck4WwrJq</t>
-  </si>
-  <si>
-    <t>https://pan.quark.cn/s/23fe247996e9</t>
-  </si>
-  <si>
-    <t>C++游戏编程实例精讲--3D射击游戏作弊</t>
-  </si>
-  <si>
-    <t>https://www.alipan.com/s/j11kKWqW57o</t>
-  </si>
-  <si>
-    <t>https://pan.quark.cn/s/a19a44d61ccb</t>
-  </si>
-  <si>
-    <t>深度学习项目：Django搭建CNN网络实现图像识别 - 带源码课件</t>
-  </si>
-  <si>
-    <t>https://www.alipan.com/s/vRDC5FcNmnX</t>
-  </si>
-  <si>
-    <t>https://pan.quark.cn/s/1004a4bf020a</t>
-  </si>
-  <si>
-    <t>C C++企业级项目实战班 - 带源码课件</t>
-  </si>
-  <si>
-    <t>https://www.alipan.com/s/BHKcc31Upnh</t>
-  </si>
-  <si>
-    <t>https://pan.quark.cn/s/1b3d8cbc57af</t>
-  </si>
-  <si>
-    <t>【尚硅谷】2022北京校区JAVA就业班 - 带源码课件</t>
-  </si>
-  <si>
-    <t>https://www.alipan.com/s/st2bvcUQPDN</t>
-  </si>
-  <si>
-    <t>https://pan.quark.cn/s/70c52d6c31af</t>
-  </si>
-  <si>
-    <t>核聚北大学霸私藏的高效学习术</t>
-  </si>
-  <si>
-    <t>https://www.alipan.com/s/oHQuq1XauRn</t>
-  </si>
-  <si>
-    <t>https://pan.quark.cn/s/4e4da39d6abc</t>
-  </si>
-  <si>
-    <t>【拼客学院】2019年直播面授班 《全栈网络安全专家》 43期 - 带源码课件</t>
-  </si>
-  <si>
-    <t>https://www.alipan.com/s/UFwetD1kNTQ</t>
-  </si>
-  <si>
-    <t>https://pan.quark.cn/s/ee32f0d491e2</t>
-  </si>
-  <si>
-    <t>极简英语 - 英语能力系统提升班 - 带源码课件</t>
-  </si>
-  <si>
-    <t>https://www.alipan.com/s/vtdkUoH3N8t</t>
-  </si>
-  <si>
-    <t>https://pan.quark.cn/s/d26a10b37b1f</t>
-  </si>
-  <si>
-    <t>基于SpringBoot+Mybatis从头搭建通用管理系统(后端篇) - 带源码课件</t>
-  </si>
-  <si>
-    <t>https://www.alipan.com/s/WDrSso9TVHF</t>
-  </si>
-  <si>
-    <t>https://pan.quark.cn/s/e111d8997711</t>
-  </si>
-  <si>
-    <t>【粉笔】2023高照超大杯刷题营</t>
-  </si>
-  <si>
-    <t>https://www.alipan.com/s/wDqarW38FwH</t>
-  </si>
-  <si>
-    <t>https://pan.quark.cn/s/76a5b545c41b</t>
-  </si>
-  <si>
-    <t>【新东方在线】英语零基础直达流利生活口语</t>
-  </si>
-  <si>
-    <t>https://www.alipan.com/s/929gk7zdzqg</t>
-  </si>
-  <si>
-    <t>https://pan.quark.cn/s/a8083a220e18</t>
-  </si>
-  <si>
-    <t>【51CTO-3811】《Wireshark协议分析基础与提升》第二季 TCP IP协议栈详解(上)</t>
-  </si>
-  <si>
-    <t>https://www.alipan.com/s/hcGnaiERdSV</t>
-  </si>
-  <si>
-    <t>https://pan.quark.cn/s/6ce384f2434b</t>
-  </si>
-  <si>
-    <t>老陈的IT杂货铺 - 嵌入式零基础到就业年班</t>
-  </si>
-  <si>
-    <t>https://www.alipan.com/s/wx4GhdUCH2J</t>
-  </si>
-  <si>
-    <t>https://pan.quark.cn/s/c8169a3cc4e9</t>
-  </si>
-  <si>
-    <t>【尚硅谷】SpringSecurity+OAuth2.0实战精讲 - 带源码课件</t>
-  </si>
-  <si>
-    <t>https://www.alipan.com/s/v2fDjMiJ9Wf</t>
-  </si>
-  <si>
-    <t>https://pan.quark.cn/s/564723411378</t>
-  </si>
-  <si>
-    <t>【尚硅谷】鸿蒙应用开发 - 带源码课件</t>
-  </si>
-  <si>
-    <t>https://www.alipan.com/s/f3fRYQwDnaG</t>
-  </si>
-  <si>
-    <t>https://pan.quark.cn/s/506a2573540a</t>
-  </si>
-  <si>
-    <t>Go+Vue通用后台管理项目实战 - 带源码课件</t>
-  </si>
-  <si>
-    <t>https://www.alipan.com/s/AnU5TQnTRyk</t>
-  </si>
-  <si>
-    <t>https://pan.quark.cn/s/90762ab029d3</t>
-  </si>
-  <si>
-    <t>极客时间 - Linux 实战技能 100 讲</t>
-  </si>
-  <si>
-    <t>https://www.alipan.com/s/Cr6vqh2QmQg</t>
-  </si>
-  <si>
-    <t>https://pan.quark.cn/s/34743da8b7d0</t>
-  </si>
-  <si>
-    <t>极客时间- Go 语言从入门到实战</t>
-  </si>
-  <si>
-    <t>https://www.alipan.com/s/YDGijuSitMF</t>
-  </si>
-  <si>
-    <t>https://pan.quark.cn/s/18180dd168d6</t>
-  </si>
-  <si>
-    <t>【站酷学习】教你拍好女朋友——基础人像外拍实战</t>
-  </si>
-  <si>
-    <t>https://www.alipan.com/s/ACy8i4MQwC2</t>
-  </si>
-  <si>
-    <t>https://pan.quark.cn/s/853bc3ede4a1</t>
-  </si>
-  <si>
-    <t>极客时间 - Vue 开发实战</t>
-  </si>
-  <si>
-    <t>https://www.alipan.com/s/EoSrtf3a8CS</t>
-  </si>
-  <si>
-    <t>https://pan.quark.cn/s/deed6b2e577d</t>
-  </si>
-  <si>
-    <t>【爱学堂】数学 1~6年级全套视频</t>
-  </si>
-  <si>
-    <t>https://www.alipan.com/s/kkyMqiQ8Hok</t>
-  </si>
-  <si>
-    <t>https://pan.quark.cn/s/cfc21cd0895d</t>
-  </si>
-  <si>
-    <t>极客时间 - MongoDB 高手课</t>
-  </si>
-  <si>
-    <t>https://www.alipan.com/s/XQJUWK8wV4M</t>
-  </si>
-  <si>
-    <t>https://pan.quark.cn/s/8b5ac5caa61c</t>
-  </si>
-  <si>
-    <t>极客时间 - Nginx 核心知识 150 讲</t>
-  </si>
-  <si>
-    <t>https://www.alipan.com/s/pT64ptRKngu</t>
-  </si>
-  <si>
-    <t>https://pan.quark.cn/s/7e3252a76f16</t>
-  </si>
-  <si>
-    <t>B站 - 局座的国际战略课</t>
-  </si>
-  <si>
-    <t>https://www.alipan.com/s/45XTXgC2sj5</t>
-  </si>
-  <si>
-    <t>https://pan.quark.cn/s/2dbaa3f052c5</t>
-  </si>
-  <si>
-    <t>B站 - 沈逸：白宫里的主角们</t>
-  </si>
-  <si>
-    <t>https://www.alipan.com/s/unxuzpDtX4S</t>
-  </si>
-  <si>
-    <t>https://pan.quark.cn/s/d738fcac65ca</t>
-  </si>
-  <si>
-    <t>MySQL提升课程 全面讲解MySQL架构设计 - 带源码课件</t>
-  </si>
-  <si>
-    <t>https://www.alipan.com/s/Ec3whojaoFv</t>
-  </si>
-  <si>
-    <t>https://pan.quark.cn/s/b6a4309fe412</t>
-  </si>
-  <si>
-    <t>B站 - 金灿荣教授：进击的中国外交</t>
-  </si>
-  <si>
-    <t>https://www.alipan.com/s/R9CruNgR1mu</t>
-  </si>
-  <si>
-    <t>https://pan.quark.cn/s/8feb18cc63fa</t>
-  </si>
-  <si>
-    <t>React 实战进阶 45 讲 - 带源码课件</t>
-  </si>
-  <si>
-    <t>https://www.alipan.com/s/XXBykN4NcNQ</t>
-  </si>
-  <si>
-    <t>https://pan.quark.cn/s/5ac7f8cb1b0b</t>
-  </si>
-  <si>
-    <t>Python高效编程技巧实战 - 带源码课件</t>
-  </si>
-  <si>
-    <t>https://www.alipan.com/s/QXfbJUKj9Ud</t>
-  </si>
-  <si>
-    <t>https://pan.quark.cn/s/4a7376c30de4</t>
-  </si>
-  <si>
-    <t>B站 - Python小白也能听懂的入门课</t>
-  </si>
-  <si>
-    <t>https://www.alipan.com/s/cxQTsNEvAPk</t>
-  </si>
-  <si>
-    <t>https://pan.quark.cn/s/85987c4a3b30</t>
-  </si>
-  <si>
-    <t>B站 - 马思瑞的口语私教课 - 带源码课件</t>
-  </si>
-  <si>
-    <t>https://www.alipan.com/s/T5xSLjzMkH2</t>
-  </si>
-  <si>
-    <t>https://pan.quark.cn/s/1f62fbe4b31d</t>
-  </si>
-  <si>
-    <t>极客时间 - NLP 实战高手课</t>
-  </si>
-  <si>
-    <t>https://www.alipan.com/s/YnjiP2biTWB</t>
-  </si>
-  <si>
-    <t>https://pan.quark.cn/s/fb0b864be752</t>
-  </si>
-  <si>
-    <t>B站 - Excel大神上分攻略 - 带源码课件</t>
-  </si>
-  <si>
-    <t>https://www.alipan.com/s/AsVG7dV7oAA</t>
-  </si>
-  <si>
-    <t>https://pan.quark.cn/s/109e4e58061f</t>
-  </si>
-  <si>
-    <t>【MBA智库】企业高管：战略经营与核心能力研修班</t>
-  </si>
-  <si>
-    <t>https://www.alipan.com/s/SmX3dszRBBo</t>
-  </si>
-  <si>
-    <t>https://pan.quark.cn/s/d03bb912629b</t>
-  </si>
-  <si>
-    <t>B站 - 罗翔：刑法悖论十讲</t>
-  </si>
-  <si>
-    <t>https://www.alipan.com/s/mvQjjqX8zPm</t>
-  </si>
-  <si>
-    <t>https://pan.quark.cn/s/e13fd37bb797</t>
-  </si>
-  <si>
-    <t>B站 - C4D大作战：百万UP的光之教程</t>
-  </si>
-  <si>
-    <t>https://www.alipan.com/s/Sd39tdH6UgU</t>
-  </si>
-  <si>
-    <t>https://pan.quark.cn/s/e5a20dcbdaa6</t>
-  </si>
-  <si>
-    <t>极客时间 - 分布式系统案例课</t>
-  </si>
-  <si>
-    <t>https://www.alipan.com/s/Lq2XS5iEpbj</t>
-  </si>
-  <si>
-    <t>https://pan.quark.cn/s/a767e169c7dc</t>
-  </si>
-  <si>
-    <t>极客时间 - TensorFlow 2 项目进阶实战</t>
-  </si>
-  <si>
-    <t>https://www.alipan.com/s/UZpFszPpwXG</t>
-  </si>
-  <si>
-    <t>https://pan.quark.cn/s/bfce988e0f05</t>
-  </si>
-  <si>
-    <t>B站 - 陈平的跨学科思维课</t>
-  </si>
-  <si>
-    <t>https://www.alipan.com/s/2Gy97oMbQ1F</t>
-  </si>
-  <si>
-    <t>https://pan.quark.cn/s/dd95c80ded90</t>
-  </si>
-  <si>
-    <t>B站 - AE超能力学院 - 小莫入门到精通 - 带源码课件</t>
-  </si>
-  <si>
-    <t>https://www.alipan.com/s/kYkzNSeeXbK</t>
-  </si>
-  <si>
-    <t>https://pan.quark.cn/s/589d26e20d1c</t>
-  </si>
-  <si>
-    <t>B站 - 张召忠-第四次工业革命</t>
-  </si>
-  <si>
-    <t>https://www.alipan.com/s/YeHsrjV8U8R</t>
-  </si>
-  <si>
-    <t>https://pan.quark.cn/s/12f65f11d392</t>
-  </si>
-  <si>
-    <t>极客时间 - TypeScript 开发实战</t>
-  </si>
-  <si>
-    <t>https://www.alipan.com/s/NwvBk8DWZo8</t>
-  </si>
-  <si>
-    <t>https://pan.quark.cn/s/3600b8327f1a</t>
-  </si>
-  <si>
-    <t>极客时间 - 前端全链路性能优化实战</t>
-  </si>
-  <si>
-    <t>https://www.alipan.com/s/XNTGRMNr7qZ</t>
-  </si>
-  <si>
-    <t>https://pan.quark.cn/s/a6102e13a82c</t>
-  </si>
-  <si>
-    <t>极客时间 - 小马哥讲 Spring 核心编程思想</t>
-  </si>
-  <si>
-    <t>https://www.alipan.com/s/nSFwE8N1zYy</t>
-  </si>
-  <si>
-    <t>https://pan.quark.cn/s/56d239336426</t>
-  </si>
-  <si>
-    <t>极客时间 - Electron 开发实战</t>
-  </si>
-  <si>
-    <t>https://www.alipan.com/s/Macot3n9d3u</t>
-  </si>
-  <si>
-    <t>https://pan.quark.cn/s/30b6161a8b4b</t>
-  </si>
-  <si>
-    <t>微淼 - 财务自由工具操作技能课 - 带源码课件</t>
-  </si>
-  <si>
-    <t>https://www.alipan.com/s/axbBYCdEUJs</t>
-  </si>
-  <si>
-    <t>https://pan.quark.cn/s/1c61bc326bed</t>
-  </si>
-  <si>
-    <t>B站 - 上海交大陆铭教授的经济学思维课</t>
-  </si>
-  <si>
-    <t>https://www.alipan.com/s/7TKnhbdcsjR</t>
-  </si>
-  <si>
-    <t>https://pan.quark.cn/s/638bab4c3290</t>
-  </si>
-  <si>
-    <t>B站 - 马皑教授的社会学：人类的越轨行为研究</t>
-  </si>
-  <si>
-    <t>https://www.alipan.com/s/q6bBXPpJMRq</t>
-  </si>
-  <si>
-    <t>https://pan.quark.cn/s/51010011e50f</t>
-  </si>
-  <si>
-    <t>【一周进步】PPT动画</t>
-  </si>
-  <si>
-    <t>https://www.alipan.com/s/nnKCiWmuWe3</t>
-  </si>
-  <si>
-    <t>https://pan.quark.cn/s/a17390194473</t>
-  </si>
-  <si>
-    <t>B站 - Tiger谭秋娟的吉他弹唱入门课</t>
-  </si>
-  <si>
-    <t>https://www.alipan.com/s/YME2v33A2JV</t>
-  </si>
-  <si>
-    <t>https://pan.quark.cn/s/a7c610ed3e75</t>
-  </si>
-  <si>
-    <t>B站 - 唐盾：0-N4日语精讲</t>
-  </si>
-  <si>
-    <t>https://www.alipan.com/s/NcrramRaGnU</t>
-  </si>
-  <si>
-    <t>https://pan.quark.cn/s/659d19faaef5</t>
   </si>
   <si>
     <t>2024/02/14 15:25</t>
@@ -2005,10 +2005,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E148"/>
+  <dimension ref="A1:E146"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="38.6666666666667" defaultRowHeight="14.4" outlineLevelCol="4"/>
@@ -2031,7 +2031,7 @@
         <v>3</v>
       </c>
       <c r="E1" s="3">
-        <v>45325.2972222222</v>
+        <v>45327.6152777778</v>
       </c>
     </row>
     <row r="2" ht="44.55" customHeight="1" spans="1:5">
@@ -2048,7 +2048,7 @@
         <v>3</v>
       </c>
       <c r="E2" s="3">
-        <v>45325.6902777778</v>
+        <v>45327.8430555556</v>
       </c>
     </row>
     <row r="3" ht="44.55" customHeight="1" spans="1:5">
@@ -2065,7 +2065,7 @@
         <v>3</v>
       </c>
       <c r="E3" s="3">
-        <v>45327.6152777778</v>
+        <v>45329.7180555556</v>
       </c>
     </row>
     <row r="4" ht="44.55" customHeight="1" spans="1:5">
@@ -2082,7 +2082,7 @@
         <v>3</v>
       </c>
       <c r="E4" s="3">
-        <v>45327.8430555556</v>
+        <v>45329.925</v>
       </c>
     </row>
     <row r="5" ht="44.55" customHeight="1" spans="1:5">
@@ -2099,7 +2099,7 @@
         <v>3</v>
       </c>
       <c r="E5" s="3">
-        <v>45329.7180555556</v>
+        <v>45329.9256944444</v>
       </c>
     </row>
     <row r="6" ht="44.55" customHeight="1" spans="1:5">
@@ -2116,7 +2116,7 @@
         <v>3</v>
       </c>
       <c r="E6" s="3">
-        <v>45329.925</v>
+        <v>45330.7006944444</v>
       </c>
     </row>
     <row r="7" ht="44.55" customHeight="1" spans="1:5">
@@ -2133,7 +2133,7 @@
         <v>3</v>
       </c>
       <c r="E7" s="3">
-        <v>45329.9256944444</v>
+        <v>45330.9159722222</v>
       </c>
     </row>
     <row r="8" ht="44.55" customHeight="1" spans="1:5">
@@ -2150,7 +2150,7 @@
         <v>3</v>
       </c>
       <c r="E8" s="3">
-        <v>45330.7006944444</v>
+        <v>45331.2847222222</v>
       </c>
     </row>
     <row r="9" ht="44.55" customHeight="1" spans="1:5">
@@ -2167,7 +2167,7 @@
         <v>3</v>
       </c>
       <c r="E9" s="3">
-        <v>45330.9159722222</v>
+        <v>45331.4104166667</v>
       </c>
     </row>
     <row r="10" ht="44.55" customHeight="1" spans="1:5">
@@ -2184,7 +2184,7 @@
         <v>3</v>
       </c>
       <c r="E10" s="3">
-        <v>45331.2847222222</v>
+        <v>45335.1034722222</v>
       </c>
     </row>
     <row r="11" ht="44.55" customHeight="1" spans="1:5">
@@ -2201,7 +2201,7 @@
         <v>3</v>
       </c>
       <c r="E11" s="3">
-        <v>45331.4104166667</v>
+        <v>45335.9486111111</v>
       </c>
     </row>
     <row r="12" ht="44.55" customHeight="1" spans="1:5">
@@ -2218,7 +2218,7 @@
         <v>3</v>
       </c>
       <c r="E12" s="3">
-        <v>45335.1034722222</v>
+        <v>45336.2743055556</v>
       </c>
     </row>
     <row r="13" ht="44.55" customHeight="1" spans="1:5">
@@ -2235,7 +2235,7 @@
         <v>3</v>
       </c>
       <c r="E13" s="3">
-        <v>45335.9486111111</v>
+        <v>45336.6423611111</v>
       </c>
     </row>
     <row r="14" ht="44.55" customHeight="1" spans="1:5">
@@ -2252,7 +2252,7 @@
         <v>3</v>
       </c>
       <c r="E14" s="3">
-        <v>45336.2743055556</v>
+        <v>45336.7152777778</v>
       </c>
     </row>
     <row r="15" ht="44.55" customHeight="1" spans="1:5">
@@ -2269,7 +2269,7 @@
         <v>3</v>
       </c>
       <c r="E15" s="3">
-        <v>45336.6423611111</v>
+        <v>45337.0013888889</v>
       </c>
     </row>
     <row r="16" ht="44.55" customHeight="1" spans="1:5">
@@ -2286,7 +2286,7 @@
         <v>3</v>
       </c>
       <c r="E16" s="3">
-        <v>45336.7152777778</v>
+        <v>45337.0986111111</v>
       </c>
     </row>
     <row r="17" ht="44.55" customHeight="1" spans="1:5">
@@ -2303,7 +2303,7 @@
         <v>3</v>
       </c>
       <c r="E17" s="3">
-        <v>45337.0013888889</v>
+        <v>45337.5659722222</v>
       </c>
     </row>
     <row r="18" ht="44.55" customHeight="1" spans="1:5">
@@ -2320,7 +2320,7 @@
         <v>3</v>
       </c>
       <c r="E18" s="3">
-        <v>45337.0986111111</v>
+        <v>45337.6361111111</v>
       </c>
     </row>
     <row r="19" ht="44.55" customHeight="1" spans="1:5">
@@ -2337,7 +2337,7 @@
         <v>3</v>
       </c>
       <c r="E19" s="3">
-        <v>45337.5659722222</v>
+        <v>45337.6868055556</v>
       </c>
     </row>
     <row r="20" ht="44.55" customHeight="1" spans="1:5">
@@ -2354,7 +2354,7 @@
         <v>3</v>
       </c>
       <c r="E20" s="3">
-        <v>45337.6361111111</v>
+        <v>45337.7270833333</v>
       </c>
     </row>
     <row r="21" ht="44.55" customHeight="1" spans="1:5">
@@ -2371,7 +2371,7 @@
         <v>3</v>
       </c>
       <c r="E21" s="3">
-        <v>45337.6868055556</v>
+        <v>45338.1347222222</v>
       </c>
     </row>
     <row r="22" ht="44.55" customHeight="1" spans="1:5">
@@ -2388,7 +2388,7 @@
         <v>3</v>
       </c>
       <c r="E22" s="3">
-        <v>45337.7270833333</v>
+        <v>45338.6118055556</v>
       </c>
     </row>
     <row r="23" ht="44.55" customHeight="1" spans="1:5">
@@ -2405,7 +2405,7 @@
         <v>3</v>
       </c>
       <c r="E23" s="3">
-        <v>45338.1347222222</v>
+        <v>45338.7381944444</v>
       </c>
     </row>
     <row r="24" ht="44.55" customHeight="1" spans="1:5">
@@ -2422,7 +2422,7 @@
         <v>3</v>
       </c>
       <c r="E24" s="3">
-        <v>45338.6118055556</v>
+        <v>45338.9402777778</v>
       </c>
     </row>
     <row r="25" ht="44.55" customHeight="1" spans="1:5">
@@ -2439,7 +2439,7 @@
         <v>3</v>
       </c>
       <c r="E25" s="3">
-        <v>45338.7381944444</v>
+        <v>45339.0388888889</v>
       </c>
     </row>
     <row r="26" ht="44.55" customHeight="1" spans="1:5">
@@ -2456,7 +2456,7 @@
         <v>3</v>
       </c>
       <c r="E26" s="3">
-        <v>45338.9402777778</v>
+        <v>45339.6833333333</v>
       </c>
     </row>
     <row r="27" ht="44.55" customHeight="1" spans="1:5">
@@ -2473,7 +2473,7 @@
         <v>3</v>
       </c>
       <c r="E27" s="3">
-        <v>45339.0388888889</v>
+        <v>45339.7270833333</v>
       </c>
     </row>
     <row r="28" ht="44.55" customHeight="1" spans="1:5">
@@ -2490,7 +2490,7 @@
         <v>3</v>
       </c>
       <c r="E28" s="3">
-        <v>45339.6833333333</v>
+        <v>45339.7506944444</v>
       </c>
     </row>
     <row r="29" ht="44.55" customHeight="1" spans="1:5">
@@ -2507,7 +2507,7 @@
         <v>3</v>
       </c>
       <c r="E29" s="3">
-        <v>45339.7270833333</v>
+        <v>45340.2708333333</v>
       </c>
     </row>
     <row r="30" ht="44.55" customHeight="1" spans="1:5">
@@ -2524,7 +2524,7 @@
         <v>3</v>
       </c>
       <c r="E30" s="3">
-        <v>45339.7506944444</v>
+        <v>45340.9756944444</v>
       </c>
     </row>
     <row r="31" ht="44.55" customHeight="1" spans="1:5">
@@ -2541,7 +2541,7 @@
         <v>3</v>
       </c>
       <c r="E31" s="3">
-        <v>45340.2708333333</v>
+        <v>45341.0875</v>
       </c>
     </row>
     <row r="32" ht="44.55" customHeight="1" spans="1:5">
@@ -2558,7 +2558,7 @@
         <v>3</v>
       </c>
       <c r="E32" s="3">
-        <v>45340.9756944444</v>
+        <v>45341.6361111111</v>
       </c>
     </row>
     <row r="33" ht="44.55" customHeight="1" spans="1:5">
@@ -2575,7 +2575,7 @@
         <v>3</v>
       </c>
       <c r="E33" s="3">
-        <v>45341.0875</v>
+        <v>45341.8798611111</v>
       </c>
     </row>
     <row r="34" ht="44.55" customHeight="1" spans="1:5">
@@ -2592,7 +2592,7 @@
         <v>3</v>
       </c>
       <c r="E34" s="3">
-        <v>45341.6361111111</v>
+        <v>45341.9111111111</v>
       </c>
     </row>
     <row r="35" ht="44.55" customHeight="1" spans="1:5">
@@ -2609,7 +2609,7 @@
         <v>3</v>
       </c>
       <c r="E35" s="3">
-        <v>45341.8798611111</v>
+        <v>45341.9673611111</v>
       </c>
     </row>
     <row r="36" ht="44.55" customHeight="1" spans="1:5">
@@ -2626,7 +2626,7 @@
         <v>3</v>
       </c>
       <c r="E36" s="3">
-        <v>45341.9111111111</v>
+        <v>45342.3590277778</v>
       </c>
     </row>
     <row r="37" ht="44.55" customHeight="1" spans="1:5">
@@ -2643,7 +2643,7 @@
         <v>3</v>
       </c>
       <c r="E37" s="3">
-        <v>45341.9673611111</v>
+        <v>45342.4097222222</v>
       </c>
     </row>
     <row r="38" ht="44.55" customHeight="1" spans="1:5">
@@ -2660,7 +2660,7 @@
         <v>3</v>
       </c>
       <c r="E38" s="3">
-        <v>45342.3590277778</v>
+        <v>45342.56875</v>
       </c>
     </row>
     <row r="39" ht="44.55" customHeight="1" spans="1:5">
@@ -2677,7 +2677,7 @@
         <v>3</v>
       </c>
       <c r="E39" s="3">
-        <v>45342.4097222222</v>
+        <v>45342.6125</v>
       </c>
     </row>
     <row r="40" ht="44.55" customHeight="1" spans="1:5">
@@ -2694,7 +2694,7 @@
         <v>3</v>
       </c>
       <c r="E40" s="3">
-        <v>45342.56875</v>
+        <v>45342.6881944444</v>
       </c>
     </row>
     <row r="41" ht="44.55" customHeight="1" spans="1:5">
@@ -2711,7 +2711,7 @@
         <v>3</v>
       </c>
       <c r="E41" s="3">
-        <v>45342.6125</v>
+        <v>45342.7319444444</v>
       </c>
     </row>
     <row r="42" ht="44.55" customHeight="1" spans="1:5">
@@ -2728,7 +2728,7 @@
         <v>3</v>
       </c>
       <c r="E42" s="3">
-        <v>45342.6881944444</v>
+        <v>45342.8715277778</v>
       </c>
     </row>
     <row r="43" ht="44.55" customHeight="1" spans="1:5">
@@ -2745,7 +2745,7 @@
         <v>3</v>
       </c>
       <c r="E43" s="3">
-        <v>45342.7319444444</v>
+        <v>45343.4652777778</v>
       </c>
     </row>
     <row r="44" ht="44.55" customHeight="1" spans="1:5">
@@ -2762,7 +2762,7 @@
         <v>3</v>
       </c>
       <c r="E44" s="3">
-        <v>45342.8715277778</v>
+        <v>45343.6076388889</v>
       </c>
     </row>
     <row r="45" ht="44.55" customHeight="1" spans="1:5">
@@ -2779,7 +2779,7 @@
         <v>3</v>
       </c>
       <c r="E45" s="3">
-        <v>45343.4652777778</v>
+        <v>45343.6402777778</v>
       </c>
     </row>
     <row r="46" ht="44.55" customHeight="1" spans="1:5">
@@ -2796,7 +2796,7 @@
         <v>3</v>
       </c>
       <c r="E46" s="3">
-        <v>45343.6076388889</v>
+        <v>45343.8423611111</v>
       </c>
     </row>
     <row r="47" ht="44.55" customHeight="1" spans="1:5">
@@ -2813,7 +2813,7 @@
         <v>3</v>
       </c>
       <c r="E47" s="3">
-        <v>45343.6402777778</v>
+        <v>45343.9027777778</v>
       </c>
     </row>
     <row r="48" ht="44.55" customHeight="1" spans="1:5">
@@ -2830,7 +2830,7 @@
         <v>3</v>
       </c>
       <c r="E48" s="3">
-        <v>45343.8423611111</v>
+        <v>45343.9486111111</v>
       </c>
     </row>
     <row r="49" ht="44.55" customHeight="1" spans="1:5">
@@ -2847,7 +2847,7 @@
         <v>3</v>
       </c>
       <c r="E49" s="3">
-        <v>45343.9027777778</v>
+        <v>45344.5444444444</v>
       </c>
     </row>
     <row r="50" ht="44.55" customHeight="1" spans="1:5">
@@ -2864,7 +2864,7 @@
         <v>3</v>
       </c>
       <c r="E50" s="3">
-        <v>45343.9486111111</v>
+        <v>45344.7493055556</v>
       </c>
     </row>
     <row r="51" ht="44.55" customHeight="1" spans="1:5">
@@ -2881,7 +2881,7 @@
         <v>3</v>
       </c>
       <c r="E51" s="3">
-        <v>45344.5444444444</v>
+        <v>45344.9458333333</v>
       </c>
     </row>
     <row r="52" ht="44.55" customHeight="1" spans="1:5">
@@ -2898,7 +2898,7 @@
         <v>3</v>
       </c>
       <c r="E52" s="3">
-        <v>45344.7493055556</v>
+        <v>45345.2076388889</v>
       </c>
     </row>
     <row r="53" ht="44.55" customHeight="1" spans="1:5">
@@ -2915,7 +2915,7 @@
         <v>3</v>
       </c>
       <c r="E53" s="3">
-        <v>45344.9458333333</v>
+        <v>45345.5243055556</v>
       </c>
     </row>
     <row r="54" ht="44.55" customHeight="1" spans="1:5">
@@ -2932,7 +2932,7 @@
         <v>3</v>
       </c>
       <c r="E54" s="3">
-        <v>45345.2076388889</v>
+        <v>45345.575</v>
       </c>
     </row>
     <row r="55" ht="44.55" customHeight="1" spans="1:5">
@@ -2949,7 +2949,7 @@
         <v>3</v>
       </c>
       <c r="E55" s="3">
-        <v>45345.5243055556</v>
+        <v>45345.8118055556</v>
       </c>
     </row>
     <row r="56" ht="44.55" customHeight="1" spans="1:5">
@@ -2966,7 +2966,7 @@
         <v>3</v>
       </c>
       <c r="E56" s="3">
-        <v>45345.575</v>
+        <v>45345.9027777778</v>
       </c>
     </row>
     <row r="57" ht="44.55" customHeight="1" spans="1:5">
@@ -2983,7 +2983,7 @@
         <v>3</v>
       </c>
       <c r="E57" s="3">
-        <v>45345.8118055556</v>
+        <v>45346.5104166667</v>
       </c>
     </row>
     <row r="58" ht="44.55" customHeight="1" spans="1:5">
@@ -3000,7 +3000,7 @@
         <v>3</v>
       </c>
       <c r="E58" s="3">
-        <v>45345.9027777778</v>
+        <v>45346.5666666667</v>
       </c>
     </row>
     <row r="59" ht="44.55" customHeight="1" spans="1:5">
@@ -3017,7 +3017,7 @@
         <v>3</v>
       </c>
       <c r="E59" s="3">
-        <v>45346.5104166667</v>
+        <v>45346.60625</v>
       </c>
     </row>
     <row r="60" ht="44.55" customHeight="1" spans="1:5">
@@ -3034,7 +3034,7 @@
         <v>3</v>
       </c>
       <c r="E60" s="3">
-        <v>45346.5666666667</v>
+        <v>45346.7145833333</v>
       </c>
     </row>
     <row r="61" ht="44.55" customHeight="1" spans="1:5">
@@ -3051,7 +3051,7 @@
         <v>3</v>
       </c>
       <c r="E61" s="3">
-        <v>45346.60625</v>
+        <v>45346.7465277778</v>
       </c>
     </row>
     <row r="62" ht="44.55" customHeight="1" spans="1:5">
@@ -3068,7 +3068,7 @@
         <v>3</v>
       </c>
       <c r="E62" s="3">
-        <v>45346.7145833333</v>
+        <v>45346.8541666667</v>
       </c>
     </row>
     <row r="63" ht="44.55" customHeight="1" spans="1:5">
@@ -3085,7 +3085,7 @@
         <v>3</v>
       </c>
       <c r="E63" s="3">
-        <v>45346.7465277778</v>
+        <v>45346.9020833333</v>
       </c>
     </row>
     <row r="64" ht="44.55" customHeight="1" spans="1:5">
@@ -3102,7 +3102,7 @@
         <v>3</v>
       </c>
       <c r="E64" s="3">
-        <v>45346.8541666667</v>
+        <v>45347.0402777778</v>
       </c>
     </row>
     <row r="65" ht="44.55" customHeight="1" spans="1:5">
@@ -3119,7 +3119,7 @@
         <v>3</v>
       </c>
       <c r="E65" s="3">
-        <v>45346.9020833333</v>
+        <v>45347.1604166667</v>
       </c>
     </row>
     <row r="66" ht="44.55" customHeight="1" spans="1:5">
@@ -3136,7 +3136,7 @@
         <v>3</v>
       </c>
       <c r="E66" s="3">
-        <v>45347.0402777778</v>
+        <v>45347.66875</v>
       </c>
     </row>
     <row r="67" ht="44.55" customHeight="1" spans="1:5">
@@ -3153,7 +3153,7 @@
         <v>3</v>
       </c>
       <c r="E67" s="3">
-        <v>45347.1604166667</v>
+        <v>45347.7326388889</v>
       </c>
     </row>
     <row r="68" ht="44.55" customHeight="1" spans="1:5">
@@ -3170,7 +3170,7 @@
         <v>3</v>
       </c>
       <c r="E68" s="3">
-        <v>45347.66875</v>
+        <v>45347.8513888889</v>
       </c>
     </row>
     <row r="69" ht="44.55" customHeight="1" spans="1:5">
@@ -3187,7 +3187,7 @@
         <v>3</v>
       </c>
       <c r="E69" s="3">
-        <v>45347.7326388889</v>
+        <v>45347.9763888889</v>
       </c>
     </row>
     <row r="70" ht="44.55" customHeight="1" spans="1:5">
@@ -3204,7 +3204,7 @@
         <v>3</v>
       </c>
       <c r="E70" s="3">
-        <v>45347.8513888889</v>
+        <v>45348.6569444444</v>
       </c>
     </row>
     <row r="71" ht="44.55" customHeight="1" spans="1:5">
@@ -3221,7 +3221,7 @@
         <v>3</v>
       </c>
       <c r="E71" s="3">
-        <v>45347.9763888889</v>
+        <v>45348.6979166667</v>
       </c>
     </row>
     <row r="72" ht="44.55" customHeight="1" spans="1:5">
@@ -3238,7 +3238,7 @@
         <v>3</v>
       </c>
       <c r="E72" s="3">
-        <v>45348.6569444444</v>
+        <v>45348.7361111111</v>
       </c>
     </row>
     <row r="73" ht="44.55" customHeight="1" spans="1:5">
@@ -3255,7 +3255,7 @@
         <v>3</v>
       </c>
       <c r="E73" s="3">
-        <v>45348.6979166667</v>
+        <v>45348.8020833333</v>
       </c>
     </row>
     <row r="74" ht="44.55" customHeight="1" spans="1:5">
@@ -3272,7 +3272,7 @@
         <v>3</v>
       </c>
       <c r="E74" s="3">
-        <v>45348.7361111111</v>
+        <v>45348.8368055556</v>
       </c>
     </row>
     <row r="75" ht="44.55" customHeight="1" spans="1:5">
@@ -3289,7 +3289,7 @@
         <v>3</v>
       </c>
       <c r="E75" s="3">
-        <v>45348.8020833333</v>
+        <v>45348.8694444444</v>
       </c>
     </row>
     <row r="76" ht="44.55" customHeight="1" spans="1:5">
@@ -3306,7 +3306,7 @@
         <v>3</v>
       </c>
       <c r="E76" s="3">
-        <v>45348.8368055556</v>
+        <v>45348.9208333333</v>
       </c>
     </row>
     <row r="77" ht="44.55" customHeight="1" spans="1:5">
@@ -3323,7 +3323,7 @@
         <v>3</v>
       </c>
       <c r="E77" s="3">
-        <v>45348.8694444444</v>
+        <v>45348.9791666667</v>
       </c>
     </row>
     <row r="78" ht="44.55" customHeight="1" spans="1:5">
@@ -3340,7 +3340,7 @@
         <v>3</v>
       </c>
       <c r="E78" s="3">
-        <v>45348.9208333333</v>
+        <v>45349.1326388889</v>
       </c>
     </row>
     <row r="79" ht="44.55" customHeight="1" spans="1:5">
@@ -3357,7 +3357,7 @@
         <v>3</v>
       </c>
       <c r="E79" s="3">
-        <v>45348.9791666667</v>
+        <v>45349.5263888889</v>
       </c>
     </row>
     <row r="80" ht="44.55" customHeight="1" spans="1:5">
@@ -3374,7 +3374,7 @@
         <v>3</v>
       </c>
       <c r="E80" s="3">
-        <v>45349.1326388889</v>
+        <v>45349.5534722222</v>
       </c>
     </row>
     <row r="81" ht="44.55" customHeight="1" spans="1:5">
@@ -3391,7 +3391,7 @@
         <v>3</v>
       </c>
       <c r="E81" s="3">
-        <v>45349.5263888889</v>
+        <v>45349.6638888889</v>
       </c>
     </row>
     <row r="82" ht="44.55" customHeight="1" spans="1:5">
@@ -3408,7 +3408,7 @@
         <v>3</v>
       </c>
       <c r="E82" s="3">
-        <v>45349.5534722222</v>
+        <v>45349.7118055556</v>
       </c>
     </row>
     <row r="83" ht="44.55" customHeight="1" spans="1:5">
@@ -3425,7 +3425,7 @@
         <v>3</v>
       </c>
       <c r="E83" s="3">
-        <v>45349.6638888889</v>
+        <v>45349.7486111111</v>
       </c>
     </row>
     <row r="84" ht="44.55" customHeight="1" spans="1:5">
@@ -3442,7 +3442,7 @@
         <v>3</v>
       </c>
       <c r="E84" s="3">
-        <v>45349.7118055556</v>
+        <v>45349.8520833333</v>
       </c>
     </row>
     <row r="85" ht="44.55" customHeight="1" spans="1:5">
@@ -3459,7 +3459,7 @@
         <v>3</v>
       </c>
       <c r="E85" s="3">
-        <v>45349.7486111111</v>
+        <v>45349.9270833333</v>
       </c>
     </row>
     <row r="86" ht="44.55" customHeight="1" spans="1:5">
@@ -3476,7 +3476,7 @@
         <v>3</v>
       </c>
       <c r="E86" s="3">
-        <v>45349.8520833333</v>
+        <v>45350.0111111111</v>
       </c>
     </row>
     <row r="87" ht="44.55" customHeight="1" spans="1:5">
@@ -3493,7 +3493,7 @@
         <v>3</v>
       </c>
       <c r="E87" s="3">
-        <v>45349.9270833333</v>
+        <v>45350.09375</v>
       </c>
     </row>
     <row r="88" ht="44.55" customHeight="1" spans="1:5">
@@ -3510,7 +3510,7 @@
         <v>3</v>
       </c>
       <c r="E88" s="3">
-        <v>45350.0111111111</v>
+        <v>45350.2944444444</v>
       </c>
     </row>
     <row r="89" ht="44.55" customHeight="1" spans="1:5">
@@ -3527,7 +3527,7 @@
         <v>3</v>
       </c>
       <c r="E89" s="3">
-        <v>45350.09375</v>
+        <v>45350.64375</v>
       </c>
     </row>
     <row r="90" ht="44.55" customHeight="1" spans="1:5">
@@ -3544,7 +3544,7 @@
         <v>3</v>
       </c>
       <c r="E90" s="3">
-        <v>45350.2944444444</v>
+        <v>45350.7270833333</v>
       </c>
     </row>
     <row r="91" ht="44.55" customHeight="1" spans="1:5">
@@ -3561,7 +3561,7 @@
         <v>3</v>
       </c>
       <c r="E91" s="3">
-        <v>45350.64375</v>
+        <v>45350.8736111111</v>
       </c>
     </row>
     <row r="92" ht="44.55" customHeight="1" spans="1:5">
@@ -3578,7 +3578,7 @@
         <v>3</v>
       </c>
       <c r="E92" s="3">
-        <v>45350.7270833333</v>
+        <v>45350.9097222222</v>
       </c>
     </row>
     <row r="93" ht="44.55" customHeight="1" spans="1:5">
@@ -3595,7 +3595,7 @@
         <v>3</v>
       </c>
       <c r="E93" s="3">
-        <v>45350.8736111111</v>
+        <v>45350.9701388889</v>
       </c>
     </row>
     <row r="94" ht="44.55" customHeight="1" spans="1:5">
@@ -3612,7 +3612,7 @@
         <v>3</v>
       </c>
       <c r="E94" s="3">
-        <v>45350.9097222222</v>
+        <v>45351.0229166667</v>
       </c>
     </row>
     <row r="95" ht="44.55" customHeight="1" spans="1:5">
@@ -3629,7 +3629,7 @@
         <v>3</v>
       </c>
       <c r="E95" s="3">
-        <v>45350.9701388889</v>
+        <v>45351.0986111111</v>
       </c>
     </row>
     <row r="96" ht="44.55" customHeight="1" spans="1:5">
@@ -3646,7 +3646,7 @@
         <v>3</v>
       </c>
       <c r="E96" s="3">
-        <v>45351.0229166667</v>
+        <v>45351.5527777778</v>
       </c>
     </row>
     <row r="97" ht="44.55" customHeight="1" spans="1:5">
@@ -3663,7 +3663,7 @@
         <v>3</v>
       </c>
       <c r="E97" s="3">
-        <v>45351.0986111111</v>
+        <v>45351.6131944444</v>
       </c>
     </row>
     <row r="98" ht="44.55" customHeight="1" spans="1:5">
@@ -3680,7 +3680,7 @@
         <v>3</v>
       </c>
       <c r="E98" s="3">
-        <v>45351.5527777778</v>
+        <v>45351.6604166667</v>
       </c>
     </row>
     <row r="99" ht="44.55" customHeight="1" spans="1:5">
@@ -3697,7 +3697,7 @@
         <v>3</v>
       </c>
       <c r="E99" s="3">
-        <v>45351.6131944444</v>
+        <v>45351.7076388889</v>
       </c>
     </row>
     <row r="100" ht="44.55" customHeight="1" spans="1:5">
@@ -3714,7 +3714,7 @@
         <v>3</v>
       </c>
       <c r="E100" s="3">
-        <v>45351.6604166667</v>
+        <v>45351.8291666667</v>
       </c>
     </row>
     <row r="101" ht="44.55" customHeight="1" spans="1:5">
@@ -3731,7 +3731,7 @@
         <v>3</v>
       </c>
       <c r="E101" s="3">
-        <v>45351.7076388889</v>
+        <v>45351.8645833333</v>
       </c>
     </row>
     <row r="102" ht="44.55" customHeight="1" spans="1:5">
@@ -3748,7 +3748,7 @@
         <v>3</v>
       </c>
       <c r="E102" s="3">
-        <v>45351.8291666667</v>
+        <v>45351.95</v>
       </c>
     </row>
     <row r="103" ht="44.55" customHeight="1" spans="1:5">
@@ -3764,8 +3764,8 @@
       <c r="D103" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E103" s="3">
-        <v>45351.8645833333</v>
+      <c r="E103" s="2" t="s">
+        <v>271</v>
       </c>
     </row>
     <row r="104" ht="44.55" customHeight="1" spans="1:5">
@@ -3781,8 +3781,8 @@
       <c r="D104" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E104" s="3">
-        <v>45351.95</v>
+      <c r="E104" s="2" t="s">
+        <v>272</v>
       </c>
     </row>
     <row r="105" ht="44.55" customHeight="1" spans="1:5">
@@ -3799,7 +3799,7 @@
         <v>3</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
     </row>
     <row r="106" ht="44.55" customHeight="1" spans="1:5">
@@ -3816,7 +3816,7 @@
         <v>3</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
     </row>
     <row r="107" ht="44.55" customHeight="1" spans="1:5">
@@ -3833,7 +3833,7 @@
         <v>3</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
     </row>
     <row r="108" ht="44.55" customHeight="1" spans="1:5">
@@ -3850,7 +3850,7 @@
         <v>3</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
     </row>
     <row r="109" ht="44.55" customHeight="1" spans="1:5">
@@ -3867,7 +3867,7 @@
         <v>3</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
     </row>
     <row r="110" ht="44.55" customHeight="1" spans="1:5">
@@ -3884,7 +3884,7 @@
         <v>3</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
     </row>
     <row r="111" ht="44.55" customHeight="1" spans="1:5">
@@ -3901,7 +3901,7 @@
         <v>3</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
     </row>
     <row r="112" ht="44.55" customHeight="1" spans="1:5">
@@ -3918,7 +3918,7 @@
         <v>3</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
     </row>
     <row r="113" ht="44.55" customHeight="1" spans="1:5">
@@ -3935,41 +3935,41 @@
         <v>3</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
     </row>
     <row r="114" ht="44.55" customHeight="1" spans="1:5">
       <c r="A114" s="1" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="C114" s="2" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="D114" s="2" t="s">
         <v>3</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
     </row>
     <row r="115" ht="44.55" customHeight="1" spans="1:5">
       <c r="A115" s="1" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="C115" s="2" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="D115" s="2" t="s">
         <v>3</v>
       </c>
       <c r="E115" s="2" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
     </row>
     <row r="116" ht="44.55" customHeight="1" spans="1:5">
@@ -3986,7 +3986,7 @@
         <v>3</v>
       </c>
       <c r="E116" s="2" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
     </row>
     <row r="117" ht="44.55" customHeight="1" spans="1:5">
@@ -4003,7 +4003,7 @@
         <v>3</v>
       </c>
       <c r="E117" s="2" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
     </row>
     <row r="118" ht="44.55" customHeight="1" spans="1:5">
@@ -4020,7 +4020,7 @@
         <v>3</v>
       </c>
       <c r="E118" s="2" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
     </row>
     <row r="119" ht="44.55" customHeight="1" spans="1:5">
@@ -4037,7 +4037,7 @@
         <v>3</v>
       </c>
       <c r="E119" s="2" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
     </row>
     <row r="120" ht="44.55" customHeight="1" spans="1:5">
@@ -4054,7 +4054,7 @@
         <v>3</v>
       </c>
       <c r="E120" s="2" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
     </row>
     <row r="121" ht="44.55" customHeight="1" spans="1:5">
@@ -4071,7 +4071,7 @@
         <v>3</v>
       </c>
       <c r="E121" s="2" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
     </row>
     <row r="122" ht="44.55" customHeight="1" spans="1:5">
@@ -4088,7 +4088,7 @@
         <v>3</v>
       </c>
       <c r="E122" s="2" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
     </row>
     <row r="123" ht="44.55" customHeight="1" spans="1:5">
@@ -4105,7 +4105,7 @@
         <v>3</v>
       </c>
       <c r="E123" s="2" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
     </row>
     <row r="124" ht="44.55" customHeight="1" spans="1:5">
@@ -4122,7 +4122,7 @@
         <v>3</v>
       </c>
       <c r="E124" s="2" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
     </row>
     <row r="125" ht="44.55" customHeight="1" spans="1:5">
@@ -4139,7 +4139,7 @@
         <v>3</v>
       </c>
       <c r="E125" s="2" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
     </row>
     <row r="126" ht="44.55" customHeight="1" spans="1:5">
@@ -4156,7 +4156,7 @@
         <v>3</v>
       </c>
       <c r="E126" s="2" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
     </row>
     <row r="127" ht="44.55" customHeight="1" spans="1:5">
@@ -4173,7 +4173,7 @@
         <v>3</v>
       </c>
       <c r="E127" s="2" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
     </row>
     <row r="128" ht="44.55" customHeight="1" spans="1:5">
@@ -4190,7 +4190,7 @@
         <v>3</v>
       </c>
       <c r="E128" s="2" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
     </row>
     <row r="129" ht="44.55" customHeight="1" spans="1:5">
@@ -4207,7 +4207,7 @@
         <v>3</v>
       </c>
       <c r="E129" s="2" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
     </row>
     <row r="130" ht="44.55" customHeight="1" spans="1:5">
@@ -4224,7 +4224,7 @@
         <v>3</v>
       </c>
       <c r="E130" s="2" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
     </row>
     <row r="131" ht="44.55" customHeight="1" spans="1:5">
@@ -4241,7 +4241,7 @@
         <v>3</v>
       </c>
       <c r="E131" s="2" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
     </row>
     <row r="132" ht="44.55" customHeight="1" spans="1:5">
@@ -4258,7 +4258,7 @@
         <v>3</v>
       </c>
       <c r="E132" s="2" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
     </row>
     <row r="133" ht="44.55" customHeight="1" spans="1:5">
@@ -4275,7 +4275,7 @@
         <v>3</v>
       </c>
       <c r="E133" s="2" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
     </row>
     <row r="134" ht="44.55" customHeight="1" spans="1:5">
@@ -4292,7 +4292,7 @@
         <v>3</v>
       </c>
       <c r="E134" s="2" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
     </row>
     <row r="135" ht="44.55" customHeight="1" spans="1:5">
@@ -4309,7 +4309,7 @@
         <v>3</v>
       </c>
       <c r="E135" s="2" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
     </row>
     <row r="136" ht="44.55" customHeight="1" spans="1:5">
@@ -4326,7 +4326,7 @@
         <v>3</v>
       </c>
       <c r="E136" s="2" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
     </row>
     <row r="137" ht="44.55" customHeight="1" spans="1:5">
@@ -4343,7 +4343,7 @@
         <v>3</v>
       </c>
       <c r="E137" s="2" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
     </row>
     <row r="138" ht="44.55" customHeight="1" spans="1:5">
@@ -4360,7 +4360,7 @@
         <v>3</v>
       </c>
       <c r="E138" s="2" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
     </row>
     <row r="139" ht="44.55" customHeight="1" spans="1:5">
@@ -4377,7 +4377,7 @@
         <v>3</v>
       </c>
       <c r="E139" s="2" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
     </row>
     <row r="140" ht="44.55" customHeight="1" spans="1:5">
@@ -4394,7 +4394,7 @@
         <v>3</v>
       </c>
       <c r="E140" s="2" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
     </row>
     <row r="141" ht="44.55" customHeight="1" spans="1:5">
@@ -4411,7 +4411,7 @@
         <v>3</v>
       </c>
       <c r="E141" s="2" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
     </row>
     <row r="142" ht="44.55" customHeight="1" spans="1:5">
@@ -4428,108 +4428,74 @@
         <v>3</v>
       </c>
       <c r="E142" s="2" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
     </row>
     <row r="143" ht="44.55" customHeight="1" spans="1:5">
       <c r="A143" s="1" t="s">
-        <v>160</v>
+        <v>311</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>161</v>
+        <v>312</v>
       </c>
       <c r="C143" s="2" t="s">
-        <v>162</v>
+        <v>313</v>
       </c>
       <c r="D143" s="2" t="s">
         <v>3</v>
       </c>
       <c r="E143" s="2" t="s">
-        <v>309</v>
+        <v>314</v>
       </c>
     </row>
     <row r="144" ht="44.55" customHeight="1" spans="1:5">
       <c r="A144" s="1" t="s">
-        <v>163</v>
+        <v>315</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>164</v>
+        <v>316</v>
       </c>
       <c r="C144" s="2" t="s">
-        <v>165</v>
+        <v>317</v>
       </c>
       <c r="D144" s="2" t="s">
         <v>3</v>
       </c>
       <c r="E144" s="2" t="s">
-        <v>310</v>
+        <v>318</v>
       </c>
     </row>
     <row r="145" ht="44.55" customHeight="1" spans="1:5">
       <c r="A145" s="1" t="s">
-        <v>311</v>
+        <v>319</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>312</v>
+        <v>320</v>
       </c>
       <c r="C145" s="2" t="s">
-        <v>313</v>
+        <v>321</v>
       </c>
       <c r="D145" s="2" t="s">
         <v>3</v>
       </c>
       <c r="E145" s="2" t="s">
-        <v>314</v>
+        <v>322</v>
       </c>
     </row>
     <row r="146" ht="44.55" customHeight="1" spans="1:5">
       <c r="A146" s="1" t="s">
-        <v>315</v>
+        <v>323</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>316</v>
+        <v>324</v>
       </c>
       <c r="C146" s="2" t="s">
-        <v>317</v>
+        <v>325</v>
       </c>
       <c r="D146" s="2" t="s">
         <v>3</v>
       </c>
       <c r="E146" s="2" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="147" ht="44.55" customHeight="1" spans="1:5">
-      <c r="A147" s="1" t="s">
-        <v>319</v>
-      </c>
-      <c r="B147" s="2" t="s">
-        <v>320</v>
-      </c>
-      <c r="C147" s="2" t="s">
-        <v>321</v>
-      </c>
-      <c r="D147" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E147" s="2" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="148" ht="44.55" customHeight="1" spans="1:5">
-      <c r="A148" s="1" t="s">
-        <v>323</v>
-      </c>
-      <c r="B148" s="2" t="s">
-        <v>324</v>
-      </c>
-      <c r="C148" s="2" t="s">
-        <v>325</v>
-      </c>
-      <c r="D148" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E148" s="2" t="s">
         <v>326</v>
       </c>
     </row>

--- a/.ready/最新发布资源-维格视图.xlsx
+++ b/.ready/最新发布资源-维格视图.xlsx
@@ -17,7 +17,784 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="628" uniqueCount="327">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="612" uniqueCount="327">
+  <si>
+    <t>微淼 - 财务自由财企分析技能课</t>
+  </si>
+  <si>
+    <t>https://www.alipan.com/s/FxKfeCcgtrS</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/35a371a02b02</t>
+  </si>
+  <si>
+    <t>学术</t>
+  </si>
+  <si>
+    <t>【MBA智库】管理启航：新任管理者成长训练营</t>
+  </si>
+  <si>
+    <t>https://www.alipan.com/s/s9LufjHAJab</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/700803645db9</t>
+  </si>
+  <si>
+    <t>极客时间 - Web安全攻防实战</t>
+  </si>
+  <si>
+    <t>https://www.alipan.com/s/c3GgkWwFBbY</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/5d9007821050</t>
+  </si>
+  <si>
+    <t>极客时间 - 玩转 webpack</t>
+  </si>
+  <si>
+    <t>https://www.alipan.com/s/6PCXnY8iKSH</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/66cf0c19a890</t>
+  </si>
+  <si>
+    <t>陆明明 - 知乎精准引流攻略2.0，适合各行业，全程实操落地演示</t>
+  </si>
+  <si>
+    <t>https://www.alipan.com/s/116334ziG2t</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/e4e2a8d6517e</t>
+  </si>
+  <si>
+    <t>【儒猿课堂】从0开始带你成为MySQL实战优化高手</t>
+  </si>
+  <si>
+    <t>https://www.alipan.com/s/sHEXx5RsWY4</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/6a62a1a5b47e</t>
+  </si>
+  <si>
+    <t>【开课吧】JavaEE企业级分布式高级架构师023期 - 带源码课件</t>
+  </si>
+  <si>
+    <t>https://www.alipan.com/s/tuPs8hpDXWo</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/75d95a43c24b</t>
+  </si>
+  <si>
+    <t>C++百万并发网络通信引擎架构与实现(服务端+客户端+跨平台)第2季 - 带源码课件</t>
+  </si>
+  <si>
+    <t>https://www.alipan.com/s/ddo9687chP3</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/8b73030136a5</t>
+  </si>
+  <si>
+    <t>汤小小账号变现课第2期，今日头条、小红书、公众号，1000粉也可以接广告变现</t>
+  </si>
+  <si>
+    <t>https://www.alipan.com/s/32zHQetbwLY</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/75bfbfacd504</t>
+  </si>
+  <si>
+    <t>李仁松 - 古妆汉服仙服零基础美妆教学课</t>
+  </si>
+  <si>
+    <t>https://www.alipan.com/s/q1X1uEo5ZRJ</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/527d74760f3b</t>
+  </si>
+  <si>
+    <t>【TK增长会】TikTok外贸工厂陪跑训练营</t>
+  </si>
+  <si>
+    <t>https://www.alipan.com/s/34DojRVWAmu</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/e1c60a640025</t>
+  </si>
+  <si>
+    <t>PS教程超级合辑【1000集2017版】 - 带源码课件</t>
+  </si>
+  <si>
+    <t>https://www.alipan.com/s/viuX3PfVywQ</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/d2874b85b55d</t>
+  </si>
+  <si>
+    <t>【开课吧】门徒计划 - Java方向</t>
+  </si>
+  <si>
+    <t>https://www.alipan.com/s/QCABx4Jt42G</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/43559d27d803</t>
+  </si>
+  <si>
+    <t>王红元 - 前端体系课-2614集 - 带源码课件</t>
+  </si>
+  <si>
+    <t>https://www.alipan.com/s/nDEn6ibekbq</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/4fa23aecaecd</t>
+  </si>
+  <si>
+    <t>【虎课网-78025】深度学习爬虫验证码识别</t>
+  </si>
+  <si>
+    <t>https://www.alipan.com/s/7GXXwboAJv8</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/a724ae6aecc8</t>
+  </si>
+  <si>
+    <t>【开课吧】门徒计划 - AI方向</t>
+  </si>
+  <si>
+    <t>https://www.alipan.com/s/MLaCvFW1bxN</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/f56e51ab4319</t>
+  </si>
+  <si>
+    <t>【深蓝学院】机器学习数学基础 - 带源码课件</t>
+  </si>
+  <si>
+    <t>https://www.alipan.com/s/AGbozELqBgG</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/bc5ee542c086</t>
+  </si>
+  <si>
+    <t>手机摄影技巧：从0到1用手机拍出酷炫短视频Vlog</t>
+  </si>
+  <si>
+    <t>https://www.alipan.com/s/bxyr9SozFNS</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/94cf785af921</t>
+  </si>
+  <si>
+    <t>英语思维：快速建立语法体系</t>
+  </si>
+  <si>
+    <t>https://www.alipan.com/s/txUKQgPAh3d</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/b9a565c6c0f0</t>
+  </si>
+  <si>
+    <t>【CCtalk】静物美食摄影课 - 17期</t>
+  </si>
+  <si>
+    <t>https://www.alipan.com/s/ymu1uyyigVS</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/31023affd886</t>
+  </si>
+  <si>
+    <t>【开课吧】门徒计划 - 算法课</t>
+  </si>
+  <si>
+    <t>https://www.alipan.com/s/SMb5q9nJUT6</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/a18f2824148c</t>
+  </si>
+  <si>
+    <t>【imooc-92】新版Scrapy打造搜索引擎 畅销4年的Python分布式爬虫课 - 带源码课件</t>
+  </si>
+  <si>
+    <t>https://www.alipan.com/s/fSsgMVtV1dD</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/b107454ccac0</t>
+  </si>
+  <si>
+    <t>声乐魔法课：让你唱出动听歌声，秒变KTV麦霸</t>
+  </si>
+  <si>
+    <t>https://www.alipan.com/s/yBaMkVWE8Y8</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/3170ab4919d4</t>
+  </si>
+  <si>
+    <t>【新东方在线】2024考研英语全程班 - 带源码课件</t>
+  </si>
+  <si>
+    <t>https://www.alipan.com/s/DBj26N6FV9Y</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/91091827c3fd</t>
+  </si>
+  <si>
+    <t>【Theone口译】英语零基础入门班</t>
+  </si>
+  <si>
+    <t>https://www.alipan.com/s/9ShxSrGTrus</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/e1d6da69de29</t>
+  </si>
+  <si>
+    <t>【思益学院】纪主任《车神陪跑：拼多多系统化课程》</t>
+  </si>
+  <si>
+    <t>https://www.alipan.com/s/9YxJkCg1WRK</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/48da8efa4a20</t>
+  </si>
+  <si>
+    <t>【开课吧】机器学习如何在企业中落地 - 带源码课件</t>
+  </si>
+  <si>
+    <t>https://www.alipan.com/s/jaqA4mfVu8L</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/adc57f97bb76</t>
+  </si>
+  <si>
+    <t>【潭州教育】配音全能班8期（全阶段） - 带源码课件</t>
+  </si>
+  <si>
+    <t>https://www.alipan.com/s/Dd59pAv6tic</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/9c6e49db7b98</t>
+  </si>
+  <si>
+    <t>诺思星 - 抖音影视混剪变现课</t>
+  </si>
+  <si>
+    <t>https://www.alipan.com/s/kc52CrqSjZ5</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/e4626fba4ff0</t>
+  </si>
+  <si>
+    <t>【NightTeam夜幕】JavaScript 逆向系列课 + 高阶课（SVIP完结） - 带源码课件</t>
+  </si>
+  <si>
+    <t>https://www.alipan.com/s/Wpfd69FubPt</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/97400ec0c32b</t>
+  </si>
+  <si>
+    <t>厦九九 - 9节小红书博主赚钱课</t>
+  </si>
+  <si>
+    <t>https://www.alipan.com/s/Nq8tfTxijYV</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/245a22bfb5dc</t>
+  </si>
+  <si>
+    <t>【达内教育】2023最新Python+人工智能就业班 - 带源码课件</t>
+  </si>
+  <si>
+    <t>https://www.alipan.com/s/xysChTt6Fhk</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/1e48256cbd2d</t>
+  </si>
+  <si>
+    <t>uniapp陪诊小程序</t>
+  </si>
+  <si>
+    <t>https://www.alipan.com/s/xht4ci3zLmk</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/6a2a2e4e78dd</t>
+  </si>
+  <si>
+    <t>小区物业管理系统</t>
+  </si>
+  <si>
+    <t>https://www.alipan.com/s/jzFck4WwrJq</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/23fe247996e9</t>
+  </si>
+  <si>
+    <t>C++游戏编程实例精讲--3D射击游戏作弊</t>
+  </si>
+  <si>
+    <t>https://www.alipan.com/s/j11kKWqW57o</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/a19a44d61ccb</t>
+  </si>
+  <si>
+    <t>深度学习项目：Django搭建CNN网络实现图像识别 - 带源码课件</t>
+  </si>
+  <si>
+    <t>https://www.alipan.com/s/vRDC5FcNmnX</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/1004a4bf020a</t>
+  </si>
+  <si>
+    <t>C C++企业级项目实战班 - 带源码课件</t>
+  </si>
+  <si>
+    <t>https://www.alipan.com/s/BHKcc31Upnh</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/1b3d8cbc57af</t>
+  </si>
+  <si>
+    <t>【尚硅谷】2022北京校区JAVA就业班 - 带源码课件</t>
+  </si>
+  <si>
+    <t>https://www.alipan.com/s/st2bvcUQPDN</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/70c52d6c31af</t>
+  </si>
+  <si>
+    <t>核聚北大学霸私藏的高效学习术</t>
+  </si>
+  <si>
+    <t>https://www.alipan.com/s/oHQuq1XauRn</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/4e4da39d6abc</t>
+  </si>
+  <si>
+    <t>【拼客学院】2019年直播面授班 《全栈网络安全专家》 43期 - 带源码课件</t>
+  </si>
+  <si>
+    <t>https://www.alipan.com/s/UFwetD1kNTQ</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/ee32f0d491e2</t>
+  </si>
+  <si>
+    <t>极简英语 - 英语能力系统提升班 - 带源码课件</t>
+  </si>
+  <si>
+    <t>https://www.alipan.com/s/vtdkUoH3N8t</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/d26a10b37b1f</t>
+  </si>
+  <si>
+    <t>基于SpringBoot+Mybatis从头搭建通用管理系统(后端篇) - 带源码课件</t>
+  </si>
+  <si>
+    <t>https://www.alipan.com/s/WDrSso9TVHF</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/e111d8997711</t>
+  </si>
+  <si>
+    <t>【粉笔】2023高照超大杯刷题营</t>
+  </si>
+  <si>
+    <t>https://www.alipan.com/s/wDqarW38FwH</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/76a5b545c41b</t>
+  </si>
+  <si>
+    <t>【新东方在线】英语零基础直达流利生活口语</t>
+  </si>
+  <si>
+    <t>https://www.alipan.com/s/929gk7zdzqg</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/a8083a220e18</t>
+  </si>
+  <si>
+    <t>【51CTO-3811】《Wireshark协议分析基础与提升》第二季 TCP IP协议栈详解(上)</t>
+  </si>
+  <si>
+    <t>https://www.alipan.com/s/hcGnaiERdSV</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/6ce384f2434b</t>
+  </si>
+  <si>
+    <t>老陈的IT杂货铺 - 嵌入式零基础到就业年班</t>
+  </si>
+  <si>
+    <t>https://www.alipan.com/s/wx4GhdUCH2J</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/c8169a3cc4e9</t>
+  </si>
+  <si>
+    <t>【尚硅谷】SpringSecurity+OAuth2.0实战精讲 - 带源码课件</t>
+  </si>
+  <si>
+    <t>https://www.alipan.com/s/v2fDjMiJ9Wf</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/564723411378</t>
+  </si>
+  <si>
+    <t>【尚硅谷】鸿蒙应用开发 - 带源码课件</t>
+  </si>
+  <si>
+    <t>https://www.alipan.com/s/f3fRYQwDnaG</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/506a2573540a</t>
+  </si>
+  <si>
+    <t>Go+Vue通用后台管理项目实战 - 带源码课件</t>
+  </si>
+  <si>
+    <t>https://www.alipan.com/s/AnU5TQnTRyk</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/90762ab029d3</t>
+  </si>
+  <si>
+    <t>极客时间 - Linux 实战技能 100 讲</t>
+  </si>
+  <si>
+    <t>https://www.alipan.com/s/Cr6vqh2QmQg</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/34743da8b7d0</t>
+  </si>
+  <si>
+    <t>极客时间- Go 语言从入门到实战</t>
+  </si>
+  <si>
+    <t>https://www.alipan.com/s/YDGijuSitMF</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/18180dd168d6</t>
+  </si>
+  <si>
+    <t>【站酷学习】教你拍好女朋友——基础人像外拍实战</t>
+  </si>
+  <si>
+    <t>https://www.alipan.com/s/ACy8i4MQwC2</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/853bc3ede4a1</t>
+  </si>
+  <si>
+    <t>极客时间 - Vue 开发实战</t>
+  </si>
+  <si>
+    <t>https://www.alipan.com/s/EoSrtf3a8CS</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/deed6b2e577d</t>
+  </si>
+  <si>
+    <t>【爱学堂】数学 1~6年级全套视频</t>
+  </si>
+  <si>
+    <t>https://www.alipan.com/s/kkyMqiQ8Hok</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/cfc21cd0895d</t>
+  </si>
+  <si>
+    <t>极客时间 - MongoDB 高手课</t>
+  </si>
+  <si>
+    <t>https://www.alipan.com/s/XQJUWK8wV4M</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/8b5ac5caa61c</t>
+  </si>
+  <si>
+    <t>极客时间 - Nginx 核心知识 150 讲</t>
+  </si>
+  <si>
+    <t>https://www.alipan.com/s/pT64ptRKngu</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/7e3252a76f16</t>
+  </si>
+  <si>
+    <t>B站 - 局座的国际战略课</t>
+  </si>
+  <si>
+    <t>https://www.alipan.com/s/45XTXgC2sj5</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/2dbaa3f052c5</t>
+  </si>
+  <si>
+    <t>B站 - 沈逸：白宫里的主角们</t>
+  </si>
+  <si>
+    <t>https://www.alipan.com/s/unxuzpDtX4S</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/d738fcac65ca</t>
+  </si>
+  <si>
+    <t>MySQL提升课程 全面讲解MySQL架构设计 - 带源码课件</t>
+  </si>
+  <si>
+    <t>https://www.alipan.com/s/Ec3whojaoFv</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/b6a4309fe412</t>
+  </si>
+  <si>
+    <t>B站 - 金灿荣教授：进击的中国外交</t>
+  </si>
+  <si>
+    <t>https://www.alipan.com/s/R9CruNgR1mu</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/8feb18cc63fa</t>
+  </si>
+  <si>
+    <t>React 实战进阶 45 讲 - 带源码课件</t>
+  </si>
+  <si>
+    <t>https://www.alipan.com/s/XXBykN4NcNQ</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/5ac7f8cb1b0b</t>
+  </si>
+  <si>
+    <t>Python高效编程技巧实战 - 带源码课件</t>
+  </si>
+  <si>
+    <t>https://www.alipan.com/s/QXfbJUKj9Ud</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/4a7376c30de4</t>
+  </si>
+  <si>
+    <t>B站 - Python小白也能听懂的入门课</t>
+  </si>
+  <si>
+    <t>https://www.alipan.com/s/cxQTsNEvAPk</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/85987c4a3b30</t>
+  </si>
+  <si>
+    <t>B站 - 马思瑞的口语私教课 - 带源码课件</t>
+  </si>
+  <si>
+    <t>https://www.alipan.com/s/T5xSLjzMkH2</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/1f62fbe4b31d</t>
+  </si>
+  <si>
+    <t>极客时间 - NLP 实战高手课</t>
+  </si>
+  <si>
+    <t>https://www.alipan.com/s/YnjiP2biTWB</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/fb0b864be752</t>
+  </si>
+  <si>
+    <t>B站 - Excel大神上分攻略 - 带源码课件</t>
+  </si>
+  <si>
+    <t>https://www.alipan.com/s/AsVG7dV7oAA</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/109e4e58061f</t>
+  </si>
+  <si>
+    <t>【MBA智库】企业高管：战略经营与核心能力研修班</t>
+  </si>
+  <si>
+    <t>https://www.alipan.com/s/SmX3dszRBBo</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/d03bb912629b</t>
+  </si>
+  <si>
+    <t>B站 - 罗翔：刑法悖论十讲</t>
+  </si>
+  <si>
+    <t>https://www.alipan.com/s/mvQjjqX8zPm</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/e13fd37bb797</t>
+  </si>
+  <si>
+    <t>B站 - C4D大作战：百万UP的光之教程</t>
+  </si>
+  <si>
+    <t>https://www.alipan.com/s/Sd39tdH6UgU</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/e5a20dcbdaa6</t>
+  </si>
+  <si>
+    <t>极客时间 - 分布式系统案例课</t>
+  </si>
+  <si>
+    <t>https://www.alipan.com/s/Lq2XS5iEpbj</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/a767e169c7dc</t>
+  </si>
+  <si>
+    <t>极客时间 - TensorFlow 2 项目进阶实战</t>
+  </si>
+  <si>
+    <t>https://www.alipan.com/s/UZpFszPpwXG</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/bfce988e0f05</t>
+  </si>
+  <si>
+    <t>B站 - 陈平的跨学科思维课</t>
+  </si>
+  <si>
+    <t>https://www.alipan.com/s/2Gy97oMbQ1F</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/dd95c80ded90</t>
+  </si>
+  <si>
+    <t>B站 - AE超能力学院 - 小莫入门到精通 - 带源码课件</t>
+  </si>
+  <si>
+    <t>https://www.alipan.com/s/kYkzNSeeXbK</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/589d26e20d1c</t>
+  </si>
+  <si>
+    <t>B站 - 张召忠-第四次工业革命</t>
+  </si>
+  <si>
+    <t>https://www.alipan.com/s/YeHsrjV8U8R</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/12f65f11d392</t>
+  </si>
+  <si>
+    <t>极客时间 - TypeScript 开发实战</t>
+  </si>
+  <si>
+    <t>https://www.alipan.com/s/NwvBk8DWZo8</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/3600b8327f1a</t>
+  </si>
+  <si>
+    <t>极客时间 - 前端全链路性能优化实战</t>
+  </si>
+  <si>
+    <t>https://www.alipan.com/s/XNTGRMNr7qZ</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/a6102e13a82c</t>
+  </si>
+  <si>
+    <t>极客时间 - 小马哥讲 Spring 核心编程思想</t>
+  </si>
+  <si>
+    <t>https://www.alipan.com/s/nSFwE8N1zYy</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/56d239336426</t>
+  </si>
+  <si>
+    <t>极客时间 - Electron 开发实战</t>
+  </si>
+  <si>
+    <t>https://www.alipan.com/s/Macot3n9d3u</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/30b6161a8b4b</t>
+  </si>
+  <si>
+    <t>微淼 - 财务自由工具操作技能课 - 带源码课件</t>
+  </si>
+  <si>
+    <t>https://www.alipan.com/s/axbBYCdEUJs</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/1c61bc326bed</t>
+  </si>
+  <si>
+    <t>B站 - 上海交大陆铭教授的经济学思维课</t>
+  </si>
+  <si>
+    <t>https://www.alipan.com/s/7TKnhbdcsjR</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/638bab4c3290</t>
+  </si>
+  <si>
+    <t>B站 - 马皑教授的社会学：人类的越轨行为研究</t>
+  </si>
+  <si>
+    <t>https://www.alipan.com/s/q6bBXPpJMRq</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/51010011e50f</t>
+  </si>
+  <si>
+    <t>【一周进步】PPT动画</t>
+  </si>
+  <si>
+    <t>https://www.alipan.com/s/nnKCiWmuWe3</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/a17390194473</t>
+  </si>
+  <si>
+    <t>B站 - Tiger谭秋娟的吉他弹唱入门课</t>
+  </si>
+  <si>
+    <t>https://www.alipan.com/s/YME2v33A2JV</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/a7c610ed3e75</t>
+  </si>
+  <si>
+    <t>B站 - 唐盾：0-N4日语精讲</t>
+  </si>
+  <si>
+    <t>https://www.alipan.com/s/NcrramRaGnU</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/659d19faaef5</t>
+  </si>
+  <si>
+    <t>孙志立 - 英语自然拼读100讲</t>
+  </si>
+  <si>
+    <t>https://www.alipan.com/s/8gVsSU1da2t</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/63d31a4a1ce8</t>
+  </si>
+  <si>
+    <t>微淼 - 财务报表分析技能课</t>
+  </si>
+  <si>
+    <t>https://www.alipan.com/s/YDfo7NDsisz</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/6fc9d929f293</t>
+  </si>
   <si>
     <t>极客时间 - 分布式缓存高手课</t>
   </si>
@@ -28,9 +805,6 @@
     <t>https://pan.quark.cn/s/fb89fe68abd4</t>
   </si>
   <si>
-    <t>学术</t>
-  </si>
-  <si>
     <t>极客时间 - Django 快速开发实战</t>
   </si>
   <si>
@@ -56,780 +830,6 @@
   </si>
   <si>
     <t>https://pan.quark.cn/s/15da7cdbffc6</t>
-  </si>
-  <si>
-    <t>微淼 - 财务自由财企分析技能课</t>
-  </si>
-  <si>
-    <t>https://www.alipan.com/s/FxKfeCcgtrS</t>
-  </si>
-  <si>
-    <t>https://pan.quark.cn/s/35a371a02b02</t>
-  </si>
-  <si>
-    <t>【MBA智库】管理启航：新任管理者成长训练营</t>
-  </si>
-  <si>
-    <t>https://www.alipan.com/s/s9LufjHAJab</t>
-  </si>
-  <si>
-    <t>https://pan.quark.cn/s/700803645db9</t>
-  </si>
-  <si>
-    <t>极客时间 - Web安全攻防实战</t>
-  </si>
-  <si>
-    <t>https://www.alipan.com/s/c3GgkWwFBbY</t>
-  </si>
-  <si>
-    <t>https://pan.quark.cn/s/5d9007821050</t>
-  </si>
-  <si>
-    <t>极客时间 - 玩转 webpack</t>
-  </si>
-  <si>
-    <t>https://www.alipan.com/s/6PCXnY8iKSH</t>
-  </si>
-  <si>
-    <t>https://pan.quark.cn/s/66cf0c19a890</t>
-  </si>
-  <si>
-    <t>陆明明 - 知乎精准引流攻略2.0，适合各行业，全程实操落地演示</t>
-  </si>
-  <si>
-    <t>https://www.alipan.com/s/116334ziG2t</t>
-  </si>
-  <si>
-    <t>https://pan.quark.cn/s/e4e2a8d6517e</t>
-  </si>
-  <si>
-    <t>【儒猿课堂】从0开始带你成为MySQL实战优化高手</t>
-  </si>
-  <si>
-    <t>https://www.alipan.com/s/sHEXx5RsWY4</t>
-  </si>
-  <si>
-    <t>https://pan.quark.cn/s/6a62a1a5b47e</t>
-  </si>
-  <si>
-    <t>【开课吧】JavaEE企业级分布式高级架构师023期 - 带源码课件</t>
-  </si>
-  <si>
-    <t>https://www.alipan.com/s/tuPs8hpDXWo</t>
-  </si>
-  <si>
-    <t>https://pan.quark.cn/s/75d95a43c24b</t>
-  </si>
-  <si>
-    <t>C++百万并发网络通信引擎架构与实现(服务端+客户端+跨平台)第2季 - 带源码课件</t>
-  </si>
-  <si>
-    <t>https://www.alipan.com/s/ddo9687chP3</t>
-  </si>
-  <si>
-    <t>https://pan.quark.cn/s/8b73030136a5</t>
-  </si>
-  <si>
-    <t>汤小小账号变现课第2期，今日头条、小红书、公众号，1000粉也可以接广告变现</t>
-  </si>
-  <si>
-    <t>https://www.alipan.com/s/32zHQetbwLY</t>
-  </si>
-  <si>
-    <t>https://pan.quark.cn/s/75bfbfacd504</t>
-  </si>
-  <si>
-    <t>李仁松 - 古妆汉服仙服零基础美妆教学课</t>
-  </si>
-  <si>
-    <t>https://www.alipan.com/s/q1X1uEo5ZRJ</t>
-  </si>
-  <si>
-    <t>https://pan.quark.cn/s/527d74760f3b</t>
-  </si>
-  <si>
-    <t>【TK增长会】TikTok外贸工厂陪跑训练营</t>
-  </si>
-  <si>
-    <t>https://www.alipan.com/s/34DojRVWAmu</t>
-  </si>
-  <si>
-    <t>https://pan.quark.cn/s/e1c60a640025</t>
-  </si>
-  <si>
-    <t>PS教程超级合辑【1000集2017版】 - 带源码课件</t>
-  </si>
-  <si>
-    <t>https://www.alipan.com/s/viuX3PfVywQ</t>
-  </si>
-  <si>
-    <t>https://pan.quark.cn/s/d2874b85b55d</t>
-  </si>
-  <si>
-    <t>【开课吧】门徒计划 - Java方向</t>
-  </si>
-  <si>
-    <t>https://www.alipan.com/s/QCABx4Jt42G</t>
-  </si>
-  <si>
-    <t>https://pan.quark.cn/s/43559d27d803</t>
-  </si>
-  <si>
-    <t>王红元 - 前端体系课-2614集 - 带源码课件</t>
-  </si>
-  <si>
-    <t>https://www.alipan.com/s/nDEn6ibekbq</t>
-  </si>
-  <si>
-    <t>https://pan.quark.cn/s/4fa23aecaecd</t>
-  </si>
-  <si>
-    <t>【虎课网-78025】深度学习爬虫验证码识别</t>
-  </si>
-  <si>
-    <t>https://www.alipan.com/s/7GXXwboAJv8</t>
-  </si>
-  <si>
-    <t>https://pan.quark.cn/s/a724ae6aecc8</t>
-  </si>
-  <si>
-    <t>【开课吧】门徒计划 - AI方向</t>
-  </si>
-  <si>
-    <t>https://www.alipan.com/s/MLaCvFW1bxN</t>
-  </si>
-  <si>
-    <t>https://pan.quark.cn/s/f56e51ab4319</t>
-  </si>
-  <si>
-    <t>【深蓝学院】机器学习数学基础 - 带源码课件</t>
-  </si>
-  <si>
-    <t>https://www.alipan.com/s/AGbozELqBgG</t>
-  </si>
-  <si>
-    <t>https://pan.quark.cn/s/bc5ee542c086</t>
-  </si>
-  <si>
-    <t>手机摄影技巧：从0到1用手机拍出酷炫短视频Vlog</t>
-  </si>
-  <si>
-    <t>https://www.alipan.com/s/bxyr9SozFNS</t>
-  </si>
-  <si>
-    <t>https://pan.quark.cn/s/94cf785af921</t>
-  </si>
-  <si>
-    <t>英语思维：快速建立语法体系</t>
-  </si>
-  <si>
-    <t>https://www.alipan.com/s/txUKQgPAh3d</t>
-  </si>
-  <si>
-    <t>https://pan.quark.cn/s/b9a565c6c0f0</t>
-  </si>
-  <si>
-    <t>【CCtalk】静物美食摄影课 - 17期</t>
-  </si>
-  <si>
-    <t>https://www.alipan.com/s/ymu1uyyigVS</t>
-  </si>
-  <si>
-    <t>https://pan.quark.cn/s/31023affd886</t>
-  </si>
-  <si>
-    <t>【开课吧】门徒计划 - 算法课</t>
-  </si>
-  <si>
-    <t>https://www.alipan.com/s/SMb5q9nJUT6</t>
-  </si>
-  <si>
-    <t>https://pan.quark.cn/s/a18f2824148c</t>
-  </si>
-  <si>
-    <t>【imooc-92】新版Scrapy打造搜索引擎 畅销4年的Python分布式爬虫课 - 带源码课件</t>
-  </si>
-  <si>
-    <t>https://www.alipan.com/s/fSsgMVtV1dD</t>
-  </si>
-  <si>
-    <t>https://pan.quark.cn/s/b107454ccac0</t>
-  </si>
-  <si>
-    <t>声乐魔法课：让你唱出动听歌声，秒变KTV麦霸</t>
-  </si>
-  <si>
-    <t>https://www.alipan.com/s/yBaMkVWE8Y8</t>
-  </si>
-  <si>
-    <t>https://pan.quark.cn/s/3170ab4919d4</t>
-  </si>
-  <si>
-    <t>【新东方在线】2024考研英语全程班 - 带源码课件</t>
-  </si>
-  <si>
-    <t>https://www.alipan.com/s/DBj26N6FV9Y</t>
-  </si>
-  <si>
-    <t>https://pan.quark.cn/s/91091827c3fd</t>
-  </si>
-  <si>
-    <t>【Theone口译】英语零基础入门班</t>
-  </si>
-  <si>
-    <t>https://www.alipan.com/s/9ShxSrGTrus</t>
-  </si>
-  <si>
-    <t>https://pan.quark.cn/s/e1d6da69de29</t>
-  </si>
-  <si>
-    <t>【思益学院】纪主任《车神陪跑：拼多多系统化课程》</t>
-  </si>
-  <si>
-    <t>https://www.alipan.com/s/9YxJkCg1WRK</t>
-  </si>
-  <si>
-    <t>https://pan.quark.cn/s/48da8efa4a20</t>
-  </si>
-  <si>
-    <t>【开课吧】机器学习如何在企业中落地 - 带源码课件</t>
-  </si>
-  <si>
-    <t>https://www.alipan.com/s/jaqA4mfVu8L</t>
-  </si>
-  <si>
-    <t>https://pan.quark.cn/s/adc57f97bb76</t>
-  </si>
-  <si>
-    <t>【潭州教育】配音全能班8期（全阶段） - 带源码课件</t>
-  </si>
-  <si>
-    <t>https://www.alipan.com/s/Dd59pAv6tic</t>
-  </si>
-  <si>
-    <t>https://pan.quark.cn/s/9c6e49db7b98</t>
-  </si>
-  <si>
-    <t>诺思星 - 抖音影视混剪变现课</t>
-  </si>
-  <si>
-    <t>https://www.alipan.com/s/kc52CrqSjZ5</t>
-  </si>
-  <si>
-    <t>https://pan.quark.cn/s/e4626fba4ff0</t>
-  </si>
-  <si>
-    <t>【NightTeam夜幕】JavaScript 逆向系列课 + 高阶课（SVIP完结） - 带源码课件</t>
-  </si>
-  <si>
-    <t>https://www.alipan.com/s/Wpfd69FubPt</t>
-  </si>
-  <si>
-    <t>https://pan.quark.cn/s/97400ec0c32b</t>
-  </si>
-  <si>
-    <t>厦九九 - 9节小红书博主赚钱课</t>
-  </si>
-  <si>
-    <t>https://www.alipan.com/s/Nq8tfTxijYV</t>
-  </si>
-  <si>
-    <t>https://pan.quark.cn/s/245a22bfb5dc</t>
-  </si>
-  <si>
-    <t>【达内教育】2023最新Python+人工智能就业班 - 带源码课件</t>
-  </si>
-  <si>
-    <t>https://www.alipan.com/s/xysChTt6Fhk</t>
-  </si>
-  <si>
-    <t>https://pan.quark.cn/s/1e48256cbd2d</t>
-  </si>
-  <si>
-    <t>uniapp陪诊小程序</t>
-  </si>
-  <si>
-    <t>https://www.alipan.com/s/xht4ci3zLmk</t>
-  </si>
-  <si>
-    <t>https://pan.quark.cn/s/6a2a2e4e78dd</t>
-  </si>
-  <si>
-    <t>小区物业管理系统</t>
-  </si>
-  <si>
-    <t>https://www.alipan.com/s/jzFck4WwrJq</t>
-  </si>
-  <si>
-    <t>https://pan.quark.cn/s/23fe247996e9</t>
-  </si>
-  <si>
-    <t>C++游戏编程实例精讲--3D射击游戏作弊</t>
-  </si>
-  <si>
-    <t>https://www.alipan.com/s/j11kKWqW57o</t>
-  </si>
-  <si>
-    <t>https://pan.quark.cn/s/a19a44d61ccb</t>
-  </si>
-  <si>
-    <t>深度学习项目：Django搭建CNN网络实现图像识别 - 带源码课件</t>
-  </si>
-  <si>
-    <t>https://www.alipan.com/s/vRDC5FcNmnX</t>
-  </si>
-  <si>
-    <t>https://pan.quark.cn/s/1004a4bf020a</t>
-  </si>
-  <si>
-    <t>C C++企业级项目实战班 - 带源码课件</t>
-  </si>
-  <si>
-    <t>https://www.alipan.com/s/BHKcc31Upnh</t>
-  </si>
-  <si>
-    <t>https://pan.quark.cn/s/1b3d8cbc57af</t>
-  </si>
-  <si>
-    <t>【尚硅谷】2022北京校区JAVA就业班 - 带源码课件</t>
-  </si>
-  <si>
-    <t>https://www.alipan.com/s/st2bvcUQPDN</t>
-  </si>
-  <si>
-    <t>https://pan.quark.cn/s/70c52d6c31af</t>
-  </si>
-  <si>
-    <t>核聚北大学霸私藏的高效学习术</t>
-  </si>
-  <si>
-    <t>https://www.alipan.com/s/oHQuq1XauRn</t>
-  </si>
-  <si>
-    <t>https://pan.quark.cn/s/4e4da39d6abc</t>
-  </si>
-  <si>
-    <t>【拼客学院】2019年直播面授班 《全栈网络安全专家》 43期 - 带源码课件</t>
-  </si>
-  <si>
-    <t>https://www.alipan.com/s/UFwetD1kNTQ</t>
-  </si>
-  <si>
-    <t>https://pan.quark.cn/s/ee32f0d491e2</t>
-  </si>
-  <si>
-    <t>极简英语 - 英语能力系统提升班 - 带源码课件</t>
-  </si>
-  <si>
-    <t>https://www.alipan.com/s/vtdkUoH3N8t</t>
-  </si>
-  <si>
-    <t>https://pan.quark.cn/s/d26a10b37b1f</t>
-  </si>
-  <si>
-    <t>基于SpringBoot+Mybatis从头搭建通用管理系统(后端篇) - 带源码课件</t>
-  </si>
-  <si>
-    <t>https://www.alipan.com/s/WDrSso9TVHF</t>
-  </si>
-  <si>
-    <t>https://pan.quark.cn/s/e111d8997711</t>
-  </si>
-  <si>
-    <t>【粉笔】2023高照超大杯刷题营</t>
-  </si>
-  <si>
-    <t>https://www.alipan.com/s/wDqarW38FwH</t>
-  </si>
-  <si>
-    <t>https://pan.quark.cn/s/76a5b545c41b</t>
-  </si>
-  <si>
-    <t>【新东方在线】英语零基础直达流利生活口语</t>
-  </si>
-  <si>
-    <t>https://www.alipan.com/s/929gk7zdzqg</t>
-  </si>
-  <si>
-    <t>https://pan.quark.cn/s/a8083a220e18</t>
-  </si>
-  <si>
-    <t>【51CTO-3811】《Wireshark协议分析基础与提升》第二季 TCP IP协议栈详解(上)</t>
-  </si>
-  <si>
-    <t>https://www.alipan.com/s/hcGnaiERdSV</t>
-  </si>
-  <si>
-    <t>https://pan.quark.cn/s/6ce384f2434b</t>
-  </si>
-  <si>
-    <t>老陈的IT杂货铺 - 嵌入式零基础到就业年班</t>
-  </si>
-  <si>
-    <t>https://www.alipan.com/s/wx4GhdUCH2J</t>
-  </si>
-  <si>
-    <t>https://pan.quark.cn/s/c8169a3cc4e9</t>
-  </si>
-  <si>
-    <t>【尚硅谷】SpringSecurity+OAuth2.0实战精讲 - 带源码课件</t>
-  </si>
-  <si>
-    <t>https://www.alipan.com/s/v2fDjMiJ9Wf</t>
-  </si>
-  <si>
-    <t>https://pan.quark.cn/s/564723411378</t>
-  </si>
-  <si>
-    <t>【尚硅谷】鸿蒙应用开发 - 带源码课件</t>
-  </si>
-  <si>
-    <t>https://www.alipan.com/s/f3fRYQwDnaG</t>
-  </si>
-  <si>
-    <t>https://pan.quark.cn/s/506a2573540a</t>
-  </si>
-  <si>
-    <t>Go+Vue通用后台管理项目实战 - 带源码课件</t>
-  </si>
-  <si>
-    <t>https://www.alipan.com/s/AnU5TQnTRyk</t>
-  </si>
-  <si>
-    <t>https://pan.quark.cn/s/90762ab029d3</t>
-  </si>
-  <si>
-    <t>极客时间 - Linux 实战技能 100 讲</t>
-  </si>
-  <si>
-    <t>https://www.alipan.com/s/Cr6vqh2QmQg</t>
-  </si>
-  <si>
-    <t>https://pan.quark.cn/s/34743da8b7d0</t>
-  </si>
-  <si>
-    <t>极客时间- Go 语言从入门到实战</t>
-  </si>
-  <si>
-    <t>https://www.alipan.com/s/YDGijuSitMF</t>
-  </si>
-  <si>
-    <t>https://pan.quark.cn/s/18180dd168d6</t>
-  </si>
-  <si>
-    <t>【站酷学习】教你拍好女朋友——基础人像外拍实战</t>
-  </si>
-  <si>
-    <t>https://www.alipan.com/s/ACy8i4MQwC2</t>
-  </si>
-  <si>
-    <t>https://pan.quark.cn/s/853bc3ede4a1</t>
-  </si>
-  <si>
-    <t>极客时间 - Vue 开发实战</t>
-  </si>
-  <si>
-    <t>https://www.alipan.com/s/EoSrtf3a8CS</t>
-  </si>
-  <si>
-    <t>https://pan.quark.cn/s/deed6b2e577d</t>
-  </si>
-  <si>
-    <t>【爱学堂】数学 1~6年级全套视频</t>
-  </si>
-  <si>
-    <t>https://www.alipan.com/s/kkyMqiQ8Hok</t>
-  </si>
-  <si>
-    <t>https://pan.quark.cn/s/cfc21cd0895d</t>
-  </si>
-  <si>
-    <t>极客时间 - MongoDB 高手课</t>
-  </si>
-  <si>
-    <t>https://www.alipan.com/s/XQJUWK8wV4M</t>
-  </si>
-  <si>
-    <t>https://pan.quark.cn/s/8b5ac5caa61c</t>
-  </si>
-  <si>
-    <t>极客时间 - Nginx 核心知识 150 讲</t>
-  </si>
-  <si>
-    <t>https://www.alipan.com/s/pT64ptRKngu</t>
-  </si>
-  <si>
-    <t>https://pan.quark.cn/s/7e3252a76f16</t>
-  </si>
-  <si>
-    <t>B站 - 局座的国际战略课</t>
-  </si>
-  <si>
-    <t>https://www.alipan.com/s/45XTXgC2sj5</t>
-  </si>
-  <si>
-    <t>https://pan.quark.cn/s/2dbaa3f052c5</t>
-  </si>
-  <si>
-    <t>B站 - 沈逸：白宫里的主角们</t>
-  </si>
-  <si>
-    <t>https://www.alipan.com/s/unxuzpDtX4S</t>
-  </si>
-  <si>
-    <t>https://pan.quark.cn/s/d738fcac65ca</t>
-  </si>
-  <si>
-    <t>MySQL提升课程 全面讲解MySQL架构设计 - 带源码课件</t>
-  </si>
-  <si>
-    <t>https://www.alipan.com/s/Ec3whojaoFv</t>
-  </si>
-  <si>
-    <t>https://pan.quark.cn/s/b6a4309fe412</t>
-  </si>
-  <si>
-    <t>B站 - 金灿荣教授：进击的中国外交</t>
-  </si>
-  <si>
-    <t>https://www.alipan.com/s/R9CruNgR1mu</t>
-  </si>
-  <si>
-    <t>https://pan.quark.cn/s/8feb18cc63fa</t>
-  </si>
-  <si>
-    <t>React 实战进阶 45 讲 - 带源码课件</t>
-  </si>
-  <si>
-    <t>https://www.alipan.com/s/XXBykN4NcNQ</t>
-  </si>
-  <si>
-    <t>https://pan.quark.cn/s/5ac7f8cb1b0b</t>
-  </si>
-  <si>
-    <t>Python高效编程技巧实战 - 带源码课件</t>
-  </si>
-  <si>
-    <t>https://www.alipan.com/s/QXfbJUKj9Ud</t>
-  </si>
-  <si>
-    <t>https://pan.quark.cn/s/4a7376c30de4</t>
-  </si>
-  <si>
-    <t>B站 - Python小白也能听懂的入门课</t>
-  </si>
-  <si>
-    <t>https://www.alipan.com/s/cxQTsNEvAPk</t>
-  </si>
-  <si>
-    <t>https://pan.quark.cn/s/85987c4a3b30</t>
-  </si>
-  <si>
-    <t>B站 - 马思瑞的口语私教课 - 带源码课件</t>
-  </si>
-  <si>
-    <t>https://www.alipan.com/s/T5xSLjzMkH2</t>
-  </si>
-  <si>
-    <t>https://pan.quark.cn/s/1f62fbe4b31d</t>
-  </si>
-  <si>
-    <t>极客时间 - NLP 实战高手课</t>
-  </si>
-  <si>
-    <t>https://www.alipan.com/s/YnjiP2biTWB</t>
-  </si>
-  <si>
-    <t>https://pan.quark.cn/s/fb0b864be752</t>
-  </si>
-  <si>
-    <t>B站 - Excel大神上分攻略 - 带源码课件</t>
-  </si>
-  <si>
-    <t>https://www.alipan.com/s/AsVG7dV7oAA</t>
-  </si>
-  <si>
-    <t>https://pan.quark.cn/s/109e4e58061f</t>
-  </si>
-  <si>
-    <t>【MBA智库】企业高管：战略经营与核心能力研修班</t>
-  </si>
-  <si>
-    <t>https://www.alipan.com/s/SmX3dszRBBo</t>
-  </si>
-  <si>
-    <t>https://pan.quark.cn/s/d03bb912629b</t>
-  </si>
-  <si>
-    <t>B站 - 罗翔：刑法悖论十讲</t>
-  </si>
-  <si>
-    <t>https://www.alipan.com/s/mvQjjqX8zPm</t>
-  </si>
-  <si>
-    <t>https://pan.quark.cn/s/e13fd37bb797</t>
-  </si>
-  <si>
-    <t>B站 - C4D大作战：百万UP的光之教程</t>
-  </si>
-  <si>
-    <t>https://www.alipan.com/s/Sd39tdH6UgU</t>
-  </si>
-  <si>
-    <t>https://pan.quark.cn/s/e5a20dcbdaa6</t>
-  </si>
-  <si>
-    <t>极客时间 - 分布式系统案例课</t>
-  </si>
-  <si>
-    <t>https://www.alipan.com/s/Lq2XS5iEpbj</t>
-  </si>
-  <si>
-    <t>https://pan.quark.cn/s/a767e169c7dc</t>
-  </si>
-  <si>
-    <t>极客时间 - TensorFlow 2 项目进阶实战</t>
-  </si>
-  <si>
-    <t>https://www.alipan.com/s/UZpFszPpwXG</t>
-  </si>
-  <si>
-    <t>https://pan.quark.cn/s/bfce988e0f05</t>
-  </si>
-  <si>
-    <t>B站 - 陈平的跨学科思维课</t>
-  </si>
-  <si>
-    <t>https://www.alipan.com/s/2Gy97oMbQ1F</t>
-  </si>
-  <si>
-    <t>https://pan.quark.cn/s/dd95c80ded90</t>
-  </si>
-  <si>
-    <t>B站 - AE超能力学院 - 小莫入门到精通 - 带源码课件</t>
-  </si>
-  <si>
-    <t>https://www.alipan.com/s/kYkzNSeeXbK</t>
-  </si>
-  <si>
-    <t>https://pan.quark.cn/s/589d26e20d1c</t>
-  </si>
-  <si>
-    <t>B站 - 张召忠-第四次工业革命</t>
-  </si>
-  <si>
-    <t>https://www.alipan.com/s/YeHsrjV8U8R</t>
-  </si>
-  <si>
-    <t>https://pan.quark.cn/s/12f65f11d392</t>
-  </si>
-  <si>
-    <t>极客时间 - TypeScript 开发实战</t>
-  </si>
-  <si>
-    <t>https://www.alipan.com/s/NwvBk8DWZo8</t>
-  </si>
-  <si>
-    <t>https://pan.quark.cn/s/3600b8327f1a</t>
-  </si>
-  <si>
-    <t>极客时间 - 前端全链路性能优化实战</t>
-  </si>
-  <si>
-    <t>https://www.alipan.com/s/XNTGRMNr7qZ</t>
-  </si>
-  <si>
-    <t>https://pan.quark.cn/s/a6102e13a82c</t>
-  </si>
-  <si>
-    <t>极客时间 - 小马哥讲 Spring 核心编程思想</t>
-  </si>
-  <si>
-    <t>https://www.alipan.com/s/nSFwE8N1zYy</t>
-  </si>
-  <si>
-    <t>https://pan.quark.cn/s/56d239336426</t>
-  </si>
-  <si>
-    <t>极客时间 - Electron 开发实战</t>
-  </si>
-  <si>
-    <t>https://www.alipan.com/s/Macot3n9d3u</t>
-  </si>
-  <si>
-    <t>https://pan.quark.cn/s/30b6161a8b4b</t>
-  </si>
-  <si>
-    <t>微淼 - 财务自由工具操作技能课 - 带源码课件</t>
-  </si>
-  <si>
-    <t>https://www.alipan.com/s/axbBYCdEUJs</t>
-  </si>
-  <si>
-    <t>https://pan.quark.cn/s/1c61bc326bed</t>
-  </si>
-  <si>
-    <t>B站 - 上海交大陆铭教授的经济学思维课</t>
-  </si>
-  <si>
-    <t>https://www.alipan.com/s/7TKnhbdcsjR</t>
-  </si>
-  <si>
-    <t>https://pan.quark.cn/s/638bab4c3290</t>
-  </si>
-  <si>
-    <t>B站 - 马皑教授的社会学：人类的越轨行为研究</t>
-  </si>
-  <si>
-    <t>https://www.alipan.com/s/q6bBXPpJMRq</t>
-  </si>
-  <si>
-    <t>https://pan.quark.cn/s/51010011e50f</t>
-  </si>
-  <si>
-    <t>【一周进步】PPT动画</t>
-  </si>
-  <si>
-    <t>https://www.alipan.com/s/nnKCiWmuWe3</t>
-  </si>
-  <si>
-    <t>https://pan.quark.cn/s/a17390194473</t>
-  </si>
-  <si>
-    <t>B站 - Tiger谭秋娟的吉他弹唱入门课</t>
-  </si>
-  <si>
-    <t>https://www.alipan.com/s/YME2v33A2JV</t>
-  </si>
-  <si>
-    <t>https://pan.quark.cn/s/a7c610ed3e75</t>
-  </si>
-  <si>
-    <t>B站 - 唐盾：0-N4日语精讲</t>
-  </si>
-  <si>
-    <t>https://www.alipan.com/s/NcrramRaGnU</t>
-  </si>
-  <si>
-    <t>https://pan.quark.cn/s/659d19faaef5</t>
-  </si>
-  <si>
-    <t>孙志立 - 英语自然拼读100讲</t>
-  </si>
-  <si>
-    <t>https://www.alipan.com/s/8gVsSU1da2t</t>
-  </si>
-  <si>
-    <t>https://pan.quark.cn/s/63d31a4a1ce8</t>
-  </si>
-  <si>
-    <t>微淼 - 财务报表分析技能课</t>
-  </si>
-  <si>
-    <t>https://www.alipan.com/s/YDfo7NDsisz</t>
-  </si>
-  <si>
-    <t>https://pan.quark.cn/s/6fc9d929f293</t>
   </si>
   <si>
     <t>2024/02/14 15:25</t>
@@ -2005,10 +2005,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E146"/>
+  <dimension ref="A1:E142"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="38.6666666666667" defaultRowHeight="14.4" outlineLevelCol="4"/>
@@ -2031,7 +2031,7 @@
         <v>3</v>
       </c>
       <c r="E1" s="3">
-        <v>45327.6152777778</v>
+        <v>45329.9256944444</v>
       </c>
     </row>
     <row r="2" ht="44.55" customHeight="1" spans="1:5">
@@ -2048,7 +2048,7 @@
         <v>3</v>
       </c>
       <c r="E2" s="3">
-        <v>45327.8430555556</v>
+        <v>45330.7006944444</v>
       </c>
     </row>
     <row r="3" ht="44.55" customHeight="1" spans="1:5">
@@ -2065,7 +2065,7 @@
         <v>3</v>
       </c>
       <c r="E3" s="3">
-        <v>45329.7180555556</v>
+        <v>45330.9159722222</v>
       </c>
     </row>
     <row r="4" ht="44.55" customHeight="1" spans="1:5">
@@ -2082,7 +2082,7 @@
         <v>3</v>
       </c>
       <c r="E4" s="3">
-        <v>45329.925</v>
+        <v>45331.2847222222</v>
       </c>
     </row>
     <row r="5" ht="44.55" customHeight="1" spans="1:5">
@@ -2099,7 +2099,7 @@
         <v>3</v>
       </c>
       <c r="E5" s="3">
-        <v>45329.9256944444</v>
+        <v>45331.4104166667</v>
       </c>
     </row>
     <row r="6" ht="44.55" customHeight="1" spans="1:5">
@@ -2116,7 +2116,7 @@
         <v>3</v>
       </c>
       <c r="E6" s="3">
-        <v>45330.7006944444</v>
+        <v>45335.1034722222</v>
       </c>
     </row>
     <row r="7" ht="44.55" customHeight="1" spans="1:5">
@@ -2133,7 +2133,7 @@
         <v>3</v>
       </c>
       <c r="E7" s="3">
-        <v>45330.9159722222</v>
+        <v>45335.9486111111</v>
       </c>
     </row>
     <row r="8" ht="44.55" customHeight="1" spans="1:5">
@@ -2150,7 +2150,7 @@
         <v>3</v>
       </c>
       <c r="E8" s="3">
-        <v>45331.2847222222</v>
+        <v>45336.2743055556</v>
       </c>
     </row>
     <row r="9" ht="44.55" customHeight="1" spans="1:5">
@@ -2167,7 +2167,7 @@
         <v>3</v>
       </c>
       <c r="E9" s="3">
-        <v>45331.4104166667</v>
+        <v>45336.6423611111</v>
       </c>
     </row>
     <row r="10" ht="44.55" customHeight="1" spans="1:5">
@@ -2184,7 +2184,7 @@
         <v>3</v>
       </c>
       <c r="E10" s="3">
-        <v>45335.1034722222</v>
+        <v>45336.7152777778</v>
       </c>
     </row>
     <row r="11" ht="44.55" customHeight="1" spans="1:5">
@@ -2201,7 +2201,7 @@
         <v>3</v>
       </c>
       <c r="E11" s="3">
-        <v>45335.9486111111</v>
+        <v>45337.0013888889</v>
       </c>
     </row>
     <row r="12" ht="44.55" customHeight="1" spans="1:5">
@@ -2218,7 +2218,7 @@
         <v>3</v>
       </c>
       <c r="E12" s="3">
-        <v>45336.2743055556</v>
+        <v>45337.0986111111</v>
       </c>
     </row>
     <row r="13" ht="44.55" customHeight="1" spans="1:5">
@@ -2235,7 +2235,7 @@
         <v>3</v>
       </c>
       <c r="E13" s="3">
-        <v>45336.6423611111</v>
+        <v>45337.5659722222</v>
       </c>
     </row>
     <row r="14" ht="44.55" customHeight="1" spans="1:5">
@@ -2252,7 +2252,7 @@
         <v>3</v>
       </c>
       <c r="E14" s="3">
-        <v>45336.7152777778</v>
+        <v>45337.6361111111</v>
       </c>
     </row>
     <row r="15" ht="44.55" customHeight="1" spans="1:5">
@@ -2269,7 +2269,7 @@
         <v>3</v>
       </c>
       <c r="E15" s="3">
-        <v>45337.0013888889</v>
+        <v>45337.6868055556</v>
       </c>
     </row>
     <row r="16" ht="44.55" customHeight="1" spans="1:5">
@@ -2286,7 +2286,7 @@
         <v>3</v>
       </c>
       <c r="E16" s="3">
-        <v>45337.0986111111</v>
+        <v>45337.7270833333</v>
       </c>
     </row>
     <row r="17" ht="44.55" customHeight="1" spans="1:5">
@@ -2303,7 +2303,7 @@
         <v>3</v>
       </c>
       <c r="E17" s="3">
-        <v>45337.5659722222</v>
+        <v>45338.1347222222</v>
       </c>
     </row>
     <row r="18" ht="44.55" customHeight="1" spans="1:5">
@@ -2320,7 +2320,7 @@
         <v>3</v>
       </c>
       <c r="E18" s="3">
-        <v>45337.6361111111</v>
+        <v>45338.6118055556</v>
       </c>
     </row>
     <row r="19" ht="44.55" customHeight="1" spans="1:5">
@@ -2337,7 +2337,7 @@
         <v>3</v>
       </c>
       <c r="E19" s="3">
-        <v>45337.6868055556</v>
+        <v>45338.7381944444</v>
       </c>
     </row>
     <row r="20" ht="44.55" customHeight="1" spans="1:5">
@@ -2354,7 +2354,7 @@
         <v>3</v>
       </c>
       <c r="E20" s="3">
-        <v>45337.7270833333</v>
+        <v>45338.9402777778</v>
       </c>
     </row>
     <row r="21" ht="44.55" customHeight="1" spans="1:5">
@@ -2371,7 +2371,7 @@
         <v>3</v>
       </c>
       <c r="E21" s="3">
-        <v>45338.1347222222</v>
+        <v>45339.0388888889</v>
       </c>
     </row>
     <row r="22" ht="44.55" customHeight="1" spans="1:5">
@@ -2388,7 +2388,7 @@
         <v>3</v>
       </c>
       <c r="E22" s="3">
-        <v>45338.6118055556</v>
+        <v>45339.6833333333</v>
       </c>
     </row>
     <row r="23" ht="44.55" customHeight="1" spans="1:5">
@@ -2405,7 +2405,7 @@
         <v>3</v>
       </c>
       <c r="E23" s="3">
-        <v>45338.7381944444</v>
+        <v>45339.7270833333</v>
       </c>
     </row>
     <row r="24" ht="44.55" customHeight="1" spans="1:5">
@@ -2422,7 +2422,7 @@
         <v>3</v>
       </c>
       <c r="E24" s="3">
-        <v>45338.9402777778</v>
+        <v>45339.7506944444</v>
       </c>
     </row>
     <row r="25" ht="44.55" customHeight="1" spans="1:5">
@@ -2439,7 +2439,7 @@
         <v>3</v>
       </c>
       <c r="E25" s="3">
-        <v>45339.0388888889</v>
+        <v>45340.2708333333</v>
       </c>
     </row>
     <row r="26" ht="44.55" customHeight="1" spans="1:5">
@@ -2456,7 +2456,7 @@
         <v>3</v>
       </c>
       <c r="E26" s="3">
-        <v>45339.6833333333</v>
+        <v>45340.9756944444</v>
       </c>
     </row>
     <row r="27" ht="44.55" customHeight="1" spans="1:5">
@@ -2473,7 +2473,7 @@
         <v>3</v>
       </c>
       <c r="E27" s="3">
-        <v>45339.7270833333</v>
+        <v>45341.0875</v>
       </c>
     </row>
     <row r="28" ht="44.55" customHeight="1" spans="1:5">
@@ -2490,7 +2490,7 @@
         <v>3</v>
       </c>
       <c r="E28" s="3">
-        <v>45339.7506944444</v>
+        <v>45341.6361111111</v>
       </c>
     </row>
     <row r="29" ht="44.55" customHeight="1" spans="1:5">
@@ -2507,7 +2507,7 @@
         <v>3</v>
       </c>
       <c r="E29" s="3">
-        <v>45340.2708333333</v>
+        <v>45341.8798611111</v>
       </c>
     </row>
     <row r="30" ht="44.55" customHeight="1" spans="1:5">
@@ -2524,7 +2524,7 @@
         <v>3</v>
       </c>
       <c r="E30" s="3">
-        <v>45340.9756944444</v>
+        <v>45341.9111111111</v>
       </c>
     </row>
     <row r="31" ht="44.55" customHeight="1" spans="1:5">
@@ -2541,7 +2541,7 @@
         <v>3</v>
       </c>
       <c r="E31" s="3">
-        <v>45341.0875</v>
+        <v>45341.9673611111</v>
       </c>
     </row>
     <row r="32" ht="44.55" customHeight="1" spans="1:5">
@@ -2558,7 +2558,7 @@
         <v>3</v>
       </c>
       <c r="E32" s="3">
-        <v>45341.6361111111</v>
+        <v>45342.3590277778</v>
       </c>
     </row>
     <row r="33" ht="44.55" customHeight="1" spans="1:5">
@@ -2575,7 +2575,7 @@
         <v>3</v>
       </c>
       <c r="E33" s="3">
-        <v>45341.8798611111</v>
+        <v>45342.4097222222</v>
       </c>
     </row>
     <row r="34" ht="44.55" customHeight="1" spans="1:5">
@@ -2592,7 +2592,7 @@
         <v>3</v>
       </c>
       <c r="E34" s="3">
-        <v>45341.9111111111</v>
+        <v>45342.56875</v>
       </c>
     </row>
     <row r="35" ht="44.55" customHeight="1" spans="1:5">
@@ -2609,7 +2609,7 @@
         <v>3</v>
       </c>
       <c r="E35" s="3">
-        <v>45341.9673611111</v>
+        <v>45342.6125</v>
       </c>
     </row>
     <row r="36" ht="44.55" customHeight="1" spans="1:5">
@@ -2626,7 +2626,7 @@
         <v>3</v>
       </c>
       <c r="E36" s="3">
-        <v>45342.3590277778</v>
+        <v>45342.6881944444</v>
       </c>
     </row>
     <row r="37" ht="44.55" customHeight="1" spans="1:5">
@@ -2643,7 +2643,7 @@
         <v>3</v>
       </c>
       <c r="E37" s="3">
-        <v>45342.4097222222</v>
+        <v>45342.7319444444</v>
       </c>
     </row>
     <row r="38" ht="44.55" customHeight="1" spans="1:5">
@@ -2660,7 +2660,7 @@
         <v>3</v>
       </c>
       <c r="E38" s="3">
-        <v>45342.56875</v>
+        <v>45342.8715277778</v>
       </c>
     </row>
     <row r="39" ht="44.55" customHeight="1" spans="1:5">
@@ -2677,7 +2677,7 @@
         <v>3</v>
       </c>
       <c r="E39" s="3">
-        <v>45342.6125</v>
+        <v>45343.4652777778</v>
       </c>
     </row>
     <row r="40" ht="44.55" customHeight="1" spans="1:5">
@@ -2694,7 +2694,7 @@
         <v>3</v>
       </c>
       <c r="E40" s="3">
-        <v>45342.6881944444</v>
+        <v>45343.6076388889</v>
       </c>
     </row>
     <row r="41" ht="44.55" customHeight="1" spans="1:5">
@@ -2711,7 +2711,7 @@
         <v>3</v>
       </c>
       <c r="E41" s="3">
-        <v>45342.7319444444</v>
+        <v>45343.6402777778</v>
       </c>
     </row>
     <row r="42" ht="44.55" customHeight="1" spans="1:5">
@@ -2728,7 +2728,7 @@
         <v>3</v>
       </c>
       <c r="E42" s="3">
-        <v>45342.8715277778</v>
+        <v>45343.8423611111</v>
       </c>
     </row>
     <row r="43" ht="44.55" customHeight="1" spans="1:5">
@@ -2745,7 +2745,7 @@
         <v>3</v>
       </c>
       <c r="E43" s="3">
-        <v>45343.4652777778</v>
+        <v>45343.9027777778</v>
       </c>
     </row>
     <row r="44" ht="44.55" customHeight="1" spans="1:5">
@@ -2762,7 +2762,7 @@
         <v>3</v>
       </c>
       <c r="E44" s="3">
-        <v>45343.6076388889</v>
+        <v>45343.9486111111</v>
       </c>
     </row>
     <row r="45" ht="44.55" customHeight="1" spans="1:5">
@@ -2779,7 +2779,7 @@
         <v>3</v>
       </c>
       <c r="E45" s="3">
-        <v>45343.6402777778</v>
+        <v>45344.5444444444</v>
       </c>
     </row>
     <row r="46" ht="44.55" customHeight="1" spans="1:5">
@@ -2796,7 +2796,7 @@
         <v>3</v>
       </c>
       <c r="E46" s="3">
-        <v>45343.8423611111</v>
+        <v>45344.7493055556</v>
       </c>
     </row>
     <row r="47" ht="44.55" customHeight="1" spans="1:5">
@@ -2813,7 +2813,7 @@
         <v>3</v>
       </c>
       <c r="E47" s="3">
-        <v>45343.9027777778</v>
+        <v>45344.9458333333</v>
       </c>
     </row>
     <row r="48" ht="44.55" customHeight="1" spans="1:5">
@@ -2830,7 +2830,7 @@
         <v>3</v>
       </c>
       <c r="E48" s="3">
-        <v>45343.9486111111</v>
+        <v>45345.2076388889</v>
       </c>
     </row>
     <row r="49" ht="44.55" customHeight="1" spans="1:5">
@@ -2847,7 +2847,7 @@
         <v>3</v>
       </c>
       <c r="E49" s="3">
-        <v>45344.5444444444</v>
+        <v>45345.5243055556</v>
       </c>
     </row>
     <row r="50" ht="44.55" customHeight="1" spans="1:5">
@@ -2864,7 +2864,7 @@
         <v>3</v>
       </c>
       <c r="E50" s="3">
-        <v>45344.7493055556</v>
+        <v>45345.575</v>
       </c>
     </row>
     <row r="51" ht="44.55" customHeight="1" spans="1:5">
@@ -2881,7 +2881,7 @@
         <v>3</v>
       </c>
       <c r="E51" s="3">
-        <v>45344.9458333333</v>
+        <v>45345.8118055556</v>
       </c>
     </row>
     <row r="52" ht="44.55" customHeight="1" spans="1:5">
@@ -2898,7 +2898,7 @@
         <v>3</v>
       </c>
       <c r="E52" s="3">
-        <v>45345.2076388889</v>
+        <v>45345.9027777778</v>
       </c>
     </row>
     <row r="53" ht="44.55" customHeight="1" spans="1:5">
@@ -2915,7 +2915,7 @@
         <v>3</v>
       </c>
       <c r="E53" s="3">
-        <v>45345.5243055556</v>
+        <v>45346.5104166667</v>
       </c>
     </row>
     <row r="54" ht="44.55" customHeight="1" spans="1:5">
@@ -2932,7 +2932,7 @@
         <v>3</v>
       </c>
       <c r="E54" s="3">
-        <v>45345.575</v>
+        <v>45346.5666666667</v>
       </c>
     </row>
     <row r="55" ht="44.55" customHeight="1" spans="1:5">
@@ -2949,7 +2949,7 @@
         <v>3</v>
       </c>
       <c r="E55" s="3">
-        <v>45345.8118055556</v>
+        <v>45346.60625</v>
       </c>
     </row>
     <row r="56" ht="44.55" customHeight="1" spans="1:5">
@@ -2966,7 +2966,7 @@
         <v>3</v>
       </c>
       <c r="E56" s="3">
-        <v>45345.9027777778</v>
+        <v>45346.7145833333</v>
       </c>
     </row>
     <row r="57" ht="44.55" customHeight="1" spans="1:5">
@@ -2983,7 +2983,7 @@
         <v>3</v>
       </c>
       <c r="E57" s="3">
-        <v>45346.5104166667</v>
+        <v>45346.7465277778</v>
       </c>
     </row>
     <row r="58" ht="44.55" customHeight="1" spans="1:5">
@@ -3000,7 +3000,7 @@
         <v>3</v>
       </c>
       <c r="E58" s="3">
-        <v>45346.5666666667</v>
+        <v>45346.8541666667</v>
       </c>
     </row>
     <row r="59" ht="44.55" customHeight="1" spans="1:5">
@@ -3017,7 +3017,7 @@
         <v>3</v>
       </c>
       <c r="E59" s="3">
-        <v>45346.60625</v>
+        <v>45346.9020833333</v>
       </c>
     </row>
     <row r="60" ht="44.55" customHeight="1" spans="1:5">
@@ -3034,7 +3034,7 @@
         <v>3</v>
       </c>
       <c r="E60" s="3">
-        <v>45346.7145833333</v>
+        <v>45347.0402777778</v>
       </c>
     </row>
     <row r="61" ht="44.55" customHeight="1" spans="1:5">
@@ -3051,7 +3051,7 @@
         <v>3</v>
       </c>
       <c r="E61" s="3">
-        <v>45346.7465277778</v>
+        <v>45347.1604166667</v>
       </c>
     </row>
     <row r="62" ht="44.55" customHeight="1" spans="1:5">
@@ -3068,7 +3068,7 @@
         <v>3</v>
       </c>
       <c r="E62" s="3">
-        <v>45346.8541666667</v>
+        <v>45347.66875</v>
       </c>
     </row>
     <row r="63" ht="44.55" customHeight="1" spans="1:5">
@@ -3085,7 +3085,7 @@
         <v>3</v>
       </c>
       <c r="E63" s="3">
-        <v>45346.9020833333</v>
+        <v>45347.7326388889</v>
       </c>
     </row>
     <row r="64" ht="44.55" customHeight="1" spans="1:5">
@@ -3102,7 +3102,7 @@
         <v>3</v>
       </c>
       <c r="E64" s="3">
-        <v>45347.0402777778</v>
+        <v>45347.8513888889</v>
       </c>
     </row>
     <row r="65" ht="44.55" customHeight="1" spans="1:5">
@@ -3119,7 +3119,7 @@
         <v>3</v>
       </c>
       <c r="E65" s="3">
-        <v>45347.1604166667</v>
+        <v>45347.9763888889</v>
       </c>
     </row>
     <row r="66" ht="44.55" customHeight="1" spans="1:5">
@@ -3136,7 +3136,7 @@
         <v>3</v>
       </c>
       <c r="E66" s="3">
-        <v>45347.66875</v>
+        <v>45348.6569444444</v>
       </c>
     </row>
     <row r="67" ht="44.55" customHeight="1" spans="1:5">
@@ -3153,7 +3153,7 @@
         <v>3</v>
       </c>
       <c r="E67" s="3">
-        <v>45347.7326388889</v>
+        <v>45348.6979166667</v>
       </c>
     </row>
     <row r="68" ht="44.55" customHeight="1" spans="1:5">
@@ -3170,7 +3170,7 @@
         <v>3</v>
       </c>
       <c r="E68" s="3">
-        <v>45347.8513888889</v>
+        <v>45348.7361111111</v>
       </c>
     </row>
     <row r="69" ht="44.55" customHeight="1" spans="1:5">
@@ -3187,7 +3187,7 @@
         <v>3</v>
       </c>
       <c r="E69" s="3">
-        <v>45347.9763888889</v>
+        <v>45348.8020833333</v>
       </c>
     </row>
     <row r="70" ht="44.55" customHeight="1" spans="1:5">
@@ -3204,7 +3204,7 @@
         <v>3</v>
       </c>
       <c r="E70" s="3">
-        <v>45348.6569444444</v>
+        <v>45348.8368055556</v>
       </c>
     </row>
     <row r="71" ht="44.55" customHeight="1" spans="1:5">
@@ -3221,7 +3221,7 @@
         <v>3</v>
       </c>
       <c r="E71" s="3">
-        <v>45348.6979166667</v>
+        <v>45348.8694444444</v>
       </c>
     </row>
     <row r="72" ht="44.55" customHeight="1" spans="1:5">
@@ -3238,7 +3238,7 @@
         <v>3</v>
       </c>
       <c r="E72" s="3">
-        <v>45348.7361111111</v>
+        <v>45348.9208333333</v>
       </c>
     </row>
     <row r="73" ht="44.55" customHeight="1" spans="1:5">
@@ -3255,7 +3255,7 @@
         <v>3</v>
       </c>
       <c r="E73" s="3">
-        <v>45348.8020833333</v>
+        <v>45348.9791666667</v>
       </c>
     </row>
     <row r="74" ht="44.55" customHeight="1" spans="1:5">
@@ -3272,7 +3272,7 @@
         <v>3</v>
       </c>
       <c r="E74" s="3">
-        <v>45348.8368055556</v>
+        <v>45349.1326388889</v>
       </c>
     </row>
     <row r="75" ht="44.55" customHeight="1" spans="1:5">
@@ -3289,7 +3289,7 @@
         <v>3</v>
       </c>
       <c r="E75" s="3">
-        <v>45348.8694444444</v>
+        <v>45349.5263888889</v>
       </c>
     </row>
     <row r="76" ht="44.55" customHeight="1" spans="1:5">
@@ -3306,7 +3306,7 @@
         <v>3</v>
       </c>
       <c r="E76" s="3">
-        <v>45348.9208333333</v>
+        <v>45349.5534722222</v>
       </c>
     </row>
     <row r="77" ht="44.55" customHeight="1" spans="1:5">
@@ -3323,7 +3323,7 @@
         <v>3</v>
       </c>
       <c r="E77" s="3">
-        <v>45348.9791666667</v>
+        <v>45349.6638888889</v>
       </c>
     </row>
     <row r="78" ht="44.55" customHeight="1" spans="1:5">
@@ -3340,7 +3340,7 @@
         <v>3</v>
       </c>
       <c r="E78" s="3">
-        <v>45349.1326388889</v>
+        <v>45349.7118055556</v>
       </c>
     </row>
     <row r="79" ht="44.55" customHeight="1" spans="1:5">
@@ -3357,7 +3357,7 @@
         <v>3</v>
       </c>
       <c r="E79" s="3">
-        <v>45349.5263888889</v>
+        <v>45349.7486111111</v>
       </c>
     </row>
     <row r="80" ht="44.55" customHeight="1" spans="1:5">
@@ -3374,7 +3374,7 @@
         <v>3</v>
       </c>
       <c r="E80" s="3">
-        <v>45349.5534722222</v>
+        <v>45349.8520833333</v>
       </c>
     </row>
     <row r="81" ht="44.55" customHeight="1" spans="1:5">
@@ -3391,7 +3391,7 @@
         <v>3</v>
       </c>
       <c r="E81" s="3">
-        <v>45349.6638888889</v>
+        <v>45349.9270833333</v>
       </c>
     </row>
     <row r="82" ht="44.55" customHeight="1" spans="1:5">
@@ -3408,7 +3408,7 @@
         <v>3</v>
       </c>
       <c r="E82" s="3">
-        <v>45349.7118055556</v>
+        <v>45350.0111111111</v>
       </c>
     </row>
     <row r="83" ht="44.55" customHeight="1" spans="1:5">
@@ -3425,7 +3425,7 @@
         <v>3</v>
       </c>
       <c r="E83" s="3">
-        <v>45349.7486111111</v>
+        <v>45350.09375</v>
       </c>
     </row>
     <row r="84" ht="44.55" customHeight="1" spans="1:5">
@@ -3442,7 +3442,7 @@
         <v>3</v>
       </c>
       <c r="E84" s="3">
-        <v>45349.8520833333</v>
+        <v>45350.2944444444</v>
       </c>
     </row>
     <row r="85" ht="44.55" customHeight="1" spans="1:5">
@@ -3459,7 +3459,7 @@
         <v>3</v>
       </c>
       <c r="E85" s="3">
-        <v>45349.9270833333</v>
+        <v>45350.64375</v>
       </c>
     </row>
     <row r="86" ht="44.55" customHeight="1" spans="1:5">
@@ -3476,7 +3476,7 @@
         <v>3</v>
       </c>
       <c r="E86" s="3">
-        <v>45350.0111111111</v>
+        <v>45350.7270833333</v>
       </c>
     </row>
     <row r="87" ht="44.55" customHeight="1" spans="1:5">
@@ -3493,7 +3493,7 @@
         <v>3</v>
       </c>
       <c r="E87" s="3">
-        <v>45350.09375</v>
+        <v>45350.8736111111</v>
       </c>
     </row>
     <row r="88" ht="44.55" customHeight="1" spans="1:5">
@@ -3510,7 +3510,7 @@
         <v>3</v>
       </c>
       <c r="E88" s="3">
-        <v>45350.2944444444</v>
+        <v>45350.9097222222</v>
       </c>
     </row>
     <row r="89" ht="44.55" customHeight="1" spans="1:5">
@@ -3527,7 +3527,7 @@
         <v>3</v>
       </c>
       <c r="E89" s="3">
-        <v>45350.64375</v>
+        <v>45350.9701388889</v>
       </c>
     </row>
     <row r="90" ht="44.55" customHeight="1" spans="1:5">
@@ -3544,7 +3544,7 @@
         <v>3</v>
       </c>
       <c r="E90" s="3">
-        <v>45350.7270833333</v>
+        <v>45351.0229166667</v>
       </c>
     </row>
     <row r="91" ht="44.55" customHeight="1" spans="1:5">
@@ -3561,7 +3561,7 @@
         <v>3</v>
       </c>
       <c r="E91" s="3">
-        <v>45350.8736111111</v>
+        <v>45351.0986111111</v>
       </c>
     </row>
     <row r="92" ht="44.55" customHeight="1" spans="1:5">
@@ -3578,7 +3578,7 @@
         <v>3</v>
       </c>
       <c r="E92" s="3">
-        <v>45350.9097222222</v>
+        <v>45351.5527777778</v>
       </c>
     </row>
     <row r="93" ht="44.55" customHeight="1" spans="1:5">
@@ -3595,7 +3595,7 @@
         <v>3</v>
       </c>
       <c r="E93" s="3">
-        <v>45350.9701388889</v>
+        <v>45351.6131944444</v>
       </c>
     </row>
     <row r="94" ht="44.55" customHeight="1" spans="1:5">
@@ -3612,7 +3612,7 @@
         <v>3</v>
       </c>
       <c r="E94" s="3">
-        <v>45351.0229166667</v>
+        <v>45351.6604166667</v>
       </c>
     </row>
     <row r="95" ht="44.55" customHeight="1" spans="1:5">
@@ -3629,7 +3629,7 @@
         <v>3</v>
       </c>
       <c r="E95" s="3">
-        <v>45351.0986111111</v>
+        <v>45351.7076388889</v>
       </c>
     </row>
     <row r="96" ht="44.55" customHeight="1" spans="1:5">
@@ -3646,7 +3646,7 @@
         <v>3</v>
       </c>
       <c r="E96" s="3">
-        <v>45351.5527777778</v>
+        <v>45351.8291666667</v>
       </c>
     </row>
     <row r="97" ht="44.55" customHeight="1" spans="1:5">
@@ -3663,7 +3663,7 @@
         <v>3</v>
       </c>
       <c r="E97" s="3">
-        <v>45351.6131944444</v>
+        <v>45351.8645833333</v>
       </c>
     </row>
     <row r="98" ht="44.55" customHeight="1" spans="1:5">
@@ -3680,7 +3680,7 @@
         <v>3</v>
       </c>
       <c r="E98" s="3">
-        <v>45351.6604166667</v>
+        <v>45351.95</v>
       </c>
     </row>
     <row r="99" ht="44.55" customHeight="1" spans="1:5">
@@ -3696,8 +3696,8 @@
       <c r="D99" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E99" s="3">
-        <v>45351.7076388889</v>
+      <c r="E99" s="2" t="s">
+        <v>271</v>
       </c>
     </row>
     <row r="100" ht="44.55" customHeight="1" spans="1:5">
@@ -3713,8 +3713,8 @@
       <c r="D100" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E100" s="3">
-        <v>45351.8291666667</v>
+      <c r="E100" s="2" t="s">
+        <v>272</v>
       </c>
     </row>
     <row r="101" ht="44.55" customHeight="1" spans="1:5">
@@ -3730,8 +3730,8 @@
       <c r="D101" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E101" s="3">
-        <v>45351.8645833333</v>
+      <c r="E101" s="2" t="s">
+        <v>273</v>
       </c>
     </row>
     <row r="102" ht="44.55" customHeight="1" spans="1:5">
@@ -3747,8 +3747,8 @@
       <c r="D102" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E102" s="3">
-        <v>45351.95</v>
+      <c r="E102" s="2" t="s">
+        <v>274</v>
       </c>
     </row>
     <row r="103" ht="44.55" customHeight="1" spans="1:5">
@@ -3765,7 +3765,7 @@
         <v>3</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
     </row>
     <row r="104" ht="44.55" customHeight="1" spans="1:5">
@@ -3782,7 +3782,7 @@
         <v>3</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>272</v>
+        <v>276</v>
       </c>
     </row>
     <row r="105" ht="44.55" customHeight="1" spans="1:5">
@@ -3799,7 +3799,7 @@
         <v>3</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
     </row>
     <row r="106" ht="44.55" customHeight="1" spans="1:5">
@@ -3816,7 +3816,7 @@
         <v>3</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
     </row>
     <row r="107" ht="44.55" customHeight="1" spans="1:5">
@@ -3833,7 +3833,7 @@
         <v>3</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>275</v>
+        <v>279</v>
       </c>
     </row>
     <row r="108" ht="44.55" customHeight="1" spans="1:5">
@@ -3850,7 +3850,7 @@
         <v>3</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
     </row>
     <row r="109" ht="44.55" customHeight="1" spans="1:5">
@@ -3867,75 +3867,75 @@
         <v>3</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
     </row>
     <row r="110" ht="44.55" customHeight="1" spans="1:5">
       <c r="A110" s="1" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="C110" s="2" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="D110" s="2" t="s">
         <v>3</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>278</v>
+        <v>282</v>
       </c>
     </row>
     <row r="111" ht="44.55" customHeight="1" spans="1:5">
       <c r="A111" s="1" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="C111" s="2" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="D111" s="2" t="s">
         <v>3</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>279</v>
+        <v>283</v>
       </c>
     </row>
     <row r="112" ht="44.55" customHeight="1" spans="1:5">
       <c r="A112" s="1" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="C112" s="2" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="D112" s="2" t="s">
         <v>3</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>280</v>
+        <v>284</v>
       </c>
     </row>
     <row r="113" ht="44.55" customHeight="1" spans="1:5">
       <c r="A113" s="1" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="C113" s="2" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="D113" s="2" t="s">
         <v>3</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>281</v>
+        <v>285</v>
       </c>
     </row>
     <row r="114" ht="44.55" customHeight="1" spans="1:5">
@@ -3952,7 +3952,7 @@
         <v>3</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>282</v>
+        <v>286</v>
       </c>
     </row>
     <row r="115" ht="44.55" customHeight="1" spans="1:5">
@@ -3969,7 +3969,7 @@
         <v>3</v>
       </c>
       <c r="E115" s="2" t="s">
-        <v>283</v>
+        <v>287</v>
       </c>
     </row>
     <row r="116" ht="44.55" customHeight="1" spans="1:5">
@@ -3986,7 +3986,7 @@
         <v>3</v>
       </c>
       <c r="E116" s="2" t="s">
-        <v>284</v>
+        <v>288</v>
       </c>
     </row>
     <row r="117" ht="44.55" customHeight="1" spans="1:5">
@@ -4003,7 +4003,7 @@
         <v>3</v>
       </c>
       <c r="E117" s="2" t="s">
-        <v>285</v>
+        <v>289</v>
       </c>
     </row>
     <row r="118" ht="44.55" customHeight="1" spans="1:5">
@@ -4020,7 +4020,7 @@
         <v>3</v>
       </c>
       <c r="E118" s="2" t="s">
-        <v>286</v>
+        <v>290</v>
       </c>
     </row>
     <row r="119" ht="44.55" customHeight="1" spans="1:5">
@@ -4037,7 +4037,7 @@
         <v>3</v>
       </c>
       <c r="E119" s="2" t="s">
-        <v>287</v>
+        <v>291</v>
       </c>
     </row>
     <row r="120" ht="44.55" customHeight="1" spans="1:5">
@@ -4054,7 +4054,7 @@
         <v>3</v>
       </c>
       <c r="E120" s="2" t="s">
-        <v>288</v>
+        <v>292</v>
       </c>
     </row>
     <row r="121" ht="44.55" customHeight="1" spans="1:5">
@@ -4071,7 +4071,7 @@
         <v>3</v>
       </c>
       <c r="E121" s="2" t="s">
-        <v>289</v>
+        <v>293</v>
       </c>
     </row>
     <row r="122" ht="44.55" customHeight="1" spans="1:5">
@@ -4088,7 +4088,7 @@
         <v>3</v>
       </c>
       <c r="E122" s="2" t="s">
-        <v>290</v>
+        <v>294</v>
       </c>
     </row>
     <row r="123" ht="44.55" customHeight="1" spans="1:5">
@@ -4105,7 +4105,7 @@
         <v>3</v>
       </c>
       <c r="E123" s="2" t="s">
-        <v>291</v>
+        <v>295</v>
       </c>
     </row>
     <row r="124" ht="44.55" customHeight="1" spans="1:5">
@@ -4122,7 +4122,7 @@
         <v>3</v>
       </c>
       <c r="E124" s="2" t="s">
-        <v>292</v>
+        <v>296</v>
       </c>
     </row>
     <row r="125" ht="44.55" customHeight="1" spans="1:5">
@@ -4139,7 +4139,7 @@
         <v>3</v>
       </c>
       <c r="E125" s="2" t="s">
-        <v>293</v>
+        <v>297</v>
       </c>
     </row>
     <row r="126" ht="44.55" customHeight="1" spans="1:5">
@@ -4156,7 +4156,7 @@
         <v>3</v>
       </c>
       <c r="E126" s="2" t="s">
-        <v>294</v>
+        <v>298</v>
       </c>
     </row>
     <row r="127" ht="44.55" customHeight="1" spans="1:5">
@@ -4173,7 +4173,7 @@
         <v>3</v>
       </c>
       <c r="E127" s="2" t="s">
-        <v>295</v>
+        <v>299</v>
       </c>
     </row>
     <row r="128" ht="44.55" customHeight="1" spans="1:5">
@@ -4190,7 +4190,7 @@
         <v>3</v>
       </c>
       <c r="E128" s="2" t="s">
-        <v>296</v>
+        <v>300</v>
       </c>
     </row>
     <row r="129" ht="44.55" customHeight="1" spans="1:5">
@@ -4207,7 +4207,7 @@
         <v>3</v>
       </c>
       <c r="E129" s="2" t="s">
-        <v>297</v>
+        <v>301</v>
       </c>
     </row>
     <row r="130" ht="44.55" customHeight="1" spans="1:5">
@@ -4224,7 +4224,7 @@
         <v>3</v>
       </c>
       <c r="E130" s="2" t="s">
-        <v>298</v>
+        <v>302</v>
       </c>
     </row>
     <row r="131" ht="44.55" customHeight="1" spans="1:5">
@@ -4241,7 +4241,7 @@
         <v>3</v>
       </c>
       <c r="E131" s="2" t="s">
-        <v>299</v>
+        <v>303</v>
       </c>
     </row>
     <row r="132" ht="44.55" customHeight="1" spans="1:5">
@@ -4258,7 +4258,7 @@
         <v>3</v>
       </c>
       <c r="E132" s="2" t="s">
-        <v>300</v>
+        <v>304</v>
       </c>
     </row>
     <row r="133" ht="44.55" customHeight="1" spans="1:5">
@@ -4275,7 +4275,7 @@
         <v>3</v>
       </c>
       <c r="E133" s="2" t="s">
-        <v>301</v>
+        <v>305</v>
       </c>
     </row>
     <row r="134" ht="44.55" customHeight="1" spans="1:5">
@@ -4292,7 +4292,7 @@
         <v>3</v>
       </c>
       <c r="E134" s="2" t="s">
-        <v>302</v>
+        <v>306</v>
       </c>
     </row>
     <row r="135" ht="44.55" customHeight="1" spans="1:5">
@@ -4309,7 +4309,7 @@
         <v>3</v>
       </c>
       <c r="E135" s="2" t="s">
-        <v>303</v>
+        <v>307</v>
       </c>
     </row>
     <row r="136" ht="44.55" customHeight="1" spans="1:5">
@@ -4326,7 +4326,7 @@
         <v>3</v>
       </c>
       <c r="E136" s="2" t="s">
-        <v>304</v>
+        <v>308</v>
       </c>
     </row>
     <row r="137" ht="44.55" customHeight="1" spans="1:5">
@@ -4343,7 +4343,7 @@
         <v>3</v>
       </c>
       <c r="E137" s="2" t="s">
-        <v>305</v>
+        <v>309</v>
       </c>
     </row>
     <row r="138" ht="44.55" customHeight="1" spans="1:5">
@@ -4360,142 +4360,74 @@
         <v>3</v>
       </c>
       <c r="E138" s="2" t="s">
-        <v>306</v>
+        <v>310</v>
       </c>
     </row>
     <row r="139" ht="44.55" customHeight="1" spans="1:5">
       <c r="A139" s="1" t="s">
-        <v>148</v>
+        <v>311</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>149</v>
+        <v>312</v>
       </c>
       <c r="C139" s="2" t="s">
-        <v>150</v>
+        <v>313</v>
       </c>
       <c r="D139" s="2" t="s">
         <v>3</v>
       </c>
       <c r="E139" s="2" t="s">
-        <v>307</v>
+        <v>314</v>
       </c>
     </row>
     <row r="140" ht="44.55" customHeight="1" spans="1:5">
       <c r="A140" s="1" t="s">
-        <v>151</v>
+        <v>315</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>152</v>
+        <v>316</v>
       </c>
       <c r="C140" s="2" t="s">
-        <v>153</v>
+        <v>317</v>
       </c>
       <c r="D140" s="2" t="s">
         <v>3</v>
       </c>
       <c r="E140" s="2" t="s">
-        <v>308</v>
+        <v>318</v>
       </c>
     </row>
     <row r="141" ht="44.55" customHeight="1" spans="1:5">
       <c r="A141" s="1" t="s">
-        <v>154</v>
+        <v>319</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>155</v>
+        <v>320</v>
       </c>
       <c r="C141" s="2" t="s">
-        <v>156</v>
+        <v>321</v>
       </c>
       <c r="D141" s="2" t="s">
         <v>3</v>
       </c>
       <c r="E141" s="2" t="s">
-        <v>309</v>
+        <v>322</v>
       </c>
     </row>
     <row r="142" ht="44.55" customHeight="1" spans="1:5">
       <c r="A142" s="1" t="s">
-        <v>157</v>
+        <v>323</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>158</v>
+        <v>324</v>
       </c>
       <c r="C142" s="2" t="s">
-        <v>159</v>
+        <v>325</v>
       </c>
       <c r="D142" s="2" t="s">
         <v>3</v>
       </c>
       <c r="E142" s="2" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="143" ht="44.55" customHeight="1" spans="1:5">
-      <c r="A143" s="1" t="s">
-        <v>311</v>
-      </c>
-      <c r="B143" s="2" t="s">
-        <v>312</v>
-      </c>
-      <c r="C143" s="2" t="s">
-        <v>313</v>
-      </c>
-      <c r="D143" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E143" s="2" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="144" ht="44.55" customHeight="1" spans="1:5">
-      <c r="A144" s="1" t="s">
-        <v>315</v>
-      </c>
-      <c r="B144" s="2" t="s">
-        <v>316</v>
-      </c>
-      <c r="C144" s="2" t="s">
-        <v>317</v>
-      </c>
-      <c r="D144" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E144" s="2" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="145" ht="44.55" customHeight="1" spans="1:5">
-      <c r="A145" s="1" t="s">
-        <v>319</v>
-      </c>
-      <c r="B145" s="2" t="s">
-        <v>320</v>
-      </c>
-      <c r="C145" s="2" t="s">
-        <v>321</v>
-      </c>
-      <c r="D145" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E145" s="2" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="146" ht="44.55" customHeight="1" spans="1:5">
-      <c r="A146" s="1" t="s">
-        <v>323</v>
-      </c>
-      <c r="B146" s="2" t="s">
-        <v>324</v>
-      </c>
-      <c r="C146" s="2" t="s">
-        <v>325</v>
-      </c>
-      <c r="D146" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E146" s="2" t="s">
         <v>326</v>
       </c>
     </row>

--- a/.ready/最新发布资源-维格视图.xlsx
+++ b/.ready/最新发布资源-维格视图.xlsx
@@ -17,7 +17,757 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="612" uniqueCount="327">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="565" uniqueCount="312">
+  <si>
+    <t>【开课吧】JavaEE企业级分布式高级架构师023期 - 带源码课件</t>
+  </si>
+  <si>
+    <t>https://www.alipan.com/s/tuPs8hpDXWo</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/75d95a43c24b</t>
+  </si>
+  <si>
+    <t>学术</t>
+  </si>
+  <si>
+    <t>C++百万并发网络通信引擎架构与实现(服务端+客户端+跨平台)第2季 - 带源码课件</t>
+  </si>
+  <si>
+    <t>https://www.alipan.com/s/ddo9687chP3</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/8b73030136a5</t>
+  </si>
+  <si>
+    <t>李仁松 - 古妆汉服仙服零基础美妆教学课</t>
+  </si>
+  <si>
+    <t>https://www.alipan.com/s/q1X1uEo5ZRJ</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/527d74760f3b</t>
+  </si>
+  <si>
+    <t>【TK增长会】TikTok外贸工厂陪跑训练营</t>
+  </si>
+  <si>
+    <t>https://www.alipan.com/s/34DojRVWAmu</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/e1c60a640025</t>
+  </si>
+  <si>
+    <t>PS教程超级合辑【1000集2017版】 - 带源码课件</t>
+  </si>
+  <si>
+    <t>https://www.alipan.com/s/viuX3PfVywQ</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/d2874b85b55d</t>
+  </si>
+  <si>
+    <t>【开课吧】门徒计划 - Java方向</t>
+  </si>
+  <si>
+    <t>https://www.alipan.com/s/QCABx4Jt42G</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/43559d27d803</t>
+  </si>
+  <si>
+    <t>王红元 - 前端体系课-2614集 - 带源码课件</t>
+  </si>
+  <si>
+    <t>https://www.alipan.com/s/nDEn6ibekbq</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/4fa23aecaecd</t>
+  </si>
+  <si>
+    <t>【虎课网-78025】深度学习爬虫验证码识别</t>
+  </si>
+  <si>
+    <t>https://www.alipan.com/s/7GXXwboAJv8</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/a724ae6aecc8</t>
+  </si>
+  <si>
+    <t>【开课吧】门徒计划 - AI方向</t>
+  </si>
+  <si>
+    <t>https://www.alipan.com/s/MLaCvFW1bxN</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/f56e51ab4319</t>
+  </si>
+  <si>
+    <t>【深蓝学院】机器学习数学基础 - 带源码课件</t>
+  </si>
+  <si>
+    <t>https://www.alipan.com/s/AGbozELqBgG</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/bc5ee542c086</t>
+  </si>
+  <si>
+    <t>手机摄影技巧：从0到1用手机拍出酷炫短视频Vlog</t>
+  </si>
+  <si>
+    <t>https://www.alipan.com/s/bxyr9SozFNS</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/94cf785af921</t>
+  </si>
+  <si>
+    <t>英语思维：快速建立语法体系</t>
+  </si>
+  <si>
+    <t>https://www.alipan.com/s/txUKQgPAh3d</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/b9a565c6c0f0</t>
+  </si>
+  <si>
+    <t>【CCtalk】静物美食摄影课 - 17期</t>
+  </si>
+  <si>
+    <t>https://www.alipan.com/s/ymu1uyyigVS</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/31023affd886</t>
+  </si>
+  <si>
+    <t>【开课吧】门徒计划 - 算法课</t>
+  </si>
+  <si>
+    <t>https://www.alipan.com/s/SMb5q9nJUT6</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/a18f2824148c</t>
+  </si>
+  <si>
+    <t>【imooc-92】新版Scrapy打造搜索引擎 畅销4年的Python分布式爬虫课 - 带源码课件</t>
+  </si>
+  <si>
+    <t>https://www.alipan.com/s/fSsgMVtV1dD</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/b107454ccac0</t>
+  </si>
+  <si>
+    <t>声乐魔法课：让你唱出动听歌声，秒变KTV麦霸</t>
+  </si>
+  <si>
+    <t>https://www.alipan.com/s/yBaMkVWE8Y8</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/3170ab4919d4</t>
+  </si>
+  <si>
+    <t>【新东方在线】2024考研英语全程班 - 带源码课件</t>
+  </si>
+  <si>
+    <t>https://www.alipan.com/s/DBj26N6FV9Y</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/91091827c3fd</t>
+  </si>
+  <si>
+    <t>【Theone口译】英语零基础入门班</t>
+  </si>
+  <si>
+    <t>https://www.alipan.com/s/9ShxSrGTrus</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/e1d6da69de29</t>
+  </si>
+  <si>
+    <t>【思益学院】纪主任《车神陪跑：拼多多系统化课程》</t>
+  </si>
+  <si>
+    <t>https://www.alipan.com/s/9YxJkCg1WRK</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/48da8efa4a20</t>
+  </si>
+  <si>
+    <t>【开课吧】机器学习如何在企业中落地 - 带源码课件</t>
+  </si>
+  <si>
+    <t>https://www.alipan.com/s/jaqA4mfVu8L</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/adc57f97bb76</t>
+  </si>
+  <si>
+    <t>【潭州教育】配音全能班8期（全阶段） - 带源码课件</t>
+  </si>
+  <si>
+    <t>https://www.alipan.com/s/Dd59pAv6tic</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/9c6e49db7b98</t>
+  </si>
+  <si>
+    <t>诺思星 - 抖音影视混剪变现课</t>
+  </si>
+  <si>
+    <t>https://www.alipan.com/s/kc52CrqSjZ5</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/e4626fba4ff0</t>
+  </si>
+  <si>
+    <t>【NightTeam夜幕】JavaScript 逆向系列课 + 高阶课（SVIP完结） - 带源码课件</t>
+  </si>
+  <si>
+    <t>https://www.alipan.com/s/Wpfd69FubPt</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/97400ec0c32b</t>
+  </si>
+  <si>
+    <t>厦九九 - 9节小红书博主赚钱课</t>
+  </si>
+  <si>
+    <t>https://www.alipan.com/s/Nq8tfTxijYV</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/245a22bfb5dc</t>
+  </si>
+  <si>
+    <t>【达内教育】2023最新Python+人工智能就业班 - 带源码课件</t>
+  </si>
+  <si>
+    <t>https://www.alipan.com/s/xysChTt6Fhk</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/1e48256cbd2d</t>
+  </si>
+  <si>
+    <t>uniapp陪诊小程序</t>
+  </si>
+  <si>
+    <t>https://www.alipan.com/s/xht4ci3zLmk</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/6a2a2e4e78dd</t>
+  </si>
+  <si>
+    <t>小区物业管理系统</t>
+  </si>
+  <si>
+    <t>https://www.alipan.com/s/jzFck4WwrJq</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/23fe247996e9</t>
+  </si>
+  <si>
+    <t>C++游戏编程实例精讲--3D射击游戏作弊</t>
+  </si>
+  <si>
+    <t>https://www.alipan.com/s/j11kKWqW57o</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/a19a44d61ccb</t>
+  </si>
+  <si>
+    <t>深度学习项目：Django搭建CNN网络实现图像识别 - 带源码课件</t>
+  </si>
+  <si>
+    <t>https://www.alipan.com/s/vRDC5FcNmnX</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/1004a4bf020a</t>
+  </si>
+  <si>
+    <t>C C++企业级项目实战班 - 带源码课件</t>
+  </si>
+  <si>
+    <t>https://www.alipan.com/s/BHKcc31Upnh</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/1b3d8cbc57af</t>
+  </si>
+  <si>
+    <t>【尚硅谷】2022北京校区JAVA就业班 - 带源码课件</t>
+  </si>
+  <si>
+    <t>https://www.alipan.com/s/st2bvcUQPDN</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/70c52d6c31af</t>
+  </si>
+  <si>
+    <t>核聚北大学霸私藏的高效学习术</t>
+  </si>
+  <si>
+    <t>https://www.alipan.com/s/oHQuq1XauRn</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/4e4da39d6abc</t>
+  </si>
+  <si>
+    <t>【拼客学院】2019年直播面授班 《全栈网络安全专家》 43期 - 带源码课件</t>
+  </si>
+  <si>
+    <t>https://www.alipan.com/s/UFwetD1kNTQ</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/ee32f0d491e2</t>
+  </si>
+  <si>
+    <t>极简英语 - 英语能力系统提升班 - 带源码课件</t>
+  </si>
+  <si>
+    <t>https://www.alipan.com/s/vtdkUoH3N8t</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/d26a10b37b1f</t>
+  </si>
+  <si>
+    <t>基于SpringBoot+Mybatis从头搭建通用管理系统(后端篇) - 带源码课件</t>
+  </si>
+  <si>
+    <t>https://www.alipan.com/s/WDrSso9TVHF</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/e111d8997711</t>
+  </si>
+  <si>
+    <t>【粉笔】2023高照超大杯刷题营</t>
+  </si>
+  <si>
+    <t>https://www.alipan.com/s/wDqarW38FwH</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/76a5b545c41b</t>
+  </si>
+  <si>
+    <t>【新东方在线】英语零基础直达流利生活口语</t>
+  </si>
+  <si>
+    <t>https://www.alipan.com/s/929gk7zdzqg</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/a8083a220e18</t>
+  </si>
+  <si>
+    <t>【51CTO-3811】《Wireshark协议分析基础与提升》第二季 TCP IP协议栈详解(上)</t>
+  </si>
+  <si>
+    <t>https://www.alipan.com/s/hcGnaiERdSV</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/6ce384f2434b</t>
+  </si>
+  <si>
+    <t>老陈的IT杂货铺 - 嵌入式零基础到就业年班</t>
+  </si>
+  <si>
+    <t>https://www.alipan.com/s/wx4GhdUCH2J</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/c8169a3cc4e9</t>
+  </si>
+  <si>
+    <t>【尚硅谷】SpringSecurity+OAuth2.0实战精讲 - 带源码课件</t>
+  </si>
+  <si>
+    <t>https://www.alipan.com/s/v2fDjMiJ9Wf</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/564723411378</t>
+  </si>
+  <si>
+    <t>【尚硅谷】鸿蒙应用开发 - 带源码课件</t>
+  </si>
+  <si>
+    <t>https://www.alipan.com/s/f3fRYQwDnaG</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/506a2573540a</t>
+  </si>
+  <si>
+    <t>Go+Vue通用后台管理项目实战 - 带源码课件</t>
+  </si>
+  <si>
+    <t>https://www.alipan.com/s/AnU5TQnTRyk</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/90762ab029d3</t>
+  </si>
+  <si>
+    <t>极客时间 - Linux 实战技能 100 讲</t>
+  </si>
+  <si>
+    <t>https://www.alipan.com/s/Cr6vqh2QmQg</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/34743da8b7d0</t>
+  </si>
+  <si>
+    <t>极客时间- Go 语言从入门到实战</t>
+  </si>
+  <si>
+    <t>https://www.alipan.com/s/YDGijuSitMF</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/18180dd168d6</t>
+  </si>
+  <si>
+    <t>【站酷学习】教你拍好女朋友——基础人像外拍实战</t>
+  </si>
+  <si>
+    <t>https://www.alipan.com/s/ACy8i4MQwC2</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/853bc3ede4a1</t>
+  </si>
+  <si>
+    <t>极客时间 - Vue 开发实战</t>
+  </si>
+  <si>
+    <t>https://www.alipan.com/s/EoSrtf3a8CS</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/deed6b2e577d</t>
+  </si>
+  <si>
+    <t>【爱学堂】数学 1~6年级全套视频</t>
+  </si>
+  <si>
+    <t>https://www.alipan.com/s/kkyMqiQ8Hok</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/cfc21cd0895d</t>
+  </si>
+  <si>
+    <t>极客时间 - MongoDB 高手课</t>
+  </si>
+  <si>
+    <t>https://www.alipan.com/s/XQJUWK8wV4M</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/8b5ac5caa61c</t>
+  </si>
+  <si>
+    <t>极客时间 - Nginx 核心知识 150 讲</t>
+  </si>
+  <si>
+    <t>https://www.alipan.com/s/pT64ptRKngu</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/7e3252a76f16</t>
+  </si>
+  <si>
+    <t>B站 - 局座的国际战略课</t>
+  </si>
+  <si>
+    <t>https://www.alipan.com/s/45XTXgC2sj5</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/2dbaa3f052c5</t>
+  </si>
+  <si>
+    <t>B站 - 沈逸：白宫里的主角们</t>
+  </si>
+  <si>
+    <t>https://www.alipan.com/s/unxuzpDtX4S</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/d738fcac65ca</t>
+  </si>
+  <si>
+    <t>MySQL提升课程 全面讲解MySQL架构设计 - 带源码课件</t>
+  </si>
+  <si>
+    <t>https://www.alipan.com/s/Ec3whojaoFv</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/b6a4309fe412</t>
+  </si>
+  <si>
+    <t>B站 - 金灿荣教授：进击的中国外交</t>
+  </si>
+  <si>
+    <t>https://www.alipan.com/s/R9CruNgR1mu</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/8feb18cc63fa</t>
+  </si>
+  <si>
+    <t>React 实战进阶 45 讲 - 带源码课件</t>
+  </si>
+  <si>
+    <t>https://www.alipan.com/s/XXBykN4NcNQ</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/5ac7f8cb1b0b</t>
+  </si>
+  <si>
+    <t>Python高效编程技巧实战 - 带源码课件</t>
+  </si>
+  <si>
+    <t>https://www.alipan.com/s/QXfbJUKj9Ud</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/4a7376c30de4</t>
+  </si>
+  <si>
+    <t>B站 - Python小白也能听懂的入门课</t>
+  </si>
+  <si>
+    <t>https://www.alipan.com/s/cxQTsNEvAPk</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/85987c4a3b30</t>
+  </si>
+  <si>
+    <t>B站 - 马思瑞的口语私教课 - 带源码课件</t>
+  </si>
+  <si>
+    <t>https://www.alipan.com/s/T5xSLjzMkH2</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/1f62fbe4b31d</t>
+  </si>
+  <si>
+    <t>极客时间 - NLP 实战高手课</t>
+  </si>
+  <si>
+    <t>https://www.alipan.com/s/YnjiP2biTWB</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/fb0b864be752</t>
+  </si>
+  <si>
+    <t>B站 - Excel大神上分攻略 - 带源码课件</t>
+  </si>
+  <si>
+    <t>https://www.alipan.com/s/AsVG7dV7oAA</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/109e4e58061f</t>
+  </si>
+  <si>
+    <t>【MBA智库】企业高管：战略经营与核心能力研修班</t>
+  </si>
+  <si>
+    <t>https://www.alipan.com/s/SmX3dszRBBo</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/d03bb912629b</t>
+  </si>
+  <si>
+    <t>B站 - 罗翔：刑法悖论十讲</t>
+  </si>
+  <si>
+    <t>https://www.alipan.com/s/mvQjjqX8zPm</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/e13fd37bb797</t>
+  </si>
+  <si>
+    <t>B站 - C4D大作战：百万UP的光之教程</t>
+  </si>
+  <si>
+    <t>https://www.alipan.com/s/Sd39tdH6UgU</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/e5a20dcbdaa6</t>
+  </si>
+  <si>
+    <t>极客时间 - 分布式系统案例课</t>
+  </si>
+  <si>
+    <t>https://www.alipan.com/s/Lq2XS5iEpbj</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/a767e169c7dc</t>
+  </si>
+  <si>
+    <t>极客时间 - TensorFlow 2 项目进阶实战</t>
+  </si>
+  <si>
+    <t>https://www.alipan.com/s/UZpFszPpwXG</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/bfce988e0f05</t>
+  </si>
+  <si>
+    <t>B站 - 陈平的跨学科思维课</t>
+  </si>
+  <si>
+    <t>https://www.alipan.com/s/2Gy97oMbQ1F</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/dd95c80ded90</t>
+  </si>
+  <si>
+    <t>B站 - AE超能力学院 - 小莫入门到精通 - 带源码课件</t>
+  </si>
+  <si>
+    <t>https://www.alipan.com/s/kYkzNSeeXbK</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/589d26e20d1c</t>
+  </si>
+  <si>
+    <t>B站 - 张召忠-第四次工业革命</t>
+  </si>
+  <si>
+    <t>https://www.alipan.com/s/YeHsrjV8U8R</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/12f65f11d392</t>
+  </si>
+  <si>
+    <t>极客时间 - TypeScript 开发实战</t>
+  </si>
+  <si>
+    <t>https://www.alipan.com/s/NwvBk8DWZo8</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/3600b8327f1a</t>
+  </si>
+  <si>
+    <t>极客时间 - 前端全链路性能优化实战</t>
+  </si>
+  <si>
+    <t>https://www.alipan.com/s/XNTGRMNr7qZ</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/a6102e13a82c</t>
+  </si>
+  <si>
+    <t>极客时间 - 小马哥讲 Spring 核心编程思想</t>
+  </si>
+  <si>
+    <t>https://www.alipan.com/s/nSFwE8N1zYy</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/56d239336426</t>
+  </si>
+  <si>
+    <t>极客时间 - Electron 开发实战</t>
+  </si>
+  <si>
+    <t>https://www.alipan.com/s/Macot3n9d3u</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/30b6161a8b4b</t>
+  </si>
+  <si>
+    <t>微淼 - 财务自由工具操作技能课 - 带源码课件</t>
+  </si>
+  <si>
+    <t>https://www.alipan.com/s/axbBYCdEUJs</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/1c61bc326bed</t>
+  </si>
+  <si>
+    <t>B站 - 上海交大陆铭教授的经济学思维课</t>
+  </si>
+  <si>
+    <t>https://www.alipan.com/s/7TKnhbdcsjR</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/638bab4c3290</t>
+  </si>
+  <si>
+    <t>B站 - 马皑教授的社会学：人类的越轨行为研究</t>
+  </si>
+  <si>
+    <t>https://www.alipan.com/s/q6bBXPpJMRq</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/51010011e50f</t>
+  </si>
+  <si>
+    <t>【一周进步】PPT动画</t>
+  </si>
+  <si>
+    <t>https://www.alipan.com/s/nnKCiWmuWe3</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/a17390194473</t>
+  </si>
+  <si>
+    <t>B站 - Tiger谭秋娟的吉他弹唱入门课</t>
+  </si>
+  <si>
+    <t>https://www.alipan.com/s/YME2v33A2JV</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/a7c610ed3e75</t>
+  </si>
+  <si>
+    <t>B站 - 唐盾：0-N4日语精讲</t>
+  </si>
+  <si>
+    <t>https://www.alipan.com/s/NcrramRaGnU</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/659d19faaef5</t>
+  </si>
+  <si>
+    <t>孙志立 - 英语自然拼读100讲</t>
+  </si>
+  <si>
+    <t>https://www.alipan.com/s/8gVsSU1da2t</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/63d31a4a1ce8</t>
+  </si>
+  <si>
+    <t>微淼 - 财务报表分析技能课</t>
+  </si>
+  <si>
+    <t>https://www.alipan.com/s/YDfo7NDsisz</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/6fc9d929f293</t>
+  </si>
+  <si>
+    <t>极客时间 - 分布式缓存高手课</t>
+  </si>
+  <si>
+    <t>https://www.alipan.com/s/ALx78iiTUbF</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/fb89fe68abd4</t>
+  </si>
+  <si>
+    <t>极客时间 - Django 快速开发实战</t>
+  </si>
+  <si>
+    <t>https://www.alipan.com/s/vY9Ja7ebUtZ</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/0a05d28deaf7</t>
+  </si>
+  <si>
+    <t>极客时间 - 微信小程序全栈开发实战</t>
+  </si>
+  <si>
+    <t>https://www.alipan.com/s/vJXpmwGYtyL</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/0c71ff554eb7</t>
+  </si>
+  <si>
+    <t>【MBA智库】管理精进：中层管理者能力突破训练营</t>
+  </si>
+  <si>
+    <t>https://www.alipan.com/s/xQ5HVyddyHY</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/15da7cdbffc6</t>
+  </si>
   <si>
     <t>微淼 - 财务自由财企分析技能课</t>
   </si>
@@ -28,9 +778,6 @@
     <t>https://pan.quark.cn/s/35a371a02b02</t>
   </si>
   <si>
-    <t>学术</t>
-  </si>
-  <si>
     <t>【MBA智库】管理启航：新任管理者成长训练营</t>
   </si>
   <si>
@@ -67,33 +814,6 @@
     <t>https://pan.quark.cn/s/e4e2a8d6517e</t>
   </si>
   <si>
-    <t>【儒猿课堂】从0开始带你成为MySQL实战优化高手</t>
-  </si>
-  <si>
-    <t>https://www.alipan.com/s/sHEXx5RsWY4</t>
-  </si>
-  <si>
-    <t>https://pan.quark.cn/s/6a62a1a5b47e</t>
-  </si>
-  <si>
-    <t>【开课吧】JavaEE企业级分布式高级架构师023期 - 带源码课件</t>
-  </si>
-  <si>
-    <t>https://www.alipan.com/s/tuPs8hpDXWo</t>
-  </si>
-  <si>
-    <t>https://pan.quark.cn/s/75d95a43c24b</t>
-  </si>
-  <si>
-    <t>C++百万并发网络通信引擎架构与实现(服务端+客户端+跨平台)第2季 - 带源码课件</t>
-  </si>
-  <si>
-    <t>https://www.alipan.com/s/ddo9687chP3</t>
-  </si>
-  <si>
-    <t>https://pan.quark.cn/s/8b73030136a5</t>
-  </si>
-  <si>
     <t>汤小小账号变现课第2期，今日头条、小红书、公众号，1000粉也可以接广告变现</t>
   </si>
   <si>
@@ -103,735 +823,6 @@
     <t>https://pan.quark.cn/s/75bfbfacd504</t>
   </si>
   <si>
-    <t>李仁松 - 古妆汉服仙服零基础美妆教学课</t>
-  </si>
-  <si>
-    <t>https://www.alipan.com/s/q1X1uEo5ZRJ</t>
-  </si>
-  <si>
-    <t>https://pan.quark.cn/s/527d74760f3b</t>
-  </si>
-  <si>
-    <t>【TK增长会】TikTok外贸工厂陪跑训练营</t>
-  </si>
-  <si>
-    <t>https://www.alipan.com/s/34DojRVWAmu</t>
-  </si>
-  <si>
-    <t>https://pan.quark.cn/s/e1c60a640025</t>
-  </si>
-  <si>
-    <t>PS教程超级合辑【1000集2017版】 - 带源码课件</t>
-  </si>
-  <si>
-    <t>https://www.alipan.com/s/viuX3PfVywQ</t>
-  </si>
-  <si>
-    <t>https://pan.quark.cn/s/d2874b85b55d</t>
-  </si>
-  <si>
-    <t>【开课吧】门徒计划 - Java方向</t>
-  </si>
-  <si>
-    <t>https://www.alipan.com/s/QCABx4Jt42G</t>
-  </si>
-  <si>
-    <t>https://pan.quark.cn/s/43559d27d803</t>
-  </si>
-  <si>
-    <t>王红元 - 前端体系课-2614集 - 带源码课件</t>
-  </si>
-  <si>
-    <t>https://www.alipan.com/s/nDEn6ibekbq</t>
-  </si>
-  <si>
-    <t>https://pan.quark.cn/s/4fa23aecaecd</t>
-  </si>
-  <si>
-    <t>【虎课网-78025】深度学习爬虫验证码识别</t>
-  </si>
-  <si>
-    <t>https://www.alipan.com/s/7GXXwboAJv8</t>
-  </si>
-  <si>
-    <t>https://pan.quark.cn/s/a724ae6aecc8</t>
-  </si>
-  <si>
-    <t>【开课吧】门徒计划 - AI方向</t>
-  </si>
-  <si>
-    <t>https://www.alipan.com/s/MLaCvFW1bxN</t>
-  </si>
-  <si>
-    <t>https://pan.quark.cn/s/f56e51ab4319</t>
-  </si>
-  <si>
-    <t>【深蓝学院】机器学习数学基础 - 带源码课件</t>
-  </si>
-  <si>
-    <t>https://www.alipan.com/s/AGbozELqBgG</t>
-  </si>
-  <si>
-    <t>https://pan.quark.cn/s/bc5ee542c086</t>
-  </si>
-  <si>
-    <t>手机摄影技巧：从0到1用手机拍出酷炫短视频Vlog</t>
-  </si>
-  <si>
-    <t>https://www.alipan.com/s/bxyr9SozFNS</t>
-  </si>
-  <si>
-    <t>https://pan.quark.cn/s/94cf785af921</t>
-  </si>
-  <si>
-    <t>英语思维：快速建立语法体系</t>
-  </si>
-  <si>
-    <t>https://www.alipan.com/s/txUKQgPAh3d</t>
-  </si>
-  <si>
-    <t>https://pan.quark.cn/s/b9a565c6c0f0</t>
-  </si>
-  <si>
-    <t>【CCtalk】静物美食摄影课 - 17期</t>
-  </si>
-  <si>
-    <t>https://www.alipan.com/s/ymu1uyyigVS</t>
-  </si>
-  <si>
-    <t>https://pan.quark.cn/s/31023affd886</t>
-  </si>
-  <si>
-    <t>【开课吧】门徒计划 - 算法课</t>
-  </si>
-  <si>
-    <t>https://www.alipan.com/s/SMb5q9nJUT6</t>
-  </si>
-  <si>
-    <t>https://pan.quark.cn/s/a18f2824148c</t>
-  </si>
-  <si>
-    <t>【imooc-92】新版Scrapy打造搜索引擎 畅销4年的Python分布式爬虫课 - 带源码课件</t>
-  </si>
-  <si>
-    <t>https://www.alipan.com/s/fSsgMVtV1dD</t>
-  </si>
-  <si>
-    <t>https://pan.quark.cn/s/b107454ccac0</t>
-  </si>
-  <si>
-    <t>声乐魔法课：让你唱出动听歌声，秒变KTV麦霸</t>
-  </si>
-  <si>
-    <t>https://www.alipan.com/s/yBaMkVWE8Y8</t>
-  </si>
-  <si>
-    <t>https://pan.quark.cn/s/3170ab4919d4</t>
-  </si>
-  <si>
-    <t>【新东方在线】2024考研英语全程班 - 带源码课件</t>
-  </si>
-  <si>
-    <t>https://www.alipan.com/s/DBj26N6FV9Y</t>
-  </si>
-  <si>
-    <t>https://pan.quark.cn/s/91091827c3fd</t>
-  </si>
-  <si>
-    <t>【Theone口译】英语零基础入门班</t>
-  </si>
-  <si>
-    <t>https://www.alipan.com/s/9ShxSrGTrus</t>
-  </si>
-  <si>
-    <t>https://pan.quark.cn/s/e1d6da69de29</t>
-  </si>
-  <si>
-    <t>【思益学院】纪主任《车神陪跑：拼多多系统化课程》</t>
-  </si>
-  <si>
-    <t>https://www.alipan.com/s/9YxJkCg1WRK</t>
-  </si>
-  <si>
-    <t>https://pan.quark.cn/s/48da8efa4a20</t>
-  </si>
-  <si>
-    <t>【开课吧】机器学习如何在企业中落地 - 带源码课件</t>
-  </si>
-  <si>
-    <t>https://www.alipan.com/s/jaqA4mfVu8L</t>
-  </si>
-  <si>
-    <t>https://pan.quark.cn/s/adc57f97bb76</t>
-  </si>
-  <si>
-    <t>【潭州教育】配音全能班8期（全阶段） - 带源码课件</t>
-  </si>
-  <si>
-    <t>https://www.alipan.com/s/Dd59pAv6tic</t>
-  </si>
-  <si>
-    <t>https://pan.quark.cn/s/9c6e49db7b98</t>
-  </si>
-  <si>
-    <t>诺思星 - 抖音影视混剪变现课</t>
-  </si>
-  <si>
-    <t>https://www.alipan.com/s/kc52CrqSjZ5</t>
-  </si>
-  <si>
-    <t>https://pan.quark.cn/s/e4626fba4ff0</t>
-  </si>
-  <si>
-    <t>【NightTeam夜幕】JavaScript 逆向系列课 + 高阶课（SVIP完结） - 带源码课件</t>
-  </si>
-  <si>
-    <t>https://www.alipan.com/s/Wpfd69FubPt</t>
-  </si>
-  <si>
-    <t>https://pan.quark.cn/s/97400ec0c32b</t>
-  </si>
-  <si>
-    <t>厦九九 - 9节小红书博主赚钱课</t>
-  </si>
-  <si>
-    <t>https://www.alipan.com/s/Nq8tfTxijYV</t>
-  </si>
-  <si>
-    <t>https://pan.quark.cn/s/245a22bfb5dc</t>
-  </si>
-  <si>
-    <t>【达内教育】2023最新Python+人工智能就业班 - 带源码课件</t>
-  </si>
-  <si>
-    <t>https://www.alipan.com/s/xysChTt6Fhk</t>
-  </si>
-  <si>
-    <t>https://pan.quark.cn/s/1e48256cbd2d</t>
-  </si>
-  <si>
-    <t>uniapp陪诊小程序</t>
-  </si>
-  <si>
-    <t>https://www.alipan.com/s/xht4ci3zLmk</t>
-  </si>
-  <si>
-    <t>https://pan.quark.cn/s/6a2a2e4e78dd</t>
-  </si>
-  <si>
-    <t>小区物业管理系统</t>
-  </si>
-  <si>
-    <t>https://www.alipan.com/s/jzFck4WwrJq</t>
-  </si>
-  <si>
-    <t>https://pan.quark.cn/s/23fe247996e9</t>
-  </si>
-  <si>
-    <t>C++游戏编程实例精讲--3D射击游戏作弊</t>
-  </si>
-  <si>
-    <t>https://www.alipan.com/s/j11kKWqW57o</t>
-  </si>
-  <si>
-    <t>https://pan.quark.cn/s/a19a44d61ccb</t>
-  </si>
-  <si>
-    <t>深度学习项目：Django搭建CNN网络实现图像识别 - 带源码课件</t>
-  </si>
-  <si>
-    <t>https://www.alipan.com/s/vRDC5FcNmnX</t>
-  </si>
-  <si>
-    <t>https://pan.quark.cn/s/1004a4bf020a</t>
-  </si>
-  <si>
-    <t>C C++企业级项目实战班 - 带源码课件</t>
-  </si>
-  <si>
-    <t>https://www.alipan.com/s/BHKcc31Upnh</t>
-  </si>
-  <si>
-    <t>https://pan.quark.cn/s/1b3d8cbc57af</t>
-  </si>
-  <si>
-    <t>【尚硅谷】2022北京校区JAVA就业班 - 带源码课件</t>
-  </si>
-  <si>
-    <t>https://www.alipan.com/s/st2bvcUQPDN</t>
-  </si>
-  <si>
-    <t>https://pan.quark.cn/s/70c52d6c31af</t>
-  </si>
-  <si>
-    <t>核聚北大学霸私藏的高效学习术</t>
-  </si>
-  <si>
-    <t>https://www.alipan.com/s/oHQuq1XauRn</t>
-  </si>
-  <si>
-    <t>https://pan.quark.cn/s/4e4da39d6abc</t>
-  </si>
-  <si>
-    <t>【拼客学院】2019年直播面授班 《全栈网络安全专家》 43期 - 带源码课件</t>
-  </si>
-  <si>
-    <t>https://www.alipan.com/s/UFwetD1kNTQ</t>
-  </si>
-  <si>
-    <t>https://pan.quark.cn/s/ee32f0d491e2</t>
-  </si>
-  <si>
-    <t>极简英语 - 英语能力系统提升班 - 带源码课件</t>
-  </si>
-  <si>
-    <t>https://www.alipan.com/s/vtdkUoH3N8t</t>
-  </si>
-  <si>
-    <t>https://pan.quark.cn/s/d26a10b37b1f</t>
-  </si>
-  <si>
-    <t>基于SpringBoot+Mybatis从头搭建通用管理系统(后端篇) - 带源码课件</t>
-  </si>
-  <si>
-    <t>https://www.alipan.com/s/WDrSso9TVHF</t>
-  </si>
-  <si>
-    <t>https://pan.quark.cn/s/e111d8997711</t>
-  </si>
-  <si>
-    <t>【粉笔】2023高照超大杯刷题营</t>
-  </si>
-  <si>
-    <t>https://www.alipan.com/s/wDqarW38FwH</t>
-  </si>
-  <si>
-    <t>https://pan.quark.cn/s/76a5b545c41b</t>
-  </si>
-  <si>
-    <t>【新东方在线】英语零基础直达流利生活口语</t>
-  </si>
-  <si>
-    <t>https://www.alipan.com/s/929gk7zdzqg</t>
-  </si>
-  <si>
-    <t>https://pan.quark.cn/s/a8083a220e18</t>
-  </si>
-  <si>
-    <t>【51CTO-3811】《Wireshark协议分析基础与提升》第二季 TCP IP协议栈详解(上)</t>
-  </si>
-  <si>
-    <t>https://www.alipan.com/s/hcGnaiERdSV</t>
-  </si>
-  <si>
-    <t>https://pan.quark.cn/s/6ce384f2434b</t>
-  </si>
-  <si>
-    <t>老陈的IT杂货铺 - 嵌入式零基础到就业年班</t>
-  </si>
-  <si>
-    <t>https://www.alipan.com/s/wx4GhdUCH2J</t>
-  </si>
-  <si>
-    <t>https://pan.quark.cn/s/c8169a3cc4e9</t>
-  </si>
-  <si>
-    <t>【尚硅谷】SpringSecurity+OAuth2.0实战精讲 - 带源码课件</t>
-  </si>
-  <si>
-    <t>https://www.alipan.com/s/v2fDjMiJ9Wf</t>
-  </si>
-  <si>
-    <t>https://pan.quark.cn/s/564723411378</t>
-  </si>
-  <si>
-    <t>【尚硅谷】鸿蒙应用开发 - 带源码课件</t>
-  </si>
-  <si>
-    <t>https://www.alipan.com/s/f3fRYQwDnaG</t>
-  </si>
-  <si>
-    <t>https://pan.quark.cn/s/506a2573540a</t>
-  </si>
-  <si>
-    <t>Go+Vue通用后台管理项目实战 - 带源码课件</t>
-  </si>
-  <si>
-    <t>https://www.alipan.com/s/AnU5TQnTRyk</t>
-  </si>
-  <si>
-    <t>https://pan.quark.cn/s/90762ab029d3</t>
-  </si>
-  <si>
-    <t>极客时间 - Linux 实战技能 100 讲</t>
-  </si>
-  <si>
-    <t>https://www.alipan.com/s/Cr6vqh2QmQg</t>
-  </si>
-  <si>
-    <t>https://pan.quark.cn/s/34743da8b7d0</t>
-  </si>
-  <si>
-    <t>极客时间- Go 语言从入门到实战</t>
-  </si>
-  <si>
-    <t>https://www.alipan.com/s/YDGijuSitMF</t>
-  </si>
-  <si>
-    <t>https://pan.quark.cn/s/18180dd168d6</t>
-  </si>
-  <si>
-    <t>【站酷学习】教你拍好女朋友——基础人像外拍实战</t>
-  </si>
-  <si>
-    <t>https://www.alipan.com/s/ACy8i4MQwC2</t>
-  </si>
-  <si>
-    <t>https://pan.quark.cn/s/853bc3ede4a1</t>
-  </si>
-  <si>
-    <t>极客时间 - Vue 开发实战</t>
-  </si>
-  <si>
-    <t>https://www.alipan.com/s/EoSrtf3a8CS</t>
-  </si>
-  <si>
-    <t>https://pan.quark.cn/s/deed6b2e577d</t>
-  </si>
-  <si>
-    <t>【爱学堂】数学 1~6年级全套视频</t>
-  </si>
-  <si>
-    <t>https://www.alipan.com/s/kkyMqiQ8Hok</t>
-  </si>
-  <si>
-    <t>https://pan.quark.cn/s/cfc21cd0895d</t>
-  </si>
-  <si>
-    <t>极客时间 - MongoDB 高手课</t>
-  </si>
-  <si>
-    <t>https://www.alipan.com/s/XQJUWK8wV4M</t>
-  </si>
-  <si>
-    <t>https://pan.quark.cn/s/8b5ac5caa61c</t>
-  </si>
-  <si>
-    <t>极客时间 - Nginx 核心知识 150 讲</t>
-  </si>
-  <si>
-    <t>https://www.alipan.com/s/pT64ptRKngu</t>
-  </si>
-  <si>
-    <t>https://pan.quark.cn/s/7e3252a76f16</t>
-  </si>
-  <si>
-    <t>B站 - 局座的国际战略课</t>
-  </si>
-  <si>
-    <t>https://www.alipan.com/s/45XTXgC2sj5</t>
-  </si>
-  <si>
-    <t>https://pan.quark.cn/s/2dbaa3f052c5</t>
-  </si>
-  <si>
-    <t>B站 - 沈逸：白宫里的主角们</t>
-  </si>
-  <si>
-    <t>https://www.alipan.com/s/unxuzpDtX4S</t>
-  </si>
-  <si>
-    <t>https://pan.quark.cn/s/d738fcac65ca</t>
-  </si>
-  <si>
-    <t>MySQL提升课程 全面讲解MySQL架构设计 - 带源码课件</t>
-  </si>
-  <si>
-    <t>https://www.alipan.com/s/Ec3whojaoFv</t>
-  </si>
-  <si>
-    <t>https://pan.quark.cn/s/b6a4309fe412</t>
-  </si>
-  <si>
-    <t>B站 - 金灿荣教授：进击的中国外交</t>
-  </si>
-  <si>
-    <t>https://www.alipan.com/s/R9CruNgR1mu</t>
-  </si>
-  <si>
-    <t>https://pan.quark.cn/s/8feb18cc63fa</t>
-  </si>
-  <si>
-    <t>React 实战进阶 45 讲 - 带源码课件</t>
-  </si>
-  <si>
-    <t>https://www.alipan.com/s/XXBykN4NcNQ</t>
-  </si>
-  <si>
-    <t>https://pan.quark.cn/s/5ac7f8cb1b0b</t>
-  </si>
-  <si>
-    <t>Python高效编程技巧实战 - 带源码课件</t>
-  </si>
-  <si>
-    <t>https://www.alipan.com/s/QXfbJUKj9Ud</t>
-  </si>
-  <si>
-    <t>https://pan.quark.cn/s/4a7376c30de4</t>
-  </si>
-  <si>
-    <t>B站 - Python小白也能听懂的入门课</t>
-  </si>
-  <si>
-    <t>https://www.alipan.com/s/cxQTsNEvAPk</t>
-  </si>
-  <si>
-    <t>https://pan.quark.cn/s/85987c4a3b30</t>
-  </si>
-  <si>
-    <t>B站 - 马思瑞的口语私教课 - 带源码课件</t>
-  </si>
-  <si>
-    <t>https://www.alipan.com/s/T5xSLjzMkH2</t>
-  </si>
-  <si>
-    <t>https://pan.quark.cn/s/1f62fbe4b31d</t>
-  </si>
-  <si>
-    <t>极客时间 - NLP 实战高手课</t>
-  </si>
-  <si>
-    <t>https://www.alipan.com/s/YnjiP2biTWB</t>
-  </si>
-  <si>
-    <t>https://pan.quark.cn/s/fb0b864be752</t>
-  </si>
-  <si>
-    <t>B站 - Excel大神上分攻略 - 带源码课件</t>
-  </si>
-  <si>
-    <t>https://www.alipan.com/s/AsVG7dV7oAA</t>
-  </si>
-  <si>
-    <t>https://pan.quark.cn/s/109e4e58061f</t>
-  </si>
-  <si>
-    <t>【MBA智库】企业高管：战略经营与核心能力研修班</t>
-  </si>
-  <si>
-    <t>https://www.alipan.com/s/SmX3dszRBBo</t>
-  </si>
-  <si>
-    <t>https://pan.quark.cn/s/d03bb912629b</t>
-  </si>
-  <si>
-    <t>B站 - 罗翔：刑法悖论十讲</t>
-  </si>
-  <si>
-    <t>https://www.alipan.com/s/mvQjjqX8zPm</t>
-  </si>
-  <si>
-    <t>https://pan.quark.cn/s/e13fd37bb797</t>
-  </si>
-  <si>
-    <t>B站 - C4D大作战：百万UP的光之教程</t>
-  </si>
-  <si>
-    <t>https://www.alipan.com/s/Sd39tdH6UgU</t>
-  </si>
-  <si>
-    <t>https://pan.quark.cn/s/e5a20dcbdaa6</t>
-  </si>
-  <si>
-    <t>极客时间 - 分布式系统案例课</t>
-  </si>
-  <si>
-    <t>https://www.alipan.com/s/Lq2XS5iEpbj</t>
-  </si>
-  <si>
-    <t>https://pan.quark.cn/s/a767e169c7dc</t>
-  </si>
-  <si>
-    <t>极客时间 - TensorFlow 2 项目进阶实战</t>
-  </si>
-  <si>
-    <t>https://www.alipan.com/s/UZpFszPpwXG</t>
-  </si>
-  <si>
-    <t>https://pan.quark.cn/s/bfce988e0f05</t>
-  </si>
-  <si>
-    <t>B站 - 陈平的跨学科思维课</t>
-  </si>
-  <si>
-    <t>https://www.alipan.com/s/2Gy97oMbQ1F</t>
-  </si>
-  <si>
-    <t>https://pan.quark.cn/s/dd95c80ded90</t>
-  </si>
-  <si>
-    <t>B站 - AE超能力学院 - 小莫入门到精通 - 带源码课件</t>
-  </si>
-  <si>
-    <t>https://www.alipan.com/s/kYkzNSeeXbK</t>
-  </si>
-  <si>
-    <t>https://pan.quark.cn/s/589d26e20d1c</t>
-  </si>
-  <si>
-    <t>B站 - 张召忠-第四次工业革命</t>
-  </si>
-  <si>
-    <t>https://www.alipan.com/s/YeHsrjV8U8R</t>
-  </si>
-  <si>
-    <t>https://pan.quark.cn/s/12f65f11d392</t>
-  </si>
-  <si>
-    <t>极客时间 - TypeScript 开发实战</t>
-  </si>
-  <si>
-    <t>https://www.alipan.com/s/NwvBk8DWZo8</t>
-  </si>
-  <si>
-    <t>https://pan.quark.cn/s/3600b8327f1a</t>
-  </si>
-  <si>
-    <t>极客时间 - 前端全链路性能优化实战</t>
-  </si>
-  <si>
-    <t>https://www.alipan.com/s/XNTGRMNr7qZ</t>
-  </si>
-  <si>
-    <t>https://pan.quark.cn/s/a6102e13a82c</t>
-  </si>
-  <si>
-    <t>极客时间 - 小马哥讲 Spring 核心编程思想</t>
-  </si>
-  <si>
-    <t>https://www.alipan.com/s/nSFwE8N1zYy</t>
-  </si>
-  <si>
-    <t>https://pan.quark.cn/s/56d239336426</t>
-  </si>
-  <si>
-    <t>极客时间 - Electron 开发实战</t>
-  </si>
-  <si>
-    <t>https://www.alipan.com/s/Macot3n9d3u</t>
-  </si>
-  <si>
-    <t>https://pan.quark.cn/s/30b6161a8b4b</t>
-  </si>
-  <si>
-    <t>微淼 - 财务自由工具操作技能课 - 带源码课件</t>
-  </si>
-  <si>
-    <t>https://www.alipan.com/s/axbBYCdEUJs</t>
-  </si>
-  <si>
-    <t>https://pan.quark.cn/s/1c61bc326bed</t>
-  </si>
-  <si>
-    <t>B站 - 上海交大陆铭教授的经济学思维课</t>
-  </si>
-  <si>
-    <t>https://www.alipan.com/s/7TKnhbdcsjR</t>
-  </si>
-  <si>
-    <t>https://pan.quark.cn/s/638bab4c3290</t>
-  </si>
-  <si>
-    <t>B站 - 马皑教授的社会学：人类的越轨行为研究</t>
-  </si>
-  <si>
-    <t>https://www.alipan.com/s/q6bBXPpJMRq</t>
-  </si>
-  <si>
-    <t>https://pan.quark.cn/s/51010011e50f</t>
-  </si>
-  <si>
-    <t>【一周进步】PPT动画</t>
-  </si>
-  <si>
-    <t>https://www.alipan.com/s/nnKCiWmuWe3</t>
-  </si>
-  <si>
-    <t>https://pan.quark.cn/s/a17390194473</t>
-  </si>
-  <si>
-    <t>B站 - Tiger谭秋娟的吉他弹唱入门课</t>
-  </si>
-  <si>
-    <t>https://www.alipan.com/s/YME2v33A2JV</t>
-  </si>
-  <si>
-    <t>https://pan.quark.cn/s/a7c610ed3e75</t>
-  </si>
-  <si>
-    <t>B站 - 唐盾：0-N4日语精讲</t>
-  </si>
-  <si>
-    <t>https://www.alipan.com/s/NcrramRaGnU</t>
-  </si>
-  <si>
-    <t>https://pan.quark.cn/s/659d19faaef5</t>
-  </si>
-  <si>
-    <t>孙志立 - 英语自然拼读100讲</t>
-  </si>
-  <si>
-    <t>https://www.alipan.com/s/8gVsSU1da2t</t>
-  </si>
-  <si>
-    <t>https://pan.quark.cn/s/63d31a4a1ce8</t>
-  </si>
-  <si>
-    <t>微淼 - 财务报表分析技能课</t>
-  </si>
-  <si>
-    <t>https://www.alipan.com/s/YDfo7NDsisz</t>
-  </si>
-  <si>
-    <t>https://pan.quark.cn/s/6fc9d929f293</t>
-  </si>
-  <si>
-    <t>极客时间 - 分布式缓存高手课</t>
-  </si>
-  <si>
-    <t>https://www.alipan.com/s/ALx78iiTUbF</t>
-  </si>
-  <si>
-    <t>https://pan.quark.cn/s/fb89fe68abd4</t>
-  </si>
-  <si>
-    <t>极客时间 - Django 快速开发实战</t>
-  </si>
-  <si>
-    <t>https://www.alipan.com/s/vY9Ja7ebUtZ</t>
-  </si>
-  <si>
-    <t>https://pan.quark.cn/s/0a05d28deaf7</t>
-  </si>
-  <si>
-    <t>极客时间 - 微信小程序全栈开发实战</t>
-  </si>
-  <si>
-    <t>https://www.alipan.com/s/vJXpmwGYtyL</t>
-  </si>
-  <si>
-    <t>https://pan.quark.cn/s/0c71ff554eb7</t>
-  </si>
-  <si>
-    <t>【MBA智库】管理精进：中层管理者能力突破训练营</t>
-  </si>
-  <si>
-    <t>https://www.alipan.com/s/xQ5HVyddyHY</t>
-  </si>
-  <si>
-    <t>https://pan.quark.cn/s/15da7cdbffc6</t>
-  </si>
-  <si>
     <t>2024/02/14 15:25</t>
   </si>
   <si>
@@ -962,42 +953,6 @@
   </si>
   <si>
     <t>2024/02/23 13:48</t>
-  </si>
-  <si>
-    <t>经典再升级-FFmpeg5.0核心技术精讲，打造音视频播放器 - 带源码课件</t>
-  </si>
-  <si>
-    <t>https://www.alipan.com/s/FAv5nnDgBqa</t>
-  </si>
-  <si>
-    <t>https://pan.quark.cn/s/32a3ea8e6396</t>
-  </si>
-  <si>
-    <t>2024/02/23 15:58</t>
-  </si>
-  <si>
-    <t>2024校园跑腿代办同城闪送小程序 - 带源码课件</t>
-  </si>
-  <si>
-    <t>https://www.alipan.com/s/TD2ewQApit8</t>
-  </si>
-  <si>
-    <t>https://pan.quark.cn/s/89f00e15a9c8</t>
-  </si>
-  <si>
-    <t>2024/02/23 19:29</t>
-  </si>
-  <si>
-    <t>【编程达人】火哥Windows内核课程（上+下) - 带源码课件</t>
-  </si>
-  <si>
-    <t>https://www.alipan.com/s/GrHN1JUjUfL</t>
-  </si>
-  <si>
-    <t>https://pan.quark.cn/s/a78308de69ab</t>
-  </si>
-  <si>
-    <t>2024/02/23 21:40</t>
   </si>
 </sst>
 </file>
@@ -2005,10 +1960,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E142"/>
+  <dimension ref="A1:E131"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="38.6666666666667" defaultRowHeight="14.4" outlineLevelCol="4"/>
@@ -2031,7 +1986,7 @@
         <v>3</v>
       </c>
       <c r="E1" s="3">
-        <v>45329.9256944444</v>
+        <v>45335.9486111111</v>
       </c>
     </row>
     <row r="2" ht="44.55" customHeight="1" spans="1:5">
@@ -2048,7 +2003,7 @@
         <v>3</v>
       </c>
       <c r="E2" s="3">
-        <v>45330.7006944444</v>
+        <v>45336.2743055556</v>
       </c>
     </row>
     <row r="3" ht="44.55" customHeight="1" spans="1:5">
@@ -2065,7 +2020,7 @@
         <v>3</v>
       </c>
       <c r="E3" s="3">
-        <v>45330.9159722222</v>
+        <v>45336.7152777778</v>
       </c>
     </row>
     <row r="4" ht="44.55" customHeight="1" spans="1:5">
@@ -2082,7 +2037,7 @@
         <v>3</v>
       </c>
       <c r="E4" s="3">
-        <v>45331.2847222222</v>
+        <v>45337.0013888889</v>
       </c>
     </row>
     <row r="5" ht="44.55" customHeight="1" spans="1:5">
@@ -2099,7 +2054,7 @@
         <v>3</v>
       </c>
       <c r="E5" s="3">
-        <v>45331.4104166667</v>
+        <v>45337.0986111111</v>
       </c>
     </row>
     <row r="6" ht="44.55" customHeight="1" spans="1:5">
@@ -2116,7 +2071,7 @@
         <v>3</v>
       </c>
       <c r="E6" s="3">
-        <v>45335.1034722222</v>
+        <v>45337.5659722222</v>
       </c>
     </row>
     <row r="7" ht="44.55" customHeight="1" spans="1:5">
@@ -2133,7 +2088,7 @@
         <v>3</v>
       </c>
       <c r="E7" s="3">
-        <v>45335.9486111111</v>
+        <v>45337.6361111111</v>
       </c>
     </row>
     <row r="8" ht="44.55" customHeight="1" spans="1:5">
@@ -2150,7 +2105,7 @@
         <v>3</v>
       </c>
       <c r="E8" s="3">
-        <v>45336.2743055556</v>
+        <v>45337.6868055556</v>
       </c>
     </row>
     <row r="9" ht="44.55" customHeight="1" spans="1:5">
@@ -2167,7 +2122,7 @@
         <v>3</v>
       </c>
       <c r="E9" s="3">
-        <v>45336.6423611111</v>
+        <v>45337.7270833333</v>
       </c>
     </row>
     <row r="10" ht="44.55" customHeight="1" spans="1:5">
@@ -2184,7 +2139,7 @@
         <v>3</v>
       </c>
       <c r="E10" s="3">
-        <v>45336.7152777778</v>
+        <v>45338.1347222222</v>
       </c>
     </row>
     <row r="11" ht="44.55" customHeight="1" spans="1:5">
@@ -2201,7 +2156,7 @@
         <v>3</v>
       </c>
       <c r="E11" s="3">
-        <v>45337.0013888889</v>
+        <v>45338.6118055556</v>
       </c>
     </row>
     <row r="12" ht="44.55" customHeight="1" spans="1:5">
@@ -2218,7 +2173,7 @@
         <v>3</v>
       </c>
       <c r="E12" s="3">
-        <v>45337.0986111111</v>
+        <v>45338.7381944444</v>
       </c>
     </row>
     <row r="13" ht="44.55" customHeight="1" spans="1:5">
@@ -2235,7 +2190,7 @@
         <v>3</v>
       </c>
       <c r="E13" s="3">
-        <v>45337.5659722222</v>
+        <v>45338.9402777778</v>
       </c>
     </row>
     <row r="14" ht="44.55" customHeight="1" spans="1:5">
@@ -2252,7 +2207,7 @@
         <v>3</v>
       </c>
       <c r="E14" s="3">
-        <v>45337.6361111111</v>
+        <v>45339.0388888889</v>
       </c>
     </row>
     <row r="15" ht="44.55" customHeight="1" spans="1:5">
@@ -2269,7 +2224,7 @@
         <v>3</v>
       </c>
       <c r="E15" s="3">
-        <v>45337.6868055556</v>
+        <v>45339.6833333333</v>
       </c>
     </row>
     <row r="16" ht="44.55" customHeight="1" spans="1:5">
@@ -2286,7 +2241,7 @@
         <v>3</v>
       </c>
       <c r="E16" s="3">
-        <v>45337.7270833333</v>
+        <v>45339.7270833333</v>
       </c>
     </row>
     <row r="17" ht="44.55" customHeight="1" spans="1:5">
@@ -2303,7 +2258,7 @@
         <v>3</v>
       </c>
       <c r="E17" s="3">
-        <v>45338.1347222222</v>
+        <v>45339.7506944444</v>
       </c>
     </row>
     <row r="18" ht="44.55" customHeight="1" spans="1:5">
@@ -2320,7 +2275,7 @@
         <v>3</v>
       </c>
       <c r="E18" s="3">
-        <v>45338.6118055556</v>
+        <v>45340.2708333333</v>
       </c>
     </row>
     <row r="19" ht="44.55" customHeight="1" spans="1:5">
@@ -2337,7 +2292,7 @@
         <v>3</v>
       </c>
       <c r="E19" s="3">
-        <v>45338.7381944444</v>
+        <v>45340.9756944444</v>
       </c>
     </row>
     <row r="20" ht="44.55" customHeight="1" spans="1:5">
@@ -2354,7 +2309,7 @@
         <v>3</v>
       </c>
       <c r="E20" s="3">
-        <v>45338.9402777778</v>
+        <v>45341.0875</v>
       </c>
     </row>
     <row r="21" ht="44.55" customHeight="1" spans="1:5">
@@ -2371,7 +2326,7 @@
         <v>3</v>
       </c>
       <c r="E21" s="3">
-        <v>45339.0388888889</v>
+        <v>45341.6361111111</v>
       </c>
     </row>
     <row r="22" ht="44.55" customHeight="1" spans="1:5">
@@ -2388,7 +2343,7 @@
         <v>3</v>
       </c>
       <c r="E22" s="3">
-        <v>45339.6833333333</v>
+        <v>45341.8798611111</v>
       </c>
     </row>
     <row r="23" ht="44.55" customHeight="1" spans="1:5">
@@ -2405,7 +2360,7 @@
         <v>3</v>
       </c>
       <c r="E23" s="3">
-        <v>45339.7270833333</v>
+        <v>45341.9111111111</v>
       </c>
     </row>
     <row r="24" ht="44.55" customHeight="1" spans="1:5">
@@ -2422,7 +2377,7 @@
         <v>3</v>
       </c>
       <c r="E24" s="3">
-        <v>45339.7506944444</v>
+        <v>45341.9673611111</v>
       </c>
     </row>
     <row r="25" ht="44.55" customHeight="1" spans="1:5">
@@ -2439,7 +2394,7 @@
         <v>3</v>
       </c>
       <c r="E25" s="3">
-        <v>45340.2708333333</v>
+        <v>45342.3590277778</v>
       </c>
     </row>
     <row r="26" ht="44.55" customHeight="1" spans="1:5">
@@ -2456,7 +2411,7 @@
         <v>3</v>
       </c>
       <c r="E26" s="3">
-        <v>45340.9756944444</v>
+        <v>45342.4097222222</v>
       </c>
     </row>
     <row r="27" ht="44.55" customHeight="1" spans="1:5">
@@ -2473,7 +2428,7 @@
         <v>3</v>
       </c>
       <c r="E27" s="3">
-        <v>45341.0875</v>
+        <v>45342.56875</v>
       </c>
     </row>
     <row r="28" ht="44.55" customHeight="1" spans="1:5">
@@ -2490,7 +2445,7 @@
         <v>3</v>
       </c>
       <c r="E28" s="3">
-        <v>45341.6361111111</v>
+        <v>45342.6125</v>
       </c>
     </row>
     <row r="29" ht="44.55" customHeight="1" spans="1:5">
@@ -2507,7 +2462,7 @@
         <v>3</v>
       </c>
       <c r="E29" s="3">
-        <v>45341.8798611111</v>
+        <v>45342.6881944444</v>
       </c>
     </row>
     <row r="30" ht="44.55" customHeight="1" spans="1:5">
@@ -2524,7 +2479,7 @@
         <v>3</v>
       </c>
       <c r="E30" s="3">
-        <v>45341.9111111111</v>
+        <v>45342.7319444444</v>
       </c>
     </row>
     <row r="31" ht="44.55" customHeight="1" spans="1:5">
@@ -2541,7 +2496,7 @@
         <v>3</v>
       </c>
       <c r="E31" s="3">
-        <v>45341.9673611111</v>
+        <v>45342.8715277778</v>
       </c>
     </row>
     <row r="32" ht="44.55" customHeight="1" spans="1:5">
@@ -2558,7 +2513,7 @@
         <v>3</v>
       </c>
       <c r="E32" s="3">
-        <v>45342.3590277778</v>
+        <v>45343.4652777778</v>
       </c>
     </row>
     <row r="33" ht="44.55" customHeight="1" spans="1:5">
@@ -2575,7 +2530,7 @@
         <v>3</v>
       </c>
       <c r="E33" s="3">
-        <v>45342.4097222222</v>
+        <v>45343.6076388889</v>
       </c>
     </row>
     <row r="34" ht="44.55" customHeight="1" spans="1:5">
@@ -2592,7 +2547,7 @@
         <v>3</v>
       </c>
       <c r="E34" s="3">
-        <v>45342.56875</v>
+        <v>45343.6402777778</v>
       </c>
     </row>
     <row r="35" ht="44.55" customHeight="1" spans="1:5">
@@ -2609,7 +2564,7 @@
         <v>3</v>
       </c>
       <c r="E35" s="3">
-        <v>45342.6125</v>
+        <v>45343.8423611111</v>
       </c>
     </row>
     <row r="36" ht="44.55" customHeight="1" spans="1:5">
@@ -2626,7 +2581,7 @@
         <v>3</v>
       </c>
       <c r="E36" s="3">
-        <v>45342.6881944444</v>
+        <v>45343.9027777778</v>
       </c>
     </row>
     <row r="37" ht="44.55" customHeight="1" spans="1:5">
@@ -2643,7 +2598,7 @@
         <v>3</v>
       </c>
       <c r="E37" s="3">
-        <v>45342.7319444444</v>
+        <v>45343.9486111111</v>
       </c>
     </row>
     <row r="38" ht="44.55" customHeight="1" spans="1:5">
@@ -2660,7 +2615,7 @@
         <v>3</v>
       </c>
       <c r="E38" s="3">
-        <v>45342.8715277778</v>
+        <v>45344.5444444444</v>
       </c>
     </row>
     <row r="39" ht="44.55" customHeight="1" spans="1:5">
@@ -2677,7 +2632,7 @@
         <v>3</v>
       </c>
       <c r="E39" s="3">
-        <v>45343.4652777778</v>
+        <v>45344.7493055556</v>
       </c>
     </row>
     <row r="40" ht="44.55" customHeight="1" spans="1:5">
@@ -2694,7 +2649,7 @@
         <v>3</v>
       </c>
       <c r="E40" s="3">
-        <v>45343.6076388889</v>
+        <v>45344.9458333333</v>
       </c>
     </row>
     <row r="41" ht="44.55" customHeight="1" spans="1:5">
@@ -2711,7 +2666,7 @@
         <v>3</v>
       </c>
       <c r="E41" s="3">
-        <v>45343.6402777778</v>
+        <v>45345.2076388889</v>
       </c>
     </row>
     <row r="42" ht="44.55" customHeight="1" spans="1:5">
@@ -2728,7 +2683,7 @@
         <v>3</v>
       </c>
       <c r="E42" s="3">
-        <v>45343.8423611111</v>
+        <v>45345.5243055556</v>
       </c>
     </row>
     <row r="43" ht="44.55" customHeight="1" spans="1:5">
@@ -2745,7 +2700,7 @@
         <v>3</v>
       </c>
       <c r="E43" s="3">
-        <v>45343.9027777778</v>
+        <v>45345.575</v>
       </c>
     </row>
     <row r="44" ht="44.55" customHeight="1" spans="1:5">
@@ -2762,7 +2717,7 @@
         <v>3</v>
       </c>
       <c r="E44" s="3">
-        <v>45343.9486111111</v>
+        <v>45345.8118055556</v>
       </c>
     </row>
     <row r="45" ht="44.55" customHeight="1" spans="1:5">
@@ -2779,7 +2734,7 @@
         <v>3</v>
       </c>
       <c r="E45" s="3">
-        <v>45344.5444444444</v>
+        <v>45345.9027777778</v>
       </c>
     </row>
     <row r="46" ht="44.55" customHeight="1" spans="1:5">
@@ -2796,7 +2751,7 @@
         <v>3</v>
       </c>
       <c r="E46" s="3">
-        <v>45344.7493055556</v>
+        <v>45346.5104166667</v>
       </c>
     </row>
     <row r="47" ht="44.55" customHeight="1" spans="1:5">
@@ -2813,7 +2768,7 @@
         <v>3</v>
       </c>
       <c r="E47" s="3">
-        <v>45344.9458333333</v>
+        <v>45346.5666666667</v>
       </c>
     </row>
     <row r="48" ht="44.55" customHeight="1" spans="1:5">
@@ -2830,7 +2785,7 @@
         <v>3</v>
       </c>
       <c r="E48" s="3">
-        <v>45345.2076388889</v>
+        <v>45346.60625</v>
       </c>
     </row>
     <row r="49" ht="44.55" customHeight="1" spans="1:5">
@@ -2847,7 +2802,7 @@
         <v>3</v>
       </c>
       <c r="E49" s="3">
-        <v>45345.5243055556</v>
+        <v>45346.7145833333</v>
       </c>
     </row>
     <row r="50" ht="44.55" customHeight="1" spans="1:5">
@@ -2864,7 +2819,7 @@
         <v>3</v>
       </c>
       <c r="E50" s="3">
-        <v>45345.575</v>
+        <v>45346.7465277778</v>
       </c>
     </row>
     <row r="51" ht="44.55" customHeight="1" spans="1:5">
@@ -2881,7 +2836,7 @@
         <v>3</v>
       </c>
       <c r="E51" s="3">
-        <v>45345.8118055556</v>
+        <v>45346.8541666667</v>
       </c>
     </row>
     <row r="52" ht="44.55" customHeight="1" spans="1:5">
@@ -2898,7 +2853,7 @@
         <v>3</v>
       </c>
       <c r="E52" s="3">
-        <v>45345.9027777778</v>
+        <v>45346.9020833333</v>
       </c>
     </row>
     <row r="53" ht="44.55" customHeight="1" spans="1:5">
@@ -2915,7 +2870,7 @@
         <v>3</v>
       </c>
       <c r="E53" s="3">
-        <v>45346.5104166667</v>
+        <v>45347.0402777778</v>
       </c>
     </row>
     <row r="54" ht="44.55" customHeight="1" spans="1:5">
@@ -2932,7 +2887,7 @@
         <v>3</v>
       </c>
       <c r="E54" s="3">
-        <v>45346.5666666667</v>
+        <v>45347.1604166667</v>
       </c>
     </row>
     <row r="55" ht="44.55" customHeight="1" spans="1:5">
@@ -2949,7 +2904,7 @@
         <v>3</v>
       </c>
       <c r="E55" s="3">
-        <v>45346.60625</v>
+        <v>45347.66875</v>
       </c>
     </row>
     <row r="56" ht="44.55" customHeight="1" spans="1:5">
@@ -2966,7 +2921,7 @@
         <v>3</v>
       </c>
       <c r="E56" s="3">
-        <v>45346.7145833333</v>
+        <v>45347.7326388889</v>
       </c>
     </row>
     <row r="57" ht="44.55" customHeight="1" spans="1:5">
@@ -2983,7 +2938,7 @@
         <v>3</v>
       </c>
       <c r="E57" s="3">
-        <v>45346.7465277778</v>
+        <v>45347.8513888889</v>
       </c>
     </row>
     <row r="58" ht="44.55" customHeight="1" spans="1:5">
@@ -3000,7 +2955,7 @@
         <v>3</v>
       </c>
       <c r="E58" s="3">
-        <v>45346.8541666667</v>
+        <v>45347.9763888889</v>
       </c>
     </row>
     <row r="59" ht="44.55" customHeight="1" spans="1:5">
@@ -3017,7 +2972,7 @@
         <v>3</v>
       </c>
       <c r="E59" s="3">
-        <v>45346.9020833333</v>
+        <v>45348.6569444444</v>
       </c>
     </row>
     <row r="60" ht="44.55" customHeight="1" spans="1:5">
@@ -3034,7 +2989,7 @@
         <v>3</v>
       </c>
       <c r="E60" s="3">
-        <v>45347.0402777778</v>
+        <v>45348.6979166667</v>
       </c>
     </row>
     <row r="61" ht="44.55" customHeight="1" spans="1:5">
@@ -3051,7 +3006,7 @@
         <v>3</v>
       </c>
       <c r="E61" s="3">
-        <v>45347.1604166667</v>
+        <v>45348.7361111111</v>
       </c>
     </row>
     <row r="62" ht="44.55" customHeight="1" spans="1:5">
@@ -3068,7 +3023,7 @@
         <v>3</v>
       </c>
       <c r="E62" s="3">
-        <v>45347.66875</v>
+        <v>45348.8020833333</v>
       </c>
     </row>
     <row r="63" ht="44.55" customHeight="1" spans="1:5">
@@ -3085,7 +3040,7 @@
         <v>3</v>
       </c>
       <c r="E63" s="3">
-        <v>45347.7326388889</v>
+        <v>45348.8368055556</v>
       </c>
     </row>
     <row r="64" ht="44.55" customHeight="1" spans="1:5">
@@ -3102,7 +3057,7 @@
         <v>3</v>
       </c>
       <c r="E64" s="3">
-        <v>45347.8513888889</v>
+        <v>45348.8694444444</v>
       </c>
     </row>
     <row r="65" ht="44.55" customHeight="1" spans="1:5">
@@ -3119,7 +3074,7 @@
         <v>3</v>
       </c>
       <c r="E65" s="3">
-        <v>45347.9763888889</v>
+        <v>45348.9208333333</v>
       </c>
     </row>
     <row r="66" ht="44.55" customHeight="1" spans="1:5">
@@ -3136,7 +3091,7 @@
         <v>3</v>
       </c>
       <c r="E66" s="3">
-        <v>45348.6569444444</v>
+        <v>45348.9791666667</v>
       </c>
     </row>
     <row r="67" ht="44.55" customHeight="1" spans="1:5">
@@ -3153,7 +3108,7 @@
         <v>3</v>
       </c>
       <c r="E67" s="3">
-        <v>45348.6979166667</v>
+        <v>45349.1326388889</v>
       </c>
     </row>
     <row r="68" ht="44.55" customHeight="1" spans="1:5">
@@ -3170,7 +3125,7 @@
         <v>3</v>
       </c>
       <c r="E68" s="3">
-        <v>45348.7361111111</v>
+        <v>45349.5263888889</v>
       </c>
     </row>
     <row r="69" ht="44.55" customHeight="1" spans="1:5">
@@ -3187,7 +3142,7 @@
         <v>3</v>
       </c>
       <c r="E69" s="3">
-        <v>45348.8020833333</v>
+        <v>45349.5534722222</v>
       </c>
     </row>
     <row r="70" ht="44.55" customHeight="1" spans="1:5">
@@ -3204,7 +3159,7 @@
         <v>3</v>
       </c>
       <c r="E70" s="3">
-        <v>45348.8368055556</v>
+        <v>45349.6638888889</v>
       </c>
     </row>
     <row r="71" ht="44.55" customHeight="1" spans="1:5">
@@ -3221,7 +3176,7 @@
         <v>3</v>
       </c>
       <c r="E71" s="3">
-        <v>45348.8694444444</v>
+        <v>45349.7118055556</v>
       </c>
     </row>
     <row r="72" ht="44.55" customHeight="1" spans="1:5">
@@ -3238,7 +3193,7 @@
         <v>3</v>
       </c>
       <c r="E72" s="3">
-        <v>45348.9208333333</v>
+        <v>45349.7486111111</v>
       </c>
     </row>
     <row r="73" ht="44.55" customHeight="1" spans="1:5">
@@ -3255,7 +3210,7 @@
         <v>3</v>
       </c>
       <c r="E73" s="3">
-        <v>45348.9791666667</v>
+        <v>45349.8520833333</v>
       </c>
     </row>
     <row r="74" ht="44.55" customHeight="1" spans="1:5">
@@ -3272,7 +3227,7 @@
         <v>3</v>
       </c>
       <c r="E74" s="3">
-        <v>45349.1326388889</v>
+        <v>45349.9270833333</v>
       </c>
     </row>
     <row r="75" ht="44.55" customHeight="1" spans="1:5">
@@ -3289,7 +3244,7 @@
         <v>3</v>
       </c>
       <c r="E75" s="3">
-        <v>45349.5263888889</v>
+        <v>45350.0111111111</v>
       </c>
     </row>
     <row r="76" ht="44.55" customHeight="1" spans="1:5">
@@ -3306,7 +3261,7 @@
         <v>3</v>
       </c>
       <c r="E76" s="3">
-        <v>45349.5534722222</v>
+        <v>45350.09375</v>
       </c>
     </row>
     <row r="77" ht="44.55" customHeight="1" spans="1:5">
@@ -3323,7 +3278,7 @@
         <v>3</v>
       </c>
       <c r="E77" s="3">
-        <v>45349.6638888889</v>
+        <v>45350.2944444444</v>
       </c>
     </row>
     <row r="78" ht="44.55" customHeight="1" spans="1:5">
@@ -3340,7 +3295,7 @@
         <v>3</v>
       </c>
       <c r="E78" s="3">
-        <v>45349.7118055556</v>
+        <v>45350.64375</v>
       </c>
     </row>
     <row r="79" ht="44.55" customHeight="1" spans="1:5">
@@ -3357,7 +3312,7 @@
         <v>3</v>
       </c>
       <c r="E79" s="3">
-        <v>45349.7486111111</v>
+        <v>45350.7270833333</v>
       </c>
     </row>
     <row r="80" ht="44.55" customHeight="1" spans="1:5">
@@ -3374,7 +3329,7 @@
         <v>3</v>
       </c>
       <c r="E80" s="3">
-        <v>45349.8520833333</v>
+        <v>45350.8736111111</v>
       </c>
     </row>
     <row r="81" ht="44.55" customHeight="1" spans="1:5">
@@ -3391,7 +3346,7 @@
         <v>3</v>
       </c>
       <c r="E81" s="3">
-        <v>45349.9270833333</v>
+        <v>45350.9097222222</v>
       </c>
     </row>
     <row r="82" ht="44.55" customHeight="1" spans="1:5">
@@ -3408,7 +3363,7 @@
         <v>3</v>
       </c>
       <c r="E82" s="3">
-        <v>45350.0111111111</v>
+        <v>45350.9701388889</v>
       </c>
     </row>
     <row r="83" ht="44.55" customHeight="1" spans="1:5">
@@ -3425,7 +3380,7 @@
         <v>3</v>
       </c>
       <c r="E83" s="3">
-        <v>45350.09375</v>
+        <v>45351.0229166667</v>
       </c>
     </row>
     <row r="84" ht="44.55" customHeight="1" spans="1:5">
@@ -3442,7 +3397,7 @@
         <v>3</v>
       </c>
       <c r="E84" s="3">
-        <v>45350.2944444444</v>
+        <v>45351.0986111111</v>
       </c>
     </row>
     <row r="85" ht="44.55" customHeight="1" spans="1:5">
@@ -3459,7 +3414,7 @@
         <v>3</v>
       </c>
       <c r="E85" s="3">
-        <v>45350.64375</v>
+        <v>45351.5527777778</v>
       </c>
     </row>
     <row r="86" ht="44.55" customHeight="1" spans="1:5">
@@ -3476,7 +3431,7 @@
         <v>3</v>
       </c>
       <c r="E86" s="3">
-        <v>45350.7270833333</v>
+        <v>45351.6131944444</v>
       </c>
     </row>
     <row r="87" ht="44.55" customHeight="1" spans="1:5">
@@ -3493,7 +3448,7 @@
         <v>3</v>
       </c>
       <c r="E87" s="3">
-        <v>45350.8736111111</v>
+        <v>45351.6604166667</v>
       </c>
     </row>
     <row r="88" ht="44.55" customHeight="1" spans="1:5">
@@ -3510,925 +3465,738 @@
         <v>3</v>
       </c>
       <c r="E88" s="3">
-        <v>45350.9097222222</v>
+        <v>45351.7076388889</v>
       </c>
     </row>
     <row r="89" ht="44.55" customHeight="1" spans="1:5">
       <c r="A89" s="1" t="s">
-        <v>265</v>
+        <v>0</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>266</v>
+        <v>1</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>267</v>
+        <v>2</v>
       </c>
       <c r="D89" s="2" t="s">
         <v>3</v>
       </c>
       <c r="E89" s="3">
-        <v>45350.9701388889</v>
+        <v>45351.8645833333</v>
       </c>
     </row>
     <row r="90" ht="44.55" customHeight="1" spans="1:5">
       <c r="A90" s="1" t="s">
-        <v>268</v>
+        <v>4</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>269</v>
+        <v>5</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>270</v>
+        <v>6</v>
       </c>
       <c r="D90" s="2" t="s">
         <v>3</v>
       </c>
       <c r="E90" s="3">
-        <v>45351.0229166667</v>
+        <v>45351.95</v>
       </c>
     </row>
     <row r="91" ht="44.55" customHeight="1" spans="1:5">
       <c r="A91" s="1" t="s">
-        <v>0</v>
+        <v>265</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>1</v>
+        <v>266</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>2</v>
+        <v>267</v>
       </c>
       <c r="D91" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E91" s="3">
-        <v>45351.0986111111</v>
+      <c r="E91" s="2" t="s">
+        <v>268</v>
       </c>
     </row>
     <row r="92" ht="44.55" customHeight="1" spans="1:5">
       <c r="A92" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D92" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E92" s="3">
-        <v>45351.5527777778</v>
+      <c r="E92" s="2" t="s">
+        <v>269</v>
       </c>
     </row>
     <row r="93" ht="44.55" customHeight="1" spans="1:5">
       <c r="A93" s="1" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D93" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E93" s="3">
-        <v>45351.6131944444</v>
+      <c r="E93" s="2" t="s">
+        <v>270</v>
       </c>
     </row>
     <row r="94" ht="44.55" customHeight="1" spans="1:5">
       <c r="A94" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="D94" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E94" s="3">
-        <v>45351.6604166667</v>
+      <c r="E94" s="2" t="s">
+        <v>271</v>
       </c>
     </row>
     <row r="95" ht="44.55" customHeight="1" spans="1:5">
       <c r="A95" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="D95" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E95" s="3">
-        <v>45351.7076388889</v>
+      <c r="E95" s="2" t="s">
+        <v>272</v>
       </c>
     </row>
     <row r="96" ht="44.55" customHeight="1" spans="1:5">
       <c r="A96" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D96" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E96" s="3">
-        <v>45351.8291666667</v>
+      <c r="E96" s="2" t="s">
+        <v>273</v>
       </c>
     </row>
     <row r="97" ht="44.55" customHeight="1" spans="1:5">
       <c r="A97" s="1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="D97" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E97" s="3">
-        <v>45351.8645833333</v>
+      <c r="E97" s="2" t="s">
+        <v>274</v>
       </c>
     </row>
     <row r="98" ht="44.55" customHeight="1" spans="1:5">
       <c r="A98" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D98" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E98" s="3">
-        <v>45351.95</v>
+      <c r="E98" s="2" t="s">
+        <v>275</v>
       </c>
     </row>
     <row r="99" ht="44.55" customHeight="1" spans="1:5">
       <c r="A99" s="1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="D99" s="2" t="s">
         <v>3</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>271</v>
+        <v>276</v>
       </c>
     </row>
     <row r="100" ht="44.55" customHeight="1" spans="1:5">
       <c r="A100" s="1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="D100" s="2" t="s">
         <v>3</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>272</v>
+        <v>277</v>
       </c>
     </row>
     <row r="101" ht="44.55" customHeight="1" spans="1:5">
       <c r="A101" s="1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="D101" s="2" t="s">
         <v>3</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>273</v>
+        <v>278</v>
       </c>
     </row>
     <row r="102" ht="44.55" customHeight="1" spans="1:5">
       <c r="A102" s="1" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="D102" s="2" t="s">
         <v>3</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>274</v>
+        <v>279</v>
       </c>
     </row>
     <row r="103" ht="44.55" customHeight="1" spans="1:5">
       <c r="A103" s="1" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="C103" s="2" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="D103" s="2" t="s">
         <v>3</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>275</v>
+        <v>280</v>
       </c>
     </row>
     <row r="104" ht="44.55" customHeight="1" spans="1:5">
       <c r="A104" s="1" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="C104" s="2" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="D104" s="2" t="s">
         <v>3</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>276</v>
+        <v>281</v>
       </c>
     </row>
     <row r="105" ht="44.55" customHeight="1" spans="1:5">
       <c r="A105" s="1" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="C105" s="2" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="D105" s="2" t="s">
         <v>3</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>277</v>
+        <v>282</v>
       </c>
     </row>
     <row r="106" ht="44.55" customHeight="1" spans="1:5">
       <c r="A106" s="1" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="C106" s="2" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="D106" s="2" t="s">
         <v>3</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>278</v>
+        <v>283</v>
       </c>
     </row>
     <row r="107" ht="44.55" customHeight="1" spans="1:5">
       <c r="A107" s="1" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="C107" s="2" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="D107" s="2" t="s">
         <v>3</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>279</v>
+        <v>284</v>
       </c>
     </row>
     <row r="108" ht="44.55" customHeight="1" spans="1:5">
       <c r="A108" s="1" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="C108" s="2" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="D108" s="2" t="s">
         <v>3</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>280</v>
+        <v>285</v>
       </c>
     </row>
     <row r="109" ht="44.55" customHeight="1" spans="1:5">
       <c r="A109" s="1" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="C109" s="2" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="D109" s="2" t="s">
         <v>3</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>281</v>
+        <v>286</v>
       </c>
     </row>
     <row r="110" ht="44.55" customHeight="1" spans="1:5">
       <c r="A110" s="1" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="C110" s="2" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="D110" s="2" t="s">
         <v>3</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>282</v>
+        <v>287</v>
       </c>
     </row>
     <row r="111" ht="44.55" customHeight="1" spans="1:5">
       <c r="A111" s="1" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="C111" s="2" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="D111" s="2" t="s">
         <v>3</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>283</v>
+        <v>288</v>
       </c>
     </row>
     <row r="112" ht="44.55" customHeight="1" spans="1:5">
       <c r="A112" s="1" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="C112" s="2" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="D112" s="2" t="s">
         <v>3</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>284</v>
+        <v>289</v>
       </c>
     </row>
     <row r="113" ht="44.55" customHeight="1" spans="1:5">
       <c r="A113" s="1" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="C113" s="2" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="D113" s="2" t="s">
         <v>3</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>285</v>
+        <v>290</v>
       </c>
     </row>
     <row r="114" ht="44.55" customHeight="1" spans="1:5">
       <c r="A114" s="1" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="C114" s="2" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="D114" s="2" t="s">
         <v>3</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>286</v>
+        <v>291</v>
       </c>
     </row>
     <row r="115" ht="44.55" customHeight="1" spans="1:5">
       <c r="A115" s="1" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="C115" s="2" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="D115" s="2" t="s">
         <v>3</v>
       </c>
       <c r="E115" s="2" t="s">
-        <v>287</v>
+        <v>292</v>
       </c>
     </row>
     <row r="116" ht="44.55" customHeight="1" spans="1:5">
       <c r="A116" s="1" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="C116" s="2" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="D116" s="2" t="s">
         <v>3</v>
       </c>
       <c r="E116" s="2" t="s">
-        <v>288</v>
+        <v>293</v>
       </c>
     </row>
     <row r="117" ht="44.55" customHeight="1" spans="1:5">
       <c r="A117" s="1" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="C117" s="2" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="D117" s="2" t="s">
         <v>3</v>
       </c>
       <c r="E117" s="2" t="s">
-        <v>289</v>
+        <v>294</v>
       </c>
     </row>
     <row r="118" ht="44.55" customHeight="1" spans="1:5">
       <c r="A118" s="1" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="C118" s="2" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="D118" s="2" t="s">
         <v>3</v>
       </c>
       <c r="E118" s="2" t="s">
-        <v>290</v>
+        <v>295</v>
       </c>
     </row>
     <row r="119" ht="44.55" customHeight="1" spans="1:5">
       <c r="A119" s="1" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="C119" s="2" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="D119" s="2" t="s">
         <v>3</v>
       </c>
       <c r="E119" s="2" t="s">
-        <v>291</v>
+        <v>296</v>
       </c>
     </row>
     <row r="120" ht="44.55" customHeight="1" spans="1:5">
       <c r="A120" s="1" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="C120" s="2" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="D120" s="2" t="s">
         <v>3</v>
       </c>
       <c r="E120" s="2" t="s">
-        <v>292</v>
+        <v>297</v>
       </c>
     </row>
     <row r="121" ht="44.55" customHeight="1" spans="1:5">
       <c r="A121" s="1" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="C121" s="2" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="D121" s="2" t="s">
         <v>3</v>
       </c>
       <c r="E121" s="2" t="s">
-        <v>293</v>
+        <v>298</v>
       </c>
     </row>
     <row r="122" ht="44.55" customHeight="1" spans="1:5">
       <c r="A122" s="1" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="C122" s="2" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="D122" s="2" t="s">
         <v>3</v>
       </c>
       <c r="E122" s="2" t="s">
-        <v>294</v>
+        <v>299</v>
       </c>
     </row>
     <row r="123" ht="44.55" customHeight="1" spans="1:5">
       <c r="A123" s="1" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="C123" s="2" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="D123" s="2" t="s">
         <v>3</v>
       </c>
       <c r="E123" s="2" t="s">
-        <v>295</v>
+        <v>300</v>
       </c>
     </row>
     <row r="124" ht="44.55" customHeight="1" spans="1:5">
       <c r="A124" s="1" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="C124" s="2" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="D124" s="2" t="s">
         <v>3</v>
       </c>
       <c r="E124" s="2" t="s">
-        <v>296</v>
+        <v>301</v>
       </c>
     </row>
     <row r="125" ht="44.55" customHeight="1" spans="1:5">
       <c r="A125" s="1" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="C125" s="2" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="D125" s="2" t="s">
         <v>3</v>
       </c>
       <c r="E125" s="2" t="s">
-        <v>297</v>
+        <v>302</v>
       </c>
     </row>
     <row r="126" ht="44.55" customHeight="1" spans="1:5">
       <c r="A126" s="1" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="C126" s="2" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="D126" s="2" t="s">
         <v>3</v>
       </c>
       <c r="E126" s="2" t="s">
-        <v>298</v>
+        <v>303</v>
       </c>
     </row>
     <row r="127" ht="44.55" customHeight="1" spans="1:5">
       <c r="A127" s="1" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="C127" s="2" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="D127" s="2" t="s">
         <v>3</v>
       </c>
       <c r="E127" s="2" t="s">
-        <v>299</v>
+        <v>304</v>
       </c>
     </row>
     <row r="128" ht="44.55" customHeight="1" spans="1:5">
       <c r="A128" s="1" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="C128" s="2" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="D128" s="2" t="s">
         <v>3</v>
       </c>
       <c r="E128" s="2" t="s">
-        <v>300</v>
+        <v>305</v>
       </c>
     </row>
     <row r="129" ht="44.55" customHeight="1" spans="1:5">
       <c r="A129" s="1" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="C129" s="2" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="D129" s="2" t="s">
         <v>3</v>
       </c>
       <c r="E129" s="2" t="s">
-        <v>301</v>
+        <v>306</v>
       </c>
     </row>
     <row r="130" ht="44.55" customHeight="1" spans="1:5">
       <c r="A130" s="1" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="C130" s="2" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="D130" s="2" t="s">
         <v>3</v>
       </c>
       <c r="E130" s="2" t="s">
-        <v>302</v>
+        <v>307</v>
       </c>
     </row>
     <row r="131" ht="44.55" customHeight="1" spans="1:5">
       <c r="A131" s="1" t="s">
-        <v>124</v>
+        <v>308</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>125</v>
+        <v>309</v>
       </c>
       <c r="C131" s="2" t="s">
-        <v>126</v>
+        <v>310</v>
       </c>
       <c r="D131" s="2" t="s">
         <v>3</v>
       </c>
       <c r="E131" s="2" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="132" ht="44.55" customHeight="1" spans="1:5">
-      <c r="A132" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="B132" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="C132" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="D132" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E132" s="2" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="133" ht="44.55" customHeight="1" spans="1:5">
-      <c r="A133" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="B133" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="C133" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="D133" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E133" s="2" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="134" ht="44.55" customHeight="1" spans="1:5">
-      <c r="A134" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="B134" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="C134" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="D134" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E134" s="2" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="135" ht="44.55" customHeight="1" spans="1:5">
-      <c r="A135" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="B135" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="C135" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="D135" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E135" s="2" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="136" ht="44.55" customHeight="1" spans="1:5">
-      <c r="A136" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="B136" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="C136" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="D136" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E136" s="2" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="137" ht="44.55" customHeight="1" spans="1:5">
-      <c r="A137" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="B137" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="C137" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="D137" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E137" s="2" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="138" ht="44.55" customHeight="1" spans="1:5">
-      <c r="A138" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="B138" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="C138" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="D138" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E138" s="2" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="139" ht="44.55" customHeight="1" spans="1:5">
-      <c r="A139" s="1" t="s">
         <v>311</v>
-      </c>
-      <c r="B139" s="2" t="s">
-        <v>312</v>
-      </c>
-      <c r="C139" s="2" t="s">
-        <v>313</v>
-      </c>
-      <c r="D139" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E139" s="2" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="140" ht="44.55" customHeight="1" spans="1:5">
-      <c r="A140" s="1" t="s">
-        <v>315</v>
-      </c>
-      <c r="B140" s="2" t="s">
-        <v>316</v>
-      </c>
-      <c r="C140" s="2" t="s">
-        <v>317</v>
-      </c>
-      <c r="D140" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E140" s="2" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="141" ht="44.55" customHeight="1" spans="1:5">
-      <c r="A141" s="1" t="s">
-        <v>319</v>
-      </c>
-      <c r="B141" s="2" t="s">
-        <v>320</v>
-      </c>
-      <c r="C141" s="2" t="s">
-        <v>321</v>
-      </c>
-      <c r="D141" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E141" s="2" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="142" ht="44.55" customHeight="1" spans="1:5">
-      <c r="A142" s="1" t="s">
-        <v>323</v>
-      </c>
-      <c r="B142" s="2" t="s">
-        <v>324</v>
-      </c>
-      <c r="C142" s="2" t="s">
-        <v>325</v>
-      </c>
-      <c r="D142" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E142" s="2" t="s">
-        <v>326</v>
       </c>
     </row>
   </sheetData>

--- a/.ready/最新发布资源-维格视图.xlsx
+++ b/.ready/最新发布资源-维格视图.xlsx
@@ -17,74 +17,20 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="565" uniqueCount="312">
-  <si>
-    <t>【开课吧】JavaEE企业级分布式高级架构师023期 - 带源码课件</t>
-  </si>
-  <si>
-    <t>https://www.alipan.com/s/tuPs8hpDXWo</t>
-  </si>
-  <si>
-    <t>https://pan.quark.cn/s/75d95a43c24b</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="504" uniqueCount="283">
+  <si>
+    <t>王红元 - 前端体系课-2614集 - 带源码课件</t>
+  </si>
+  <si>
+    <t>https://www.alipan.com/s/nDEn6ibekbq</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/4fa23aecaecd</t>
   </si>
   <si>
     <t>学术</t>
   </si>
   <si>
-    <t>C++百万并发网络通信引擎架构与实现(服务端+客户端+跨平台)第2季 - 带源码课件</t>
-  </si>
-  <si>
-    <t>https://www.alipan.com/s/ddo9687chP3</t>
-  </si>
-  <si>
-    <t>https://pan.quark.cn/s/8b73030136a5</t>
-  </si>
-  <si>
-    <t>李仁松 - 古妆汉服仙服零基础美妆教学课</t>
-  </si>
-  <si>
-    <t>https://www.alipan.com/s/q1X1uEo5ZRJ</t>
-  </si>
-  <si>
-    <t>https://pan.quark.cn/s/527d74760f3b</t>
-  </si>
-  <si>
-    <t>【TK增长会】TikTok外贸工厂陪跑训练营</t>
-  </si>
-  <si>
-    <t>https://www.alipan.com/s/34DojRVWAmu</t>
-  </si>
-  <si>
-    <t>https://pan.quark.cn/s/e1c60a640025</t>
-  </si>
-  <si>
-    <t>PS教程超级合辑【1000集2017版】 - 带源码课件</t>
-  </si>
-  <si>
-    <t>https://www.alipan.com/s/viuX3PfVywQ</t>
-  </si>
-  <si>
-    <t>https://pan.quark.cn/s/d2874b85b55d</t>
-  </si>
-  <si>
-    <t>【开课吧】门徒计划 - Java方向</t>
-  </si>
-  <si>
-    <t>https://www.alipan.com/s/QCABx4Jt42G</t>
-  </si>
-  <si>
-    <t>https://pan.quark.cn/s/43559d27d803</t>
-  </si>
-  <si>
-    <t>王红元 - 前端体系课-2614集 - 带源码课件</t>
-  </si>
-  <si>
-    <t>https://www.alipan.com/s/nDEn6ibekbq</t>
-  </si>
-  <si>
-    <t>https://pan.quark.cn/s/4fa23aecaecd</t>
-  </si>
-  <si>
     <t>【虎课网-78025】深度学习爬虫验证码识别</t>
   </si>
   <si>
@@ -803,39 +749,6 @@
   </si>
   <si>
     <t>https://pan.quark.cn/s/66cf0c19a890</t>
-  </si>
-  <si>
-    <t>陆明明 - 知乎精准引流攻略2.0，适合各行业，全程实操落地演示</t>
-  </si>
-  <si>
-    <t>https://www.alipan.com/s/116334ziG2t</t>
-  </si>
-  <si>
-    <t>https://pan.quark.cn/s/e4e2a8d6517e</t>
-  </si>
-  <si>
-    <t>汤小小账号变现课第2期，今日头条、小红书、公众号，1000粉也可以接广告变现</t>
-  </si>
-  <si>
-    <t>https://www.alipan.com/s/32zHQetbwLY</t>
-  </si>
-  <si>
-    <t>https://pan.quark.cn/s/75bfbfacd504</t>
-  </si>
-  <si>
-    <t>2024/02/14 15:25</t>
-  </si>
-  <si>
-    <t>2024/02/14 17:10</t>
-  </si>
-  <si>
-    <t>2024/02/15 00:02</t>
-  </si>
-  <si>
-    <t>2024/02/15 02:22</t>
-  </si>
-  <si>
-    <t>2024/02/15 13:35</t>
   </si>
   <si>
     <t>2024/02/15 15:16</t>
@@ -1960,10 +1873,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E131"/>
+  <dimension ref="A1:E117"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="38.6666666666667" defaultRowHeight="14.4" outlineLevelCol="4"/>
@@ -1986,7 +1899,7 @@
         <v>3</v>
       </c>
       <c r="E1" s="3">
-        <v>45335.9486111111</v>
+        <v>45337.6361111111</v>
       </c>
     </row>
     <row r="2" ht="44.55" customHeight="1" spans="1:5">
@@ -2003,7 +1916,7 @@
         <v>3</v>
       </c>
       <c r="E2" s="3">
-        <v>45336.2743055556</v>
+        <v>45337.6868055556</v>
       </c>
     </row>
     <row r="3" ht="44.55" customHeight="1" spans="1:5">
@@ -2020,7 +1933,7 @@
         <v>3</v>
       </c>
       <c r="E3" s="3">
-        <v>45336.7152777778</v>
+        <v>45337.7270833333</v>
       </c>
     </row>
     <row r="4" ht="44.55" customHeight="1" spans="1:5">
@@ -2037,7 +1950,7 @@
         <v>3</v>
       </c>
       <c r="E4" s="3">
-        <v>45337.0013888889</v>
+        <v>45338.1347222222</v>
       </c>
     </row>
     <row r="5" ht="44.55" customHeight="1" spans="1:5">
@@ -2054,7 +1967,7 @@
         <v>3</v>
       </c>
       <c r="E5" s="3">
-        <v>45337.0986111111</v>
+        <v>45338.6118055556</v>
       </c>
     </row>
     <row r="6" ht="44.55" customHeight="1" spans="1:5">
@@ -2071,7 +1984,7 @@
         <v>3</v>
       </c>
       <c r="E6" s="3">
-        <v>45337.5659722222</v>
+        <v>45338.7381944444</v>
       </c>
     </row>
     <row r="7" ht="44.55" customHeight="1" spans="1:5">
@@ -2088,7 +2001,7 @@
         <v>3</v>
       </c>
       <c r="E7" s="3">
-        <v>45337.6361111111</v>
+        <v>45338.9402777778</v>
       </c>
     </row>
     <row r="8" ht="44.55" customHeight="1" spans="1:5">
@@ -2105,7 +2018,7 @@
         <v>3</v>
       </c>
       <c r="E8" s="3">
-        <v>45337.6868055556</v>
+        <v>45339.0388888889</v>
       </c>
     </row>
     <row r="9" ht="44.55" customHeight="1" spans="1:5">
@@ -2122,7 +2035,7 @@
         <v>3</v>
       </c>
       <c r="E9" s="3">
-        <v>45337.7270833333</v>
+        <v>45339.6833333333</v>
       </c>
     </row>
     <row r="10" ht="44.55" customHeight="1" spans="1:5">
@@ -2139,7 +2052,7 @@
         <v>3</v>
       </c>
       <c r="E10" s="3">
-        <v>45338.1347222222</v>
+        <v>45339.7270833333</v>
       </c>
     </row>
     <row r="11" ht="44.55" customHeight="1" spans="1:5">
@@ -2156,7 +2069,7 @@
         <v>3</v>
       </c>
       <c r="E11" s="3">
-        <v>45338.6118055556</v>
+        <v>45339.7506944444</v>
       </c>
     </row>
     <row r="12" ht="44.55" customHeight="1" spans="1:5">
@@ -2173,7 +2086,7 @@
         <v>3</v>
       </c>
       <c r="E12" s="3">
-        <v>45338.7381944444</v>
+        <v>45340.2708333333</v>
       </c>
     </row>
     <row r="13" ht="44.55" customHeight="1" spans="1:5">
@@ -2190,7 +2103,7 @@
         <v>3</v>
       </c>
       <c r="E13" s="3">
-        <v>45338.9402777778</v>
+        <v>45340.9756944444</v>
       </c>
     </row>
     <row r="14" ht="44.55" customHeight="1" spans="1:5">
@@ -2207,7 +2120,7 @@
         <v>3</v>
       </c>
       <c r="E14" s="3">
-        <v>45339.0388888889</v>
+        <v>45341.0875</v>
       </c>
     </row>
     <row r="15" ht="44.55" customHeight="1" spans="1:5">
@@ -2224,7 +2137,7 @@
         <v>3</v>
       </c>
       <c r="E15" s="3">
-        <v>45339.6833333333</v>
+        <v>45341.6361111111</v>
       </c>
     </row>
     <row r="16" ht="44.55" customHeight="1" spans="1:5">
@@ -2241,7 +2154,7 @@
         <v>3</v>
       </c>
       <c r="E16" s="3">
-        <v>45339.7270833333</v>
+        <v>45341.8798611111</v>
       </c>
     </row>
     <row r="17" ht="44.55" customHeight="1" spans="1:5">
@@ -2258,7 +2171,7 @@
         <v>3</v>
       </c>
       <c r="E17" s="3">
-        <v>45339.7506944444</v>
+        <v>45341.9111111111</v>
       </c>
     </row>
     <row r="18" ht="44.55" customHeight="1" spans="1:5">
@@ -2275,7 +2188,7 @@
         <v>3</v>
       </c>
       <c r="E18" s="3">
-        <v>45340.2708333333</v>
+        <v>45341.9673611111</v>
       </c>
     </row>
     <row r="19" ht="44.55" customHeight="1" spans="1:5">
@@ -2292,7 +2205,7 @@
         <v>3</v>
       </c>
       <c r="E19" s="3">
-        <v>45340.9756944444</v>
+        <v>45342.3590277778</v>
       </c>
     </row>
     <row r="20" ht="44.55" customHeight="1" spans="1:5">
@@ -2309,7 +2222,7 @@
         <v>3</v>
       </c>
       <c r="E20" s="3">
-        <v>45341.0875</v>
+        <v>45342.4097222222</v>
       </c>
     </row>
     <row r="21" ht="44.55" customHeight="1" spans="1:5">
@@ -2326,7 +2239,7 @@
         <v>3</v>
       </c>
       <c r="E21" s="3">
-        <v>45341.6361111111</v>
+        <v>45342.56875</v>
       </c>
     </row>
     <row r="22" ht="44.55" customHeight="1" spans="1:5">
@@ -2343,7 +2256,7 @@
         <v>3</v>
       </c>
       <c r="E22" s="3">
-        <v>45341.8798611111</v>
+        <v>45342.6125</v>
       </c>
     </row>
     <row r="23" ht="44.55" customHeight="1" spans="1:5">
@@ -2360,7 +2273,7 @@
         <v>3</v>
       </c>
       <c r="E23" s="3">
-        <v>45341.9111111111</v>
+        <v>45342.6881944444</v>
       </c>
     </row>
     <row r="24" ht="44.55" customHeight="1" spans="1:5">
@@ -2377,7 +2290,7 @@
         <v>3</v>
       </c>
       <c r="E24" s="3">
-        <v>45341.9673611111</v>
+        <v>45342.7319444444</v>
       </c>
     </row>
     <row r="25" ht="44.55" customHeight="1" spans="1:5">
@@ -2394,7 +2307,7 @@
         <v>3</v>
       </c>
       <c r="E25" s="3">
-        <v>45342.3590277778</v>
+        <v>45342.8715277778</v>
       </c>
     </row>
     <row r="26" ht="44.55" customHeight="1" spans="1:5">
@@ -2411,7 +2324,7 @@
         <v>3</v>
       </c>
       <c r="E26" s="3">
-        <v>45342.4097222222</v>
+        <v>45343.4652777778</v>
       </c>
     </row>
     <row r="27" ht="44.55" customHeight="1" spans="1:5">
@@ -2428,7 +2341,7 @@
         <v>3</v>
       </c>
       <c r="E27" s="3">
-        <v>45342.56875</v>
+        <v>45343.6076388889</v>
       </c>
     </row>
     <row r="28" ht="44.55" customHeight="1" spans="1:5">
@@ -2445,7 +2358,7 @@
         <v>3</v>
       </c>
       <c r="E28" s="3">
-        <v>45342.6125</v>
+        <v>45343.6402777778</v>
       </c>
     </row>
     <row r="29" ht="44.55" customHeight="1" spans="1:5">
@@ -2462,7 +2375,7 @@
         <v>3</v>
       </c>
       <c r="E29" s="3">
-        <v>45342.6881944444</v>
+        <v>45343.8423611111</v>
       </c>
     </row>
     <row r="30" ht="44.55" customHeight="1" spans="1:5">
@@ -2479,7 +2392,7 @@
         <v>3</v>
       </c>
       <c r="E30" s="3">
-        <v>45342.7319444444</v>
+        <v>45343.9027777778</v>
       </c>
     </row>
     <row r="31" ht="44.55" customHeight="1" spans="1:5">
@@ -2496,7 +2409,7 @@
         <v>3</v>
       </c>
       <c r="E31" s="3">
-        <v>45342.8715277778</v>
+        <v>45343.9486111111</v>
       </c>
     </row>
     <row r="32" ht="44.55" customHeight="1" spans="1:5">
@@ -2513,7 +2426,7 @@
         <v>3</v>
       </c>
       <c r="E32" s="3">
-        <v>45343.4652777778</v>
+        <v>45344.5444444444</v>
       </c>
     </row>
     <row r="33" ht="44.55" customHeight="1" spans="1:5">
@@ -2530,7 +2443,7 @@
         <v>3</v>
       </c>
       <c r="E33" s="3">
-        <v>45343.6076388889</v>
+        <v>45344.7493055556</v>
       </c>
     </row>
     <row r="34" ht="44.55" customHeight="1" spans="1:5">
@@ -2547,7 +2460,7 @@
         <v>3</v>
       </c>
       <c r="E34" s="3">
-        <v>45343.6402777778</v>
+        <v>45344.9458333333</v>
       </c>
     </row>
     <row r="35" ht="44.55" customHeight="1" spans="1:5">
@@ -2564,7 +2477,7 @@
         <v>3</v>
       </c>
       <c r="E35" s="3">
-        <v>45343.8423611111</v>
+        <v>45345.2076388889</v>
       </c>
     </row>
     <row r="36" ht="44.55" customHeight="1" spans="1:5">
@@ -2581,7 +2494,7 @@
         <v>3</v>
       </c>
       <c r="E36" s="3">
-        <v>45343.9027777778</v>
+        <v>45345.5243055556</v>
       </c>
     </row>
     <row r="37" ht="44.55" customHeight="1" spans="1:5">
@@ -2598,7 +2511,7 @@
         <v>3</v>
       </c>
       <c r="E37" s="3">
-        <v>45343.9486111111</v>
+        <v>45345.575</v>
       </c>
     </row>
     <row r="38" ht="44.55" customHeight="1" spans="1:5">
@@ -2615,7 +2528,7 @@
         <v>3</v>
       </c>
       <c r="E38" s="3">
-        <v>45344.5444444444</v>
+        <v>45345.8118055556</v>
       </c>
     </row>
     <row r="39" ht="44.55" customHeight="1" spans="1:5">
@@ -2632,7 +2545,7 @@
         <v>3</v>
       </c>
       <c r="E39" s="3">
-        <v>45344.7493055556</v>
+        <v>45345.9027777778</v>
       </c>
     </row>
     <row r="40" ht="44.55" customHeight="1" spans="1:5">
@@ -2649,7 +2562,7 @@
         <v>3</v>
       </c>
       <c r="E40" s="3">
-        <v>45344.9458333333</v>
+        <v>45346.5104166667</v>
       </c>
     </row>
     <row r="41" ht="44.55" customHeight="1" spans="1:5">
@@ -2666,7 +2579,7 @@
         <v>3</v>
       </c>
       <c r="E41" s="3">
-        <v>45345.2076388889</v>
+        <v>45346.5666666667</v>
       </c>
     </row>
     <row r="42" ht="44.55" customHeight="1" spans="1:5">
@@ -2683,7 +2596,7 @@
         <v>3</v>
       </c>
       <c r="E42" s="3">
-        <v>45345.5243055556</v>
+        <v>45346.60625</v>
       </c>
     </row>
     <row r="43" ht="44.55" customHeight="1" spans="1:5">
@@ -2700,7 +2613,7 @@
         <v>3</v>
       </c>
       <c r="E43" s="3">
-        <v>45345.575</v>
+        <v>45346.7145833333</v>
       </c>
     </row>
     <row r="44" ht="44.55" customHeight="1" spans="1:5">
@@ -2717,7 +2630,7 @@
         <v>3</v>
       </c>
       <c r="E44" s="3">
-        <v>45345.8118055556</v>
+        <v>45346.7465277778</v>
       </c>
     </row>
     <row r="45" ht="44.55" customHeight="1" spans="1:5">
@@ -2734,7 +2647,7 @@
         <v>3</v>
       </c>
       <c r="E45" s="3">
-        <v>45345.9027777778</v>
+        <v>45346.8541666667</v>
       </c>
     </row>
     <row r="46" ht="44.55" customHeight="1" spans="1:5">
@@ -2751,7 +2664,7 @@
         <v>3</v>
       </c>
       <c r="E46" s="3">
-        <v>45346.5104166667</v>
+        <v>45346.9020833333</v>
       </c>
     </row>
     <row r="47" ht="44.55" customHeight="1" spans="1:5">
@@ -2768,7 +2681,7 @@
         <v>3</v>
       </c>
       <c r="E47" s="3">
-        <v>45346.5666666667</v>
+        <v>45347.0402777778</v>
       </c>
     </row>
     <row r="48" ht="44.55" customHeight="1" spans="1:5">
@@ -2785,7 +2698,7 @@
         <v>3</v>
       </c>
       <c r="E48" s="3">
-        <v>45346.60625</v>
+        <v>45347.1604166667</v>
       </c>
     </row>
     <row r="49" ht="44.55" customHeight="1" spans="1:5">
@@ -2802,7 +2715,7 @@
         <v>3</v>
       </c>
       <c r="E49" s="3">
-        <v>45346.7145833333</v>
+        <v>45347.66875</v>
       </c>
     </row>
     <row r="50" ht="44.55" customHeight="1" spans="1:5">
@@ -2819,7 +2732,7 @@
         <v>3</v>
       </c>
       <c r="E50" s="3">
-        <v>45346.7465277778</v>
+        <v>45347.7326388889</v>
       </c>
     </row>
     <row r="51" ht="44.55" customHeight="1" spans="1:5">
@@ -2836,7 +2749,7 @@
         <v>3</v>
       </c>
       <c r="E51" s="3">
-        <v>45346.8541666667</v>
+        <v>45347.8513888889</v>
       </c>
     </row>
     <row r="52" ht="44.55" customHeight="1" spans="1:5">
@@ -2853,7 +2766,7 @@
         <v>3</v>
       </c>
       <c r="E52" s="3">
-        <v>45346.9020833333</v>
+        <v>45347.9763888889</v>
       </c>
     </row>
     <row r="53" ht="44.55" customHeight="1" spans="1:5">
@@ -2870,7 +2783,7 @@
         <v>3</v>
       </c>
       <c r="E53" s="3">
-        <v>45347.0402777778</v>
+        <v>45348.6569444444</v>
       </c>
     </row>
     <row r="54" ht="44.55" customHeight="1" spans="1:5">
@@ -2887,7 +2800,7 @@
         <v>3</v>
       </c>
       <c r="E54" s="3">
-        <v>45347.1604166667</v>
+        <v>45348.6979166667</v>
       </c>
     </row>
     <row r="55" ht="44.55" customHeight="1" spans="1:5">
@@ -2904,7 +2817,7 @@
         <v>3</v>
       </c>
       <c r="E55" s="3">
-        <v>45347.66875</v>
+        <v>45348.7361111111</v>
       </c>
     </row>
     <row r="56" ht="44.55" customHeight="1" spans="1:5">
@@ -2921,7 +2834,7 @@
         <v>3</v>
       </c>
       <c r="E56" s="3">
-        <v>45347.7326388889</v>
+        <v>45348.8020833333</v>
       </c>
     </row>
     <row r="57" ht="44.55" customHeight="1" spans="1:5">
@@ -2938,7 +2851,7 @@
         <v>3</v>
       </c>
       <c r="E57" s="3">
-        <v>45347.8513888889</v>
+        <v>45348.8368055556</v>
       </c>
     </row>
     <row r="58" ht="44.55" customHeight="1" spans="1:5">
@@ -2955,7 +2868,7 @@
         <v>3</v>
       </c>
       <c r="E58" s="3">
-        <v>45347.9763888889</v>
+        <v>45348.8694444444</v>
       </c>
     </row>
     <row r="59" ht="44.55" customHeight="1" spans="1:5">
@@ -2972,7 +2885,7 @@
         <v>3</v>
       </c>
       <c r="E59" s="3">
-        <v>45348.6569444444</v>
+        <v>45348.9208333333</v>
       </c>
     </row>
     <row r="60" ht="44.55" customHeight="1" spans="1:5">
@@ -2989,7 +2902,7 @@
         <v>3</v>
       </c>
       <c r="E60" s="3">
-        <v>45348.6979166667</v>
+        <v>45348.9791666667</v>
       </c>
     </row>
     <row r="61" ht="44.55" customHeight="1" spans="1:5">
@@ -3006,7 +2919,7 @@
         <v>3</v>
       </c>
       <c r="E61" s="3">
-        <v>45348.7361111111</v>
+        <v>45349.1326388889</v>
       </c>
     </row>
     <row r="62" ht="44.55" customHeight="1" spans="1:5">
@@ -3023,7 +2936,7 @@
         <v>3</v>
       </c>
       <c r="E62" s="3">
-        <v>45348.8020833333</v>
+        <v>45349.5263888889</v>
       </c>
     </row>
     <row r="63" ht="44.55" customHeight="1" spans="1:5">
@@ -3040,7 +2953,7 @@
         <v>3</v>
       </c>
       <c r="E63" s="3">
-        <v>45348.8368055556</v>
+        <v>45349.5534722222</v>
       </c>
     </row>
     <row r="64" ht="44.55" customHeight="1" spans="1:5">
@@ -3057,7 +2970,7 @@
         <v>3</v>
       </c>
       <c r="E64" s="3">
-        <v>45348.8694444444</v>
+        <v>45349.6638888889</v>
       </c>
     </row>
     <row r="65" ht="44.55" customHeight="1" spans="1:5">
@@ -3074,7 +2987,7 @@
         <v>3</v>
       </c>
       <c r="E65" s="3">
-        <v>45348.9208333333</v>
+        <v>45349.7118055556</v>
       </c>
     </row>
     <row r="66" ht="44.55" customHeight="1" spans="1:5">
@@ -3091,7 +3004,7 @@
         <v>3</v>
       </c>
       <c r="E66" s="3">
-        <v>45348.9791666667</v>
+        <v>45349.7486111111</v>
       </c>
     </row>
     <row r="67" ht="44.55" customHeight="1" spans="1:5">
@@ -3108,7 +3021,7 @@
         <v>3</v>
       </c>
       <c r="E67" s="3">
-        <v>45349.1326388889</v>
+        <v>45349.8520833333</v>
       </c>
     </row>
     <row r="68" ht="44.55" customHeight="1" spans="1:5">
@@ -3125,7 +3038,7 @@
         <v>3</v>
       </c>
       <c r="E68" s="3">
-        <v>45349.5263888889</v>
+        <v>45349.9270833333</v>
       </c>
     </row>
     <row r="69" ht="44.55" customHeight="1" spans="1:5">
@@ -3142,7 +3055,7 @@
         <v>3</v>
       </c>
       <c r="E69" s="3">
-        <v>45349.5534722222</v>
+        <v>45350.0111111111</v>
       </c>
     </row>
     <row r="70" ht="44.55" customHeight="1" spans="1:5">
@@ -3159,7 +3072,7 @@
         <v>3</v>
       </c>
       <c r="E70" s="3">
-        <v>45349.6638888889</v>
+        <v>45350.09375</v>
       </c>
     </row>
     <row r="71" ht="44.55" customHeight="1" spans="1:5">
@@ -3176,7 +3089,7 @@
         <v>3</v>
       </c>
       <c r="E71" s="3">
-        <v>45349.7118055556</v>
+        <v>45350.2944444444</v>
       </c>
     </row>
     <row r="72" ht="44.55" customHeight="1" spans="1:5">
@@ -3193,7 +3106,7 @@
         <v>3</v>
       </c>
       <c r="E72" s="3">
-        <v>45349.7486111111</v>
+        <v>45350.64375</v>
       </c>
     </row>
     <row r="73" ht="44.55" customHeight="1" spans="1:5">
@@ -3210,7 +3123,7 @@
         <v>3</v>
       </c>
       <c r="E73" s="3">
-        <v>45349.8520833333</v>
+        <v>45350.7270833333</v>
       </c>
     </row>
     <row r="74" ht="44.55" customHeight="1" spans="1:5">
@@ -3227,7 +3140,7 @@
         <v>3</v>
       </c>
       <c r="E74" s="3">
-        <v>45349.9270833333</v>
+        <v>45350.8736111111</v>
       </c>
     </row>
     <row r="75" ht="44.55" customHeight="1" spans="1:5">
@@ -3244,7 +3157,7 @@
         <v>3</v>
       </c>
       <c r="E75" s="3">
-        <v>45350.0111111111</v>
+        <v>45350.9097222222</v>
       </c>
     </row>
     <row r="76" ht="44.55" customHeight="1" spans="1:5">
@@ -3261,7 +3174,7 @@
         <v>3</v>
       </c>
       <c r="E76" s="3">
-        <v>45350.09375</v>
+        <v>45350.9701388889</v>
       </c>
     </row>
     <row r="77" ht="44.55" customHeight="1" spans="1:5">
@@ -3278,7 +3191,7 @@
         <v>3</v>
       </c>
       <c r="E77" s="3">
-        <v>45350.2944444444</v>
+        <v>45351.0229166667</v>
       </c>
     </row>
     <row r="78" ht="44.55" customHeight="1" spans="1:5">
@@ -3295,7 +3208,7 @@
         <v>3</v>
       </c>
       <c r="E78" s="3">
-        <v>45350.64375</v>
+        <v>45351.0986111111</v>
       </c>
     </row>
     <row r="79" ht="44.55" customHeight="1" spans="1:5">
@@ -3312,7 +3225,7 @@
         <v>3</v>
       </c>
       <c r="E79" s="3">
-        <v>45350.7270833333</v>
+        <v>45351.5527777778</v>
       </c>
     </row>
     <row r="80" ht="44.55" customHeight="1" spans="1:5">
@@ -3329,7 +3242,7 @@
         <v>3</v>
       </c>
       <c r="E80" s="3">
-        <v>45350.8736111111</v>
+        <v>45351.6131944444</v>
       </c>
     </row>
     <row r="81" ht="44.55" customHeight="1" spans="1:5">
@@ -3346,857 +3259,619 @@
         <v>3</v>
       </c>
       <c r="E81" s="3">
-        <v>45350.9097222222</v>
+        <v>45351.6604166667</v>
       </c>
     </row>
     <row r="82" ht="44.55" customHeight="1" spans="1:5">
       <c r="A82" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B82" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C82" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D82" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E82" s="2" t="s">
         <v>244</v>
-      </c>
-      <c r="B82" s="2" t="s">
-        <v>245</v>
-      </c>
-      <c r="C82" s="2" t="s">
-        <v>246</v>
-      </c>
-      <c r="D82" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E82" s="3">
-        <v>45350.9701388889</v>
       </c>
     </row>
     <row r="83" ht="44.55" customHeight="1" spans="1:5">
       <c r="A83" s="1" t="s">
-        <v>247</v>
+        <v>4</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>248</v>
+        <v>5</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>249</v>
+        <v>6</v>
       </c>
       <c r="D83" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E83" s="3">
-        <v>45351.0229166667</v>
+      <c r="E83" s="2" t="s">
+        <v>245</v>
       </c>
     </row>
     <row r="84" ht="44.55" customHeight="1" spans="1:5">
       <c r="A84" s="1" t="s">
-        <v>250</v>
+        <v>7</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>251</v>
+        <v>8</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>252</v>
+        <v>9</v>
       </c>
       <c r="D84" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E84" s="3">
-        <v>45351.0986111111</v>
+      <c r="E84" s="2" t="s">
+        <v>246</v>
       </c>
     </row>
     <row r="85" ht="44.55" customHeight="1" spans="1:5">
       <c r="A85" s="1" t="s">
-        <v>253</v>
+        <v>10</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>254</v>
+        <v>11</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>255</v>
+        <v>12</v>
       </c>
       <c r="D85" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E85" s="3">
-        <v>45351.5527777778</v>
+      <c r="E85" s="2" t="s">
+        <v>247</v>
       </c>
     </row>
     <row r="86" ht="44.55" customHeight="1" spans="1:5">
       <c r="A86" s="1" t="s">
-        <v>256</v>
+        <v>13</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>257</v>
+        <v>14</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>258</v>
+        <v>15</v>
       </c>
       <c r="D86" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E86" s="3">
-        <v>45351.6131944444</v>
+      <c r="E86" s="2" t="s">
+        <v>248</v>
       </c>
     </row>
     <row r="87" ht="44.55" customHeight="1" spans="1:5">
       <c r="A87" s="1" t="s">
-        <v>259</v>
+        <v>16</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>260</v>
+        <v>17</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>261</v>
+        <v>18</v>
       </c>
       <c r="D87" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E87" s="3">
-        <v>45351.6604166667</v>
+      <c r="E87" s="2" t="s">
+        <v>249</v>
       </c>
     </row>
     <row r="88" ht="44.55" customHeight="1" spans="1:5">
       <c r="A88" s="1" t="s">
-        <v>262</v>
+        <v>22</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>263</v>
+        <v>23</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>264</v>
+        <v>24</v>
       </c>
       <c r="D88" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E88" s="3">
-        <v>45351.7076388889</v>
+      <c r="E88" s="2" t="s">
+        <v>250</v>
       </c>
     </row>
     <row r="89" ht="44.55" customHeight="1" spans="1:5">
       <c r="A89" s="1" t="s">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>1</v>
+        <v>26</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>2</v>
+        <v>27</v>
       </c>
       <c r="D89" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E89" s="3">
-        <v>45351.8645833333</v>
+      <c r="E89" s="2" t="s">
+        <v>251</v>
       </c>
     </row>
     <row r="90" ht="44.55" customHeight="1" spans="1:5">
       <c r="A90" s="1" t="s">
-        <v>4</v>
+        <v>28</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>5</v>
+        <v>29</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>6</v>
+        <v>30</v>
       </c>
       <c r="D90" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E90" s="3">
-        <v>45351.95</v>
+      <c r="E90" s="2" t="s">
+        <v>252</v>
       </c>
     </row>
     <row r="91" ht="44.55" customHeight="1" spans="1:5">
       <c r="A91" s="1" t="s">
-        <v>265</v>
+        <v>31</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>266</v>
+        <v>32</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>267</v>
+        <v>33</v>
       </c>
       <c r="D91" s="2" t="s">
         <v>3</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>268</v>
+        <v>253</v>
       </c>
     </row>
     <row r="92" ht="44.55" customHeight="1" spans="1:5">
       <c r="A92" s="1" t="s">
-        <v>7</v>
+        <v>34</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>8</v>
+        <v>35</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>9</v>
+        <v>36</v>
       </c>
       <c r="D92" s="2" t="s">
         <v>3</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>269</v>
+        <v>254</v>
       </c>
     </row>
     <row r="93" ht="44.55" customHeight="1" spans="1:5">
       <c r="A93" s="1" t="s">
-        <v>10</v>
+        <v>37</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>11</v>
+        <v>38</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>12</v>
+        <v>39</v>
       </c>
       <c r="D93" s="2" t="s">
         <v>3</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>270</v>
+        <v>255</v>
       </c>
     </row>
     <row r="94" ht="44.55" customHeight="1" spans="1:5">
       <c r="A94" s="1" t="s">
-        <v>13</v>
+        <v>40</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>14</v>
+        <v>41</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>15</v>
+        <v>42</v>
       </c>
       <c r="D94" s="2" t="s">
         <v>3</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>271</v>
+        <v>256</v>
       </c>
     </row>
     <row r="95" ht="44.55" customHeight="1" spans="1:5">
       <c r="A95" s="1" t="s">
-        <v>16</v>
+        <v>43</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>17</v>
+        <v>44</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>18</v>
+        <v>45</v>
       </c>
       <c r="D95" s="2" t="s">
         <v>3</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>272</v>
+        <v>257</v>
       </c>
     </row>
     <row r="96" ht="44.55" customHeight="1" spans="1:5">
       <c r="A96" s="1" t="s">
-        <v>19</v>
+        <v>46</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>20</v>
+        <v>47</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>21</v>
+        <v>48</v>
       </c>
       <c r="D96" s="2" t="s">
         <v>3</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>273</v>
+        <v>258</v>
       </c>
     </row>
     <row r="97" ht="44.55" customHeight="1" spans="1:5">
       <c r="A97" s="1" t="s">
-        <v>22</v>
+        <v>49</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>23</v>
+        <v>50</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>24</v>
+        <v>51</v>
       </c>
       <c r="D97" s="2" t="s">
         <v>3</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>274</v>
+        <v>259</v>
       </c>
     </row>
     <row r="98" ht="44.55" customHeight="1" spans="1:5">
       <c r="A98" s="1" t="s">
-        <v>25</v>
+        <v>52</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>26</v>
+        <v>53</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>27</v>
+        <v>54</v>
       </c>
       <c r="D98" s="2" t="s">
         <v>3</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>275</v>
+        <v>260</v>
       </c>
     </row>
     <row r="99" ht="44.55" customHeight="1" spans="1:5">
       <c r="A99" s="1" t="s">
-        <v>28</v>
+        <v>55</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>29</v>
+        <v>56</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>30</v>
+        <v>57</v>
       </c>
       <c r="D99" s="2" t="s">
         <v>3</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>276</v>
+        <v>261</v>
       </c>
     </row>
     <row r="100" ht="44.55" customHeight="1" spans="1:5">
       <c r="A100" s="1" t="s">
-        <v>31</v>
+        <v>58</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>32</v>
+        <v>59</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>33</v>
+        <v>60</v>
       </c>
       <c r="D100" s="2" t="s">
         <v>3</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>277</v>
+        <v>262</v>
       </c>
     </row>
     <row r="101" ht="44.55" customHeight="1" spans="1:5">
       <c r="A101" s="1" t="s">
-        <v>34</v>
+        <v>61</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>35</v>
+        <v>62</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>36</v>
+        <v>63</v>
       </c>
       <c r="D101" s="2" t="s">
         <v>3</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>278</v>
+        <v>263</v>
       </c>
     </row>
     <row r="102" ht="44.55" customHeight="1" spans="1:5">
       <c r="A102" s="1" t="s">
-        <v>40</v>
+        <v>64</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>41</v>
+        <v>65</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>42</v>
+        <v>66</v>
       </c>
       <c r="D102" s="2" t="s">
         <v>3</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>279</v>
+        <v>264</v>
       </c>
     </row>
     <row r="103" ht="44.55" customHeight="1" spans="1:5">
       <c r="A103" s="1" t="s">
-        <v>43</v>
+        <v>67</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>44</v>
+        <v>68</v>
       </c>
       <c r="C103" s="2" t="s">
-        <v>45</v>
+        <v>69</v>
       </c>
       <c r="D103" s="2" t="s">
         <v>3</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>280</v>
+        <v>265</v>
       </c>
     </row>
     <row r="104" ht="44.55" customHeight="1" spans="1:5">
       <c r="A104" s="1" t="s">
-        <v>46</v>
+        <v>70</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>47</v>
+        <v>71</v>
       </c>
       <c r="C104" s="2" t="s">
-        <v>48</v>
+        <v>72</v>
       </c>
       <c r="D104" s="2" t="s">
         <v>3</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>281</v>
+        <v>266</v>
       </c>
     </row>
     <row r="105" ht="44.55" customHeight="1" spans="1:5">
       <c r="A105" s="1" t="s">
-        <v>49</v>
+        <v>73</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>50</v>
+        <v>74</v>
       </c>
       <c r="C105" s="2" t="s">
-        <v>51</v>
+        <v>75</v>
       </c>
       <c r="D105" s="2" t="s">
         <v>3</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>282</v>
+        <v>267</v>
       </c>
     </row>
     <row r="106" ht="44.55" customHeight="1" spans="1:5">
       <c r="A106" s="1" t="s">
-        <v>52</v>
+        <v>76</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>53</v>
+        <v>77</v>
       </c>
       <c r="C106" s="2" t="s">
-        <v>54</v>
+        <v>78</v>
       </c>
       <c r="D106" s="2" t="s">
         <v>3</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>283</v>
+        <v>268</v>
       </c>
     </row>
     <row r="107" ht="44.55" customHeight="1" spans="1:5">
       <c r="A107" s="1" t="s">
-        <v>55</v>
+        <v>79</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>56</v>
+        <v>80</v>
       </c>
       <c r="C107" s="2" t="s">
-        <v>57</v>
+        <v>81</v>
       </c>
       <c r="D107" s="2" t="s">
         <v>3</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>284</v>
+        <v>269</v>
       </c>
     </row>
     <row r="108" ht="44.55" customHeight="1" spans="1:5">
       <c r="A108" s="1" t="s">
-        <v>58</v>
+        <v>82</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>59</v>
+        <v>83</v>
       </c>
       <c r="C108" s="2" t="s">
-        <v>60</v>
+        <v>84</v>
       </c>
       <c r="D108" s="2" t="s">
         <v>3</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>285</v>
+        <v>270</v>
       </c>
     </row>
     <row r="109" ht="44.55" customHeight="1" spans="1:5">
       <c r="A109" s="1" t="s">
-        <v>61</v>
+        <v>85</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>62</v>
+        <v>86</v>
       </c>
       <c r="C109" s="2" t="s">
-        <v>63</v>
+        <v>87</v>
       </c>
       <c r="D109" s="2" t="s">
         <v>3</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>286</v>
+        <v>271</v>
       </c>
     </row>
     <row r="110" ht="44.55" customHeight="1" spans="1:5">
       <c r="A110" s="1" t="s">
-        <v>64</v>
+        <v>88</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>65</v>
+        <v>89</v>
       </c>
       <c r="C110" s="2" t="s">
-        <v>66</v>
+        <v>90</v>
       </c>
       <c r="D110" s="2" t="s">
         <v>3</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>287</v>
+        <v>272</v>
       </c>
     </row>
     <row r="111" ht="44.55" customHeight="1" spans="1:5">
       <c r="A111" s="1" t="s">
-        <v>67</v>
+        <v>91</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>68</v>
+        <v>92</v>
       </c>
       <c r="C111" s="2" t="s">
-        <v>69</v>
+        <v>93</v>
       </c>
       <c r="D111" s="2" t="s">
         <v>3</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>288</v>
+        <v>273</v>
       </c>
     </row>
     <row r="112" ht="44.55" customHeight="1" spans="1:5">
       <c r="A112" s="1" t="s">
-        <v>70</v>
+        <v>94</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>71</v>
+        <v>95</v>
       </c>
       <c r="C112" s="2" t="s">
-        <v>72</v>
+        <v>96</v>
       </c>
       <c r="D112" s="2" t="s">
         <v>3</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>289</v>
+        <v>274</v>
       </c>
     </row>
     <row r="113" ht="44.55" customHeight="1" spans="1:5">
       <c r="A113" s="1" t="s">
-        <v>73</v>
+        <v>97</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>74</v>
+        <v>98</v>
       </c>
       <c r="C113" s="2" t="s">
-        <v>75</v>
+        <v>99</v>
       </c>
       <c r="D113" s="2" t="s">
         <v>3</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>290</v>
+        <v>275</v>
       </c>
     </row>
     <row r="114" ht="44.55" customHeight="1" spans="1:5">
       <c r="A114" s="1" t="s">
-        <v>76</v>
+        <v>100</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>77</v>
+        <v>101</v>
       </c>
       <c r="C114" s="2" t="s">
-        <v>78</v>
+        <v>102</v>
       </c>
       <c r="D114" s="2" t="s">
         <v>3</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>291</v>
+        <v>276</v>
       </c>
     </row>
     <row r="115" ht="44.55" customHeight="1" spans="1:5">
       <c r="A115" s="1" t="s">
-        <v>79</v>
+        <v>103</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>80</v>
+        <v>104</v>
       </c>
       <c r="C115" s="2" t="s">
-        <v>81</v>
+        <v>105</v>
       </c>
       <c r="D115" s="2" t="s">
         <v>3</v>
       </c>
       <c r="E115" s="2" t="s">
-        <v>292</v>
+        <v>277</v>
       </c>
     </row>
     <row r="116" ht="44.55" customHeight="1" spans="1:5">
       <c r="A116" s="1" t="s">
-        <v>82</v>
+        <v>106</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>83</v>
+        <v>107</v>
       </c>
       <c r="C116" s="2" t="s">
-        <v>84</v>
+        <v>108</v>
       </c>
       <c r="D116" s="2" t="s">
         <v>3</v>
       </c>
       <c r="E116" s="2" t="s">
-        <v>293</v>
+        <v>278</v>
       </c>
     </row>
     <row r="117" ht="44.55" customHeight="1" spans="1:5">
       <c r="A117" s="1" t="s">
-        <v>85</v>
+        <v>279</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>86</v>
+        <v>280</v>
       </c>
       <c r="C117" s="2" t="s">
-        <v>87</v>
+        <v>281</v>
       </c>
       <c r="D117" s="2" t="s">
         <v>3</v>
       </c>
       <c r="E117" s="2" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="118" ht="44.55" customHeight="1" spans="1:5">
-      <c r="A118" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="B118" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="C118" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="D118" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E118" s="2" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="119" ht="44.55" customHeight="1" spans="1:5">
-      <c r="A119" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="B119" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="C119" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="D119" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E119" s="2" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="120" ht="44.55" customHeight="1" spans="1:5">
-      <c r="A120" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="B120" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="C120" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="D120" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E120" s="2" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="121" ht="44.55" customHeight="1" spans="1:5">
-      <c r="A121" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="B121" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="C121" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="D121" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E121" s="2" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="122" ht="44.55" customHeight="1" spans="1:5">
-      <c r="A122" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="B122" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="C122" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="D122" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E122" s="2" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="123" ht="44.55" customHeight="1" spans="1:5">
-      <c r="A123" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="B123" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="C123" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="D123" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E123" s="2" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="124" ht="44.55" customHeight="1" spans="1:5">
-      <c r="A124" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="B124" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="C124" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="D124" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E124" s="2" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="125" ht="44.55" customHeight="1" spans="1:5">
-      <c r="A125" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="B125" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="C125" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="D125" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E125" s="2" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="126" ht="44.55" customHeight="1" spans="1:5">
-      <c r="A126" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="B126" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="C126" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="D126" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E126" s="2" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="127" ht="44.55" customHeight="1" spans="1:5">
-      <c r="A127" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="B127" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="C127" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="D127" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E127" s="2" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="128" ht="44.55" customHeight="1" spans="1:5">
-      <c r="A128" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="B128" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="C128" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="D128" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E128" s="2" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="129" ht="44.55" customHeight="1" spans="1:5">
-      <c r="A129" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="B129" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="C129" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="D129" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E129" s="2" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="130" ht="44.55" customHeight="1" spans="1:5">
-      <c r="A130" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="B130" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="C130" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="D130" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E130" s="2" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="131" ht="44.55" customHeight="1" spans="1:5">
-      <c r="A131" s="1" t="s">
-        <v>308</v>
-      </c>
-      <c r="B131" s="2" t="s">
-        <v>309</v>
-      </c>
-      <c r="C131" s="2" t="s">
-        <v>310</v>
-      </c>
-      <c r="D131" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E131" s="2" t="s">
-        <v>311</v>
+        <v>282</v>
       </c>
     </row>
   </sheetData>

--- a/.ready/最新发布资源-维格视图.xlsx
+++ b/.ready/最新发布资源-维格视图.xlsx
@@ -17,56 +17,20 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="504" uniqueCount="283">
-  <si>
-    <t>王红元 - 前端体系课-2614集 - 带源码课件</t>
-  </si>
-  <si>
-    <t>https://www.alipan.com/s/nDEn6ibekbq</t>
-  </si>
-  <si>
-    <t>https://pan.quark.cn/s/4fa23aecaecd</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="459" uniqueCount="260">
+  <si>
+    <t>手机摄影技巧：从0到1用手机拍出酷炫短视频Vlog</t>
+  </si>
+  <si>
+    <t>https://www.alipan.com/s/bxyr9SozFNS</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/94cf785af921</t>
   </si>
   <si>
     <t>学术</t>
   </si>
   <si>
-    <t>【虎课网-78025】深度学习爬虫验证码识别</t>
-  </si>
-  <si>
-    <t>https://www.alipan.com/s/7GXXwboAJv8</t>
-  </si>
-  <si>
-    <t>https://pan.quark.cn/s/a724ae6aecc8</t>
-  </si>
-  <si>
-    <t>【开课吧】门徒计划 - AI方向</t>
-  </si>
-  <si>
-    <t>https://www.alipan.com/s/MLaCvFW1bxN</t>
-  </si>
-  <si>
-    <t>https://pan.quark.cn/s/f56e51ab4319</t>
-  </si>
-  <si>
-    <t>【深蓝学院】机器学习数学基础 - 带源码课件</t>
-  </si>
-  <si>
-    <t>https://www.alipan.com/s/AGbozELqBgG</t>
-  </si>
-  <si>
-    <t>https://pan.quark.cn/s/bc5ee542c086</t>
-  </si>
-  <si>
-    <t>手机摄影技巧：从0到1用手机拍出酷炫短视频Vlog</t>
-  </si>
-  <si>
-    <t>https://www.alipan.com/s/bxyr9SozFNS</t>
-  </si>
-  <si>
-    <t>https://pan.quark.cn/s/94cf785af921</t>
-  </si>
-  <si>
     <t>英语思维：快速建立语法体系</t>
   </si>
   <si>
@@ -76,15 +40,6 @@
     <t>https://pan.quark.cn/s/b9a565c6c0f0</t>
   </si>
   <si>
-    <t>【CCtalk】静物美食摄影课 - 17期</t>
-  </si>
-  <si>
-    <t>https://www.alipan.com/s/ymu1uyyigVS</t>
-  </si>
-  <si>
-    <t>https://pan.quark.cn/s/31023affd886</t>
-  </si>
-  <si>
     <t>【开课吧】门徒计划 - 算法课</t>
   </si>
   <si>
@@ -751,18 +706,6 @@
     <t>https://pan.quark.cn/s/66cf0c19a890</t>
   </si>
   <si>
-    <t>2024/02/15 15:16</t>
-  </si>
-  <si>
-    <t>2024/02/15 16:29</t>
-  </si>
-  <si>
-    <t>2024/02/15 17:27</t>
-  </si>
-  <si>
-    <t>2024/02/16 03:14</t>
-  </si>
-  <si>
     <t>2024/02/16 14:41</t>
   </si>
   <si>
@@ -854,18 +797,6 @@
   </si>
   <si>
     <t>2024/02/23 12:35</t>
-  </si>
-  <si>
-    <t>【爪哇教育】Web全栈工程师班 - 2023</t>
-  </si>
-  <si>
-    <t>https://www.alipan.com/s/rXwZwqDrPXS</t>
-  </si>
-  <si>
-    <t>https://pan.quark.cn/s/3cc1ce872b1c</t>
-  </si>
-  <si>
-    <t>2024/02/23 13:48</t>
   </si>
 </sst>
 </file>
@@ -1873,10 +1804,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E117"/>
+  <dimension ref="A1:E107"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="38.6666666666667" defaultRowHeight="14.4" outlineLevelCol="4"/>
@@ -1899,7 +1830,7 @@
         <v>3</v>
       </c>
       <c r="E1" s="3">
-        <v>45337.6361111111</v>
+        <v>45338.6118055556</v>
       </c>
     </row>
     <row r="2" ht="44.55" customHeight="1" spans="1:5">
@@ -1916,7 +1847,7 @@
         <v>3</v>
       </c>
       <c r="E2" s="3">
-        <v>45337.6868055556</v>
+        <v>45338.7381944444</v>
       </c>
     </row>
     <row r="3" ht="44.55" customHeight="1" spans="1:5">
@@ -1933,7 +1864,7 @@
         <v>3</v>
       </c>
       <c r="E3" s="3">
-        <v>45337.7270833333</v>
+        <v>45339.0388888889</v>
       </c>
     </row>
     <row r="4" ht="44.55" customHeight="1" spans="1:5">
@@ -1950,7 +1881,7 @@
         <v>3</v>
       </c>
       <c r="E4" s="3">
-        <v>45338.1347222222</v>
+        <v>45339.6833333333</v>
       </c>
     </row>
     <row r="5" ht="44.55" customHeight="1" spans="1:5">
@@ -1967,7 +1898,7 @@
         <v>3</v>
       </c>
       <c r="E5" s="3">
-        <v>45338.6118055556</v>
+        <v>45339.7270833333</v>
       </c>
     </row>
     <row r="6" ht="44.55" customHeight="1" spans="1:5">
@@ -1984,7 +1915,7 @@
         <v>3</v>
       </c>
       <c r="E6" s="3">
-        <v>45338.7381944444</v>
+        <v>45339.7506944444</v>
       </c>
     </row>
     <row r="7" ht="44.55" customHeight="1" spans="1:5">
@@ -2001,7 +1932,7 @@
         <v>3</v>
       </c>
       <c r="E7" s="3">
-        <v>45338.9402777778</v>
+        <v>45340.2708333333</v>
       </c>
     </row>
     <row r="8" ht="44.55" customHeight="1" spans="1:5">
@@ -2018,7 +1949,7 @@
         <v>3</v>
       </c>
       <c r="E8" s="3">
-        <v>45339.0388888889</v>
+        <v>45340.9756944444</v>
       </c>
     </row>
     <row r="9" ht="44.55" customHeight="1" spans="1:5">
@@ -2035,7 +1966,7 @@
         <v>3</v>
       </c>
       <c r="E9" s="3">
-        <v>45339.6833333333</v>
+        <v>45341.0875</v>
       </c>
     </row>
     <row r="10" ht="44.55" customHeight="1" spans="1:5">
@@ -2052,7 +1983,7 @@
         <v>3</v>
       </c>
       <c r="E10" s="3">
-        <v>45339.7270833333</v>
+        <v>45341.6361111111</v>
       </c>
     </row>
     <row r="11" ht="44.55" customHeight="1" spans="1:5">
@@ -2069,7 +2000,7 @@
         <v>3</v>
       </c>
       <c r="E11" s="3">
-        <v>45339.7506944444</v>
+        <v>45341.8798611111</v>
       </c>
     </row>
     <row r="12" ht="44.55" customHeight="1" spans="1:5">
@@ -2086,7 +2017,7 @@
         <v>3</v>
       </c>
       <c r="E12" s="3">
-        <v>45340.2708333333</v>
+        <v>45341.9111111111</v>
       </c>
     </row>
     <row r="13" ht="44.55" customHeight="1" spans="1:5">
@@ -2103,7 +2034,7 @@
         <v>3</v>
       </c>
       <c r="E13" s="3">
-        <v>45340.9756944444</v>
+        <v>45341.9673611111</v>
       </c>
     </row>
     <row r="14" ht="44.55" customHeight="1" spans="1:5">
@@ -2120,7 +2051,7 @@
         <v>3</v>
       </c>
       <c r="E14" s="3">
-        <v>45341.0875</v>
+        <v>45342.3590277778</v>
       </c>
     </row>
     <row r="15" ht="44.55" customHeight="1" spans="1:5">
@@ -2137,7 +2068,7 @@
         <v>3</v>
       </c>
       <c r="E15" s="3">
-        <v>45341.6361111111</v>
+        <v>45342.4097222222</v>
       </c>
     </row>
     <row r="16" ht="44.55" customHeight="1" spans="1:5">
@@ -2154,7 +2085,7 @@
         <v>3</v>
       </c>
       <c r="E16" s="3">
-        <v>45341.8798611111</v>
+        <v>45342.56875</v>
       </c>
     </row>
     <row r="17" ht="44.55" customHeight="1" spans="1:5">
@@ -2171,7 +2102,7 @@
         <v>3</v>
       </c>
       <c r="E17" s="3">
-        <v>45341.9111111111</v>
+        <v>45342.6125</v>
       </c>
     </row>
     <row r="18" ht="44.55" customHeight="1" spans="1:5">
@@ -2188,7 +2119,7 @@
         <v>3</v>
       </c>
       <c r="E18" s="3">
-        <v>45341.9673611111</v>
+        <v>45342.6881944444</v>
       </c>
     </row>
     <row r="19" ht="44.55" customHeight="1" spans="1:5">
@@ -2205,7 +2136,7 @@
         <v>3</v>
       </c>
       <c r="E19" s="3">
-        <v>45342.3590277778</v>
+        <v>45342.7319444444</v>
       </c>
     </row>
     <row r="20" ht="44.55" customHeight="1" spans="1:5">
@@ -2222,7 +2153,7 @@
         <v>3</v>
       </c>
       <c r="E20" s="3">
-        <v>45342.4097222222</v>
+        <v>45342.8715277778</v>
       </c>
     </row>
     <row r="21" ht="44.55" customHeight="1" spans="1:5">
@@ -2239,7 +2170,7 @@
         <v>3</v>
       </c>
       <c r="E21" s="3">
-        <v>45342.56875</v>
+        <v>45343.4652777778</v>
       </c>
     </row>
     <row r="22" ht="44.55" customHeight="1" spans="1:5">
@@ -2256,7 +2187,7 @@
         <v>3</v>
       </c>
       <c r="E22" s="3">
-        <v>45342.6125</v>
+        <v>45343.6076388889</v>
       </c>
     </row>
     <row r="23" ht="44.55" customHeight="1" spans="1:5">
@@ -2273,7 +2204,7 @@
         <v>3</v>
       </c>
       <c r="E23" s="3">
-        <v>45342.6881944444</v>
+        <v>45343.6402777778</v>
       </c>
     </row>
     <row r="24" ht="44.55" customHeight="1" spans="1:5">
@@ -2290,7 +2221,7 @@
         <v>3</v>
       </c>
       <c r="E24" s="3">
-        <v>45342.7319444444</v>
+        <v>45343.8423611111</v>
       </c>
     </row>
     <row r="25" ht="44.55" customHeight="1" spans="1:5">
@@ -2307,7 +2238,7 @@
         <v>3</v>
       </c>
       <c r="E25" s="3">
-        <v>45342.8715277778</v>
+        <v>45343.9027777778</v>
       </c>
     </row>
     <row r="26" ht="44.55" customHeight="1" spans="1:5">
@@ -2324,7 +2255,7 @@
         <v>3</v>
       </c>
       <c r="E26" s="3">
-        <v>45343.4652777778</v>
+        <v>45343.9486111111</v>
       </c>
     </row>
     <row r="27" ht="44.55" customHeight="1" spans="1:5">
@@ -2341,7 +2272,7 @@
         <v>3</v>
       </c>
       <c r="E27" s="3">
-        <v>45343.6076388889</v>
+        <v>45344.5444444444</v>
       </c>
     </row>
     <row r="28" ht="44.55" customHeight="1" spans="1:5">
@@ -2358,7 +2289,7 @@
         <v>3</v>
       </c>
       <c r="E28" s="3">
-        <v>45343.6402777778</v>
+        <v>45344.7493055556</v>
       </c>
     </row>
     <row r="29" ht="44.55" customHeight="1" spans="1:5">
@@ -2375,7 +2306,7 @@
         <v>3</v>
       </c>
       <c r="E29" s="3">
-        <v>45343.8423611111</v>
+        <v>45344.9458333333</v>
       </c>
     </row>
     <row r="30" ht="44.55" customHeight="1" spans="1:5">
@@ -2392,7 +2323,7 @@
         <v>3</v>
       </c>
       <c r="E30" s="3">
-        <v>45343.9027777778</v>
+        <v>45345.2076388889</v>
       </c>
     </row>
     <row r="31" ht="44.55" customHeight="1" spans="1:5">
@@ -2409,7 +2340,7 @@
         <v>3</v>
       </c>
       <c r="E31" s="3">
-        <v>45343.9486111111</v>
+        <v>45345.5243055556</v>
       </c>
     </row>
     <row r="32" ht="44.55" customHeight="1" spans="1:5">
@@ -2426,7 +2357,7 @@
         <v>3</v>
       </c>
       <c r="E32" s="3">
-        <v>45344.5444444444</v>
+        <v>45345.575</v>
       </c>
     </row>
     <row r="33" ht="44.55" customHeight="1" spans="1:5">
@@ -2443,7 +2374,7 @@
         <v>3</v>
       </c>
       <c r="E33" s="3">
-        <v>45344.7493055556</v>
+        <v>45345.8118055556</v>
       </c>
     </row>
     <row r="34" ht="44.55" customHeight="1" spans="1:5">
@@ -2460,7 +2391,7 @@
         <v>3</v>
       </c>
       <c r="E34" s="3">
-        <v>45344.9458333333</v>
+        <v>45345.9027777778</v>
       </c>
     </row>
     <row r="35" ht="44.55" customHeight="1" spans="1:5">
@@ -2477,7 +2408,7 @@
         <v>3</v>
       </c>
       <c r="E35" s="3">
-        <v>45345.2076388889</v>
+        <v>45346.5104166667</v>
       </c>
     </row>
     <row r="36" ht="44.55" customHeight="1" spans="1:5">
@@ -2494,7 +2425,7 @@
         <v>3</v>
       </c>
       <c r="E36" s="3">
-        <v>45345.5243055556</v>
+        <v>45346.5666666667</v>
       </c>
     </row>
     <row r="37" ht="44.55" customHeight="1" spans="1:5">
@@ -2511,7 +2442,7 @@
         <v>3</v>
       </c>
       <c r="E37" s="3">
-        <v>45345.575</v>
+        <v>45346.60625</v>
       </c>
     </row>
     <row r="38" ht="44.55" customHeight="1" spans="1:5">
@@ -2528,7 +2459,7 @@
         <v>3</v>
       </c>
       <c r="E38" s="3">
-        <v>45345.8118055556</v>
+        <v>45346.7145833333</v>
       </c>
     </row>
     <row r="39" ht="44.55" customHeight="1" spans="1:5">
@@ -2545,7 +2476,7 @@
         <v>3</v>
       </c>
       <c r="E39" s="3">
-        <v>45345.9027777778</v>
+        <v>45346.7465277778</v>
       </c>
     </row>
     <row r="40" ht="44.55" customHeight="1" spans="1:5">
@@ -2562,7 +2493,7 @@
         <v>3</v>
       </c>
       <c r="E40" s="3">
-        <v>45346.5104166667</v>
+        <v>45346.8541666667</v>
       </c>
     </row>
     <row r="41" ht="44.55" customHeight="1" spans="1:5">
@@ -2579,7 +2510,7 @@
         <v>3</v>
       </c>
       <c r="E41" s="3">
-        <v>45346.5666666667</v>
+        <v>45346.9020833333</v>
       </c>
     </row>
     <row r="42" ht="44.55" customHeight="1" spans="1:5">
@@ -2596,7 +2527,7 @@
         <v>3</v>
       </c>
       <c r="E42" s="3">
-        <v>45346.60625</v>
+        <v>45347.0402777778</v>
       </c>
     </row>
     <row r="43" ht="44.55" customHeight="1" spans="1:5">
@@ -2613,7 +2544,7 @@
         <v>3</v>
       </c>
       <c r="E43" s="3">
-        <v>45346.7145833333</v>
+        <v>45347.1604166667</v>
       </c>
     </row>
     <row r="44" ht="44.55" customHeight="1" spans="1:5">
@@ -2630,7 +2561,7 @@
         <v>3</v>
       </c>
       <c r="E44" s="3">
-        <v>45346.7465277778</v>
+        <v>45347.66875</v>
       </c>
     </row>
     <row r="45" ht="44.55" customHeight="1" spans="1:5">
@@ -2647,7 +2578,7 @@
         <v>3</v>
       </c>
       <c r="E45" s="3">
-        <v>45346.8541666667</v>
+        <v>45347.7326388889</v>
       </c>
     </row>
     <row r="46" ht="44.55" customHeight="1" spans="1:5">
@@ -2664,7 +2595,7 @@
         <v>3</v>
       </c>
       <c r="E46" s="3">
-        <v>45346.9020833333</v>
+        <v>45347.8513888889</v>
       </c>
     </row>
     <row r="47" ht="44.55" customHeight="1" spans="1:5">
@@ -2681,7 +2612,7 @@
         <v>3</v>
       </c>
       <c r="E47" s="3">
-        <v>45347.0402777778</v>
+        <v>45347.9763888889</v>
       </c>
     </row>
     <row r="48" ht="44.55" customHeight="1" spans="1:5">
@@ -2698,7 +2629,7 @@
         <v>3</v>
       </c>
       <c r="E48" s="3">
-        <v>45347.1604166667</v>
+        <v>45348.6569444444</v>
       </c>
     </row>
     <row r="49" ht="44.55" customHeight="1" spans="1:5">
@@ -2715,7 +2646,7 @@
         <v>3</v>
       </c>
       <c r="E49" s="3">
-        <v>45347.66875</v>
+        <v>45348.6979166667</v>
       </c>
     </row>
     <row r="50" ht="44.55" customHeight="1" spans="1:5">
@@ -2732,7 +2663,7 @@
         <v>3</v>
       </c>
       <c r="E50" s="3">
-        <v>45347.7326388889</v>
+        <v>45348.7361111111</v>
       </c>
     </row>
     <row r="51" ht="44.55" customHeight="1" spans="1:5">
@@ -2749,7 +2680,7 @@
         <v>3</v>
       </c>
       <c r="E51" s="3">
-        <v>45347.8513888889</v>
+        <v>45348.8020833333</v>
       </c>
     </row>
     <row r="52" ht="44.55" customHeight="1" spans="1:5">
@@ -2766,7 +2697,7 @@
         <v>3</v>
       </c>
       <c r="E52" s="3">
-        <v>45347.9763888889</v>
+        <v>45348.8368055556</v>
       </c>
     </row>
     <row r="53" ht="44.55" customHeight="1" spans="1:5">
@@ -2783,7 +2714,7 @@
         <v>3</v>
       </c>
       <c r="E53" s="3">
-        <v>45348.6569444444</v>
+        <v>45348.8694444444</v>
       </c>
     </row>
     <row r="54" ht="44.55" customHeight="1" spans="1:5">
@@ -2800,7 +2731,7 @@
         <v>3</v>
       </c>
       <c r="E54" s="3">
-        <v>45348.6979166667</v>
+        <v>45348.9208333333</v>
       </c>
     </row>
     <row r="55" ht="44.55" customHeight="1" spans="1:5">
@@ -2817,7 +2748,7 @@
         <v>3</v>
       </c>
       <c r="E55" s="3">
-        <v>45348.7361111111</v>
+        <v>45348.9791666667</v>
       </c>
     </row>
     <row r="56" ht="44.55" customHeight="1" spans="1:5">
@@ -2834,7 +2765,7 @@
         <v>3</v>
       </c>
       <c r="E56" s="3">
-        <v>45348.8020833333</v>
+        <v>45349.1326388889</v>
       </c>
     </row>
     <row r="57" ht="44.55" customHeight="1" spans="1:5">
@@ -2851,7 +2782,7 @@
         <v>3</v>
       </c>
       <c r="E57" s="3">
-        <v>45348.8368055556</v>
+        <v>45349.5263888889</v>
       </c>
     </row>
     <row r="58" ht="44.55" customHeight="1" spans="1:5">
@@ -2868,7 +2799,7 @@
         <v>3</v>
       </c>
       <c r="E58" s="3">
-        <v>45348.8694444444</v>
+        <v>45349.5534722222</v>
       </c>
     </row>
     <row r="59" ht="44.55" customHeight="1" spans="1:5">
@@ -2885,7 +2816,7 @@
         <v>3</v>
       </c>
       <c r="E59" s="3">
-        <v>45348.9208333333</v>
+        <v>45349.6638888889</v>
       </c>
     </row>
     <row r="60" ht="44.55" customHeight="1" spans="1:5">
@@ -2902,7 +2833,7 @@
         <v>3</v>
       </c>
       <c r="E60" s="3">
-        <v>45348.9791666667</v>
+        <v>45349.7118055556</v>
       </c>
     </row>
     <row r="61" ht="44.55" customHeight="1" spans="1:5">
@@ -2919,7 +2850,7 @@
         <v>3</v>
       </c>
       <c r="E61" s="3">
-        <v>45349.1326388889</v>
+        <v>45349.7486111111</v>
       </c>
     </row>
     <row r="62" ht="44.55" customHeight="1" spans="1:5">
@@ -2936,7 +2867,7 @@
         <v>3</v>
       </c>
       <c r="E62" s="3">
-        <v>45349.5263888889</v>
+        <v>45349.8520833333</v>
       </c>
     </row>
     <row r="63" ht="44.55" customHeight="1" spans="1:5">
@@ -2953,7 +2884,7 @@
         <v>3</v>
       </c>
       <c r="E63" s="3">
-        <v>45349.5534722222</v>
+        <v>45349.9270833333</v>
       </c>
     </row>
     <row r="64" ht="44.55" customHeight="1" spans="1:5">
@@ -2970,7 +2901,7 @@
         <v>3</v>
       </c>
       <c r="E64" s="3">
-        <v>45349.6638888889</v>
+        <v>45350.0111111111</v>
       </c>
     </row>
     <row r="65" ht="44.55" customHeight="1" spans="1:5">
@@ -2987,7 +2918,7 @@
         <v>3</v>
       </c>
       <c r="E65" s="3">
-        <v>45349.7118055556</v>
+        <v>45350.09375</v>
       </c>
     </row>
     <row r="66" ht="44.55" customHeight="1" spans="1:5">
@@ -3004,7 +2935,7 @@
         <v>3</v>
       </c>
       <c r="E66" s="3">
-        <v>45349.7486111111</v>
+        <v>45350.2944444444</v>
       </c>
     </row>
     <row r="67" ht="44.55" customHeight="1" spans="1:5">
@@ -3021,7 +2952,7 @@
         <v>3</v>
       </c>
       <c r="E67" s="3">
-        <v>45349.8520833333</v>
+        <v>45350.64375</v>
       </c>
     </row>
     <row r="68" ht="44.55" customHeight="1" spans="1:5">
@@ -3038,7 +2969,7 @@
         <v>3</v>
       </c>
       <c r="E68" s="3">
-        <v>45349.9270833333</v>
+        <v>45350.7270833333</v>
       </c>
     </row>
     <row r="69" ht="44.55" customHeight="1" spans="1:5">
@@ -3055,7 +2986,7 @@
         <v>3</v>
       </c>
       <c r="E69" s="3">
-        <v>45350.0111111111</v>
+        <v>45350.8736111111</v>
       </c>
     </row>
     <row r="70" ht="44.55" customHeight="1" spans="1:5">
@@ -3072,7 +3003,7 @@
         <v>3</v>
       </c>
       <c r="E70" s="3">
-        <v>45350.09375</v>
+        <v>45350.9097222222</v>
       </c>
     </row>
     <row r="71" ht="44.55" customHeight="1" spans="1:5">
@@ -3089,7 +3020,7 @@
         <v>3</v>
       </c>
       <c r="E71" s="3">
-        <v>45350.2944444444</v>
+        <v>45350.9701388889</v>
       </c>
     </row>
     <row r="72" ht="44.55" customHeight="1" spans="1:5">
@@ -3106,7 +3037,7 @@
         <v>3</v>
       </c>
       <c r="E72" s="3">
-        <v>45350.64375</v>
+        <v>45351.0229166667</v>
       </c>
     </row>
     <row r="73" ht="44.55" customHeight="1" spans="1:5">
@@ -3123,7 +3054,7 @@
         <v>3</v>
       </c>
       <c r="E73" s="3">
-        <v>45350.7270833333</v>
+        <v>45351.0986111111</v>
       </c>
     </row>
     <row r="74" ht="44.55" customHeight="1" spans="1:5">
@@ -3140,7 +3071,7 @@
         <v>3</v>
       </c>
       <c r="E74" s="3">
-        <v>45350.8736111111</v>
+        <v>45351.5527777778</v>
       </c>
     </row>
     <row r="75" ht="44.55" customHeight="1" spans="1:5">
@@ -3157,7 +3088,7 @@
         <v>3</v>
       </c>
       <c r="E75" s="3">
-        <v>45350.9097222222</v>
+        <v>45351.6131944444</v>
       </c>
     </row>
     <row r="76" ht="44.55" customHeight="1" spans="1:5">
@@ -3174,704 +3105,534 @@
         <v>3</v>
       </c>
       <c r="E76" s="3">
-        <v>45350.9701388889</v>
+        <v>45351.6604166667</v>
       </c>
     </row>
     <row r="77" ht="44.55" customHeight="1" spans="1:5">
       <c r="A77" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B77" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C77" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D77" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E77" s="2" t="s">
         <v>229</v>
-      </c>
-      <c r="B77" s="2" t="s">
-        <v>230</v>
-      </c>
-      <c r="C77" s="2" t="s">
-        <v>231</v>
-      </c>
-      <c r="D77" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E77" s="3">
-        <v>45351.0229166667</v>
       </c>
     </row>
     <row r="78" ht="44.55" customHeight="1" spans="1:5">
       <c r="A78" s="1" t="s">
-        <v>232</v>
+        <v>4</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>233</v>
+        <v>5</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>234</v>
+        <v>6</v>
       </c>
       <c r="D78" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E78" s="3">
-        <v>45351.0986111111</v>
+      <c r="E78" s="2" t="s">
+        <v>230</v>
       </c>
     </row>
     <row r="79" ht="44.55" customHeight="1" spans="1:5">
       <c r="A79" s="1" t="s">
-        <v>235</v>
+        <v>7</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>236</v>
+        <v>8</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>237</v>
+        <v>9</v>
       </c>
       <c r="D79" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E79" s="3">
-        <v>45351.5527777778</v>
+      <c r="E79" s="2" t="s">
+        <v>231</v>
       </c>
     </row>
     <row r="80" ht="44.55" customHeight="1" spans="1:5">
       <c r="A80" s="1" t="s">
-        <v>238</v>
+        <v>10</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>239</v>
+        <v>11</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>240</v>
+        <v>12</v>
       </c>
       <c r="D80" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E80" s="3">
-        <v>45351.6131944444</v>
+      <c r="E80" s="2" t="s">
+        <v>232</v>
       </c>
     </row>
     <row r="81" ht="44.55" customHeight="1" spans="1:5">
       <c r="A81" s="1" t="s">
-        <v>241</v>
+        <v>13</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>242</v>
+        <v>14</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>243</v>
+        <v>15</v>
       </c>
       <c r="D81" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E81" s="3">
-        <v>45351.6604166667</v>
+      <c r="E81" s="2" t="s">
+        <v>233</v>
       </c>
     </row>
     <row r="82" ht="44.55" customHeight="1" spans="1:5">
       <c r="A82" s="1" t="s">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="D82" s="2" t="s">
         <v>3</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>244</v>
+        <v>234</v>
       </c>
     </row>
     <row r="83" ht="44.55" customHeight="1" spans="1:5">
       <c r="A83" s="1" t="s">
-        <v>4</v>
+        <v>19</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>6</v>
+        <v>21</v>
       </c>
       <c r="D83" s="2" t="s">
         <v>3</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>245</v>
+        <v>235</v>
       </c>
     </row>
     <row r="84" ht="44.55" customHeight="1" spans="1:5">
       <c r="A84" s="1" t="s">
-        <v>7</v>
+        <v>22</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>8</v>
+        <v>23</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>9</v>
+        <v>24</v>
       </c>
       <c r="D84" s="2" t="s">
         <v>3</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>246</v>
+        <v>236</v>
       </c>
     </row>
     <row r="85" ht="44.55" customHeight="1" spans="1:5">
       <c r="A85" s="1" t="s">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="D85" s="2" t="s">
         <v>3</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>247</v>
+        <v>237</v>
       </c>
     </row>
     <row r="86" ht="44.55" customHeight="1" spans="1:5">
       <c r="A86" s="1" t="s">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>14</v>
+        <v>29</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="D86" s="2" t="s">
         <v>3</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>248</v>
+        <v>238</v>
       </c>
     </row>
     <row r="87" ht="44.55" customHeight="1" spans="1:5">
       <c r="A87" s="1" t="s">
-        <v>16</v>
+        <v>31</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>17</v>
+        <v>32</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>18</v>
+        <v>33</v>
       </c>
       <c r="D87" s="2" t="s">
         <v>3</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>249</v>
+        <v>239</v>
       </c>
     </row>
     <row r="88" ht="44.55" customHeight="1" spans="1:5">
       <c r="A88" s="1" t="s">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="D88" s="2" t="s">
         <v>3</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>250</v>
+        <v>240</v>
       </c>
     </row>
     <row r="89" ht="44.55" customHeight="1" spans="1:5">
       <c r="A89" s="1" t="s">
-        <v>25</v>
+        <v>37</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>26</v>
+        <v>38</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>27</v>
+        <v>39</v>
       </c>
       <c r="D89" s="2" t="s">
         <v>3</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>251</v>
+        <v>241</v>
       </c>
     </row>
     <row r="90" ht="44.55" customHeight="1" spans="1:5">
       <c r="A90" s="1" t="s">
-        <v>28</v>
+        <v>40</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="D90" s="2" t="s">
         <v>3</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>252</v>
+        <v>242</v>
       </c>
     </row>
     <row r="91" ht="44.55" customHeight="1" spans="1:5">
       <c r="A91" s="1" t="s">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>33</v>
+        <v>45</v>
       </c>
       <c r="D91" s="2" t="s">
         <v>3</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>253</v>
+        <v>243</v>
       </c>
     </row>
     <row r="92" ht="44.55" customHeight="1" spans="1:5">
       <c r="A92" s="1" t="s">
-        <v>34</v>
+        <v>46</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>35</v>
+        <v>47</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>36</v>
+        <v>48</v>
       </c>
       <c r="D92" s="2" t="s">
         <v>3</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>254</v>
+        <v>244</v>
       </c>
     </row>
     <row r="93" ht="44.55" customHeight="1" spans="1:5">
       <c r="A93" s="1" t="s">
-        <v>37</v>
+        <v>49</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>38</v>
+        <v>50</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>39</v>
+        <v>51</v>
       </c>
       <c r="D93" s="2" t="s">
         <v>3</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>255</v>
+        <v>245</v>
       </c>
     </row>
     <row r="94" ht="44.55" customHeight="1" spans="1:5">
       <c r="A94" s="1" t="s">
-        <v>40</v>
+        <v>52</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>41</v>
+        <v>53</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>42</v>
+        <v>54</v>
       </c>
       <c r="D94" s="2" t="s">
         <v>3</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>256</v>
+        <v>246</v>
       </c>
     </row>
     <row r="95" ht="44.55" customHeight="1" spans="1:5">
       <c r="A95" s="1" t="s">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="D95" s="2" t="s">
         <v>3</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>257</v>
+        <v>247</v>
       </c>
     </row>
     <row r="96" ht="44.55" customHeight="1" spans="1:5">
       <c r="A96" s="1" t="s">
-        <v>46</v>
+        <v>58</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>47</v>
+        <v>59</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>48</v>
+        <v>60</v>
       </c>
       <c r="D96" s="2" t="s">
         <v>3</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>258</v>
+        <v>248</v>
       </c>
     </row>
     <row r="97" ht="44.55" customHeight="1" spans="1:5">
       <c r="A97" s="1" t="s">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="D97" s="2" t="s">
         <v>3</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>259</v>
+        <v>249</v>
       </c>
     </row>
     <row r="98" ht="44.55" customHeight="1" spans="1:5">
       <c r="A98" s="1" t="s">
-        <v>52</v>
+        <v>64</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>53</v>
+        <v>65</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>54</v>
+        <v>66</v>
       </c>
       <c r="D98" s="2" t="s">
         <v>3</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>260</v>
+        <v>250</v>
       </c>
     </row>
     <row r="99" ht="44.55" customHeight="1" spans="1:5">
       <c r="A99" s="1" t="s">
-        <v>55</v>
+        <v>67</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>56</v>
+        <v>68</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>57</v>
+        <v>69</v>
       </c>
       <c r="D99" s="2" t="s">
         <v>3</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>261</v>
+        <v>251</v>
       </c>
     </row>
     <row r="100" ht="44.55" customHeight="1" spans="1:5">
       <c r="A100" s="1" t="s">
-        <v>58</v>
+        <v>70</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>59</v>
+        <v>71</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>60</v>
+        <v>72</v>
       </c>
       <c r="D100" s="2" t="s">
         <v>3</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>262</v>
+        <v>252</v>
       </c>
     </row>
     <row r="101" ht="44.55" customHeight="1" spans="1:5">
       <c r="A101" s="1" t="s">
-        <v>61</v>
+        <v>73</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>62</v>
+        <v>74</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>63</v>
+        <v>75</v>
       </c>
       <c r="D101" s="2" t="s">
         <v>3</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>263</v>
+        <v>253</v>
       </c>
     </row>
     <row r="102" ht="44.55" customHeight="1" spans="1:5">
       <c r="A102" s="1" t="s">
-        <v>64</v>
+        <v>76</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>65</v>
+        <v>77</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>66</v>
+        <v>78</v>
       </c>
       <c r="D102" s="2" t="s">
         <v>3</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>264</v>
+        <v>254</v>
       </c>
     </row>
     <row r="103" ht="44.55" customHeight="1" spans="1:5">
       <c r="A103" s="1" t="s">
-        <v>67</v>
+        <v>79</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>68</v>
+        <v>80</v>
       </c>
       <c r="C103" s="2" t="s">
-        <v>69</v>
+        <v>81</v>
       </c>
       <c r="D103" s="2" t="s">
         <v>3</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>265</v>
+        <v>255</v>
       </c>
     </row>
     <row r="104" ht="44.55" customHeight="1" spans="1:5">
       <c r="A104" s="1" t="s">
-        <v>70</v>
+        <v>82</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>71</v>
+        <v>83</v>
       </c>
       <c r="C104" s="2" t="s">
-        <v>72</v>
+        <v>84</v>
       </c>
       <c r="D104" s="2" t="s">
         <v>3</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>266</v>
+        <v>256</v>
       </c>
     </row>
     <row r="105" ht="44.55" customHeight="1" spans="1:5">
       <c r="A105" s="1" t="s">
-        <v>73</v>
+        <v>85</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>74</v>
+        <v>86</v>
       </c>
       <c r="C105" s="2" t="s">
-        <v>75</v>
+        <v>87</v>
       </c>
       <c r="D105" s="2" t="s">
         <v>3</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>267</v>
+        <v>257</v>
       </c>
     </row>
     <row r="106" ht="44.55" customHeight="1" spans="1:5">
       <c r="A106" s="1" t="s">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>77</v>
+        <v>89</v>
       </c>
       <c r="C106" s="2" t="s">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="D106" s="2" t="s">
         <v>3</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>268</v>
+        <v>258</v>
       </c>
     </row>
     <row r="107" ht="44.55" customHeight="1" spans="1:5">
       <c r="A107" s="1" t="s">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="C107" s="2" t="s">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="D107" s="2" t="s">
         <v>3</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="108" ht="44.55" customHeight="1" spans="1:5">
-      <c r="A108" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="B108" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="C108" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="D108" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E108" s="2" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="109" ht="44.55" customHeight="1" spans="1:5">
-      <c r="A109" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="B109" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="C109" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="D109" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E109" s="2" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="110" ht="44.55" customHeight="1" spans="1:5">
-      <c r="A110" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="B110" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="C110" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="D110" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E110" s="2" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="111" ht="44.55" customHeight="1" spans="1:5">
-      <c r="A111" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="B111" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="C111" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="D111" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E111" s="2" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="112" ht="44.55" customHeight="1" spans="1:5">
-      <c r="A112" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="B112" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="C112" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="D112" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E112" s="2" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="113" ht="44.55" customHeight="1" spans="1:5">
-      <c r="A113" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="B113" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="C113" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="D113" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E113" s="2" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="114" ht="44.55" customHeight="1" spans="1:5">
-      <c r="A114" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="B114" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="C114" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="D114" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E114" s="2" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="115" ht="44.55" customHeight="1" spans="1:5">
-      <c r="A115" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="B115" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="C115" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="D115" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E115" s="2" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="116" ht="44.55" customHeight="1" spans="1:5">
-      <c r="A116" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="B116" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="C116" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="D116" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E116" s="2" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="117" ht="44.55" customHeight="1" spans="1:5">
-      <c r="A117" s="1" t="s">
-        <v>279</v>
-      </c>
-      <c r="B117" s="2" t="s">
-        <v>280</v>
-      </c>
-      <c r="C117" s="2" t="s">
-        <v>281</v>
-      </c>
-      <c r="D117" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E117" s="2" t="s">
-        <v>282</v>
+        <v>259</v>
       </c>
     </row>
   </sheetData>

--- a/.ready/最新发布资源-维格视图.xlsx
+++ b/.ready/最新发布资源-维格视图.xlsx
@@ -17,155 +17,20 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="459" uniqueCount="260">
-  <si>
-    <t>手机摄影技巧：从0到1用手机拍出酷炫短视频Vlog</t>
-  </si>
-  <si>
-    <t>https://www.alipan.com/s/bxyr9SozFNS</t>
-  </si>
-  <si>
-    <t>https://pan.quark.cn/s/94cf785af921</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="324" uniqueCount="200">
+  <si>
+    <t>小区物业管理系统</t>
+  </si>
+  <si>
+    <t>https://www.alipan.com/s/jzFck4WwrJq</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/23fe247996e9</t>
   </si>
   <si>
     <t>学术</t>
   </si>
   <si>
-    <t>英语思维：快速建立语法体系</t>
-  </si>
-  <si>
-    <t>https://www.alipan.com/s/txUKQgPAh3d</t>
-  </si>
-  <si>
-    <t>https://pan.quark.cn/s/b9a565c6c0f0</t>
-  </si>
-  <si>
-    <t>【开课吧】门徒计划 - 算法课</t>
-  </si>
-  <si>
-    <t>https://www.alipan.com/s/SMb5q9nJUT6</t>
-  </si>
-  <si>
-    <t>https://pan.quark.cn/s/a18f2824148c</t>
-  </si>
-  <si>
-    <t>【imooc-92】新版Scrapy打造搜索引擎 畅销4年的Python分布式爬虫课 - 带源码课件</t>
-  </si>
-  <si>
-    <t>https://www.alipan.com/s/fSsgMVtV1dD</t>
-  </si>
-  <si>
-    <t>https://pan.quark.cn/s/b107454ccac0</t>
-  </si>
-  <si>
-    <t>声乐魔法课：让你唱出动听歌声，秒变KTV麦霸</t>
-  </si>
-  <si>
-    <t>https://www.alipan.com/s/yBaMkVWE8Y8</t>
-  </si>
-  <si>
-    <t>https://pan.quark.cn/s/3170ab4919d4</t>
-  </si>
-  <si>
-    <t>【新东方在线】2024考研英语全程班 - 带源码课件</t>
-  </si>
-  <si>
-    <t>https://www.alipan.com/s/DBj26N6FV9Y</t>
-  </si>
-  <si>
-    <t>https://pan.quark.cn/s/91091827c3fd</t>
-  </si>
-  <si>
-    <t>【Theone口译】英语零基础入门班</t>
-  </si>
-  <si>
-    <t>https://www.alipan.com/s/9ShxSrGTrus</t>
-  </si>
-  <si>
-    <t>https://pan.quark.cn/s/e1d6da69de29</t>
-  </si>
-  <si>
-    <t>【思益学院】纪主任《车神陪跑：拼多多系统化课程》</t>
-  </si>
-  <si>
-    <t>https://www.alipan.com/s/9YxJkCg1WRK</t>
-  </si>
-  <si>
-    <t>https://pan.quark.cn/s/48da8efa4a20</t>
-  </si>
-  <si>
-    <t>【开课吧】机器学习如何在企业中落地 - 带源码课件</t>
-  </si>
-  <si>
-    <t>https://www.alipan.com/s/jaqA4mfVu8L</t>
-  </si>
-  <si>
-    <t>https://pan.quark.cn/s/adc57f97bb76</t>
-  </si>
-  <si>
-    <t>【潭州教育】配音全能班8期（全阶段） - 带源码课件</t>
-  </si>
-  <si>
-    <t>https://www.alipan.com/s/Dd59pAv6tic</t>
-  </si>
-  <si>
-    <t>https://pan.quark.cn/s/9c6e49db7b98</t>
-  </si>
-  <si>
-    <t>诺思星 - 抖音影视混剪变现课</t>
-  </si>
-  <si>
-    <t>https://www.alipan.com/s/kc52CrqSjZ5</t>
-  </si>
-  <si>
-    <t>https://pan.quark.cn/s/e4626fba4ff0</t>
-  </si>
-  <si>
-    <t>【NightTeam夜幕】JavaScript 逆向系列课 + 高阶课（SVIP完结） - 带源码课件</t>
-  </si>
-  <si>
-    <t>https://www.alipan.com/s/Wpfd69FubPt</t>
-  </si>
-  <si>
-    <t>https://pan.quark.cn/s/97400ec0c32b</t>
-  </si>
-  <si>
-    <t>厦九九 - 9节小红书博主赚钱课</t>
-  </si>
-  <si>
-    <t>https://www.alipan.com/s/Nq8tfTxijYV</t>
-  </si>
-  <si>
-    <t>https://pan.quark.cn/s/245a22bfb5dc</t>
-  </si>
-  <si>
-    <t>【达内教育】2023最新Python+人工智能就业班 - 带源码课件</t>
-  </si>
-  <si>
-    <t>https://www.alipan.com/s/xysChTt6Fhk</t>
-  </si>
-  <si>
-    <t>https://pan.quark.cn/s/1e48256cbd2d</t>
-  </si>
-  <si>
-    <t>uniapp陪诊小程序</t>
-  </si>
-  <si>
-    <t>https://www.alipan.com/s/xht4ci3zLmk</t>
-  </si>
-  <si>
-    <t>https://pan.quark.cn/s/6a2a2e4e78dd</t>
-  </si>
-  <si>
-    <t>小区物业管理系统</t>
-  </si>
-  <si>
-    <t>https://www.alipan.com/s/jzFck4WwrJq</t>
-  </si>
-  <si>
-    <t>https://pan.quark.cn/s/23fe247996e9</t>
-  </si>
-  <si>
     <t>C++游戏编程实例精讲--3D射击游戏作弊</t>
   </si>
   <si>
@@ -704,51 +569,6 @@
   </si>
   <si>
     <t>https://pan.quark.cn/s/66cf0c19a890</t>
-  </si>
-  <si>
-    <t>2024/02/16 14:41</t>
-  </si>
-  <si>
-    <t>2024/02/16 17:43</t>
-  </si>
-  <si>
-    <t>2024/02/17 00:56</t>
-  </si>
-  <si>
-    <t>2024/02/17 16:24</t>
-  </si>
-  <si>
-    <t>2024/02/17 17:27</t>
-  </si>
-  <si>
-    <t>2024/02/17 18:01</t>
-  </si>
-  <si>
-    <t>2024/02/18 06:30</t>
-  </si>
-  <si>
-    <t>2024/02/18 23:25</t>
-  </si>
-  <si>
-    <t>2024/02/19 02:06</t>
-  </si>
-  <si>
-    <t>2024/02/19 15:16</t>
-  </si>
-  <si>
-    <t>2024/02/19 21:07</t>
-  </si>
-  <si>
-    <t>2024/02/19 21:52</t>
-  </si>
-  <si>
-    <t>2024/02/19 23:13</t>
-  </si>
-  <si>
-    <t>2024/02/20 08:37</t>
-  </si>
-  <si>
-    <t>2024/02/20 09:50</t>
   </si>
   <si>
     <t>2024/02/20 13:39</t>
@@ -1804,10 +1624,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E107"/>
+  <dimension ref="A1:E77"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="38.6666666666667" defaultRowHeight="14.4" outlineLevelCol="4"/>
@@ -1830,7 +1650,7 @@
         <v>3</v>
       </c>
       <c r="E1" s="3">
-        <v>45338.6118055556</v>
+        <v>45342.56875</v>
       </c>
     </row>
     <row r="2" ht="44.55" customHeight="1" spans="1:5">
@@ -1847,7 +1667,7 @@
         <v>3</v>
       </c>
       <c r="E2" s="3">
-        <v>45338.7381944444</v>
+        <v>45342.6125</v>
       </c>
     </row>
     <row r="3" ht="44.55" customHeight="1" spans="1:5">
@@ -1864,7 +1684,7 @@
         <v>3</v>
       </c>
       <c r="E3" s="3">
-        <v>45339.0388888889</v>
+        <v>45342.6881944444</v>
       </c>
     </row>
     <row r="4" ht="44.55" customHeight="1" spans="1:5">
@@ -1881,7 +1701,7 @@
         <v>3</v>
       </c>
       <c r="E4" s="3">
-        <v>45339.6833333333</v>
+        <v>45342.7319444444</v>
       </c>
     </row>
     <row r="5" ht="44.55" customHeight="1" spans="1:5">
@@ -1898,7 +1718,7 @@
         <v>3</v>
       </c>
       <c r="E5" s="3">
-        <v>45339.7270833333</v>
+        <v>45342.8715277778</v>
       </c>
     </row>
     <row r="6" ht="44.55" customHeight="1" spans="1:5">
@@ -1915,7 +1735,7 @@
         <v>3</v>
       </c>
       <c r="E6" s="3">
-        <v>45339.7506944444</v>
+        <v>45343.4652777778</v>
       </c>
     </row>
     <row r="7" ht="44.55" customHeight="1" spans="1:5">
@@ -1932,7 +1752,7 @@
         <v>3</v>
       </c>
       <c r="E7" s="3">
-        <v>45340.2708333333</v>
+        <v>45343.6076388889</v>
       </c>
     </row>
     <row r="8" ht="44.55" customHeight="1" spans="1:5">
@@ -1949,7 +1769,7 @@
         <v>3</v>
       </c>
       <c r="E8" s="3">
-        <v>45340.9756944444</v>
+        <v>45343.6402777778</v>
       </c>
     </row>
     <row r="9" ht="44.55" customHeight="1" spans="1:5">
@@ -1966,7 +1786,7 @@
         <v>3</v>
       </c>
       <c r="E9" s="3">
-        <v>45341.0875</v>
+        <v>45343.8423611111</v>
       </c>
     </row>
     <row r="10" ht="44.55" customHeight="1" spans="1:5">
@@ -1983,7 +1803,7 @@
         <v>3</v>
       </c>
       <c r="E10" s="3">
-        <v>45341.6361111111</v>
+        <v>45343.9027777778</v>
       </c>
     </row>
     <row r="11" ht="44.55" customHeight="1" spans="1:5">
@@ -2000,7 +1820,7 @@
         <v>3</v>
       </c>
       <c r="E11" s="3">
-        <v>45341.8798611111</v>
+        <v>45343.9486111111</v>
       </c>
     </row>
     <row r="12" ht="44.55" customHeight="1" spans="1:5">
@@ -2017,7 +1837,7 @@
         <v>3</v>
       </c>
       <c r="E12" s="3">
-        <v>45341.9111111111</v>
+        <v>45344.5444444444</v>
       </c>
     </row>
     <row r="13" ht="44.55" customHeight="1" spans="1:5">
@@ -2034,7 +1854,7 @@
         <v>3</v>
       </c>
       <c r="E13" s="3">
-        <v>45341.9673611111</v>
+        <v>45344.7493055556</v>
       </c>
     </row>
     <row r="14" ht="44.55" customHeight="1" spans="1:5">
@@ -2051,7 +1871,7 @@
         <v>3</v>
       </c>
       <c r="E14" s="3">
-        <v>45342.3590277778</v>
+        <v>45344.9458333333</v>
       </c>
     </row>
     <row r="15" ht="44.55" customHeight="1" spans="1:5">
@@ -2068,7 +1888,7 @@
         <v>3</v>
       </c>
       <c r="E15" s="3">
-        <v>45342.4097222222</v>
+        <v>45345.2076388889</v>
       </c>
     </row>
     <row r="16" ht="44.55" customHeight="1" spans="1:5">
@@ -2085,7 +1905,7 @@
         <v>3</v>
       </c>
       <c r="E16" s="3">
-        <v>45342.56875</v>
+        <v>45345.5243055556</v>
       </c>
     </row>
     <row r="17" ht="44.55" customHeight="1" spans="1:5">
@@ -2102,7 +1922,7 @@
         <v>3</v>
       </c>
       <c r="E17" s="3">
-        <v>45342.6125</v>
+        <v>45345.575</v>
       </c>
     </row>
     <row r="18" ht="44.55" customHeight="1" spans="1:5">
@@ -2119,7 +1939,7 @@
         <v>3</v>
       </c>
       <c r="E18" s="3">
-        <v>45342.6881944444</v>
+        <v>45345.8118055556</v>
       </c>
     </row>
     <row r="19" ht="44.55" customHeight="1" spans="1:5">
@@ -2136,7 +1956,7 @@
         <v>3</v>
       </c>
       <c r="E19" s="3">
-        <v>45342.7319444444</v>
+        <v>45345.9027777778</v>
       </c>
     </row>
     <row r="20" ht="44.55" customHeight="1" spans="1:5">
@@ -2153,7 +1973,7 @@
         <v>3</v>
       </c>
       <c r="E20" s="3">
-        <v>45342.8715277778</v>
+        <v>45346.5104166667</v>
       </c>
     </row>
     <row r="21" ht="44.55" customHeight="1" spans="1:5">
@@ -2170,7 +1990,7 @@
         <v>3</v>
       </c>
       <c r="E21" s="3">
-        <v>45343.4652777778</v>
+        <v>45346.5666666667</v>
       </c>
     </row>
     <row r="22" ht="44.55" customHeight="1" spans="1:5">
@@ -2187,7 +2007,7 @@
         <v>3</v>
       </c>
       <c r="E22" s="3">
-        <v>45343.6076388889</v>
+        <v>45346.60625</v>
       </c>
     </row>
     <row r="23" ht="44.55" customHeight="1" spans="1:5">
@@ -2204,7 +2024,7 @@
         <v>3</v>
       </c>
       <c r="E23" s="3">
-        <v>45343.6402777778</v>
+        <v>45346.7145833333</v>
       </c>
     </row>
     <row r="24" ht="44.55" customHeight="1" spans="1:5">
@@ -2221,7 +2041,7 @@
         <v>3</v>
       </c>
       <c r="E24" s="3">
-        <v>45343.8423611111</v>
+        <v>45346.7465277778</v>
       </c>
     </row>
     <row r="25" ht="44.55" customHeight="1" spans="1:5">
@@ -2238,7 +2058,7 @@
         <v>3</v>
       </c>
       <c r="E25" s="3">
-        <v>45343.9027777778</v>
+        <v>45346.8541666667</v>
       </c>
     </row>
     <row r="26" ht="44.55" customHeight="1" spans="1:5">
@@ -2255,7 +2075,7 @@
         <v>3</v>
       </c>
       <c r="E26" s="3">
-        <v>45343.9486111111</v>
+        <v>45346.9020833333</v>
       </c>
     </row>
     <row r="27" ht="44.55" customHeight="1" spans="1:5">
@@ -2272,7 +2092,7 @@
         <v>3</v>
       </c>
       <c r="E27" s="3">
-        <v>45344.5444444444</v>
+        <v>45347.0402777778</v>
       </c>
     </row>
     <row r="28" ht="44.55" customHeight="1" spans="1:5">
@@ -2289,7 +2109,7 @@
         <v>3</v>
       </c>
       <c r="E28" s="3">
-        <v>45344.7493055556</v>
+        <v>45347.1604166667</v>
       </c>
     </row>
     <row r="29" ht="44.55" customHeight="1" spans="1:5">
@@ -2306,7 +2126,7 @@
         <v>3</v>
       </c>
       <c r="E29" s="3">
-        <v>45344.9458333333</v>
+        <v>45347.66875</v>
       </c>
     </row>
     <row r="30" ht="44.55" customHeight="1" spans="1:5">
@@ -2323,7 +2143,7 @@
         <v>3</v>
       </c>
       <c r="E30" s="3">
-        <v>45345.2076388889</v>
+        <v>45347.7326388889</v>
       </c>
     </row>
     <row r="31" ht="44.55" customHeight="1" spans="1:5">
@@ -2340,7 +2160,7 @@
         <v>3</v>
       </c>
       <c r="E31" s="3">
-        <v>45345.5243055556</v>
+        <v>45347.8513888889</v>
       </c>
     </row>
     <row r="32" ht="44.55" customHeight="1" spans="1:5">
@@ -2357,7 +2177,7 @@
         <v>3</v>
       </c>
       <c r="E32" s="3">
-        <v>45345.575</v>
+        <v>45347.9763888889</v>
       </c>
     </row>
     <row r="33" ht="44.55" customHeight="1" spans="1:5">
@@ -2374,7 +2194,7 @@
         <v>3</v>
       </c>
       <c r="E33" s="3">
-        <v>45345.8118055556</v>
+        <v>45348.6569444444</v>
       </c>
     </row>
     <row r="34" ht="44.55" customHeight="1" spans="1:5">
@@ -2391,7 +2211,7 @@
         <v>3</v>
       </c>
       <c r="E34" s="3">
-        <v>45345.9027777778</v>
+        <v>45348.6979166667</v>
       </c>
     </row>
     <row r="35" ht="44.55" customHeight="1" spans="1:5">
@@ -2408,7 +2228,7 @@
         <v>3</v>
       </c>
       <c r="E35" s="3">
-        <v>45346.5104166667</v>
+        <v>45348.7361111111</v>
       </c>
     </row>
     <row r="36" ht="44.55" customHeight="1" spans="1:5">
@@ -2425,7 +2245,7 @@
         <v>3</v>
       </c>
       <c r="E36" s="3">
-        <v>45346.5666666667</v>
+        <v>45348.8020833333</v>
       </c>
     </row>
     <row r="37" ht="44.55" customHeight="1" spans="1:5">
@@ -2442,7 +2262,7 @@
         <v>3</v>
       </c>
       <c r="E37" s="3">
-        <v>45346.60625</v>
+        <v>45348.8368055556</v>
       </c>
     </row>
     <row r="38" ht="44.55" customHeight="1" spans="1:5">
@@ -2459,7 +2279,7 @@
         <v>3</v>
       </c>
       <c r="E38" s="3">
-        <v>45346.7145833333</v>
+        <v>45348.8694444444</v>
       </c>
     </row>
     <row r="39" ht="44.55" customHeight="1" spans="1:5">
@@ -2476,7 +2296,7 @@
         <v>3</v>
       </c>
       <c r="E39" s="3">
-        <v>45346.7465277778</v>
+        <v>45348.9208333333</v>
       </c>
     </row>
     <row r="40" ht="44.55" customHeight="1" spans="1:5">
@@ -2493,7 +2313,7 @@
         <v>3</v>
       </c>
       <c r="E40" s="3">
-        <v>45346.8541666667</v>
+        <v>45348.9791666667</v>
       </c>
     </row>
     <row r="41" ht="44.55" customHeight="1" spans="1:5">
@@ -2510,7 +2330,7 @@
         <v>3</v>
       </c>
       <c r="E41" s="3">
-        <v>45346.9020833333</v>
+        <v>45349.1326388889</v>
       </c>
     </row>
     <row r="42" ht="44.55" customHeight="1" spans="1:5">
@@ -2527,7 +2347,7 @@
         <v>3</v>
       </c>
       <c r="E42" s="3">
-        <v>45347.0402777778</v>
+        <v>45349.5263888889</v>
       </c>
     </row>
     <row r="43" ht="44.55" customHeight="1" spans="1:5">
@@ -2544,7 +2364,7 @@
         <v>3</v>
       </c>
       <c r="E43" s="3">
-        <v>45347.1604166667</v>
+        <v>45349.5534722222</v>
       </c>
     </row>
     <row r="44" ht="44.55" customHeight="1" spans="1:5">
@@ -2561,7 +2381,7 @@
         <v>3</v>
       </c>
       <c r="E44" s="3">
-        <v>45347.66875</v>
+        <v>45349.6638888889</v>
       </c>
     </row>
     <row r="45" ht="44.55" customHeight="1" spans="1:5">
@@ -2578,7 +2398,7 @@
         <v>3</v>
       </c>
       <c r="E45" s="3">
-        <v>45347.7326388889</v>
+        <v>45349.7118055556</v>
       </c>
     </row>
     <row r="46" ht="44.55" customHeight="1" spans="1:5">
@@ -2595,7 +2415,7 @@
         <v>3</v>
       </c>
       <c r="E46" s="3">
-        <v>45347.8513888889</v>
+        <v>45349.7486111111</v>
       </c>
     </row>
     <row r="47" ht="44.55" customHeight="1" spans="1:5">
@@ -2612,7 +2432,7 @@
         <v>3</v>
       </c>
       <c r="E47" s="3">
-        <v>45347.9763888889</v>
+        <v>45349.8520833333</v>
       </c>
     </row>
     <row r="48" ht="44.55" customHeight="1" spans="1:5">
@@ -2629,7 +2449,7 @@
         <v>3</v>
       </c>
       <c r="E48" s="3">
-        <v>45348.6569444444</v>
+        <v>45349.9270833333</v>
       </c>
     </row>
     <row r="49" ht="44.55" customHeight="1" spans="1:5">
@@ -2646,7 +2466,7 @@
         <v>3</v>
       </c>
       <c r="E49" s="3">
-        <v>45348.6979166667</v>
+        <v>45350.0111111111</v>
       </c>
     </row>
     <row r="50" ht="44.55" customHeight="1" spans="1:5">
@@ -2663,7 +2483,7 @@
         <v>3</v>
       </c>
       <c r="E50" s="3">
-        <v>45348.7361111111</v>
+        <v>45350.09375</v>
       </c>
     </row>
     <row r="51" ht="44.55" customHeight="1" spans="1:5">
@@ -2680,7 +2500,7 @@
         <v>3</v>
       </c>
       <c r="E51" s="3">
-        <v>45348.8020833333</v>
+        <v>45350.2944444444</v>
       </c>
     </row>
     <row r="52" ht="44.55" customHeight="1" spans="1:5">
@@ -2697,7 +2517,7 @@
         <v>3</v>
       </c>
       <c r="E52" s="3">
-        <v>45348.8368055556</v>
+        <v>45350.64375</v>
       </c>
     </row>
     <row r="53" ht="44.55" customHeight="1" spans="1:5">
@@ -2714,7 +2534,7 @@
         <v>3</v>
       </c>
       <c r="E53" s="3">
-        <v>45348.8694444444</v>
+        <v>45350.7270833333</v>
       </c>
     </row>
     <row r="54" ht="44.55" customHeight="1" spans="1:5">
@@ -2731,7 +2551,7 @@
         <v>3</v>
       </c>
       <c r="E54" s="3">
-        <v>45348.9208333333</v>
+        <v>45350.8736111111</v>
       </c>
     </row>
     <row r="55" ht="44.55" customHeight="1" spans="1:5">
@@ -2748,7 +2568,7 @@
         <v>3</v>
       </c>
       <c r="E55" s="3">
-        <v>45348.9791666667</v>
+        <v>45350.9097222222</v>
       </c>
     </row>
     <row r="56" ht="44.55" customHeight="1" spans="1:5">
@@ -2765,7 +2585,7 @@
         <v>3</v>
       </c>
       <c r="E56" s="3">
-        <v>45349.1326388889</v>
+        <v>45350.9701388889</v>
       </c>
     </row>
     <row r="57" ht="44.55" customHeight="1" spans="1:5">
@@ -2782,7 +2602,7 @@
         <v>3</v>
       </c>
       <c r="E57" s="3">
-        <v>45349.5263888889</v>
+        <v>45351.0229166667</v>
       </c>
     </row>
     <row r="58" ht="44.55" customHeight="1" spans="1:5">
@@ -2799,7 +2619,7 @@
         <v>3</v>
       </c>
       <c r="E58" s="3">
-        <v>45349.5534722222</v>
+        <v>45351.0986111111</v>
       </c>
     </row>
     <row r="59" ht="44.55" customHeight="1" spans="1:5">
@@ -2816,7 +2636,7 @@
         <v>3</v>
       </c>
       <c r="E59" s="3">
-        <v>45349.6638888889</v>
+        <v>45351.5527777778</v>
       </c>
     </row>
     <row r="60" ht="44.55" customHeight="1" spans="1:5">
@@ -2833,7 +2653,7 @@
         <v>3</v>
       </c>
       <c r="E60" s="3">
-        <v>45349.7118055556</v>
+        <v>45351.6131944444</v>
       </c>
     </row>
     <row r="61" ht="44.55" customHeight="1" spans="1:5">
@@ -2850,789 +2670,279 @@
         <v>3</v>
       </c>
       <c r="E61" s="3">
-        <v>45349.7486111111</v>
+        <v>45351.6604166667</v>
       </c>
     </row>
     <row r="62" ht="44.55" customHeight="1" spans="1:5">
       <c r="A62" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B62" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C62" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D62" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E62" s="2" t="s">
         <v>184</v>
-      </c>
-      <c r="B62" s="2" t="s">
-        <v>185</v>
-      </c>
-      <c r="C62" s="2" t="s">
-        <v>186</v>
-      </c>
-      <c r="D62" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E62" s="3">
-        <v>45349.8520833333</v>
       </c>
     </row>
     <row r="63" ht="44.55" customHeight="1" spans="1:5">
       <c r="A63" s="1" t="s">
-        <v>187</v>
+        <v>4</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>188</v>
+        <v>5</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>189</v>
+        <v>6</v>
       </c>
       <c r="D63" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E63" s="3">
-        <v>45349.9270833333</v>
+      <c r="E63" s="2" t="s">
+        <v>185</v>
       </c>
     </row>
     <row r="64" ht="44.55" customHeight="1" spans="1:5">
       <c r="A64" s="1" t="s">
-        <v>190</v>
+        <v>7</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>191</v>
+        <v>8</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>192</v>
+        <v>9</v>
       </c>
       <c r="D64" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E64" s="3">
-        <v>45350.0111111111</v>
+      <c r="E64" s="2" t="s">
+        <v>186</v>
       </c>
     </row>
     <row r="65" ht="44.55" customHeight="1" spans="1:5">
       <c r="A65" s="1" t="s">
-        <v>193</v>
+        <v>10</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>194</v>
+        <v>11</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>195</v>
+        <v>12</v>
       </c>
       <c r="D65" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E65" s="3">
-        <v>45350.09375</v>
+      <c r="E65" s="2" t="s">
+        <v>187</v>
       </c>
     </row>
     <row r="66" ht="44.55" customHeight="1" spans="1:5">
       <c r="A66" s="1" t="s">
-        <v>196</v>
+        <v>13</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>197</v>
+        <v>14</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>198</v>
+        <v>15</v>
       </c>
       <c r="D66" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E66" s="3">
-        <v>45350.2944444444</v>
+      <c r="E66" s="2" t="s">
+        <v>188</v>
       </c>
     </row>
     <row r="67" ht="44.55" customHeight="1" spans="1:5">
       <c r="A67" s="1" t="s">
-        <v>199</v>
+        <v>16</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>200</v>
+        <v>17</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>201</v>
+        <v>18</v>
       </c>
       <c r="D67" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E67" s="3">
-        <v>45350.64375</v>
+      <c r="E67" s="2" t="s">
+        <v>189</v>
       </c>
     </row>
     <row r="68" ht="44.55" customHeight="1" spans="1:5">
       <c r="A68" s="1" t="s">
-        <v>202</v>
+        <v>19</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>203</v>
+        <v>20</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>204</v>
+        <v>21</v>
       </c>
       <c r="D68" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E68" s="3">
-        <v>45350.7270833333</v>
+      <c r="E68" s="2" t="s">
+        <v>190</v>
       </c>
     </row>
     <row r="69" ht="44.55" customHeight="1" spans="1:5">
       <c r="A69" s="1" t="s">
-        <v>205</v>
+        <v>22</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>206</v>
+        <v>23</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>207</v>
+        <v>24</v>
       </c>
       <c r="D69" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E69" s="3">
-        <v>45350.8736111111</v>
+      <c r="E69" s="2" t="s">
+        <v>191</v>
       </c>
     </row>
     <row r="70" ht="44.55" customHeight="1" spans="1:5">
       <c r="A70" s="1" t="s">
-        <v>208</v>
+        <v>25</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>209</v>
+        <v>26</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>210</v>
+        <v>27</v>
       </c>
       <c r="D70" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E70" s="3">
-        <v>45350.9097222222</v>
+      <c r="E70" s="2" t="s">
+        <v>192</v>
       </c>
     </row>
     <row r="71" ht="44.55" customHeight="1" spans="1:5">
       <c r="A71" s="1" t="s">
-        <v>211</v>
+        <v>28</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>212</v>
+        <v>29</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>213</v>
+        <v>30</v>
       </c>
       <c r="D71" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E71" s="3">
-        <v>45350.9701388889</v>
+      <c r="E71" s="2" t="s">
+        <v>193</v>
       </c>
     </row>
     <row r="72" ht="44.55" customHeight="1" spans="1:5">
       <c r="A72" s="1" t="s">
-        <v>214</v>
+        <v>31</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>215</v>
+        <v>32</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>216</v>
+        <v>33</v>
       </c>
       <c r="D72" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E72" s="3">
-        <v>45351.0229166667</v>
+      <c r="E72" s="2" t="s">
+        <v>194</v>
       </c>
     </row>
     <row r="73" ht="44.55" customHeight="1" spans="1:5">
       <c r="A73" s="1" t="s">
-        <v>217</v>
+        <v>34</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>218</v>
+        <v>35</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>219</v>
+        <v>36</v>
       </c>
       <c r="D73" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E73" s="3">
-        <v>45351.0986111111</v>
+      <c r="E73" s="2" t="s">
+        <v>195</v>
       </c>
     </row>
     <row r="74" ht="44.55" customHeight="1" spans="1:5">
       <c r="A74" s="1" t="s">
-        <v>220</v>
+        <v>37</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>221</v>
+        <v>38</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>222</v>
+        <v>39</v>
       </c>
       <c r="D74" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E74" s="3">
-        <v>45351.5527777778</v>
+      <c r="E74" s="2" t="s">
+        <v>196</v>
       </c>
     </row>
     <row r="75" ht="44.55" customHeight="1" spans="1:5">
       <c r="A75" s="1" t="s">
-        <v>223</v>
+        <v>40</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>224</v>
+        <v>41</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>225</v>
+        <v>42</v>
       </c>
       <c r="D75" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E75" s="3">
-        <v>45351.6131944444</v>
+      <c r="E75" s="2" t="s">
+        <v>197</v>
       </c>
     </row>
     <row r="76" ht="44.55" customHeight="1" spans="1:5">
       <c r="A76" s="1" t="s">
-        <v>226</v>
+        <v>43</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>227</v>
+        <v>44</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>228</v>
+        <v>45</v>
       </c>
       <c r="D76" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E76" s="3">
-        <v>45351.6604166667</v>
+      <c r="E76" s="2" t="s">
+        <v>198</v>
       </c>
     </row>
     <row r="77" ht="44.55" customHeight="1" spans="1:5">
       <c r="A77" s="1" t="s">
-        <v>0</v>
+        <v>46</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>1</v>
+        <v>47</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>2</v>
+        <v>48</v>
       </c>
       <c r="D77" s="2" t="s">
         <v>3</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="78" ht="44.55" customHeight="1" spans="1:5">
-      <c r="A78" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B78" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C78" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D78" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E78" s="2" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="79" ht="44.55" customHeight="1" spans="1:5">
-      <c r="A79" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B79" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C79" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D79" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E79" s="2" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="80" ht="44.55" customHeight="1" spans="1:5">
-      <c r="A80" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B80" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C80" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D80" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E80" s="2" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="81" ht="44.55" customHeight="1" spans="1:5">
-      <c r="A81" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B81" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C81" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D81" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E81" s="2" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="82" ht="44.55" customHeight="1" spans="1:5">
-      <c r="A82" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B82" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C82" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D82" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E82" s="2" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="83" ht="44.55" customHeight="1" spans="1:5">
-      <c r="A83" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B83" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C83" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="D83" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E83" s="2" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="84" ht="44.55" customHeight="1" spans="1:5">
-      <c r="A84" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B84" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C84" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="D84" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E84" s="2" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="85" ht="44.55" customHeight="1" spans="1:5">
-      <c r="A85" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B85" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="C85" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="D85" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E85" s="2" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="86" ht="44.55" customHeight="1" spans="1:5">
-      <c r="A86" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B86" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="C86" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="D86" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E86" s="2" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="87" ht="44.55" customHeight="1" spans="1:5">
-      <c r="A87" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B87" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="C87" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="D87" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E87" s="2" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="88" ht="44.55" customHeight="1" spans="1:5">
-      <c r="A88" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="B88" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="C88" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="D88" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E88" s="2" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="89" ht="44.55" customHeight="1" spans="1:5">
-      <c r="A89" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="B89" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="C89" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="D89" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E89" s="2" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="90" ht="44.55" customHeight="1" spans="1:5">
-      <c r="A90" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="B90" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="C90" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="D90" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E90" s="2" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="91" ht="44.55" customHeight="1" spans="1:5">
-      <c r="A91" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="B91" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="C91" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="D91" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E91" s="2" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="92" ht="44.55" customHeight="1" spans="1:5">
-      <c r="A92" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="B92" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="C92" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="D92" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E92" s="2" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="93" ht="44.55" customHeight="1" spans="1:5">
-      <c r="A93" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="B93" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="C93" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="D93" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E93" s="2" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="94" ht="44.55" customHeight="1" spans="1:5">
-      <c r="A94" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="B94" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="C94" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="D94" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E94" s="2" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="95" ht="44.55" customHeight="1" spans="1:5">
-      <c r="A95" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="B95" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="C95" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="D95" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E95" s="2" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="96" ht="44.55" customHeight="1" spans="1:5">
-      <c r="A96" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="B96" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="C96" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="D96" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E96" s="2" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="97" ht="44.55" customHeight="1" spans="1:5">
-      <c r="A97" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="B97" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="C97" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="D97" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E97" s="2" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="98" ht="44.55" customHeight="1" spans="1:5">
-      <c r="A98" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="B98" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="C98" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="D98" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E98" s="2" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="99" ht="44.55" customHeight="1" spans="1:5">
-      <c r="A99" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="B99" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="C99" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="D99" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E99" s="2" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="100" ht="44.55" customHeight="1" spans="1:5">
-      <c r="A100" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="B100" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="C100" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="D100" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E100" s="2" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="101" ht="44.55" customHeight="1" spans="1:5">
-      <c r="A101" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="B101" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="C101" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="D101" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E101" s="2" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="102" ht="44.55" customHeight="1" spans="1:5">
-      <c r="A102" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="B102" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="C102" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="D102" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E102" s="2" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="103" ht="44.55" customHeight="1" spans="1:5">
-      <c r="A103" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="B103" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="C103" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="D103" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E103" s="2" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="104" ht="44.55" customHeight="1" spans="1:5">
-      <c r="A104" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="B104" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="C104" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="D104" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E104" s="2" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="105" ht="44.55" customHeight="1" spans="1:5">
-      <c r="A105" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="B105" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="C105" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="D105" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E105" s="2" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="106" ht="44.55" customHeight="1" spans="1:5">
-      <c r="A106" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="B106" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="C106" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="D106" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E106" s="2" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="107" ht="44.55" customHeight="1" spans="1:5">
-      <c r="A107" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="B107" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="C107" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="D107" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E107" s="2" t="s">
-        <v>259</v>
+        <v>199</v>
       </c>
     </row>
   </sheetData>

--- a/.ready/最新发布资源-维格视图.xlsx
+++ b/.ready/最新发布资源-维格视图.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27328"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Project\memo\.ready\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{187FCD15-6775-4E0C-B2C8-4D152050C438}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="9300"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="19095" windowHeight="12075" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="维格视图" sheetId="1" r:id="rId1"/>
@@ -17,56 +23,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="324" uniqueCount="200">
-  <si>
-    <t>小区物业管理系统</t>
-  </si>
-  <si>
-    <t>https://www.alipan.com/s/jzFck4WwrJq</t>
-  </si>
-  <si>
-    <t>https://pan.quark.cn/s/23fe247996e9</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="279" uniqueCount="180">
   <si>
     <t>学术</t>
   </si>
   <si>
-    <t>C++游戏编程实例精讲--3D射击游戏作弊</t>
-  </si>
-  <si>
-    <t>https://www.alipan.com/s/j11kKWqW57o</t>
-  </si>
-  <si>
-    <t>https://pan.quark.cn/s/a19a44d61ccb</t>
-  </si>
-  <si>
-    <t>深度学习项目：Django搭建CNN网络实现图像识别 - 带源码课件</t>
-  </si>
-  <si>
-    <t>https://www.alipan.com/s/vRDC5FcNmnX</t>
-  </si>
-  <si>
-    <t>https://pan.quark.cn/s/1004a4bf020a</t>
-  </si>
-  <si>
-    <t>C C++企业级项目实战班 - 带源码课件</t>
-  </si>
-  <si>
-    <t>https://www.alipan.com/s/BHKcc31Upnh</t>
-  </si>
-  <si>
-    <t>https://pan.quark.cn/s/1b3d8cbc57af</t>
-  </si>
-  <si>
-    <t>【尚硅谷】2022北京校区JAVA就业班 - 带源码课件</t>
-  </si>
-  <si>
-    <t>https://www.alipan.com/s/st2bvcUQPDN</t>
-  </si>
-  <si>
-    <t>https://pan.quark.cn/s/70c52d6c31af</t>
-  </si>
-  <si>
     <t>核聚北大学霸私藏的高效学习术</t>
   </si>
   <si>
@@ -569,21 +530,6 @@
   </si>
   <si>
     <t>https://pan.quark.cn/s/66cf0c19a890</t>
-  </si>
-  <si>
-    <t>2024/02/20 13:39</t>
-  </si>
-  <si>
-    <t>2024/02/20 14:42</t>
-  </si>
-  <si>
-    <t>2024/02/20 16:31</t>
-  </si>
-  <si>
-    <t>2024/02/20 17:34</t>
-  </si>
-  <si>
-    <t>2024/02/20 20:55</t>
   </si>
   <si>
     <t>2024/02/21 11:10</t>
@@ -622,14 +568,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="20">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -638,345 +578,21 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
+      <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="33">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="9">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -984,251 +600,9 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -1242,61 +616,17 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1618,42 +948,42 @@
       </a:style>
     </a:lnDef>
   </a:objectDefaults>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:E77"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:E67"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="38.6666666666667" defaultRowHeight="14.4" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="38.6640625" defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="38.6666666666667" style="1"/>
-    <col min="2" max="16384" width="38.6666666666667" style="2"/>
+    <col min="1" max="1" width="38.6640625" style="1"/>
+    <col min="2" max="16384" width="38.6640625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" ht="44.55" customHeight="1" spans="1:5">
+    <row r="1" spans="1:5" ht="44.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E1" s="3">
-        <v>45342.56875</v>
-      </c>
-    </row>
-    <row r="2" ht="44.55" customHeight="1" spans="1:5">
+        <v>45343.465277777803</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="44.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
@@ -1664,13 +994,13 @@
         <v>6</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E2" s="3">
-        <v>45342.6125</v>
-      </c>
-    </row>
-    <row r="3" ht="44.55" customHeight="1" spans="1:5">
+        <v>45343.607638888898</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="44.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>7</v>
       </c>
@@ -1681,13 +1011,13 @@
         <v>9</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E3" s="3">
-        <v>45342.6881944444</v>
-      </c>
-    </row>
-    <row r="4" ht="44.55" customHeight="1" spans="1:5">
+        <v>45343.640277777798</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="44.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>10</v>
       </c>
@@ -1698,13 +1028,13 @@
         <v>12</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E4" s="3">
-        <v>45342.7319444444</v>
-      </c>
-    </row>
-    <row r="5" ht="44.55" customHeight="1" spans="1:5">
+        <v>45343.842361111099</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="44.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>13</v>
       </c>
@@ -1715,13 +1045,13 @@
         <v>15</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E5" s="3">
-        <v>45342.8715277778</v>
-      </c>
-    </row>
-    <row r="6" ht="44.55" customHeight="1" spans="1:5">
+        <v>45343.902777777803</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="44.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>16</v>
       </c>
@@ -1732,13 +1062,13 @@
         <v>18</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E6" s="3">
-        <v>45343.4652777778</v>
-      </c>
-    </row>
-    <row r="7" ht="44.55" customHeight="1" spans="1:5">
+        <v>45343.948611111096</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="44.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>19</v>
       </c>
@@ -1749,13 +1079,13 @@
         <v>21</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E7" s="3">
-        <v>45343.6076388889</v>
-      </c>
-    </row>
-    <row r="8" ht="44.55" customHeight="1" spans="1:5">
+        <v>45344.5444444444</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="44.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>22</v>
       </c>
@@ -1766,13 +1096,13 @@
         <v>24</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E8" s="3">
-        <v>45343.6402777778</v>
-      </c>
-    </row>
-    <row r="9" ht="44.55" customHeight="1" spans="1:5">
+        <v>45344.749305555597</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="44.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>25</v>
       </c>
@@ -1783,13 +1113,13 @@
         <v>27</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E9" s="3">
-        <v>45343.8423611111</v>
-      </c>
-    </row>
-    <row r="10" ht="44.55" customHeight="1" spans="1:5">
+        <v>45344.945833333302</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="44.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>28</v>
       </c>
@@ -1800,13 +1130,13 @@
         <v>30</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E10" s="3">
-        <v>45343.9027777778</v>
-      </c>
-    </row>
-    <row r="11" ht="44.55" customHeight="1" spans="1:5">
+        <v>45345.207638888904</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="44.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>31</v>
       </c>
@@ -1817,13 +1147,13 @@
         <v>33</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E11" s="3">
-        <v>45343.9486111111</v>
-      </c>
-    </row>
-    <row r="12" ht="44.55" customHeight="1" spans="1:5">
+        <v>45345.524305555598</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="44.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>34</v>
       </c>
@@ -1834,13 +1164,13 @@
         <v>36</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E12" s="3">
-        <v>45344.5444444444</v>
-      </c>
-    </row>
-    <row r="13" ht="44.55" customHeight="1" spans="1:5">
+        <v>45345.574999999997</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="44.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>37</v>
       </c>
@@ -1851,13 +1181,13 @@
         <v>39</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E13" s="3">
-        <v>45344.7493055556</v>
-      </c>
-    </row>
-    <row r="14" ht="44.55" customHeight="1" spans="1:5">
+        <v>45345.811805555597</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="44.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>40</v>
       </c>
@@ -1868,13 +1198,13 @@
         <v>42</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E14" s="3">
-        <v>45344.9458333333</v>
-      </c>
-    </row>
-    <row r="15" ht="44.55" customHeight="1" spans="1:5">
+        <v>45345.902777777803</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="44.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>43</v>
       </c>
@@ -1885,13 +1215,13 @@
         <v>45</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E15" s="3">
-        <v>45345.2076388889</v>
-      </c>
-    </row>
-    <row r="16" ht="44.55" customHeight="1" spans="1:5">
+        <v>45346.510416666701</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="44.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>46</v>
       </c>
@@ -1902,13 +1232,13 @@
         <v>48</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E16" s="3">
-        <v>45345.5243055556</v>
-      </c>
-    </row>
-    <row r="17" ht="44.55" customHeight="1" spans="1:5">
+        <v>45346.566666666702</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="44.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>49</v>
       </c>
@@ -1919,13 +1249,13 @@
         <v>51</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E17" s="3">
-        <v>45345.575</v>
-      </c>
-    </row>
-    <row r="18" ht="44.55" customHeight="1" spans="1:5">
+        <v>45346.606249999997</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="44.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>52</v>
       </c>
@@ -1936,13 +1266,13 @@
         <v>54</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E18" s="3">
-        <v>45345.8118055556</v>
-      </c>
-    </row>
-    <row r="19" ht="44.55" customHeight="1" spans="1:5">
+        <v>45346.714583333298</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="44.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
         <v>55</v>
       </c>
@@ -1953,13 +1283,13 @@
         <v>57</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E19" s="3">
-        <v>45345.9027777778</v>
-      </c>
-    </row>
-    <row r="20" ht="44.55" customHeight="1" spans="1:5">
+        <v>45346.746527777803</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="44.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
         <v>58</v>
       </c>
@@ -1970,13 +1300,13 @@
         <v>60</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E20" s="3">
-        <v>45346.5104166667</v>
-      </c>
-    </row>
-    <row r="21" ht="44.55" customHeight="1" spans="1:5">
+        <v>45346.854166666701</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="44.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
         <v>61</v>
       </c>
@@ -1987,13 +1317,13 @@
         <v>63</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E21" s="3">
-        <v>45346.5666666667</v>
-      </c>
-    </row>
-    <row r="22" ht="44.55" customHeight="1" spans="1:5">
+        <v>45346.902083333298</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="44.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
         <v>64</v>
       </c>
@@ -2004,13 +1334,13 @@
         <v>66</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E22" s="3">
-        <v>45346.60625</v>
-      </c>
-    </row>
-    <row r="23" ht="44.55" customHeight="1" spans="1:5">
+        <v>45347.0402777778</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="44.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
         <v>67</v>
       </c>
@@ -2021,13 +1351,13 @@
         <v>69</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E23" s="3">
-        <v>45346.7145833333</v>
-      </c>
-    </row>
-    <row r="24" ht="44.55" customHeight="1" spans="1:5">
+        <v>45347.160416666702</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="44.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
         <v>70</v>
       </c>
@@ -2038,13 +1368,13 @@
         <v>72</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E24" s="3">
-        <v>45346.7465277778</v>
-      </c>
-    </row>
-    <row r="25" ht="44.55" customHeight="1" spans="1:5">
+        <v>45347.668749999997</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" ht="44.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
         <v>73</v>
       </c>
@@ -2055,13 +1385,13 @@
         <v>75</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E25" s="3">
-        <v>45346.8541666667</v>
-      </c>
-    </row>
-    <row r="26" ht="44.55" customHeight="1" spans="1:5">
+        <v>45347.732638888898</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" ht="44.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
         <v>76</v>
       </c>
@@ -2072,13 +1402,13 @@
         <v>78</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E26" s="3">
-        <v>45346.9020833333</v>
-      </c>
-    </row>
-    <row r="27" ht="44.55" customHeight="1" spans="1:5">
+        <v>45347.851388888899</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" ht="44.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
         <v>79</v>
       </c>
@@ -2089,13 +1419,13 @@
         <v>81</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E27" s="3">
-        <v>45347.0402777778</v>
-      </c>
-    </row>
-    <row r="28" ht="44.55" customHeight="1" spans="1:5">
+        <v>45347.976388888899</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" ht="44.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
         <v>82</v>
       </c>
@@ -2106,13 +1436,13 @@
         <v>84</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E28" s="3">
-        <v>45347.1604166667</v>
-      </c>
-    </row>
-    <row r="29" ht="44.55" customHeight="1" spans="1:5">
+        <v>45348.656944444403</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" ht="44.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
         <v>85</v>
       </c>
@@ -2123,13 +1453,13 @@
         <v>87</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E29" s="3">
-        <v>45347.66875</v>
-      </c>
-    </row>
-    <row r="30" ht="44.55" customHeight="1" spans="1:5">
+        <v>45348.697916666701</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" ht="44.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
         <v>88</v>
       </c>
@@ -2140,13 +1470,13 @@
         <v>90</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E30" s="3">
-        <v>45347.7326388889</v>
-      </c>
-    </row>
-    <row r="31" ht="44.55" customHeight="1" spans="1:5">
+        <v>45348.736111111102</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" ht="44.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
         <v>91</v>
       </c>
@@ -2157,13 +1487,13 @@
         <v>93</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E31" s="3">
-        <v>45347.8513888889</v>
-      </c>
-    </row>
-    <row r="32" ht="44.55" customHeight="1" spans="1:5">
+        <v>45348.802083333299</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" ht="44.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
         <v>94</v>
       </c>
@@ -2174,13 +1504,13 @@
         <v>96</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E32" s="3">
-        <v>45347.9763888889</v>
-      </c>
-    </row>
-    <row r="33" ht="44.55" customHeight="1" spans="1:5">
+        <v>45348.836805555598</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" ht="44.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="1" t="s">
         <v>97</v>
       </c>
@@ -2191,13 +1521,13 @@
         <v>99</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E33" s="3">
-        <v>45348.6569444444</v>
-      </c>
-    </row>
-    <row r="34" ht="44.55" customHeight="1" spans="1:5">
+        <v>45348.869444444397</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" ht="44.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
         <v>100</v>
       </c>
@@ -2208,13 +1538,13 @@
         <v>102</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E34" s="3">
-        <v>45348.6979166667</v>
-      </c>
-    </row>
-    <row r="35" ht="44.55" customHeight="1" spans="1:5">
+        <v>45348.920833333301</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" ht="44.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="1" t="s">
         <v>103</v>
       </c>
@@ -2225,13 +1555,13 @@
         <v>105</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E35" s="3">
-        <v>45348.7361111111</v>
-      </c>
-    </row>
-    <row r="36" ht="44.55" customHeight="1" spans="1:5">
+        <v>45348.979166666701</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" ht="44.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="1" t="s">
         <v>106</v>
       </c>
@@ -2242,13 +1572,13 @@
         <v>108</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E36" s="3">
-        <v>45348.8020833333</v>
-      </c>
-    </row>
-    <row r="37" ht="44.55" customHeight="1" spans="1:5">
+        <v>45349.132638888899</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" ht="44.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="1" t="s">
         <v>109</v>
       </c>
@@ -2259,13 +1589,13 @@
         <v>111</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E37" s="3">
-        <v>45348.8368055556</v>
-      </c>
-    </row>
-    <row r="38" ht="44.55" customHeight="1" spans="1:5">
+        <v>45349.526388888902</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" ht="44.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="1" t="s">
         <v>112</v>
       </c>
@@ -2276,13 +1606,13 @@
         <v>114</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E38" s="3">
-        <v>45348.8694444444</v>
-      </c>
-    </row>
-    <row r="39" ht="44.55" customHeight="1" spans="1:5">
+        <v>45349.5534722222</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" ht="44.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
         <v>115</v>
       </c>
@@ -2293,13 +1623,13 @@
         <v>117</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E39" s="3">
-        <v>45348.9208333333</v>
-      </c>
-    </row>
-    <row r="40" ht="44.55" customHeight="1" spans="1:5">
+        <v>45349.663888888899</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" ht="44.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
         <v>118</v>
       </c>
@@ -2310,13 +1640,13 @@
         <v>120</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E40" s="3">
-        <v>45348.9791666667</v>
-      </c>
-    </row>
-    <row r="41" ht="44.55" customHeight="1" spans="1:5">
+        <v>45349.711805555598</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" ht="44.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="1" t="s">
         <v>121</v>
       </c>
@@ -2327,13 +1657,13 @@
         <v>123</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E41" s="3">
-        <v>45349.1326388889</v>
-      </c>
-    </row>
-    <row r="42" ht="44.55" customHeight="1" spans="1:5">
+        <v>45349.748611111099</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" ht="44.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="1" t="s">
         <v>124</v>
       </c>
@@ -2344,13 +1674,13 @@
         <v>126</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E42" s="3">
-        <v>45349.5263888889</v>
-      </c>
-    </row>
-    <row r="43" ht="44.55" customHeight="1" spans="1:5">
+        <v>45349.852083333302</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" ht="44.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="1" t="s">
         <v>127</v>
       </c>
@@ -2361,13 +1691,13 @@
         <v>129</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E43" s="3">
-        <v>45349.5534722222</v>
-      </c>
-    </row>
-    <row r="44" ht="44.55" customHeight="1" spans="1:5">
+        <v>45349.927083333299</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" ht="44.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" s="1" t="s">
         <v>130</v>
       </c>
@@ -2378,13 +1708,13 @@
         <v>132</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E44" s="3">
-        <v>45349.6638888889</v>
-      </c>
-    </row>
-    <row r="45" ht="44.55" customHeight="1" spans="1:5">
+        <v>45350.011111111096</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" ht="44.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" s="1" t="s">
         <v>133</v>
       </c>
@@ -2395,13 +1725,13 @@
         <v>135</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E45" s="3">
-        <v>45349.7118055556</v>
-      </c>
-    </row>
-    <row r="46" ht="44.55" customHeight="1" spans="1:5">
+        <v>45350.09375</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" ht="44.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" s="1" t="s">
         <v>136</v>
       </c>
@@ -2412,13 +1742,13 @@
         <v>138</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E46" s="3">
-        <v>45349.7486111111</v>
-      </c>
-    </row>
-    <row r="47" ht="44.55" customHeight="1" spans="1:5">
+        <v>45350.2944444444</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" ht="44.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" s="1" t="s">
         <v>139</v>
       </c>
@@ -2429,13 +1759,13 @@
         <v>141</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E47" s="3">
-        <v>45349.8520833333</v>
-      </c>
-    </row>
-    <row r="48" ht="44.55" customHeight="1" spans="1:5">
+        <v>45350.643750000003</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" ht="44.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48" s="1" t="s">
         <v>142</v>
       </c>
@@ -2446,13 +1776,13 @@
         <v>144</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E48" s="3">
-        <v>45349.9270833333</v>
-      </c>
-    </row>
-    <row r="49" ht="44.55" customHeight="1" spans="1:5">
+        <v>45350.727083333302</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" ht="44.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49" s="1" t="s">
         <v>145</v>
       </c>
@@ -2463,13 +1793,13 @@
         <v>147</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E49" s="3">
-        <v>45350.0111111111</v>
-      </c>
-    </row>
-    <row r="50" ht="44.55" customHeight="1" spans="1:5">
+        <v>45350.873611111099</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" ht="44.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A50" s="1" t="s">
         <v>148</v>
       </c>
@@ -2480,13 +1810,13 @@
         <v>150</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E50" s="3">
-        <v>45350.09375</v>
-      </c>
-    </row>
-    <row r="51" ht="44.55" customHeight="1" spans="1:5">
+        <v>45350.909722222197</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" ht="44.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A51" s="1" t="s">
         <v>151</v>
       </c>
@@ -2497,13 +1827,13 @@
         <v>153</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E51" s="3">
-        <v>45350.2944444444</v>
-      </c>
-    </row>
-    <row r="52" ht="44.55" customHeight="1" spans="1:5">
+        <v>45350.970138888901</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" ht="44.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A52" s="1" t="s">
         <v>154</v>
       </c>
@@ -2514,13 +1844,13 @@
         <v>156</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E52" s="3">
-        <v>45350.64375</v>
-      </c>
-    </row>
-    <row r="53" ht="44.55" customHeight="1" spans="1:5">
+        <v>45351.022916666698</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" ht="44.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A53" s="1" t="s">
         <v>157</v>
       </c>
@@ -2531,13 +1861,13 @@
         <v>159</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E53" s="3">
-        <v>45350.7270833333</v>
-      </c>
-    </row>
-    <row r="54" ht="44.55" customHeight="1" spans="1:5">
+        <v>45351.098611111098</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" ht="44.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A54" s="1" t="s">
         <v>160</v>
       </c>
@@ -2548,13 +1878,13 @@
         <v>162</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E54" s="3">
-        <v>45350.8736111111</v>
-      </c>
-    </row>
-    <row r="55" ht="44.55" customHeight="1" spans="1:5">
+        <v>45351.552777777797</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" ht="44.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A55" s="1" t="s">
         <v>163</v>
       </c>
@@ -2565,13 +1895,13 @@
         <v>165</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E55" s="3">
-        <v>45350.9097222222</v>
-      </c>
-    </row>
-    <row r="56" ht="44.55" customHeight="1" spans="1:5">
+        <v>45351.613194444399</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" ht="44.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A56" s="1" t="s">
         <v>166</v>
       </c>
@@ -2582,372 +1912,202 @@
         <v>168</v>
       </c>
       <c r="D56" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="E56" s="3">
+        <v>45351.660416666702</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" ht="44.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A57" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B57" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C57" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E56" s="3">
-        <v>45350.9701388889</v>
-      </c>
-    </row>
-    <row r="57" ht="44.55" customHeight="1" spans="1:5">
-      <c r="A57" s="1" t="s">
+      <c r="D57" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="E57" s="2" t="s">
         <v>169</v>
       </c>
-      <c r="B57" s="2" t="s">
+    </row>
+    <row r="58" spans="1:5" ht="44.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A58" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B58" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C58" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D58" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="E58" s="2" t="s">
         <v>170</v>
       </c>
-      <c r="C57" s="2" t="s">
+    </row>
+    <row r="59" spans="1:5" ht="44.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A59" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B59" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C59" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D59" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="E59" s="2" t="s">
         <v>171</v>
       </c>
-      <c r="D57" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E57" s="3">
-        <v>45351.0229166667</v>
-      </c>
-    </row>
-    <row r="58" ht="44.55" customHeight="1" spans="1:5">
-      <c r="A58" s="1" t="s">
+    </row>
+    <row r="60" spans="1:5" ht="44.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A60" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B60" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C60" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D60" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="E60" s="2" t="s">
         <v>172</v>
       </c>
-      <c r="B58" s="2" t="s">
+    </row>
+    <row r="61" spans="1:5" ht="44.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A61" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B61" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C61" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D61" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="E61" s="2" t="s">
         <v>173</v>
       </c>
-      <c r="C58" s="2" t="s">
+    </row>
+    <row r="62" spans="1:5" ht="44.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A62" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B62" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C62" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D62" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="E62" s="2" t="s">
         <v>174</v>
       </c>
-      <c r="D58" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E58" s="3">
-        <v>45351.0986111111</v>
-      </c>
-    </row>
-    <row r="59" ht="44.55" customHeight="1" spans="1:5">
-      <c r="A59" s="1" t="s">
+    </row>
+    <row r="63" spans="1:5" ht="44.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A63" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B63" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C63" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D63" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="E63" s="2" t="s">
         <v>175</v>
       </c>
-      <c r="B59" s="2" t="s">
+    </row>
+    <row r="64" spans="1:5" ht="44.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A64" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B64" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C64" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D64" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="E64" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="C59" s="2" t="s">
+    </row>
+    <row r="65" spans="1:5" ht="44.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A65" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B65" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C65" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D65" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="E65" s="2" t="s">
         <v>177</v>
       </c>
-      <c r="D59" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E59" s="3">
-        <v>45351.5527777778</v>
-      </c>
-    </row>
-    <row r="60" ht="44.55" customHeight="1" spans="1:5">
-      <c r="A60" s="1" t="s">
+    </row>
+    <row r="66" spans="1:5" ht="44.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A66" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B66" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C66" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D66" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="E66" s="2" t="s">
         <v>178</v>
       </c>
-      <c r="B60" s="2" t="s">
+    </row>
+    <row r="67" spans="1:5" ht="44.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A67" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B67" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C67" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D67" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="E67" s="2" t="s">
         <v>179</v>
       </c>
-      <c r="C60" s="2" t="s">
-        <v>180</v>
-      </c>
-      <c r="D60" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E60" s="3">
-        <v>45351.6131944444</v>
-      </c>
-    </row>
-    <row r="61" ht="44.55" customHeight="1" spans="1:5">
-      <c r="A61" s="1" t="s">
-        <v>181</v>
-      </c>
-      <c r="B61" s="2" t="s">
-        <v>182</v>
-      </c>
-      <c r="C61" s="2" t="s">
-        <v>183</v>
-      </c>
-      <c r="D61" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E61" s="3">
-        <v>45351.6604166667</v>
-      </c>
-    </row>
-    <row r="62" ht="44.55" customHeight="1" spans="1:5">
-      <c r="A62" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B62" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C62" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D62" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E62" s="2" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="63" ht="44.55" customHeight="1" spans="1:5">
-      <c r="A63" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B63" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C63" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D63" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E63" s="2" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="64" ht="44.55" customHeight="1" spans="1:5">
-      <c r="A64" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B64" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C64" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D64" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E64" s="2" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="65" ht="44.55" customHeight="1" spans="1:5">
-      <c r="A65" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B65" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C65" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D65" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E65" s="2" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="66" ht="44.55" customHeight="1" spans="1:5">
-      <c r="A66" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B66" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C66" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D66" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E66" s="2" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="67" ht="44.55" customHeight="1" spans="1:5">
-      <c r="A67" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B67" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C67" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D67" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E67" s="2" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="68" ht="44.55" customHeight="1" spans="1:5">
-      <c r="A68" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B68" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C68" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="D68" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E68" s="2" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="69" ht="44.55" customHeight="1" spans="1:5">
-      <c r="A69" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B69" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C69" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="D69" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E69" s="2" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="70" ht="44.55" customHeight="1" spans="1:5">
-      <c r="A70" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B70" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="C70" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="D70" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E70" s="2" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="71" ht="44.55" customHeight="1" spans="1:5">
-      <c r="A71" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B71" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="C71" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="D71" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E71" s="2" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="72" ht="44.55" customHeight="1" spans="1:5">
-      <c r="A72" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B72" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="C72" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="D72" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E72" s="2" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="73" ht="44.55" customHeight="1" spans="1:5">
-      <c r="A73" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="B73" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="C73" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="D73" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E73" s="2" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="74" ht="44.55" customHeight="1" spans="1:5">
-      <c r="A74" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="B74" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="C74" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="D74" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E74" s="2" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="75" ht="44.55" customHeight="1" spans="1:5">
-      <c r="A75" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="B75" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="C75" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="D75" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E75" s="2" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="76" ht="44.55" customHeight="1" spans="1:5">
-      <c r="A76" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="B76" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="C76" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="D76" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E76" s="2" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="77" ht="44.55" customHeight="1" spans="1:5">
-      <c r="A77" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="B77" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="C77" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="D77" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E77" s="2" t="s">
-        <v>199</v>
-      </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="1" orientation="portrait"/>
-  <headerFooter/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/.ready/最新发布资源-维格视图.xlsx
+++ b/.ready/最新发布资源-维格视图.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27328"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Project\memo\.ready\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{187FCD15-6775-4E0C-B2C8-4D152050C438}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="19095" windowHeight="12075" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="23040" windowHeight="9300"/>
   </bookViews>
   <sheets>
     <sheet name="维格视图" sheetId="1" r:id="rId1"/>
@@ -23,47 +17,20 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="279" uniqueCount="180">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="168">
+  <si>
+    <t>基于SpringBoot+Mybatis从头搭建通用管理系统(后端篇) - 带源码课件</t>
+  </si>
+  <si>
+    <t>https://www.alipan.com/s/WDrSso9TVHF</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/e111d8997711</t>
+  </si>
   <si>
     <t>学术</t>
   </si>
   <si>
-    <t>核聚北大学霸私藏的高效学习术</t>
-  </si>
-  <si>
-    <t>https://www.alipan.com/s/oHQuq1XauRn</t>
-  </si>
-  <si>
-    <t>https://pan.quark.cn/s/4e4da39d6abc</t>
-  </si>
-  <si>
-    <t>【拼客学院】2019年直播面授班 《全栈网络安全专家》 43期 - 带源码课件</t>
-  </si>
-  <si>
-    <t>https://www.alipan.com/s/UFwetD1kNTQ</t>
-  </si>
-  <si>
-    <t>https://pan.quark.cn/s/ee32f0d491e2</t>
-  </si>
-  <si>
-    <t>极简英语 - 英语能力系统提升班 - 带源码课件</t>
-  </si>
-  <si>
-    <t>https://www.alipan.com/s/vtdkUoH3N8t</t>
-  </si>
-  <si>
-    <t>https://pan.quark.cn/s/d26a10b37b1f</t>
-  </si>
-  <si>
-    <t>基于SpringBoot+Mybatis从头搭建通用管理系统(后端篇) - 带源码课件</t>
-  </si>
-  <si>
-    <t>https://www.alipan.com/s/WDrSso9TVHF</t>
-  </si>
-  <si>
-    <t>https://pan.quark.cn/s/e111d8997711</t>
-  </si>
-  <si>
     <t>【粉笔】2023高照超大杯刷题营</t>
   </si>
   <si>
@@ -530,15 +497,6 @@
   </si>
   <si>
     <t>https://pan.quark.cn/s/66cf0c19a890</t>
-  </si>
-  <si>
-    <t>2024/02/21 11:10</t>
-  </si>
-  <si>
-    <t>2024/02/21 14:35</t>
-  </si>
-  <si>
-    <t>2024/02/21 15:22</t>
   </si>
   <si>
     <t>2024/02/21 20:13</t>
@@ -568,8 +526,14 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -578,21 +542,345 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -600,9 +888,251 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -616,17 +1146,61 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -948,42 +1522,42 @@
       </a:style>
     </a:lnDef>
   </a:objectDefaults>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E67"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:E61"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="38.6640625" defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="38.6666666666667" defaultRowHeight="14.4" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" width="38.6640625" style="1"/>
-    <col min="2" max="16384" width="38.6640625" style="2"/>
+    <col min="1" max="1" width="38.6666666666667" style="1"/>
+    <col min="2" max="16384" width="38.6666666666667" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="44.55" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" ht="44.55" customHeight="1" spans="1:5">
       <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="D1" s="2" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E1" s="3">
-        <v>45343.465277777803</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" ht="44.55" customHeight="1" x14ac:dyDescent="0.3">
+        <v>45343.8423611111</v>
+      </c>
+    </row>
+    <row r="2" ht="44.55" customHeight="1" spans="1:5">
       <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
@@ -994,13 +1568,13 @@
         <v>6</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E2" s="3">
-        <v>45343.607638888898</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="44.55" customHeight="1" x14ac:dyDescent="0.3">
+        <v>45343.9027777778</v>
+      </c>
+    </row>
+    <row r="3" ht="44.55" customHeight="1" spans="1:5">
       <c r="A3" s="1" t="s">
         <v>7</v>
       </c>
@@ -1011,13 +1585,13 @@
         <v>9</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E3" s="3">
-        <v>45343.640277777798</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="44.55" customHeight="1" x14ac:dyDescent="0.3">
+        <v>45343.9486111111</v>
+      </c>
+    </row>
+    <row r="4" ht="44.55" customHeight="1" spans="1:5">
       <c r="A4" s="1" t="s">
         <v>10</v>
       </c>
@@ -1028,13 +1602,13 @@
         <v>12</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E4" s="3">
-        <v>45343.842361111099</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="44.55" customHeight="1" x14ac:dyDescent="0.3">
+        <v>45344.5444444444</v>
+      </c>
+    </row>
+    <row r="5" ht="44.55" customHeight="1" spans="1:5">
       <c r="A5" s="1" t="s">
         <v>13</v>
       </c>
@@ -1045,13 +1619,13 @@
         <v>15</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E5" s="3">
-        <v>45343.902777777803</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="44.55" customHeight="1" x14ac:dyDescent="0.3">
+        <v>45344.7493055556</v>
+      </c>
+    </row>
+    <row r="6" ht="44.55" customHeight="1" spans="1:5">
       <c r="A6" s="1" t="s">
         <v>16</v>
       </c>
@@ -1062,13 +1636,13 @@
         <v>18</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E6" s="3">
-        <v>45343.948611111096</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="44.55" customHeight="1" x14ac:dyDescent="0.3">
+        <v>45344.9458333333</v>
+      </c>
+    </row>
+    <row r="7" ht="44.55" customHeight="1" spans="1:5">
       <c r="A7" s="1" t="s">
         <v>19</v>
       </c>
@@ -1079,13 +1653,13 @@
         <v>21</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E7" s="3">
-        <v>45344.5444444444</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" ht="44.55" customHeight="1" x14ac:dyDescent="0.3">
+        <v>45345.2076388889</v>
+      </c>
+    </row>
+    <row r="8" ht="44.55" customHeight="1" spans="1:5">
       <c r="A8" s="1" t="s">
         <v>22</v>
       </c>
@@ -1096,13 +1670,13 @@
         <v>24</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E8" s="3">
-        <v>45344.749305555597</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" ht="44.55" customHeight="1" x14ac:dyDescent="0.3">
+        <v>45345.5243055556</v>
+      </c>
+    </row>
+    <row r="9" ht="44.55" customHeight="1" spans="1:5">
       <c r="A9" s="1" t="s">
         <v>25</v>
       </c>
@@ -1113,13 +1687,13 @@
         <v>27</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E9" s="3">
-        <v>45344.945833333302</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" ht="44.55" customHeight="1" x14ac:dyDescent="0.3">
+        <v>45345.575</v>
+      </c>
+    </row>
+    <row r="10" ht="44.55" customHeight="1" spans="1:5">
       <c r="A10" s="1" t="s">
         <v>28</v>
       </c>
@@ -1130,13 +1704,13 @@
         <v>30</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E10" s="3">
-        <v>45345.207638888904</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" ht="44.55" customHeight="1" x14ac:dyDescent="0.3">
+        <v>45345.8118055556</v>
+      </c>
+    </row>
+    <row r="11" ht="44.55" customHeight="1" spans="1:5">
       <c r="A11" s="1" t="s">
         <v>31</v>
       </c>
@@ -1147,13 +1721,13 @@
         <v>33</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E11" s="3">
-        <v>45345.524305555598</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" ht="44.55" customHeight="1" x14ac:dyDescent="0.3">
+        <v>45345.9027777778</v>
+      </c>
+    </row>
+    <row r="12" ht="44.55" customHeight="1" spans="1:5">
       <c r="A12" s="1" t="s">
         <v>34</v>
       </c>
@@ -1164,13 +1738,13 @@
         <v>36</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E12" s="3">
-        <v>45345.574999999997</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" ht="44.55" customHeight="1" x14ac:dyDescent="0.3">
+        <v>45346.5104166667</v>
+      </c>
+    </row>
+    <row r="13" ht="44.55" customHeight="1" spans="1:5">
       <c r="A13" s="1" t="s">
         <v>37</v>
       </c>
@@ -1181,13 +1755,13 @@
         <v>39</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E13" s="3">
-        <v>45345.811805555597</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" ht="44.55" customHeight="1" x14ac:dyDescent="0.3">
+        <v>45346.5666666667</v>
+      </c>
+    </row>
+    <row r="14" ht="44.55" customHeight="1" spans="1:5">
       <c r="A14" s="1" t="s">
         <v>40</v>
       </c>
@@ -1198,13 +1772,13 @@
         <v>42</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E14" s="3">
-        <v>45345.902777777803</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" ht="44.55" customHeight="1" x14ac:dyDescent="0.3">
+        <v>45346.60625</v>
+      </c>
+    </row>
+    <row r="15" ht="44.55" customHeight="1" spans="1:5">
       <c r="A15" s="1" t="s">
         <v>43</v>
       </c>
@@ -1215,13 +1789,13 @@
         <v>45</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E15" s="3">
-        <v>45346.510416666701</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" ht="44.55" customHeight="1" x14ac:dyDescent="0.3">
+        <v>45346.7145833333</v>
+      </c>
+    </row>
+    <row r="16" ht="44.55" customHeight="1" spans="1:5">
       <c r="A16" s="1" t="s">
         <v>46</v>
       </c>
@@ -1232,13 +1806,13 @@
         <v>48</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E16" s="3">
-        <v>45346.566666666702</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" ht="44.55" customHeight="1" x14ac:dyDescent="0.3">
+        <v>45346.7465277778</v>
+      </c>
+    </row>
+    <row r="17" ht="44.55" customHeight="1" spans="1:5">
       <c r="A17" s="1" t="s">
         <v>49</v>
       </c>
@@ -1249,13 +1823,13 @@
         <v>51</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E17" s="3">
-        <v>45346.606249999997</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" ht="44.55" customHeight="1" x14ac:dyDescent="0.3">
+        <v>45346.8541666667</v>
+      </c>
+    </row>
+    <row r="18" ht="44.55" customHeight="1" spans="1:5">
       <c r="A18" s="1" t="s">
         <v>52</v>
       </c>
@@ -1266,13 +1840,13 @@
         <v>54</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E18" s="3">
-        <v>45346.714583333298</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" ht="44.55" customHeight="1" x14ac:dyDescent="0.3">
+        <v>45346.9020833333</v>
+      </c>
+    </row>
+    <row r="19" ht="44.55" customHeight="1" spans="1:5">
       <c r="A19" s="1" t="s">
         <v>55</v>
       </c>
@@ -1283,13 +1857,13 @@
         <v>57</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E19" s="3">
-        <v>45346.746527777803</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" ht="44.55" customHeight="1" x14ac:dyDescent="0.3">
+        <v>45347.0402777778</v>
+      </c>
+    </row>
+    <row r="20" ht="44.55" customHeight="1" spans="1:5">
       <c r="A20" s="1" t="s">
         <v>58</v>
       </c>
@@ -1300,13 +1874,13 @@
         <v>60</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E20" s="3">
-        <v>45346.854166666701</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" ht="44.55" customHeight="1" x14ac:dyDescent="0.3">
+        <v>45347.1604166667</v>
+      </c>
+    </row>
+    <row r="21" ht="44.55" customHeight="1" spans="1:5">
       <c r="A21" s="1" t="s">
         <v>61</v>
       </c>
@@ -1317,13 +1891,13 @@
         <v>63</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E21" s="3">
-        <v>45346.902083333298</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" ht="44.55" customHeight="1" x14ac:dyDescent="0.3">
+        <v>45347.66875</v>
+      </c>
+    </row>
+    <row r="22" ht="44.55" customHeight="1" spans="1:5">
       <c r="A22" s="1" t="s">
         <v>64</v>
       </c>
@@ -1334,13 +1908,13 @@
         <v>66</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E22" s="3">
-        <v>45347.0402777778</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" ht="44.55" customHeight="1" x14ac:dyDescent="0.3">
+        <v>45347.7326388889</v>
+      </c>
+    </row>
+    <row r="23" ht="44.55" customHeight="1" spans="1:5">
       <c r="A23" s="1" t="s">
         <v>67</v>
       </c>
@@ -1351,13 +1925,13 @@
         <v>69</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E23" s="3">
-        <v>45347.160416666702</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" ht="44.55" customHeight="1" x14ac:dyDescent="0.3">
+        <v>45347.8513888889</v>
+      </c>
+    </row>
+    <row r="24" ht="44.55" customHeight="1" spans="1:5">
       <c r="A24" s="1" t="s">
         <v>70</v>
       </c>
@@ -1368,13 +1942,13 @@
         <v>72</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E24" s="3">
-        <v>45347.668749999997</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" ht="44.55" customHeight="1" x14ac:dyDescent="0.3">
+        <v>45347.9763888889</v>
+      </c>
+    </row>
+    <row r="25" ht="44.55" customHeight="1" spans="1:5">
       <c r="A25" s="1" t="s">
         <v>73</v>
       </c>
@@ -1385,13 +1959,13 @@
         <v>75</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E25" s="3">
-        <v>45347.732638888898</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" ht="44.55" customHeight="1" x14ac:dyDescent="0.3">
+        <v>45348.6569444444</v>
+      </c>
+    </row>
+    <row r="26" ht="44.55" customHeight="1" spans="1:5">
       <c r="A26" s="1" t="s">
         <v>76</v>
       </c>
@@ -1402,13 +1976,13 @@
         <v>78</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E26" s="3">
-        <v>45347.851388888899</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" ht="44.55" customHeight="1" x14ac:dyDescent="0.3">
+        <v>45348.6979166667</v>
+      </c>
+    </row>
+    <row r="27" ht="44.55" customHeight="1" spans="1:5">
       <c r="A27" s="1" t="s">
         <v>79</v>
       </c>
@@ -1419,13 +1993,13 @@
         <v>81</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E27" s="3">
-        <v>45347.976388888899</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" ht="44.55" customHeight="1" x14ac:dyDescent="0.3">
+        <v>45348.7361111111</v>
+      </c>
+    </row>
+    <row r="28" ht="44.55" customHeight="1" spans="1:5">
       <c r="A28" s="1" t="s">
         <v>82</v>
       </c>
@@ -1436,13 +2010,13 @@
         <v>84</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E28" s="3">
-        <v>45348.656944444403</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" ht="44.55" customHeight="1" x14ac:dyDescent="0.3">
+        <v>45348.8020833333</v>
+      </c>
+    </row>
+    <row r="29" ht="44.55" customHeight="1" spans="1:5">
       <c r="A29" s="1" t="s">
         <v>85</v>
       </c>
@@ -1453,13 +2027,13 @@
         <v>87</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E29" s="3">
-        <v>45348.697916666701</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" ht="44.55" customHeight="1" x14ac:dyDescent="0.3">
+        <v>45348.8368055556</v>
+      </c>
+    </row>
+    <row r="30" ht="44.55" customHeight="1" spans="1:5">
       <c r="A30" s="1" t="s">
         <v>88</v>
       </c>
@@ -1470,13 +2044,13 @@
         <v>90</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E30" s="3">
-        <v>45348.736111111102</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" ht="44.55" customHeight="1" x14ac:dyDescent="0.3">
+        <v>45348.8694444444</v>
+      </c>
+    </row>
+    <row r="31" ht="44.55" customHeight="1" spans="1:5">
       <c r="A31" s="1" t="s">
         <v>91</v>
       </c>
@@ -1487,13 +2061,13 @@
         <v>93</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E31" s="3">
-        <v>45348.802083333299</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" ht="44.55" customHeight="1" x14ac:dyDescent="0.3">
+        <v>45348.9208333333</v>
+      </c>
+    </row>
+    <row r="32" ht="44.55" customHeight="1" spans="1:5">
       <c r="A32" s="1" t="s">
         <v>94</v>
       </c>
@@ -1504,13 +2078,13 @@
         <v>96</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E32" s="3">
-        <v>45348.836805555598</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" ht="44.55" customHeight="1" x14ac:dyDescent="0.3">
+        <v>45348.9791666667</v>
+      </c>
+    </row>
+    <row r="33" ht="44.55" customHeight="1" spans="1:5">
       <c r="A33" s="1" t="s">
         <v>97</v>
       </c>
@@ -1521,13 +2095,13 @@
         <v>99</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E33" s="3">
-        <v>45348.869444444397</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" ht="44.55" customHeight="1" x14ac:dyDescent="0.3">
+        <v>45349.1326388889</v>
+      </c>
+    </row>
+    <row r="34" ht="44.55" customHeight="1" spans="1:5">
       <c r="A34" s="1" t="s">
         <v>100</v>
       </c>
@@ -1538,13 +2112,13 @@
         <v>102</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E34" s="3">
-        <v>45348.920833333301</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" ht="44.55" customHeight="1" x14ac:dyDescent="0.3">
+        <v>45349.5263888889</v>
+      </c>
+    </row>
+    <row r="35" ht="44.55" customHeight="1" spans="1:5">
       <c r="A35" s="1" t="s">
         <v>103</v>
       </c>
@@ -1555,13 +2129,13 @@
         <v>105</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E35" s="3">
-        <v>45348.979166666701</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" ht="44.55" customHeight="1" x14ac:dyDescent="0.3">
+        <v>45349.5534722222</v>
+      </c>
+    </row>
+    <row r="36" ht="44.55" customHeight="1" spans="1:5">
       <c r="A36" s="1" t="s">
         <v>106</v>
       </c>
@@ -1572,13 +2146,13 @@
         <v>108</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E36" s="3">
-        <v>45349.132638888899</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" ht="44.55" customHeight="1" x14ac:dyDescent="0.3">
+        <v>45349.6638888889</v>
+      </c>
+    </row>
+    <row r="37" ht="44.55" customHeight="1" spans="1:5">
       <c r="A37" s="1" t="s">
         <v>109</v>
       </c>
@@ -1589,13 +2163,13 @@
         <v>111</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E37" s="3">
-        <v>45349.526388888902</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" ht="44.55" customHeight="1" x14ac:dyDescent="0.3">
+        <v>45349.7118055556</v>
+      </c>
+    </row>
+    <row r="38" ht="44.55" customHeight="1" spans="1:5">
       <c r="A38" s="1" t="s">
         <v>112</v>
       </c>
@@ -1606,13 +2180,13 @@
         <v>114</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E38" s="3">
-        <v>45349.5534722222</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" ht="44.55" customHeight="1" x14ac:dyDescent="0.3">
+        <v>45349.7486111111</v>
+      </c>
+    </row>
+    <row r="39" ht="44.55" customHeight="1" spans="1:5">
       <c r="A39" s="1" t="s">
         <v>115</v>
       </c>
@@ -1623,13 +2197,13 @@
         <v>117</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E39" s="3">
-        <v>45349.663888888899</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" ht="44.55" customHeight="1" x14ac:dyDescent="0.3">
+        <v>45349.8520833333</v>
+      </c>
+    </row>
+    <row r="40" ht="44.55" customHeight="1" spans="1:5">
       <c r="A40" s="1" t="s">
         <v>118</v>
       </c>
@@ -1640,13 +2214,13 @@
         <v>120</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E40" s="3">
-        <v>45349.711805555598</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" ht="44.55" customHeight="1" x14ac:dyDescent="0.3">
+        <v>45349.9270833333</v>
+      </c>
+    </row>
+    <row r="41" ht="44.55" customHeight="1" spans="1:5">
       <c r="A41" s="1" t="s">
         <v>121</v>
       </c>
@@ -1657,13 +2231,13 @@
         <v>123</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E41" s="3">
-        <v>45349.748611111099</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" ht="44.55" customHeight="1" x14ac:dyDescent="0.3">
+        <v>45350.0111111111</v>
+      </c>
+    </row>
+    <row r="42" ht="44.55" customHeight="1" spans="1:5">
       <c r="A42" s="1" t="s">
         <v>124</v>
       </c>
@@ -1674,13 +2248,13 @@
         <v>126</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E42" s="3">
-        <v>45349.852083333302</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" ht="44.55" customHeight="1" x14ac:dyDescent="0.3">
+        <v>45350.09375</v>
+      </c>
+    </row>
+    <row r="43" ht="44.55" customHeight="1" spans="1:5">
       <c r="A43" s="1" t="s">
         <v>127</v>
       </c>
@@ -1691,13 +2265,13 @@
         <v>129</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E43" s="3">
-        <v>45349.927083333299</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" ht="44.55" customHeight="1" x14ac:dyDescent="0.3">
+        <v>45350.2944444444</v>
+      </c>
+    </row>
+    <row r="44" ht="44.55" customHeight="1" spans="1:5">
       <c r="A44" s="1" t="s">
         <v>130</v>
       </c>
@@ -1708,13 +2282,13 @@
         <v>132</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E44" s="3">
-        <v>45350.011111111096</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" ht="44.55" customHeight="1" x14ac:dyDescent="0.3">
+        <v>45350.64375</v>
+      </c>
+    </row>
+    <row r="45" ht="44.55" customHeight="1" spans="1:5">
       <c r="A45" s="1" t="s">
         <v>133</v>
       </c>
@@ -1725,13 +2299,13 @@
         <v>135</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E45" s="3">
-        <v>45350.09375</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5" ht="44.55" customHeight="1" x14ac:dyDescent="0.3">
+        <v>45350.7270833333</v>
+      </c>
+    </row>
+    <row r="46" ht="44.55" customHeight="1" spans="1:5">
       <c r="A46" s="1" t="s">
         <v>136</v>
       </c>
@@ -1742,13 +2316,13 @@
         <v>138</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E46" s="3">
-        <v>45350.2944444444</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5" ht="44.55" customHeight="1" x14ac:dyDescent="0.3">
+        <v>45350.8736111111</v>
+      </c>
+    </row>
+    <row r="47" ht="44.55" customHeight="1" spans="1:5">
       <c r="A47" s="1" t="s">
         <v>139</v>
       </c>
@@ -1759,13 +2333,13 @@
         <v>141</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E47" s="3">
-        <v>45350.643750000003</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5" ht="44.55" customHeight="1" x14ac:dyDescent="0.3">
+        <v>45350.9097222222</v>
+      </c>
+    </row>
+    <row r="48" ht="44.55" customHeight="1" spans="1:5">
       <c r="A48" s="1" t="s">
         <v>142</v>
       </c>
@@ -1776,13 +2350,13 @@
         <v>144</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E48" s="3">
-        <v>45350.727083333302</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5" ht="44.55" customHeight="1" x14ac:dyDescent="0.3">
+        <v>45350.9701388889</v>
+      </c>
+    </row>
+    <row r="49" ht="44.55" customHeight="1" spans="1:5">
       <c r="A49" s="1" t="s">
         <v>145</v>
       </c>
@@ -1793,13 +2367,13 @@
         <v>147</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E49" s="3">
-        <v>45350.873611111099</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5" ht="44.55" customHeight="1" x14ac:dyDescent="0.3">
+        <v>45351.0229166667</v>
+      </c>
+    </row>
+    <row r="50" ht="44.55" customHeight="1" spans="1:5">
       <c r="A50" s="1" t="s">
         <v>148</v>
       </c>
@@ -1810,13 +2384,13 @@
         <v>150</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E50" s="3">
-        <v>45350.909722222197</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5" ht="44.55" customHeight="1" x14ac:dyDescent="0.3">
+        <v>45351.0986111111</v>
+      </c>
+    </row>
+    <row r="51" ht="44.55" customHeight="1" spans="1:5">
       <c r="A51" s="1" t="s">
         <v>151</v>
       </c>
@@ -1827,13 +2401,13 @@
         <v>153</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E51" s="3">
-        <v>45350.970138888901</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5" ht="44.55" customHeight="1" x14ac:dyDescent="0.3">
+        <v>45351.5527777778</v>
+      </c>
+    </row>
+    <row r="52" ht="44.55" customHeight="1" spans="1:5">
       <c r="A52" s="1" t="s">
         <v>154</v>
       </c>
@@ -1844,13 +2418,13 @@
         <v>156</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E52" s="3">
-        <v>45351.022916666698</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5" ht="44.55" customHeight="1" x14ac:dyDescent="0.3">
+        <v>45351.6131944444</v>
+      </c>
+    </row>
+    <row r="53" ht="44.55" customHeight="1" spans="1:5">
       <c r="A53" s="1" t="s">
         <v>157</v>
       </c>
@@ -1861,253 +2435,151 @@
         <v>159</v>
       </c>
       <c r="D53" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E53" s="3">
+        <v>45351.6604166667</v>
+      </c>
+    </row>
+    <row r="54" ht="44.55" customHeight="1" spans="1:5">
+      <c r="A54" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="E53" s="3">
-        <v>45351.098611111098</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5" ht="44.55" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="1" t="s">
+      <c r="B54" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C54" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D54" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E54" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="B54" s="2" t="s">
+    </row>
+    <row r="55" ht="44.55" customHeight="1" spans="1:5">
+      <c r="A55" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B55" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C55" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D55" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E55" s="2" t="s">
         <v>161</v>
       </c>
-      <c r="C54" s="2" t="s">
+    </row>
+    <row r="56" ht="44.55" customHeight="1" spans="1:5">
+      <c r="A56" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B56" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C56" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D56" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E56" s="2" t="s">
         <v>162</v>
       </c>
-      <c r="D54" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="E54" s="3">
-        <v>45351.552777777797</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5" ht="44.55" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="1" t="s">
+    </row>
+    <row r="57" ht="44.55" customHeight="1" spans="1:5">
+      <c r="A57" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B57" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C57" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D57" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E57" s="2" t="s">
         <v>163</v>
       </c>
-      <c r="B55" s="2" t="s">
+    </row>
+    <row r="58" ht="44.55" customHeight="1" spans="1:5">
+      <c r="A58" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B58" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C58" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D58" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E58" s="2" t="s">
         <v>164</v>
       </c>
-      <c r="C55" s="2" t="s">
+    </row>
+    <row r="59" ht="44.55" customHeight="1" spans="1:5">
+      <c r="A59" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B59" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C59" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D59" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E59" s="2" t="s">
         <v>165</v>
       </c>
-      <c r="D55" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="E55" s="3">
-        <v>45351.613194444399</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5" ht="44.55" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="1" t="s">
+    </row>
+    <row r="60" ht="44.55" customHeight="1" spans="1:5">
+      <c r="A60" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B60" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C60" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D60" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E60" s="2" t="s">
         <v>166</v>
       </c>
-      <c r="B56" s="2" t="s">
+    </row>
+    <row r="61" ht="44.55" customHeight="1" spans="1:5">
+      <c r="A61" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B61" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C61" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D61" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E61" s="2" t="s">
         <v>167</v>
       </c>
-      <c r="C56" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="D56" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="E56" s="3">
-        <v>45351.660416666702</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5" ht="44.55" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B57" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C57" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D57" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="E57" s="2" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5" ht="44.55" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A58" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B58" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C58" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D58" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="E58" s="2" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5" ht="44.55" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A59" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B59" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C59" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D59" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="E59" s="2" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5" ht="44.55" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A60" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B60" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C60" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D60" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="E60" s="2" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5" ht="44.55" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A61" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B61" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C61" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D61" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="E61" s="2" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5" ht="44.55" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A62" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B62" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C62" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D62" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="E62" s="2" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="63" spans="1:5" ht="44.55" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A63" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B63" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C63" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="D63" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="E63" s="2" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5" ht="44.55" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A64" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B64" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C64" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="D64" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="E64" s="2" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5" ht="44.55" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A65" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B65" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="C65" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="D65" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="E65" s="2" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5" ht="44.55" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A66" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B66" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="C66" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="D66" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="E66" s="2" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5" ht="44.55" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A67" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B67" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="C67" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="D67" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="E67" s="2" t="s">
-        <v>179</v>
-      </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="1" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/.ready/最新发布资源-维格视图.xlsx
+++ b/.ready/最新发布资源-维格视图.xlsx
@@ -17,74 +17,20 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="168">
-  <si>
-    <t>基于SpringBoot+Mybatis从头搭建通用管理系统(后端篇) - 带源码课件</t>
-  </si>
-  <si>
-    <t>https://www.alipan.com/s/WDrSso9TVHF</t>
-  </si>
-  <si>
-    <t>https://pan.quark.cn/s/e111d8997711</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="144">
+  <si>
+    <t>【尚硅谷】鸿蒙应用开发 - 带源码课件</t>
+  </si>
+  <si>
+    <t>https://www.alipan.com/s/f3fRYQwDnaG</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/506a2573540a</t>
   </si>
   <si>
     <t>学术</t>
   </si>
   <si>
-    <t>【粉笔】2023高照超大杯刷题营</t>
-  </si>
-  <si>
-    <t>https://www.alipan.com/s/wDqarW38FwH</t>
-  </si>
-  <si>
-    <t>https://pan.quark.cn/s/76a5b545c41b</t>
-  </si>
-  <si>
-    <t>【新东方在线】英语零基础直达流利生活口语</t>
-  </si>
-  <si>
-    <t>https://www.alipan.com/s/929gk7zdzqg</t>
-  </si>
-  <si>
-    <t>https://pan.quark.cn/s/a8083a220e18</t>
-  </si>
-  <si>
-    <t>【51CTO-3811】《Wireshark协议分析基础与提升》第二季 TCP IP协议栈详解(上)</t>
-  </si>
-  <si>
-    <t>https://www.alipan.com/s/hcGnaiERdSV</t>
-  </si>
-  <si>
-    <t>https://pan.quark.cn/s/6ce384f2434b</t>
-  </si>
-  <si>
-    <t>老陈的IT杂货铺 - 嵌入式零基础到就业年班</t>
-  </si>
-  <si>
-    <t>https://www.alipan.com/s/wx4GhdUCH2J</t>
-  </si>
-  <si>
-    <t>https://pan.quark.cn/s/c8169a3cc4e9</t>
-  </si>
-  <si>
-    <t>【尚硅谷】SpringSecurity+OAuth2.0实战精讲 - 带源码课件</t>
-  </si>
-  <si>
-    <t>https://www.alipan.com/s/v2fDjMiJ9Wf</t>
-  </si>
-  <si>
-    <t>https://pan.quark.cn/s/564723411378</t>
-  </si>
-  <si>
-    <t>【尚硅谷】鸿蒙应用开发 - 带源码课件</t>
-  </si>
-  <si>
-    <t>https://www.alipan.com/s/f3fRYQwDnaG</t>
-  </si>
-  <si>
-    <t>https://pan.quark.cn/s/506a2573540a</t>
-  </si>
-  <si>
     <t>Go+Vue通用后台管理项目实战 - 带源码课件</t>
   </si>
   <si>
@@ -497,24 +443,6 @@
   </si>
   <si>
     <t>https://pan.quark.cn/s/66cf0c19a890</t>
-  </si>
-  <si>
-    <t>2024/02/21 20:13</t>
-  </si>
-  <si>
-    <t>2024/02/21 21:40</t>
-  </si>
-  <si>
-    <t>2024/02/21 22:46</t>
-  </si>
-  <si>
-    <t>2024/02/22 13:04</t>
-  </si>
-  <si>
-    <t>2024/02/22 17:59</t>
-  </si>
-  <si>
-    <t>2024/02/22 22:42</t>
   </si>
   <si>
     <t>2024/02/23 04:59</t>
@@ -1528,10 +1456,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E61"/>
+  <dimension ref="A1:E49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="38.6666666666667" defaultRowHeight="14.4" outlineLevelCol="4"/>
@@ -1554,7 +1482,7 @@
         <v>3</v>
       </c>
       <c r="E1" s="3">
-        <v>45343.8423611111</v>
+        <v>45345.2076388889</v>
       </c>
     </row>
     <row r="2" ht="44.55" customHeight="1" spans="1:5">
@@ -1571,7 +1499,7 @@
         <v>3</v>
       </c>
       <c r="E2" s="3">
-        <v>45343.9027777778</v>
+        <v>45345.5243055556</v>
       </c>
     </row>
     <row r="3" ht="44.55" customHeight="1" spans="1:5">
@@ -1588,7 +1516,7 @@
         <v>3</v>
       </c>
       <c r="E3" s="3">
-        <v>45343.9486111111</v>
+        <v>45345.575</v>
       </c>
     </row>
     <row r="4" ht="44.55" customHeight="1" spans="1:5">
@@ -1605,7 +1533,7 @@
         <v>3</v>
       </c>
       <c r="E4" s="3">
-        <v>45344.5444444444</v>
+        <v>45345.8118055556</v>
       </c>
     </row>
     <row r="5" ht="44.55" customHeight="1" spans="1:5">
@@ -1622,7 +1550,7 @@
         <v>3</v>
       </c>
       <c r="E5" s="3">
-        <v>45344.7493055556</v>
+        <v>45345.9027777778</v>
       </c>
     </row>
     <row r="6" ht="44.55" customHeight="1" spans="1:5">
@@ -1639,7 +1567,7 @@
         <v>3</v>
       </c>
       <c r="E6" s="3">
-        <v>45344.9458333333</v>
+        <v>45346.5104166667</v>
       </c>
     </row>
     <row r="7" ht="44.55" customHeight="1" spans="1:5">
@@ -1656,7 +1584,7 @@
         <v>3</v>
       </c>
       <c r="E7" s="3">
-        <v>45345.2076388889</v>
+        <v>45346.5666666667</v>
       </c>
     </row>
     <row r="8" ht="44.55" customHeight="1" spans="1:5">
@@ -1673,7 +1601,7 @@
         <v>3</v>
       </c>
       <c r="E8" s="3">
-        <v>45345.5243055556</v>
+        <v>45346.60625</v>
       </c>
     </row>
     <row r="9" ht="44.55" customHeight="1" spans="1:5">
@@ -1690,7 +1618,7 @@
         <v>3</v>
       </c>
       <c r="E9" s="3">
-        <v>45345.575</v>
+        <v>45346.7145833333</v>
       </c>
     </row>
     <row r="10" ht="44.55" customHeight="1" spans="1:5">
@@ -1707,7 +1635,7 @@
         <v>3</v>
       </c>
       <c r="E10" s="3">
-        <v>45345.8118055556</v>
+        <v>45346.7465277778</v>
       </c>
     </row>
     <row r="11" ht="44.55" customHeight="1" spans="1:5">
@@ -1724,7 +1652,7 @@
         <v>3</v>
       </c>
       <c r="E11" s="3">
-        <v>45345.9027777778</v>
+        <v>45346.8541666667</v>
       </c>
     </row>
     <row r="12" ht="44.55" customHeight="1" spans="1:5">
@@ -1741,7 +1669,7 @@
         <v>3</v>
       </c>
       <c r="E12" s="3">
-        <v>45346.5104166667</v>
+        <v>45346.9020833333</v>
       </c>
     </row>
     <row r="13" ht="44.55" customHeight="1" spans="1:5">
@@ -1758,7 +1686,7 @@
         <v>3</v>
       </c>
       <c r="E13" s="3">
-        <v>45346.5666666667</v>
+        <v>45347.0402777778</v>
       </c>
     </row>
     <row r="14" ht="44.55" customHeight="1" spans="1:5">
@@ -1775,7 +1703,7 @@
         <v>3</v>
       </c>
       <c r="E14" s="3">
-        <v>45346.60625</v>
+        <v>45347.1604166667</v>
       </c>
     </row>
     <row r="15" ht="44.55" customHeight="1" spans="1:5">
@@ -1792,7 +1720,7 @@
         <v>3</v>
       </c>
       <c r="E15" s="3">
-        <v>45346.7145833333</v>
+        <v>45347.66875</v>
       </c>
     </row>
     <row r="16" ht="44.55" customHeight="1" spans="1:5">
@@ -1809,7 +1737,7 @@
         <v>3</v>
       </c>
       <c r="E16" s="3">
-        <v>45346.7465277778</v>
+        <v>45347.7326388889</v>
       </c>
     </row>
     <row r="17" ht="44.55" customHeight="1" spans="1:5">
@@ -1826,7 +1754,7 @@
         <v>3</v>
       </c>
       <c r="E17" s="3">
-        <v>45346.8541666667</v>
+        <v>45347.8513888889</v>
       </c>
     </row>
     <row r="18" ht="44.55" customHeight="1" spans="1:5">
@@ -1843,7 +1771,7 @@
         <v>3</v>
       </c>
       <c r="E18" s="3">
-        <v>45346.9020833333</v>
+        <v>45347.9763888889</v>
       </c>
     </row>
     <row r="19" ht="44.55" customHeight="1" spans="1:5">
@@ -1860,7 +1788,7 @@
         <v>3</v>
       </c>
       <c r="E19" s="3">
-        <v>45347.0402777778</v>
+        <v>45348.6569444444</v>
       </c>
     </row>
     <row r="20" ht="44.55" customHeight="1" spans="1:5">
@@ -1877,7 +1805,7 @@
         <v>3</v>
       </c>
       <c r="E20" s="3">
-        <v>45347.1604166667</v>
+        <v>45348.6979166667</v>
       </c>
     </row>
     <row r="21" ht="44.55" customHeight="1" spans="1:5">
@@ -1894,7 +1822,7 @@
         <v>3</v>
       </c>
       <c r="E21" s="3">
-        <v>45347.66875</v>
+        <v>45348.7361111111</v>
       </c>
     </row>
     <row r="22" ht="44.55" customHeight="1" spans="1:5">
@@ -1911,7 +1839,7 @@
         <v>3</v>
       </c>
       <c r="E22" s="3">
-        <v>45347.7326388889</v>
+        <v>45348.8020833333</v>
       </c>
     </row>
     <row r="23" ht="44.55" customHeight="1" spans="1:5">
@@ -1928,7 +1856,7 @@
         <v>3</v>
       </c>
       <c r="E23" s="3">
-        <v>45347.8513888889</v>
+        <v>45348.8368055556</v>
       </c>
     </row>
     <row r="24" ht="44.55" customHeight="1" spans="1:5">
@@ -1945,7 +1873,7 @@
         <v>3</v>
       </c>
       <c r="E24" s="3">
-        <v>45347.9763888889</v>
+        <v>45348.8694444444</v>
       </c>
     </row>
     <row r="25" ht="44.55" customHeight="1" spans="1:5">
@@ -1962,7 +1890,7 @@
         <v>3</v>
       </c>
       <c r="E25" s="3">
-        <v>45348.6569444444</v>
+        <v>45348.9208333333</v>
       </c>
     </row>
     <row r="26" ht="44.55" customHeight="1" spans="1:5">
@@ -1979,7 +1907,7 @@
         <v>3</v>
       </c>
       <c r="E26" s="3">
-        <v>45348.6979166667</v>
+        <v>45348.9791666667</v>
       </c>
     </row>
     <row r="27" ht="44.55" customHeight="1" spans="1:5">
@@ -1996,7 +1924,7 @@
         <v>3</v>
       </c>
       <c r="E27" s="3">
-        <v>45348.7361111111</v>
+        <v>45349.1326388889</v>
       </c>
     </row>
     <row r="28" ht="44.55" customHeight="1" spans="1:5">
@@ -2013,7 +1941,7 @@
         <v>3</v>
       </c>
       <c r="E28" s="3">
-        <v>45348.8020833333</v>
+        <v>45349.5263888889</v>
       </c>
     </row>
     <row r="29" ht="44.55" customHeight="1" spans="1:5">
@@ -2030,7 +1958,7 @@
         <v>3</v>
       </c>
       <c r="E29" s="3">
-        <v>45348.8368055556</v>
+        <v>45349.5534722222</v>
       </c>
     </row>
     <row r="30" ht="44.55" customHeight="1" spans="1:5">
@@ -2047,7 +1975,7 @@
         <v>3</v>
       </c>
       <c r="E30" s="3">
-        <v>45348.8694444444</v>
+        <v>45349.6638888889</v>
       </c>
     </row>
     <row r="31" ht="44.55" customHeight="1" spans="1:5">
@@ -2064,7 +1992,7 @@
         <v>3</v>
       </c>
       <c r="E31" s="3">
-        <v>45348.9208333333</v>
+        <v>45349.7118055556</v>
       </c>
     </row>
     <row r="32" ht="44.55" customHeight="1" spans="1:5">
@@ -2081,7 +2009,7 @@
         <v>3</v>
       </c>
       <c r="E32" s="3">
-        <v>45348.9791666667</v>
+        <v>45349.7486111111</v>
       </c>
     </row>
     <row r="33" ht="44.55" customHeight="1" spans="1:5">
@@ -2098,7 +2026,7 @@
         <v>3</v>
       </c>
       <c r="E33" s="3">
-        <v>45349.1326388889</v>
+        <v>45349.8520833333</v>
       </c>
     </row>
     <row r="34" ht="44.55" customHeight="1" spans="1:5">
@@ -2115,7 +2043,7 @@
         <v>3</v>
       </c>
       <c r="E34" s="3">
-        <v>45349.5263888889</v>
+        <v>45349.9270833333</v>
       </c>
     </row>
     <row r="35" ht="44.55" customHeight="1" spans="1:5">
@@ -2132,7 +2060,7 @@
         <v>3</v>
       </c>
       <c r="E35" s="3">
-        <v>45349.5534722222</v>
+        <v>45350.0111111111</v>
       </c>
     </row>
     <row r="36" ht="44.55" customHeight="1" spans="1:5">
@@ -2149,7 +2077,7 @@
         <v>3</v>
       </c>
       <c r="E36" s="3">
-        <v>45349.6638888889</v>
+        <v>45350.09375</v>
       </c>
     </row>
     <row r="37" ht="44.55" customHeight="1" spans="1:5">
@@ -2166,7 +2094,7 @@
         <v>3</v>
       </c>
       <c r="E37" s="3">
-        <v>45349.7118055556</v>
+        <v>45350.2944444444</v>
       </c>
     </row>
     <row r="38" ht="44.55" customHeight="1" spans="1:5">
@@ -2183,7 +2111,7 @@
         <v>3</v>
       </c>
       <c r="E38" s="3">
-        <v>45349.7486111111</v>
+        <v>45350.64375</v>
       </c>
     </row>
     <row r="39" ht="44.55" customHeight="1" spans="1:5">
@@ -2200,7 +2128,7 @@
         <v>3</v>
       </c>
       <c r="E39" s="3">
-        <v>45349.8520833333</v>
+        <v>45350.7270833333</v>
       </c>
     </row>
     <row r="40" ht="44.55" customHeight="1" spans="1:5">
@@ -2217,7 +2145,7 @@
         <v>3</v>
       </c>
       <c r="E40" s="3">
-        <v>45349.9270833333</v>
+        <v>45350.8736111111</v>
       </c>
     </row>
     <row r="41" ht="44.55" customHeight="1" spans="1:5">
@@ -2234,7 +2162,7 @@
         <v>3</v>
       </c>
       <c r="E41" s="3">
-        <v>45350.0111111111</v>
+        <v>45350.9097222222</v>
       </c>
     </row>
     <row r="42" ht="44.55" customHeight="1" spans="1:5">
@@ -2251,7 +2179,7 @@
         <v>3</v>
       </c>
       <c r="E42" s="3">
-        <v>45350.09375</v>
+        <v>45350.9701388889</v>
       </c>
     </row>
     <row r="43" ht="44.55" customHeight="1" spans="1:5">
@@ -2268,7 +2196,7 @@
         <v>3</v>
       </c>
       <c r="E43" s="3">
-        <v>45350.2944444444</v>
+        <v>45351.0229166667</v>
       </c>
     </row>
     <row r="44" ht="44.55" customHeight="1" spans="1:5">
@@ -2285,7 +2213,7 @@
         <v>3</v>
       </c>
       <c r="E44" s="3">
-        <v>45350.64375</v>
+        <v>45351.0986111111</v>
       </c>
     </row>
     <row r="45" ht="44.55" customHeight="1" spans="1:5">
@@ -2302,7 +2230,7 @@
         <v>3</v>
       </c>
       <c r="E45" s="3">
-        <v>45350.7270833333</v>
+        <v>45351.5527777778</v>
       </c>
     </row>
     <row r="46" ht="44.55" customHeight="1" spans="1:5">
@@ -2319,7 +2247,7 @@
         <v>3</v>
       </c>
       <c r="E46" s="3">
-        <v>45350.8736111111</v>
+        <v>45351.6131944444</v>
       </c>
     </row>
     <row r="47" ht="44.55" customHeight="1" spans="1:5">
@@ -2336,245 +2264,41 @@
         <v>3</v>
       </c>
       <c r="E47" s="3">
-        <v>45350.9097222222</v>
+        <v>45351.6604166667</v>
       </c>
     </row>
     <row r="48" ht="44.55" customHeight="1" spans="1:5">
       <c r="A48" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B48" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C48" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D48" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E48" s="2" t="s">
         <v>142</v>
-      </c>
-      <c r="B48" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="C48" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="D48" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E48" s="3">
-        <v>45350.9701388889</v>
       </c>
     </row>
     <row r="49" ht="44.55" customHeight="1" spans="1:5">
       <c r="A49" s="1" t="s">
-        <v>145</v>
+        <v>4</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>146</v>
+        <v>5</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>147</v>
+        <v>6</v>
       </c>
       <c r="D49" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E49" s="3">
-        <v>45351.0229166667</v>
-      </c>
-    </row>
-    <row r="50" ht="44.55" customHeight="1" spans="1:5">
-      <c r="A50" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="B50" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="C50" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="D50" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E50" s="3">
-        <v>45351.0986111111</v>
-      </c>
-    </row>
-    <row r="51" ht="44.55" customHeight="1" spans="1:5">
-      <c r="A51" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="B51" s="2" t="s">
-        <v>152</v>
-      </c>
-      <c r="C51" s="2" t="s">
-        <v>153</v>
-      </c>
-      <c r="D51" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E51" s="3">
-        <v>45351.5527777778</v>
-      </c>
-    </row>
-    <row r="52" ht="44.55" customHeight="1" spans="1:5">
-      <c r="A52" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="B52" s="2" t="s">
-        <v>155</v>
-      </c>
-      <c r="C52" s="2" t="s">
-        <v>156</v>
-      </c>
-      <c r="D52" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E52" s="3">
-        <v>45351.6131944444</v>
-      </c>
-    </row>
-    <row r="53" ht="44.55" customHeight="1" spans="1:5">
-      <c r="A53" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="B53" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="C53" s="2" t="s">
-        <v>159</v>
-      </c>
-      <c r="D53" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E53" s="3">
-        <v>45351.6604166667</v>
-      </c>
-    </row>
-    <row r="54" ht="44.55" customHeight="1" spans="1:5">
-      <c r="A54" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B54" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C54" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D54" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E54" s="2" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="55" ht="44.55" customHeight="1" spans="1:5">
-      <c r="A55" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B55" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C55" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D55" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E55" s="2" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="56" ht="44.55" customHeight="1" spans="1:5">
-      <c r="A56" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B56" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C56" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D56" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E56" s="2" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="57" ht="44.55" customHeight="1" spans="1:5">
-      <c r="A57" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B57" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C57" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D57" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E57" s="2" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="58" ht="44.55" customHeight="1" spans="1:5">
-      <c r="A58" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B58" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C58" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D58" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E58" s="2" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="59" ht="44.55" customHeight="1" spans="1:5">
-      <c r="A59" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B59" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C59" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D59" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E59" s="2" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="60" ht="44.55" customHeight="1" spans="1:5">
-      <c r="A60" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B60" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C60" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="D60" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E60" s="2" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="61" ht="44.55" customHeight="1" spans="1:5">
-      <c r="A61" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B61" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C61" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="D61" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E61" s="2" t="s">
-        <v>167</v>
+      <c r="E49" s="2" t="s">
+        <v>143</v>
       </c>
     </row>
   </sheetData>

--- a/.ready/最新发布资源-维格视图.xlsx
+++ b/.ready/最新发布资源-维格视图.xlsx
@@ -17,74 +17,20 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="144">
-  <si>
-    <t>【尚硅谷】鸿蒙应用开发 - 带源码课件</t>
-  </si>
-  <si>
-    <t>https://www.alipan.com/s/f3fRYQwDnaG</t>
-  </si>
-  <si>
-    <t>https://pan.quark.cn/s/506a2573540a</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="124">
+  <si>
+    <t>【爱学堂】数学 1~6年级全套视频</t>
+  </si>
+  <si>
+    <t>https://www.alipan.com/s/kkyMqiQ8Hok</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/cfc21cd0895d</t>
   </si>
   <si>
     <t>学术</t>
   </si>
   <si>
-    <t>Go+Vue通用后台管理项目实战 - 带源码课件</t>
-  </si>
-  <si>
-    <t>https://www.alipan.com/s/AnU5TQnTRyk</t>
-  </si>
-  <si>
-    <t>https://pan.quark.cn/s/90762ab029d3</t>
-  </si>
-  <si>
-    <t>极客时间 - Linux 实战技能 100 讲</t>
-  </si>
-  <si>
-    <t>https://www.alipan.com/s/Cr6vqh2QmQg</t>
-  </si>
-  <si>
-    <t>https://pan.quark.cn/s/34743da8b7d0</t>
-  </si>
-  <si>
-    <t>极客时间- Go 语言从入门到实战</t>
-  </si>
-  <si>
-    <t>https://www.alipan.com/s/YDGijuSitMF</t>
-  </si>
-  <si>
-    <t>https://pan.quark.cn/s/18180dd168d6</t>
-  </si>
-  <si>
-    <t>【站酷学习】教你拍好女朋友——基础人像外拍实战</t>
-  </si>
-  <si>
-    <t>https://www.alipan.com/s/ACy8i4MQwC2</t>
-  </si>
-  <si>
-    <t>https://pan.quark.cn/s/853bc3ede4a1</t>
-  </si>
-  <si>
-    <t>极客时间 - Vue 开发实战</t>
-  </si>
-  <si>
-    <t>https://www.alipan.com/s/EoSrtf3a8CS</t>
-  </si>
-  <si>
-    <t>https://pan.quark.cn/s/deed6b2e577d</t>
-  </si>
-  <si>
-    <t>【爱学堂】数学 1~6年级全套视频</t>
-  </si>
-  <si>
-    <t>https://www.alipan.com/s/kkyMqiQ8Hok</t>
-  </si>
-  <si>
-    <t>https://pan.quark.cn/s/cfc21cd0895d</t>
-  </si>
-  <si>
     <t>极客时间 - MongoDB 高手课</t>
   </si>
   <si>
@@ -443,12 +389,6 @@
   </si>
   <si>
     <t>https://pan.quark.cn/s/66cf0c19a890</t>
-  </si>
-  <si>
-    <t>2024/02/23 04:59</t>
-  </si>
-  <si>
-    <t>2024/02/23 12:35</t>
   </si>
 </sst>
 </file>
@@ -1456,7 +1396,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E49"/>
+  <dimension ref="A1:E41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C3" sqref="C3"/>
@@ -1482,7 +1422,7 @@
         <v>3</v>
       </c>
       <c r="E1" s="3">
-        <v>45345.2076388889</v>
+        <v>45346.5666666667</v>
       </c>
     </row>
     <row r="2" ht="44.55" customHeight="1" spans="1:5">
@@ -1499,7 +1439,7 @@
         <v>3</v>
       </c>
       <c r="E2" s="3">
-        <v>45345.5243055556</v>
+        <v>45346.60625</v>
       </c>
     </row>
     <row r="3" ht="44.55" customHeight="1" spans="1:5">
@@ -1516,7 +1456,7 @@
         <v>3</v>
       </c>
       <c r="E3" s="3">
-        <v>45345.575</v>
+        <v>45346.7145833333</v>
       </c>
     </row>
     <row r="4" ht="44.55" customHeight="1" spans="1:5">
@@ -1533,7 +1473,7 @@
         <v>3</v>
       </c>
       <c r="E4" s="3">
-        <v>45345.8118055556</v>
+        <v>45346.7465277778</v>
       </c>
     </row>
     <row r="5" ht="44.55" customHeight="1" spans="1:5">
@@ -1550,7 +1490,7 @@
         <v>3</v>
       </c>
       <c r="E5" s="3">
-        <v>45345.9027777778</v>
+        <v>45346.8541666667</v>
       </c>
     </row>
     <row r="6" ht="44.55" customHeight="1" spans="1:5">
@@ -1567,7 +1507,7 @@
         <v>3</v>
       </c>
       <c r="E6" s="3">
-        <v>45346.5104166667</v>
+        <v>45346.9020833333</v>
       </c>
     </row>
     <row r="7" ht="44.55" customHeight="1" spans="1:5">
@@ -1584,7 +1524,7 @@
         <v>3</v>
       </c>
       <c r="E7" s="3">
-        <v>45346.5666666667</v>
+        <v>45347.0402777778</v>
       </c>
     </row>
     <row r="8" ht="44.55" customHeight="1" spans="1:5">
@@ -1601,7 +1541,7 @@
         <v>3</v>
       </c>
       <c r="E8" s="3">
-        <v>45346.60625</v>
+        <v>45347.1604166667</v>
       </c>
     </row>
     <row r="9" ht="44.55" customHeight="1" spans="1:5">
@@ -1618,7 +1558,7 @@
         <v>3</v>
       </c>
       <c r="E9" s="3">
-        <v>45346.7145833333</v>
+        <v>45347.66875</v>
       </c>
     </row>
     <row r="10" ht="44.55" customHeight="1" spans="1:5">
@@ -1635,7 +1575,7 @@
         <v>3</v>
       </c>
       <c r="E10" s="3">
-        <v>45346.7465277778</v>
+        <v>45347.7326388889</v>
       </c>
     </row>
     <row r="11" ht="44.55" customHeight="1" spans="1:5">
@@ -1652,7 +1592,7 @@
         <v>3</v>
       </c>
       <c r="E11" s="3">
-        <v>45346.8541666667</v>
+        <v>45347.8513888889</v>
       </c>
     </row>
     <row r="12" ht="44.55" customHeight="1" spans="1:5">
@@ -1669,7 +1609,7 @@
         <v>3</v>
       </c>
       <c r="E12" s="3">
-        <v>45346.9020833333</v>
+        <v>45347.9763888889</v>
       </c>
     </row>
     <row r="13" ht="44.55" customHeight="1" spans="1:5">
@@ -1686,7 +1626,7 @@
         <v>3</v>
       </c>
       <c r="E13" s="3">
-        <v>45347.0402777778</v>
+        <v>45348.6569444444</v>
       </c>
     </row>
     <row r="14" ht="44.55" customHeight="1" spans="1:5">
@@ -1703,7 +1643,7 @@
         <v>3</v>
       </c>
       <c r="E14" s="3">
-        <v>45347.1604166667</v>
+        <v>45348.6979166667</v>
       </c>
     </row>
     <row r="15" ht="44.55" customHeight="1" spans="1:5">
@@ -1720,7 +1660,7 @@
         <v>3</v>
       </c>
       <c r="E15" s="3">
-        <v>45347.66875</v>
+        <v>45348.7361111111</v>
       </c>
     </row>
     <row r="16" ht="44.55" customHeight="1" spans="1:5">
@@ -1737,7 +1677,7 @@
         <v>3</v>
       </c>
       <c r="E16" s="3">
-        <v>45347.7326388889</v>
+        <v>45348.8020833333</v>
       </c>
     </row>
     <row r="17" ht="44.55" customHeight="1" spans="1:5">
@@ -1754,7 +1694,7 @@
         <v>3</v>
       </c>
       <c r="E17" s="3">
-        <v>45347.8513888889</v>
+        <v>45348.8368055556</v>
       </c>
     </row>
     <row r="18" ht="44.55" customHeight="1" spans="1:5">
@@ -1771,7 +1711,7 @@
         <v>3</v>
       </c>
       <c r="E18" s="3">
-        <v>45347.9763888889</v>
+        <v>45348.8694444444</v>
       </c>
     </row>
     <row r="19" ht="44.55" customHeight="1" spans="1:5">
@@ -1788,7 +1728,7 @@
         <v>3</v>
       </c>
       <c r="E19" s="3">
-        <v>45348.6569444444</v>
+        <v>45348.9208333333</v>
       </c>
     </row>
     <row r="20" ht="44.55" customHeight="1" spans="1:5">
@@ -1805,7 +1745,7 @@
         <v>3</v>
       </c>
       <c r="E20" s="3">
-        <v>45348.6979166667</v>
+        <v>45348.9791666667</v>
       </c>
     </row>
     <row r="21" ht="44.55" customHeight="1" spans="1:5">
@@ -1822,7 +1762,7 @@
         <v>3</v>
       </c>
       <c r="E21" s="3">
-        <v>45348.7361111111</v>
+        <v>45349.1326388889</v>
       </c>
     </row>
     <row r="22" ht="44.55" customHeight="1" spans="1:5">
@@ -1839,7 +1779,7 @@
         <v>3</v>
       </c>
       <c r="E22" s="3">
-        <v>45348.8020833333</v>
+        <v>45349.5263888889</v>
       </c>
     </row>
     <row r="23" ht="44.55" customHeight="1" spans="1:5">
@@ -1856,7 +1796,7 @@
         <v>3</v>
       </c>
       <c r="E23" s="3">
-        <v>45348.8368055556</v>
+        <v>45349.5534722222</v>
       </c>
     </row>
     <row r="24" ht="44.55" customHeight="1" spans="1:5">
@@ -1873,7 +1813,7 @@
         <v>3</v>
       </c>
       <c r="E24" s="3">
-        <v>45348.8694444444</v>
+        <v>45349.6638888889</v>
       </c>
     </row>
     <row r="25" ht="44.55" customHeight="1" spans="1:5">
@@ -1890,7 +1830,7 @@
         <v>3</v>
       </c>
       <c r="E25" s="3">
-        <v>45348.9208333333</v>
+        <v>45349.7118055556</v>
       </c>
     </row>
     <row r="26" ht="44.55" customHeight="1" spans="1:5">
@@ -1907,7 +1847,7 @@
         <v>3</v>
       </c>
       <c r="E26" s="3">
-        <v>45348.9791666667</v>
+        <v>45349.7486111111</v>
       </c>
     </row>
     <row r="27" ht="44.55" customHeight="1" spans="1:5">
@@ -1924,7 +1864,7 @@
         <v>3</v>
       </c>
       <c r="E27" s="3">
-        <v>45349.1326388889</v>
+        <v>45349.8520833333</v>
       </c>
     </row>
     <row r="28" ht="44.55" customHeight="1" spans="1:5">
@@ -1941,7 +1881,7 @@
         <v>3</v>
       </c>
       <c r="E28" s="3">
-        <v>45349.5263888889</v>
+        <v>45349.9270833333</v>
       </c>
     </row>
     <row r="29" ht="44.55" customHeight="1" spans="1:5">
@@ -1958,7 +1898,7 @@
         <v>3</v>
       </c>
       <c r="E29" s="3">
-        <v>45349.5534722222</v>
+        <v>45350.0111111111</v>
       </c>
     </row>
     <row r="30" ht="44.55" customHeight="1" spans="1:5">
@@ -1975,7 +1915,7 @@
         <v>3</v>
       </c>
       <c r="E30" s="3">
-        <v>45349.6638888889</v>
+        <v>45350.09375</v>
       </c>
     </row>
     <row r="31" ht="44.55" customHeight="1" spans="1:5">
@@ -1992,7 +1932,7 @@
         <v>3</v>
       </c>
       <c r="E31" s="3">
-        <v>45349.7118055556</v>
+        <v>45350.2944444444</v>
       </c>
     </row>
     <row r="32" ht="44.55" customHeight="1" spans="1:5">
@@ -2009,7 +1949,7 @@
         <v>3</v>
       </c>
       <c r="E32" s="3">
-        <v>45349.7486111111</v>
+        <v>45350.64375</v>
       </c>
     </row>
     <row r="33" ht="44.55" customHeight="1" spans="1:5">
@@ -2026,7 +1966,7 @@
         <v>3</v>
       </c>
       <c r="E33" s="3">
-        <v>45349.8520833333</v>
+        <v>45350.7270833333</v>
       </c>
     </row>
     <row r="34" ht="44.55" customHeight="1" spans="1:5">
@@ -2043,7 +1983,7 @@
         <v>3</v>
       </c>
       <c r="E34" s="3">
-        <v>45349.9270833333</v>
+        <v>45350.8736111111</v>
       </c>
     </row>
     <row r="35" ht="44.55" customHeight="1" spans="1:5">
@@ -2060,7 +2000,7 @@
         <v>3</v>
       </c>
       <c r="E35" s="3">
-        <v>45350.0111111111</v>
+        <v>45350.9097222222</v>
       </c>
     </row>
     <row r="36" ht="44.55" customHeight="1" spans="1:5">
@@ -2077,7 +2017,7 @@
         <v>3</v>
       </c>
       <c r="E36" s="3">
-        <v>45350.09375</v>
+        <v>45350.9701388889</v>
       </c>
     </row>
     <row r="37" ht="44.55" customHeight="1" spans="1:5">
@@ -2094,7 +2034,7 @@
         <v>3</v>
       </c>
       <c r="E37" s="3">
-        <v>45350.2944444444</v>
+        <v>45351.0229166667</v>
       </c>
     </row>
     <row r="38" ht="44.55" customHeight="1" spans="1:5">
@@ -2111,7 +2051,7 @@
         <v>3</v>
       </c>
       <c r="E38" s="3">
-        <v>45350.64375</v>
+        <v>45351.0986111111</v>
       </c>
     </row>
     <row r="39" ht="44.55" customHeight="1" spans="1:5">
@@ -2128,7 +2068,7 @@
         <v>3</v>
       </c>
       <c r="E39" s="3">
-        <v>45350.7270833333</v>
+        <v>45351.5527777778</v>
       </c>
     </row>
     <row r="40" ht="44.55" customHeight="1" spans="1:5">
@@ -2145,7 +2085,7 @@
         <v>3</v>
       </c>
       <c r="E40" s="3">
-        <v>45350.8736111111</v>
+        <v>45351.6131944444</v>
       </c>
     </row>
     <row r="41" ht="44.55" customHeight="1" spans="1:5">
@@ -2162,143 +2102,7 @@
         <v>3</v>
       </c>
       <c r="E41" s="3">
-        <v>45350.9097222222</v>
-      </c>
-    </row>
-    <row r="42" ht="44.55" customHeight="1" spans="1:5">
-      <c r="A42" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="B42" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="C42" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="D42" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E42" s="3">
-        <v>45350.9701388889</v>
-      </c>
-    </row>
-    <row r="43" ht="44.55" customHeight="1" spans="1:5">
-      <c r="A43" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="B43" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="C43" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="D43" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E43" s="3">
-        <v>45351.0229166667</v>
-      </c>
-    </row>
-    <row r="44" ht="44.55" customHeight="1" spans="1:5">
-      <c r="A44" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="B44" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="C44" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="D44" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E44" s="3">
-        <v>45351.0986111111</v>
-      </c>
-    </row>
-    <row r="45" ht="44.55" customHeight="1" spans="1:5">
-      <c r="A45" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="B45" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="C45" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="D45" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E45" s="3">
-        <v>45351.5527777778</v>
-      </c>
-    </row>
-    <row r="46" ht="44.55" customHeight="1" spans="1:5">
-      <c r="A46" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="B46" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="C46" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="D46" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E46" s="3">
-        <v>45351.6131944444</v>
-      </c>
-    </row>
-    <row r="47" ht="44.55" customHeight="1" spans="1:5">
-      <c r="A47" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="B47" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="C47" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="D47" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E47" s="3">
         <v>45351.6604166667</v>
-      </c>
-    </row>
-    <row r="48" ht="44.55" customHeight="1" spans="1:5">
-      <c r="A48" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B48" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C48" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D48" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E48" s="2" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="49" ht="44.55" customHeight="1" spans="1:5">
-      <c r="A49" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B49" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C49" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D49" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E49" s="2" t="s">
-        <v>143</v>
       </c>
     </row>
   </sheetData>

--- a/.ready/最新发布资源-维格视图.xlsx
+++ b/.ready/最新发布资源-维格视图.xlsx
@@ -17,36 +17,18 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="124">
-  <si>
-    <t>【爱学堂】数学 1~6年级全套视频</t>
-  </si>
-  <si>
-    <t>https://www.alipan.com/s/kkyMqiQ8Hok</t>
-  </si>
-  <si>
-    <t>https://pan.quark.cn/s/cfc21cd0895d</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="118">
+  <si>
+    <t>极客时间 - Nginx 核心知识 150 讲</t>
+  </si>
+  <si>
+    <t>https://www.alipan.com/s/pT64ptRKngu</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/7e3252a76f16</t>
   </si>
   <si>
     <t>学术</t>
-  </si>
-  <si>
-    <t>极客时间 - MongoDB 高手课</t>
-  </si>
-  <si>
-    <t>https://www.alipan.com/s/XQJUWK8wV4M</t>
-  </si>
-  <si>
-    <t>https://pan.quark.cn/s/8b5ac5caa61c</t>
-  </si>
-  <si>
-    <t>极客时间 - Nginx 核心知识 150 讲</t>
-  </si>
-  <si>
-    <t>https://www.alipan.com/s/pT64ptRKngu</t>
-  </si>
-  <si>
-    <t>https://pan.quark.cn/s/7e3252a76f16</t>
   </si>
   <si>
     <t>B站 - 局座的国际战略课</t>
@@ -1396,10 +1378,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E41"/>
+  <dimension ref="A1:E39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="38.6666666666667" defaultRowHeight="14.4" outlineLevelCol="4"/>
@@ -1422,7 +1404,7 @@
         <v>3</v>
       </c>
       <c r="E1" s="3">
-        <v>45346.5666666667</v>
+        <v>45346.7145833333</v>
       </c>
     </row>
     <row r="2" ht="44.55" customHeight="1" spans="1:5">
@@ -1439,7 +1421,7 @@
         <v>3</v>
       </c>
       <c r="E2" s="3">
-        <v>45346.60625</v>
+        <v>45346.7465277778</v>
       </c>
     </row>
     <row r="3" ht="44.55" customHeight="1" spans="1:5">
@@ -1456,7 +1438,7 @@
         <v>3</v>
       </c>
       <c r="E3" s="3">
-        <v>45346.7145833333</v>
+        <v>45346.8541666667</v>
       </c>
     </row>
     <row r="4" ht="44.55" customHeight="1" spans="1:5">
@@ -1473,7 +1455,7 @@
         <v>3</v>
       </c>
       <c r="E4" s="3">
-        <v>45346.7465277778</v>
+        <v>45346.9020833333</v>
       </c>
     </row>
     <row r="5" ht="44.55" customHeight="1" spans="1:5">
@@ -1490,7 +1472,7 @@
         <v>3</v>
       </c>
       <c r="E5" s="3">
-        <v>45346.8541666667</v>
+        <v>45347.0402777778</v>
       </c>
     </row>
     <row r="6" ht="44.55" customHeight="1" spans="1:5">
@@ -1507,7 +1489,7 @@
         <v>3</v>
       </c>
       <c r="E6" s="3">
-        <v>45346.9020833333</v>
+        <v>45347.1604166667</v>
       </c>
     </row>
     <row r="7" ht="44.55" customHeight="1" spans="1:5">
@@ -1524,7 +1506,7 @@
         <v>3</v>
       </c>
       <c r="E7" s="3">
-        <v>45347.0402777778</v>
+        <v>45347.66875</v>
       </c>
     </row>
     <row r="8" ht="44.55" customHeight="1" spans="1:5">
@@ -1541,7 +1523,7 @@
         <v>3</v>
       </c>
       <c r="E8" s="3">
-        <v>45347.1604166667</v>
+        <v>45347.7326388889</v>
       </c>
     </row>
     <row r="9" ht="44.55" customHeight="1" spans="1:5">
@@ -1558,7 +1540,7 @@
         <v>3</v>
       </c>
       <c r="E9" s="3">
-        <v>45347.66875</v>
+        <v>45347.8513888889</v>
       </c>
     </row>
     <row r="10" ht="44.55" customHeight="1" spans="1:5">
@@ -1575,7 +1557,7 @@
         <v>3</v>
       </c>
       <c r="E10" s="3">
-        <v>45347.7326388889</v>
+        <v>45347.9763888889</v>
       </c>
     </row>
     <row r="11" ht="44.55" customHeight="1" spans="1:5">
@@ -1592,7 +1574,7 @@
         <v>3</v>
       </c>
       <c r="E11" s="3">
-        <v>45347.8513888889</v>
+        <v>45348.6569444444</v>
       </c>
     </row>
     <row r="12" ht="44.55" customHeight="1" spans="1:5">
@@ -1609,7 +1591,7 @@
         <v>3</v>
       </c>
       <c r="E12" s="3">
-        <v>45347.9763888889</v>
+        <v>45348.6979166667</v>
       </c>
     </row>
     <row r="13" ht="44.55" customHeight="1" spans="1:5">
@@ -1626,7 +1608,7 @@
         <v>3</v>
       </c>
       <c r="E13" s="3">
-        <v>45348.6569444444</v>
+        <v>45348.7361111111</v>
       </c>
     </row>
     <row r="14" ht="44.55" customHeight="1" spans="1:5">
@@ -1643,7 +1625,7 @@
         <v>3</v>
       </c>
       <c r="E14" s="3">
-        <v>45348.6979166667</v>
+        <v>45348.8020833333</v>
       </c>
     </row>
     <row r="15" ht="44.55" customHeight="1" spans="1:5">
@@ -1660,7 +1642,7 @@
         <v>3</v>
       </c>
       <c r="E15" s="3">
-        <v>45348.7361111111</v>
+        <v>45348.8368055556</v>
       </c>
     </row>
     <row r="16" ht="44.55" customHeight="1" spans="1:5">
@@ -1677,7 +1659,7 @@
         <v>3</v>
       </c>
       <c r="E16" s="3">
-        <v>45348.8020833333</v>
+        <v>45348.8694444444</v>
       </c>
     </row>
     <row r="17" ht="44.55" customHeight="1" spans="1:5">
@@ -1694,7 +1676,7 @@
         <v>3</v>
       </c>
       <c r="E17" s="3">
-        <v>45348.8368055556</v>
+        <v>45348.9208333333</v>
       </c>
     </row>
     <row r="18" ht="44.55" customHeight="1" spans="1:5">
@@ -1711,7 +1693,7 @@
         <v>3</v>
       </c>
       <c r="E18" s="3">
-        <v>45348.8694444444</v>
+        <v>45348.9791666667</v>
       </c>
     </row>
     <row r="19" ht="44.55" customHeight="1" spans="1:5">
@@ -1728,7 +1710,7 @@
         <v>3</v>
       </c>
       <c r="E19" s="3">
-        <v>45348.9208333333</v>
+        <v>45349.1326388889</v>
       </c>
     </row>
     <row r="20" ht="44.55" customHeight="1" spans="1:5">
@@ -1745,7 +1727,7 @@
         <v>3</v>
       </c>
       <c r="E20" s="3">
-        <v>45348.9791666667</v>
+        <v>45349.5263888889</v>
       </c>
     </row>
     <row r="21" ht="44.55" customHeight="1" spans="1:5">
@@ -1762,7 +1744,7 @@
         <v>3</v>
       </c>
       <c r="E21" s="3">
-        <v>45349.1326388889</v>
+        <v>45349.5534722222</v>
       </c>
     </row>
     <row r="22" ht="44.55" customHeight="1" spans="1:5">
@@ -1779,7 +1761,7 @@
         <v>3</v>
       </c>
       <c r="E22" s="3">
-        <v>45349.5263888889</v>
+        <v>45349.6638888889</v>
       </c>
     </row>
     <row r="23" ht="44.55" customHeight="1" spans="1:5">
@@ -1796,7 +1778,7 @@
         <v>3</v>
       </c>
       <c r="E23" s="3">
-        <v>45349.5534722222</v>
+        <v>45349.7118055556</v>
       </c>
     </row>
     <row r="24" ht="44.55" customHeight="1" spans="1:5">
@@ -1813,7 +1795,7 @@
         <v>3</v>
       </c>
       <c r="E24" s="3">
-        <v>45349.6638888889</v>
+        <v>45349.7486111111</v>
       </c>
     </row>
     <row r="25" ht="44.55" customHeight="1" spans="1:5">
@@ -1830,7 +1812,7 @@
         <v>3</v>
       </c>
       <c r="E25" s="3">
-        <v>45349.7118055556</v>
+        <v>45349.8520833333</v>
       </c>
     </row>
     <row r="26" ht="44.55" customHeight="1" spans="1:5">
@@ -1847,7 +1829,7 @@
         <v>3</v>
       </c>
       <c r="E26" s="3">
-        <v>45349.7486111111</v>
+        <v>45349.9270833333</v>
       </c>
     </row>
     <row r="27" ht="44.55" customHeight="1" spans="1:5">
@@ -1864,7 +1846,7 @@
         <v>3</v>
       </c>
       <c r="E27" s="3">
-        <v>45349.8520833333</v>
+        <v>45350.0111111111</v>
       </c>
     </row>
     <row r="28" ht="44.55" customHeight="1" spans="1:5">
@@ -1881,7 +1863,7 @@
         <v>3</v>
       </c>
       <c r="E28" s="3">
-        <v>45349.9270833333</v>
+        <v>45350.09375</v>
       </c>
     </row>
     <row r="29" ht="44.55" customHeight="1" spans="1:5">
@@ -1898,7 +1880,7 @@
         <v>3</v>
       </c>
       <c r="E29" s="3">
-        <v>45350.0111111111</v>
+        <v>45350.2944444444</v>
       </c>
     </row>
     <row r="30" ht="44.55" customHeight="1" spans="1:5">
@@ -1915,7 +1897,7 @@
         <v>3</v>
       </c>
       <c r="E30" s="3">
-        <v>45350.09375</v>
+        <v>45350.64375</v>
       </c>
     </row>
     <row r="31" ht="44.55" customHeight="1" spans="1:5">
@@ -1932,7 +1914,7 @@
         <v>3</v>
       </c>
       <c r="E31" s="3">
-        <v>45350.2944444444</v>
+        <v>45350.7270833333</v>
       </c>
     </row>
     <row r="32" ht="44.55" customHeight="1" spans="1:5">
@@ -1949,7 +1931,7 @@
         <v>3</v>
       </c>
       <c r="E32" s="3">
-        <v>45350.64375</v>
+        <v>45350.8736111111</v>
       </c>
     </row>
     <row r="33" ht="44.55" customHeight="1" spans="1:5">
@@ -1966,7 +1948,7 @@
         <v>3</v>
       </c>
       <c r="E33" s="3">
-        <v>45350.7270833333</v>
+        <v>45350.9097222222</v>
       </c>
     </row>
     <row r="34" ht="44.55" customHeight="1" spans="1:5">
@@ -1983,7 +1965,7 @@
         <v>3</v>
       </c>
       <c r="E34" s="3">
-        <v>45350.8736111111</v>
+        <v>45350.9701388889</v>
       </c>
     </row>
     <row r="35" ht="44.55" customHeight="1" spans="1:5">
@@ -2000,7 +1982,7 @@
         <v>3</v>
       </c>
       <c r="E35" s="3">
-        <v>45350.9097222222</v>
+        <v>45351.0229166667</v>
       </c>
     </row>
     <row r="36" ht="44.55" customHeight="1" spans="1:5">
@@ -2017,7 +1999,7 @@
         <v>3</v>
       </c>
       <c r="E36" s="3">
-        <v>45350.9701388889</v>
+        <v>45351.0986111111</v>
       </c>
     </row>
     <row r="37" ht="44.55" customHeight="1" spans="1:5">
@@ -2034,7 +2016,7 @@
         <v>3</v>
       </c>
       <c r="E37" s="3">
-        <v>45351.0229166667</v>
+        <v>45351.5527777778</v>
       </c>
     </row>
     <row r="38" ht="44.55" customHeight="1" spans="1:5">
@@ -2051,7 +2033,7 @@
         <v>3</v>
       </c>
       <c r="E38" s="3">
-        <v>45351.0986111111</v>
+        <v>45351.6131944444</v>
       </c>
     </row>
     <row r="39" ht="44.55" customHeight="1" spans="1:5">
@@ -2068,40 +2050,6 @@
         <v>3</v>
       </c>
       <c r="E39" s="3">
-        <v>45351.5527777778</v>
-      </c>
-    </row>
-    <row r="40" ht="44.55" customHeight="1" spans="1:5">
-      <c r="A40" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="B40" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="C40" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="D40" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E40" s="3">
-        <v>45351.6131944444</v>
-      </c>
-    </row>
-    <row r="41" ht="44.55" customHeight="1" spans="1:5">
-      <c r="A41" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="B41" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="C41" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="D41" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E41" s="3">
         <v>45351.6604166667</v>
       </c>
     </row>

--- a/.ready/最新发布资源-维格视图.xlsx
+++ b/.ready/最新发布资源-维格视图.xlsx
@@ -1,34 +1,1769 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27328"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Project\memo\.ready\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62676491-C89B-4A4D-A838-53978601E24C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="19095" windowHeight="12075" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="23040" windowHeight="9300"/>
   </bookViews>
   <sheets>
     <sheet name="维格视图" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">维格视图!$E:$E</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">维格视图!$A$1:$E$144</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="720" uniqueCount="578">
+  <si>
+    <t>标题</t>
+  </si>
+  <si>
+    <t>阿里云盘</t>
+  </si>
+  <si>
+    <t>夸克网盘</t>
+  </si>
+  <si>
+    <t>类目</t>
+  </si>
+  <si>
+    <t>修改时间</t>
+  </si>
+  <si>
+    <t>[2023]kubernetes k8s+DevOps云原生全栈技术基于世界1000强实战课程 - 带源码课件</t>
+  </si>
+  <si>
+    <t>https://www.alipan.com/s/UJgjcwVwo8Y</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/4de4d4006f16</t>
+  </si>
+  <si>
+    <t>学术</t>
+  </si>
+  <si>
+    <t>2024/03/31 17:18</t>
+  </si>
+  <si>
+    <t>【黑马程序员】软件测试 V5.0 - 带源码课件</t>
+  </si>
+  <si>
+    <t>https://www.alipan.com/s/jnt6ZjZrQ2h</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/a7b326721357</t>
+  </si>
+  <si>
+    <t>2024/03/30 21:58</t>
+  </si>
+  <si>
+    <t>【贪心科技】推荐系统训练营-推荐系统工程师 - 带源码课件</t>
+  </si>
+  <si>
+    <t>https://www.alipan.com/s/uYovrdZW8KK</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/d868d29a6e77</t>
+  </si>
+  <si>
+    <t>2024/03/30 13:28</t>
+  </si>
+  <si>
+    <t>计算机视觉-Opencv项目实战(Python版) - 带源码课件</t>
+  </si>
+  <si>
+    <t>https://www.alipan.com/s/E87KCGvqFJL</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/a7b1a1f9ede4</t>
+  </si>
+  <si>
+    <t>2024/03/30 10:57</t>
+  </si>
+  <si>
+    <t>108将淘系爆款陪跑营【第九期】</t>
+  </si>
+  <si>
+    <t>https://www.alipan.com/s/8HCFZ2xfj3U</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/2844c3a65170</t>
+  </si>
+  <si>
+    <t>2024/03/30 03:26</t>
+  </si>
+  <si>
+    <t>【开课吧】完成你的第一个智能机器人 002期 - 带源码课件</t>
+  </si>
+  <si>
+    <t>https://www.alipan.com/s/9sbZNXaPZVL</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/2f2f8c0acf34</t>
+  </si>
+  <si>
+    <t>2024/03/29 17:25</t>
+  </si>
+  <si>
+    <t>【后盾人】系统课程 - Laravel+vue3系统平台</t>
+  </si>
+  <si>
+    <t>https://www.alipan.com/s/UoYi1mAksJh</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/48c968ec4395</t>
+  </si>
+  <si>
+    <t>2024/03/29 14:55</t>
+  </si>
+  <si>
+    <t>【橙啦】宝爷万词班 22000词汇速记营</t>
+  </si>
+  <si>
+    <t>https://www.alipan.com/s/vjrDFHYR71o</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/3897f7689265</t>
+  </si>
+  <si>
+    <t>2024/03/29 12:42</t>
+  </si>
+  <si>
+    <t>【黄家私塾】黄先生的职场独家秘笈·求职篇</t>
+  </si>
+  <si>
+    <t>https://www.alipan.com/s/Vh1QKXvTbCU</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/b9e1c1a72865</t>
+  </si>
+  <si>
+    <t>2024/03/29 02:57</t>
+  </si>
+  <si>
+    <t>【贪心科技】京东数据分析训练营</t>
+  </si>
+  <si>
+    <t>https://www.alipan.com/s/j9p6B58q8jc</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/1107f2b6f0c7</t>
+  </si>
+  <si>
+    <t>2024/03/28 22:26</t>
+  </si>
+  <si>
+    <t>Java从0到架构师①②③④合辑 - 带源码课件</t>
+  </si>
+  <si>
+    <t>https://www.alipan.com/s/v14hHjPcgEW</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/a06fc4fa77fb</t>
+  </si>
+  <si>
+    <t>2024/03/28 14:14</t>
+  </si>
+  <si>
+    <t>千锋教育前端TypeScript入门视频教程（陆神顶配版TS入门教程） - 带源码课件</t>
+  </si>
+  <si>
+    <t>https://www.alipan.com/s/W4SAUoU66Cr</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/707662d98623</t>
+  </si>
+  <si>
+    <t>2024/03/28 13:31</t>
+  </si>
+  <si>
+    <t>【小滴课堂】急速掌握-新版分布式调度XXL-Job+SpringBoot2.X项目实战 - 带源码课件</t>
+  </si>
+  <si>
+    <t>https://www.alipan.com/s/TiX5Te5Rzfn</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/d85940243968</t>
+  </si>
+  <si>
+    <t>2024/03/28 12:06</t>
+  </si>
+  <si>
+    <t>PHP代码审计入门教程（SQL注入+XSS+CSRF+命令注入） - 带源码课件</t>
+  </si>
+  <si>
+    <t>https://www.alipan.com/s/NZPuYrG4s4U</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/f5dd616eff3e</t>
+  </si>
+  <si>
+    <t>2024/03/28 05:23</t>
+  </si>
+  <si>
+    <t>【黑马程序员】HTML&amp;JS+前端 V7.6 - 带源码课件</t>
+  </si>
+  <si>
+    <t>https://www.alipan.com/s/SWX6vHkeica</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/b1a1ef6d0b97</t>
+  </si>
+  <si>
+    <t>2024/03/27 16:39</t>
+  </si>
+  <si>
+    <t>和君《股权设计班24讲（第三期）》</t>
+  </si>
+  <si>
+    <t>https://www.alipan.com/s/AC5bSgtX3RK</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/d13d2ce2d2e0</t>
+  </si>
+  <si>
+    <t>2024/03/27 15:05</t>
+  </si>
+  <si>
+    <t>卷卷老师流行声乐课训练营</t>
+  </si>
+  <si>
+    <t>https://www.alipan.com/s/VscTkE8GU25</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/dd346c9b6490</t>
+  </si>
+  <si>
+    <t>2024/03/27 07:54</t>
+  </si>
+  <si>
+    <t>1000 Basic English Words 精讲视频</t>
+  </si>
+  <si>
+    <t>https://www.alipan.com/s/YaRSxinjbc5</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/75b436848cbb</t>
+  </si>
+  <si>
+    <t>2024/03/27 04:19</t>
+  </si>
+  <si>
+    <t>51CTO - 游戏化趣学Web前端</t>
+  </si>
+  <si>
+    <t>https://www.alipan.com/s/ViA2Zw2muYK</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/a9feae670e03</t>
+  </si>
+  <si>
+    <t>2024/03/26 17:08</t>
+  </si>
+  <si>
+    <t>互联网人副业指南 传授思维与方法 启动你的首个项目</t>
+  </si>
+  <si>
+    <t>https://www.alipan.com/s/WRmp1y2GF3n</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/b18a5a8793a2</t>
+  </si>
+  <si>
+    <t>2024/03/25 17:06</t>
+  </si>
+  <si>
+    <t>【安全牛】CTF从入门到提升</t>
+  </si>
+  <si>
+    <t>https://www.alipan.com/s/u6zo8QEaXWq</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/6c9793e19d1f</t>
+  </si>
+  <si>
+    <t>2024/03/25 16:22</t>
+  </si>
+  <si>
+    <t>王争的算法训练营(第5期)</t>
+  </si>
+  <si>
+    <t>https://www.alipan.com/s/e3oF5zupRnH</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/55c01519e16f</t>
+  </si>
+  <si>
+    <t>2024/03/25 14:47</t>
+  </si>
+  <si>
+    <t>新版Springboot3.0打造能落地的高并发仿12306售票系统 - 带源码课件</t>
+  </si>
+  <si>
+    <t>https://www.alipan.com/s/5sK3ZWi2ShJ</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/c95cf35bf9b8</t>
+  </si>
+  <si>
+    <t>2024/03/25 03:41</t>
+  </si>
+  <si>
+    <t>SpringCloudalibaba+Vue开发仿社交小程序 - 带源码课件</t>
+  </si>
+  <si>
+    <t>https://www.alipan.com/s/NKbGw2VXwkP</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/8120d0939d8f</t>
+  </si>
+  <si>
+    <t>2024/03/24 19:34</t>
+  </si>
+  <si>
+    <t>PyTorch深度学习开发医学影像端到端判别项目</t>
+  </si>
+  <si>
+    <t>https://www.alipan.com/s/8hVg2VWM5ZV</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/ee1c8157ff4f</t>
+  </si>
+  <si>
+    <t>2024/03/24 16:52</t>
+  </si>
+  <si>
+    <t>uni-app实战社区交友类app开发 - 带源码课件</t>
+  </si>
+  <si>
+    <t>https://www.alipan.com/s/SNdzo99jfPN</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/a012340ca23d</t>
+  </si>
+  <si>
+    <t>2024/03/24 15:43</t>
+  </si>
+  <si>
+    <t>【龙果学院】Google Guava深入浅出 - 带源码课件</t>
+  </si>
+  <si>
+    <t>https://www.alipan.com/s/XPqpxxzdtZP</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/8c7c21e272da</t>
+  </si>
+  <si>
+    <t>2024/03/24 14:16</t>
+  </si>
+  <si>
+    <t>褚盟 - 探店达人0-1落地实战营，真人秀导演带你打造IP突围同城赛道</t>
+  </si>
+  <si>
+    <t>https://www.alipan.com/s/cRrpXcVPp8a</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/2f13236111c4</t>
+  </si>
+  <si>
+    <t>2024/03/24 12:50</t>
+  </si>
+  <si>
+    <t>【百知教育】Java全栈开发精英课程 - 带源码课件</t>
+  </si>
+  <si>
+    <t>https://www.alipan.com/s/FT1BnqKTfoR</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/7e2c86b33f3d</t>
+  </si>
+  <si>
+    <t>2024/03/24 08:49</t>
+  </si>
+  <si>
+    <t>鸿蒙原生应用项目实战-《锋盟移动办公》 - 带源码课件</t>
+  </si>
+  <si>
+    <t>https://www.alipan.com/s/NU2i3eFYWMd</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/6e9d52986059</t>
+  </si>
+  <si>
+    <t>2024/03/24 01:12</t>
+  </si>
+  <si>
+    <t>程序员的 AI 启蒙课：ChatGPT 让你 1 人顶 3 人 - 带源码课件</t>
+  </si>
+  <si>
+    <t>https://www.alipan.com/s/5asrnGcz7DJ</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/9667211e50a0</t>
+  </si>
+  <si>
+    <t>2024/03/23 20:39</t>
+  </si>
+  <si>
+    <t>老高电商课堂 - 抖音直播带货运营系统课</t>
+  </si>
+  <si>
+    <t>https://www.alipan.com/s/Nh3qn6UR81w</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/1f903ba540db</t>
+  </si>
+  <si>
+    <t>2024/03/23 16:55</t>
+  </si>
+  <si>
+    <t>高阶前端进阶必修，自主打造同比AntD的React组件库 - 带源码课件</t>
+  </si>
+  <si>
+    <t>https://www.alipan.com/s/NrvsiRfi6zf</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/793efdf0ecf0</t>
+  </si>
+  <si>
+    <t>2024/03/23 15:46</t>
+  </si>
+  <si>
+    <t>【进化课堂】抖音好物带货实操课</t>
+  </si>
+  <si>
+    <t>https://www.alipan.com/s/mthFDuQDCqw</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/ddbca8e1dc55</t>
+  </si>
+  <si>
+    <t>2024/03/23 13:01</t>
+  </si>
+  <si>
+    <t>SpringBoot2.X + Vue + UniAPP，全栈开发医疗小程序 - 带源码课件</t>
+  </si>
+  <si>
+    <t>https://www.alipan.com/s/G3Z3Fj94mRh</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/88f7889989e6</t>
+  </si>
+  <si>
+    <t>2024/03/23 07:31</t>
+  </si>
+  <si>
+    <t>轻松入门大数据 一站式完成核心能力构建 - 带源码课件</t>
+  </si>
+  <si>
+    <t>https://www.alipan.com/s/H8LJeRSU5hs</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/914b93134db8</t>
+  </si>
+  <si>
+    <t>2024/03/23 01:25</t>
+  </si>
+  <si>
+    <t>华为HCNA HCIA网络工程师 自学视频[肖哥] - 带源码课件</t>
+  </si>
+  <si>
+    <t>https://www.alipan.com/s/ttpboF2XUqo</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/d7594b7a5f03</t>
+  </si>
+  <si>
+    <t>2024/03/22 15:57</t>
+  </si>
+  <si>
+    <t>【黑马程序员】年度钻石会员-人工智能AI进阶 - 带源码课件</t>
+  </si>
+  <si>
+    <t>https://www.alipan.com/s/LZzk8FzzzmU</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/5fe17e753894</t>
+  </si>
+  <si>
+    <t>2024/03/22 12:06</t>
+  </si>
+  <si>
+    <t>【尚硅谷】Vue3新特性 - 带源码课件</t>
+  </si>
+  <si>
+    <t>https://www.alipan.com/s/b8oU6VQYjFE</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/59bfc8b28369</t>
+  </si>
+  <si>
+    <t>2024/03/22 10:07</t>
+  </si>
+  <si>
+    <t>【开课吧】AI算法落地与工程部署实战</t>
+  </si>
+  <si>
+    <t>https://www.alipan.com/s/oLDndY9qqb6</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/60f0ebe3b04c</t>
+  </si>
+  <si>
+    <t>2024/03/22 09:09</t>
+  </si>
+  <si>
+    <t>【黑马程序员】ChatGPT超全面从基础到实战视频教程 - 带源码课件</t>
+  </si>
+  <si>
+    <t>https://www.alipan.com/s/PA1z5yXuoqQ</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/23c25a9e63c9</t>
+  </si>
+  <si>
+    <t>2024/03/22 06:24</t>
+  </si>
+  <si>
+    <t>【开课吧】Web前端高级工程师020期 - 带源码课件</t>
+  </si>
+  <si>
+    <t>https://www.alipan.com/s/cHtUB949fqJ</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/52a236e8f182</t>
+  </si>
+  <si>
+    <t>2024/03/21 21:45</t>
+  </si>
+  <si>
+    <t>【原子哥】FPGA硬件设计那些事儿 - 带源码课件</t>
+  </si>
+  <si>
+    <t>https://www.alipan.com/s/y7r5yUt8Fqe</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/fcbc01ed085f</t>
+  </si>
+  <si>
+    <t>2024/03/21 17:38</t>
+  </si>
+  <si>
+    <t>B站 - 人大蔡丹君老师：提纲挈领读《红楼梦》</t>
+  </si>
+  <si>
+    <t>https://www.alipan.com/s/QiB5YnMnwD8</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/575c182ecd50</t>
+  </si>
+  <si>
+    <t>2024/03/21 16:46</t>
+  </si>
+  <si>
+    <t>拉勾 - 大数据开发高薪训练营 14期 - 带源码课件</t>
+  </si>
+  <si>
+    <t>https://www.alipan.com/s/URxPSBrTSuB</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/aae08f757132</t>
+  </si>
+  <si>
+    <t>2024/03/21 15:09</t>
+  </si>
+  <si>
+    <t>B站 - 戴建业精讲世说新语</t>
+  </si>
+  <si>
+    <t>https://www.alipan.com/s/6WnRyaZv2Nt</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/131875393a9a</t>
+  </si>
+  <si>
+    <t>2024/03/21 11:42</t>
+  </si>
+  <si>
+    <t>B站 - 王无术：10小时刷完考研核心母词990</t>
+  </si>
+  <si>
+    <t>https://www.alipan.com/s/1zyFKH7Lp6H</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/d95ddd187353</t>
+  </si>
+  <si>
+    <t>2024/03/21 10:38</t>
+  </si>
+  <si>
+    <t>B站 - 北师大物理系赵峥教授的宇宙学16讲</t>
+  </si>
+  <si>
+    <t>https://www.alipan.com/s/Lt4vjmdyqSd</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/720967100a0e</t>
+  </si>
+  <si>
+    <t>2024/03/21 09:38</t>
+  </si>
+  <si>
+    <t>【尚硅谷】SpringCloud2024 - 带源码课件</t>
+  </si>
+  <si>
+    <t>https://www.alipan.com/s/3w1DU5zvKP6</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/3c29bff3a9f5</t>
+  </si>
+  <si>
+    <t>2024/03/21 06:18</t>
+  </si>
+  <si>
+    <t>B站 - 野路子特效课：像P图一样“P”视频</t>
+  </si>
+  <si>
+    <t>https://www.alipan.com/s/NomVKBZZFFV</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/907c2326d24c</t>
+  </si>
+  <si>
+    <t>2024/03/20 21:51</t>
+  </si>
+  <si>
+    <t>B站 - Unity休闲手机游戏开发｜M_Studio - 带源码课件</t>
+  </si>
+  <si>
+    <t>https://www.alipan.com/s/KpCGnWhorLM</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/f53cd8066d6c</t>
+  </si>
+  <si>
+    <t>2024/03/20 17:50</t>
+  </si>
+  <si>
+    <t>B站 - 北大钱理群教授讲鲁迅</t>
+  </si>
+  <si>
+    <t>https://www.alipan.com/s/9hdyykHxPuR</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/dd3207f19939</t>
+  </si>
+  <si>
+    <t>2024/03/20 17:03</t>
+  </si>
+  <si>
+    <t>B站 - 18天体态矫正·黄金腰臀比雕刻</t>
+  </si>
+  <si>
+    <t>https://www.alipan.com/s/X9kEm1u1s5W</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/c317af63c2d7</t>
+  </si>
+  <si>
+    <t>2024/03/20 15:45</t>
+  </si>
+  <si>
+    <t>店长之家 - 淘宝开店系列教程</t>
+  </si>
+  <si>
+    <t>https://www.alipan.com/s/jJ6aect7MXQ</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/5f099e537165</t>
+  </si>
+  <si>
+    <t>2024/03/20 13:55</t>
+  </si>
+  <si>
+    <t>极客时间 - Service Mesh 实战</t>
+  </si>
+  <si>
+    <t>https://www.alipan.com/s/wJu9zjPPfna</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/dfea881a76a8</t>
+  </si>
+  <si>
+    <t>2024/03/20 13:01</t>
+  </si>
+  <si>
+    <t>极客时间 - Pandas 数据分析实战</t>
+  </si>
+  <si>
+    <t>https://www.alipan.com/s/EzqkV9GwTGT</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/652d4dfffd98</t>
+  </si>
+  <si>
+    <t>2024/03/20 08:36</t>
+  </si>
+  <si>
+    <t>【马士兵教育】2022金三银四面试突击班 - 带源码课件</t>
+  </si>
+  <si>
+    <t>https://www.alipan.com/s/HetkTq2UvAi</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/acbc6dd60849</t>
+  </si>
+  <si>
+    <t>2024/03/19 22:29</t>
+  </si>
+  <si>
+    <t>B站 - 28天增肌减脂，居家打造黄金比例</t>
+  </si>
+  <si>
+    <t>https://www.alipan.com/s/26De5M5MqWU</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/eb8eeb87b415</t>
+  </si>
+  <si>
+    <t>2024/03/19 17:14</t>
+  </si>
+  <si>
+    <t>B站 - 北大杨立华教授讲庄子哲学</t>
+  </si>
+  <si>
+    <t>https://www.alipan.com/s/LjomfymXMLf</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/89a1afc1f47b</t>
+  </si>
+  <si>
+    <t>2024/03/19 13:43</t>
+  </si>
+  <si>
+    <t>B站 - 范勇鹏：美国的诞生——制度的起源与本质</t>
+  </si>
+  <si>
+    <t>https://www.alipan.com/s/1bPMh39sU8b</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/6def2e33ab96</t>
+  </si>
+  <si>
+    <t>2024/03/19 09:28</t>
+  </si>
+  <si>
+    <t>【开课吧】并发编程与JVM领域进阶计划 - 带源码课件</t>
+  </si>
+  <si>
+    <t>https://www.alipan.com/s/VhQNQCXFJPd</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/5315456e9998</t>
+  </si>
+  <si>
+    <t>2024/03/19 08:13</t>
+  </si>
+  <si>
+    <t>B站 - 王昱珩：环球博物馆中的自然科学</t>
+  </si>
+  <si>
+    <t>https://www.alipan.com/s/PjzLsVFBX7Q</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/65c679ba421c</t>
+  </si>
+  <si>
+    <t>2024/03/18 23:55</t>
+  </si>
+  <si>
+    <t>B站 - PPT大神上分攻略</t>
+  </si>
+  <si>
+    <t>https://www.alipan.com/s/yKsdKEP18hH</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/d6c2b51e2467</t>
+  </si>
+  <si>
+    <t>2024/03/18 17:45</t>
+  </si>
+  <si>
+    <t>【马士兵教育】MCA算法高频题目讲解</t>
+  </si>
+  <si>
+    <t>https://www.alipan.com/s/WE4FwXDF5TN</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/eaa0dba18439</t>
+  </si>
+  <si>
+    <t>2024/03/18 16:59</t>
+  </si>
+  <si>
+    <t>极客时间 - ZooKeeper 实战与源码剖析</t>
+  </si>
+  <si>
+    <t>https://www.alipan.com/s/2HYGaEPuZQR</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/2040a58ef7e7</t>
+  </si>
+  <si>
+    <t>2024/03/18 16:14</t>
+  </si>
+  <si>
+    <t>【AcWing】算法基础课 + 算法提高课</t>
+  </si>
+  <si>
+    <t>https://www.alipan.com/s/8qLNqPGSauR</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/93689ef84831</t>
+  </si>
+  <si>
+    <t>2024/03/18 15:05</t>
+  </si>
+  <si>
+    <t>【达内教育】Python + 人工智能培训营 - AIDTN2110 - 带源码课件</t>
+  </si>
+  <si>
+    <t>https://www.alipan.com/s/VdWcMPGFTwL</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/8c813b0fe157</t>
+  </si>
+  <si>
+    <t>2024/03/18 07:55</t>
+  </si>
+  <si>
+    <t>腾讯课堂 - 小黑课堂PS零基础教程</t>
+  </si>
+  <si>
+    <t>https://www.alipan.com/s/ydUBhkSg7s4</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/a1f9ec9e4f97</t>
+  </si>
+  <si>
+    <t>2024/03/17 23:49</t>
+  </si>
+  <si>
+    <t>极客时间 - Swift 核心技术与实战</t>
+  </si>
+  <si>
+    <t>https://www.alipan.com/s/DAWwuKMTFp3</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/5c3f985efeae</t>
+  </si>
+  <si>
+    <t>2024/03/17 13:40</t>
+  </si>
+  <si>
+    <t>【艾编程教育】Java架构师VIP系统黄埔班 - 带源码课件</t>
+  </si>
+  <si>
+    <t>https://www.alipan.com/s/tguA6RU7PW5</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/915d67873484</t>
+  </si>
+  <si>
+    <t>2024/03/17 09:31</t>
+  </si>
+  <si>
+    <t>极客时间 - Spring Boot 与 Kubernetes 云原生微服务实践</t>
+  </si>
+  <si>
+    <t>https://www.alipan.com/s/1NeUC5jnPy2</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/ee10ff2dbb4c</t>
+  </si>
+  <si>
+    <t>2024/03/17 05:46</t>
+  </si>
+  <si>
+    <t>极客时间 - 9 小时搞定微信小程序开发</t>
+  </si>
+  <si>
+    <t>https://www.alipan.com/s/Jj3Rv8FD4pY</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/f1f69f968ec5</t>
+  </si>
+  <si>
+    <t>2024/03/16 21:50</t>
+  </si>
+  <si>
+    <t>ChatGPT运营秘诀与变现攻略，GPT全面实用教程</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/6811f2ff4f7d</t>
+  </si>
+  <si>
+    <t>2024/03/16 08:04</t>
+  </si>
+  <si>
+    <t>【蓝桥云课】蓝桥杯省赛无忧班（Java 组） - 带源码课件</t>
+  </si>
+  <si>
+    <t>https://www.alipan.com/s/FfdVLPAzuSt</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/894e90ab69c9</t>
+  </si>
+  <si>
+    <t>2024/03/16 08:03</t>
+  </si>
+  <si>
+    <t>极客时间 - 快速上手 Kotlin 开发</t>
+  </si>
+  <si>
+    <t>https://www.alipan.com/s/XTFamt6bJf2</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/8f19d9634f8c</t>
+  </si>
+  <si>
+    <t>2024/03/16 04:00</t>
+  </si>
+  <si>
+    <t>网易云 - 微专业 - 大数据开发工程师 - 带源码课件</t>
+  </si>
+  <si>
+    <t>https://www.alipan.com/s/fL7zjt8iSXg</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/b4098d132a41</t>
+  </si>
+  <si>
+    <t>2024/03/15 20:59</t>
+  </si>
+  <si>
+    <t>极客时间 - TensorFlow 快速入门与实战</t>
+  </si>
+  <si>
+    <t>https://www.alipan.com/s/Z6CTxbjYvsm</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/13d3fafa8328</t>
+  </si>
+  <si>
+    <t>2024/03/15 17:33</t>
+  </si>
+  <si>
+    <t>极客时间 - 从 0 开发一款 iOS App</t>
+  </si>
+  <si>
+    <t>https://www.alipan.com/s/jAoj7hrMK1L</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/9e640408e37b</t>
+  </si>
+  <si>
+    <t>2024/03/15 10:34</t>
+  </si>
+  <si>
+    <t>守夜人Jaden - 2023网络安全攻防渗透大师课 - 带源码课件</t>
+  </si>
+  <si>
+    <t>https://www.alipan.com/s/LWiHPZeeXUo</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/b9fb36913564</t>
+  </si>
+  <si>
+    <t>2024/03/15 07:57</t>
+  </si>
+  <si>
+    <t>B站 - PS异闻录：萌新系统入门课 - 带源码课件</t>
+  </si>
+  <si>
+    <t>https://www.alipan.com/s/NZDdYZqiPNf</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/5fd1ba896b3c</t>
+  </si>
+  <si>
+    <t>2024/03/15 05:29</t>
+  </si>
+  <si>
+    <t>B站 - 北大陈连山教授解读宝藏《山海经》</t>
+  </si>
+  <si>
+    <t>https://www.alipan.com/s/gu8P7BKL6T5</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/c2493ddc7eae</t>
+  </si>
+  <si>
+    <t>2024/03/14 18:03</t>
+  </si>
+  <si>
+    <t>LAMP兄弟连 - MySQL特级课视频教程</t>
+  </si>
+  <si>
+    <t>https://www.alipan.com/s/oh8vuQGXa2y</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/a53a9472c280</t>
+  </si>
+  <si>
+    <t>2024/03/14 16:40</t>
+  </si>
+  <si>
+    <t>跟全球iPhone摄影大赛“年度最佳摄影师”学手机摄影</t>
+  </si>
+  <si>
+    <t>https://www.alipan.com/s/V99zwgnKBa5</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/cd3bec748742</t>
+  </si>
+  <si>
+    <t>2024/03/14 12:31</t>
+  </si>
+  <si>
+    <t>【开课吧】门徒计划 - Web前端方向</t>
+  </si>
+  <si>
+    <t>https://www.alipan.com/s/MwvLvBiXWjq</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/fdc6d42c0a17</t>
+  </si>
+  <si>
+    <t>2024/03/14 08:47</t>
+  </si>
+  <si>
+    <t>腾讯课堂 - iOS Flutter高级进阶班级 - 带源码课件</t>
+  </si>
+  <si>
+    <t>https://www.alipan.com/s/khjc7sktNxz</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/31d62545d793</t>
+  </si>
+  <si>
+    <t>2024/03/14 05:05</t>
+  </si>
+  <si>
+    <t>【普门教育】Python数据分析</t>
+  </si>
+  <si>
+    <t>https://www.alipan.com/s/VoJDvfy7Ygb</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/7de83c9b752e</t>
+  </si>
+  <si>
+    <t>2024/03/13 17:35</t>
+  </si>
+  <si>
+    <t>【蚂蚁摄影课堂】22级风光后期精英班</t>
+  </si>
+  <si>
+    <t>https://www.alipan.com/s/cW76hRcEZHm</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/96990d9aa081</t>
+  </si>
+  <si>
+    <t>2024/03/13 09:44</t>
+  </si>
+  <si>
+    <t>【北风网】人工智能顶级实战工程师就业课程</t>
+  </si>
+  <si>
+    <t>https://www.alipan.com/s/Y7XUqwkVhRH</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/ea2e4bd2374f</t>
+  </si>
+  <si>
+    <t>2024/03/13 07:48</t>
+  </si>
+  <si>
+    <t>【黑马程序员】集成电路应用开发(含嵌入式) 小白入门课程 - 带源码课件</t>
+  </si>
+  <si>
+    <t>https://www.alipan.com/s/kqtarvyx3PQ</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/fae1d24dded3</t>
+  </si>
+  <si>
+    <t>2024/03/13 07:47</t>
+  </si>
+  <si>
+    <t>陈丫丫 - 小吃创业培训 - 2022</t>
+  </si>
+  <si>
+    <t>https://www.alipan.com/s/b7BLvrhXJf6</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/5c5dbf9c2969</t>
+  </si>
+  <si>
+    <t>2024/03/12 23:11</t>
+  </si>
+  <si>
+    <t>【博光教育】影视剪辑带货全能班</t>
+  </si>
+  <si>
+    <t>https://www.alipan.com/s/VDtwWKoMEw1</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/37852c1333be</t>
+  </si>
+  <si>
+    <t>2024/03/12 13:27</t>
+  </si>
+  <si>
+    <t>极客时间 - Flink 核心技术与实战</t>
+  </si>
+  <si>
+    <t>https://www.alipan.com/s/siKDmU4FS8D</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/73db1dadc8af</t>
+  </si>
+  <si>
+    <t>2024/03/12 07:46</t>
+  </si>
+  <si>
+    <t>极客时间 - 玩转 Spring 全家桶</t>
+  </si>
+  <si>
+    <t>https://www.alipan.com/s/ftk4XXHrPwN</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/22a17a02a31c</t>
+  </si>
+  <si>
+    <t>2024/03/12 06:22</t>
+  </si>
+  <si>
+    <t>极客时间 - Elasticsearch 核心技术与实战</t>
+  </si>
+  <si>
+    <t>https://www.alipan.com/s/UtUCqojk9xR</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/2f4831d1ecbd</t>
+  </si>
+  <si>
+    <t>2024/03/12 02:02</t>
+  </si>
+  <si>
+    <t>极客时间 - Java项目实战营 - 6期 - 带源码课件</t>
+  </si>
+  <si>
+    <t>https://www.alipan.com/s/9HCF1z2V3df</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/000e90abd889</t>
+  </si>
+  <si>
+    <t>2024/03/11 16:13</t>
+  </si>
+  <si>
+    <t>懒小木 - 半导体器件建模仿真与分析教程</t>
+  </si>
+  <si>
+    <t>https://www.alipan.com/s/8ZYT3fD3ZKV</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/f7fe5af24f59</t>
+  </si>
+  <si>
+    <t>2024/03/11 14:09</t>
+  </si>
+  <si>
+    <t>B站 - 代代木动画学院：零基础绘画课程（角色篇）</t>
+  </si>
+  <si>
+    <t>https://www.alipan.com/s/2nMBwhCmmEA</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/b85e802cd77d</t>
+  </si>
+  <si>
+    <t>2024/03/11 02:10</t>
+  </si>
+  <si>
+    <t>B站 - 戴锦华大师电影课：性别与凝视</t>
+  </si>
+  <si>
+    <t>https://www.alipan.com/s/4UmfzuTrcCB</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/bb26254a8324</t>
+  </si>
+  <si>
+    <t>2024/03/10 21:51</t>
+  </si>
+  <si>
+    <t>B站 - 王骁Albert：美国背面研究报告</t>
+  </si>
+  <si>
+    <t>https://www.alipan.com/s/ZxkVRqKh8VB</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/a9d8679adc46</t>
+  </si>
+  <si>
+    <t>2024/03/10 20:43</t>
+  </si>
+  <si>
+    <t>B站 - 马勇教授：极简中国史</t>
+  </si>
+  <si>
+    <t>https://www.alipan.com/s/SuURcKFN1o1</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/71c3e2054276</t>
+  </si>
+  <si>
+    <t>2024/03/10 17:41</t>
+  </si>
+  <si>
+    <t>B站 - 唐盾：N3+N2日语中级精讲</t>
+  </si>
+  <si>
+    <t>https://www.alipan.com/s/iyLpSdEX4jc</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/63df9157f447</t>
+  </si>
+  <si>
+    <t>2024/03/10 16:58</t>
+  </si>
+  <si>
+    <t>零基础英语语法 零基础适用（全集50讲）</t>
+  </si>
+  <si>
+    <t>https://www.alipan.com/s/W9Y25F7yvcx</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/a2bcc3f4b78d</t>
+  </si>
+  <si>
+    <t>2024/03/10 16:09</t>
+  </si>
+  <si>
+    <t>B站 - 翟东升：人民币汇率与人民币国际化</t>
+  </si>
+  <si>
+    <t>https://www.alipan.com/s/pHv2j84JVKU</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/fd669bcc8f0d</t>
+  </si>
+  <si>
+    <t>2024/03/10 15:00</t>
+  </si>
+  <si>
+    <t>【黑马程序员】全面深入Mysql数据库优化_java进阶教程</t>
+  </si>
+  <si>
+    <t>https://www.alipan.com/s/BLAHJtJQdYY</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/d632c96359ac</t>
+  </si>
+  <si>
+    <t>2024/03/10 11:37</t>
+  </si>
+  <si>
+    <t>极客时间 - 零基础学 Java</t>
+  </si>
+  <si>
+    <t>https://www.alipan.com/s/WqRX2Jm5nYA</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/0190605c59d6</t>
+  </si>
+  <si>
+    <t>2024/03/10 10:33</t>
+  </si>
+  <si>
+    <t>极客时间 - 玩转 Git 三剑客</t>
+  </si>
+  <si>
+    <t>https://www.alipan.com/s/GkeH12vSsQ2</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/5d72653f8eb4</t>
+  </si>
+  <si>
+    <t>2024/03/10 09:37</t>
+  </si>
+  <si>
+    <t>极客时间 - 微服务架构核心 20 讲</t>
+  </si>
+  <si>
+    <t>https://www.alipan.com/s/ny3nt1rCyCu</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/81da5925a5bf</t>
+  </si>
+  <si>
+    <t>2024/03/10 02:42</t>
+  </si>
+  <si>
+    <t>B站 - 十分绘画：绘画萌新入门创造营</t>
+  </si>
+  <si>
+    <t>https://www.alipan.com/s/YZYJ2V4RvRS</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/8956e9e378f6</t>
+  </si>
+  <si>
+    <t>2024/03/09 13:48</t>
+  </si>
+  <si>
+    <t>【博学谷】狂野架构师-第5期</t>
+  </si>
+  <si>
+    <t>https://www.alipan.com/s/BvDC9WMyAeZ</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/a6697b8f8297</t>
+  </si>
+  <si>
+    <t>2024/03/09 09:50</t>
+  </si>
+  <si>
+    <t>B站 - 顶级互联网工程师的计算机思维课</t>
+  </si>
+  <si>
+    <t>https://www.alipan.com/s/xcQLEqtcKG7</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/416d2051d6cb</t>
+  </si>
+  <si>
+    <t>2024/03/09 05:18</t>
+  </si>
+  <si>
+    <t>【新学未】国际音标-精华班（剑桥认证国际教师）</t>
+  </si>
+  <si>
+    <t>https://www.alipan.com/s/fKdsx56T3Gi</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/94b32942cffc</t>
+  </si>
+  <si>
+    <t>2024/03/09 01:52</t>
+  </si>
+  <si>
+    <t>B站 - 珍大户 - 认知世界的经济学</t>
+  </si>
+  <si>
+    <t>https://www.alipan.com/s/DA6frAV3Fo1</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/c9497ffd9154</t>
+  </si>
+  <si>
+    <t>2024/03/08 22:06</t>
+  </si>
+  <si>
+    <t>uni-app实战教程 - 《悦读》项目实战 - 带源码课件</t>
+  </si>
+  <si>
+    <t>https://www.alipan.com/s/M3iBMWrJ2gU</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/43d9a242963d</t>
+  </si>
+  <si>
+    <t>2024/03/08 17:15</t>
+  </si>
+  <si>
+    <t>B站 - 江无情：福尔摩斯的推理笔记</t>
+  </si>
+  <si>
+    <t>https://www.alipan.com/s/ogVjQzXroRo</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/46edf41eb668</t>
+  </si>
+  <si>
+    <t>2024/03/07 22:58</t>
+  </si>
+  <si>
+    <t>B站 - 林超：给年轻人的跨学科通识课</t>
+  </si>
+  <si>
+    <t>https://www.alipan.com/s/3iVfb46Srhp</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/42b3ef3840c8</t>
+  </si>
+  <si>
+    <t>2024/03/07 21:51</t>
+  </si>
+  <si>
+    <t>极客时间 - 张汉东的 Rust 实战课</t>
+  </si>
+  <si>
+    <t>https://www.alipan.com/s/4FcmchpZtgC</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/044f4456d1a5</t>
+  </si>
+  <si>
+    <t>2024/03/07 17:03</t>
+  </si>
+  <si>
+    <t>极客时间 - 移动端自动化测试实战</t>
+  </si>
+  <si>
+    <t>https://www.alipan.com/s/VbnDGjJqEBQ</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/9d97c9d4c1f7</t>
+  </si>
+  <si>
+    <t>2024/03/07 14:14</t>
+  </si>
+  <si>
+    <t>B站 - 孙志立简明英语音标教程50讲</t>
+  </si>
+  <si>
+    <t>https://www.alipan.com/s/q9WNoxgVSiF</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/66a501607cc9</t>
+  </si>
+  <si>
+    <t>2024/03/07 12:36</t>
+  </si>
+  <si>
+    <t>极客时间 - Node.js 开发实战</t>
+  </si>
+  <si>
+    <t>https://www.alipan.com/s/f151Xbo4CxJ</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/a8a70ee15447</t>
+  </si>
+  <si>
+    <t>2024/03/07 11:00</t>
+  </si>
+  <si>
+    <t>B站 - 武汉大学赵林教授的西方哲学课</t>
+  </si>
+  <si>
+    <t>https://www.alipan.com/s/SKWjWmZRqhd</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/387e6b2f4c39</t>
+  </si>
+  <si>
+    <t>2024/03/07 09:02</t>
+  </si>
+  <si>
+    <t>【新学未】新概念英语-第1 至 4册（Diana老师主讲）</t>
+  </si>
+  <si>
+    <t>https://www.alipan.com/s/ahASDJ2WzL9</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/783daf5e49d9</t>
+  </si>
+  <si>
+    <t>2024/03/07 03:42</t>
+  </si>
+  <si>
+    <t>B站 - 温铁军：从“老冷战”到“新冷战”</t>
+  </si>
+  <si>
+    <t>https://www.alipan.com/s/euCMuBduCKc</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/8f928ae5b482</t>
+  </si>
+  <si>
+    <t>2024/03/06 23:21</t>
+  </si>
+  <si>
+    <t>B站 - 手机摄影原来这么拍</t>
+  </si>
+  <si>
+    <t>https://www.alipan.com/s/KQUqdSFtZ3b</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/65a6133bbd4a</t>
+  </si>
+  <si>
+    <t>2024/03/06 21:44</t>
+  </si>
+  <si>
+    <t>【爱燕子摄影学院】摄影综合课</t>
+  </si>
+  <si>
+    <t>https://www.alipan.com/s/13aFAtXi3rr</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/c0eaf65c1557</t>
+  </si>
+  <si>
+    <t>2024/03/06 17:48</t>
+  </si>
+  <si>
+    <t>B站 - 张策的短视频创作课</t>
+  </si>
+  <si>
+    <t>https://www.alipan.com/s/p66A8SiJnp1</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/88af6cb1c834</t>
+  </si>
+  <si>
+    <t>2024/03/06 17:21</t>
+  </si>
+  <si>
+    <t>B站 - 吴金闪教授：量子力学无基础入门</t>
+  </si>
+  <si>
+    <t>https://www.alipan.com/s/SKzwKxwnZrt</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/08020292324f</t>
+  </si>
+  <si>
+    <t>2024/03/06 07:05</t>
+  </si>
+  <si>
+    <t>B站 - 剪辑思维训练营 - 带源码课件</t>
+  </si>
+  <si>
+    <t>https://www.alipan.com/s/1jxFBBLtFNg</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/6daa92579237</t>
+  </si>
+  <si>
+    <t>2024/03/06 01:37</t>
+  </si>
+  <si>
+    <t>B站 - 金灿荣：中国周边安全环境十讲</t>
+  </si>
+  <si>
+    <t>https://www.alipan.com/s/PbcMFztM3qp</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/d14b67b2c063</t>
+  </si>
+  <si>
+    <t>2024/03/05 17:06</t>
+  </si>
+  <si>
+    <t>2023年咨询工程师考试复习材料 - 带源码课件</t>
+  </si>
+  <si>
+    <t>https://www.alipan.com/s/e3WxEu9MVkf</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/b3f0999535eb</t>
+  </si>
+  <si>
+    <t>2024/03/05 05:53</t>
+  </si>
+  <si>
+    <t>互联网人Al化转型实操能力课，人人都能听懂的Al课程</t>
+  </si>
+  <si>
+    <t>https://www.alipan.com/s/fj1HkyQVPb2</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/21f62e3ae0ab</t>
+  </si>
+  <si>
+    <t>2024/03/04 22:44</t>
+  </si>
+  <si>
+    <t>极客时间 - Selenium自动化测试实战</t>
+  </si>
+  <si>
+    <t>https://www.alipan.com/s/VJQPVxaNm4E</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/01cd0b42bac2</t>
+  </si>
+  <si>
+    <t>2024/03/04 22:06</t>
+  </si>
+  <si>
+    <t>B站 - 零基础减脂塑形——男女适用</t>
+  </si>
+  <si>
+    <t>https://www.alipan.com/s/MGuZrNLSi3n</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/ce7e7d10966a</t>
+  </si>
+  <si>
+    <t>2024/03/04 17:21</t>
+  </si>
+  <si>
+    <t>B站 - 李淼：三体中的物理学</t>
+  </si>
+  <si>
+    <t>https://www.alipan.com/s/qb7c8LVVP7i</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/310d9896bc75</t>
+  </si>
+  <si>
+    <t>2024/03/04 16:33</t>
+  </si>
+  <si>
+    <t>B站 - C4D修神记：零基础到三维封神</t>
+  </si>
+  <si>
+    <t>https://www.alipan.com/s/musrBoYiLwS</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/e4d7f89ee4e8</t>
+  </si>
+  <si>
+    <t>2024/03/04 15:11</t>
+  </si>
+  <si>
+    <t>极客时间 - .NET Core 开发实战</t>
+  </si>
+  <si>
+    <t>https://www.alipan.com/s/tDzQrVUyts1</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/a5d6eb357a7f</t>
+  </si>
+  <si>
+    <t>2024/03/04 13:35</t>
+  </si>
+  <si>
+    <t>【尚学堂】Python400集大型视频 - 带源码课件</t>
+  </si>
+  <si>
+    <t>https://www.alipan.com/s/Rko7Ash1J3E</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/b1ff048bbe65</t>
+  </si>
+  <si>
+    <t>2024/03/03 22:14</t>
+  </si>
+  <si>
+    <t>【乐乐课堂】初中地理 地理大百科</t>
+  </si>
+  <si>
+    <t>https://www.alipan.com/s/ogpk1YZ16fM</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/d5bc586bd0a3</t>
+  </si>
+  <si>
+    <t>2024/03/03 17:05</t>
+  </si>
+  <si>
+    <t>【天善智能】Python数据科学-技术详解与商业实践（八大案例，配套书籍） - 带源码课件</t>
+  </si>
+  <si>
+    <t>https://www.alipan.com/s/MDY94gy2yrs</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/80b5e402874d</t>
+  </si>
+  <si>
+    <t>2024/03/03 02:40</t>
+  </si>
+  <si>
+    <t>B站 - 杨宁老师的文学启示课</t>
+  </si>
+  <si>
+    <t>https://www.alipan.com/s/ebfA1No1fVb</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/5bdb2f58977b</t>
+  </si>
+  <si>
+    <t>2024/03/02 22:12</t>
+  </si>
+  <si>
+    <t>B站 - 中国政法大学刘建清教授：犯罪心理课</t>
+  </si>
+  <si>
+    <t>https://www.alipan.com/s/YTsGFB19pju</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/aac70edab814</t>
+  </si>
+  <si>
+    <t>2024/03/02 17:51</t>
+  </si>
+  <si>
+    <t>极客时间 - 小马哥讲 Spring AOP 编程思想</t>
+  </si>
+  <si>
+    <t>https://www.alipan.com/s/2CDRMZ2E1dR</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/f71b378cb4b5</t>
+  </si>
+  <si>
+    <t>2024/03/02 16:27</t>
+  </si>
+  <si>
+    <t>极客时间 - 算法面试通关 40 讲</t>
+  </si>
+  <si>
+    <t>https://www.alipan.com/s/AJQJXQwthBS</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/6c36db164bec</t>
+  </si>
+  <si>
+    <t>2024/03/02 15:18</t>
+  </si>
+  <si>
+    <t>2017年Archsummit全球架构师峰会 - 深度学习在CTR预估业务中的应用</t>
+  </si>
+  <si>
+    <t>https://www.alipan.com/s/2ZkFb4iggVd</t>
+  </si>
+  <si>
+    <t>https://pan.quark.cn/s/b63fa96743ac</t>
+  </si>
+  <si>
+    <t>2024/03/02 02:29</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -37,21 +1772,345 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -59,30 +2118,313 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -404,26 +2746,2477 @@
       </a:style>
     </a:lnDef>
   </a:objectDefaults>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:E144"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+    <sheetView tabSelected="1" topLeftCell="A140" workbookViewId="0">
+      <selection activeCell="B145" sqref="B145"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="38.6640625" defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="38.6666666666667" defaultRowHeight="44.4" customHeight="1" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" width="38.6640625" style="1"/>
-    <col min="2" max="16384" width="38.6640625" style="2"/>
+    <col min="1" max="16384" width="38.6666666666667" style="1"/>
   </cols>
-  <sheetData/>
-  <phoneticPr fontId="1" type="noConversion"/>
+  <sheetData>
+    <row r="1" s="1" customFormat="1" customHeight="1" spans="1:5">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" s="1" customFormat="1" customHeight="1" spans="1:5">
+      <c r="A2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" s="1" customFormat="1" customHeight="1" spans="1:5">
+      <c r="A3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" s="1" customFormat="1" customHeight="1" spans="1:5">
+      <c r="A4" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" s="1" customFormat="1" customHeight="1" spans="1:5">
+      <c r="A5" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" s="1" customFormat="1" customHeight="1" spans="1:5">
+      <c r="A6" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="7" s="1" customFormat="1" customHeight="1" spans="1:5">
+      <c r="A7" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="8" s="1" customFormat="1" customHeight="1" spans="1:5">
+      <c r="A8" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="9" s="1" customFormat="1" customHeight="1" spans="1:5">
+      <c r="A9" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="10" s="1" customFormat="1" customHeight="1" spans="1:5">
+      <c r="A10" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="11" s="1" customFormat="1" customHeight="1" spans="1:5">
+      <c r="A11" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="12" s="1" customFormat="1" customHeight="1" spans="1:5">
+      <c r="A12" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="13" s="1" customFormat="1" customHeight="1" spans="1:5">
+      <c r="A13" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="14" s="1" customFormat="1" customHeight="1" spans="1:5">
+      <c r="A14" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="15" s="1" customFormat="1" customHeight="1" spans="1:5">
+      <c r="A15" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="16" s="1" customFormat="1" customHeight="1" spans="1:5">
+      <c r="A16" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="17" s="1" customFormat="1" customHeight="1" spans="1:5">
+      <c r="A17" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="18" s="1" customFormat="1" customHeight="1" spans="1:5">
+      <c r="A18" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="19" s="1" customFormat="1" customHeight="1" spans="1:5">
+      <c r="A19" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="20" s="1" customFormat="1" customHeight="1" spans="1:5">
+      <c r="A20" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="21" s="1" customFormat="1" customHeight="1" spans="1:5">
+      <c r="A21" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="22" s="1" customFormat="1" customHeight="1" spans="1:5">
+      <c r="A22" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="23" s="1" customFormat="1" customHeight="1" spans="1:5">
+      <c r="A23" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="24" s="1" customFormat="1" customHeight="1" spans="1:5">
+      <c r="A24" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="25" s="1" customFormat="1" customHeight="1" spans="1:5">
+      <c r="A25" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="26" s="1" customFormat="1" customHeight="1" spans="1:5">
+      <c r="A26" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="27" s="1" customFormat="1" customHeight="1" spans="1:5">
+      <c r="A27" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="28" s="1" customFormat="1" customHeight="1" spans="1:5">
+      <c r="A28" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="29" s="1" customFormat="1" customHeight="1" spans="1:5">
+      <c r="A29" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="30" s="1" customFormat="1" customHeight="1" spans="1:5">
+      <c r="A30" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="31" s="1" customFormat="1" customHeight="1" spans="1:5">
+      <c r="A31" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="32" s="1" customFormat="1" customHeight="1" spans="1:5">
+      <c r="A32" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="33" s="1" customFormat="1" customHeight="1" spans="1:5">
+      <c r="A33" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="34" s="1" customFormat="1" customHeight="1" spans="1:5">
+      <c r="A34" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="35" s="1" customFormat="1" customHeight="1" spans="1:5">
+      <c r="A35" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="36" s="1" customFormat="1" customHeight="1" spans="1:5">
+      <c r="A36" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="37" s="1" customFormat="1" customHeight="1" spans="1:5">
+      <c r="A37" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E37" s="1" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="38" s="1" customFormat="1" customHeight="1" spans="1:5">
+      <c r="A38" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E38" s="1" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="39" s="1" customFormat="1" customHeight="1" spans="1:5">
+      <c r="A39" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E39" s="1" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="40" s="1" customFormat="1" customHeight="1" spans="1:5">
+      <c r="A40" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E40" s="1" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="41" s="1" customFormat="1" customHeight="1" spans="1:5">
+      <c r="A41" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E41" s="1" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="42" s="1" customFormat="1" customHeight="1" spans="1:5">
+      <c r="A42" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E42" s="1" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="43" s="1" customFormat="1" customHeight="1" spans="1:5">
+      <c r="A43" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E43" s="1" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="44" s="1" customFormat="1" customHeight="1" spans="1:5">
+      <c r="A44" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E44" s="1" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="45" s="1" customFormat="1" customHeight="1" spans="1:5">
+      <c r="A45" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E45" s="1" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="46" s="1" customFormat="1" customHeight="1" spans="1:5">
+      <c r="A46" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="D46" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E46" s="1" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="47" s="1" customFormat="1" customHeight="1" spans="1:5">
+      <c r="A47" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="D47" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E47" s="1" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="48" s="1" customFormat="1" customHeight="1" spans="1:5">
+      <c r="A48" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="D48" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E48" s="1" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="49" s="1" customFormat="1" customHeight="1" spans="1:5">
+      <c r="A49" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="D49" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E49" s="1" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="50" s="1" customFormat="1" customHeight="1" spans="1:5">
+      <c r="A50" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="D50" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E50" s="1" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="51" s="1" customFormat="1" customHeight="1" spans="1:5">
+      <c r="A51" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="D51" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E51" s="1" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="52" s="1" customFormat="1" customHeight="1" spans="1:5">
+      <c r="A52" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="D52" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E52" s="1" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="53" s="1" customFormat="1" customHeight="1" spans="1:5">
+      <c r="A53" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="D53" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E53" s="1" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="54" s="1" customFormat="1" customHeight="1" spans="1:5">
+      <c r="A54" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="D54" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E54" s="1" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="55" s="1" customFormat="1" customHeight="1" spans="1:5">
+      <c r="A55" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="D55" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E55" s="1" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="56" s="1" customFormat="1" customHeight="1" spans="1:5">
+      <c r="A56" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="D56" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E56" s="1" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="57" s="1" customFormat="1" customHeight="1" spans="1:5">
+      <c r="A57" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="D57" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E57" s="1" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="58" s="1" customFormat="1" customHeight="1" spans="1:5">
+      <c r="A58" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="D58" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E58" s="1" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="59" s="1" customFormat="1" customHeight="1" spans="1:5">
+      <c r="A59" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="C59" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="D59" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E59" s="1" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="60" s="1" customFormat="1" customHeight="1" spans="1:5">
+      <c r="A60" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="C60" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="D60" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E60" s="1" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="61" s="1" customFormat="1" customHeight="1" spans="1:5">
+      <c r="A61" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="C61" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="D61" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E61" s="1" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="62" s="1" customFormat="1" customHeight="1" spans="1:5">
+      <c r="A62" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="C62" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="D62" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E62" s="1" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="63" s="1" customFormat="1" customHeight="1" spans="1:5">
+      <c r="A63" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="C63" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="D63" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E63" s="1" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="64" s="1" customFormat="1" customHeight="1" spans="1:5">
+      <c r="A64" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="B64" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="C64" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="D64" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E64" s="1" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="65" s="1" customFormat="1" customHeight="1" spans="1:5">
+      <c r="A65" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="B65" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="C65" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="D65" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E65" s="1" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="66" s="1" customFormat="1" customHeight="1" spans="1:5">
+      <c r="A66" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="B66" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="C66" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="D66" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E66" s="1" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="67" s="1" customFormat="1" customHeight="1" spans="1:5">
+      <c r="A67" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="B67" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="C67" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="D67" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E67" s="1" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="68" s="1" customFormat="1" customHeight="1" spans="1:5">
+      <c r="A68" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="B68" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="C68" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="D68" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E68" s="1" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="69" s="1" customFormat="1" customHeight="1" spans="1:5">
+      <c r="A69" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="B69" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="C69" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="D69" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E69" s="1" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="70" s="1" customFormat="1" customHeight="1" spans="1:5">
+      <c r="A70" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="B70" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="C70" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="D70" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E70" s="1" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="71" s="1" customFormat="1" customHeight="1" spans="1:5">
+      <c r="A71" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="B71" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="C71" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="D71" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E71" s="1" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="72" s="1" customFormat="1" customHeight="1" spans="1:5">
+      <c r="A72" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="B72" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="C72" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="D72" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E72" s="1" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="73" s="1" customFormat="1" customHeight="1" spans="1:5">
+      <c r="A73" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="B73" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="C73" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="D73" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E73" s="1" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="74" s="1" customFormat="1" customHeight="1" spans="1:5">
+      <c r="A74" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="B74" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="C74" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="D74" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E74" s="1" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="75" s="1" customFormat="1" customHeight="1" spans="1:5">
+      <c r="A75" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="B75" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="C75" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="D75" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E75" s="1" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="76" s="1" customFormat="1" customHeight="1" spans="1:5">
+      <c r="A76" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="B76" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="C76" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="D76" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E76" s="1" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="77" s="1" customFormat="1" customHeight="1" spans="1:5">
+      <c r="A77" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="B77" s="1" t="s">
+        <v>307</v>
+      </c>
+      <c r="C77" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="D77" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E77" s="1" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="78" s="1" customFormat="1" customHeight="1" spans="1:5">
+      <c r="A78" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="B78" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="C78" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="D78" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E78" s="1" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="79" s="1" customFormat="1" customHeight="1" spans="1:5">
+      <c r="A79" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="B79" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="C79" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="D79" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E79" s="1" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="80" s="1" customFormat="1" customHeight="1" spans="1:5">
+      <c r="A80" s="1" t="s">
+        <v>318</v>
+      </c>
+      <c r="B80" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="C80" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="D80" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E80" s="1" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="81" s="1" customFormat="1" customHeight="1" spans="1:5">
+      <c r="A81" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="B81" s="1" t="s">
+        <v>323</v>
+      </c>
+      <c r="C81" s="1" t="s">
+        <v>324</v>
+      </c>
+      <c r="D81" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E81" s="1" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="82" s="1" customFormat="1" customHeight="1" spans="1:5">
+      <c r="A82" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="B82" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="C82" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="D82" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E82" s="1" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="83" s="1" customFormat="1" customHeight="1" spans="1:5">
+      <c r="A83" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="B83" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="C83" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="D83" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E83" s="1" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="84" s="1" customFormat="1" customHeight="1" spans="1:5">
+      <c r="A84" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="B84" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="C84" s="1" t="s">
+        <v>336</v>
+      </c>
+      <c r="D84" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E84" s="1" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="85" s="1" customFormat="1" customHeight="1" spans="1:5">
+      <c r="A85" s="1" t="s">
+        <v>338</v>
+      </c>
+      <c r="B85" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="C85" s="1" t="s">
+        <v>340</v>
+      </c>
+      <c r="D85" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E85" s="1" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="86" s="1" customFormat="1" customHeight="1" spans="1:5">
+      <c r="A86" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="B86" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="C86" s="1" t="s">
+        <v>344</v>
+      </c>
+      <c r="D86" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E86" s="1" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="87" s="1" customFormat="1" customHeight="1" spans="1:5">
+      <c r="A87" s="1" t="s">
+        <v>346</v>
+      </c>
+      <c r="B87" s="1" t="s">
+        <v>347</v>
+      </c>
+      <c r="C87" s="1" t="s">
+        <v>348</v>
+      </c>
+      <c r="D87" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E87" s="1" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="88" s="1" customFormat="1" customHeight="1" spans="1:5">
+      <c r="A88" s="1" t="s">
+        <v>350</v>
+      </c>
+      <c r="B88" s="1" t="s">
+        <v>351</v>
+      </c>
+      <c r="C88" s="1" t="s">
+        <v>352</v>
+      </c>
+      <c r="D88" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E88" s="1" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="89" s="1" customFormat="1" customHeight="1" spans="1:5">
+      <c r="A89" s="1" t="s">
+        <v>354</v>
+      </c>
+      <c r="B89" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="C89" s="1" t="s">
+        <v>356</v>
+      </c>
+      <c r="D89" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E89" s="1" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="90" s="1" customFormat="1" customHeight="1" spans="1:5">
+      <c r="A90" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="B90" s="1" t="s">
+        <v>359</v>
+      </c>
+      <c r="C90" s="1" t="s">
+        <v>360</v>
+      </c>
+      <c r="D90" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E90" s="1" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="91" s="1" customFormat="1" customHeight="1" spans="1:5">
+      <c r="A91" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="B91" s="1" t="s">
+        <v>363</v>
+      </c>
+      <c r="C91" s="1" t="s">
+        <v>364</v>
+      </c>
+      <c r="D91" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E91" s="1" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="92" s="1" customFormat="1" customHeight="1" spans="1:5">
+      <c r="A92" s="1" t="s">
+        <v>366</v>
+      </c>
+      <c r="B92" s="1" t="s">
+        <v>367</v>
+      </c>
+      <c r="C92" s="1" t="s">
+        <v>368</v>
+      </c>
+      <c r="D92" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E92" s="1" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="93" s="1" customFormat="1" customHeight="1" spans="1:5">
+      <c r="A93" s="1" t="s">
+        <v>370</v>
+      </c>
+      <c r="B93" s="1" t="s">
+        <v>371</v>
+      </c>
+      <c r="C93" s="1" t="s">
+        <v>372</v>
+      </c>
+      <c r="D93" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E93" s="1" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="94" s="1" customFormat="1" customHeight="1" spans="1:5">
+      <c r="A94" s="1" t="s">
+        <v>374</v>
+      </c>
+      <c r="B94" s="1" t="s">
+        <v>375</v>
+      </c>
+      <c r="C94" s="1" t="s">
+        <v>376</v>
+      </c>
+      <c r="D94" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E94" s="1" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="95" s="1" customFormat="1" customHeight="1" spans="1:5">
+      <c r="A95" s="1" t="s">
+        <v>378</v>
+      </c>
+      <c r="B95" s="1" t="s">
+        <v>379</v>
+      </c>
+      <c r="C95" s="1" t="s">
+        <v>380</v>
+      </c>
+      <c r="D95" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E95" s="1" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="96" s="1" customFormat="1" customHeight="1" spans="1:5">
+      <c r="A96" s="1" t="s">
+        <v>382</v>
+      </c>
+      <c r="B96" s="1" t="s">
+        <v>383</v>
+      </c>
+      <c r="C96" s="1" t="s">
+        <v>384</v>
+      </c>
+      <c r="D96" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E96" s="1" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="97" s="1" customFormat="1" customHeight="1" spans="1:5">
+      <c r="A97" s="1" t="s">
+        <v>386</v>
+      </c>
+      <c r="B97" s="1" t="s">
+        <v>387</v>
+      </c>
+      <c r="C97" s="1" t="s">
+        <v>388</v>
+      </c>
+      <c r="D97" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E97" s="1" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="98" s="1" customFormat="1" customHeight="1" spans="1:5">
+      <c r="A98" s="1" t="s">
+        <v>390</v>
+      </c>
+      <c r="B98" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="C98" s="1" t="s">
+        <v>392</v>
+      </c>
+      <c r="D98" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E98" s="1" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="99" s="1" customFormat="1" customHeight="1" spans="1:5">
+      <c r="A99" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="B99" s="1" t="s">
+        <v>395</v>
+      </c>
+      <c r="C99" s="1" t="s">
+        <v>396</v>
+      </c>
+      <c r="D99" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E99" s="1" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="100" s="1" customFormat="1" customHeight="1" spans="1:5">
+      <c r="A100" s="1" t="s">
+        <v>398</v>
+      </c>
+      <c r="B100" s="1" t="s">
+        <v>399</v>
+      </c>
+      <c r="C100" s="1" t="s">
+        <v>400</v>
+      </c>
+      <c r="D100" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E100" s="1" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="101" s="1" customFormat="1" customHeight="1" spans="1:5">
+      <c r="A101" s="1" t="s">
+        <v>402</v>
+      </c>
+      <c r="B101" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="C101" s="1" t="s">
+        <v>404</v>
+      </c>
+      <c r="D101" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E101" s="1" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="102" s="1" customFormat="1" customHeight="1" spans="1:5">
+      <c r="A102" s="1" t="s">
+        <v>406</v>
+      </c>
+      <c r="B102" s="1" t="s">
+        <v>407</v>
+      </c>
+      <c r="C102" s="1" t="s">
+        <v>408</v>
+      </c>
+      <c r="D102" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E102" s="1" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="103" s="1" customFormat="1" customHeight="1" spans="1:5">
+      <c r="A103" s="1" t="s">
+        <v>410</v>
+      </c>
+      <c r="B103" s="1" t="s">
+        <v>411</v>
+      </c>
+      <c r="C103" s="1" t="s">
+        <v>412</v>
+      </c>
+      <c r="D103" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E103" s="1" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="104" s="1" customFormat="1" customHeight="1" spans="1:5">
+      <c r="A104" s="1" t="s">
+        <v>414</v>
+      </c>
+      <c r="B104" s="1" t="s">
+        <v>415</v>
+      </c>
+      <c r="C104" s="1" t="s">
+        <v>416</v>
+      </c>
+      <c r="D104" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E104" s="1" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="105" s="1" customFormat="1" customHeight="1" spans="1:5">
+      <c r="A105" s="1" t="s">
+        <v>418</v>
+      </c>
+      <c r="B105" s="1" t="s">
+        <v>419</v>
+      </c>
+      <c r="C105" s="1" t="s">
+        <v>420</v>
+      </c>
+      <c r="D105" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E105" s="1" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="106" s="1" customFormat="1" customHeight="1" spans="1:5">
+      <c r="A106" s="1" t="s">
+        <v>422</v>
+      </c>
+      <c r="B106" s="1" t="s">
+        <v>423</v>
+      </c>
+      <c r="C106" s="1" t="s">
+        <v>424</v>
+      </c>
+      <c r="D106" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E106" s="1" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="107" s="1" customFormat="1" customHeight="1" spans="1:5">
+      <c r="A107" s="1" t="s">
+        <v>426</v>
+      </c>
+      <c r="B107" s="1" t="s">
+        <v>427</v>
+      </c>
+      <c r="C107" s="1" t="s">
+        <v>428</v>
+      </c>
+      <c r="D107" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E107" s="1" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="108" s="1" customFormat="1" customHeight="1" spans="1:5">
+      <c r="A108" s="1" t="s">
+        <v>430</v>
+      </c>
+      <c r="B108" s="1" t="s">
+        <v>431</v>
+      </c>
+      <c r="C108" s="1" t="s">
+        <v>432</v>
+      </c>
+      <c r="D108" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E108" s="1" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="109" s="1" customFormat="1" customHeight="1" spans="1:5">
+      <c r="A109" s="1" t="s">
+        <v>434</v>
+      </c>
+      <c r="B109" s="1" t="s">
+        <v>435</v>
+      </c>
+      <c r="C109" s="1" t="s">
+        <v>436</v>
+      </c>
+      <c r="D109" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E109" s="1" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="110" s="1" customFormat="1" customHeight="1" spans="1:5">
+      <c r="A110" s="1" t="s">
+        <v>438</v>
+      </c>
+      <c r="B110" s="1" t="s">
+        <v>439</v>
+      </c>
+      <c r="C110" s="1" t="s">
+        <v>440</v>
+      </c>
+      <c r="D110" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E110" s="1" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="111" s="1" customFormat="1" customHeight="1" spans="1:5">
+      <c r="A111" s="1" t="s">
+        <v>442</v>
+      </c>
+      <c r="B111" s="1" t="s">
+        <v>443</v>
+      </c>
+      <c r="C111" s="1" t="s">
+        <v>444</v>
+      </c>
+      <c r="D111" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E111" s="1" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="112" s="1" customFormat="1" customHeight="1" spans="1:5">
+      <c r="A112" s="1" t="s">
+        <v>446</v>
+      </c>
+      <c r="B112" s="1" t="s">
+        <v>447</v>
+      </c>
+      <c r="C112" s="1" t="s">
+        <v>448</v>
+      </c>
+      <c r="D112" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E112" s="1" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="113" s="1" customFormat="1" customHeight="1" spans="1:5">
+      <c r="A113" s="1" t="s">
+        <v>450</v>
+      </c>
+      <c r="B113" s="1" t="s">
+        <v>451</v>
+      </c>
+      <c r="C113" s="1" t="s">
+        <v>452</v>
+      </c>
+      <c r="D113" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E113" s="1" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="114" s="1" customFormat="1" customHeight="1" spans="1:5">
+      <c r="A114" s="1" t="s">
+        <v>454</v>
+      </c>
+      <c r="B114" s="1" t="s">
+        <v>455</v>
+      </c>
+      <c r="C114" s="1" t="s">
+        <v>456</v>
+      </c>
+      <c r="D114" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E114" s="1" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="115" s="1" customFormat="1" customHeight="1" spans="1:5">
+      <c r="A115" s="1" t="s">
+        <v>458</v>
+      </c>
+      <c r="B115" s="1" t="s">
+        <v>459</v>
+      </c>
+      <c r="C115" s="1" t="s">
+        <v>460</v>
+      </c>
+      <c r="D115" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E115" s="1" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="116" s="1" customFormat="1" customHeight="1" spans="1:5">
+      <c r="A116" s="1" t="s">
+        <v>462</v>
+      </c>
+      <c r="B116" s="1" t="s">
+        <v>463</v>
+      </c>
+      <c r="C116" s="1" t="s">
+        <v>464</v>
+      </c>
+      <c r="D116" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E116" s="1" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="117" s="1" customFormat="1" customHeight="1" spans="1:5">
+      <c r="A117" s="1" t="s">
+        <v>466</v>
+      </c>
+      <c r="B117" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="C117" s="1" t="s">
+        <v>468</v>
+      </c>
+      <c r="D117" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E117" s="1" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="118" s="1" customFormat="1" customHeight="1" spans="1:5">
+      <c r="A118" s="1" t="s">
+        <v>470</v>
+      </c>
+      <c r="B118" s="1" t="s">
+        <v>471</v>
+      </c>
+      <c r="C118" s="1" t="s">
+        <v>472</v>
+      </c>
+      <c r="D118" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E118" s="1" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="119" s="1" customFormat="1" customHeight="1" spans="1:5">
+      <c r="A119" s="1" t="s">
+        <v>474</v>
+      </c>
+      <c r="B119" s="1" t="s">
+        <v>475</v>
+      </c>
+      <c r="C119" s="1" t="s">
+        <v>476</v>
+      </c>
+      <c r="D119" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E119" s="1" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="120" s="1" customFormat="1" customHeight="1" spans="1:5">
+      <c r="A120" s="1" t="s">
+        <v>478</v>
+      </c>
+      <c r="B120" s="1" t="s">
+        <v>479</v>
+      </c>
+      <c r="C120" s="1" t="s">
+        <v>480</v>
+      </c>
+      <c r="D120" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E120" s="1" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="121" s="1" customFormat="1" customHeight="1" spans="1:5">
+      <c r="A121" s="1" t="s">
+        <v>482</v>
+      </c>
+      <c r="B121" s="1" t="s">
+        <v>483</v>
+      </c>
+      <c r="C121" s="1" t="s">
+        <v>484</v>
+      </c>
+      <c r="D121" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E121" s="1" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="122" s="1" customFormat="1" customHeight="1" spans="1:5">
+      <c r="A122" s="1" t="s">
+        <v>486</v>
+      </c>
+      <c r="B122" s="1" t="s">
+        <v>487</v>
+      </c>
+      <c r="C122" s="1" t="s">
+        <v>488</v>
+      </c>
+      <c r="D122" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E122" s="1" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="123" s="1" customFormat="1" customHeight="1" spans="1:5">
+      <c r="A123" s="1" t="s">
+        <v>490</v>
+      </c>
+      <c r="B123" s="1" t="s">
+        <v>491</v>
+      </c>
+      <c r="C123" s="1" t="s">
+        <v>492</v>
+      </c>
+      <c r="D123" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E123" s="1" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="124" s="1" customFormat="1" customHeight="1" spans="1:5">
+      <c r="A124" s="1" t="s">
+        <v>494</v>
+      </c>
+      <c r="B124" s="1" t="s">
+        <v>495</v>
+      </c>
+      <c r="C124" s="1" t="s">
+        <v>496</v>
+      </c>
+      <c r="D124" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E124" s="1" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="125" s="1" customFormat="1" customHeight="1" spans="1:5">
+      <c r="A125" s="1" t="s">
+        <v>498</v>
+      </c>
+      <c r="B125" s="1" t="s">
+        <v>499</v>
+      </c>
+      <c r="C125" s="1" t="s">
+        <v>500</v>
+      </c>
+      <c r="D125" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E125" s="1" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="126" s="1" customFormat="1" customHeight="1" spans="1:5">
+      <c r="A126" s="1" t="s">
+        <v>502</v>
+      </c>
+      <c r="B126" s="1" t="s">
+        <v>503</v>
+      </c>
+      <c r="C126" s="1" t="s">
+        <v>504</v>
+      </c>
+      <c r="D126" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E126" s="1" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="127" s="1" customFormat="1" customHeight="1" spans="1:5">
+      <c r="A127" s="1" t="s">
+        <v>506</v>
+      </c>
+      <c r="B127" s="1" t="s">
+        <v>507</v>
+      </c>
+      <c r="C127" s="1" t="s">
+        <v>508</v>
+      </c>
+      <c r="D127" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E127" s="1" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="128" s="1" customFormat="1" customHeight="1" spans="1:5">
+      <c r="A128" s="1" t="s">
+        <v>510</v>
+      </c>
+      <c r="B128" s="1" t="s">
+        <v>511</v>
+      </c>
+      <c r="C128" s="1" t="s">
+        <v>512</v>
+      </c>
+      <c r="D128" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E128" s="1" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="129" s="1" customFormat="1" customHeight="1" spans="1:5">
+      <c r="A129" s="1" t="s">
+        <v>514</v>
+      </c>
+      <c r="B129" s="1" t="s">
+        <v>515</v>
+      </c>
+      <c r="C129" s="1" t="s">
+        <v>516</v>
+      </c>
+      <c r="D129" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E129" s="1" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="130" s="1" customFormat="1" customHeight="1" spans="1:5">
+      <c r="A130" s="1" t="s">
+        <v>518</v>
+      </c>
+      <c r="B130" s="1" t="s">
+        <v>519</v>
+      </c>
+      <c r="C130" s="1" t="s">
+        <v>520</v>
+      </c>
+      <c r="D130" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E130" s="1" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="131" s="1" customFormat="1" customHeight="1" spans="1:5">
+      <c r="A131" s="1" t="s">
+        <v>522</v>
+      </c>
+      <c r="B131" s="1" t="s">
+        <v>523</v>
+      </c>
+      <c r="C131" s="1" t="s">
+        <v>524</v>
+      </c>
+      <c r="D131" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E131" s="1" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="132" s="1" customFormat="1" customHeight="1" spans="1:5">
+      <c r="A132" s="1" t="s">
+        <v>526</v>
+      </c>
+      <c r="B132" s="1" t="s">
+        <v>527</v>
+      </c>
+      <c r="C132" s="1" t="s">
+        <v>528</v>
+      </c>
+      <c r="D132" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E132" s="1" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="133" s="1" customFormat="1" customHeight="1" spans="1:5">
+      <c r="A133" s="1" t="s">
+        <v>530</v>
+      </c>
+      <c r="B133" s="1" t="s">
+        <v>531</v>
+      </c>
+      <c r="C133" s="1" t="s">
+        <v>532</v>
+      </c>
+      <c r="D133" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E133" s="1" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="134" s="1" customFormat="1" customHeight="1" spans="1:5">
+      <c r="A134" s="1" t="s">
+        <v>534</v>
+      </c>
+      <c r="B134" s="1" t="s">
+        <v>535</v>
+      </c>
+      <c r="C134" s="1" t="s">
+        <v>536</v>
+      </c>
+      <c r="D134" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E134" s="1" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="135" s="1" customFormat="1" customHeight="1" spans="1:5">
+      <c r="A135" s="1" t="s">
+        <v>538</v>
+      </c>
+      <c r="B135" s="1" t="s">
+        <v>539</v>
+      </c>
+      <c r="C135" s="1" t="s">
+        <v>540</v>
+      </c>
+      <c r="D135" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E135" s="1" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="136" s="1" customFormat="1" customHeight="1" spans="1:5">
+      <c r="A136" s="1" t="s">
+        <v>542</v>
+      </c>
+      <c r="B136" s="1" t="s">
+        <v>543</v>
+      </c>
+      <c r="C136" s="1" t="s">
+        <v>544</v>
+      </c>
+      <c r="D136" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E136" s="1" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="137" s="1" customFormat="1" customHeight="1" spans="1:5">
+      <c r="A137" s="1" t="s">
+        <v>546</v>
+      </c>
+      <c r="B137" s="1" t="s">
+        <v>547</v>
+      </c>
+      <c r="C137" s="1" t="s">
+        <v>548</v>
+      </c>
+      <c r="D137" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E137" s="1" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="138" s="1" customFormat="1" customHeight="1" spans="1:5">
+      <c r="A138" s="1" t="s">
+        <v>550</v>
+      </c>
+      <c r="B138" s="1" t="s">
+        <v>551</v>
+      </c>
+      <c r="C138" s="1" t="s">
+        <v>552</v>
+      </c>
+      <c r="D138" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E138" s="1" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="139" s="1" customFormat="1" customHeight="1" spans="1:5">
+      <c r="A139" s="1" t="s">
+        <v>554</v>
+      </c>
+      <c r="B139" s="1" t="s">
+        <v>555</v>
+      </c>
+      <c r="C139" s="1" t="s">
+        <v>556</v>
+      </c>
+      <c r="D139" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E139" s="1" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="140" s="1" customFormat="1" customHeight="1" spans="1:5">
+      <c r="A140" s="1" t="s">
+        <v>558</v>
+      </c>
+      <c r="B140" s="1" t="s">
+        <v>559</v>
+      </c>
+      <c r="C140" s="1" t="s">
+        <v>560</v>
+      </c>
+      <c r="D140" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E140" s="1" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="141" s="1" customFormat="1" customHeight="1" spans="1:5">
+      <c r="A141" s="1" t="s">
+        <v>562</v>
+      </c>
+      <c r="B141" s="1" t="s">
+        <v>563</v>
+      </c>
+      <c r="C141" s="1" t="s">
+        <v>564</v>
+      </c>
+      <c r="D141" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E141" s="1" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="142" s="1" customFormat="1" customHeight="1" spans="1:5">
+      <c r="A142" s="1" t="s">
+        <v>566</v>
+      </c>
+      <c r="B142" s="1" t="s">
+        <v>567</v>
+      </c>
+      <c r="C142" s="1" t="s">
+        <v>568</v>
+      </c>
+      <c r="D142" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E142" s="1" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="143" s="1" customFormat="1" customHeight="1" spans="1:5">
+      <c r="A143" s="1" t="s">
+        <v>570</v>
+      </c>
+      <c r="B143" s="1" t="s">
+        <v>571</v>
+      </c>
+      <c r="C143" s="1" t="s">
+        <v>572</v>
+      </c>
+      <c r="D143" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E143" s="1" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="144" s="1" customFormat="1" customHeight="1" spans="1:5">
+      <c r="A144" s="1" t="s">
+        <v>574</v>
+      </c>
+      <c r="B144" s="1" t="s">
+        <v>575</v>
+      </c>
+      <c r="C144" s="1" t="s">
+        <v>576</v>
+      </c>
+      <c r="D144" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E144" s="1" t="s">
+        <v>577</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:E144">
+    <extLst/>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="1" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/.ready/最新发布资源-维格视图.xlsx
+++ b/.ready/最新发布资源-维格视图.xlsx
@@ -10,14 +10,14 @@
     <sheet name="维格视图" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">维格视图!$A$1:$E$144</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">维格视图!$A$1:$E$139</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="720" uniqueCount="578">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="695" uniqueCount="558">
   <si>
     <t>标题</t>
   </si>
@@ -1691,66 +1691,6 @@
   </si>
   <si>
     <t>2024/03/03 02:40</t>
-  </si>
-  <si>
-    <t>B站 - 杨宁老师的文学启示课</t>
-  </si>
-  <si>
-    <t>https://www.alipan.com/s/ebfA1No1fVb</t>
-  </si>
-  <si>
-    <t>https://pan.quark.cn/s/5bdb2f58977b</t>
-  </si>
-  <si>
-    <t>2024/03/02 22:12</t>
-  </si>
-  <si>
-    <t>B站 - 中国政法大学刘建清教授：犯罪心理课</t>
-  </si>
-  <si>
-    <t>https://www.alipan.com/s/YTsGFB19pju</t>
-  </si>
-  <si>
-    <t>https://pan.quark.cn/s/aac70edab814</t>
-  </si>
-  <si>
-    <t>2024/03/02 17:51</t>
-  </si>
-  <si>
-    <t>极客时间 - 小马哥讲 Spring AOP 编程思想</t>
-  </si>
-  <si>
-    <t>https://www.alipan.com/s/2CDRMZ2E1dR</t>
-  </si>
-  <si>
-    <t>https://pan.quark.cn/s/f71b378cb4b5</t>
-  </si>
-  <si>
-    <t>2024/03/02 16:27</t>
-  </si>
-  <si>
-    <t>极客时间 - 算法面试通关 40 讲</t>
-  </si>
-  <si>
-    <t>https://www.alipan.com/s/AJQJXQwthBS</t>
-  </si>
-  <si>
-    <t>https://pan.quark.cn/s/6c36db164bec</t>
-  </si>
-  <si>
-    <t>2024/03/02 15:18</t>
-  </si>
-  <si>
-    <t>2017年Archsummit全球架构师峰会 - 深度学习在CTR预估业务中的应用</t>
-  </si>
-  <si>
-    <t>https://www.alipan.com/s/2ZkFb4iggVd</t>
-  </si>
-  <si>
-    <t>https://pan.quark.cn/s/b63fa96743ac</t>
-  </si>
-  <si>
-    <t>2024/03/02 02:29</t>
   </si>
 </sst>
 </file>
@@ -2752,10 +2692,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E144"/>
+  <dimension ref="A1:E139"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A140" workbookViewId="0">
-      <selection activeCell="B145" sqref="B145"/>
+    <sheetView tabSelected="1" topLeftCell="A130" workbookViewId="0">
+      <selection activeCell="B143" sqref="B143"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="38.6666666666667" defaultRowHeight="44.4" customHeight="1" outlineLevelCol="4"/>
@@ -5126,93 +5066,8 @@
         <v>557</v>
       </c>
     </row>
-    <row r="140" s="1" customFormat="1" customHeight="1" spans="1:5">
-      <c r="A140" s="1" t="s">
-        <v>558</v>
-      </c>
-      <c r="B140" s="1" t="s">
-        <v>559</v>
-      </c>
-      <c r="C140" s="1" t="s">
-        <v>560</v>
-      </c>
-      <c r="D140" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E140" s="1" t="s">
-        <v>561</v>
-      </c>
-    </row>
-    <row r="141" s="1" customFormat="1" customHeight="1" spans="1:5">
-      <c r="A141" s="1" t="s">
-        <v>562</v>
-      </c>
-      <c r="B141" s="1" t="s">
-        <v>563</v>
-      </c>
-      <c r="C141" s="1" t="s">
-        <v>564</v>
-      </c>
-      <c r="D141" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E141" s="1" t="s">
-        <v>565</v>
-      </c>
-    </row>
-    <row r="142" s="1" customFormat="1" customHeight="1" spans="1:5">
-      <c r="A142" s="1" t="s">
-        <v>566</v>
-      </c>
-      <c r="B142" s="1" t="s">
-        <v>567</v>
-      </c>
-      <c r="C142" s="1" t="s">
-        <v>568</v>
-      </c>
-      <c r="D142" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E142" s="1" t="s">
-        <v>569</v>
-      </c>
-    </row>
-    <row r="143" s="1" customFormat="1" customHeight="1" spans="1:5">
-      <c r="A143" s="1" t="s">
-        <v>570</v>
-      </c>
-      <c r="B143" s="1" t="s">
-        <v>571</v>
-      </c>
-      <c r="C143" s="1" t="s">
-        <v>572</v>
-      </c>
-      <c r="D143" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E143" s="1" t="s">
-        <v>573</v>
-      </c>
-    </row>
-    <row r="144" s="1" customFormat="1" customHeight="1" spans="1:5">
-      <c r="A144" s="1" t="s">
-        <v>574</v>
-      </c>
-      <c r="B144" s="1" t="s">
-        <v>575</v>
-      </c>
-      <c r="C144" s="1" t="s">
-        <v>576</v>
-      </c>
-      <c r="D144" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E144" s="1" t="s">
-        <v>577</v>
-      </c>
-    </row>
   </sheetData>
-  <autoFilter ref="A1:E144">
+  <autoFilter ref="A1:E139">
     <extLst/>
   </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/.ready/最新发布资源-维格视图.xlsx
+++ b/.ready/最新发布资源-维格视图.xlsx
@@ -10,14 +10,14 @@
     <sheet name="维格视图" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">维格视图!$A$1:$E$139</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">维格视图!$A$1:$E$133</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="695" uniqueCount="558">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="665" uniqueCount="534">
   <si>
     <t>标题</t>
   </si>
@@ -1619,78 +1619,6 @@
   </si>
   <si>
     <t>2024/03/04 17:21</t>
-  </si>
-  <si>
-    <t>B站 - 李淼：三体中的物理学</t>
-  </si>
-  <si>
-    <t>https://www.alipan.com/s/qb7c8LVVP7i</t>
-  </si>
-  <si>
-    <t>https://pan.quark.cn/s/310d9896bc75</t>
-  </si>
-  <si>
-    <t>2024/03/04 16:33</t>
-  </si>
-  <si>
-    <t>B站 - C4D修神记：零基础到三维封神</t>
-  </si>
-  <si>
-    <t>https://www.alipan.com/s/musrBoYiLwS</t>
-  </si>
-  <si>
-    <t>https://pan.quark.cn/s/e4d7f89ee4e8</t>
-  </si>
-  <si>
-    <t>2024/03/04 15:11</t>
-  </si>
-  <si>
-    <t>极客时间 - .NET Core 开发实战</t>
-  </si>
-  <si>
-    <t>https://www.alipan.com/s/tDzQrVUyts1</t>
-  </si>
-  <si>
-    <t>https://pan.quark.cn/s/a5d6eb357a7f</t>
-  </si>
-  <si>
-    <t>2024/03/04 13:35</t>
-  </si>
-  <si>
-    <t>【尚学堂】Python400集大型视频 - 带源码课件</t>
-  </si>
-  <si>
-    <t>https://www.alipan.com/s/Rko7Ash1J3E</t>
-  </si>
-  <si>
-    <t>https://pan.quark.cn/s/b1ff048bbe65</t>
-  </si>
-  <si>
-    <t>2024/03/03 22:14</t>
-  </si>
-  <si>
-    <t>【乐乐课堂】初中地理 地理大百科</t>
-  </si>
-  <si>
-    <t>https://www.alipan.com/s/ogpk1YZ16fM</t>
-  </si>
-  <si>
-    <t>https://pan.quark.cn/s/d5bc586bd0a3</t>
-  </si>
-  <si>
-    <t>2024/03/03 17:05</t>
-  </si>
-  <si>
-    <t>【天善智能】Python数据科学-技术详解与商业实践（八大案例，配套书籍） - 带源码课件</t>
-  </si>
-  <si>
-    <t>https://www.alipan.com/s/MDY94gy2yrs</t>
-  </si>
-  <si>
-    <t>https://pan.quark.cn/s/80b5e402874d</t>
-  </si>
-  <si>
-    <t>2024/03/03 02:40</t>
   </si>
 </sst>
 </file>
@@ -2692,10 +2620,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E139"/>
+  <dimension ref="A1:E133"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A130" workbookViewId="0">
-      <selection activeCell="B143" sqref="B143"/>
+    <sheetView tabSelected="1" topLeftCell="A131" workbookViewId="0">
+      <selection activeCell="C136" sqref="C136"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="38.6666666666667" defaultRowHeight="44.4" customHeight="1" outlineLevelCol="4"/>
@@ -4964,110 +4892,8 @@
         <v>533</v>
       </c>
     </row>
-    <row r="134" s="1" customFormat="1" customHeight="1" spans="1:5">
-      <c r="A134" s="1" t="s">
-        <v>534</v>
-      </c>
-      <c r="B134" s="1" t="s">
-        <v>535</v>
-      </c>
-      <c r="C134" s="1" t="s">
-        <v>536</v>
-      </c>
-      <c r="D134" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E134" s="1" t="s">
-        <v>537</v>
-      </c>
-    </row>
-    <row r="135" s="1" customFormat="1" customHeight="1" spans="1:5">
-      <c r="A135" s="1" t="s">
-        <v>538</v>
-      </c>
-      <c r="B135" s="1" t="s">
-        <v>539</v>
-      </c>
-      <c r="C135" s="1" t="s">
-        <v>540</v>
-      </c>
-      <c r="D135" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E135" s="1" t="s">
-        <v>541</v>
-      </c>
-    </row>
-    <row r="136" s="1" customFormat="1" customHeight="1" spans="1:5">
-      <c r="A136" s="1" t="s">
-        <v>542</v>
-      </c>
-      <c r="B136" s="1" t="s">
-        <v>543</v>
-      </c>
-      <c r="C136" s="1" t="s">
-        <v>544</v>
-      </c>
-      <c r="D136" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E136" s="1" t="s">
-        <v>545</v>
-      </c>
-    </row>
-    <row r="137" s="1" customFormat="1" customHeight="1" spans="1:5">
-      <c r="A137" s="1" t="s">
-        <v>546</v>
-      </c>
-      <c r="B137" s="1" t="s">
-        <v>547</v>
-      </c>
-      <c r="C137" s="1" t="s">
-        <v>548</v>
-      </c>
-      <c r="D137" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E137" s="1" t="s">
-        <v>549</v>
-      </c>
-    </row>
-    <row r="138" s="1" customFormat="1" customHeight="1" spans="1:5">
-      <c r="A138" s="1" t="s">
-        <v>550</v>
-      </c>
-      <c r="B138" s="1" t="s">
-        <v>551</v>
-      </c>
-      <c r="C138" s="1" t="s">
-        <v>552</v>
-      </c>
-      <c r="D138" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E138" s="1" t="s">
-        <v>553</v>
-      </c>
-    </row>
-    <row r="139" s="1" customFormat="1" customHeight="1" spans="1:5">
-      <c r="A139" s="1" t="s">
-        <v>554</v>
-      </c>
-      <c r="B139" s="1" t="s">
-        <v>555</v>
-      </c>
-      <c r="C139" s="1" t="s">
-        <v>556</v>
-      </c>
-      <c r="D139" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E139" s="1" t="s">
-        <v>557</v>
-      </c>
-    </row>
   </sheetData>
-  <autoFilter ref="A1:E139">
+  <autoFilter ref="A1:E133">
     <extLst/>
   </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/.ready/最新发布资源-维格视图.xlsx
+++ b/.ready/最新发布资源-维格视图.xlsx
@@ -1,23 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27425"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Project\memo\.ready\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{298C9C15-E467-4A59-B004-C2A5693A697E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="9300"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="19095" windowHeight="12075" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="维格视图" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">维格视图!$A$1:$E$133</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">维格视图!$A$1:$E$127</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="665" uniqueCount="534">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="635" uniqueCount="510">
   <si>
     <t>标题</t>
   </si>
@@ -1547,91 +1553,13 @@
   </si>
   <si>
     <t>2024/03/06 07:05</t>
-  </si>
-  <si>
-    <t>B站 - 剪辑思维训练营 - 带源码课件</t>
-  </si>
-  <si>
-    <t>https://www.alipan.com/s/1jxFBBLtFNg</t>
-  </si>
-  <si>
-    <t>https://pan.quark.cn/s/6daa92579237</t>
-  </si>
-  <si>
-    <t>2024/03/06 01:37</t>
-  </si>
-  <si>
-    <t>B站 - 金灿荣：中国周边安全环境十讲</t>
-  </si>
-  <si>
-    <t>https://www.alipan.com/s/PbcMFztM3qp</t>
-  </si>
-  <si>
-    <t>https://pan.quark.cn/s/d14b67b2c063</t>
-  </si>
-  <si>
-    <t>2024/03/05 17:06</t>
-  </si>
-  <si>
-    <t>2023年咨询工程师考试复习材料 - 带源码课件</t>
-  </si>
-  <si>
-    <t>https://www.alipan.com/s/e3WxEu9MVkf</t>
-  </si>
-  <si>
-    <t>https://pan.quark.cn/s/b3f0999535eb</t>
-  </si>
-  <si>
-    <t>2024/03/05 05:53</t>
-  </si>
-  <si>
-    <t>互联网人Al化转型实操能力课，人人都能听懂的Al课程</t>
-  </si>
-  <si>
-    <t>https://www.alipan.com/s/fj1HkyQVPb2</t>
-  </si>
-  <si>
-    <t>https://pan.quark.cn/s/21f62e3ae0ab</t>
-  </si>
-  <si>
-    <t>2024/03/04 22:44</t>
-  </si>
-  <si>
-    <t>极客时间 - Selenium自动化测试实战</t>
-  </si>
-  <si>
-    <t>https://www.alipan.com/s/VJQPVxaNm4E</t>
-  </si>
-  <si>
-    <t>https://pan.quark.cn/s/01cd0b42bac2</t>
-  </si>
-  <si>
-    <t>2024/03/04 22:06</t>
-  </si>
-  <si>
-    <t>B站 - 零基础减脂塑形——男女适用</t>
-  </si>
-  <si>
-    <t>https://www.alipan.com/s/MGuZrNLSi3n</t>
-  </si>
-  <si>
-    <t>https://pan.quark.cn/s/ce7e7d10966a</t>
-  </si>
-  <si>
-    <t>2024/03/04 17:21</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="20">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1640,345 +1568,21 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
+      <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="33">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="9">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -1986,313 +1590,27 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -2614,24 +1932,24 @@
       </a:style>
     </a:lnDef>
   </a:objectDefaults>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:E133"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:E127"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A131" workbookViewId="0">
-      <selection activeCell="C136" sqref="C136"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B130" sqref="B130"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="38.6666666666667" defaultRowHeight="44.4" customHeight="1" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="38.6640625" defaultRowHeight="44.45" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="16384" width="38.6666666666667" style="1"/>
+    <col min="1" max="16384" width="38.6640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" customHeight="1" spans="1:5">
+    <row r="1" spans="1:5" ht="44.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2648,7 +1966,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" s="1" customFormat="1" customHeight="1" spans="1:5">
+    <row r="2" spans="1:5" ht="44.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>5</v>
       </c>
@@ -2665,7 +1983,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" s="1" customFormat="1" customHeight="1" spans="1:5">
+    <row r="3" spans="1:5" ht="44.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>10</v>
       </c>
@@ -2682,7 +2000,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" s="1" customFormat="1" customHeight="1" spans="1:5">
+    <row r="4" spans="1:5" ht="44.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>14</v>
       </c>
@@ -2699,7 +2017,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="5" s="1" customFormat="1" customHeight="1" spans="1:5">
+    <row r="5" spans="1:5" ht="44.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>18</v>
       </c>
@@ -2716,7 +2034,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="6" s="1" customFormat="1" customHeight="1" spans="1:5">
+    <row r="6" spans="1:5" ht="44.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>22</v>
       </c>
@@ -2733,7 +2051,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="7" s="1" customFormat="1" customHeight="1" spans="1:5">
+    <row r="7" spans="1:5" ht="44.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>26</v>
       </c>
@@ -2750,7 +2068,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="8" s="1" customFormat="1" customHeight="1" spans="1:5">
+    <row r="8" spans="1:5" ht="44.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>30</v>
       </c>
@@ -2767,7 +2085,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="9" s="1" customFormat="1" customHeight="1" spans="1:5">
+    <row r="9" spans="1:5" ht="44.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>34</v>
       </c>
@@ -2784,7 +2102,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="10" s="1" customFormat="1" customHeight="1" spans="1:5">
+    <row r="10" spans="1:5" ht="44.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>38</v>
       </c>
@@ -2801,7 +2119,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="11" s="1" customFormat="1" customHeight="1" spans="1:5">
+    <row r="11" spans="1:5" ht="44.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>42</v>
       </c>
@@ -2818,7 +2136,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="12" s="1" customFormat="1" customHeight="1" spans="1:5">
+    <row r="12" spans="1:5" ht="44.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>46</v>
       </c>
@@ -2835,7 +2153,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="13" s="1" customFormat="1" customHeight="1" spans="1:5">
+    <row r="13" spans="1:5" ht="44.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>50</v>
       </c>
@@ -2852,7 +2170,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="14" s="1" customFormat="1" customHeight="1" spans="1:5">
+    <row r="14" spans="1:5" ht="44.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>54</v>
       </c>
@@ -2869,7 +2187,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="15" s="1" customFormat="1" customHeight="1" spans="1:5">
+    <row r="15" spans="1:5" ht="44.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>58</v>
       </c>
@@ -2886,7 +2204,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="16" s="1" customFormat="1" customHeight="1" spans="1:5">
+    <row r="16" spans="1:5" ht="44.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>62</v>
       </c>
@@ -2903,7 +2221,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="17" s="1" customFormat="1" customHeight="1" spans="1:5">
+    <row r="17" spans="1:5" ht="44.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>66</v>
       </c>
@@ -2920,7 +2238,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="18" s="1" customFormat="1" customHeight="1" spans="1:5">
+    <row r="18" spans="1:5" ht="44.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>70</v>
       </c>
@@ -2937,7 +2255,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="19" s="1" customFormat="1" customHeight="1" spans="1:5">
+    <row r="19" spans="1:5" ht="44.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
         <v>74</v>
       </c>
@@ -2954,7 +2272,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="20" s="1" customFormat="1" customHeight="1" spans="1:5">
+    <row r="20" spans="1:5" ht="44.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
         <v>78</v>
       </c>
@@ -2971,7 +2289,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="21" s="1" customFormat="1" customHeight="1" spans="1:5">
+    <row r="21" spans="1:5" ht="44.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
         <v>82</v>
       </c>
@@ -2988,7 +2306,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="22" s="1" customFormat="1" customHeight="1" spans="1:5">
+    <row r="22" spans="1:5" ht="44.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
         <v>86</v>
       </c>
@@ -3005,7 +2323,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="23" s="1" customFormat="1" customHeight="1" spans="1:5">
+    <row r="23" spans="1:5" ht="44.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
         <v>90</v>
       </c>
@@ -3022,7 +2340,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="24" s="1" customFormat="1" customHeight="1" spans="1:5">
+    <row r="24" spans="1:5" ht="44.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
         <v>94</v>
       </c>
@@ -3039,7 +2357,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="25" s="1" customFormat="1" customHeight="1" spans="1:5">
+    <row r="25" spans="1:5" ht="44.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
         <v>98</v>
       </c>
@@ -3056,7 +2374,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="26" s="1" customFormat="1" customHeight="1" spans="1:5">
+    <row r="26" spans="1:5" ht="44.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
         <v>102</v>
       </c>
@@ -3073,7 +2391,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="27" s="1" customFormat="1" customHeight="1" spans="1:5">
+    <row r="27" spans="1:5" ht="44.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
         <v>106</v>
       </c>
@@ -3090,7 +2408,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="28" s="1" customFormat="1" customHeight="1" spans="1:5">
+    <row r="28" spans="1:5" ht="44.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
         <v>110</v>
       </c>
@@ -3107,7 +2425,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="29" s="1" customFormat="1" customHeight="1" spans="1:5">
+    <row r="29" spans="1:5" ht="44.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
         <v>114</v>
       </c>
@@ -3124,7 +2442,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="30" s="1" customFormat="1" customHeight="1" spans="1:5">
+    <row r="30" spans="1:5" ht="44.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
         <v>118</v>
       </c>
@@ -3141,7 +2459,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="31" s="1" customFormat="1" customHeight="1" spans="1:5">
+    <row r="31" spans="1:5" ht="44.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
         <v>122</v>
       </c>
@@ -3158,7 +2476,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="32" s="1" customFormat="1" customHeight="1" spans="1:5">
+    <row r="32" spans="1:5" ht="44.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
         <v>126</v>
       </c>
@@ -3175,7 +2493,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="33" s="1" customFormat="1" customHeight="1" spans="1:5">
+    <row r="33" spans="1:5" ht="44.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="1" t="s">
         <v>130</v>
       </c>
@@ -3192,7 +2510,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="34" s="1" customFormat="1" customHeight="1" spans="1:5">
+    <row r="34" spans="1:5" ht="44.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
         <v>134</v>
       </c>
@@ -3209,7 +2527,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="35" s="1" customFormat="1" customHeight="1" spans="1:5">
+    <row r="35" spans="1:5" ht="44.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="1" t="s">
         <v>138</v>
       </c>
@@ -3226,7 +2544,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="36" s="1" customFormat="1" customHeight="1" spans="1:5">
+    <row r="36" spans="1:5" ht="44.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="1" t="s">
         <v>142</v>
       </c>
@@ -3243,7 +2561,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="37" s="1" customFormat="1" customHeight="1" spans="1:5">
+    <row r="37" spans="1:5" ht="44.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="1" t="s">
         <v>146</v>
       </c>
@@ -3260,7 +2578,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="38" s="1" customFormat="1" customHeight="1" spans="1:5">
+    <row r="38" spans="1:5" ht="44.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="1" t="s">
         <v>150</v>
       </c>
@@ -3277,7 +2595,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="39" s="1" customFormat="1" customHeight="1" spans="1:5">
+    <row r="39" spans="1:5" ht="44.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
         <v>154</v>
       </c>
@@ -3294,7 +2612,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="40" s="1" customFormat="1" customHeight="1" spans="1:5">
+    <row r="40" spans="1:5" ht="44.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
         <v>158</v>
       </c>
@@ -3311,7 +2629,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="41" s="1" customFormat="1" customHeight="1" spans="1:5">
+    <row r="41" spans="1:5" ht="44.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="1" t="s">
         <v>162</v>
       </c>
@@ -3328,7 +2646,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="42" s="1" customFormat="1" customHeight="1" spans="1:5">
+    <row r="42" spans="1:5" ht="44.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="1" t="s">
         <v>166</v>
       </c>
@@ -3345,7 +2663,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="43" s="1" customFormat="1" customHeight="1" spans="1:5">
+    <row r="43" spans="1:5" ht="44.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="1" t="s">
         <v>170</v>
       </c>
@@ -3362,7 +2680,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="44" s="1" customFormat="1" customHeight="1" spans="1:5">
+    <row r="44" spans="1:5" ht="44.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" s="1" t="s">
         <v>174</v>
       </c>
@@ -3379,7 +2697,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="45" s="1" customFormat="1" customHeight="1" spans="1:5">
+    <row r="45" spans="1:5" ht="44.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" s="1" t="s">
         <v>178</v>
       </c>
@@ -3396,7 +2714,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="46" s="1" customFormat="1" customHeight="1" spans="1:5">
+    <row r="46" spans="1:5" ht="44.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" s="1" t="s">
         <v>182</v>
       </c>
@@ -3413,7 +2731,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="47" s="1" customFormat="1" customHeight="1" spans="1:5">
+    <row r="47" spans="1:5" ht="44.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" s="1" t="s">
         <v>186</v>
       </c>
@@ -3430,7 +2748,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="48" s="1" customFormat="1" customHeight="1" spans="1:5">
+    <row r="48" spans="1:5" ht="44.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48" s="1" t="s">
         <v>190</v>
       </c>
@@ -3447,7 +2765,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="49" s="1" customFormat="1" customHeight="1" spans="1:5">
+    <row r="49" spans="1:5" ht="44.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49" s="1" t="s">
         <v>194</v>
       </c>
@@ -3464,7 +2782,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="50" s="1" customFormat="1" customHeight="1" spans="1:5">
+    <row r="50" spans="1:5" ht="44.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A50" s="1" t="s">
         <v>198</v>
       </c>
@@ -3481,7 +2799,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="51" s="1" customFormat="1" customHeight="1" spans="1:5">
+    <row r="51" spans="1:5" ht="44.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A51" s="1" t="s">
         <v>202</v>
       </c>
@@ -3498,7 +2816,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="52" s="1" customFormat="1" customHeight="1" spans="1:5">
+    <row r="52" spans="1:5" ht="44.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A52" s="1" t="s">
         <v>206</v>
       </c>
@@ -3515,7 +2833,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="53" s="1" customFormat="1" customHeight="1" spans="1:5">
+    <row r="53" spans="1:5" ht="44.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A53" s="1" t="s">
         <v>210</v>
       </c>
@@ -3532,7 +2850,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="54" s="1" customFormat="1" customHeight="1" spans="1:5">
+    <row r="54" spans="1:5" ht="44.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A54" s="1" t="s">
         <v>214</v>
       </c>
@@ -3549,7 +2867,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="55" s="1" customFormat="1" customHeight="1" spans="1:5">
+    <row r="55" spans="1:5" ht="44.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A55" s="1" t="s">
         <v>218</v>
       </c>
@@ -3566,7 +2884,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="56" s="1" customFormat="1" customHeight="1" spans="1:5">
+    <row r="56" spans="1:5" ht="44.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A56" s="1" t="s">
         <v>222</v>
       </c>
@@ -3583,7 +2901,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="57" s="1" customFormat="1" customHeight="1" spans="1:5">
+    <row r="57" spans="1:5" ht="44.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A57" s="1" t="s">
         <v>226</v>
       </c>
@@ -3600,7 +2918,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="58" s="1" customFormat="1" customHeight="1" spans="1:5">
+    <row r="58" spans="1:5" ht="44.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A58" s="1" t="s">
         <v>230</v>
       </c>
@@ -3617,7 +2935,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="59" s="1" customFormat="1" customHeight="1" spans="1:5">
+    <row r="59" spans="1:5" ht="44.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A59" s="1" t="s">
         <v>234</v>
       </c>
@@ -3634,7 +2952,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="60" s="1" customFormat="1" customHeight="1" spans="1:5">
+    <row r="60" spans="1:5" ht="44.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A60" s="1" t="s">
         <v>238</v>
       </c>
@@ -3651,7 +2969,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="61" s="1" customFormat="1" customHeight="1" spans="1:5">
+    <row r="61" spans="1:5" ht="44.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A61" s="1" t="s">
         <v>242</v>
       </c>
@@ -3668,7 +2986,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="62" s="1" customFormat="1" customHeight="1" spans="1:5">
+    <row r="62" spans="1:5" ht="44.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A62" s="1" t="s">
         <v>246</v>
       </c>
@@ -3685,7 +3003,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="63" s="1" customFormat="1" customHeight="1" spans="1:5">
+    <row r="63" spans="1:5" ht="44.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A63" s="1" t="s">
         <v>250</v>
       </c>
@@ -3702,7 +3020,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="64" s="1" customFormat="1" customHeight="1" spans="1:5">
+    <row r="64" spans="1:5" ht="44.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A64" s="1" t="s">
         <v>254</v>
       </c>
@@ -3719,7 +3037,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="65" s="1" customFormat="1" customHeight="1" spans="1:5">
+    <row r="65" spans="1:5" ht="44.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A65" s="1" t="s">
         <v>258</v>
       </c>
@@ -3736,7 +3054,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="66" s="1" customFormat="1" customHeight="1" spans="1:5">
+    <row r="66" spans="1:5" ht="44.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A66" s="1" t="s">
         <v>262</v>
       </c>
@@ -3753,7 +3071,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="67" s="1" customFormat="1" customHeight="1" spans="1:5">
+    <row r="67" spans="1:5" ht="44.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A67" s="1" t="s">
         <v>266</v>
       </c>
@@ -3770,7 +3088,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="68" s="1" customFormat="1" customHeight="1" spans="1:5">
+    <row r="68" spans="1:5" ht="44.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A68" s="1" t="s">
         <v>270</v>
       </c>
@@ -3787,7 +3105,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="69" s="1" customFormat="1" customHeight="1" spans="1:5">
+    <row r="69" spans="1:5" ht="44.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A69" s="1" t="s">
         <v>274</v>
       </c>
@@ -3804,7 +3122,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="70" s="1" customFormat="1" customHeight="1" spans="1:5">
+    <row r="70" spans="1:5" ht="44.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A70" s="1" t="s">
         <v>278</v>
       </c>
@@ -3821,7 +3139,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="71" s="1" customFormat="1" customHeight="1" spans="1:5">
+    <row r="71" spans="1:5" ht="44.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A71" s="1" t="s">
         <v>282</v>
       </c>
@@ -3838,7 +3156,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="72" s="1" customFormat="1" customHeight="1" spans="1:5">
+    <row r="72" spans="1:5" ht="44.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A72" s="1" t="s">
         <v>286</v>
       </c>
@@ -3855,7 +3173,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="73" s="1" customFormat="1" customHeight="1" spans="1:5">
+    <row r="73" spans="1:5" ht="44.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A73" s="1" t="s">
         <v>290</v>
       </c>
@@ -3872,7 +3190,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="74" s="1" customFormat="1" customHeight="1" spans="1:5">
+    <row r="74" spans="1:5" ht="44.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A74" s="1" t="s">
         <v>294</v>
       </c>
@@ -3889,7 +3207,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="75" s="1" customFormat="1" customHeight="1" spans="1:5">
+    <row r="75" spans="1:5" ht="44.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A75" s="1" t="s">
         <v>298</v>
       </c>
@@ -3906,7 +3224,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="76" s="1" customFormat="1" customHeight="1" spans="1:5">
+    <row r="76" spans="1:5" ht="44.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A76" s="1" t="s">
         <v>302</v>
       </c>
@@ -3923,7 +3241,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="77" s="1" customFormat="1" customHeight="1" spans="1:5">
+    <row r="77" spans="1:5" ht="44.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A77" s="1" t="s">
         <v>306</v>
       </c>
@@ -3940,7 +3258,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="78" s="1" customFormat="1" customHeight="1" spans="1:5">
+    <row r="78" spans="1:5" ht="44.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A78" s="1" t="s">
         <v>310</v>
       </c>
@@ -3957,7 +3275,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="79" s="1" customFormat="1" customHeight="1" spans="1:5">
+    <row r="79" spans="1:5" ht="44.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A79" s="1" t="s">
         <v>314</v>
       </c>
@@ -3974,7 +3292,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="80" s="1" customFormat="1" customHeight="1" spans="1:5">
+    <row r="80" spans="1:5" ht="44.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A80" s="1" t="s">
         <v>318</v>
       </c>
@@ -3991,7 +3309,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="81" s="1" customFormat="1" customHeight="1" spans="1:5">
+    <row r="81" spans="1:5" ht="44.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A81" s="1" t="s">
         <v>322</v>
       </c>
@@ -4008,7 +3326,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="82" s="1" customFormat="1" customHeight="1" spans="1:5">
+    <row r="82" spans="1:5" ht="44.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A82" s="1" t="s">
         <v>326</v>
       </c>
@@ -4025,7 +3343,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="83" s="1" customFormat="1" customHeight="1" spans="1:5">
+    <row r="83" spans="1:5" ht="44.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A83" s="1" t="s">
         <v>330</v>
       </c>
@@ -4042,7 +3360,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="84" s="1" customFormat="1" customHeight="1" spans="1:5">
+    <row r="84" spans="1:5" ht="44.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A84" s="1" t="s">
         <v>334</v>
       </c>
@@ -4059,7 +3377,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="85" s="1" customFormat="1" customHeight="1" spans="1:5">
+    <row r="85" spans="1:5" ht="44.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A85" s="1" t="s">
         <v>338</v>
       </c>
@@ -4076,7 +3394,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="86" s="1" customFormat="1" customHeight="1" spans="1:5">
+    <row r="86" spans="1:5" ht="44.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A86" s="1" t="s">
         <v>342</v>
       </c>
@@ -4093,7 +3411,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="87" s="1" customFormat="1" customHeight="1" spans="1:5">
+    <row r="87" spans="1:5" ht="44.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A87" s="1" t="s">
         <v>346</v>
       </c>
@@ -4110,7 +3428,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="88" s="1" customFormat="1" customHeight="1" spans="1:5">
+    <row r="88" spans="1:5" ht="44.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A88" s="1" t="s">
         <v>350</v>
       </c>
@@ -4127,7 +3445,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="89" s="1" customFormat="1" customHeight="1" spans="1:5">
+    <row r="89" spans="1:5" ht="44.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A89" s="1" t="s">
         <v>354</v>
       </c>
@@ -4144,7 +3462,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="90" s="1" customFormat="1" customHeight="1" spans="1:5">
+    <row r="90" spans="1:5" ht="44.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A90" s="1" t="s">
         <v>358</v>
       </c>
@@ -4161,7 +3479,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="91" s="1" customFormat="1" customHeight="1" spans="1:5">
+    <row r="91" spans="1:5" ht="44.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A91" s="1" t="s">
         <v>362</v>
       </c>
@@ -4178,7 +3496,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="92" s="1" customFormat="1" customHeight="1" spans="1:5">
+    <row r="92" spans="1:5" ht="44.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A92" s="1" t="s">
         <v>366</v>
       </c>
@@ -4195,7 +3513,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="93" s="1" customFormat="1" customHeight="1" spans="1:5">
+    <row r="93" spans="1:5" ht="44.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A93" s="1" t="s">
         <v>370</v>
       </c>
@@ -4212,7 +3530,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="94" s="1" customFormat="1" customHeight="1" spans="1:5">
+    <row r="94" spans="1:5" ht="44.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A94" s="1" t="s">
         <v>374</v>
       </c>
@@ -4229,7 +3547,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="95" s="1" customFormat="1" customHeight="1" spans="1:5">
+    <row r="95" spans="1:5" ht="44.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A95" s="1" t="s">
         <v>378</v>
       </c>
@@ -4246,7 +3564,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="96" s="1" customFormat="1" customHeight="1" spans="1:5">
+    <row r="96" spans="1:5" ht="44.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A96" s="1" t="s">
         <v>382</v>
       </c>
@@ -4263,7 +3581,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="97" s="1" customFormat="1" customHeight="1" spans="1:5">
+    <row r="97" spans="1:5" ht="44.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A97" s="1" t="s">
         <v>386</v>
       </c>
@@ -4280,7 +3598,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="98" s="1" customFormat="1" customHeight="1" spans="1:5">
+    <row r="98" spans="1:5" ht="44.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A98" s="1" t="s">
         <v>390</v>
       </c>
@@ -4297,7 +3615,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="99" s="1" customFormat="1" customHeight="1" spans="1:5">
+    <row r="99" spans="1:5" ht="44.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A99" s="1" t="s">
         <v>394</v>
       </c>
@@ -4314,7 +3632,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="100" s="1" customFormat="1" customHeight="1" spans="1:5">
+    <row r="100" spans="1:5" ht="44.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A100" s="1" t="s">
         <v>398</v>
       </c>
@@ -4331,7 +3649,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="101" s="1" customFormat="1" customHeight="1" spans="1:5">
+    <row r="101" spans="1:5" ht="44.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A101" s="1" t="s">
         <v>402</v>
       </c>
@@ -4348,7 +3666,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="102" s="1" customFormat="1" customHeight="1" spans="1:5">
+    <row r="102" spans="1:5" ht="44.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A102" s="1" t="s">
         <v>406</v>
       </c>
@@ -4365,7 +3683,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="103" s="1" customFormat="1" customHeight="1" spans="1:5">
+    <row r="103" spans="1:5" ht="44.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A103" s="1" t="s">
         <v>410</v>
       </c>
@@ -4382,7 +3700,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="104" s="1" customFormat="1" customHeight="1" spans="1:5">
+    <row r="104" spans="1:5" ht="44.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A104" s="1" t="s">
         <v>414</v>
       </c>
@@ -4399,7 +3717,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="105" s="1" customFormat="1" customHeight="1" spans="1:5">
+    <row r="105" spans="1:5" ht="44.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A105" s="1" t="s">
         <v>418</v>
       </c>
@@ -4416,7 +3734,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="106" s="1" customFormat="1" customHeight="1" spans="1:5">
+    <row r="106" spans="1:5" ht="44.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A106" s="1" t="s">
         <v>422</v>
       </c>
@@ -4433,7 +3751,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="107" s="1" customFormat="1" customHeight="1" spans="1:5">
+    <row r="107" spans="1:5" ht="44.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A107" s="1" t="s">
         <v>426</v>
       </c>
@@ -4450,7 +3768,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="108" s="1" customFormat="1" customHeight="1" spans="1:5">
+    <row r="108" spans="1:5" ht="44.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A108" s="1" t="s">
         <v>430</v>
       </c>
@@ -4467,7 +3785,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="109" s="1" customFormat="1" customHeight="1" spans="1:5">
+    <row r="109" spans="1:5" ht="44.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A109" s="1" t="s">
         <v>434</v>
       </c>
@@ -4484,7 +3802,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="110" s="1" customFormat="1" customHeight="1" spans="1:5">
+    <row r="110" spans="1:5" ht="44.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A110" s="1" t="s">
         <v>438</v>
       </c>
@@ -4501,7 +3819,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="111" s="1" customFormat="1" customHeight="1" spans="1:5">
+    <row r="111" spans="1:5" ht="44.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A111" s="1" t="s">
         <v>442</v>
       </c>
@@ -4518,7 +3836,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="112" s="1" customFormat="1" customHeight="1" spans="1:5">
+    <row r="112" spans="1:5" ht="44.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A112" s="1" t="s">
         <v>446</v>
       </c>
@@ -4535,7 +3853,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="113" s="1" customFormat="1" customHeight="1" spans="1:5">
+    <row r="113" spans="1:5" ht="44.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A113" s="1" t="s">
         <v>450</v>
       </c>
@@ -4552,7 +3870,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="114" s="1" customFormat="1" customHeight="1" spans="1:5">
+    <row r="114" spans="1:5" ht="44.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A114" s="1" t="s">
         <v>454</v>
       </c>
@@ -4569,7 +3887,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="115" s="1" customFormat="1" customHeight="1" spans="1:5">
+    <row r="115" spans="1:5" ht="44.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A115" s="1" t="s">
         <v>458</v>
       </c>
@@ -4586,7 +3904,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="116" s="1" customFormat="1" customHeight="1" spans="1:5">
+    <row r="116" spans="1:5" ht="44.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A116" s="1" t="s">
         <v>462</v>
       </c>
@@ -4603,7 +3921,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="117" s="1" customFormat="1" customHeight="1" spans="1:5">
+    <row r="117" spans="1:5" ht="44.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A117" s="1" t="s">
         <v>466</v>
       </c>
@@ -4620,7 +3938,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="118" s="1" customFormat="1" customHeight="1" spans="1:5">
+    <row r="118" spans="1:5" ht="44.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A118" s="1" t="s">
         <v>470</v>
       </c>
@@ -4637,7 +3955,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="119" s="1" customFormat="1" customHeight="1" spans="1:5">
+    <row r="119" spans="1:5" ht="44.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A119" s="1" t="s">
         <v>474</v>
       </c>
@@ -4654,7 +3972,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="120" s="1" customFormat="1" customHeight="1" spans="1:5">
+    <row r="120" spans="1:5" ht="44.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A120" s="1" t="s">
         <v>478</v>
       </c>
@@ -4671,7 +3989,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="121" s="1" customFormat="1" customHeight="1" spans="1:5">
+    <row r="121" spans="1:5" ht="44.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A121" s="1" t="s">
         <v>482</v>
       </c>
@@ -4688,7 +4006,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="122" s="1" customFormat="1" customHeight="1" spans="1:5">
+    <row r="122" spans="1:5" ht="44.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A122" s="1" t="s">
         <v>486</v>
       </c>
@@ -4705,7 +4023,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="123" s="1" customFormat="1" customHeight="1" spans="1:5">
+    <row r="123" spans="1:5" ht="44.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A123" s="1" t="s">
         <v>490</v>
       </c>
@@ -4722,7 +4040,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="124" s="1" customFormat="1" customHeight="1" spans="1:5">
+    <row r="124" spans="1:5" ht="44.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A124" s="1" t="s">
         <v>494</v>
       </c>
@@ -4739,7 +4057,7 @@
         <v>497</v>
       </c>
     </row>
-    <row r="125" s="1" customFormat="1" customHeight="1" spans="1:5">
+    <row r="125" spans="1:5" ht="44.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A125" s="1" t="s">
         <v>498</v>
       </c>
@@ -4756,7 +4074,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="126" s="1" customFormat="1" customHeight="1" spans="1:5">
+    <row r="126" spans="1:5" ht="44.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A126" s="1" t="s">
         <v>502</v>
       </c>
@@ -4773,7 +4091,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="127" s="1" customFormat="1" customHeight="1" spans="1:5">
+    <row r="127" spans="1:5" ht="44.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A127" s="1" t="s">
         <v>506</v>
       </c>
@@ -4790,114 +4108,10 @@
         <v>509</v>
       </c>
     </row>
-    <row r="128" s="1" customFormat="1" customHeight="1" spans="1:5">
-      <c r="A128" s="1" t="s">
-        <v>510</v>
-      </c>
-      <c r="B128" s="1" t="s">
-        <v>511</v>
-      </c>
-      <c r="C128" s="1" t="s">
-        <v>512</v>
-      </c>
-      <c r="D128" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E128" s="1" t="s">
-        <v>513</v>
-      </c>
-    </row>
-    <row r="129" s="1" customFormat="1" customHeight="1" spans="1:5">
-      <c r="A129" s="1" t="s">
-        <v>514</v>
-      </c>
-      <c r="B129" s="1" t="s">
-        <v>515</v>
-      </c>
-      <c r="C129" s="1" t="s">
-        <v>516</v>
-      </c>
-      <c r="D129" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E129" s="1" t="s">
-        <v>517</v>
-      </c>
-    </row>
-    <row r="130" s="1" customFormat="1" customHeight="1" spans="1:5">
-      <c r="A130" s="1" t="s">
-        <v>518</v>
-      </c>
-      <c r="B130" s="1" t="s">
-        <v>519</v>
-      </c>
-      <c r="C130" s="1" t="s">
-        <v>520</v>
-      </c>
-      <c r="D130" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E130" s="1" t="s">
-        <v>521</v>
-      </c>
-    </row>
-    <row r="131" s="1" customFormat="1" customHeight="1" spans="1:5">
-      <c r="A131" s="1" t="s">
-        <v>522</v>
-      </c>
-      <c r="B131" s="1" t="s">
-        <v>523</v>
-      </c>
-      <c r="C131" s="1" t="s">
-        <v>524</v>
-      </c>
-      <c r="D131" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E131" s="1" t="s">
-        <v>525</v>
-      </c>
-    </row>
-    <row r="132" s="1" customFormat="1" customHeight="1" spans="1:5">
-      <c r="A132" s="1" t="s">
-        <v>526</v>
-      </c>
-      <c r="B132" s="1" t="s">
-        <v>527</v>
-      </c>
-      <c r="C132" s="1" t="s">
-        <v>528</v>
-      </c>
-      <c r="D132" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E132" s="1" t="s">
-        <v>529</v>
-      </c>
-    </row>
-    <row r="133" s="1" customFormat="1" customHeight="1" spans="1:5">
-      <c r="A133" s="1" t="s">
-        <v>530</v>
-      </c>
-      <c r="B133" s="1" t="s">
-        <v>531</v>
-      </c>
-      <c r="C133" s="1" t="s">
-        <v>532</v>
-      </c>
-      <c r="D133" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E133" s="1" t="s">
-        <v>533</v>
-      </c>
-    </row>
   </sheetData>
-  <autoFilter ref="A1:E133">
-    <extLst/>
-  </autoFilter>
+  <autoFilter ref="A1:E127" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="1" orientation="portrait"/>
-  <headerFooter/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/.ready/最新发布资源-维格视图.xlsx
+++ b/.ready/最新发布资源-维格视图.xlsx
@@ -1,29 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27425"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Project\memo\.ready\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{298C9C15-E467-4A59-B004-C2A5693A697E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="19095" windowHeight="12075" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="23040" windowHeight="9300"/>
   </bookViews>
   <sheets>
     <sheet name="维格视图" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">维格视图!$A$1:$E$127</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">维格视图!$A$1:$E$121</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="635" uniqueCount="510">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="605" uniqueCount="486">
   <si>
     <t>标题</t>
   </si>
@@ -1481,85 +1475,19 @@
   </si>
   <si>
     <t>2024/03/07 09:02</t>
-  </si>
-  <si>
-    <t>【新学未】新概念英语-第1 至 4册（Diana老师主讲）</t>
-  </si>
-  <si>
-    <t>https://www.alipan.com/s/ahASDJ2WzL9</t>
-  </si>
-  <si>
-    <t>https://pan.quark.cn/s/783daf5e49d9</t>
-  </si>
-  <si>
-    <t>2024/03/07 03:42</t>
-  </si>
-  <si>
-    <t>B站 - 温铁军：从“老冷战”到“新冷战”</t>
-  </si>
-  <si>
-    <t>https://www.alipan.com/s/euCMuBduCKc</t>
-  </si>
-  <si>
-    <t>https://pan.quark.cn/s/8f928ae5b482</t>
-  </si>
-  <si>
-    <t>2024/03/06 23:21</t>
-  </si>
-  <si>
-    <t>B站 - 手机摄影原来这么拍</t>
-  </si>
-  <si>
-    <t>https://www.alipan.com/s/KQUqdSFtZ3b</t>
-  </si>
-  <si>
-    <t>https://pan.quark.cn/s/65a6133bbd4a</t>
-  </si>
-  <si>
-    <t>2024/03/06 21:44</t>
-  </si>
-  <si>
-    <t>【爱燕子摄影学院】摄影综合课</t>
-  </si>
-  <si>
-    <t>https://www.alipan.com/s/13aFAtXi3rr</t>
-  </si>
-  <si>
-    <t>https://pan.quark.cn/s/c0eaf65c1557</t>
-  </si>
-  <si>
-    <t>2024/03/06 17:48</t>
-  </si>
-  <si>
-    <t>B站 - 张策的短视频创作课</t>
-  </si>
-  <si>
-    <t>https://www.alipan.com/s/p66A8SiJnp1</t>
-  </si>
-  <si>
-    <t>https://pan.quark.cn/s/88af6cb1c834</t>
-  </si>
-  <si>
-    <t>2024/03/06 17:21</t>
-  </si>
-  <si>
-    <t>B站 - 吴金闪教授：量子力学无基础入门</t>
-  </si>
-  <si>
-    <t>https://www.alipan.com/s/SKzwKxwnZrt</t>
-  </si>
-  <si>
-    <t>https://pan.quark.cn/s/08020292324f</t>
-  </si>
-  <si>
-    <t>2024/03/06 07:05</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1568,21 +1496,345 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -1590,9 +1842,251 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -1600,17 +2094,61 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1932,24 +2470,24 @@
       </a:style>
     </a:lnDef>
   </a:objectDefaults>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E127"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:E121"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B130" sqref="B130"/>
+    <sheetView tabSelected="1" topLeftCell="A117" workbookViewId="0">
+      <selection activeCell="B122" sqref="B122"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="38.6640625" defaultRowHeight="44.45" customHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="38.6666666666667" defaultRowHeight="44.45" customHeight="1" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="16384" width="38.6640625" style="1"/>
+    <col min="1" max="16384" width="38.6666666666667" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="44.45" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" customHeight="1" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1966,7 +2504,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="44.45" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" customHeight="1" spans="1:5">
       <c r="A2" s="1" t="s">
         <v>5</v>
       </c>
@@ -1983,7 +2521,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="44.45" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" customHeight="1" spans="1:5">
       <c r="A3" s="1" t="s">
         <v>10</v>
       </c>
@@ -2000,7 +2538,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="44.45" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" customHeight="1" spans="1:5">
       <c r="A4" s="1" t="s">
         <v>14</v>
       </c>
@@ -2017,7 +2555,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="44.45" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" customHeight="1" spans="1:5">
       <c r="A5" s="1" t="s">
         <v>18</v>
       </c>
@@ -2034,7 +2572,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="44.45" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" customHeight="1" spans="1:5">
       <c r="A6" s="1" t="s">
         <v>22</v>
       </c>
@@ -2051,7 +2589,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="44.45" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" customHeight="1" spans="1:5">
       <c r="A7" s="1" t="s">
         <v>26</v>
       </c>
@@ -2068,7 +2606,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="44.45" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" customHeight="1" spans="1:5">
       <c r="A8" s="1" t="s">
         <v>30</v>
       </c>
@@ -2085,7 +2623,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="44.45" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" customHeight="1" spans="1:5">
       <c r="A9" s="1" t="s">
         <v>34</v>
       </c>
@@ -2102,7 +2640,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="44.45" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" customHeight="1" spans="1:5">
       <c r="A10" s="1" t="s">
         <v>38</v>
       </c>
@@ -2119,7 +2657,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="44.45" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" customHeight="1" spans="1:5">
       <c r="A11" s="1" t="s">
         <v>42</v>
       </c>
@@ -2136,7 +2674,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="44.45" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" customHeight="1" spans="1:5">
       <c r="A12" s="1" t="s">
         <v>46</v>
       </c>
@@ -2153,7 +2691,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="44.45" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" customHeight="1" spans="1:5">
       <c r="A13" s="1" t="s">
         <v>50</v>
       </c>
@@ -2170,7 +2708,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="44.45" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" customHeight="1" spans="1:5">
       <c r="A14" s="1" t="s">
         <v>54</v>
       </c>
@@ -2187,7 +2725,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="44.45" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" customHeight="1" spans="1:5">
       <c r="A15" s="1" t="s">
         <v>58</v>
       </c>
@@ -2204,7 +2742,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="44.45" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" customHeight="1" spans="1:5">
       <c r="A16" s="1" t="s">
         <v>62</v>
       </c>
@@ -2221,7 +2759,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="44.45" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" customHeight="1" spans="1:5">
       <c r="A17" s="1" t="s">
         <v>66</v>
       </c>
@@ -2238,7 +2776,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="44.45" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" customHeight="1" spans="1:5">
       <c r="A18" s="1" t="s">
         <v>70</v>
       </c>
@@ -2255,7 +2793,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="19" spans="1:5" ht="44.45" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" customHeight="1" spans="1:5">
       <c r="A19" s="1" t="s">
         <v>74</v>
       </c>
@@ -2272,7 +2810,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="20" spans="1:5" ht="44.45" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" customHeight="1" spans="1:5">
       <c r="A20" s="1" t="s">
         <v>78</v>
       </c>
@@ -2289,7 +2827,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="21" spans="1:5" ht="44.45" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" customHeight="1" spans="1:5">
       <c r="A21" s="1" t="s">
         <v>82</v>
       </c>
@@ -2306,7 +2844,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="22" spans="1:5" ht="44.45" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" customHeight="1" spans="1:5">
       <c r="A22" s="1" t="s">
         <v>86</v>
       </c>
@@ -2323,7 +2861,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="23" spans="1:5" ht="44.45" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" customHeight="1" spans="1:5">
       <c r="A23" s="1" t="s">
         <v>90</v>
       </c>
@@ -2340,7 +2878,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="24" spans="1:5" ht="44.45" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" customHeight="1" spans="1:5">
       <c r="A24" s="1" t="s">
         <v>94</v>
       </c>
@@ -2357,7 +2895,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="25" spans="1:5" ht="44.45" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" customHeight="1" spans="1:5">
       <c r="A25" s="1" t="s">
         <v>98</v>
       </c>
@@ -2374,7 +2912,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="26" spans="1:5" ht="44.45" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" customHeight="1" spans="1:5">
       <c r="A26" s="1" t="s">
         <v>102</v>
       </c>
@@ -2391,7 +2929,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="27" spans="1:5" ht="44.45" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" customHeight="1" spans="1:5">
       <c r="A27" s="1" t="s">
         <v>106</v>
       </c>
@@ -2408,7 +2946,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="28" spans="1:5" ht="44.45" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" customHeight="1" spans="1:5">
       <c r="A28" s="1" t="s">
         <v>110</v>
       </c>
@@ -2425,7 +2963,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="29" spans="1:5" ht="44.45" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" customHeight="1" spans="1:5">
       <c r="A29" s="1" t="s">
         <v>114</v>
       </c>
@@ -2442,7 +2980,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="30" spans="1:5" ht="44.45" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="30" customHeight="1" spans="1:5">
       <c r="A30" s="1" t="s">
         <v>118</v>
       </c>
@@ -2459,7 +2997,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="31" spans="1:5" ht="44.45" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="31" customHeight="1" spans="1:5">
       <c r="A31" s="1" t="s">
         <v>122</v>
       </c>
@@ -2476,7 +3014,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="32" spans="1:5" ht="44.45" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="32" customHeight="1" spans="1:5">
       <c r="A32" s="1" t="s">
         <v>126</v>
       </c>
@@ -2493,7 +3031,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="33" spans="1:5" ht="44.45" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="33" customHeight="1" spans="1:5">
       <c r="A33" s="1" t="s">
         <v>130</v>
       </c>
@@ -2510,7 +3048,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="34" spans="1:5" ht="44.45" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="34" customHeight="1" spans="1:5">
       <c r="A34" s="1" t="s">
         <v>134</v>
       </c>
@@ -2527,7 +3065,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="35" spans="1:5" ht="44.45" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="35" customHeight="1" spans="1:5">
       <c r="A35" s="1" t="s">
         <v>138</v>
       </c>
@@ -2544,7 +3082,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="36" spans="1:5" ht="44.45" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="36" customHeight="1" spans="1:5">
       <c r="A36" s="1" t="s">
         <v>142</v>
       </c>
@@ -2561,7 +3099,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="37" spans="1:5" ht="44.45" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="37" customHeight="1" spans="1:5">
       <c r="A37" s="1" t="s">
         <v>146</v>
       </c>
@@ -2578,7 +3116,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="38" spans="1:5" ht="44.45" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="38" customHeight="1" spans="1:5">
       <c r="A38" s="1" t="s">
         <v>150</v>
       </c>
@@ -2595,7 +3133,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="39" spans="1:5" ht="44.45" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="39" customHeight="1" spans="1:5">
       <c r="A39" s="1" t="s">
         <v>154</v>
       </c>
@@ -2612,7 +3150,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="40" spans="1:5" ht="44.45" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="40" customHeight="1" spans="1:5">
       <c r="A40" s="1" t="s">
         <v>158</v>
       </c>
@@ -2629,7 +3167,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="41" spans="1:5" ht="44.45" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="41" customHeight="1" spans="1:5">
       <c r="A41" s="1" t="s">
         <v>162</v>
       </c>
@@ -2646,7 +3184,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="42" spans="1:5" ht="44.45" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="42" customHeight="1" spans="1:5">
       <c r="A42" s="1" t="s">
         <v>166</v>
       </c>
@@ -2663,7 +3201,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="43" spans="1:5" ht="44.45" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="43" customHeight="1" spans="1:5">
       <c r="A43" s="1" t="s">
         <v>170</v>
       </c>
@@ -2680,7 +3218,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="44" spans="1:5" ht="44.45" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="44" customHeight="1" spans="1:5">
       <c r="A44" s="1" t="s">
         <v>174</v>
       </c>
@@ -2697,7 +3235,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="45" spans="1:5" ht="44.45" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="45" customHeight="1" spans="1:5">
       <c r="A45" s="1" t="s">
         <v>178</v>
       </c>
@@ -2714,7 +3252,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="46" spans="1:5" ht="44.45" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="46" customHeight="1" spans="1:5">
       <c r="A46" s="1" t="s">
         <v>182</v>
       </c>
@@ -2731,7 +3269,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="47" spans="1:5" ht="44.45" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="47" customHeight="1" spans="1:5">
       <c r="A47" s="1" t="s">
         <v>186</v>
       </c>
@@ -2748,7 +3286,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="48" spans="1:5" ht="44.45" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="48" customHeight="1" spans="1:5">
       <c r="A48" s="1" t="s">
         <v>190</v>
       </c>
@@ -2765,7 +3303,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="49" spans="1:5" ht="44.45" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="49" customHeight="1" spans="1:5">
       <c r="A49" s="1" t="s">
         <v>194</v>
       </c>
@@ -2782,7 +3320,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="50" spans="1:5" ht="44.45" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="50" customHeight="1" spans="1:5">
       <c r="A50" s="1" t="s">
         <v>198</v>
       </c>
@@ -2799,7 +3337,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="51" spans="1:5" ht="44.45" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="51" customHeight="1" spans="1:5">
       <c r="A51" s="1" t="s">
         <v>202</v>
       </c>
@@ -2816,7 +3354,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="52" spans="1:5" ht="44.45" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="52" customHeight="1" spans="1:5">
       <c r="A52" s="1" t="s">
         <v>206</v>
       </c>
@@ -2833,7 +3371,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="53" spans="1:5" ht="44.45" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="53" customHeight="1" spans="1:5">
       <c r="A53" s="1" t="s">
         <v>210</v>
       </c>
@@ -2850,7 +3388,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="54" spans="1:5" ht="44.45" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="54" customHeight="1" spans="1:5">
       <c r="A54" s="1" t="s">
         <v>214</v>
       </c>
@@ -2867,7 +3405,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="55" spans="1:5" ht="44.45" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="55" customHeight="1" spans="1:5">
       <c r="A55" s="1" t="s">
         <v>218</v>
       </c>
@@ -2884,7 +3422,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="56" spans="1:5" ht="44.45" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="56" customHeight="1" spans="1:5">
       <c r="A56" s="1" t="s">
         <v>222</v>
       </c>
@@ -2901,7 +3439,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="57" spans="1:5" ht="44.45" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="57" customHeight="1" spans="1:5">
       <c r="A57" s="1" t="s">
         <v>226</v>
       </c>
@@ -2918,7 +3456,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="58" spans="1:5" ht="44.45" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="58" customHeight="1" spans="1:5">
       <c r="A58" s="1" t="s">
         <v>230</v>
       </c>
@@ -2935,7 +3473,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="59" spans="1:5" ht="44.45" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="59" customHeight="1" spans="1:5">
       <c r="A59" s="1" t="s">
         <v>234</v>
       </c>
@@ -2952,7 +3490,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="60" spans="1:5" ht="44.45" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="60" customHeight="1" spans="1:5">
       <c r="A60" s="1" t="s">
         <v>238</v>
       </c>
@@ -2969,7 +3507,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="61" spans="1:5" ht="44.45" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="61" customHeight="1" spans="1:5">
       <c r="A61" s="1" t="s">
         <v>242</v>
       </c>
@@ -2986,7 +3524,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="62" spans="1:5" ht="44.45" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="62" customHeight="1" spans="1:5">
       <c r="A62" s="1" t="s">
         <v>246</v>
       </c>
@@ -3003,7 +3541,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="63" spans="1:5" ht="44.45" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="63" customHeight="1" spans="1:5">
       <c r="A63" s="1" t="s">
         <v>250</v>
       </c>
@@ -3020,7 +3558,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="64" spans="1:5" ht="44.45" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="64" customHeight="1" spans="1:5">
       <c r="A64" s="1" t="s">
         <v>254</v>
       </c>
@@ -3037,7 +3575,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="65" spans="1:5" ht="44.45" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="65" customHeight="1" spans="1:5">
       <c r="A65" s="1" t="s">
         <v>258</v>
       </c>
@@ -3054,7 +3592,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="66" spans="1:5" ht="44.45" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="66" customHeight="1" spans="1:5">
       <c r="A66" s="1" t="s">
         <v>262</v>
       </c>
@@ -3071,7 +3609,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="67" spans="1:5" ht="44.45" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="67" customHeight="1" spans="1:5">
       <c r="A67" s="1" t="s">
         <v>266</v>
       </c>
@@ -3088,7 +3626,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="68" spans="1:5" ht="44.45" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="68" customHeight="1" spans="1:5">
       <c r="A68" s="1" t="s">
         <v>270</v>
       </c>
@@ -3105,7 +3643,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="69" spans="1:5" ht="44.45" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="69" customHeight="1" spans="1:5">
       <c r="A69" s="1" t="s">
         <v>274</v>
       </c>
@@ -3122,7 +3660,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="70" spans="1:5" ht="44.45" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="70" customHeight="1" spans="1:5">
       <c r="A70" s="1" t="s">
         <v>278</v>
       </c>
@@ -3139,7 +3677,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="71" spans="1:5" ht="44.45" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="71" customHeight="1" spans="1:5">
       <c r="A71" s="1" t="s">
         <v>282</v>
       </c>
@@ -3156,7 +3694,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="72" spans="1:5" ht="44.45" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="72" customHeight="1" spans="1:5">
       <c r="A72" s="1" t="s">
         <v>286</v>
       </c>
@@ -3173,7 +3711,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="73" spans="1:5" ht="44.45" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="73" customHeight="1" spans="1:5">
       <c r="A73" s="1" t="s">
         <v>290</v>
       </c>
@@ -3190,7 +3728,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="74" spans="1:5" ht="44.45" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="74" customHeight="1" spans="1:5">
       <c r="A74" s="1" t="s">
         <v>294</v>
       </c>
@@ -3207,7 +3745,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="75" spans="1:5" ht="44.45" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="75" customHeight="1" spans="1:5">
       <c r="A75" s="1" t="s">
         <v>298</v>
       </c>
@@ -3224,7 +3762,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="76" spans="1:5" ht="44.45" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="76" customHeight="1" spans="1:5">
       <c r="A76" s="1" t="s">
         <v>302</v>
       </c>
@@ -3241,7 +3779,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="77" spans="1:5" ht="44.45" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="77" customHeight="1" spans="1:5">
       <c r="A77" s="1" t="s">
         <v>306</v>
       </c>
@@ -3258,7 +3796,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="78" spans="1:5" ht="44.45" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="78" customHeight="1" spans="1:5">
       <c r="A78" s="1" t="s">
         <v>310</v>
       </c>
@@ -3275,7 +3813,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="79" spans="1:5" ht="44.45" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="79" customHeight="1" spans="1:5">
       <c r="A79" s="1" t="s">
         <v>314</v>
       </c>
@@ -3292,7 +3830,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="80" spans="1:5" ht="44.45" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="80" customHeight="1" spans="1:5">
       <c r="A80" s="1" t="s">
         <v>318</v>
       </c>
@@ -3309,7 +3847,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="81" spans="1:5" ht="44.45" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="81" customHeight="1" spans="1:5">
       <c r="A81" s="1" t="s">
         <v>322</v>
       </c>
@@ -3326,7 +3864,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="82" spans="1:5" ht="44.45" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="82" customHeight="1" spans="1:5">
       <c r="A82" s="1" t="s">
         <v>326</v>
       </c>
@@ -3343,7 +3881,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="83" spans="1:5" ht="44.45" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="83" customHeight="1" spans="1:5">
       <c r="A83" s="1" t="s">
         <v>330</v>
       </c>
@@ -3360,7 +3898,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="84" spans="1:5" ht="44.45" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="84" customHeight="1" spans="1:5">
       <c r="A84" s="1" t="s">
         <v>334</v>
       </c>
@@ -3377,7 +3915,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="85" spans="1:5" ht="44.45" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="85" customHeight="1" spans="1:5">
       <c r="A85" s="1" t="s">
         <v>338</v>
       </c>
@@ -3394,7 +3932,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="86" spans="1:5" ht="44.45" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="86" customHeight="1" spans="1:5">
       <c r="A86" s="1" t="s">
         <v>342</v>
       </c>
@@ -3411,7 +3949,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="87" spans="1:5" ht="44.45" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="87" customHeight="1" spans="1:5">
       <c r="A87" s="1" t="s">
         <v>346</v>
       </c>
@@ -3428,7 +3966,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="88" spans="1:5" ht="44.45" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="88" customHeight="1" spans="1:5">
       <c r="A88" s="1" t="s">
         <v>350</v>
       </c>
@@ -3445,7 +3983,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="89" spans="1:5" ht="44.45" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="89" customHeight="1" spans="1:5">
       <c r="A89" s="1" t="s">
         <v>354</v>
       </c>
@@ -3462,7 +4000,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="90" spans="1:5" ht="44.45" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="90" customHeight="1" spans="1:5">
       <c r="A90" s="1" t="s">
         <v>358</v>
       </c>
@@ -3479,7 +4017,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="91" spans="1:5" ht="44.45" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="91" customHeight="1" spans="1:5">
       <c r="A91" s="1" t="s">
         <v>362</v>
       </c>
@@ -3496,7 +4034,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="92" spans="1:5" ht="44.45" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="92" customHeight="1" spans="1:5">
       <c r="A92" s="1" t="s">
         <v>366</v>
       </c>
@@ -3513,7 +4051,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="93" spans="1:5" ht="44.45" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="93" customHeight="1" spans="1:5">
       <c r="A93" s="1" t="s">
         <v>370</v>
       </c>
@@ -3530,7 +4068,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="94" spans="1:5" ht="44.45" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="94" customHeight="1" spans="1:5">
       <c r="A94" s="1" t="s">
         <v>374</v>
       </c>
@@ -3547,7 +4085,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="95" spans="1:5" ht="44.45" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="95" customHeight="1" spans="1:5">
       <c r="A95" s="1" t="s">
         <v>378</v>
       </c>
@@ -3564,7 +4102,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="96" spans="1:5" ht="44.45" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="96" customHeight="1" spans="1:5">
       <c r="A96" s="1" t="s">
         <v>382</v>
       </c>
@@ -3581,7 +4119,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="97" spans="1:5" ht="44.45" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="97" customHeight="1" spans="1:5">
       <c r="A97" s="1" t="s">
         <v>386</v>
       </c>
@@ -3598,7 +4136,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="98" spans="1:5" ht="44.45" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="98" customHeight="1" spans="1:5">
       <c r="A98" s="1" t="s">
         <v>390</v>
       </c>
@@ -3615,7 +4153,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="99" spans="1:5" ht="44.45" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="99" customHeight="1" spans="1:5">
       <c r="A99" s="1" t="s">
         <v>394</v>
       </c>
@@ -3632,7 +4170,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="100" spans="1:5" ht="44.45" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="100" customHeight="1" spans="1:5">
       <c r="A100" s="1" t="s">
         <v>398</v>
       </c>
@@ -3649,7 +4187,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="101" spans="1:5" ht="44.45" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="101" customHeight="1" spans="1:5">
       <c r="A101" s="1" t="s">
         <v>402</v>
       </c>
@@ -3666,7 +4204,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="102" spans="1:5" ht="44.45" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="102" customHeight="1" spans="1:5">
       <c r="A102" s="1" t="s">
         <v>406</v>
       </c>
@@ -3683,7 +4221,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="103" spans="1:5" ht="44.45" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="103" customHeight="1" spans="1:5">
       <c r="A103" s="1" t="s">
         <v>410</v>
       </c>
@@ -3700,7 +4238,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="104" spans="1:5" ht="44.45" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="104" customHeight="1" spans="1:5">
       <c r="A104" s="1" t="s">
         <v>414</v>
       </c>
@@ -3717,7 +4255,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="105" spans="1:5" ht="44.45" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="105" customHeight="1" spans="1:5">
       <c r="A105" s="1" t="s">
         <v>418</v>
       </c>
@@ -3734,7 +4272,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="106" spans="1:5" ht="44.45" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="106" customHeight="1" spans="1:5">
       <c r="A106" s="1" t="s">
         <v>422</v>
       </c>
@@ -3751,7 +4289,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="107" spans="1:5" ht="44.45" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="107" customHeight="1" spans="1:5">
       <c r="A107" s="1" t="s">
         <v>426</v>
       </c>
@@ -3768,7 +4306,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="108" spans="1:5" ht="44.45" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="108" customHeight="1" spans="1:5">
       <c r="A108" s="1" t="s">
         <v>430</v>
       </c>
@@ -3785,7 +4323,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="109" spans="1:5" ht="44.45" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="109" customHeight="1" spans="1:5">
       <c r="A109" s="1" t="s">
         <v>434</v>
       </c>
@@ -3802,7 +4340,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="110" spans="1:5" ht="44.45" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="110" customHeight="1" spans="1:5">
       <c r="A110" s="1" t="s">
         <v>438</v>
       </c>
@@ -3819,7 +4357,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="111" spans="1:5" ht="44.45" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="111" customHeight="1" spans="1:5">
       <c r="A111" s="1" t="s">
         <v>442</v>
       </c>
@@ -3836,7 +4374,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="112" spans="1:5" ht="44.45" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="112" customHeight="1" spans="1:5">
       <c r="A112" s="1" t="s">
         <v>446</v>
       </c>
@@ -3853,7 +4391,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="113" spans="1:5" ht="44.45" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="113" customHeight="1" spans="1:5">
       <c r="A113" s="1" t="s">
         <v>450</v>
       </c>
@@ -3870,7 +4408,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="114" spans="1:5" ht="44.45" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="114" customHeight="1" spans="1:5">
       <c r="A114" s="1" t="s">
         <v>454</v>
       </c>
@@ -3887,7 +4425,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="115" spans="1:5" ht="44.45" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="115" customHeight="1" spans="1:5">
       <c r="A115" s="1" t="s">
         <v>458</v>
       </c>
@@ -3904,7 +4442,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="116" spans="1:5" ht="44.45" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="116" customHeight="1" spans="1:5">
       <c r="A116" s="1" t="s">
         <v>462</v>
       </c>
@@ -3921,7 +4459,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="117" spans="1:5" ht="44.45" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="117" customHeight="1" spans="1:5">
       <c r="A117" s="1" t="s">
         <v>466</v>
       </c>
@@ -3938,7 +4476,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="118" spans="1:5" ht="44.45" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="118" customHeight="1" spans="1:5">
       <c r="A118" s="1" t="s">
         <v>470</v>
       </c>
@@ -3955,7 +4493,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="119" spans="1:5" ht="44.45" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="119" customHeight="1" spans="1:5">
       <c r="A119" s="1" t="s">
         <v>474</v>
       </c>
@@ -3972,7 +4510,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="120" spans="1:5" ht="44.45" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="120" customHeight="1" spans="1:5">
       <c r="A120" s="1" t="s">
         <v>478</v>
       </c>
@@ -3989,7 +4527,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="121" spans="1:5" ht="44.45" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="121" customHeight="1" spans="1:5">
       <c r="A121" s="1" t="s">
         <v>482</v>
       </c>
@@ -4006,112 +4544,12 @@
         <v>485</v>
       </c>
     </row>
-    <row r="122" spans="1:5" ht="44.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A122" s="1" t="s">
-        <v>486</v>
-      </c>
-      <c r="B122" s="1" t="s">
-        <v>487</v>
-      </c>
-      <c r="C122" s="1" t="s">
-        <v>488</v>
-      </c>
-      <c r="D122" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E122" s="1" t="s">
-        <v>489</v>
-      </c>
-    </row>
-    <row r="123" spans="1:5" ht="44.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A123" s="1" t="s">
-        <v>490</v>
-      </c>
-      <c r="B123" s="1" t="s">
-        <v>491</v>
-      </c>
-      <c r="C123" s="1" t="s">
-        <v>492</v>
-      </c>
-      <c r="D123" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E123" s="1" t="s">
-        <v>493</v>
-      </c>
-    </row>
-    <row r="124" spans="1:5" ht="44.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A124" s="1" t="s">
-        <v>494</v>
-      </c>
-      <c r="B124" s="1" t="s">
-        <v>495</v>
-      </c>
-      <c r="C124" s="1" t="s">
-        <v>496</v>
-      </c>
-      <c r="D124" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E124" s="1" t="s">
-        <v>497</v>
-      </c>
-    </row>
-    <row r="125" spans="1:5" ht="44.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A125" s="1" t="s">
-        <v>498</v>
-      </c>
-      <c r="B125" s="1" t="s">
-        <v>499</v>
-      </c>
-      <c r="C125" s="1" t="s">
-        <v>500</v>
-      </c>
-      <c r="D125" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E125" s="1" t="s">
-        <v>501</v>
-      </c>
-    </row>
-    <row r="126" spans="1:5" ht="44.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A126" s="1" t="s">
-        <v>502</v>
-      </c>
-      <c r="B126" s="1" t="s">
-        <v>503</v>
-      </c>
-      <c r="C126" s="1" t="s">
-        <v>504</v>
-      </c>
-      <c r="D126" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E126" s="1" t="s">
-        <v>505</v>
-      </c>
-    </row>
-    <row r="127" spans="1:5" ht="44.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A127" s="1" t="s">
-        <v>506</v>
-      </c>
-      <c r="B127" s="1" t="s">
-        <v>507</v>
-      </c>
-      <c r="C127" s="1" t="s">
-        <v>508</v>
-      </c>
-      <c r="D127" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E127" s="1" t="s">
-        <v>509</v>
-      </c>
-    </row>
   </sheetData>
-  <autoFilter ref="A1:E127" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
-  <phoneticPr fontId="1" type="noConversion"/>
+  <autoFilter ref="A1:E121">
+    <extLst/>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="1" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/.ready/最新发布资源-维格视图.xlsx
+++ b/.ready/最新发布资源-维格视图.xlsx
@@ -10,14 +10,14 @@
     <sheet name="维格视图" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">维格视图!$A$1:$E$121</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">维格视图!$A$1:$E$118</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="605" uniqueCount="486">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="590" uniqueCount="474">
   <si>
     <t>标题</t>
   </si>
@@ -1439,42 +1439,6 @@
   </si>
   <si>
     <t>2024/03/07 14:14</t>
-  </si>
-  <si>
-    <t>B站 - 孙志立简明英语音标教程50讲</t>
-  </si>
-  <si>
-    <t>https://www.alipan.com/s/q9WNoxgVSiF</t>
-  </si>
-  <si>
-    <t>https://pan.quark.cn/s/66a501607cc9</t>
-  </si>
-  <si>
-    <t>2024/03/07 12:36</t>
-  </si>
-  <si>
-    <t>极客时间 - Node.js 开发实战</t>
-  </si>
-  <si>
-    <t>https://www.alipan.com/s/f151Xbo4CxJ</t>
-  </si>
-  <si>
-    <t>https://pan.quark.cn/s/a8a70ee15447</t>
-  </si>
-  <si>
-    <t>2024/03/07 11:00</t>
-  </si>
-  <si>
-    <t>B站 - 武汉大学赵林教授的西方哲学课</t>
-  </si>
-  <si>
-    <t>https://www.alipan.com/s/SKWjWmZRqhd</t>
-  </si>
-  <si>
-    <t>https://pan.quark.cn/s/387e6b2f4c39</t>
-  </si>
-  <si>
-    <t>2024/03/07 09:02</t>
   </si>
 </sst>
 </file>
@@ -2476,10 +2440,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E121"/>
+  <dimension ref="A1:E118"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A117" workbookViewId="0">
-      <selection activeCell="B122" sqref="B122"/>
+      <selection activeCell="A120" sqref="A120"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="38.6666666666667" defaultRowHeight="44.45" customHeight="1" outlineLevelCol="4"/>
@@ -4493,59 +4457,8 @@
         <v>473</v>
       </c>
     </row>
-    <row r="119" customHeight="1" spans="1:5">
-      <c r="A119" s="1" t="s">
-        <v>474</v>
-      </c>
-      <c r="B119" s="1" t="s">
-        <v>475</v>
-      </c>
-      <c r="C119" s="1" t="s">
-        <v>476</v>
-      </c>
-      <c r="D119" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E119" s="1" t="s">
-        <v>477</v>
-      </c>
-    </row>
-    <row r="120" customHeight="1" spans="1:5">
-      <c r="A120" s="1" t="s">
-        <v>478</v>
-      </c>
-      <c r="B120" s="1" t="s">
-        <v>479</v>
-      </c>
-      <c r="C120" s="1" t="s">
-        <v>480</v>
-      </c>
-      <c r="D120" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E120" s="1" t="s">
-        <v>481</v>
-      </c>
-    </row>
-    <row r="121" customHeight="1" spans="1:5">
-      <c r="A121" s="1" t="s">
-        <v>482</v>
-      </c>
-      <c r="B121" s="1" t="s">
-        <v>483</v>
-      </c>
-      <c r="C121" s="1" t="s">
-        <v>484</v>
-      </c>
-      <c r="D121" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E121" s="1" t="s">
-        <v>485</v>
-      </c>
-    </row>
   </sheetData>
-  <autoFilter ref="A1:E121">
+  <autoFilter ref="A1:E118">
     <extLst/>
   </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/.ready/最新发布资源-维格视图.xlsx
+++ b/.ready/最新发布资源-维格视图.xlsx
@@ -10,14 +10,14 @@
     <sheet name="维格视图" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">维格视图!$A$1:$E$118</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">维格视图!$A$1:$E$113</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="590" uniqueCount="474">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="565" uniqueCount="454">
   <si>
     <t>标题</t>
   </si>
@@ -1379,66 +1379,6 @@
   </si>
   <si>
     <t>2024/03/08 22:06</t>
-  </si>
-  <si>
-    <t>uni-app实战教程 - 《悦读》项目实战 - 带源码课件</t>
-  </si>
-  <si>
-    <t>https://www.alipan.com/s/M3iBMWrJ2gU</t>
-  </si>
-  <si>
-    <t>https://pan.quark.cn/s/43d9a242963d</t>
-  </si>
-  <si>
-    <t>2024/03/08 17:15</t>
-  </si>
-  <si>
-    <t>B站 - 江无情：福尔摩斯的推理笔记</t>
-  </si>
-  <si>
-    <t>https://www.alipan.com/s/ogVjQzXroRo</t>
-  </si>
-  <si>
-    <t>https://pan.quark.cn/s/46edf41eb668</t>
-  </si>
-  <si>
-    <t>2024/03/07 22:58</t>
-  </si>
-  <si>
-    <t>B站 - 林超：给年轻人的跨学科通识课</t>
-  </si>
-  <si>
-    <t>https://www.alipan.com/s/3iVfb46Srhp</t>
-  </si>
-  <si>
-    <t>https://pan.quark.cn/s/42b3ef3840c8</t>
-  </si>
-  <si>
-    <t>2024/03/07 21:51</t>
-  </si>
-  <si>
-    <t>极客时间 - 张汉东的 Rust 实战课</t>
-  </si>
-  <si>
-    <t>https://www.alipan.com/s/4FcmchpZtgC</t>
-  </si>
-  <si>
-    <t>https://pan.quark.cn/s/044f4456d1a5</t>
-  </si>
-  <si>
-    <t>2024/03/07 17:03</t>
-  </si>
-  <si>
-    <t>极客时间 - 移动端自动化测试实战</t>
-  </si>
-  <si>
-    <t>https://www.alipan.com/s/VbnDGjJqEBQ</t>
-  </si>
-  <si>
-    <t>https://pan.quark.cn/s/9d97c9d4c1f7</t>
-  </si>
-  <si>
-    <t>2024/03/07 14:14</t>
   </si>
 </sst>
 </file>
@@ -2440,10 +2380,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E118"/>
+  <dimension ref="A1:E113"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A117" workbookViewId="0">
-      <selection activeCell="A120" sqref="A120"/>
+    <sheetView tabSelected="1" topLeftCell="A113" workbookViewId="0">
+      <selection activeCell="B117" sqref="B117"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="38.6666666666667" defaultRowHeight="44.45" customHeight="1" outlineLevelCol="4"/>
@@ -4372,93 +4312,8 @@
         <v>453</v>
       </c>
     </row>
-    <row r="114" customHeight="1" spans="1:5">
-      <c r="A114" s="1" t="s">
-        <v>454</v>
-      </c>
-      <c r="B114" s="1" t="s">
-        <v>455</v>
-      </c>
-      <c r="C114" s="1" t="s">
-        <v>456</v>
-      </c>
-      <c r="D114" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E114" s="1" t="s">
-        <v>457</v>
-      </c>
-    </row>
-    <row r="115" customHeight="1" spans="1:5">
-      <c r="A115" s="1" t="s">
-        <v>458</v>
-      </c>
-      <c r="B115" s="1" t="s">
-        <v>459</v>
-      </c>
-      <c r="C115" s="1" t="s">
-        <v>460</v>
-      </c>
-      <c r="D115" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E115" s="1" t="s">
-        <v>461</v>
-      </c>
-    </row>
-    <row r="116" customHeight="1" spans="1:5">
-      <c r="A116" s="1" t="s">
-        <v>462</v>
-      </c>
-      <c r="B116" s="1" t="s">
-        <v>463</v>
-      </c>
-      <c r="C116" s="1" t="s">
-        <v>464</v>
-      </c>
-      <c r="D116" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E116" s="1" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="117" customHeight="1" spans="1:5">
-      <c r="A117" s="1" t="s">
-        <v>466</v>
-      </c>
-      <c r="B117" s="1" t="s">
-        <v>467</v>
-      </c>
-      <c r="C117" s="1" t="s">
-        <v>468</v>
-      </c>
-      <c r="D117" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E117" s="1" t="s">
-        <v>469</v>
-      </c>
-    </row>
-    <row r="118" customHeight="1" spans="1:5">
-      <c r="A118" s="1" t="s">
-        <v>470</v>
-      </c>
-      <c r="B118" s="1" t="s">
-        <v>471</v>
-      </c>
-      <c r="C118" s="1" t="s">
-        <v>472</v>
-      </c>
-      <c r="D118" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E118" s="1" t="s">
-        <v>473</v>
-      </c>
-    </row>
   </sheetData>
-  <autoFilter ref="A1:E118">
+  <autoFilter ref="A1:E113">
     <extLst/>
   </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/.ready/最新发布资源-维格视图.xlsx
+++ b/.ready/最新发布资源-维格视图.xlsx
@@ -10,14 +10,14 @@
     <sheet name="维格视图" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">维格视图!$A$1:$E$113</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">维格视图!$A$1:$E$107</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="565" uniqueCount="454">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="535" uniqueCount="430">
   <si>
     <t>标题</t>
   </si>
@@ -1307,78 +1307,6 @@
   </si>
   <si>
     <t>2024/03/10 09:37</t>
-  </si>
-  <si>
-    <t>极客时间 - 微服务架构核心 20 讲</t>
-  </si>
-  <si>
-    <t>https://www.alipan.com/s/ny3nt1rCyCu</t>
-  </si>
-  <si>
-    <t>https://pan.quark.cn/s/81da5925a5bf</t>
-  </si>
-  <si>
-    <t>2024/03/10 02:42</t>
-  </si>
-  <si>
-    <t>B站 - 十分绘画：绘画萌新入门创造营</t>
-  </si>
-  <si>
-    <t>https://www.alipan.com/s/YZYJ2V4RvRS</t>
-  </si>
-  <si>
-    <t>https://pan.quark.cn/s/8956e9e378f6</t>
-  </si>
-  <si>
-    <t>2024/03/09 13:48</t>
-  </si>
-  <si>
-    <t>【博学谷】狂野架构师-第5期</t>
-  </si>
-  <si>
-    <t>https://www.alipan.com/s/BvDC9WMyAeZ</t>
-  </si>
-  <si>
-    <t>https://pan.quark.cn/s/a6697b8f8297</t>
-  </si>
-  <si>
-    <t>2024/03/09 09:50</t>
-  </si>
-  <si>
-    <t>B站 - 顶级互联网工程师的计算机思维课</t>
-  </si>
-  <si>
-    <t>https://www.alipan.com/s/xcQLEqtcKG7</t>
-  </si>
-  <si>
-    <t>https://pan.quark.cn/s/416d2051d6cb</t>
-  </si>
-  <si>
-    <t>2024/03/09 05:18</t>
-  </si>
-  <si>
-    <t>【新学未】国际音标-精华班（剑桥认证国际教师）</t>
-  </si>
-  <si>
-    <t>https://www.alipan.com/s/fKdsx56T3Gi</t>
-  </si>
-  <si>
-    <t>https://pan.quark.cn/s/94b32942cffc</t>
-  </si>
-  <si>
-    <t>2024/03/09 01:52</t>
-  </si>
-  <si>
-    <t>B站 - 珍大户 - 认知世界的经济学</t>
-  </si>
-  <si>
-    <t>https://www.alipan.com/s/DA6frAV3Fo1</t>
-  </si>
-  <si>
-    <t>https://pan.quark.cn/s/c9497ffd9154</t>
-  </si>
-  <si>
-    <t>2024/03/08 22:06</t>
   </si>
 </sst>
 </file>
@@ -2380,10 +2308,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E113"/>
+  <dimension ref="A1:E107"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A113" workbookViewId="0">
-      <selection activeCell="B117" sqref="B117"/>
+    <sheetView tabSelected="1" topLeftCell="A105" workbookViewId="0">
+      <selection activeCell="B110" sqref="B110"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="38.6666666666667" defaultRowHeight="44.45" customHeight="1" outlineLevelCol="4"/>
@@ -4210,110 +4138,8 @@
         <v>429</v>
       </c>
     </row>
-    <row r="108" customHeight="1" spans="1:5">
-      <c r="A108" s="1" t="s">
-        <v>430</v>
-      </c>
-      <c r="B108" s="1" t="s">
-        <v>431</v>
-      </c>
-      <c r="C108" s="1" t="s">
-        <v>432</v>
-      </c>
-      <c r="D108" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E108" s="1" t="s">
-        <v>433</v>
-      </c>
-    </row>
-    <row r="109" customHeight="1" spans="1:5">
-      <c r="A109" s="1" t="s">
-        <v>434</v>
-      </c>
-      <c r="B109" s="1" t="s">
-        <v>435</v>
-      </c>
-      <c r="C109" s="1" t="s">
-        <v>436</v>
-      </c>
-      <c r="D109" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E109" s="1" t="s">
-        <v>437</v>
-      </c>
-    </row>
-    <row r="110" customHeight="1" spans="1:5">
-      <c r="A110" s="1" t="s">
-        <v>438</v>
-      </c>
-      <c r="B110" s="1" t="s">
-        <v>439</v>
-      </c>
-      <c r="C110" s="1" t="s">
-        <v>440</v>
-      </c>
-      <c r="D110" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E110" s="1" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="111" customHeight="1" spans="1:5">
-      <c r="A111" s="1" t="s">
-        <v>442</v>
-      </c>
-      <c r="B111" s="1" t="s">
-        <v>443</v>
-      </c>
-      <c r="C111" s="1" t="s">
-        <v>444</v>
-      </c>
-      <c r="D111" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E111" s="1" t="s">
-        <v>445</v>
-      </c>
-    </row>
-    <row r="112" customHeight="1" spans="1:5">
-      <c r="A112" s="1" t="s">
-        <v>446</v>
-      </c>
-      <c r="B112" s="1" t="s">
-        <v>447</v>
-      </c>
-      <c r="C112" s="1" t="s">
-        <v>448</v>
-      </c>
-      <c r="D112" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E112" s="1" t="s">
-        <v>449</v>
-      </c>
-    </row>
-    <row r="113" customHeight="1" spans="1:5">
-      <c r="A113" s="1" t="s">
-        <v>450</v>
-      </c>
-      <c r="B113" s="1" t="s">
-        <v>451</v>
-      </c>
-      <c r="C113" s="1" t="s">
-        <v>452</v>
-      </c>
-      <c r="D113" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E113" s="1" t="s">
-        <v>453</v>
-      </c>
-    </row>
   </sheetData>
-  <autoFilter ref="A1:E113">
+  <autoFilter ref="A1:E107">
     <extLst/>
   </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/.ready/最新发布资源-维格视图.xlsx
+++ b/.ready/最新发布资源-维格视图.xlsx
@@ -10,14 +10,14 @@
     <sheet name="维格视图" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">维格视图!$A$1:$E$107</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">维格视图!$A$1:$E$99</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="535" uniqueCount="430">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="495" uniqueCount="398">
   <si>
     <t>标题</t>
   </si>
@@ -1211,102 +1211,6 @@
   </si>
   <si>
     <t>2024/03/10 21:51</t>
-  </si>
-  <si>
-    <t>B站 - 王骁Albert：美国背面研究报告</t>
-  </si>
-  <si>
-    <t>https://www.alipan.com/s/ZxkVRqKh8VB</t>
-  </si>
-  <si>
-    <t>https://pan.quark.cn/s/a9d8679adc46</t>
-  </si>
-  <si>
-    <t>2024/03/10 20:43</t>
-  </si>
-  <si>
-    <t>B站 - 马勇教授：极简中国史</t>
-  </si>
-  <si>
-    <t>https://www.alipan.com/s/SuURcKFN1o1</t>
-  </si>
-  <si>
-    <t>https://pan.quark.cn/s/71c3e2054276</t>
-  </si>
-  <si>
-    <t>2024/03/10 17:41</t>
-  </si>
-  <si>
-    <t>B站 - 唐盾：N3+N2日语中级精讲</t>
-  </si>
-  <si>
-    <t>https://www.alipan.com/s/iyLpSdEX4jc</t>
-  </si>
-  <si>
-    <t>https://pan.quark.cn/s/63df9157f447</t>
-  </si>
-  <si>
-    <t>2024/03/10 16:58</t>
-  </si>
-  <si>
-    <t>零基础英语语法 零基础适用（全集50讲）</t>
-  </si>
-  <si>
-    <t>https://www.alipan.com/s/W9Y25F7yvcx</t>
-  </si>
-  <si>
-    <t>https://pan.quark.cn/s/a2bcc3f4b78d</t>
-  </si>
-  <si>
-    <t>2024/03/10 16:09</t>
-  </si>
-  <si>
-    <t>B站 - 翟东升：人民币汇率与人民币国际化</t>
-  </si>
-  <si>
-    <t>https://www.alipan.com/s/pHv2j84JVKU</t>
-  </si>
-  <si>
-    <t>https://pan.quark.cn/s/fd669bcc8f0d</t>
-  </si>
-  <si>
-    <t>2024/03/10 15:00</t>
-  </si>
-  <si>
-    <t>【黑马程序员】全面深入Mysql数据库优化_java进阶教程</t>
-  </si>
-  <si>
-    <t>https://www.alipan.com/s/BLAHJtJQdYY</t>
-  </si>
-  <si>
-    <t>https://pan.quark.cn/s/d632c96359ac</t>
-  </si>
-  <si>
-    <t>2024/03/10 11:37</t>
-  </si>
-  <si>
-    <t>极客时间 - 零基础学 Java</t>
-  </si>
-  <si>
-    <t>https://www.alipan.com/s/WqRX2Jm5nYA</t>
-  </si>
-  <si>
-    <t>https://pan.quark.cn/s/0190605c59d6</t>
-  </si>
-  <si>
-    <t>2024/03/10 10:33</t>
-  </si>
-  <si>
-    <t>极客时间 - 玩转 Git 三剑客</t>
-  </si>
-  <si>
-    <t>https://www.alipan.com/s/GkeH12vSsQ2</t>
-  </si>
-  <si>
-    <t>https://pan.quark.cn/s/5d72653f8eb4</t>
-  </si>
-  <si>
-    <t>2024/03/10 09:37</t>
   </si>
 </sst>
 </file>
@@ -2308,10 +2212,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E107"/>
+  <dimension ref="A1:E99"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A105" workbookViewId="0">
-      <selection activeCell="B110" sqref="B110"/>
+    <sheetView tabSelected="1" topLeftCell="A96" workbookViewId="0">
+      <selection activeCell="B100" sqref="B100"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="38.6666666666667" defaultRowHeight="44.45" customHeight="1" outlineLevelCol="4"/>
@@ -4002,144 +3906,8 @@
         <v>397</v>
       </c>
     </row>
-    <row r="100" customHeight="1" spans="1:5">
-      <c r="A100" s="1" t="s">
-        <v>398</v>
-      </c>
-      <c r="B100" s="1" t="s">
-        <v>399</v>
-      </c>
-      <c r="C100" s="1" t="s">
-        <v>400</v>
-      </c>
-      <c r="D100" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E100" s="1" t="s">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="101" customHeight="1" spans="1:5">
-      <c r="A101" s="1" t="s">
-        <v>402</v>
-      </c>
-      <c r="B101" s="1" t="s">
-        <v>403</v>
-      </c>
-      <c r="C101" s="1" t="s">
-        <v>404</v>
-      </c>
-      <c r="D101" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E101" s="1" t="s">
-        <v>405</v>
-      </c>
-    </row>
-    <row r="102" customHeight="1" spans="1:5">
-      <c r="A102" s="1" t="s">
-        <v>406</v>
-      </c>
-      <c r="B102" s="1" t="s">
-        <v>407</v>
-      </c>
-      <c r="C102" s="1" t="s">
-        <v>408</v>
-      </c>
-      <c r="D102" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E102" s="1" t="s">
-        <v>409</v>
-      </c>
-    </row>
-    <row r="103" customHeight="1" spans="1:5">
-      <c r="A103" s="1" t="s">
-        <v>410</v>
-      </c>
-      <c r="B103" s="1" t="s">
-        <v>411</v>
-      </c>
-      <c r="C103" s="1" t="s">
-        <v>412</v>
-      </c>
-      <c r="D103" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E103" s="1" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="104" customHeight="1" spans="1:5">
-      <c r="A104" s="1" t="s">
-        <v>414</v>
-      </c>
-      <c r="B104" s="1" t="s">
-        <v>415</v>
-      </c>
-      <c r="C104" s="1" t="s">
-        <v>416</v>
-      </c>
-      <c r="D104" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E104" s="1" t="s">
-        <v>417</v>
-      </c>
-    </row>
-    <row r="105" customHeight="1" spans="1:5">
-      <c r="A105" s="1" t="s">
-        <v>418</v>
-      </c>
-      <c r="B105" s="1" t="s">
-        <v>419</v>
-      </c>
-      <c r="C105" s="1" t="s">
-        <v>420</v>
-      </c>
-      <c r="D105" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E105" s="1" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="106" customHeight="1" spans="1:5">
-      <c r="A106" s="1" t="s">
-        <v>422</v>
-      </c>
-      <c r="B106" s="1" t="s">
-        <v>423</v>
-      </c>
-      <c r="C106" s="1" t="s">
-        <v>424</v>
-      </c>
-      <c r="D106" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E106" s="1" t="s">
-        <v>425</v>
-      </c>
-    </row>
-    <row r="107" customHeight="1" spans="1:5">
-      <c r="A107" s="1" t="s">
-        <v>426</v>
-      </c>
-      <c r="B107" s="1" t="s">
-        <v>427</v>
-      </c>
-      <c r="C107" s="1" t="s">
-        <v>428</v>
-      </c>
-      <c r="D107" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E107" s="1" t="s">
-        <v>429</v>
-      </c>
-    </row>
   </sheetData>
-  <autoFilter ref="A1:E107">
+  <autoFilter ref="A1:E99">
     <extLst/>
   </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/.ready/最新发布资源-维格视图.xlsx
+++ b/.ready/最新发布资源-维格视图.xlsx
@@ -10,14 +10,14 @@
     <sheet name="维格视图" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">维格视图!$A$1:$E$99</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">维格视图!$A$1:$E$94</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="495" uniqueCount="398">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="470" uniqueCount="378">
   <si>
     <t>标题</t>
   </si>
@@ -1151,66 +1151,6 @@
   </si>
   <si>
     <t>2024/03/12 06:22</t>
-  </si>
-  <si>
-    <t>极客时间 - Elasticsearch 核心技术与实战</t>
-  </si>
-  <si>
-    <t>https://www.alipan.com/s/UtUCqojk9xR</t>
-  </si>
-  <si>
-    <t>https://pan.quark.cn/s/2f4831d1ecbd</t>
-  </si>
-  <si>
-    <t>2024/03/12 02:02</t>
-  </si>
-  <si>
-    <t>极客时间 - Java项目实战营 - 6期 - 带源码课件</t>
-  </si>
-  <si>
-    <t>https://www.alipan.com/s/9HCF1z2V3df</t>
-  </si>
-  <si>
-    <t>https://pan.quark.cn/s/000e90abd889</t>
-  </si>
-  <si>
-    <t>2024/03/11 16:13</t>
-  </si>
-  <si>
-    <t>懒小木 - 半导体器件建模仿真与分析教程</t>
-  </si>
-  <si>
-    <t>https://www.alipan.com/s/8ZYT3fD3ZKV</t>
-  </si>
-  <si>
-    <t>https://pan.quark.cn/s/f7fe5af24f59</t>
-  </si>
-  <si>
-    <t>2024/03/11 14:09</t>
-  </si>
-  <si>
-    <t>B站 - 代代木动画学院：零基础绘画课程（角色篇）</t>
-  </si>
-  <si>
-    <t>https://www.alipan.com/s/2nMBwhCmmEA</t>
-  </si>
-  <si>
-    <t>https://pan.quark.cn/s/b85e802cd77d</t>
-  </si>
-  <si>
-    <t>2024/03/11 02:10</t>
-  </si>
-  <si>
-    <t>B站 - 戴锦华大师电影课：性别与凝视</t>
-  </si>
-  <si>
-    <t>https://www.alipan.com/s/4UmfzuTrcCB</t>
-  </si>
-  <si>
-    <t>https://pan.quark.cn/s/bb26254a8324</t>
-  </si>
-  <si>
-    <t>2024/03/10 21:51</t>
   </si>
 </sst>
 </file>
@@ -2212,10 +2152,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E99"/>
+  <dimension ref="A1:E94"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A96" workbookViewId="0">
-      <selection activeCell="B100" sqref="B100"/>
+    <sheetView tabSelected="1" topLeftCell="A92" workbookViewId="0">
+      <selection activeCell="B97" sqref="B97"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="38.6666666666667" defaultRowHeight="44.45" customHeight="1" outlineLevelCol="4"/>
@@ -3821,93 +3761,8 @@
         <v>377</v>
       </c>
     </row>
-    <row r="95" customHeight="1" spans="1:5">
-      <c r="A95" s="1" t="s">
-        <v>378</v>
-      </c>
-      <c r="B95" s="1" t="s">
-        <v>379</v>
-      </c>
-      <c r="C95" s="1" t="s">
-        <v>380</v>
-      </c>
-      <c r="D95" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E95" s="1" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="96" customHeight="1" spans="1:5">
-      <c r="A96" s="1" t="s">
-        <v>382</v>
-      </c>
-      <c r="B96" s="1" t="s">
-        <v>383</v>
-      </c>
-      <c r="C96" s="1" t="s">
-        <v>384</v>
-      </c>
-      <c r="D96" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E96" s="1" t="s">
-        <v>385</v>
-      </c>
-    </row>
-    <row r="97" customHeight="1" spans="1:5">
-      <c r="A97" s="1" t="s">
-        <v>386</v>
-      </c>
-      <c r="B97" s="1" t="s">
-        <v>387</v>
-      </c>
-      <c r="C97" s="1" t="s">
-        <v>388</v>
-      </c>
-      <c r="D97" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E97" s="1" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="98" customHeight="1" spans="1:5">
-      <c r="A98" s="1" t="s">
-        <v>390</v>
-      </c>
-      <c r="B98" s="1" t="s">
-        <v>391</v>
-      </c>
-      <c r="C98" s="1" t="s">
-        <v>392</v>
-      </c>
-      <c r="D98" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E98" s="1" t="s">
-        <v>393</v>
-      </c>
-    </row>
-    <row r="99" customHeight="1" spans="1:5">
-      <c r="A99" s="1" t="s">
-        <v>394</v>
-      </c>
-      <c r="B99" s="1" t="s">
-        <v>395</v>
-      </c>
-      <c r="C99" s="1" t="s">
-        <v>396</v>
-      </c>
-      <c r="D99" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E99" s="1" t="s">
-        <v>397</v>
-      </c>
-    </row>
   </sheetData>
-  <autoFilter ref="A1:E99">
+  <autoFilter ref="A1:E94">
     <extLst/>
   </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/.ready/最新发布资源-维格视图.xlsx
+++ b/.ready/最新发布资源-维格视图.xlsx
@@ -10,14 +10,14 @@
     <sheet name="维格视图" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">维格视图!$A$1:$E$94</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">维格视图!$A$1:$E$86</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="470" uniqueCount="378">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="430" uniqueCount="346">
   <si>
     <t>标题</t>
   </si>
@@ -1055,102 +1055,6 @@
   </si>
   <si>
     <t>2024/03/14 05:05</t>
-  </si>
-  <si>
-    <t>【普门教育】Python数据分析</t>
-  </si>
-  <si>
-    <t>https://www.alipan.com/s/VoJDvfy7Ygb</t>
-  </si>
-  <si>
-    <t>https://pan.quark.cn/s/7de83c9b752e</t>
-  </si>
-  <si>
-    <t>2024/03/13 17:35</t>
-  </si>
-  <si>
-    <t>【蚂蚁摄影课堂】22级风光后期精英班</t>
-  </si>
-  <si>
-    <t>https://www.alipan.com/s/cW76hRcEZHm</t>
-  </si>
-  <si>
-    <t>https://pan.quark.cn/s/96990d9aa081</t>
-  </si>
-  <si>
-    <t>2024/03/13 09:44</t>
-  </si>
-  <si>
-    <t>【北风网】人工智能顶级实战工程师就业课程</t>
-  </si>
-  <si>
-    <t>https://www.alipan.com/s/Y7XUqwkVhRH</t>
-  </si>
-  <si>
-    <t>https://pan.quark.cn/s/ea2e4bd2374f</t>
-  </si>
-  <si>
-    <t>2024/03/13 07:48</t>
-  </si>
-  <si>
-    <t>【黑马程序员】集成电路应用开发(含嵌入式) 小白入门课程 - 带源码课件</t>
-  </si>
-  <si>
-    <t>https://www.alipan.com/s/kqtarvyx3PQ</t>
-  </si>
-  <si>
-    <t>https://pan.quark.cn/s/fae1d24dded3</t>
-  </si>
-  <si>
-    <t>2024/03/13 07:47</t>
-  </si>
-  <si>
-    <t>陈丫丫 - 小吃创业培训 - 2022</t>
-  </si>
-  <si>
-    <t>https://www.alipan.com/s/b7BLvrhXJf6</t>
-  </si>
-  <si>
-    <t>https://pan.quark.cn/s/5c5dbf9c2969</t>
-  </si>
-  <si>
-    <t>2024/03/12 23:11</t>
-  </si>
-  <si>
-    <t>【博光教育】影视剪辑带货全能班</t>
-  </si>
-  <si>
-    <t>https://www.alipan.com/s/VDtwWKoMEw1</t>
-  </si>
-  <si>
-    <t>https://pan.quark.cn/s/37852c1333be</t>
-  </si>
-  <si>
-    <t>2024/03/12 13:27</t>
-  </si>
-  <si>
-    <t>极客时间 - Flink 核心技术与实战</t>
-  </si>
-  <si>
-    <t>https://www.alipan.com/s/siKDmU4FS8D</t>
-  </si>
-  <si>
-    <t>https://pan.quark.cn/s/73db1dadc8af</t>
-  </si>
-  <si>
-    <t>2024/03/12 07:46</t>
-  </si>
-  <si>
-    <t>极客时间 - 玩转 Spring 全家桶</t>
-  </si>
-  <si>
-    <t>https://www.alipan.com/s/ftk4XXHrPwN</t>
-  </si>
-  <si>
-    <t>https://pan.quark.cn/s/22a17a02a31c</t>
-  </si>
-  <si>
-    <t>2024/03/12 06:22</t>
   </si>
 </sst>
 </file>
@@ -2152,10 +2056,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E94"/>
+  <dimension ref="A1:E86"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A92" workbookViewId="0">
-      <selection activeCell="B97" sqref="B97"/>
+    <sheetView tabSelected="1" topLeftCell="A85" workbookViewId="0">
+      <selection activeCell="A87" sqref="A87"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="38.6666666666667" defaultRowHeight="44.45" customHeight="1" outlineLevelCol="4"/>
@@ -3625,144 +3529,8 @@
         <v>345</v>
       </c>
     </row>
-    <row r="87" customHeight="1" spans="1:5">
-      <c r="A87" s="1" t="s">
-        <v>346</v>
-      </c>
-      <c r="B87" s="1" t="s">
-        <v>347</v>
-      </c>
-      <c r="C87" s="1" t="s">
-        <v>348</v>
-      </c>
-      <c r="D87" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E87" s="1" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="88" customHeight="1" spans="1:5">
-      <c r="A88" s="1" t="s">
-        <v>350</v>
-      </c>
-      <c r="B88" s="1" t="s">
-        <v>351</v>
-      </c>
-      <c r="C88" s="1" t="s">
-        <v>352</v>
-      </c>
-      <c r="D88" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E88" s="1" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="89" customHeight="1" spans="1:5">
-      <c r="A89" s="1" t="s">
-        <v>354</v>
-      </c>
-      <c r="B89" s="1" t="s">
-        <v>355</v>
-      </c>
-      <c r="C89" s="1" t="s">
-        <v>356</v>
-      </c>
-      <c r="D89" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E89" s="1" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="90" customHeight="1" spans="1:5">
-      <c r="A90" s="1" t="s">
-        <v>358</v>
-      </c>
-      <c r="B90" s="1" t="s">
-        <v>359</v>
-      </c>
-      <c r="C90" s="1" t="s">
-        <v>360</v>
-      </c>
-      <c r="D90" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E90" s="1" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="91" customHeight="1" spans="1:5">
-      <c r="A91" s="1" t="s">
-        <v>362</v>
-      </c>
-      <c r="B91" s="1" t="s">
-        <v>363</v>
-      </c>
-      <c r="C91" s="1" t="s">
-        <v>364</v>
-      </c>
-      <c r="D91" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E91" s="1" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="92" customHeight="1" spans="1:5">
-      <c r="A92" s="1" t="s">
-        <v>366</v>
-      </c>
-      <c r="B92" s="1" t="s">
-        <v>367</v>
-      </c>
-      <c r="C92" s="1" t="s">
-        <v>368</v>
-      </c>
-      <c r="D92" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E92" s="1" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="93" customHeight="1" spans="1:5">
-      <c r="A93" s="1" t="s">
-        <v>370</v>
-      </c>
-      <c r="B93" s="1" t="s">
-        <v>371</v>
-      </c>
-      <c r="C93" s="1" t="s">
-        <v>372</v>
-      </c>
-      <c r="D93" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E93" s="1" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="94" customHeight="1" spans="1:5">
-      <c r="A94" s="1" t="s">
-        <v>374</v>
-      </c>
-      <c r="B94" s="1" t="s">
-        <v>375</v>
-      </c>
-      <c r="C94" s="1" t="s">
-        <v>376</v>
-      </c>
-      <c r="D94" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E94" s="1" t="s">
-        <v>377</v>
-      </c>
-    </row>
   </sheetData>
-  <autoFilter ref="A1:E94">
+  <autoFilter ref="A1:E86">
     <extLst/>
   </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/.ready/最新发布资源-维格视图.xlsx
+++ b/.ready/最新发布资源-维格视图.xlsx
@@ -10,14 +10,14 @@
     <sheet name="维格视图" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">维格视图!$A$1:$E$86</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">维格视图!$A$1:$E$79</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="430" uniqueCount="346">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="395" uniqueCount="318">
   <si>
     <t>标题</t>
   </si>
@@ -971,90 +971,6 @@
   </si>
   <si>
     <t>2024/03/15 10:34</t>
-  </si>
-  <si>
-    <t>守夜人Jaden - 2023网络安全攻防渗透大师课 - 带源码课件</t>
-  </si>
-  <si>
-    <t>https://www.alipan.com/s/LWiHPZeeXUo</t>
-  </si>
-  <si>
-    <t>https://pan.quark.cn/s/b9fb36913564</t>
-  </si>
-  <si>
-    <t>2024/03/15 07:57</t>
-  </si>
-  <si>
-    <t>B站 - PS异闻录：萌新系统入门课 - 带源码课件</t>
-  </si>
-  <si>
-    <t>https://www.alipan.com/s/NZDdYZqiPNf</t>
-  </si>
-  <si>
-    <t>https://pan.quark.cn/s/5fd1ba896b3c</t>
-  </si>
-  <si>
-    <t>2024/03/15 05:29</t>
-  </si>
-  <si>
-    <t>B站 - 北大陈连山教授解读宝藏《山海经》</t>
-  </si>
-  <si>
-    <t>https://www.alipan.com/s/gu8P7BKL6T5</t>
-  </si>
-  <si>
-    <t>https://pan.quark.cn/s/c2493ddc7eae</t>
-  </si>
-  <si>
-    <t>2024/03/14 18:03</t>
-  </si>
-  <si>
-    <t>LAMP兄弟连 - MySQL特级课视频教程</t>
-  </si>
-  <si>
-    <t>https://www.alipan.com/s/oh8vuQGXa2y</t>
-  </si>
-  <si>
-    <t>https://pan.quark.cn/s/a53a9472c280</t>
-  </si>
-  <si>
-    <t>2024/03/14 16:40</t>
-  </si>
-  <si>
-    <t>跟全球iPhone摄影大赛“年度最佳摄影师”学手机摄影</t>
-  </si>
-  <si>
-    <t>https://www.alipan.com/s/V99zwgnKBa5</t>
-  </si>
-  <si>
-    <t>https://pan.quark.cn/s/cd3bec748742</t>
-  </si>
-  <si>
-    <t>2024/03/14 12:31</t>
-  </si>
-  <si>
-    <t>【开课吧】门徒计划 - Web前端方向</t>
-  </si>
-  <si>
-    <t>https://www.alipan.com/s/MwvLvBiXWjq</t>
-  </si>
-  <si>
-    <t>https://pan.quark.cn/s/fdc6d42c0a17</t>
-  </si>
-  <si>
-    <t>2024/03/14 08:47</t>
-  </si>
-  <si>
-    <t>腾讯课堂 - iOS Flutter高级进阶班级 - 带源码课件</t>
-  </si>
-  <si>
-    <t>https://www.alipan.com/s/khjc7sktNxz</t>
-  </si>
-  <si>
-    <t>https://pan.quark.cn/s/31d62545d793</t>
-  </si>
-  <si>
-    <t>2024/03/14 05:05</t>
   </si>
 </sst>
 </file>
@@ -2056,10 +1972,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E86"/>
+  <dimension ref="A1:E79"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A85" workbookViewId="0">
-      <selection activeCell="A87" sqref="A87"/>
+    <sheetView tabSelected="1" topLeftCell="A77" workbookViewId="0">
+      <selection activeCell="B82" sqref="B82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="38.6666666666667" defaultRowHeight="44.45" customHeight="1" outlineLevelCol="4"/>
@@ -3410,127 +3326,8 @@
         <v>317</v>
       </c>
     </row>
-    <row r="80" customHeight="1" spans="1:5">
-      <c r="A80" s="1" t="s">
-        <v>318</v>
-      </c>
-      <c r="B80" s="1" t="s">
-        <v>319</v>
-      </c>
-      <c r="C80" s="1" t="s">
-        <v>320</v>
-      </c>
-      <c r="D80" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E80" s="1" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="81" customHeight="1" spans="1:5">
-      <c r="A81" s="1" t="s">
-        <v>322</v>
-      </c>
-      <c r="B81" s="1" t="s">
-        <v>323</v>
-      </c>
-      <c r="C81" s="1" t="s">
-        <v>324</v>
-      </c>
-      <c r="D81" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E81" s="1" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="82" customHeight="1" spans="1:5">
-      <c r="A82" s="1" t="s">
-        <v>326</v>
-      </c>
-      <c r="B82" s="1" t="s">
-        <v>327</v>
-      </c>
-      <c r="C82" s="1" t="s">
-        <v>328</v>
-      </c>
-      <c r="D82" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E82" s="1" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="83" customHeight="1" spans="1:5">
-      <c r="A83" s="1" t="s">
-        <v>330</v>
-      </c>
-      <c r="B83" s="1" t="s">
-        <v>331</v>
-      </c>
-      <c r="C83" s="1" t="s">
-        <v>332</v>
-      </c>
-      <c r="D83" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E83" s="1" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="84" customHeight="1" spans="1:5">
-      <c r="A84" s="1" t="s">
-        <v>334</v>
-      </c>
-      <c r="B84" s="1" t="s">
-        <v>335</v>
-      </c>
-      <c r="C84" s="1" t="s">
-        <v>336</v>
-      </c>
-      <c r="D84" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E84" s="1" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="85" customHeight="1" spans="1:5">
-      <c r="A85" s="1" t="s">
-        <v>338</v>
-      </c>
-      <c r="B85" s="1" t="s">
-        <v>339</v>
-      </c>
-      <c r="C85" s="1" t="s">
-        <v>340</v>
-      </c>
-      <c r="D85" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E85" s="1" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="86" customHeight="1" spans="1:5">
-      <c r="A86" s="1" t="s">
-        <v>342</v>
-      </c>
-      <c r="B86" s="1" t="s">
-        <v>343</v>
-      </c>
-      <c r="C86" s="1" t="s">
-        <v>344</v>
-      </c>
-      <c r="D86" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E86" s="1" t="s">
-        <v>345</v>
-      </c>
-    </row>
   </sheetData>
-  <autoFilter ref="A1:E86">
+  <autoFilter ref="A1:E79">
     <extLst/>
   </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/.ready/最新发布资源-维格视图.xlsx
+++ b/.ready/最新发布资源-维格视图.xlsx
@@ -1,23 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28324"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Project\memo\.ready\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08274ECB-52B6-451D-919D-5CEAAA485EC6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="9300"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="19095" windowHeight="12075" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="维格视图" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">维格视图!$A$1:$E$79</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">维格视图!$A$1:$E$78</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="395" uniqueCount="318">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="390" uniqueCount="314">
   <si>
     <t>标题</t>
   </si>
@@ -959,31 +965,13 @@
   </si>
   <si>
     <t>2024/03/15 17:33</t>
-  </si>
-  <si>
-    <t>极客时间 - 从 0 开发一款 iOS App</t>
-  </si>
-  <si>
-    <t>https://www.alipan.com/s/jAoj7hrMK1L</t>
-  </si>
-  <si>
-    <t>https://pan.quark.cn/s/9e640408e37b</t>
-  </si>
-  <si>
-    <t>2024/03/15 10:34</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="20">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -992,345 +980,21 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
+      <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="33">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="9">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -1338,251 +1002,9 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -1590,61 +1012,85 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1658,7 +1104,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr val="window" lastClr="CCE8CF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -1966,24 +1412,24 @@
       </a:style>
     </a:lnDef>
   </a:objectDefaults>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:E79"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:E78"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A77" workbookViewId="0">
-      <selection activeCell="B82" sqref="B82"/>
+    <sheetView tabSelected="1" topLeftCell="A73" workbookViewId="0">
+      <selection activeCell="B78" sqref="B78"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="38.6666666666667" defaultRowHeight="44.45" customHeight="1" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="38.6640625" defaultRowHeight="44.45" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="16384" width="38.6666666666667" style="1"/>
+    <col min="1" max="16384" width="38.6640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" customHeight="1" spans="1:5">
+    <row r="1" spans="1:5" ht="44.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2000,7 +1446,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" customHeight="1" spans="1:5">
+    <row r="2" spans="1:5" ht="44.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>5</v>
       </c>
@@ -2017,7 +1463,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" customHeight="1" spans="1:5">
+    <row r="3" spans="1:5" ht="44.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>10</v>
       </c>
@@ -2034,7 +1480,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" customHeight="1" spans="1:5">
+    <row r="4" spans="1:5" ht="44.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>14</v>
       </c>
@@ -2051,7 +1497,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="5" customHeight="1" spans="1:5">
+    <row r="5" spans="1:5" ht="44.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>18</v>
       </c>
@@ -2068,7 +1514,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="6" customHeight="1" spans="1:5">
+    <row r="6" spans="1:5" ht="44.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>22</v>
       </c>
@@ -2085,7 +1531,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="7" customHeight="1" spans="1:5">
+    <row r="7" spans="1:5" ht="44.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>26</v>
       </c>
@@ -2102,7 +1548,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="8" customHeight="1" spans="1:5">
+    <row r="8" spans="1:5" ht="44.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>30</v>
       </c>
@@ -2119,7 +1565,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="9" customHeight="1" spans="1:5">
+    <row r="9" spans="1:5" ht="44.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>34</v>
       </c>
@@ -2136,7 +1582,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="10" customHeight="1" spans="1:5">
+    <row r="10" spans="1:5" ht="44.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>38</v>
       </c>
@@ -2153,7 +1599,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="11" customHeight="1" spans="1:5">
+    <row r="11" spans="1:5" ht="44.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>42</v>
       </c>
@@ -2170,7 +1616,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="12" customHeight="1" spans="1:5">
+    <row r="12" spans="1:5" ht="44.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>46</v>
       </c>
@@ -2187,7 +1633,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="13" customHeight="1" spans="1:5">
+    <row r="13" spans="1:5" ht="44.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>50</v>
       </c>
@@ -2204,7 +1650,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="14" customHeight="1" spans="1:5">
+    <row r="14" spans="1:5" ht="44.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>54</v>
       </c>
@@ -2221,7 +1667,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="15" customHeight="1" spans="1:5">
+    <row r="15" spans="1:5" ht="44.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>58</v>
       </c>
@@ -2238,7 +1684,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="16" customHeight="1" spans="1:5">
+    <row r="16" spans="1:5" ht="44.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>62</v>
       </c>
@@ -2255,7 +1701,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="17" customHeight="1" spans="1:5">
+    <row r="17" spans="1:5" ht="44.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>66</v>
       </c>
@@ -2272,7 +1718,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="18" customHeight="1" spans="1:5">
+    <row r="18" spans="1:5" ht="44.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>70</v>
       </c>
@@ -2289,7 +1735,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="19" customHeight="1" spans="1:5">
+    <row r="19" spans="1:5" ht="44.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
         <v>74</v>
       </c>
@@ -2306,7 +1752,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="20" customHeight="1" spans="1:5">
+    <row r="20" spans="1:5" ht="44.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
         <v>78</v>
       </c>
@@ -2323,7 +1769,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="21" customHeight="1" spans="1:5">
+    <row r="21" spans="1:5" ht="44.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
         <v>82</v>
       </c>
@@ -2340,7 +1786,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="22" customHeight="1" spans="1:5">
+    <row r="22" spans="1:5" ht="44.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
         <v>86</v>
       </c>
@@ -2357,7 +1803,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="23" customHeight="1" spans="1:5">
+    <row r="23" spans="1:5" ht="44.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
         <v>90</v>
       </c>
@@ -2374,7 +1820,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="24" customHeight="1" spans="1:5">
+    <row r="24" spans="1:5" ht="44.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
         <v>94</v>
       </c>
@@ -2391,7 +1837,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="25" customHeight="1" spans="1:5">
+    <row r="25" spans="1:5" ht="44.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
         <v>98</v>
       </c>
@@ -2408,7 +1854,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="26" customHeight="1" spans="1:5">
+    <row r="26" spans="1:5" ht="44.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
         <v>102</v>
       </c>
@@ -2425,7 +1871,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="27" customHeight="1" spans="1:5">
+    <row r="27" spans="1:5" ht="44.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
         <v>106</v>
       </c>
@@ -2442,7 +1888,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="28" customHeight="1" spans="1:5">
+    <row r="28" spans="1:5" ht="44.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
         <v>110</v>
       </c>
@@ -2459,7 +1905,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="29" customHeight="1" spans="1:5">
+    <row r="29" spans="1:5" ht="44.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
         <v>114</v>
       </c>
@@ -2476,7 +1922,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="30" customHeight="1" spans="1:5">
+    <row r="30" spans="1:5" ht="44.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
         <v>118</v>
       </c>
@@ -2493,7 +1939,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="31" customHeight="1" spans="1:5">
+    <row r="31" spans="1:5" ht="44.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
         <v>122</v>
       </c>
@@ -2510,7 +1956,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="32" customHeight="1" spans="1:5">
+    <row r="32" spans="1:5" ht="44.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
         <v>126</v>
       </c>
@@ -2527,7 +1973,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="33" customHeight="1" spans="1:5">
+    <row r="33" spans="1:5" ht="44.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="1" t="s">
         <v>130</v>
       </c>
@@ -2544,7 +1990,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="34" customHeight="1" spans="1:5">
+    <row r="34" spans="1:5" ht="44.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
         <v>134</v>
       </c>
@@ -2561,7 +2007,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="35" customHeight="1" spans="1:5">
+    <row r="35" spans="1:5" ht="44.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="1" t="s">
         <v>138</v>
       </c>
@@ -2578,7 +2024,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="36" customHeight="1" spans="1:5">
+    <row r="36" spans="1:5" ht="44.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="1" t="s">
         <v>142</v>
       </c>
@@ -2595,7 +2041,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="37" customHeight="1" spans="1:5">
+    <row r="37" spans="1:5" ht="44.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="1" t="s">
         <v>146</v>
       </c>
@@ -2612,7 +2058,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="38" customHeight="1" spans="1:5">
+    <row r="38" spans="1:5" ht="44.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="1" t="s">
         <v>150</v>
       </c>
@@ -2629,7 +2075,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="39" customHeight="1" spans="1:5">
+    <row r="39" spans="1:5" ht="44.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
         <v>154</v>
       </c>
@@ -2646,7 +2092,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="40" customHeight="1" spans="1:5">
+    <row r="40" spans="1:5" ht="44.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
         <v>158</v>
       </c>
@@ -2663,7 +2109,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="41" customHeight="1" spans="1:5">
+    <row r="41" spans="1:5" ht="44.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="1" t="s">
         <v>162</v>
       </c>
@@ -2680,7 +2126,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="42" customHeight="1" spans="1:5">
+    <row r="42" spans="1:5" ht="44.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="1" t="s">
         <v>166</v>
       </c>
@@ -2697,7 +2143,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="43" customHeight="1" spans="1:5">
+    <row r="43" spans="1:5" ht="44.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="1" t="s">
         <v>170</v>
       </c>
@@ -2714,7 +2160,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="44" customHeight="1" spans="1:5">
+    <row r="44" spans="1:5" ht="44.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" s="1" t="s">
         <v>174</v>
       </c>
@@ -2731,7 +2177,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="45" customHeight="1" spans="1:5">
+    <row r="45" spans="1:5" ht="44.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" s="1" t="s">
         <v>178</v>
       </c>
@@ -2748,7 +2194,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="46" customHeight="1" spans="1:5">
+    <row r="46" spans="1:5" ht="44.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" s="1" t="s">
         <v>182</v>
       </c>
@@ -2765,7 +2211,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="47" customHeight="1" spans="1:5">
+    <row r="47" spans="1:5" ht="44.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" s="1" t="s">
         <v>186</v>
       </c>
@@ -2782,7 +2228,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="48" customHeight="1" spans="1:5">
+    <row r="48" spans="1:5" ht="44.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48" s="1" t="s">
         <v>190</v>
       </c>
@@ -2799,7 +2245,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="49" customHeight="1" spans="1:5">
+    <row r="49" spans="1:5" ht="44.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49" s="1" t="s">
         <v>194</v>
       </c>
@@ -2816,7 +2262,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="50" customHeight="1" spans="1:5">
+    <row r="50" spans="1:5" ht="44.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A50" s="1" t="s">
         <v>198</v>
       </c>
@@ -2833,7 +2279,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="51" customHeight="1" spans="1:5">
+    <row r="51" spans="1:5" ht="44.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A51" s="1" t="s">
         <v>202</v>
       </c>
@@ -2850,7 +2296,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="52" customHeight="1" spans="1:5">
+    <row r="52" spans="1:5" ht="44.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A52" s="1" t="s">
         <v>206</v>
       </c>
@@ -2867,7 +2313,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="53" customHeight="1" spans="1:5">
+    <row r="53" spans="1:5" ht="44.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A53" s="1" t="s">
         <v>210</v>
       </c>
@@ -2884,7 +2330,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="54" customHeight="1" spans="1:5">
+    <row r="54" spans="1:5" ht="44.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A54" s="1" t="s">
         <v>214</v>
       </c>
@@ -2901,7 +2347,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="55" customHeight="1" spans="1:5">
+    <row r="55" spans="1:5" ht="44.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A55" s="1" t="s">
         <v>218</v>
       </c>
@@ -2918,7 +2364,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="56" customHeight="1" spans="1:5">
+    <row r="56" spans="1:5" ht="44.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A56" s="1" t="s">
         <v>222</v>
       </c>
@@ -2935,7 +2381,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="57" customHeight="1" spans="1:5">
+    <row r="57" spans="1:5" ht="44.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A57" s="1" t="s">
         <v>226</v>
       </c>
@@ -2952,7 +2398,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="58" customHeight="1" spans="1:5">
+    <row r="58" spans="1:5" ht="44.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A58" s="1" t="s">
         <v>230</v>
       </c>
@@ -2969,7 +2415,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="59" customHeight="1" spans="1:5">
+    <row r="59" spans="1:5" ht="44.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A59" s="1" t="s">
         <v>234</v>
       </c>
@@ -2986,7 +2432,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="60" customHeight="1" spans="1:5">
+    <row r="60" spans="1:5" ht="44.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A60" s="1" t="s">
         <v>238</v>
       </c>
@@ -3003,7 +2449,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="61" customHeight="1" spans="1:5">
+    <row r="61" spans="1:5" ht="44.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A61" s="1" t="s">
         <v>242</v>
       </c>
@@ -3020,7 +2466,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="62" customHeight="1" spans="1:5">
+    <row r="62" spans="1:5" ht="44.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A62" s="1" t="s">
         <v>246</v>
       </c>
@@ -3037,7 +2483,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="63" customHeight="1" spans="1:5">
+    <row r="63" spans="1:5" ht="44.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A63" s="1" t="s">
         <v>250</v>
       </c>
@@ -3054,7 +2500,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="64" customHeight="1" spans="1:5">
+    <row r="64" spans="1:5" ht="44.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A64" s="1" t="s">
         <v>254</v>
       </c>
@@ -3071,7 +2517,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="65" customHeight="1" spans="1:5">
+    <row r="65" spans="1:5" ht="44.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A65" s="1" t="s">
         <v>258</v>
       </c>
@@ -3088,7 +2534,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="66" customHeight="1" spans="1:5">
+    <row r="66" spans="1:5" ht="44.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A66" s="1" t="s">
         <v>262</v>
       </c>
@@ -3105,7 +2551,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="67" customHeight="1" spans="1:5">
+    <row r="67" spans="1:5" ht="44.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A67" s="1" t="s">
         <v>266</v>
       </c>
@@ -3122,7 +2568,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="68" customHeight="1" spans="1:5">
+    <row r="68" spans="1:5" ht="44.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A68" s="1" t="s">
         <v>270</v>
       </c>
@@ -3139,7 +2585,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="69" customHeight="1" spans="1:5">
+    <row r="69" spans="1:5" ht="44.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A69" s="1" t="s">
         <v>274</v>
       </c>
@@ -3156,7 +2602,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="70" customHeight="1" spans="1:5">
+    <row r="70" spans="1:5" ht="44.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A70" s="1" t="s">
         <v>278</v>
       </c>
@@ -3173,7 +2619,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="71" customHeight="1" spans="1:5">
+    <row r="71" spans="1:5" ht="44.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A71" s="1" t="s">
         <v>282</v>
       </c>
@@ -3190,7 +2636,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="72" customHeight="1" spans="1:5">
+    <row r="72" spans="1:5" ht="44.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A72" s="1" t="s">
         <v>286</v>
       </c>
@@ -3207,7 +2653,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="73" customHeight="1" spans="1:5">
+    <row r="73" spans="1:5" ht="44.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A73" s="1" t="s">
         <v>290</v>
       </c>
@@ -3224,7 +2670,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="74" customHeight="1" spans="1:5">
+    <row r="74" spans="1:5" ht="44.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A74" s="1" t="s">
         <v>294</v>
       </c>
@@ -3241,7 +2687,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="75" customHeight="1" spans="1:5">
+    <row r="75" spans="1:5" ht="44.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A75" s="1" t="s">
         <v>298</v>
       </c>
@@ -3258,7 +2704,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="76" customHeight="1" spans="1:5">
+    <row r="76" spans="1:5" ht="44.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A76" s="1" t="s">
         <v>302</v>
       </c>
@@ -3275,7 +2721,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="77" customHeight="1" spans="1:5">
+    <row r="77" spans="1:5" ht="44.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A77" s="1" t="s">
         <v>306</v>
       </c>
@@ -3292,7 +2738,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="78" customHeight="1" spans="1:5">
+    <row r="78" spans="1:5" ht="44.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A78" s="1" t="s">
         <v>310</v>
       </c>
@@ -3309,29 +2755,10 @@
         <v>313</v>
       </c>
     </row>
-    <row r="79" customHeight="1" spans="1:5">
-      <c r="A79" s="1" t="s">
-        <v>314</v>
-      </c>
-      <c r="B79" s="1" t="s">
-        <v>315</v>
-      </c>
-      <c r="C79" s="1" t="s">
-        <v>316</v>
-      </c>
-      <c r="D79" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E79" s="1" t="s">
-        <v>317</v>
-      </c>
-    </row>
   </sheetData>
-  <autoFilter ref="A1:E79">
-    <extLst/>
-  </autoFilter>
+  <autoFilter ref="A1:E78" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="1" orientation="portrait"/>
-  <headerFooter/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>